--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\iwdna1a\users\TWageman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99769553-67A9-4508-89A0-F9C564015319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="910">
   <si>
     <t>Company</t>
   </si>
@@ -2753,13 +2754,19 @@
     <t xml:space="preserve">Siemens Gamesa Renewable Engergy Inc </t>
   </si>
   <si>
-    <t>03/09/2022</t>
+    <t>02/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2377 Daec Rd </t>
+  </si>
+  <si>
+    <t>03/07/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3099,30 +3106,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z900"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD5"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K298" sqref="K298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.59765625" customWidth="1"/>
+    <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -17410,7 +17417,7 @@
         <v>907</v>
       </c>
       <c r="J298" s="10">
-        <v>44629</v>
+        <v>44601</v>
       </c>
       <c r="K298" s="15"/>
       <c r="L298" s="15"/>
@@ -17430,16 +17437,36 @@
       <c r="Z298" s="15"/>
     </row>
     <row r="299" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A299" s="15"/>
-      <c r="B299" s="15"/>
-      <c r="C299" s="15"/>
-      <c r="D299" s="15"/>
-      <c r="E299" s="15"/>
-      <c r="F299" s="15"/>
-      <c r="G299" s="15"/>
-      <c r="H299" s="15"/>
-      <c r="I299" s="16"/>
-      <c r="J299" s="15"/>
+      <c r="A299" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="B299" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="D299" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F299" s="15">
+        <v>52324</v>
+      </c>
+      <c r="G299" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H299" s="15">
+        <v>61</v>
+      </c>
+      <c r="I299" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="J299" s="10">
+        <v>44694</v>
+      </c>
       <c r="K299" s="15"/>
       <c r="L299" s="15"/>
       <c r="M299" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E04321D5-E87F-45BA-A24E-3A2A34098870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9004AAA2-7480-4B36-9876-A9A9C459625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="914">
   <si>
     <t>Company</t>
   </si>
@@ -2758,6 +2758,21 @@
   </si>
   <si>
     <t>04/05/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabil Inc </t>
+  </si>
+  <si>
+    <t>400 N Harvey Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mount Pleasant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry </t>
+  </si>
+  <si>
+    <t>04/12/2022</t>
   </si>
 </sst>
 </file>
@@ -3122,8 +3137,8 @@
   <dimension ref="A1:Z895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD5"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K297" sqref="K297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -17350,16 +17365,36 @@
       <c r="Z296" s="15"/>
     </row>
     <row r="297" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A297" s="23"/>
-      <c r="B297" s="15"/>
-      <c r="C297" s="15"/>
-      <c r="D297" s="15"/>
-      <c r="E297" s="15"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
-      <c r="H297" s="15"/>
-      <c r="I297" s="16"/>
-      <c r="J297" s="15"/>
+      <c r="A297" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="D297" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="E297" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="F297" s="15">
+        <v>52641</v>
+      </c>
+      <c r="G297" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="H297" s="15">
+        <v>67</v>
+      </c>
+      <c r="I297" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="J297" s="10">
+        <v>44742</v>
+      </c>
       <c r="K297" s="15"/>
       <c r="L297" s="15"/>
       <c r="M297" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BDAB896-A2FC-43B2-A9F7-62430317EB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DAC85A-A4F6-49E5-AA43-3B337D36F7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="913">
   <si>
     <t>Company</t>
   </si>
@@ -2761,6 +2761,15 @@
   </si>
   <si>
     <t>04/21/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durham School Services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 S.E. Oak </t>
+  </si>
+  <si>
+    <t>04/27/2022</t>
   </si>
 </sst>
 </file>
@@ -3125,8 +3134,8 @@
   <dimension ref="A1:Z892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K297" sqref="K297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -17353,16 +17362,36 @@
       <c r="Z296" s="15"/>
     </row>
     <row r="297" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A297" s="23"/>
-      <c r="B297" s="15"/>
-      <c r="C297" s="15"/>
-      <c r="D297" s="15"/>
-      <c r="E297" s="15"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
-      <c r="H297" s="15"/>
-      <c r="I297" s="16"/>
-      <c r="J297" s="15"/>
+      <c r="A297" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D297" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E297" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="F297" s="15">
+        <v>50021</v>
+      </c>
+      <c r="G297" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H297" s="15">
+        <v>138</v>
+      </c>
+      <c r="I297" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="J297" s="10">
+        <v>44742</v>
+      </c>
       <c r="K297" s="15"/>
       <c r="L297" s="15"/>
       <c r="M297" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DAC85A-A4F6-49E5-AA43-3B337D36F7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0CD3164-9C54-49A9-9152-AF5038A2A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="917">
   <si>
     <t>Company</t>
   </si>
@@ -2770,6 +2770,18 @@
   </si>
   <si>
     <t>04/27/2022</t>
+  </si>
+  <si>
+    <t>divvyDOSE</t>
+  </si>
+  <si>
+    <t>201 N. Harrison St</t>
+  </si>
+  <si>
+    <t>Mayss Layoff</t>
+  </si>
+  <si>
+    <t>04/29/2022</t>
   </si>
 </sst>
 </file>
@@ -3134,8 +3146,8 @@
   <dimension ref="A1:Z892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K297" sqref="K297"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K298" sqref="K298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -17410,16 +17422,36 @@
       <c r="Z297" s="15"/>
     </row>
     <row r="298" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A298" s="23"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="15"/>
-      <c r="E298" s="15"/>
-      <c r="F298" s="15"/>
-      <c r="G298" s="15"/>
-      <c r="H298" s="15"/>
-      <c r="I298" s="16"/>
-      <c r="J298" s="15"/>
+      <c r="A298" s="23" t="s">
+        <v>913</v>
+      </c>
+      <c r="B298" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D298" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E298" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F298" s="15">
+        <v>52801</v>
+      </c>
+      <c r="G298" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="H298" s="15">
+        <v>62</v>
+      </c>
+      <c r="I298" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="J298" s="10">
+        <v>44710</v>
+      </c>
       <c r="K298" s="15"/>
       <c r="L298" s="15"/>
       <c r="M298" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661F4A6-EA63-4C88-956B-CEC8FB922A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70735114-9677-4C32-883E-35EA8C36C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="2160" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="922">
   <si>
     <t>Company</t>
   </si>
@@ -2788,6 +2789,15 @@
   </si>
   <si>
     <t xml:space="preserve">Burlington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wells Fargo </t>
+  </si>
+  <si>
+    <t>05/05/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Walnut St. 801 Walnut St. 206 8th St </t>
   </si>
 </sst>
 </file>
@@ -2798,7 +2808,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3152,26 +3162,26 @@
   <dimension ref="A1:Z891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" customWidth="1"/>
-    <col min="5" max="5" width="4.08203125" customWidth="1"/>
-    <col min="6" max="6" width="7.58203125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.58203125" customWidth="1"/>
+    <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3219,7 +3229,7 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3267,7 +3277,7 @@
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -3315,7 +3325,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -3363,7 +3373,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -3411,7 +3421,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -3459,7 +3469,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -3507,7 +3517,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -3555,7 +3565,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -3603,7 +3613,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -3651,7 +3661,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -3699,7 +3709,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -3747,7 +3757,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -3795,7 +3805,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -3843,7 +3853,7 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -3891,7 +3901,7 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3939,7 +3949,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -3987,7 +3997,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
@@ -4035,7 +4045,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -4083,7 +4093,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -4131,7 +4141,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -4179,7 +4189,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>94</v>
       </c>
@@ -4227,7 +4237,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>100</v>
       </c>
@@ -4275,7 +4285,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>103</v>
       </c>
@@ -4323,7 +4333,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="14.25" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>108</v>
       </c>
@@ -4371,7 +4381,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>113</v>
       </c>
@@ -4419,7 +4429,7 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>118</v>
       </c>
@@ -4467,7 +4477,7 @@
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -4515,7 +4525,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>123</v>
       </c>
@@ -4563,7 +4573,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="14.25" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>126</v>
       </c>
@@ -4611,7 +4621,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="14.25" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>129</v>
       </c>
@@ -4659,7 +4669,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="14.25" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>132</v>
       </c>
@@ -4707,7 +4717,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="14.25" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>138</v>
       </c>
@@ -4755,7 +4765,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="14.25" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>143</v>
       </c>
@@ -4803,7 +4813,7 @@
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
     </row>
-    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="14.25" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>147</v>
       </c>
@@ -4851,7 +4861,7 @@
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
     </row>
-    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="14.25" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
@@ -4899,7 +4909,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="14.25" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>154</v>
       </c>
@@ -4947,7 +4957,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="14.25" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -4995,7 +5005,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="14.25" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
@@ -5043,7 +5053,7 @@
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
     </row>
-    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>163</v>
       </c>
@@ -5091,7 +5101,7 @@
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
     </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>165</v>
       </c>
@@ -5139,7 +5149,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="14.25" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>168</v>
       </c>
@@ -5187,7 +5197,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="14.25" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>172</v>
       </c>
@@ -5235,7 +5245,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="14.25" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>138</v>
       </c>
@@ -5283,7 +5293,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
     </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="14.25" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>177</v>
       </c>
@@ -5331,7 +5341,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="14.25" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>180</v>
       </c>
@@ -5379,7 +5389,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="14.25" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>186</v>
       </c>
@@ -5427,7 +5437,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="14.25" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>165</v>
       </c>
@@ -5475,7 +5485,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
     </row>
-    <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="14.25" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>165</v>
       </c>
@@ -5523,7 +5533,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="14.25" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>165</v>
       </c>
@@ -5571,7 +5581,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="14.25" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>165</v>
       </c>
@@ -5619,7 +5629,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="14.25" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>165</v>
       </c>
@@ -5667,7 +5677,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="14.25" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>165</v>
       </c>
@@ -5715,7 +5725,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="14.25" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>165</v>
       </c>
@@ -5763,7 +5773,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="14.25" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>165</v>
       </c>
@@ -5811,7 +5821,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="14.25" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>207</v>
       </c>
@@ -5859,7 +5869,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="14.25" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>211</v>
       </c>
@@ -5907,7 +5917,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="14.25" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>212</v>
       </c>
@@ -5955,7 +5965,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="14.25" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>218</v>
       </c>
@@ -6003,7 +6013,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="14.25" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>138</v>
       </c>
@@ -6051,7 +6061,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="14.25" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>223</v>
       </c>
@@ -6099,7 +6109,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="14.25" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>23</v>
       </c>
@@ -6147,7 +6157,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="14.25" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>211</v>
       </c>
@@ -6195,7 +6205,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="14.25" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>233</v>
       </c>
@@ -6243,7 +6253,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="14.25" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -6291,7 +6301,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="14.25" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>236</v>
       </c>
@@ -6339,7 +6349,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="14.25" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>240</v>
       </c>
@@ -6387,7 +6397,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="14.25" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>243</v>
       </c>
@@ -6435,7 +6445,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="14.25" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>249</v>
       </c>
@@ -6483,7 +6493,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="14.25" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>253</v>
       </c>
@@ -6531,7 +6541,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="14.25" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>257</v>
       </c>
@@ -6579,7 +6589,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="14.25" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -6627,7 +6637,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="14.25" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>262</v>
       </c>
@@ -6675,7 +6685,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="14.25" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>266</v>
       </c>
@@ -6723,7 +6733,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="14.25" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>211</v>
       </c>
@@ -6771,7 +6781,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="14.25" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>233</v>
       </c>
@@ -6819,7 +6829,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="14.25" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>23</v>
       </c>
@@ -6867,7 +6877,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="14.25" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>272</v>
       </c>
@@ -6915,7 +6925,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="14.25" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>278</v>
       </c>
@@ -6963,7 +6973,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="14.25" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>284</v>
       </c>
@@ -7011,7 +7021,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="14.25" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>288</v>
       </c>
@@ -7059,7 +7069,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="14.25" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>47</v>
       </c>
@@ -7107,7 +7117,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="14.25" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>138</v>
       </c>
@@ -7155,7 +7165,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="14.25" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>294</v>
       </c>
@@ -7203,7 +7213,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="14.25" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>298</v>
       </c>
@@ -7251,7 +7261,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="14.25" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>301</v>
       </c>
@@ -7299,7 +7309,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="14.25" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>23</v>
       </c>
@@ -7347,7 +7357,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="14.25" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>308</v>
       </c>
@@ -7395,7 +7405,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="14.25" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>311</v>
       </c>
@@ -7443,7 +7453,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="14.25" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>315</v>
       </c>
@@ -7491,7 +7501,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="14.25" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>321</v>
       </c>
@@ -7539,7 +7549,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="14.25" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>37</v>
       </c>
@@ -7587,7 +7597,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="14.25" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>37</v>
       </c>
@@ -7635,7 +7645,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="14.25" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>37</v>
       </c>
@@ -7683,7 +7693,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="14.25" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>335</v>
       </c>
@@ -7731,7 +7741,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="14.25" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>154</v>
       </c>
@@ -7779,7 +7789,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="14.25" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>138</v>
       </c>
@@ -7827,7 +7837,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="14.25" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>345</v>
       </c>
@@ -7875,7 +7885,7 @@
       <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
     </row>
-    <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="14.25" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>47</v>
       </c>
@@ -7923,7 +7933,7 @@
       <c r="Y99" s="15"/>
       <c r="Z99" s="15"/>
     </row>
-    <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="14.25" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>47</v>
       </c>
@@ -7971,7 +7981,7 @@
       <c r="Y100" s="15"/>
       <c r="Z100" s="15"/>
     </row>
-    <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="14.25" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>138</v>
       </c>
@@ -8019,7 +8029,7 @@
       <c r="Y101" s="15"/>
       <c r="Z101" s="15"/>
     </row>
-    <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" ht="14.25" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>350</v>
       </c>
@@ -8067,7 +8077,7 @@
       <c r="Y102" s="15"/>
       <c r="Z102" s="15"/>
     </row>
-    <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="14.25" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>211</v>
       </c>
@@ -8115,7 +8125,7 @@
       <c r="Y103" s="15"/>
       <c r="Z103" s="15"/>
     </row>
-    <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" ht="14.25" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>233</v>
       </c>
@@ -8163,7 +8173,7 @@
       <c r="Y104" s="15"/>
       <c r="Z104" s="15"/>
     </row>
-    <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="14.25" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>211</v>
       </c>
@@ -8211,7 +8221,7 @@
       <c r="Y105" s="15"/>
       <c r="Z105" s="15"/>
     </row>
-    <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="14.25" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>138</v>
       </c>
@@ -8259,7 +8269,7 @@
       <c r="Y106" s="15"/>
       <c r="Z106" s="15"/>
     </row>
-    <row r="107" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="14.25" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>350</v>
       </c>
@@ -8307,7 +8317,7 @@
       <c r="Y107" s="15"/>
       <c r="Z107" s="15"/>
     </row>
-    <row r="108" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="14.25" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>47</v>
       </c>
@@ -8355,7 +8365,7 @@
       <c r="Y108" s="15"/>
       <c r="Z108" s="15"/>
     </row>
-    <row r="109" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" ht="14.25" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>358</v>
       </c>
@@ -8403,7 +8413,7 @@
       <c r="Y109" s="15"/>
       <c r="Z109" s="15"/>
     </row>
-    <row r="110" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" ht="14.25" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>361</v>
       </c>
@@ -8451,7 +8461,7 @@
       <c r="Y110" s="15"/>
       <c r="Z110" s="15"/>
     </row>
-    <row r="111" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" ht="14.25" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>138</v>
       </c>
@@ -8499,7 +8509,7 @@
       <c r="Y111" s="15"/>
       <c r="Z111" s="15"/>
     </row>
-    <row r="112" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="14.25" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>368</v>
       </c>
@@ -8547,7 +8557,7 @@
       <c r="Y112" s="15"/>
       <c r="Z112" s="15"/>
     </row>
-    <row r="113" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" ht="14.25" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>370</v>
       </c>
@@ -8595,7 +8605,7 @@
       <c r="Y113" s="15"/>
       <c r="Z113" s="15"/>
     </row>
-    <row r="114" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="14.25" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>47</v>
       </c>
@@ -8643,7 +8653,7 @@
       <c r="Y114" s="15"/>
       <c r="Z114" s="15"/>
     </row>
-    <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="14.25" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>377</v>
       </c>
@@ -8691,7 +8701,7 @@
       <c r="Y115" s="15"/>
       <c r="Z115" s="15"/>
     </row>
-    <row r="116" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="14.25" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>138</v>
       </c>
@@ -8739,7 +8749,7 @@
       <c r="Y116" s="15"/>
       <c r="Z116" s="15"/>
     </row>
-    <row r="117" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="14.25" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>381</v>
       </c>
@@ -8787,7 +8797,7 @@
       <c r="Y117" s="15"/>
       <c r="Z117" s="15"/>
     </row>
-    <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="14.25" customHeight="1">
       <c r="A118" s="5" t="s">
         <v>386</v>
       </c>
@@ -8835,7 +8845,7 @@
       <c r="Y118" s="15"/>
       <c r="Z118" s="15"/>
     </row>
-    <row r="119" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="14.25" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>388</v>
       </c>
@@ -8883,7 +8893,7 @@
       <c r="Y119" s="15"/>
       <c r="Z119" s="15"/>
     </row>
-    <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="14.25" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>388</v>
       </c>
@@ -8931,7 +8941,7 @@
       <c r="Y120" s="15"/>
       <c r="Z120" s="15"/>
     </row>
-    <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="14.25" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>398</v>
       </c>
@@ -8979,7 +8989,7 @@
       <c r="Y121" s="15"/>
       <c r="Z121" s="15"/>
     </row>
-    <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="14.25" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>388</v>
       </c>
@@ -9027,7 +9037,7 @@
       <c r="Y122" s="15"/>
       <c r="Z122" s="15"/>
     </row>
-    <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="14.25" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>388</v>
       </c>
@@ -9075,7 +9085,7 @@
       <c r="Y123" s="15"/>
       <c r="Z123" s="15"/>
     </row>
-    <row r="124" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="14.25" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>388</v>
       </c>
@@ -9123,7 +9133,7 @@
       <c r="Y124" s="15"/>
       <c r="Z124" s="15"/>
     </row>
-    <row r="125" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" ht="14.25" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>388</v>
       </c>
@@ -9171,7 +9181,7 @@
       <c r="Y125" s="15"/>
       <c r="Z125" s="15"/>
     </row>
-    <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="14.25" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>388</v>
       </c>
@@ -9219,7 +9229,7 @@
       <c r="Y126" s="15"/>
       <c r="Z126" s="15"/>
     </row>
-    <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="14.25" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>388</v>
       </c>
@@ -9267,7 +9277,7 @@
       <c r="Y127" s="15"/>
       <c r="Z127" s="15"/>
     </row>
-    <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="14.25" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>388</v>
       </c>
@@ -9315,7 +9325,7 @@
       <c r="Y128" s="15"/>
       <c r="Z128" s="15"/>
     </row>
-    <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" ht="14.25" customHeight="1">
       <c r="A129" s="5" t="s">
         <v>388</v>
       </c>
@@ -9363,7 +9373,7 @@
       <c r="Y129" s="15"/>
       <c r="Z129" s="15"/>
     </row>
-    <row r="130" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="14.25" customHeight="1">
       <c r="A130" s="5" t="s">
         <v>388</v>
       </c>
@@ -9411,7 +9421,7 @@
       <c r="Y130" s="15"/>
       <c r="Z130" s="15"/>
     </row>
-    <row r="131" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="14.25" customHeight="1">
       <c r="A131" s="5" t="s">
         <v>388</v>
       </c>
@@ -9459,7 +9469,7 @@
       <c r="Y131" s="15"/>
       <c r="Z131" s="15"/>
     </row>
-    <row r="132" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="14.25" customHeight="1">
       <c r="A132" s="5" t="s">
         <v>138</v>
       </c>
@@ -9507,7 +9517,7 @@
       <c r="Y132" s="15"/>
       <c r="Z132" s="15"/>
     </row>
-    <row r="133" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="14.25" customHeight="1">
       <c r="A133" s="5" t="s">
         <v>427</v>
       </c>
@@ -9555,7 +9565,7 @@
       <c r="Y133" s="15"/>
       <c r="Z133" s="15"/>
     </row>
-    <row r="134" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="14.25" customHeight="1">
       <c r="A134" s="5" t="s">
         <v>429</v>
       </c>
@@ -9603,7 +9613,7 @@
       <c r="Y134" s="15"/>
       <c r="Z134" s="15"/>
     </row>
-    <row r="135" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="14.25" customHeight="1">
       <c r="A135" s="5" t="s">
         <v>429</v>
       </c>
@@ -9651,7 +9661,7 @@
       <c r="Y135" s="15"/>
       <c r="Z135" s="15"/>
     </row>
-    <row r="136" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="14.25" customHeight="1">
       <c r="A136" s="5" t="s">
         <v>435</v>
       </c>
@@ -9699,7 +9709,7 @@
       <c r="Y136" s="15"/>
       <c r="Z136" s="15"/>
     </row>
-    <row r="137" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" ht="14.25" customHeight="1">
       <c r="A137" s="5" t="s">
         <v>429</v>
       </c>
@@ -9747,7 +9757,7 @@
       <c r="Y137" s="15"/>
       <c r="Z137" s="15"/>
     </row>
-    <row r="138" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="14.25" customHeight="1">
       <c r="A138" s="5" t="s">
         <v>138</v>
       </c>
@@ -9795,7 +9805,7 @@
       <c r="Y138" s="15"/>
       <c r="Z138" s="15"/>
     </row>
-    <row r="139" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="14.25" customHeight="1">
       <c r="A139" s="5" t="s">
         <v>429</v>
       </c>
@@ -9843,7 +9853,7 @@
       <c r="Y139" s="15"/>
       <c r="Z139" s="15"/>
     </row>
-    <row r="140" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="14.25" customHeight="1">
       <c r="A140" s="5" t="s">
         <v>439</v>
       </c>
@@ -9891,7 +9901,7 @@
       <c r="Y140" s="15"/>
       <c r="Z140" s="15"/>
     </row>
-    <row r="141" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="14.25" customHeight="1">
       <c r="A141" s="5" t="s">
         <v>439</v>
       </c>
@@ -9939,7 +9949,7 @@
       <c r="Y141" s="15"/>
       <c r="Z141" s="15"/>
     </row>
-    <row r="142" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="14.25" customHeight="1">
       <c r="A142" s="5" t="s">
         <v>443</v>
       </c>
@@ -9987,7 +9997,7 @@
       <c r="Y142" s="15"/>
       <c r="Z142" s="15"/>
     </row>
-    <row r="143" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="14.25" customHeight="1">
       <c r="A143" s="5" t="s">
         <v>429</v>
       </c>
@@ -10035,7 +10045,7 @@
       <c r="Y143" s="15"/>
       <c r="Z143" s="15"/>
     </row>
-    <row r="144" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="14.25" customHeight="1">
       <c r="A144" s="5" t="s">
         <v>429</v>
       </c>
@@ -10083,7 +10093,7 @@
       <c r="Y144" s="15"/>
       <c r="Z144" s="15"/>
     </row>
-    <row r="145" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="14.25" customHeight="1">
       <c r="A145" s="5" t="s">
         <v>138</v>
       </c>
@@ -10131,7 +10141,7 @@
       <c r="Y145" s="15"/>
       <c r="Z145" s="15"/>
     </row>
-    <row r="146" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="14.25" customHeight="1">
       <c r="A146" s="5" t="s">
         <v>450</v>
       </c>
@@ -10179,7 +10189,7 @@
       <c r="Y146" s="15"/>
       <c r="Z146" s="15"/>
     </row>
-    <row r="147" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="14.25" customHeight="1">
       <c r="A147" s="5" t="s">
         <v>456</v>
       </c>
@@ -10227,7 +10237,7 @@
       <c r="Y147" s="15"/>
       <c r="Z147" s="15"/>
     </row>
-    <row r="148" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="14.25" customHeight="1">
       <c r="A148" s="5" t="s">
         <v>47</v>
       </c>
@@ -10275,7 +10285,7 @@
       <c r="Y148" s="15"/>
       <c r="Z148" s="15"/>
     </row>
-    <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="14.25" customHeight="1">
       <c r="A149" s="5" t="s">
         <v>461</v>
       </c>
@@ -10323,7 +10333,7 @@
       <c r="Y149" s="15"/>
       <c r="Z149" s="15"/>
     </row>
-    <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="14.25" customHeight="1">
       <c r="A150" s="5" t="s">
         <v>467</v>
       </c>
@@ -10371,7 +10381,7 @@
       <c r="Y150" s="15"/>
       <c r="Z150" s="15"/>
     </row>
-    <row r="151" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="14.25" customHeight="1">
       <c r="A151" s="5" t="s">
         <v>472</v>
       </c>
@@ -10419,7 +10429,7 @@
       <c r="Y151" s="15"/>
       <c r="Z151" s="15"/>
     </row>
-    <row r="152" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="14.25" customHeight="1">
       <c r="A152" s="5" t="s">
         <v>386</v>
       </c>
@@ -10467,7 +10477,7 @@
       <c r="Y152" s="15"/>
       <c r="Z152" s="15"/>
     </row>
-    <row r="153" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="14.25" customHeight="1">
       <c r="A153" s="5" t="s">
         <v>477</v>
       </c>
@@ -10515,7 +10525,7 @@
       <c r="Y153" s="15"/>
       <c r="Z153" s="15"/>
     </row>
-    <row r="154" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="14.25" customHeight="1">
       <c r="A154" s="5" t="s">
         <v>477</v>
       </c>
@@ -10563,7 +10573,7 @@
       <c r="Y154" s="15"/>
       <c r="Z154" s="15"/>
     </row>
-    <row r="155" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="14.25" customHeight="1">
       <c r="A155" s="5" t="s">
         <v>481</v>
       </c>
@@ -10611,7 +10621,7 @@
       <c r="Y155" s="15"/>
       <c r="Z155" s="15"/>
     </row>
-    <row r="156" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" ht="14.25" customHeight="1">
       <c r="A156" s="5" t="s">
         <v>484</v>
       </c>
@@ -10659,7 +10669,7 @@
       <c r="Y156" s="15"/>
       <c r="Z156" s="15"/>
     </row>
-    <row r="157" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="14.25" customHeight="1">
       <c r="A157" s="5" t="s">
         <v>439</v>
       </c>
@@ -10707,7 +10717,7 @@
       <c r="Y157" s="15"/>
       <c r="Z157" s="15"/>
     </row>
-    <row r="158" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" ht="14.25" customHeight="1">
       <c r="A158" s="5" t="s">
         <v>484</v>
       </c>
@@ -10755,7 +10765,7 @@
       <c r="Y158" s="15"/>
       <c r="Z158" s="15"/>
     </row>
-    <row r="159" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="14.25" customHeight="1">
       <c r="A159" s="5" t="s">
         <v>489</v>
       </c>
@@ -10803,7 +10813,7 @@
       <c r="Y159" s="15"/>
       <c r="Z159" s="15"/>
     </row>
-    <row r="160" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="14.25" customHeight="1">
       <c r="A160" s="5" t="s">
         <v>467</v>
       </c>
@@ -10851,7 +10861,7 @@
       <c r="Y160" s="15"/>
       <c r="Z160" s="15"/>
     </row>
-    <row r="161" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="14.25" customHeight="1">
       <c r="A161" s="5" t="s">
         <v>484</v>
       </c>
@@ -10899,7 +10909,7 @@
       <c r="Y161" s="15"/>
       <c r="Z161" s="15"/>
     </row>
-    <row r="162" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="14.25" customHeight="1">
       <c r="A162" s="5" t="s">
         <v>495</v>
       </c>
@@ -10947,7 +10957,7 @@
       <c r="Y162" s="15"/>
       <c r="Z162" s="15"/>
     </row>
-    <row r="163" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="14.25" customHeight="1">
       <c r="A163" s="5" t="s">
         <v>497</v>
       </c>
@@ -10995,7 +11005,7 @@
       <c r="Y163" s="15"/>
       <c r="Z163" s="15"/>
     </row>
-    <row r="164" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="14.25" customHeight="1">
       <c r="A164" s="5" t="s">
         <v>500</v>
       </c>
@@ -11043,7 +11053,7 @@
       <c r="Y164" s="15"/>
       <c r="Z164" s="15"/>
     </row>
-    <row r="165" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="14.25" customHeight="1">
       <c r="A165" s="5" t="s">
         <v>503</v>
       </c>
@@ -11091,7 +11101,7 @@
       <c r="Y165" s="15"/>
       <c r="Z165" s="15"/>
     </row>
-    <row r="166" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="14.25" customHeight="1">
       <c r="A166" s="5" t="s">
         <v>506</v>
       </c>
@@ -11139,7 +11149,7 @@
       <c r="Y166" s="15"/>
       <c r="Z166" s="15"/>
     </row>
-    <row r="167" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="14.25" customHeight="1">
       <c r="A167" s="5" t="s">
         <v>509</v>
       </c>
@@ -11187,7 +11197,7 @@
       <c r="Y167" s="15"/>
       <c r="Z167" s="15"/>
     </row>
-    <row r="168" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="14.25" customHeight="1">
       <c r="A168" s="5" t="s">
         <v>512</v>
       </c>
@@ -11235,7 +11245,7 @@
       <c r="Y168" s="15"/>
       <c r="Z168" s="15"/>
     </row>
-    <row r="169" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="14.25" customHeight="1">
       <c r="A169" s="5" t="s">
         <v>517</v>
       </c>
@@ -11283,7 +11293,7 @@
       <c r="Y169" s="15"/>
       <c r="Z169" s="15"/>
     </row>
-    <row r="170" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="14.25" customHeight="1">
       <c r="A170" s="5" t="s">
         <v>522</v>
       </c>
@@ -11331,7 +11341,7 @@
       <c r="Y170" s="15"/>
       <c r="Z170" s="15"/>
     </row>
-    <row r="171" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="14.25" customHeight="1">
       <c r="A171" s="5" t="s">
         <v>484</v>
       </c>
@@ -11379,7 +11389,7 @@
       <c r="Y171" s="15"/>
       <c r="Z171" s="15"/>
     </row>
-    <row r="172" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="14.25" customHeight="1">
       <c r="A172" s="5" t="s">
         <v>526</v>
       </c>
@@ -11427,7 +11437,7 @@
       <c r="Y172" s="15"/>
       <c r="Z172" s="15"/>
     </row>
-    <row r="173" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="14.25" customHeight="1">
       <c r="A173" s="5" t="s">
         <v>529</v>
       </c>
@@ -11475,7 +11485,7 @@
       <c r="Y173" s="15"/>
       <c r="Z173" s="15"/>
     </row>
-    <row r="174" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="14.25" customHeight="1">
       <c r="A174" s="5" t="s">
         <v>533</v>
       </c>
@@ -11523,7 +11533,7 @@
       <c r="Y174" s="15"/>
       <c r="Z174" s="15"/>
     </row>
-    <row r="175" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="14.25" customHeight="1">
       <c r="A175" s="5" t="s">
         <v>539</v>
       </c>
@@ -11571,7 +11581,7 @@
       <c r="Y175" s="15"/>
       <c r="Z175" s="15"/>
     </row>
-    <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="14.25" customHeight="1">
       <c r="A176" s="5" t="s">
         <v>542</v>
       </c>
@@ -11619,7 +11629,7 @@
       <c r="Y176" s="15"/>
       <c r="Z176" s="15"/>
     </row>
-    <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" ht="14.25" customHeight="1">
       <c r="A177" s="5" t="s">
         <v>548</v>
       </c>
@@ -11667,7 +11677,7 @@
       <c r="Y177" s="15"/>
       <c r="Z177" s="15"/>
     </row>
-    <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" ht="14.25" customHeight="1">
       <c r="A178" s="5" t="s">
         <v>554</v>
       </c>
@@ -11715,7 +11725,7 @@
       <c r="Y178" s="15"/>
       <c r="Z178" s="15"/>
     </row>
-    <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" ht="14.25" customHeight="1">
       <c r="A179" s="5" t="s">
         <v>556</v>
       </c>
@@ -11763,7 +11773,7 @@
       <c r="Y179" s="15"/>
       <c r="Z179" s="15"/>
     </row>
-    <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" ht="14.25" customHeight="1">
       <c r="A180" s="5" t="s">
         <v>558</v>
       </c>
@@ -11811,7 +11821,7 @@
       <c r="Y180" s="15"/>
       <c r="Z180" s="15"/>
     </row>
-    <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" ht="14.25" customHeight="1">
       <c r="A181" s="5" t="s">
         <v>560</v>
       </c>
@@ -11859,7 +11869,7 @@
       <c r="Y181" s="15"/>
       <c r="Z181" s="15"/>
     </row>
-    <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" ht="14.25" customHeight="1">
       <c r="A182" s="5" t="s">
         <v>509</v>
       </c>
@@ -11907,7 +11917,7 @@
       <c r="Y182" s="15"/>
       <c r="Z182" s="15"/>
     </row>
-    <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" ht="14.25" customHeight="1">
       <c r="A183" s="5" t="s">
         <v>563</v>
       </c>
@@ -11955,7 +11965,7 @@
       <c r="Y183" s="15"/>
       <c r="Z183" s="15"/>
     </row>
-    <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" ht="14.25" customHeight="1">
       <c r="A184" s="5" t="s">
         <v>563</v>
       </c>
@@ -12003,7 +12013,7 @@
       <c r="Y184" s="15"/>
       <c r="Z184" s="15"/>
     </row>
-    <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" ht="14.25" customHeight="1">
       <c r="A185" s="5" t="s">
         <v>566</v>
       </c>
@@ -12051,7 +12061,7 @@
       <c r="Y185" s="15"/>
       <c r="Z185" s="15"/>
     </row>
-    <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" ht="14.25" customHeight="1">
       <c r="A186" s="5" t="s">
         <v>570</v>
       </c>
@@ -12099,7 +12109,7 @@
       <c r="Y186" s="15"/>
       <c r="Z186" s="15"/>
     </row>
-    <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" ht="14.25" customHeight="1">
       <c r="A187" s="5" t="s">
         <v>573</v>
       </c>
@@ -12147,7 +12157,7 @@
       <c r="Y187" s="15"/>
       <c r="Z187" s="15"/>
     </row>
-    <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" ht="14.25" customHeight="1">
       <c r="A188" s="5" t="s">
         <v>576</v>
       </c>
@@ -12195,7 +12205,7 @@
       <c r="Y188" s="15"/>
       <c r="Z188" s="15"/>
     </row>
-    <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" ht="14.25" customHeight="1">
       <c r="A189" s="5" t="s">
         <v>579</v>
       </c>
@@ -12243,7 +12253,7 @@
       <c r="Y189" s="15"/>
       <c r="Z189" s="15"/>
     </row>
-    <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" ht="14.25" customHeight="1">
       <c r="A190" s="5" t="s">
         <v>584</v>
       </c>
@@ -12291,7 +12301,7 @@
       <c r="Y190" s="15"/>
       <c r="Z190" s="15"/>
     </row>
-    <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" ht="14.25" customHeight="1">
       <c r="A191" s="5" t="s">
         <v>586</v>
       </c>
@@ -12339,7 +12349,7 @@
       <c r="Y191" s="15"/>
       <c r="Z191" s="15"/>
     </row>
-    <row r="192" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" ht="14.25" customHeight="1">
       <c r="A192" s="5" t="s">
         <v>590</v>
       </c>
@@ -12387,7 +12397,7 @@
       <c r="Y192" s="15"/>
       <c r="Z192" s="15"/>
     </row>
-    <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" ht="14.25" customHeight="1">
       <c r="A193" s="5" t="s">
         <v>566</v>
       </c>
@@ -12435,7 +12445,7 @@
       <c r="Y193" s="15"/>
       <c r="Z193" s="15"/>
     </row>
-    <row r="194" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" ht="14.25" customHeight="1">
       <c r="A194" s="5" t="s">
         <v>592</v>
       </c>
@@ -12483,7 +12493,7 @@
       <c r="Y194" s="15"/>
       <c r="Z194" s="15"/>
     </row>
-    <row r="195" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" ht="14.25" customHeight="1">
       <c r="A195" s="5" t="s">
         <v>595</v>
       </c>
@@ -12531,7 +12541,7 @@
       <c r="Y195" s="15"/>
       <c r="Z195" s="15"/>
     </row>
-    <row r="196" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" ht="14.25" customHeight="1">
       <c r="A196" s="5" t="s">
         <v>598</v>
       </c>
@@ -12579,7 +12589,7 @@
       <c r="Y196" s="15"/>
       <c r="Z196" s="15"/>
     </row>
-    <row r="197" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" ht="14.25" customHeight="1">
       <c r="A197" s="5" t="s">
         <v>601</v>
       </c>
@@ -12627,7 +12637,7 @@
       <c r="Y197" s="15"/>
       <c r="Z197" s="15"/>
     </row>
-    <row r="198" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" ht="14.25" customHeight="1">
       <c r="A198" s="5" t="s">
         <v>533</v>
       </c>
@@ -12675,7 +12685,7 @@
       <c r="Y198" s="15"/>
       <c r="Z198" s="15"/>
     </row>
-    <row r="199" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" ht="14.25" customHeight="1">
       <c r="A199" s="5" t="s">
         <v>610</v>
       </c>
@@ -12723,7 +12733,7 @@
       <c r="Y199" s="15"/>
       <c r="Z199" s="15"/>
     </row>
-    <row r="200" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" ht="14.25" customHeight="1">
       <c r="A200" s="5" t="s">
         <v>272</v>
       </c>
@@ -12771,7 +12781,7 @@
       <c r="Y200" s="15"/>
       <c r="Z200" s="15"/>
     </row>
-    <row r="201" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" ht="14.25" customHeight="1">
       <c r="A201" s="5" t="s">
         <v>272</v>
       </c>
@@ -12819,7 +12829,7 @@
       <c r="Y201" s="15"/>
       <c r="Z201" s="15"/>
     </row>
-    <row r="202" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" ht="14.25" customHeight="1">
       <c r="A202" s="5" t="s">
         <v>272</v>
       </c>
@@ -12867,7 +12877,7 @@
       <c r="Y202" s="15"/>
       <c r="Z202" s="15"/>
     </row>
-    <row r="203" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" ht="14.25" customHeight="1">
       <c r="A203" s="5" t="s">
         <v>625</v>
       </c>
@@ -12915,7 +12925,7 @@
       <c r="Y203" s="15"/>
       <c r="Z203" s="15"/>
     </row>
-    <row r="204" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" ht="14.25" customHeight="1">
       <c r="A204" s="5" t="s">
         <v>628</v>
       </c>
@@ -12963,7 +12973,7 @@
       <c r="Y204" s="15"/>
       <c r="Z204" s="15"/>
     </row>
-    <row r="205" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" ht="14.25" customHeight="1">
       <c r="A205" s="5" t="s">
         <v>631</v>
       </c>
@@ -13011,7 +13021,7 @@
       <c r="Y205" s="15"/>
       <c r="Z205" s="15"/>
     </row>
-    <row r="206" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" ht="14.25" customHeight="1">
       <c r="A206" s="5" t="s">
         <v>634</v>
       </c>
@@ -13059,7 +13069,7 @@
       <c r="Y206" s="15"/>
       <c r="Z206" s="15"/>
     </row>
-    <row r="207" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" ht="14.25" customHeight="1">
       <c r="A207" s="5" t="s">
         <v>542</v>
       </c>
@@ -13107,7 +13117,7 @@
       <c r="Y207" s="15"/>
       <c r="Z207" s="15"/>
     </row>
-    <row r="208" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" ht="14.25" customHeight="1">
       <c r="A208" s="5" t="s">
         <v>639</v>
       </c>
@@ -13155,7 +13165,7 @@
       <c r="Y208" s="15"/>
       <c r="Z208" s="15"/>
     </row>
-    <row r="209" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" ht="14.25" customHeight="1">
       <c r="A209" s="5" t="s">
         <v>644</v>
       </c>
@@ -13203,7 +13213,7 @@
       <c r="Y209" s="15"/>
       <c r="Z209" s="15"/>
     </row>
-    <row r="210" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" ht="14.25" customHeight="1">
       <c r="A210" s="5" t="s">
         <v>648</v>
       </c>
@@ -13251,7 +13261,7 @@
       <c r="Y210" s="15"/>
       <c r="Z210" s="15"/>
     </row>
-    <row r="211" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" ht="14.25" customHeight="1">
       <c r="A211" s="5" t="s">
         <v>652</v>
       </c>
@@ -13299,7 +13309,7 @@
       <c r="Y211" s="15"/>
       <c r="Z211" s="15"/>
     </row>
-    <row r="212" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" ht="14.25" customHeight="1">
       <c r="A212" s="5" t="s">
         <v>657</v>
       </c>
@@ -13347,7 +13357,7 @@
       <c r="Y212" s="15"/>
       <c r="Z212" s="15"/>
     </row>
-    <row r="213" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" ht="14.25" customHeight="1">
       <c r="A213" s="5" t="s">
         <v>660</v>
       </c>
@@ -13395,7 +13405,7 @@
       <c r="Y213" s="15"/>
       <c r="Z213" s="15"/>
     </row>
-    <row r="214" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" ht="14.25" customHeight="1">
       <c r="A214" s="5" t="s">
         <v>665</v>
       </c>
@@ -13443,7 +13453,7 @@
       <c r="Y214" s="15"/>
       <c r="Z214" s="15"/>
     </row>
-    <row r="215" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" ht="14.25" customHeight="1">
       <c r="A215" s="5" t="s">
         <v>665</v>
       </c>
@@ -13491,7 +13501,7 @@
       <c r="Y215" s="15"/>
       <c r="Z215" s="15"/>
     </row>
-    <row r="216" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" ht="14.25" customHeight="1">
       <c r="A216" s="5" t="s">
         <v>665</v>
       </c>
@@ -13539,7 +13549,7 @@
       <c r="Y216" s="15"/>
       <c r="Z216" s="15"/>
     </row>
-    <row r="217" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" ht="14.25" customHeight="1">
       <c r="A217" s="5" t="s">
         <v>673</v>
       </c>
@@ -13587,7 +13597,7 @@
       <c r="Y217" s="15"/>
       <c r="Z217" s="15"/>
     </row>
-    <row r="218" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" ht="14.25" customHeight="1">
       <c r="A218" s="5" t="s">
         <v>676</v>
       </c>
@@ -13635,7 +13645,7 @@
       <c r="Y218" s="15"/>
       <c r="Z218" s="15"/>
     </row>
-    <row r="219" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" ht="14.25" customHeight="1">
       <c r="A219" s="5" t="s">
         <v>368</v>
       </c>
@@ -13683,7 +13693,7 @@
       <c r="Y219" s="15"/>
       <c r="Z219" s="15"/>
     </row>
-    <row r="220" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" ht="14.25" customHeight="1">
       <c r="A220" s="5" t="s">
         <v>679</v>
       </c>
@@ -13731,7 +13741,7 @@
       <c r="Y220" s="15"/>
       <c r="Z220" s="15"/>
     </row>
-    <row r="221" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" ht="14.25" customHeight="1">
       <c r="A221" s="5" t="s">
         <v>500</v>
       </c>
@@ -13779,7 +13789,7 @@
       <c r="Y221" s="15"/>
       <c r="Z221" s="15"/>
     </row>
-    <row r="222" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" ht="14.25" customHeight="1">
       <c r="A222" s="5" t="s">
         <v>631</v>
       </c>
@@ -13827,7 +13837,7 @@
       <c r="Y222" s="15"/>
       <c r="Z222" s="15"/>
     </row>
-    <row r="223" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" ht="14.25" customHeight="1">
       <c r="A223" s="5" t="s">
         <v>509</v>
       </c>
@@ -13875,7 +13885,7 @@
       <c r="Y223" s="15"/>
       <c r="Z223" s="15"/>
     </row>
-    <row r="224" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" ht="14.25" customHeight="1">
       <c r="A224" s="5" t="s">
         <v>689</v>
       </c>
@@ -13923,7 +13933,7 @@
       <c r="Y224" s="15"/>
       <c r="Z224" s="15"/>
     </row>
-    <row r="225" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" ht="14.25" customHeight="1">
       <c r="A225" s="5" t="s">
         <v>692</v>
       </c>
@@ -13971,7 +13981,7 @@
       <c r="Y225" s="15"/>
       <c r="Z225" s="15"/>
     </row>
-    <row r="226" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" ht="14.25" customHeight="1">
       <c r="A226" s="5" t="s">
         <v>697</v>
       </c>
@@ -14019,7 +14029,7 @@
       <c r="Y226" s="15"/>
       <c r="Z226" s="15"/>
     </row>
-    <row r="227" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" ht="14.25" customHeight="1">
       <c r="A227" s="5" t="s">
         <v>699</v>
       </c>
@@ -14067,7 +14077,7 @@
       <c r="Y227" s="15"/>
       <c r="Z227" s="15"/>
     </row>
-    <row r="228" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" ht="14.25" customHeight="1">
       <c r="A228" s="5" t="s">
         <v>702</v>
       </c>
@@ -14115,7 +14125,7 @@
       <c r="Y228" s="15"/>
       <c r="Z228" s="15"/>
     </row>
-    <row r="229" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" ht="14.25" customHeight="1">
       <c r="A229" s="5" t="s">
         <v>704</v>
       </c>
@@ -14163,7 +14173,7 @@
       <c r="Y229" s="15"/>
       <c r="Z229" s="15"/>
     </row>
-    <row r="230" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" ht="14.25" customHeight="1">
       <c r="A230" s="5" t="s">
         <v>50</v>
       </c>
@@ -14211,7 +14221,7 @@
       <c r="Y230" s="15"/>
       <c r="Z230" s="15"/>
     </row>
-    <row r="231" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" ht="14.25" customHeight="1">
       <c r="A231" s="5" t="s">
         <v>679</v>
       </c>
@@ -14259,7 +14269,7 @@
       <c r="Y231" s="15"/>
       <c r="Z231" s="15"/>
     </row>
-    <row r="232" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" ht="14.25" customHeight="1">
       <c r="A232" s="5" t="s">
         <v>709</v>
       </c>
@@ -14307,7 +14317,7 @@
       <c r="Y232" s="15"/>
       <c r="Z232" s="15"/>
     </row>
-    <row r="233" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" ht="14.25" customHeight="1">
       <c r="A233" s="22" t="s">
         <v>712</v>
       </c>
@@ -14355,7 +14365,7 @@
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
     </row>
-    <row r="234" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" ht="14.25" customHeight="1">
       <c r="A234" s="22" t="s">
         <v>717</v>
       </c>
@@ -14403,7 +14413,7 @@
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
     </row>
-    <row r="235" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" ht="14.25" customHeight="1">
       <c r="A235" s="22" t="s">
         <v>699</v>
       </c>
@@ -14451,7 +14461,7 @@
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
     </row>
-    <row r="236" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" ht="14.25" customHeight="1">
       <c r="A236" s="22" t="s">
         <v>725</v>
       </c>
@@ -14499,7 +14509,7 @@
       <c r="Y236" s="9"/>
       <c r="Z236" s="9"/>
     </row>
-    <row r="237" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" ht="14.25" customHeight="1">
       <c r="A237" s="22" t="s">
         <v>712</v>
       </c>
@@ -14547,7 +14557,7 @@
       <c r="Y237" s="9"/>
       <c r="Z237" s="9"/>
     </row>
-    <row r="238" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" ht="14.25" customHeight="1">
       <c r="A238" s="22" t="s">
         <v>731</v>
       </c>
@@ -14595,7 +14605,7 @@
       <c r="Y238" s="9"/>
       <c r="Z238" s="9"/>
     </row>
-    <row r="239" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" ht="14.25" customHeight="1">
       <c r="A239" s="23" t="s">
         <v>733</v>
       </c>
@@ -14643,7 +14653,7 @@
       <c r="Y239" s="15"/>
       <c r="Z239" s="15"/>
     </row>
-    <row r="240" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" ht="14.25" customHeight="1">
       <c r="A240" s="23" t="s">
         <v>738</v>
       </c>
@@ -14691,7 +14701,7 @@
       <c r="Y240" s="15"/>
       <c r="Z240" s="15"/>
     </row>
-    <row r="241" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" ht="14.25" customHeight="1">
       <c r="A241" s="23" t="s">
         <v>742</v>
       </c>
@@ -14739,7 +14749,7 @@
       <c r="Y241" s="15"/>
       <c r="Z241" s="15"/>
     </row>
-    <row r="242" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" ht="14.25" customHeight="1">
       <c r="A242" s="23" t="s">
         <v>368</v>
       </c>
@@ -14787,7 +14797,7 @@
       <c r="Y242" s="15"/>
       <c r="Z242" s="15"/>
     </row>
-    <row r="243" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" ht="14.25" customHeight="1">
       <c r="A243" s="23" t="s">
         <v>746</v>
       </c>
@@ -14835,7 +14845,7 @@
       <c r="Y243" s="15"/>
       <c r="Z243" s="15"/>
     </row>
-    <row r="244" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" ht="14.25" customHeight="1">
       <c r="A244" s="23" t="s">
         <v>750</v>
       </c>
@@ -14883,7 +14893,7 @@
       <c r="Y244" s="15"/>
       <c r="Z244" s="15"/>
     </row>
-    <row r="245" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" ht="14.25" customHeight="1">
       <c r="A245" s="23" t="s">
         <v>754</v>
       </c>
@@ -14931,7 +14941,7 @@
       <c r="Y245" s="15"/>
       <c r="Z245" s="15"/>
     </row>
-    <row r="246" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" ht="14.25" customHeight="1">
       <c r="A246" s="23" t="s">
         <v>758</v>
       </c>
@@ -14979,7 +14989,7 @@
       <c r="Y246" s="15"/>
       <c r="Z246" s="15"/>
     </row>
-    <row r="247" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" ht="14.25" customHeight="1">
       <c r="A247" s="23" t="s">
         <v>762</v>
       </c>
@@ -15027,7 +15037,7 @@
       <c r="Y247" s="15"/>
       <c r="Z247" s="15"/>
     </row>
-    <row r="248" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" ht="14.25" customHeight="1">
       <c r="A248" s="23" t="s">
         <v>767</v>
       </c>
@@ -15075,7 +15085,7 @@
       <c r="Y248" s="15"/>
       <c r="Z248" s="15"/>
     </row>
-    <row r="249" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" ht="14.25" customHeight="1">
       <c r="A249" s="23" t="s">
         <v>712</v>
       </c>
@@ -15123,7 +15133,7 @@
       <c r="Y249" s="15"/>
       <c r="Z249" s="15"/>
     </row>
-    <row r="250" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" ht="14.25" customHeight="1">
       <c r="A250" s="23" t="s">
         <v>712</v>
       </c>
@@ -15171,7 +15181,7 @@
       <c r="Y250" s="15"/>
       <c r="Z250" s="15"/>
     </row>
-    <row r="251" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" ht="14.25" customHeight="1">
       <c r="A251" s="23" t="s">
         <v>779</v>
       </c>
@@ -15219,7 +15229,7 @@
       <c r="Y251" s="15"/>
       <c r="Z251" s="15"/>
     </row>
-    <row r="252" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" ht="14.25" customHeight="1">
       <c r="A252" s="23" t="s">
         <v>533</v>
       </c>
@@ -15267,7 +15277,7 @@
       <c r="Y252" s="15"/>
       <c r="Z252" s="15"/>
     </row>
-    <row r="253" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" ht="14.25" customHeight="1">
       <c r="A253" s="23" t="s">
         <v>784</v>
       </c>
@@ -15315,7 +15325,7 @@
       <c r="Y253" s="15"/>
       <c r="Z253" s="15"/>
     </row>
-    <row r="254" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" ht="14.25" customHeight="1">
       <c r="A254" s="23" t="s">
         <v>787</v>
       </c>
@@ -15363,7 +15373,7 @@
       <c r="Y254" s="15"/>
       <c r="Z254" s="15"/>
     </row>
-    <row r="255" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" ht="14.25" customHeight="1">
       <c r="A255" s="23" t="s">
         <v>790</v>
       </c>
@@ -15411,7 +15421,7 @@
       <c r="Y255" s="15"/>
       <c r="Z255" s="15"/>
     </row>
-    <row r="256" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" ht="14.25" customHeight="1">
       <c r="A256" s="23" t="s">
         <v>794</v>
       </c>
@@ -15459,7 +15469,7 @@
       <c r="Y256" s="15"/>
       <c r="Z256" s="15"/>
     </row>
-    <row r="257" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" ht="14.25" customHeight="1">
       <c r="A257" s="23" t="s">
         <v>712</v>
       </c>
@@ -15507,7 +15517,7 @@
       <c r="Y257" s="15"/>
       <c r="Z257" s="15"/>
     </row>
-    <row r="258" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" ht="14.25" customHeight="1">
       <c r="A258" s="23" t="s">
         <v>800</v>
       </c>
@@ -15555,7 +15565,7 @@
       <c r="Y258" s="15"/>
       <c r="Z258" s="15"/>
     </row>
-    <row r="259" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" ht="14.25" customHeight="1">
       <c r="A259" s="23" t="s">
         <v>804</v>
       </c>
@@ -15603,7 +15613,7 @@
       <c r="Y259" s="15"/>
       <c r="Z259" s="15"/>
     </row>
-    <row r="260" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" ht="14.25" customHeight="1">
       <c r="A260" s="23" t="s">
         <v>533</v>
       </c>
@@ -15651,7 +15661,7 @@
       <c r="Y260" s="15"/>
       <c r="Z260" s="15"/>
     </row>
-    <row r="261" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" ht="14.25" customHeight="1">
       <c r="A261" s="23" t="s">
         <v>787</v>
       </c>
@@ -15699,7 +15709,7 @@
       <c r="Y261" s="15"/>
       <c r="Z261" s="15"/>
     </row>
-    <row r="262" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" ht="14.25" customHeight="1">
       <c r="A262" s="23" t="s">
         <v>804</v>
       </c>
@@ -15747,7 +15757,7 @@
       <c r="Y262" s="15"/>
       <c r="Z262" s="15"/>
     </row>
-    <row r="263" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" ht="14.25" customHeight="1">
       <c r="A263" s="23" t="s">
         <v>813</v>
       </c>
@@ -15795,7 +15805,7 @@
       <c r="Y263" s="15"/>
       <c r="Z263" s="15"/>
     </row>
-    <row r="264" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" ht="14.25" customHeight="1">
       <c r="A264" s="23" t="s">
         <v>804</v>
       </c>
@@ -15843,7 +15853,7 @@
       <c r="Y264" s="15"/>
       <c r="Z264" s="15"/>
     </row>
-    <row r="265" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" ht="14.25" customHeight="1">
       <c r="A265" s="23" t="s">
         <v>804</v>
       </c>
@@ -15891,7 +15901,7 @@
       <c r="Y265" s="15"/>
       <c r="Z265" s="15"/>
     </row>
-    <row r="266" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" ht="14.25" customHeight="1">
       <c r="A266" s="17" t="s">
         <v>750</v>
       </c>
@@ -15939,7 +15949,7 @@
       <c r="Y266" s="15"/>
       <c r="Z266" s="15"/>
     </row>
-    <row r="267" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" ht="14.25" customHeight="1">
       <c r="A267" s="23" t="s">
         <v>822</v>
       </c>
@@ -15987,7 +15997,7 @@
       <c r="Y267" s="15"/>
       <c r="Z267" s="15"/>
     </row>
-    <row r="268" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" ht="14.25" customHeight="1">
       <c r="A268" s="23" t="s">
         <v>825</v>
       </c>
@@ -16035,7 +16045,7 @@
       <c r="Y268" s="15"/>
       <c r="Z268" s="15"/>
     </row>
-    <row r="269" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" ht="14.25" customHeight="1">
       <c r="A269" s="23" t="s">
         <v>828</v>
       </c>
@@ -16083,7 +16093,7 @@
       <c r="Y269" s="15"/>
       <c r="Z269" s="15"/>
     </row>
-    <row r="270" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" ht="14.25" customHeight="1">
       <c r="A270" s="23" t="s">
         <v>828</v>
       </c>
@@ -16131,7 +16141,7 @@
       <c r="Y270" s="15"/>
       <c r="Z270" s="15"/>
     </row>
-    <row r="271" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" ht="14.25" customHeight="1">
       <c r="A271" s="23" t="s">
         <v>832</v>
       </c>
@@ -16179,7 +16189,7 @@
       <c r="Y271" s="15"/>
       <c r="Z271" s="15"/>
     </row>
-    <row r="272" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" ht="14.25" customHeight="1">
       <c r="A272" s="23" t="s">
         <v>828</v>
       </c>
@@ -16227,7 +16237,7 @@
       <c r="Y272" s="15"/>
       <c r="Z272" s="15"/>
     </row>
-    <row r="273" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" ht="14.25" customHeight="1">
       <c r="A273" s="23" t="s">
         <v>836</v>
       </c>
@@ -16275,7 +16285,7 @@
       <c r="Y273" s="15"/>
       <c r="Z273" s="15"/>
     </row>
-    <row r="274" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" ht="14.25" customHeight="1">
       <c r="A274" s="23" t="s">
         <v>839</v>
       </c>
@@ -16323,7 +16333,7 @@
       <c r="Y274" s="15"/>
       <c r="Z274" s="15"/>
     </row>
-    <row r="275" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" ht="14.25" customHeight="1">
       <c r="A275" s="23" t="s">
         <v>844</v>
       </c>
@@ -16371,7 +16381,7 @@
       <c r="Y275" s="15"/>
       <c r="Z275" s="15"/>
     </row>
-    <row r="276" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" ht="14.25" customHeight="1">
       <c r="A276" s="23" t="s">
         <v>828</v>
       </c>
@@ -16419,7 +16429,7 @@
       <c r="Y276" s="15"/>
       <c r="Z276" s="15"/>
     </row>
-    <row r="277" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" ht="14.25" customHeight="1">
       <c r="A277" s="23" t="s">
         <v>847</v>
       </c>
@@ -16467,7 +16477,7 @@
       <c r="Y277" s="15"/>
       <c r="Z277" s="15"/>
     </row>
-    <row r="278" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" ht="14.25" customHeight="1">
       <c r="A278" s="23" t="s">
         <v>850</v>
       </c>
@@ -16515,7 +16525,7 @@
       <c r="Y278" s="15"/>
       <c r="Z278" s="15"/>
     </row>
-    <row r="279" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" ht="14.25" customHeight="1">
       <c r="A279" s="23" t="s">
         <v>852</v>
       </c>
@@ -16563,7 +16573,7 @@
       <c r="Y279" s="15"/>
       <c r="Z279" s="15"/>
     </row>
-    <row r="280" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" ht="14.25" customHeight="1">
       <c r="A280" s="23" t="s">
         <v>855</v>
       </c>
@@ -16611,7 +16621,7 @@
       <c r="Y280" s="15"/>
       <c r="Z280" s="15"/>
     </row>
-    <row r="281" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" ht="14.25" customHeight="1">
       <c r="A281" s="23" t="s">
         <v>858</v>
       </c>
@@ -16659,7 +16669,7 @@
       <c r="Y281" s="15"/>
       <c r="Z281" s="15"/>
     </row>
-    <row r="282" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" ht="14.25" customHeight="1">
       <c r="A282" s="23" t="s">
         <v>861</v>
       </c>
@@ -16707,7 +16717,7 @@
       <c r="Y282" s="15"/>
       <c r="Z282" s="15"/>
     </row>
-    <row r="283" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" ht="14.25" customHeight="1">
       <c r="A283" s="23" t="s">
         <v>576</v>
       </c>
@@ -16755,7 +16765,7 @@
       <c r="Y283" s="15"/>
       <c r="Z283" s="15"/>
     </row>
-    <row r="284" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" ht="14.25" customHeight="1">
       <c r="A284" s="23" t="s">
         <v>828</v>
       </c>
@@ -16803,7 +16813,7 @@
       <c r="Y284" s="15"/>
       <c r="Z284" s="15"/>
     </row>
-    <row r="285" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" ht="14.25" customHeight="1">
       <c r="A285" s="23" t="s">
         <v>868</v>
       </c>
@@ -16851,7 +16861,7 @@
       <c r="Y285" s="15"/>
       <c r="Z285" s="15"/>
     </row>
-    <row r="286" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" ht="14.25" customHeight="1">
       <c r="A286" s="23" t="s">
         <v>871</v>
       </c>
@@ -16899,7 +16909,7 @@
       <c r="Y286" s="15"/>
       <c r="Z286" s="15"/>
     </row>
-    <row r="287" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" ht="14.25" customHeight="1">
       <c r="A287" s="23" t="s">
         <v>874</v>
       </c>
@@ -16947,7 +16957,7 @@
       <c r="Y287" s="15"/>
       <c r="Z287" s="15"/>
     </row>
-    <row r="288" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" ht="14.25" customHeight="1">
       <c r="A288" s="23" t="s">
         <v>879</v>
       </c>
@@ -16995,7 +17005,7 @@
       <c r="Y288" s="15"/>
       <c r="Z288" s="15"/>
     </row>
-    <row r="289" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" ht="14.25" customHeight="1">
       <c r="A289" s="23" t="s">
         <v>882</v>
       </c>
@@ -17043,7 +17053,7 @@
       <c r="Y289" s="15"/>
       <c r="Z289" s="15"/>
     </row>
-    <row r="290" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" ht="14.25" customHeight="1">
       <c r="A290" s="23" t="s">
         <v>750</v>
       </c>
@@ -17091,7 +17101,7 @@
       <c r="Y290" s="15"/>
       <c r="Z290" s="15"/>
     </row>
-    <row r="291" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" ht="47.25" customHeight="1">
       <c r="A291" s="23" t="s">
         <v>886</v>
       </c>
@@ -17139,7 +17149,7 @@
       <c r="Y291" s="15"/>
       <c r="Z291" s="15"/>
     </row>
-    <row r="292" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" ht="14.25" customHeight="1">
       <c r="A292" s="23" t="s">
         <v>891</v>
       </c>
@@ -17187,7 +17197,7 @@
       <c r="Y292" s="15"/>
       <c r="Z292" s="15"/>
     </row>
-    <row r="293" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" ht="14.25" customHeight="1">
       <c r="A293" s="23" t="s">
         <v>895</v>
       </c>
@@ -17235,7 +17245,7 @@
       <c r="Y293" s="15"/>
       <c r="Z293" s="15"/>
     </row>
-    <row r="294" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" ht="14.25" customHeight="1">
       <c r="A294" s="23" t="s">
         <v>900</v>
       </c>
@@ -17283,7 +17293,7 @@
       <c r="Y294" s="15"/>
       <c r="Z294" s="15"/>
     </row>
-    <row r="295" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" ht="14.25" customHeight="1">
       <c r="A295" s="23" t="s">
         <v>47</v>
       </c>
@@ -17331,7 +17341,7 @@
       <c r="Y295" s="15"/>
       <c r="Z295" s="15"/>
     </row>
-    <row r="296" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" ht="14.25" customHeight="1">
       <c r="A296" s="23" t="s">
         <v>906</v>
       </c>
@@ -17379,7 +17389,7 @@
       <c r="Y296" s="15"/>
       <c r="Z296" s="15"/>
     </row>
-    <row r="297" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" ht="14.25" customHeight="1">
       <c r="A297" s="23" t="s">
         <v>909</v>
       </c>
@@ -17427,7 +17437,7 @@
       <c r="Y297" s="15"/>
       <c r="Z297" s="15"/>
     </row>
-    <row r="298" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" ht="14.25" customHeight="1">
       <c r="A298" s="23" t="s">
         <v>913</v>
       </c>
@@ -17475,7 +17485,7 @@
       <c r="Y298" s="15"/>
       <c r="Z298" s="15"/>
     </row>
-    <row r="299" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" ht="14.25" customHeight="1">
       <c r="A299" s="23" t="s">
         <v>916</v>
       </c>
@@ -17523,17 +17533,37 @@
       <c r="Y299" s="15"/>
       <c r="Z299" s="15"/>
     </row>
-    <row r="300" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="23"/>
-      <c r="B300" s="15"/>
-      <c r="C300" s="15"/>
-      <c r="D300" s="15"/>
-      <c r="E300" s="15"/>
-      <c r="F300" s="15"/>
-      <c r="G300" s="15"/>
-      <c r="H300" s="15"/>
-      <c r="I300" s="16"/>
-      <c r="J300" s="15"/>
+    <row r="300" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A300" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="B300" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="C300" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D300" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E300" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="F300" s="15">
+        <v>50266</v>
+      </c>
+      <c r="G300" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="H300" s="15">
+        <v>3</v>
+      </c>
+      <c r="I300" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="J300" s="10">
+        <v>44747</v>
+      </c>
       <c r="K300" s="15"/>
       <c r="L300" s="15"/>
       <c r="M300" s="15"/>
@@ -17551,17 +17581,37 @@
       <c r="Y300" s="15"/>
       <c r="Z300" s="15"/>
     </row>
-    <row r="301" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="23"/>
-      <c r="B301" s="15"/>
-      <c r="C301" s="15"/>
-      <c r="D301" s="15"/>
-      <c r="E301" s="15"/>
-      <c r="F301" s="15"/>
-      <c r="G301" s="15"/>
-      <c r="H301" s="15"/>
-      <c r="I301" s="16"/>
-      <c r="J301" s="15"/>
+    <row r="301" spans="1:26" ht="29.25" customHeight="1">
+      <c r="A301" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="B301" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="C301" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D301" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="E301" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="F301" s="15">
+        <v>52309</v>
+      </c>
+      <c r="G301" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="H301" s="15">
+        <v>44</v>
+      </c>
+      <c r="I301" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="J301" s="10">
+        <v>44733</v>
+      </c>
       <c r="K301" s="15"/>
       <c r="L301" s="15"/>
       <c r="M301" s="15"/>
@@ -17579,7 +17629,7 @@
       <c r="Y301" s="15"/>
       <c r="Z301" s="15"/>
     </row>
-    <row r="302" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" ht="14.25" customHeight="1">
       <c r="A302" s="23"/>
       <c r="B302" s="15"/>
       <c r="C302" s="15"/>
@@ -17607,7 +17657,7 @@
       <c r="Y302" s="15"/>
       <c r="Z302" s="15"/>
     </row>
-    <row r="303" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" ht="14.25" customHeight="1">
       <c r="A303" s="23"/>
       <c r="B303" s="15"/>
       <c r="C303" s="15"/>
@@ -17635,7 +17685,7 @@
       <c r="Y303" s="15"/>
       <c r="Z303" s="15"/>
     </row>
-    <row r="304" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" ht="14.25" customHeight="1">
       <c r="A304" s="23"/>
       <c r="B304" s="15"/>
       <c r="C304" s="15"/>
@@ -17663,7 +17713,7 @@
       <c r="Y304" s="15"/>
       <c r="Z304" s="15"/>
     </row>
-    <row r="305" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" ht="14.25" customHeight="1">
       <c r="A305" s="23"/>
       <c r="B305" s="15"/>
       <c r="C305" s="15"/>
@@ -17691,7 +17741,7 @@
       <c r="Y305" s="15"/>
       <c r="Z305" s="15"/>
     </row>
-    <row r="306" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" ht="14.25" customHeight="1">
       <c r="A306" s="23"/>
       <c r="B306" s="15"/>
       <c r="C306" s="15"/>
@@ -17719,7 +17769,7 @@
       <c r="Y306" s="15"/>
       <c r="Z306" s="15"/>
     </row>
-    <row r="307" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" ht="14.25" customHeight="1">
       <c r="A307" s="23"/>
       <c r="B307" s="15"/>
       <c r="C307" s="15"/>
@@ -17747,7 +17797,7 @@
       <c r="Y307" s="15"/>
       <c r="Z307" s="15"/>
     </row>
-    <row r="308" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" ht="14.25" customHeight="1">
       <c r="A308" s="23"/>
       <c r="B308" s="15"/>
       <c r="C308" s="15"/>
@@ -17775,7 +17825,7 @@
       <c r="Y308" s="15"/>
       <c r="Z308" s="15"/>
     </row>
-    <row r="309" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" ht="14.25" customHeight="1">
       <c r="A309" s="23"/>
       <c r="B309" s="15"/>
       <c r="C309" s="15"/>
@@ -17803,7 +17853,7 @@
       <c r="Y309" s="15"/>
       <c r="Z309" s="15"/>
     </row>
-    <row r="310" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" ht="14.25" customHeight="1">
       <c r="A310" s="23"/>
       <c r="B310" s="15"/>
       <c r="C310" s="15"/>
@@ -17831,7 +17881,7 @@
       <c r="Y310" s="15"/>
       <c r="Z310" s="15"/>
     </row>
-    <row r="311" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" ht="14.25" customHeight="1">
       <c r="A311" s="23"/>
       <c r="B311" s="15"/>
       <c r="C311" s="15"/>
@@ -17859,7 +17909,7 @@
       <c r="Y311" s="15"/>
       <c r="Z311" s="15"/>
     </row>
-    <row r="312" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" ht="14.25" customHeight="1">
       <c r="A312" s="23"/>
       <c r="B312" s="15"/>
       <c r="C312" s="15"/>
@@ -17887,7 +17937,7 @@
       <c r="Y312" s="15"/>
       <c r="Z312" s="15"/>
     </row>
-    <row r="313" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" ht="14.25" customHeight="1">
       <c r="A313" s="23"/>
       <c r="B313" s="15"/>
       <c r="C313" s="15"/>
@@ -17915,7 +17965,7 @@
       <c r="Y313" s="15"/>
       <c r="Z313" s="15"/>
     </row>
-    <row r="314" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" ht="14.25" customHeight="1">
       <c r="A314" s="23"/>
       <c r="B314" s="15"/>
       <c r="C314" s="15"/>
@@ -17943,7 +17993,7 @@
       <c r="Y314" s="15"/>
       <c r="Z314" s="15"/>
     </row>
-    <row r="315" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" ht="14.25" customHeight="1">
       <c r="A315" s="23"/>
       <c r="B315" s="15"/>
       <c r="C315" s="15"/>
@@ -17971,7 +18021,7 @@
       <c r="Y315" s="15"/>
       <c r="Z315" s="15"/>
     </row>
-    <row r="316" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" ht="14.25" customHeight="1">
       <c r="A316" s="23"/>
       <c r="B316" s="15"/>
       <c r="C316" s="15"/>
@@ -17999,7 +18049,7 @@
       <c r="Y316" s="15"/>
       <c r="Z316" s="15"/>
     </row>
-    <row r="317" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" ht="14.25" customHeight="1">
       <c r="A317" s="23"/>
       <c r="B317" s="15"/>
       <c r="C317" s="15"/>
@@ -18027,7 +18077,7 @@
       <c r="Y317" s="15"/>
       <c r="Z317" s="15"/>
     </row>
-    <row r="318" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" ht="14.25" customHeight="1">
       <c r="A318" s="23"/>
       <c r="B318" s="15"/>
       <c r="C318" s="15"/>
@@ -18055,7 +18105,7 @@
       <c r="Y318" s="15"/>
       <c r="Z318" s="15"/>
     </row>
-    <row r="319" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" ht="14.25" customHeight="1">
       <c r="A319" s="23"/>
       <c r="B319" s="15"/>
       <c r="C319" s="15"/>
@@ -18083,7 +18133,7 @@
       <c r="Y319" s="15"/>
       <c r="Z319" s="15"/>
     </row>
-    <row r="320" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" ht="14.25" customHeight="1">
       <c r="A320" s="23"/>
       <c r="B320" s="15"/>
       <c r="C320" s="15"/>
@@ -18111,7 +18161,7 @@
       <c r="Y320" s="15"/>
       <c r="Z320" s="15"/>
     </row>
-    <row r="321" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" ht="14.25" customHeight="1">
       <c r="A321" s="23"/>
       <c r="B321" s="15"/>
       <c r="C321" s="15"/>
@@ -18139,7 +18189,7 @@
       <c r="Y321" s="15"/>
       <c r="Z321" s="15"/>
     </row>
-    <row r="322" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" ht="14.25" customHeight="1">
       <c r="A322" s="23"/>
       <c r="B322" s="15"/>
       <c r="C322" s="15"/>
@@ -18167,7 +18217,7 @@
       <c r="Y322" s="15"/>
       <c r="Z322" s="15"/>
     </row>
-    <row r="323" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" ht="14.25" customHeight="1">
       <c r="A323" s="23"/>
       <c r="B323" s="15"/>
       <c r="C323" s="15"/>
@@ -18195,7 +18245,7 @@
       <c r="Y323" s="15"/>
       <c r="Z323" s="15"/>
     </row>
-    <row r="324" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" ht="14.25" customHeight="1">
       <c r="A324" s="23"/>
       <c r="B324" s="15"/>
       <c r="C324" s="15"/>
@@ -18223,7 +18273,7 @@
       <c r="Y324" s="15"/>
       <c r="Z324" s="15"/>
     </row>
-    <row r="325" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" ht="14.25" customHeight="1">
       <c r="A325" s="23"/>
       <c r="B325" s="15"/>
       <c r="C325" s="15"/>
@@ -18251,7 +18301,7 @@
       <c r="Y325" s="15"/>
       <c r="Z325" s="15"/>
     </row>
-    <row r="326" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" ht="14.25" customHeight="1">
       <c r="A326" s="23"/>
       <c r="B326" s="15"/>
       <c r="C326" s="15"/>
@@ -18279,7 +18329,7 @@
       <c r="Y326" s="15"/>
       <c r="Z326" s="15"/>
     </row>
-    <row r="327" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" ht="14.25" customHeight="1">
       <c r="A327" s="23"/>
       <c r="B327" s="15"/>
       <c r="C327" s="15"/>
@@ -18307,7 +18357,7 @@
       <c r="Y327" s="15"/>
       <c r="Z327" s="15"/>
     </row>
-    <row r="328" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" ht="14.25" customHeight="1">
       <c r="A328" s="23"/>
       <c r="B328" s="15"/>
       <c r="C328" s="15"/>
@@ -18335,7 +18385,7 @@
       <c r="Y328" s="15"/>
       <c r="Z328" s="15"/>
     </row>
-    <row r="329" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" ht="14.25" customHeight="1">
       <c r="A329" s="23"/>
       <c r="B329" s="15"/>
       <c r="C329" s="15"/>
@@ -18363,7 +18413,7 @@
       <c r="Y329" s="15"/>
       <c r="Z329" s="15"/>
     </row>
-    <row r="330" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" ht="14.25" customHeight="1">
       <c r="A330" s="23"/>
       <c r="B330" s="15"/>
       <c r="C330" s="15"/>
@@ -18391,7 +18441,7 @@
       <c r="Y330" s="15"/>
       <c r="Z330" s="15"/>
     </row>
-    <row r="331" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" ht="14.25" customHeight="1">
       <c r="A331" s="23"/>
       <c r="B331" s="15"/>
       <c r="C331" s="15"/>
@@ -18419,7 +18469,7 @@
       <c r="Y331" s="15"/>
       <c r="Z331" s="15"/>
     </row>
-    <row r="332" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" ht="14.25" customHeight="1">
       <c r="A332" s="23"/>
       <c r="B332" s="15"/>
       <c r="C332" s="15"/>
@@ -18447,7 +18497,7 @@
       <c r="Y332" s="15"/>
       <c r="Z332" s="15"/>
     </row>
-    <row r="333" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" ht="14.25" customHeight="1">
       <c r="A333" s="23"/>
       <c r="B333" s="15"/>
       <c r="C333" s="15"/>
@@ -18475,7 +18525,7 @@
       <c r="Y333" s="15"/>
       <c r="Z333" s="15"/>
     </row>
-    <row r="334" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" ht="14.25" customHeight="1">
       <c r="A334" s="23"/>
       <c r="B334" s="15"/>
       <c r="C334" s="15"/>
@@ -18503,7 +18553,7 @@
       <c r="Y334" s="15"/>
       <c r="Z334" s="15"/>
     </row>
-    <row r="335" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" ht="14.25" customHeight="1">
       <c r="A335" s="23"/>
       <c r="B335" s="15"/>
       <c r="C335" s="15"/>
@@ -18531,7 +18581,7 @@
       <c r="Y335" s="15"/>
       <c r="Z335" s="15"/>
     </row>
-    <row r="336" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" ht="14.25" customHeight="1">
       <c r="A336" s="23"/>
       <c r="B336" s="15"/>
       <c r="C336" s="15"/>
@@ -18559,7 +18609,7 @@
       <c r="Y336" s="15"/>
       <c r="Z336" s="15"/>
     </row>
-    <row r="337" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" ht="14.25" customHeight="1">
       <c r="A337" s="23"/>
       <c r="B337" s="15"/>
       <c r="C337" s="15"/>
@@ -18587,7 +18637,7 @@
       <c r="Y337" s="15"/>
       <c r="Z337" s="15"/>
     </row>
-    <row r="338" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" ht="14.25" customHeight="1">
       <c r="A338" s="23"/>
       <c r="B338" s="15"/>
       <c r="C338" s="15"/>
@@ -18615,7 +18665,7 @@
       <c r="Y338" s="15"/>
       <c r="Z338" s="15"/>
     </row>
-    <row r="339" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" ht="14.25" customHeight="1">
       <c r="A339" s="23"/>
       <c r="B339" s="15"/>
       <c r="C339" s="15"/>
@@ -18643,7 +18693,7 @@
       <c r="Y339" s="15"/>
       <c r="Z339" s="15"/>
     </row>
-    <row r="340" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" ht="14.25" customHeight="1">
       <c r="A340" s="23"/>
       <c r="B340" s="15"/>
       <c r="C340" s="15"/>
@@ -18671,7 +18721,7 @@
       <c r="Y340" s="15"/>
       <c r="Z340" s="15"/>
     </row>
-    <row r="341" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" ht="14.25" customHeight="1">
       <c r="A341" s="23"/>
       <c r="B341" s="15"/>
       <c r="C341" s="15"/>
@@ -18699,7 +18749,7 @@
       <c r="Y341" s="15"/>
       <c r="Z341" s="15"/>
     </row>
-    <row r="342" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" ht="14.25" customHeight="1">
       <c r="A342" s="23"/>
       <c r="B342" s="15"/>
       <c r="C342" s="15"/>
@@ -18727,7 +18777,7 @@
       <c r="Y342" s="15"/>
       <c r="Z342" s="15"/>
     </row>
-    <row r="343" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" ht="14.25" customHeight="1">
       <c r="A343" s="23"/>
       <c r="B343" s="15"/>
       <c r="C343" s="15"/>
@@ -18755,7 +18805,7 @@
       <c r="Y343" s="15"/>
       <c r="Z343" s="15"/>
     </row>
-    <row r="344" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" ht="14.25" customHeight="1">
       <c r="A344" s="23"/>
       <c r="B344" s="15"/>
       <c r="C344" s="15"/>
@@ -18783,7 +18833,7 @@
       <c r="Y344" s="15"/>
       <c r="Z344" s="15"/>
     </row>
-    <row r="345" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:26" ht="14.25" customHeight="1">
       <c r="A345" s="23"/>
       <c r="B345" s="15"/>
       <c r="C345" s="15"/>
@@ -18811,7 +18861,7 @@
       <c r="Y345" s="15"/>
       <c r="Z345" s="15"/>
     </row>
-    <row r="346" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:26" ht="14.25" customHeight="1">
       <c r="A346" s="23"/>
       <c r="B346" s="15"/>
       <c r="C346" s="15"/>
@@ -18839,7 +18889,7 @@
       <c r="Y346" s="15"/>
       <c r="Z346" s="15"/>
     </row>
-    <row r="347" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:26" ht="14.25" customHeight="1">
       <c r="A347" s="23"/>
       <c r="B347" s="15"/>
       <c r="C347" s="15"/>
@@ -18867,7 +18917,7 @@
       <c r="Y347" s="15"/>
       <c r="Z347" s="15"/>
     </row>
-    <row r="348" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:26" ht="14.25" customHeight="1">
       <c r="A348" s="23"/>
       <c r="B348" s="15"/>
       <c r="C348" s="15"/>
@@ -18895,7 +18945,7 @@
       <c r="Y348" s="15"/>
       <c r="Z348" s="15"/>
     </row>
-    <row r="349" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:26" ht="14.25" customHeight="1">
       <c r="A349" s="23"/>
       <c r="B349" s="15"/>
       <c r="C349" s="15"/>
@@ -18923,7 +18973,7 @@
       <c r="Y349" s="15"/>
       <c r="Z349" s="15"/>
     </row>
-    <row r="350" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:26" ht="14.25" customHeight="1">
       <c r="A350" s="23"/>
       <c r="B350" s="15"/>
       <c r="C350" s="15"/>
@@ -18951,7 +19001,7 @@
       <c r="Y350" s="15"/>
       <c r="Z350" s="15"/>
     </row>
-    <row r="351" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:26" ht="14.25" customHeight="1">
       <c r="A351" s="23"/>
       <c r="B351" s="15"/>
       <c r="C351" s="15"/>
@@ -18979,7 +19029,7 @@
       <c r="Y351" s="15"/>
       <c r="Z351" s="15"/>
     </row>
-    <row r="352" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:26" ht="14.25" customHeight="1">
       <c r="A352" s="23"/>
       <c r="B352" s="15"/>
       <c r="C352" s="15"/>
@@ -19007,7 +19057,7 @@
       <c r="Y352" s="15"/>
       <c r="Z352" s="15"/>
     </row>
-    <row r="353" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:26" ht="14.25" customHeight="1">
       <c r="A353" s="23"/>
       <c r="B353" s="15"/>
       <c r="C353" s="15"/>
@@ -19035,7 +19085,7 @@
       <c r="Y353" s="15"/>
       <c r="Z353" s="15"/>
     </row>
-    <row r="354" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:26" ht="14.25" customHeight="1">
       <c r="A354" s="23"/>
       <c r="B354" s="15"/>
       <c r="C354" s="15"/>
@@ -19063,7 +19113,7 @@
       <c r="Y354" s="15"/>
       <c r="Z354" s="15"/>
     </row>
-    <row r="355" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:26" ht="14.25" customHeight="1">
       <c r="A355" s="23"/>
       <c r="B355" s="15"/>
       <c r="C355" s="15"/>
@@ -19091,7 +19141,7 @@
       <c r="Y355" s="15"/>
       <c r="Z355" s="15"/>
     </row>
-    <row r="356" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:26" ht="14.25" customHeight="1">
       <c r="A356" s="23"/>
       <c r="B356" s="15"/>
       <c r="C356" s="15"/>
@@ -19119,7 +19169,7 @@
       <c r="Y356" s="15"/>
       <c r="Z356" s="15"/>
     </row>
-    <row r="357" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:26" ht="14.25" customHeight="1">
       <c r="A357" s="23"/>
       <c r="B357" s="15"/>
       <c r="C357" s="15"/>
@@ -19147,7 +19197,7 @@
       <c r="Y357" s="15"/>
       <c r="Z357" s="15"/>
     </row>
-    <row r="358" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:26" ht="14.25" customHeight="1">
       <c r="A358" s="23"/>
       <c r="B358" s="15"/>
       <c r="C358" s="15"/>
@@ -19175,7 +19225,7 @@
       <c r="Y358" s="15"/>
       <c r="Z358" s="15"/>
     </row>
-    <row r="359" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:26" ht="14.25" customHeight="1">
       <c r="A359" s="23"/>
       <c r="B359" s="15"/>
       <c r="C359" s="15"/>
@@ -19203,7 +19253,7 @@
       <c r="Y359" s="15"/>
       <c r="Z359" s="15"/>
     </row>
-    <row r="360" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:26" ht="14.25" customHeight="1">
       <c r="A360" s="23"/>
       <c r="B360" s="15"/>
       <c r="C360" s="15"/>
@@ -19231,7 +19281,7 @@
       <c r="Y360" s="15"/>
       <c r="Z360" s="15"/>
     </row>
-    <row r="361" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:26" ht="14.25" customHeight="1">
       <c r="A361" s="23"/>
       <c r="B361" s="15"/>
       <c r="C361" s="15"/>
@@ -19259,7 +19309,7 @@
       <c r="Y361" s="15"/>
       <c r="Z361" s="15"/>
     </row>
-    <row r="362" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:26" ht="14.25" customHeight="1">
       <c r="A362" s="23"/>
       <c r="B362" s="15"/>
       <c r="C362" s="15"/>
@@ -19287,7 +19337,7 @@
       <c r="Y362" s="15"/>
       <c r="Z362" s="15"/>
     </row>
-    <row r="363" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:26" ht="14.25" customHeight="1">
       <c r="A363" s="23"/>
       <c r="B363" s="15"/>
       <c r="C363" s="15"/>
@@ -19315,7 +19365,7 @@
       <c r="Y363" s="15"/>
       <c r="Z363" s="15"/>
     </row>
-    <row r="364" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:26" ht="14.25" customHeight="1">
       <c r="A364" s="23"/>
       <c r="B364" s="15"/>
       <c r="C364" s="15"/>
@@ -19343,7 +19393,7 @@
       <c r="Y364" s="15"/>
       <c r="Z364" s="15"/>
     </row>
-    <row r="365" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:26" ht="14.25" customHeight="1">
       <c r="A365" s="23"/>
       <c r="B365" s="15"/>
       <c r="C365" s="15"/>
@@ -19371,7 +19421,7 @@
       <c r="Y365" s="15"/>
       <c r="Z365" s="15"/>
     </row>
-    <row r="366" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:26" ht="14.25" customHeight="1">
       <c r="A366" s="23"/>
       <c r="B366" s="15"/>
       <c r="C366" s="15"/>
@@ -19399,7 +19449,7 @@
       <c r="Y366" s="15"/>
       <c r="Z366" s="15"/>
     </row>
-    <row r="367" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:26" ht="14.25" customHeight="1">
       <c r="A367" s="23"/>
       <c r="B367" s="15"/>
       <c r="C367" s="15"/>
@@ -19427,7 +19477,7 @@
       <c r="Y367" s="15"/>
       <c r="Z367" s="15"/>
     </row>
-    <row r="368" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:26" ht="14.25" customHeight="1">
       <c r="A368" s="23"/>
       <c r="B368" s="15"/>
       <c r="C368" s="15"/>
@@ -19455,7 +19505,7 @@
       <c r="Y368" s="15"/>
       <c r="Z368" s="15"/>
     </row>
-    <row r="369" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:26" ht="14.25" customHeight="1">
       <c r="A369" s="23"/>
       <c r="B369" s="15"/>
       <c r="C369" s="15"/>
@@ -19483,7 +19533,7 @@
       <c r="Y369" s="15"/>
       <c r="Z369" s="15"/>
     </row>
-    <row r="370" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:26" ht="14.25" customHeight="1">
       <c r="A370" s="23"/>
       <c r="B370" s="15"/>
       <c r="C370" s="15"/>
@@ -19511,7 +19561,7 @@
       <c r="Y370" s="15"/>
       <c r="Z370" s="15"/>
     </row>
-    <row r="371" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:26" ht="14.25" customHeight="1">
       <c r="A371" s="23"/>
       <c r="B371" s="15"/>
       <c r="C371" s="15"/>
@@ -19539,7 +19589,7 @@
       <c r="Y371" s="15"/>
       <c r="Z371" s="15"/>
     </row>
-    <row r="372" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:26" ht="14.25" customHeight="1">
       <c r="A372" s="23"/>
       <c r="B372" s="15"/>
       <c r="C372" s="15"/>
@@ -19567,7 +19617,7 @@
       <c r="Y372" s="15"/>
       <c r="Z372" s="15"/>
     </row>
-    <row r="373" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:26" ht="14.25" customHeight="1">
       <c r="A373" s="23"/>
       <c r="B373" s="15"/>
       <c r="C373" s="15"/>
@@ -19595,7 +19645,7 @@
       <c r="Y373" s="15"/>
       <c r="Z373" s="15"/>
     </row>
-    <row r="374" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:26" ht="14.25" customHeight="1">
       <c r="A374" s="23"/>
       <c r="B374" s="15"/>
       <c r="C374" s="15"/>
@@ -19623,7 +19673,7 @@
       <c r="Y374" s="15"/>
       <c r="Z374" s="15"/>
     </row>
-    <row r="375" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:26" ht="14.25" customHeight="1">
       <c r="A375" s="23"/>
       <c r="B375" s="15"/>
       <c r="C375" s="15"/>
@@ -19651,7 +19701,7 @@
       <c r="Y375" s="15"/>
       <c r="Z375" s="15"/>
     </row>
-    <row r="376" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:26" ht="14.25" customHeight="1">
       <c r="A376" s="23"/>
       <c r="B376" s="15"/>
       <c r="C376" s="15"/>
@@ -19679,7 +19729,7 @@
       <c r="Y376" s="15"/>
       <c r="Z376" s="15"/>
     </row>
-    <row r="377" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:26" ht="14.25" customHeight="1">
       <c r="A377" s="23"/>
       <c r="B377" s="15"/>
       <c r="C377" s="15"/>
@@ -19707,7 +19757,7 @@
       <c r="Y377" s="15"/>
       <c r="Z377" s="15"/>
     </row>
-    <row r="378" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:26" ht="14.25" customHeight="1">
       <c r="A378" s="23"/>
       <c r="B378" s="15"/>
       <c r="C378" s="15"/>
@@ -19735,7 +19785,7 @@
       <c r="Y378" s="15"/>
       <c r="Z378" s="15"/>
     </row>
-    <row r="379" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:26" ht="14.25" customHeight="1">
       <c r="A379" s="23"/>
       <c r="B379" s="15"/>
       <c r="C379" s="15"/>
@@ -19763,7 +19813,7 @@
       <c r="Y379" s="15"/>
       <c r="Z379" s="15"/>
     </row>
-    <row r="380" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:26" ht="14.25" customHeight="1">
       <c r="A380" s="23"/>
       <c r="B380" s="15"/>
       <c r="C380" s="15"/>
@@ -19791,7 +19841,7 @@
       <c r="Y380" s="15"/>
       <c r="Z380" s="15"/>
     </row>
-    <row r="381" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:26" ht="14.25" customHeight="1">
       <c r="A381" s="23"/>
       <c r="B381" s="15"/>
       <c r="C381" s="15"/>
@@ -19819,7 +19869,7 @@
       <c r="Y381" s="15"/>
       <c r="Z381" s="15"/>
     </row>
-    <row r="382" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:26" ht="14.25" customHeight="1">
       <c r="A382" s="23"/>
       <c r="B382" s="15"/>
       <c r="C382" s="15"/>
@@ -19847,7 +19897,7 @@
       <c r="Y382" s="15"/>
       <c r="Z382" s="15"/>
     </row>
-    <row r="383" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:26" ht="14.25" customHeight="1">
       <c r="A383" s="23"/>
       <c r="B383" s="15"/>
       <c r="C383" s="15"/>
@@ -19875,7 +19925,7 @@
       <c r="Y383" s="15"/>
       <c r="Z383" s="15"/>
     </row>
-    <row r="384" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:26" ht="14.25" customHeight="1">
       <c r="A384" s="23"/>
       <c r="B384" s="15"/>
       <c r="C384" s="15"/>
@@ -19903,7 +19953,7 @@
       <c r="Y384" s="15"/>
       <c r="Z384" s="15"/>
     </row>
-    <row r="385" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:26" ht="14.25" customHeight="1">
       <c r="A385" s="23"/>
       <c r="B385" s="15"/>
       <c r="C385" s="15"/>
@@ -19931,7 +19981,7 @@
       <c r="Y385" s="15"/>
       <c r="Z385" s="15"/>
     </row>
-    <row r="386" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:26" ht="14.25" customHeight="1">
       <c r="A386" s="23"/>
       <c r="B386" s="15"/>
       <c r="C386" s="15"/>
@@ -19959,7 +20009,7 @@
       <c r="Y386" s="15"/>
       <c r="Z386" s="15"/>
     </row>
-    <row r="387" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:26" ht="14.25" customHeight="1">
       <c r="A387" s="23"/>
       <c r="B387" s="15"/>
       <c r="C387" s="15"/>
@@ -19987,7 +20037,7 @@
       <c r="Y387" s="15"/>
       <c r="Z387" s="15"/>
     </row>
-    <row r="388" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:26" ht="14.25" customHeight="1">
       <c r="A388" s="23"/>
       <c r="B388" s="15"/>
       <c r="C388" s="15"/>
@@ -20015,7 +20065,7 @@
       <c r="Y388" s="15"/>
       <c r="Z388" s="15"/>
     </row>
-    <row r="389" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:26" ht="14.25" customHeight="1">
       <c r="A389" s="23"/>
       <c r="B389" s="15"/>
       <c r="C389" s="15"/>
@@ -20043,7 +20093,7 @@
       <c r="Y389" s="15"/>
       <c r="Z389" s="15"/>
     </row>
-    <row r="390" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:26" ht="14.25" customHeight="1">
       <c r="A390" s="23"/>
       <c r="B390" s="15"/>
       <c r="C390" s="15"/>
@@ -20071,7 +20121,7 @@
       <c r="Y390" s="15"/>
       <c r="Z390" s="15"/>
     </row>
-    <row r="391" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:26" ht="14.25" customHeight="1">
       <c r="A391" s="23"/>
       <c r="B391" s="15"/>
       <c r="C391" s="15"/>
@@ -20099,7 +20149,7 @@
       <c r="Y391" s="15"/>
       <c r="Z391" s="15"/>
     </row>
-    <row r="392" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:26" ht="14.25" customHeight="1">
       <c r="A392" s="23"/>
       <c r="B392" s="15"/>
       <c r="C392" s="15"/>
@@ -20127,7 +20177,7 @@
       <c r="Y392" s="15"/>
       <c r="Z392" s="15"/>
     </row>
-    <row r="393" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:26" ht="14.25" customHeight="1">
       <c r="A393" s="23"/>
       <c r="B393" s="15"/>
       <c r="C393" s="15"/>
@@ -20155,7 +20205,7 @@
       <c r="Y393" s="15"/>
       <c r="Z393" s="15"/>
     </row>
-    <row r="394" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:26" ht="14.25" customHeight="1">
       <c r="A394" s="23"/>
       <c r="B394" s="15"/>
       <c r="C394" s="15"/>
@@ -20183,7 +20233,7 @@
       <c r="Y394" s="15"/>
       <c r="Z394" s="15"/>
     </row>
-    <row r="395" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:26" ht="14.25" customHeight="1">
       <c r="A395" s="23"/>
       <c r="B395" s="15"/>
       <c r="C395" s="15"/>
@@ -20211,7 +20261,7 @@
       <c r="Y395" s="15"/>
       <c r="Z395" s="15"/>
     </row>
-    <row r="396" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:26" ht="14.25" customHeight="1">
       <c r="A396" s="23"/>
       <c r="B396" s="15"/>
       <c r="C396" s="15"/>
@@ -20239,7 +20289,7 @@
       <c r="Y396" s="15"/>
       <c r="Z396" s="15"/>
     </row>
-    <row r="397" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:26" ht="14.25" customHeight="1">
       <c r="A397" s="23"/>
       <c r="B397" s="15"/>
       <c r="C397" s="15"/>
@@ -20267,7 +20317,7 @@
       <c r="Y397" s="15"/>
       <c r="Z397" s="15"/>
     </row>
-    <row r="398" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:26" ht="14.25" customHeight="1">
       <c r="A398" s="23"/>
       <c r="B398" s="15"/>
       <c r="C398" s="15"/>
@@ -20295,7 +20345,7 @@
       <c r="Y398" s="15"/>
       <c r="Z398" s="15"/>
     </row>
-    <row r="399" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:26" ht="14.25" customHeight="1">
       <c r="A399" s="23"/>
       <c r="B399" s="15"/>
       <c r="C399" s="15"/>
@@ -20323,7 +20373,7 @@
       <c r="Y399" s="15"/>
       <c r="Z399" s="15"/>
     </row>
-    <row r="400" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:26" ht="14.25" customHeight="1">
       <c r="A400" s="23"/>
       <c r="B400" s="15"/>
       <c r="C400" s="15"/>
@@ -20351,7 +20401,7 @@
       <c r="Y400" s="15"/>
       <c r="Z400" s="15"/>
     </row>
-    <row r="401" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:26" ht="14.25" customHeight="1">
       <c r="A401" s="23"/>
       <c r="B401" s="15"/>
       <c r="C401" s="15"/>
@@ -20379,7 +20429,7 @@
       <c r="Y401" s="15"/>
       <c r="Z401" s="15"/>
     </row>
-    <row r="402" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:26" ht="14.25" customHeight="1">
       <c r="A402" s="23"/>
       <c r="B402" s="15"/>
       <c r="C402" s="15"/>
@@ -20407,7 +20457,7 @@
       <c r="Y402" s="15"/>
       <c r="Z402" s="15"/>
     </row>
-    <row r="403" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:26" ht="14.25" customHeight="1">
       <c r="A403" s="23"/>
       <c r="B403" s="15"/>
       <c r="C403" s="15"/>
@@ -20435,7 +20485,7 @@
       <c r="Y403" s="15"/>
       <c r="Z403" s="15"/>
     </row>
-    <row r="404" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:26" ht="14.25" customHeight="1">
       <c r="A404" s="23"/>
       <c r="B404" s="15"/>
       <c r="C404" s="15"/>
@@ -20463,7 +20513,7 @@
       <c r="Y404" s="15"/>
       <c r="Z404" s="15"/>
     </row>
-    <row r="405" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:26" ht="14.25" customHeight="1">
       <c r="A405" s="23"/>
       <c r="B405" s="15"/>
       <c r="C405" s="15"/>
@@ -20491,7 +20541,7 @@
       <c r="Y405" s="15"/>
       <c r="Z405" s="15"/>
     </row>
-    <row r="406" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:26" ht="14.25" customHeight="1">
       <c r="A406" s="23"/>
       <c r="B406" s="15"/>
       <c r="C406" s="15"/>
@@ -20519,7 +20569,7 @@
       <c r="Y406" s="15"/>
       <c r="Z406" s="15"/>
     </row>
-    <row r="407" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:26" ht="14.25" customHeight="1">
       <c r="A407" s="23"/>
       <c r="B407" s="15"/>
       <c r="C407" s="15"/>
@@ -20547,7 +20597,7 @@
       <c r="Y407" s="15"/>
       <c r="Z407" s="15"/>
     </row>
-    <row r="408" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:26" ht="14.25" customHeight="1">
       <c r="A408" s="23"/>
       <c r="B408" s="15"/>
       <c r="C408" s="15"/>
@@ -20575,7 +20625,7 @@
       <c r="Y408" s="15"/>
       <c r="Z408" s="15"/>
     </row>
-    <row r="409" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:26" ht="14.25" customHeight="1">
       <c r="A409" s="23"/>
       <c r="B409" s="15"/>
       <c r="C409" s="15"/>
@@ -20603,7 +20653,7 @@
       <c r="Y409" s="15"/>
       <c r="Z409" s="15"/>
     </row>
-    <row r="410" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:26" ht="14.25" customHeight="1">
       <c r="A410" s="23"/>
       <c r="B410" s="15"/>
       <c r="C410" s="15"/>
@@ -20631,7 +20681,7 @@
       <c r="Y410" s="15"/>
       <c r="Z410" s="15"/>
     </row>
-    <row r="411" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:26" ht="14.25" customHeight="1">
       <c r="A411" s="23"/>
       <c r="B411" s="15"/>
       <c r="C411" s="15"/>
@@ -20659,7 +20709,7 @@
       <c r="Y411" s="15"/>
       <c r="Z411" s="15"/>
     </row>
-    <row r="412" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:26" ht="14.25" customHeight="1">
       <c r="A412" s="23"/>
       <c r="B412" s="15"/>
       <c r="C412" s="15"/>
@@ -20687,7 +20737,7 @@
       <c r="Y412" s="15"/>
       <c r="Z412" s="15"/>
     </row>
-    <row r="413" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:26" ht="14.25" customHeight="1">
       <c r="A413" s="23"/>
       <c r="B413" s="15"/>
       <c r="C413" s="15"/>
@@ -20715,7 +20765,7 @@
       <c r="Y413" s="15"/>
       <c r="Z413" s="15"/>
     </row>
-    <row r="414" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:26" ht="14.25" customHeight="1">
       <c r="A414" s="23"/>
       <c r="B414" s="15"/>
       <c r="C414" s="15"/>
@@ -20743,7 +20793,7 @@
       <c r="Y414" s="15"/>
       <c r="Z414" s="15"/>
     </row>
-    <row r="415" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:26" ht="14.25" customHeight="1">
       <c r="A415" s="23"/>
       <c r="B415" s="15"/>
       <c r="C415" s="15"/>
@@ -20771,7 +20821,7 @@
       <c r="Y415" s="15"/>
       <c r="Z415" s="15"/>
     </row>
-    <row r="416" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:26" ht="14.25" customHeight="1">
       <c r="A416" s="23"/>
       <c r="B416" s="15"/>
       <c r="C416" s="15"/>
@@ -20799,7 +20849,7 @@
       <c r="Y416" s="15"/>
       <c r="Z416" s="15"/>
     </row>
-    <row r="417" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:26" ht="14.25" customHeight="1">
       <c r="A417" s="23"/>
       <c r="B417" s="15"/>
       <c r="C417" s="15"/>
@@ -20827,7 +20877,7 @@
       <c r="Y417" s="15"/>
       <c r="Z417" s="15"/>
     </row>
-    <row r="418" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:26" ht="14.25" customHeight="1">
       <c r="A418" s="23"/>
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
@@ -20855,7 +20905,7 @@
       <c r="Y418" s="15"/>
       <c r="Z418" s="15"/>
     </row>
-    <row r="419" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:26" ht="14.25" customHeight="1">
       <c r="A419" s="23"/>
       <c r="B419" s="15"/>
       <c r="C419" s="15"/>
@@ -20883,7 +20933,7 @@
       <c r="Y419" s="15"/>
       <c r="Z419" s="15"/>
     </row>
-    <row r="420" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:26" ht="14.25" customHeight="1">
       <c r="A420" s="23"/>
       <c r="B420" s="15"/>
       <c r="C420" s="15"/>
@@ -20911,7 +20961,7 @@
       <c r="Y420" s="15"/>
       <c r="Z420" s="15"/>
     </row>
-    <row r="421" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:26" ht="14.25" customHeight="1">
       <c r="A421" s="23"/>
       <c r="B421" s="15"/>
       <c r="C421" s="15"/>
@@ -20939,7 +20989,7 @@
       <c r="Y421" s="15"/>
       <c r="Z421" s="15"/>
     </row>
-    <row r="422" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:26" ht="14.25" customHeight="1">
       <c r="A422" s="23"/>
       <c r="B422" s="15"/>
       <c r="C422" s="15"/>
@@ -20967,7 +21017,7 @@
       <c r="Y422" s="15"/>
       <c r="Z422" s="15"/>
     </row>
-    <row r="423" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:26" ht="14.25" customHeight="1">
       <c r="A423" s="23"/>
       <c r="B423" s="15"/>
       <c r="C423" s="15"/>
@@ -20995,7 +21045,7 @@
       <c r="Y423" s="15"/>
       <c r="Z423" s="15"/>
     </row>
-    <row r="424" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:26" ht="14.25" customHeight="1">
       <c r="A424" s="23"/>
       <c r="B424" s="15"/>
       <c r="C424" s="15"/>
@@ -21023,7 +21073,7 @@
       <c r="Y424" s="15"/>
       <c r="Z424" s="15"/>
     </row>
-    <row r="425" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:26" ht="14.25" customHeight="1">
       <c r="A425" s="23"/>
       <c r="B425" s="15"/>
       <c r="C425" s="15"/>
@@ -21051,7 +21101,7 @@
       <c r="Y425" s="15"/>
       <c r="Z425" s="15"/>
     </row>
-    <row r="426" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:26" ht="14.25" customHeight="1">
       <c r="A426" s="23"/>
       <c r="B426" s="15"/>
       <c r="C426" s="15"/>
@@ -21079,7 +21129,7 @@
       <c r="Y426" s="15"/>
       <c r="Z426" s="15"/>
     </row>
-    <row r="427" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:26" ht="14.25" customHeight="1">
       <c r="A427" s="23"/>
       <c r="B427" s="15"/>
       <c r="C427" s="15"/>
@@ -21107,7 +21157,7 @@
       <c r="Y427" s="15"/>
       <c r="Z427" s="15"/>
     </row>
-    <row r="428" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:26" ht="14.25" customHeight="1">
       <c r="A428" s="23"/>
       <c r="B428" s="15"/>
       <c r="C428" s="15"/>
@@ -21135,7 +21185,7 @@
       <c r="Y428" s="15"/>
       <c r="Z428" s="15"/>
     </row>
-    <row r="429" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:26" ht="14.25" customHeight="1">
       <c r="A429" s="23"/>
       <c r="B429" s="15"/>
       <c r="C429" s="15"/>
@@ -21163,7 +21213,7 @@
       <c r="Y429" s="15"/>
       <c r="Z429" s="15"/>
     </row>
-    <row r="430" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:26" ht="14.25" customHeight="1">
       <c r="A430" s="23"/>
       <c r="B430" s="15"/>
       <c r="C430" s="15"/>
@@ -21191,7 +21241,7 @@
       <c r="Y430" s="15"/>
       <c r="Z430" s="15"/>
     </row>
-    <row r="431" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:26" ht="14.25" customHeight="1">
       <c r="A431" s="23"/>
       <c r="B431" s="15"/>
       <c r="C431" s="15"/>
@@ -21219,7 +21269,7 @@
       <c r="Y431" s="15"/>
       <c r="Z431" s="15"/>
     </row>
-    <row r="432" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:26" ht="14.25" customHeight="1">
       <c r="A432" s="23"/>
       <c r="B432" s="15"/>
       <c r="C432" s="15"/>
@@ -21247,7 +21297,7 @@
       <c r="Y432" s="15"/>
       <c r="Z432" s="15"/>
     </row>
-    <row r="433" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:26" ht="14.25" customHeight="1">
       <c r="A433" s="23"/>
       <c r="B433" s="15"/>
       <c r="C433" s="15"/>
@@ -21275,7 +21325,7 @@
       <c r="Y433" s="15"/>
       <c r="Z433" s="15"/>
     </row>
-    <row r="434" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:26" ht="14.25" customHeight="1">
       <c r="A434" s="23"/>
       <c r="B434" s="15"/>
       <c r="C434" s="15"/>
@@ -21303,7 +21353,7 @@
       <c r="Y434" s="15"/>
       <c r="Z434" s="15"/>
     </row>
-    <row r="435" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:26" ht="14.25" customHeight="1">
       <c r="A435" s="23"/>
       <c r="B435" s="15"/>
       <c r="C435" s="15"/>
@@ -21331,7 +21381,7 @@
       <c r="Y435" s="15"/>
       <c r="Z435" s="15"/>
     </row>
-    <row r="436" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:26" ht="14.25" customHeight="1">
       <c r="A436" s="23"/>
       <c r="B436" s="15"/>
       <c r="C436" s="15"/>
@@ -21359,7 +21409,7 @@
       <c r="Y436" s="15"/>
       <c r="Z436" s="15"/>
     </row>
-    <row r="437" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:26" ht="14.25" customHeight="1">
       <c r="A437" s="23"/>
       <c r="B437" s="15"/>
       <c r="C437" s="15"/>
@@ -21387,7 +21437,7 @@
       <c r="Y437" s="15"/>
       <c r="Z437" s="15"/>
     </row>
-    <row r="438" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:26" ht="14.25" customHeight="1">
       <c r="A438" s="23"/>
       <c r="B438" s="15"/>
       <c r="C438" s="15"/>
@@ -21415,7 +21465,7 @@
       <c r="Y438" s="15"/>
       <c r="Z438" s="15"/>
     </row>
-    <row r="439" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:26" ht="14.25" customHeight="1">
       <c r="A439" s="23"/>
       <c r="B439" s="15"/>
       <c r="C439" s="15"/>
@@ -21443,7 +21493,7 @@
       <c r="Y439" s="15"/>
       <c r="Z439" s="15"/>
     </row>
-    <row r="440" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:26" ht="14.25" customHeight="1">
       <c r="A440" s="23"/>
       <c r="B440" s="15"/>
       <c r="C440" s="15"/>
@@ -21471,7 +21521,7 @@
       <c r="Y440" s="15"/>
       <c r="Z440" s="15"/>
     </row>
-    <row r="441" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:26" ht="14.25" customHeight="1">
       <c r="A441" s="23"/>
       <c r="B441" s="15"/>
       <c r="C441" s="15"/>
@@ -21499,7 +21549,7 @@
       <c r="Y441" s="15"/>
       <c r="Z441" s="15"/>
     </row>
-    <row r="442" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:26" ht="14.25" customHeight="1">
       <c r="A442" s="23"/>
       <c r="B442" s="15"/>
       <c r="C442" s="15"/>
@@ -21527,7 +21577,7 @@
       <c r="Y442" s="15"/>
       <c r="Z442" s="15"/>
     </row>
-    <row r="443" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:26" ht="14.25" customHeight="1">
       <c r="A443" s="23"/>
       <c r="B443" s="15"/>
       <c r="C443" s="15"/>
@@ -21555,7 +21605,7 @@
       <c r="Y443" s="15"/>
       <c r="Z443" s="15"/>
     </row>
-    <row r="444" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:26" ht="14.25" customHeight="1">
       <c r="A444" s="23"/>
       <c r="B444" s="15"/>
       <c r="C444" s="15"/>
@@ -21583,7 +21633,7 @@
       <c r="Y444" s="15"/>
       <c r="Z444" s="15"/>
     </row>
-    <row r="445" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:26" ht="14.25" customHeight="1">
       <c r="A445" s="23"/>
       <c r="B445" s="15"/>
       <c r="C445" s="15"/>
@@ -21611,7 +21661,7 @@
       <c r="Y445" s="15"/>
       <c r="Z445" s="15"/>
     </row>
-    <row r="446" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:26" ht="14.25" customHeight="1">
       <c r="A446" s="23"/>
       <c r="B446" s="15"/>
       <c r="C446" s="15"/>
@@ -21639,7 +21689,7 @@
       <c r="Y446" s="15"/>
       <c r="Z446" s="15"/>
     </row>
-    <row r="447" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:26" ht="14.25" customHeight="1">
       <c r="A447" s="23"/>
       <c r="B447" s="15"/>
       <c r="C447" s="15"/>
@@ -21667,7 +21717,7 @@
       <c r="Y447" s="15"/>
       <c r="Z447" s="15"/>
     </row>
-    <row r="448" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:26" ht="14.25" customHeight="1">
       <c r="A448" s="23"/>
       <c r="B448" s="15"/>
       <c r="C448" s="15"/>
@@ -21695,7 +21745,7 @@
       <c r="Y448" s="15"/>
       <c r="Z448" s="15"/>
     </row>
-    <row r="449" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:26" ht="14.25" customHeight="1">
       <c r="A449" s="23"/>
       <c r="B449" s="15"/>
       <c r="C449" s="15"/>
@@ -21723,7 +21773,7 @@
       <c r="Y449" s="15"/>
       <c r="Z449" s="15"/>
     </row>
-    <row r="450" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:26" ht="14.25" customHeight="1">
       <c r="A450" s="23"/>
       <c r="B450" s="15"/>
       <c r="C450" s="15"/>
@@ -21751,7 +21801,7 @@
       <c r="Y450" s="15"/>
       <c r="Z450" s="15"/>
     </row>
-    <row r="451" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:26" ht="14.25" customHeight="1">
       <c r="A451" s="23"/>
       <c r="B451" s="15"/>
       <c r="C451" s="15"/>
@@ -21779,7 +21829,7 @@
       <c r="Y451" s="15"/>
       <c r="Z451" s="15"/>
     </row>
-    <row r="452" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:26" ht="14.25" customHeight="1">
       <c r="A452" s="23"/>
       <c r="B452" s="15"/>
       <c r="C452" s="15"/>
@@ -21807,7 +21857,7 @@
       <c r="Y452" s="15"/>
       <c r="Z452" s="15"/>
     </row>
-    <row r="453" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:26" ht="14.25" customHeight="1">
       <c r="A453" s="23"/>
       <c r="B453" s="15"/>
       <c r="C453" s="15"/>
@@ -21835,7 +21885,7 @@
       <c r="Y453" s="15"/>
       <c r="Z453" s="15"/>
     </row>
-    <row r="454" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:26" ht="14.25" customHeight="1">
       <c r="A454" s="23"/>
       <c r="B454" s="15"/>
       <c r="C454" s="15"/>
@@ -21863,7 +21913,7 @@
       <c r="Y454" s="15"/>
       <c r="Z454" s="15"/>
     </row>
-    <row r="455" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:26" ht="14.25" customHeight="1">
       <c r="A455" s="23"/>
       <c r="B455" s="15"/>
       <c r="C455" s="15"/>
@@ -21891,7 +21941,7 @@
       <c r="Y455" s="15"/>
       <c r="Z455" s="15"/>
     </row>
-    <row r="456" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:26" ht="14.25" customHeight="1">
       <c r="A456" s="23"/>
       <c r="B456" s="15"/>
       <c r="C456" s="15"/>
@@ -21919,7 +21969,7 @@
       <c r="Y456" s="15"/>
       <c r="Z456" s="15"/>
     </row>
-    <row r="457" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:26" ht="14.25" customHeight="1">
       <c r="A457" s="23"/>
       <c r="B457" s="15"/>
       <c r="C457" s="15"/>
@@ -21947,7 +21997,7 @@
       <c r="Y457" s="15"/>
       <c r="Z457" s="15"/>
     </row>
-    <row r="458" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:26" ht="14.25" customHeight="1">
       <c r="A458" s="23"/>
       <c r="B458" s="15"/>
       <c r="C458" s="15"/>
@@ -21975,7 +22025,7 @@
       <c r="Y458" s="15"/>
       <c r="Z458" s="15"/>
     </row>
-    <row r="459" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:26" ht="14.25" customHeight="1">
       <c r="A459" s="23"/>
       <c r="B459" s="15"/>
       <c r="C459" s="15"/>
@@ -22003,7 +22053,7 @@
       <c r="Y459" s="15"/>
       <c r="Z459" s="15"/>
     </row>
-    <row r="460" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:26" ht="14.25" customHeight="1">
       <c r="A460" s="23"/>
       <c r="B460" s="15"/>
       <c r="C460" s="15"/>
@@ -22031,7 +22081,7 @@
       <c r="Y460" s="15"/>
       <c r="Z460" s="15"/>
     </row>
-    <row r="461" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:26" ht="14.25" customHeight="1">
       <c r="A461" s="23"/>
       <c r="B461" s="15"/>
       <c r="C461" s="15"/>
@@ -22059,7 +22109,7 @@
       <c r="Y461" s="15"/>
       <c r="Z461" s="15"/>
     </row>
-    <row r="462" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:26" ht="14.25" customHeight="1">
       <c r="A462" s="23"/>
       <c r="B462" s="15"/>
       <c r="C462" s="15"/>
@@ -22087,7 +22137,7 @@
       <c r="Y462" s="15"/>
       <c r="Z462" s="15"/>
     </row>
-    <row r="463" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:26" ht="14.25" customHeight="1">
       <c r="A463" s="23"/>
       <c r="B463" s="15"/>
       <c r="C463" s="15"/>
@@ -22115,7 +22165,7 @@
       <c r="Y463" s="15"/>
       <c r="Z463" s="15"/>
     </row>
-    <row r="464" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:26" ht="14.25" customHeight="1">
       <c r="A464" s="23"/>
       <c r="B464" s="15"/>
       <c r="C464" s="15"/>
@@ -22143,7 +22193,7 @@
       <c r="Y464" s="15"/>
       <c r="Z464" s="15"/>
     </row>
-    <row r="465" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:26" ht="14.25" customHeight="1">
       <c r="A465" s="23"/>
       <c r="B465" s="15"/>
       <c r="C465" s="15"/>
@@ -22171,7 +22221,7 @@
       <c r="Y465" s="15"/>
       <c r="Z465" s="15"/>
     </row>
-    <row r="466" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:26" ht="14.25" customHeight="1">
       <c r="A466" s="23"/>
       <c r="B466" s="15"/>
       <c r="C466" s="15"/>
@@ -22199,7 +22249,7 @@
       <c r="Y466" s="15"/>
       <c r="Z466" s="15"/>
     </row>
-    <row r="467" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:26" ht="14.25" customHeight="1">
       <c r="A467" s="23"/>
       <c r="B467" s="15"/>
       <c r="C467" s="15"/>
@@ -22227,7 +22277,7 @@
       <c r="Y467" s="15"/>
       <c r="Z467" s="15"/>
     </row>
-    <row r="468" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:26" ht="14.25" customHeight="1">
       <c r="A468" s="23"/>
       <c r="B468" s="15"/>
       <c r="C468" s="15"/>
@@ -22255,7 +22305,7 @@
       <c r="Y468" s="15"/>
       <c r="Z468" s="15"/>
     </row>
-    <row r="469" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:26" ht="14.25" customHeight="1">
       <c r="A469" s="23"/>
       <c r="B469" s="15"/>
       <c r="C469" s="15"/>
@@ -22283,7 +22333,7 @@
       <c r="Y469" s="15"/>
       <c r="Z469" s="15"/>
     </row>
-    <row r="470" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:26" ht="14.25" customHeight="1">
       <c r="A470" s="23"/>
       <c r="B470" s="15"/>
       <c r="C470" s="15"/>
@@ -22311,7 +22361,7 @@
       <c r="Y470" s="15"/>
       <c r="Z470" s="15"/>
     </row>
-    <row r="471" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:26" ht="14.25" customHeight="1">
       <c r="A471" s="23"/>
       <c r="B471" s="15"/>
       <c r="C471" s="15"/>
@@ -22339,7 +22389,7 @@
       <c r="Y471" s="15"/>
       <c r="Z471" s="15"/>
     </row>
-    <row r="472" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:26" ht="14.25" customHeight="1">
       <c r="A472" s="23"/>
       <c r="B472" s="15"/>
       <c r="C472" s="15"/>
@@ -22367,7 +22417,7 @@
       <c r="Y472" s="15"/>
       <c r="Z472" s="15"/>
     </row>
-    <row r="473" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:26" ht="14.25" customHeight="1">
       <c r="A473" s="23"/>
       <c r="B473" s="15"/>
       <c r="C473" s="15"/>
@@ -22395,7 +22445,7 @@
       <c r="Y473" s="15"/>
       <c r="Z473" s="15"/>
     </row>
-    <row r="474" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:26" ht="14.25" customHeight="1">
       <c r="A474" s="23"/>
       <c r="B474" s="15"/>
       <c r="C474" s="15"/>
@@ -22423,7 +22473,7 @@
       <c r="Y474" s="15"/>
       <c r="Z474" s="15"/>
     </row>
-    <row r="475" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:26" ht="14.25" customHeight="1">
       <c r="A475" s="23"/>
       <c r="B475" s="15"/>
       <c r="C475" s="15"/>
@@ -22451,7 +22501,7 @@
       <c r="Y475" s="15"/>
       <c r="Z475" s="15"/>
     </row>
-    <row r="476" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:26" ht="14.25" customHeight="1">
       <c r="A476" s="23"/>
       <c r="B476" s="15"/>
       <c r="C476" s="15"/>
@@ -22479,7 +22529,7 @@
       <c r="Y476" s="15"/>
       <c r="Z476" s="15"/>
     </row>
-    <row r="477" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:26" ht="14.25" customHeight="1">
       <c r="A477" s="23"/>
       <c r="B477" s="15"/>
       <c r="C477" s="15"/>
@@ -22507,7 +22557,7 @@
       <c r="Y477" s="15"/>
       <c r="Z477" s="15"/>
     </row>
-    <row r="478" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:26" ht="14.25" customHeight="1">
       <c r="A478" s="23"/>
       <c r="B478" s="15"/>
       <c r="C478" s="15"/>
@@ -22535,7 +22585,7 @@
       <c r="Y478" s="15"/>
       <c r="Z478" s="15"/>
     </row>
-    <row r="479" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:26" ht="14.25" customHeight="1">
       <c r="A479" s="23"/>
       <c r="B479" s="15"/>
       <c r="C479" s="15"/>
@@ -22563,7 +22613,7 @@
       <c r="Y479" s="15"/>
       <c r="Z479" s="15"/>
     </row>
-    <row r="480" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:26" ht="14.25" customHeight="1">
       <c r="A480" s="23"/>
       <c r="B480" s="15"/>
       <c r="C480" s="15"/>
@@ -22591,7 +22641,7 @@
       <c r="Y480" s="15"/>
       <c r="Z480" s="15"/>
     </row>
-    <row r="481" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:26" ht="14.25" customHeight="1">
       <c r="A481" s="23"/>
       <c r="B481" s="15"/>
       <c r="C481" s="15"/>
@@ -22619,7 +22669,7 @@
       <c r="Y481" s="15"/>
       <c r="Z481" s="15"/>
     </row>
-    <row r="482" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:26" ht="14.25" customHeight="1">
       <c r="A482" s="23"/>
       <c r="B482" s="15"/>
       <c r="C482" s="15"/>
@@ -22647,7 +22697,7 @@
       <c r="Y482" s="15"/>
       <c r="Z482" s="15"/>
     </row>
-    <row r="483" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:26" ht="14.25" customHeight="1">
       <c r="A483" s="23"/>
       <c r="B483" s="15"/>
       <c r="C483" s="15"/>
@@ -22675,7 +22725,7 @@
       <c r="Y483" s="15"/>
       <c r="Z483" s="15"/>
     </row>
-    <row r="484" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:26" ht="14.25" customHeight="1">
       <c r="A484" s="23"/>
       <c r="B484" s="15"/>
       <c r="C484" s="15"/>
@@ -22703,7 +22753,7 @@
       <c r="Y484" s="15"/>
       <c r="Z484" s="15"/>
     </row>
-    <row r="485" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:26" ht="14.25" customHeight="1">
       <c r="A485" s="23"/>
       <c r="B485" s="15"/>
       <c r="C485" s="15"/>
@@ -22731,7 +22781,7 @@
       <c r="Y485" s="15"/>
       <c r="Z485" s="15"/>
     </row>
-    <row r="486" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:26" ht="14.25" customHeight="1">
       <c r="A486" s="23"/>
       <c r="B486" s="15"/>
       <c r="C486" s="15"/>
@@ -22759,7 +22809,7 @@
       <c r="Y486" s="15"/>
       <c r="Z486" s="15"/>
     </row>
-    <row r="487" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:26" ht="14.25" customHeight="1">
       <c r="A487" s="23"/>
       <c r="B487" s="15"/>
       <c r="C487" s="15"/>
@@ -22787,7 +22837,7 @@
       <c r="Y487" s="15"/>
       <c r="Z487" s="15"/>
     </row>
-    <row r="488" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:26" ht="14.25" customHeight="1">
       <c r="A488" s="23"/>
       <c r="B488" s="15"/>
       <c r="C488" s="15"/>
@@ -22815,7 +22865,7 @@
       <c r="Y488" s="15"/>
       <c r="Z488" s="15"/>
     </row>
-    <row r="489" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:26" ht="14.25" customHeight="1">
       <c r="A489" s="23"/>
       <c r="B489" s="15"/>
       <c r="C489" s="15"/>
@@ -22843,7 +22893,7 @@
       <c r="Y489" s="15"/>
       <c r="Z489" s="15"/>
     </row>
-    <row r="490" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:26" ht="14.25" customHeight="1">
       <c r="A490" s="23"/>
       <c r="B490" s="15"/>
       <c r="C490" s="15"/>
@@ -22871,7 +22921,7 @@
       <c r="Y490" s="15"/>
       <c r="Z490" s="15"/>
     </row>
-    <row r="491" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:26" ht="14.25" customHeight="1">
       <c r="A491" s="23"/>
       <c r="B491" s="15"/>
       <c r="C491" s="15"/>
@@ -22899,7 +22949,7 @@
       <c r="Y491" s="15"/>
       <c r="Z491" s="15"/>
     </row>
-    <row r="492" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:26" ht="14.25" customHeight="1">
       <c r="A492" s="23"/>
       <c r="B492" s="15"/>
       <c r="C492" s="15"/>
@@ -22927,7 +22977,7 @@
       <c r="Y492" s="15"/>
       <c r="Z492" s="15"/>
     </row>
-    <row r="493" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:26" ht="14.25" customHeight="1">
       <c r="A493" s="23"/>
       <c r="B493" s="15"/>
       <c r="C493" s="15"/>
@@ -22955,7 +23005,7 @@
       <c r="Y493" s="15"/>
       <c r="Z493" s="15"/>
     </row>
-    <row r="494" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:26" ht="14.25" customHeight="1">
       <c r="A494" s="23"/>
       <c r="B494" s="15"/>
       <c r="C494" s="15"/>
@@ -22983,7 +23033,7 @@
       <c r="Y494" s="15"/>
       <c r="Z494" s="15"/>
     </row>
-    <row r="495" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:26" ht="14.25" customHeight="1">
       <c r="A495" s="23"/>
       <c r="B495" s="15"/>
       <c r="C495" s="15"/>
@@ -23011,7 +23061,7 @@
       <c r="Y495" s="15"/>
       <c r="Z495" s="15"/>
     </row>
-    <row r="496" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:26" ht="14.25" customHeight="1">
       <c r="A496" s="23"/>
       <c r="B496" s="15"/>
       <c r="C496" s="15"/>
@@ -23039,7 +23089,7 @@
       <c r="Y496" s="15"/>
       <c r="Z496" s="15"/>
     </row>
-    <row r="497" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:26" ht="14.25" customHeight="1">
       <c r="A497" s="23"/>
       <c r="B497" s="15"/>
       <c r="C497" s="15"/>
@@ -23067,7 +23117,7 @@
       <c r="Y497" s="15"/>
       <c r="Z497" s="15"/>
     </row>
-    <row r="498" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:26" ht="14.25" customHeight="1">
       <c r="A498" s="23"/>
       <c r="B498" s="15"/>
       <c r="C498" s="15"/>
@@ -23095,7 +23145,7 @@
       <c r="Y498" s="15"/>
       <c r="Z498" s="15"/>
     </row>
-    <row r="499" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:26" ht="14.25" customHeight="1">
       <c r="A499" s="23"/>
       <c r="B499" s="15"/>
       <c r="C499" s="15"/>
@@ -23123,7 +23173,7 @@
       <c r="Y499" s="15"/>
       <c r="Z499" s="15"/>
     </row>
-    <row r="500" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:26" ht="14.25" customHeight="1">
       <c r="A500" s="23"/>
       <c r="B500" s="15"/>
       <c r="C500" s="15"/>
@@ -23151,7 +23201,7 @@
       <c r="Y500" s="15"/>
       <c r="Z500" s="15"/>
     </row>
-    <row r="501" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:26" ht="14.25" customHeight="1">
       <c r="A501" s="23"/>
       <c r="B501" s="15"/>
       <c r="C501" s="15"/>
@@ -23179,7 +23229,7 @@
       <c r="Y501" s="15"/>
       <c r="Z501" s="15"/>
     </row>
-    <row r="502" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:26" ht="14.25" customHeight="1">
       <c r="A502" s="23"/>
       <c r="B502" s="15"/>
       <c r="C502" s="15"/>
@@ -23207,7 +23257,7 @@
       <c r="Y502" s="15"/>
       <c r="Z502" s="15"/>
     </row>
-    <row r="503" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:26" ht="14.25" customHeight="1">
       <c r="A503" s="23"/>
       <c r="B503" s="15"/>
       <c r="C503" s="15"/>
@@ -23235,7 +23285,7 @@
       <c r="Y503" s="15"/>
       <c r="Z503" s="15"/>
     </row>
-    <row r="504" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:26" ht="14.25" customHeight="1">
       <c r="A504" s="23"/>
       <c r="B504" s="15"/>
       <c r="C504" s="15"/>
@@ -23263,7 +23313,7 @@
       <c r="Y504" s="15"/>
       <c r="Z504" s="15"/>
     </row>
-    <row r="505" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:26" ht="14.25" customHeight="1">
       <c r="A505" s="23"/>
       <c r="B505" s="15"/>
       <c r="C505" s="15"/>
@@ -23291,7 +23341,7 @@
       <c r="Y505" s="15"/>
       <c r="Z505" s="15"/>
     </row>
-    <row r="506" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:26" ht="14.25" customHeight="1">
       <c r="A506" s="23"/>
       <c r="B506" s="15"/>
       <c r="C506" s="15"/>
@@ -23319,7 +23369,7 @@
       <c r="Y506" s="15"/>
       <c r="Z506" s="15"/>
     </row>
-    <row r="507" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:26" ht="14.25" customHeight="1">
       <c r="A507" s="23"/>
       <c r="B507" s="15"/>
       <c r="C507" s="15"/>
@@ -23347,7 +23397,7 @@
       <c r="Y507" s="15"/>
       <c r="Z507" s="15"/>
     </row>
-    <row r="508" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:26" ht="14.25" customHeight="1">
       <c r="A508" s="23"/>
       <c r="B508" s="15"/>
       <c r="C508" s="15"/>
@@ -23375,7 +23425,7 @@
       <c r="Y508" s="15"/>
       <c r="Z508" s="15"/>
     </row>
-    <row r="509" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:26" ht="14.25" customHeight="1">
       <c r="A509" s="23"/>
       <c r="B509" s="15"/>
       <c r="C509" s="15"/>
@@ -23403,7 +23453,7 @@
       <c r="Y509" s="15"/>
       <c r="Z509" s="15"/>
     </row>
-    <row r="510" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:26" ht="14.25" customHeight="1">
       <c r="A510" s="23"/>
       <c r="B510" s="15"/>
       <c r="C510" s="15"/>
@@ -23431,7 +23481,7 @@
       <c r="Y510" s="15"/>
       <c r="Z510" s="15"/>
     </row>
-    <row r="511" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:26" ht="14.25" customHeight="1">
       <c r="A511" s="23"/>
       <c r="B511" s="15"/>
       <c r="C511" s="15"/>
@@ -23459,7 +23509,7 @@
       <c r="Y511" s="15"/>
       <c r="Z511" s="15"/>
     </row>
-    <row r="512" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:26" ht="14.25" customHeight="1">
       <c r="A512" s="23"/>
       <c r="B512" s="15"/>
       <c r="C512" s="15"/>
@@ -23487,7 +23537,7 @@
       <c r="Y512" s="15"/>
       <c r="Z512" s="15"/>
     </row>
-    <row r="513" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:26" ht="14.25" customHeight="1">
       <c r="A513" s="23"/>
       <c r="B513" s="15"/>
       <c r="C513" s="15"/>
@@ -23515,7 +23565,7 @@
       <c r="Y513" s="15"/>
       <c r="Z513" s="15"/>
     </row>
-    <row r="514" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:26" ht="14.25" customHeight="1">
       <c r="A514" s="23"/>
       <c r="B514" s="15"/>
       <c r="C514" s="15"/>
@@ -23543,7 +23593,7 @@
       <c r="Y514" s="15"/>
       <c r="Z514" s="15"/>
     </row>
-    <row r="515" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:26" ht="14.25" customHeight="1">
       <c r="A515" s="23"/>
       <c r="B515" s="15"/>
       <c r="C515" s="15"/>
@@ -23571,7 +23621,7 @@
       <c r="Y515" s="15"/>
       <c r="Z515" s="15"/>
     </row>
-    <row r="516" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:26" ht="14.25" customHeight="1">
       <c r="A516" s="23"/>
       <c r="B516" s="15"/>
       <c r="C516" s="15"/>
@@ -23599,7 +23649,7 @@
       <c r="Y516" s="15"/>
       <c r="Z516" s="15"/>
     </row>
-    <row r="517" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:26" ht="14.25" customHeight="1">
       <c r="A517" s="23"/>
       <c r="B517" s="15"/>
       <c r="C517" s="15"/>
@@ -23627,7 +23677,7 @@
       <c r="Y517" s="15"/>
       <c r="Z517" s="15"/>
     </row>
-    <row r="518" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:26" ht="14.25" customHeight="1">
       <c r="A518" s="23"/>
       <c r="B518" s="15"/>
       <c r="C518" s="15"/>
@@ -23655,7 +23705,7 @@
       <c r="Y518" s="15"/>
       <c r="Z518" s="15"/>
     </row>
-    <row r="519" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:26" ht="14.25" customHeight="1">
       <c r="A519" s="23"/>
       <c r="B519" s="15"/>
       <c r="C519" s="15"/>
@@ -23683,7 +23733,7 @@
       <c r="Y519" s="15"/>
       <c r="Z519" s="15"/>
     </row>
-    <row r="520" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:26" ht="14.25" customHeight="1">
       <c r="A520" s="23"/>
       <c r="B520" s="15"/>
       <c r="C520" s="15"/>
@@ -23711,7 +23761,7 @@
       <c r="Y520" s="15"/>
       <c r="Z520" s="15"/>
     </row>
-    <row r="521" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:26" ht="14.25" customHeight="1">
       <c r="A521" s="23"/>
       <c r="B521" s="15"/>
       <c r="C521" s="15"/>
@@ -23739,7 +23789,7 @@
       <c r="Y521" s="15"/>
       <c r="Z521" s="15"/>
     </row>
-    <row r="522" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:26" ht="14.25" customHeight="1">
       <c r="A522" s="23"/>
       <c r="B522" s="15"/>
       <c r="C522" s="15"/>
@@ -23767,7 +23817,7 @@
       <c r="Y522" s="15"/>
       <c r="Z522" s="15"/>
     </row>
-    <row r="523" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:26" ht="14.25" customHeight="1">
       <c r="A523" s="23"/>
       <c r="B523" s="15"/>
       <c r="C523" s="15"/>
@@ -23795,7 +23845,7 @@
       <c r="Y523" s="15"/>
       <c r="Z523" s="15"/>
     </row>
-    <row r="524" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:26" ht="14.25" customHeight="1">
       <c r="A524" s="23"/>
       <c r="B524" s="15"/>
       <c r="C524" s="15"/>
@@ -23823,7 +23873,7 @@
       <c r="Y524" s="15"/>
       <c r="Z524" s="15"/>
     </row>
-    <row r="525" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:26" ht="14.25" customHeight="1">
       <c r="A525" s="23"/>
       <c r="B525" s="15"/>
       <c r="C525" s="15"/>
@@ -23851,7 +23901,7 @@
       <c r="Y525" s="15"/>
       <c r="Z525" s="15"/>
     </row>
-    <row r="526" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:26" ht="14.25" customHeight="1">
       <c r="A526" s="23"/>
       <c r="B526" s="15"/>
       <c r="C526" s="15"/>
@@ -23879,7 +23929,7 @@
       <c r="Y526" s="15"/>
       <c r="Z526" s="15"/>
     </row>
-    <row r="527" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:26" ht="14.25" customHeight="1">
       <c r="A527" s="23"/>
       <c r="B527" s="15"/>
       <c r="C527" s="15"/>
@@ -23907,7 +23957,7 @@
       <c r="Y527" s="15"/>
       <c r="Z527" s="15"/>
     </row>
-    <row r="528" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:26" ht="14.25" customHeight="1">
       <c r="A528" s="23"/>
       <c r="B528" s="15"/>
       <c r="C528" s="15"/>
@@ -23935,7 +23985,7 @@
       <c r="Y528" s="15"/>
       <c r="Z528" s="15"/>
     </row>
-    <row r="529" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:26" ht="14.25" customHeight="1">
       <c r="A529" s="23"/>
       <c r="B529" s="15"/>
       <c r="C529" s="15"/>
@@ -23963,7 +24013,7 @@
       <c r="Y529" s="15"/>
       <c r="Z529" s="15"/>
     </row>
-    <row r="530" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:26" ht="14.25" customHeight="1">
       <c r="A530" s="23"/>
       <c r="B530" s="15"/>
       <c r="C530" s="15"/>
@@ -23991,7 +24041,7 @@
       <c r="Y530" s="15"/>
       <c r="Z530" s="15"/>
     </row>
-    <row r="531" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:26" ht="14.25" customHeight="1">
       <c r="A531" s="23"/>
       <c r="B531" s="15"/>
       <c r="C531" s="15"/>
@@ -24019,7 +24069,7 @@
       <c r="Y531" s="15"/>
       <c r="Z531" s="15"/>
     </row>
-    <row r="532" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:26" ht="14.25" customHeight="1">
       <c r="A532" s="23"/>
       <c r="B532" s="15"/>
       <c r="C532" s="15"/>
@@ -24047,7 +24097,7 @@
       <c r="Y532" s="15"/>
       <c r="Z532" s="15"/>
     </row>
-    <row r="533" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:26" ht="14.25" customHeight="1">
       <c r="A533" s="23"/>
       <c r="B533" s="15"/>
       <c r="C533" s="15"/>
@@ -24075,7 +24125,7 @@
       <c r="Y533" s="15"/>
       <c r="Z533" s="15"/>
     </row>
-    <row r="534" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:26" ht="14.25" customHeight="1">
       <c r="A534" s="23"/>
       <c r="B534" s="15"/>
       <c r="C534" s="15"/>
@@ -24103,7 +24153,7 @@
       <c r="Y534" s="15"/>
       <c r="Z534" s="15"/>
     </row>
-    <row r="535" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:26" ht="14.25" customHeight="1">
       <c r="A535" s="23"/>
       <c r="B535" s="15"/>
       <c r="C535" s="15"/>
@@ -24131,7 +24181,7 @@
       <c r="Y535" s="15"/>
       <c r="Z535" s="15"/>
     </row>
-    <row r="536" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:26" ht="14.25" customHeight="1">
       <c r="A536" s="23"/>
       <c r="B536" s="15"/>
       <c r="C536" s="15"/>
@@ -24159,7 +24209,7 @@
       <c r="Y536" s="15"/>
       <c r="Z536" s="15"/>
     </row>
-    <row r="537" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:26" ht="14.25" customHeight="1">
       <c r="A537" s="23"/>
       <c r="B537" s="15"/>
       <c r="C537" s="15"/>
@@ -24187,7 +24237,7 @@
       <c r="Y537" s="15"/>
       <c r="Z537" s="15"/>
     </row>
-    <row r="538" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:26" ht="14.25" customHeight="1">
       <c r="A538" s="23"/>
       <c r="B538" s="15"/>
       <c r="C538" s="15"/>
@@ -24215,7 +24265,7 @@
       <c r="Y538" s="15"/>
       <c r="Z538" s="15"/>
     </row>
-    <row r="539" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:26" ht="14.25" customHeight="1">
       <c r="A539" s="23"/>
       <c r="B539" s="15"/>
       <c r="C539" s="15"/>
@@ -24243,7 +24293,7 @@
       <c r="Y539" s="15"/>
       <c r="Z539" s="15"/>
     </row>
-    <row r="540" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:26" ht="14.25" customHeight="1">
       <c r="A540" s="23"/>
       <c r="B540" s="15"/>
       <c r="C540" s="15"/>
@@ -24271,7 +24321,7 @@
       <c r="Y540" s="15"/>
       <c r="Z540" s="15"/>
     </row>
-    <row r="541" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:26" ht="14.25" customHeight="1">
       <c r="A541" s="23"/>
       <c r="B541" s="15"/>
       <c r="C541" s="15"/>
@@ -24299,7 +24349,7 @@
       <c r="Y541" s="15"/>
       <c r="Z541" s="15"/>
     </row>
-    <row r="542" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:26" ht="14.25" customHeight="1">
       <c r="A542" s="23"/>
       <c r="B542" s="15"/>
       <c r="C542" s="15"/>
@@ -24327,7 +24377,7 @@
       <c r="Y542" s="15"/>
       <c r="Z542" s="15"/>
     </row>
-    <row r="543" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:26" ht="14.25" customHeight="1">
       <c r="A543" s="23"/>
       <c r="B543" s="15"/>
       <c r="C543" s="15"/>
@@ -24355,7 +24405,7 @@
       <c r="Y543" s="15"/>
       <c r="Z543" s="15"/>
     </row>
-    <row r="544" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:26" ht="14.25" customHeight="1">
       <c r="A544" s="23"/>
       <c r="B544" s="15"/>
       <c r="C544" s="15"/>
@@ -24383,7 +24433,7 @@
       <c r="Y544" s="15"/>
       <c r="Z544" s="15"/>
     </row>
-    <row r="545" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:26" ht="14.25" customHeight="1">
       <c r="A545" s="23"/>
       <c r="B545" s="15"/>
       <c r="C545" s="15"/>
@@ -24411,7 +24461,7 @@
       <c r="Y545" s="15"/>
       <c r="Z545" s="15"/>
     </row>
-    <row r="546" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:26" ht="14.25" customHeight="1">
       <c r="A546" s="23"/>
       <c r="B546" s="15"/>
       <c r="C546" s="15"/>
@@ -24439,7 +24489,7 @@
       <c r="Y546" s="15"/>
       <c r="Z546" s="15"/>
     </row>
-    <row r="547" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:26" ht="14.25" customHeight="1">
       <c r="A547" s="23"/>
       <c r="B547" s="15"/>
       <c r="C547" s="15"/>
@@ -24467,7 +24517,7 @@
       <c r="Y547" s="15"/>
       <c r="Z547" s="15"/>
     </row>
-    <row r="548" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:26" ht="14.25" customHeight="1">
       <c r="A548" s="23"/>
       <c r="B548" s="15"/>
       <c r="C548" s="15"/>
@@ -24495,7 +24545,7 @@
       <c r="Y548" s="15"/>
       <c r="Z548" s="15"/>
     </row>
-    <row r="549" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:26" ht="14.25" customHeight="1">
       <c r="A549" s="23"/>
       <c r="B549" s="15"/>
       <c r="C549" s="15"/>
@@ -24523,7 +24573,7 @@
       <c r="Y549" s="15"/>
       <c r="Z549" s="15"/>
     </row>
-    <row r="550" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:26" ht="14.25" customHeight="1">
       <c r="A550" s="23"/>
       <c r="B550" s="15"/>
       <c r="C550" s="15"/>
@@ -24551,7 +24601,7 @@
       <c r="Y550" s="15"/>
       <c r="Z550" s="15"/>
     </row>
-    <row r="551" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:26" ht="14.25" customHeight="1">
       <c r="A551" s="23"/>
       <c r="B551" s="15"/>
       <c r="C551" s="15"/>
@@ -24579,7 +24629,7 @@
       <c r="Y551" s="15"/>
       <c r="Z551" s="15"/>
     </row>
-    <row r="552" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:26" ht="14.25" customHeight="1">
       <c r="A552" s="23"/>
       <c r="B552" s="15"/>
       <c r="C552" s="15"/>
@@ -24607,7 +24657,7 @@
       <c r="Y552" s="15"/>
       <c r="Z552" s="15"/>
     </row>
-    <row r="553" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:26" ht="14.25" customHeight="1">
       <c r="A553" s="23"/>
       <c r="B553" s="15"/>
       <c r="C553" s="15"/>
@@ -24635,7 +24685,7 @@
       <c r="Y553" s="15"/>
       <c r="Z553" s="15"/>
     </row>
-    <row r="554" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:26" ht="14.25" customHeight="1">
       <c r="A554" s="23"/>
       <c r="B554" s="15"/>
       <c r="C554" s="15"/>
@@ -24663,7 +24713,7 @@
       <c r="Y554" s="15"/>
       <c r="Z554" s="15"/>
     </row>
-    <row r="555" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:26" ht="14.25" customHeight="1">
       <c r="A555" s="23"/>
       <c r="B555" s="15"/>
       <c r="C555" s="15"/>
@@ -24691,7 +24741,7 @@
       <c r="Y555" s="15"/>
       <c r="Z555" s="15"/>
     </row>
-    <row r="556" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:26" ht="14.25" customHeight="1">
       <c r="A556" s="23"/>
       <c r="B556" s="15"/>
       <c r="C556" s="15"/>
@@ -24719,7 +24769,7 @@
       <c r="Y556" s="15"/>
       <c r="Z556" s="15"/>
     </row>
-    <row r="557" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:26" ht="14.25" customHeight="1">
       <c r="A557" s="23"/>
       <c r="B557" s="15"/>
       <c r="C557" s="15"/>
@@ -24747,7 +24797,7 @@
       <c r="Y557" s="15"/>
       <c r="Z557" s="15"/>
     </row>
-    <row r="558" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:26" ht="14.25" customHeight="1">
       <c r="A558" s="23"/>
       <c r="B558" s="15"/>
       <c r="C558" s="15"/>
@@ -24775,7 +24825,7 @@
       <c r="Y558" s="15"/>
       <c r="Z558" s="15"/>
     </row>
-    <row r="559" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:26" ht="14.25" customHeight="1">
       <c r="A559" s="23"/>
       <c r="B559" s="15"/>
       <c r="C559" s="15"/>
@@ -24803,7 +24853,7 @@
       <c r="Y559" s="15"/>
       <c r="Z559" s="15"/>
     </row>
-    <row r="560" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:26" ht="14.25" customHeight="1">
       <c r="A560" s="23"/>
       <c r="B560" s="15"/>
       <c r="C560" s="15"/>
@@ -24831,7 +24881,7 @@
       <c r="Y560" s="15"/>
       <c r="Z560" s="15"/>
     </row>
-    <row r="561" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:26" ht="14.25" customHeight="1">
       <c r="A561" s="23"/>
       <c r="B561" s="15"/>
       <c r="C561" s="15"/>
@@ -24859,7 +24909,7 @@
       <c r="Y561" s="15"/>
       <c r="Z561" s="15"/>
     </row>
-    <row r="562" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:26" ht="14.25" customHeight="1">
       <c r="A562" s="23"/>
       <c r="B562" s="15"/>
       <c r="C562" s="15"/>
@@ -24887,7 +24937,7 @@
       <c r="Y562" s="15"/>
       <c r="Z562" s="15"/>
     </row>
-    <row r="563" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:26" ht="14.25" customHeight="1">
       <c r="A563" s="23"/>
       <c r="B563" s="15"/>
       <c r="C563" s="15"/>
@@ -24915,7 +24965,7 @@
       <c r="Y563" s="15"/>
       <c r="Z563" s="15"/>
     </row>
-    <row r="564" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:26" ht="14.25" customHeight="1">
       <c r="A564" s="23"/>
       <c r="B564" s="15"/>
       <c r="C564" s="15"/>
@@ -24943,7 +24993,7 @@
       <c r="Y564" s="15"/>
       <c r="Z564" s="15"/>
     </row>
-    <row r="565" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:26" ht="14.25" customHeight="1">
       <c r="A565" s="23"/>
       <c r="B565" s="15"/>
       <c r="C565" s="15"/>
@@ -24971,7 +25021,7 @@
       <c r="Y565" s="15"/>
       <c r="Z565" s="15"/>
     </row>
-    <row r="566" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:26" ht="14.25" customHeight="1">
       <c r="A566" s="23"/>
       <c r="B566" s="15"/>
       <c r="C566" s="15"/>
@@ -24999,7 +25049,7 @@
       <c r="Y566" s="15"/>
       <c r="Z566" s="15"/>
     </row>
-    <row r="567" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:26" ht="14.25" customHeight="1">
       <c r="A567" s="23"/>
       <c r="B567" s="15"/>
       <c r="C567" s="15"/>
@@ -25027,7 +25077,7 @@
       <c r="Y567" s="15"/>
       <c r="Z567" s="15"/>
     </row>
-    <row r="568" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:26" ht="14.25" customHeight="1">
       <c r="A568" s="23"/>
       <c r="B568" s="15"/>
       <c r="C568" s="15"/>
@@ -25055,7 +25105,7 @@
       <c r="Y568" s="15"/>
       <c r="Z568" s="15"/>
     </row>
-    <row r="569" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:26" ht="14.25" customHeight="1">
       <c r="A569" s="23"/>
       <c r="B569" s="15"/>
       <c r="C569" s="15"/>
@@ -25083,7 +25133,7 @@
       <c r="Y569" s="15"/>
       <c r="Z569" s="15"/>
     </row>
-    <row r="570" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:26" ht="14.25" customHeight="1">
       <c r="A570" s="23"/>
       <c r="B570" s="15"/>
       <c r="C570" s="15"/>
@@ -25111,7 +25161,7 @@
       <c r="Y570" s="15"/>
       <c r="Z570" s="15"/>
     </row>
-    <row r="571" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:26" ht="14.25" customHeight="1">
       <c r="A571" s="23"/>
       <c r="B571" s="15"/>
       <c r="C571" s="15"/>
@@ -25139,7 +25189,7 @@
       <c r="Y571" s="15"/>
       <c r="Z571" s="15"/>
     </row>
-    <row r="572" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:26" ht="14.25" customHeight="1">
       <c r="A572" s="23"/>
       <c r="B572" s="15"/>
       <c r="C572" s="15"/>
@@ -25167,7 +25217,7 @@
       <c r="Y572" s="15"/>
       <c r="Z572" s="15"/>
     </row>
-    <row r="573" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:26" ht="14.25" customHeight="1">
       <c r="A573" s="23"/>
       <c r="B573" s="15"/>
       <c r="C573" s="15"/>
@@ -25195,7 +25245,7 @@
       <c r="Y573" s="15"/>
       <c r="Z573" s="15"/>
     </row>
-    <row r="574" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:26" ht="14.25" customHeight="1">
       <c r="A574" s="23"/>
       <c r="B574" s="15"/>
       <c r="C574" s="15"/>
@@ -25223,7 +25273,7 @@
       <c r="Y574" s="15"/>
       <c r="Z574" s="15"/>
     </row>
-    <row r="575" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:26" ht="14.25" customHeight="1">
       <c r="A575" s="23"/>
       <c r="B575" s="15"/>
       <c r="C575" s="15"/>
@@ -25251,7 +25301,7 @@
       <c r="Y575" s="15"/>
       <c r="Z575" s="15"/>
     </row>
-    <row r="576" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:26" ht="14.25" customHeight="1">
       <c r="A576" s="23"/>
       <c r="B576" s="15"/>
       <c r="C576" s="15"/>
@@ -25279,7 +25329,7 @@
       <c r="Y576" s="15"/>
       <c r="Z576" s="15"/>
     </row>
-    <row r="577" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:26" ht="14.25" customHeight="1">
       <c r="A577" s="23"/>
       <c r="B577" s="15"/>
       <c r="C577" s="15"/>
@@ -25307,7 +25357,7 @@
       <c r="Y577" s="15"/>
       <c r="Z577" s="15"/>
     </row>
-    <row r="578" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:26" ht="14.25" customHeight="1">
       <c r="A578" s="23"/>
       <c r="B578" s="15"/>
       <c r="C578" s="15"/>
@@ -25335,7 +25385,7 @@
       <c r="Y578" s="15"/>
       <c r="Z578" s="15"/>
     </row>
-    <row r="579" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:26" ht="14.25" customHeight="1">
       <c r="A579" s="23"/>
       <c r="B579" s="15"/>
       <c r="C579" s="15"/>
@@ -25363,7 +25413,7 @@
       <c r="Y579" s="15"/>
       <c r="Z579" s="15"/>
     </row>
-    <row r="580" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:26" ht="14.25" customHeight="1">
       <c r="A580" s="23"/>
       <c r="B580" s="15"/>
       <c r="C580" s="15"/>
@@ -25391,7 +25441,7 @@
       <c r="Y580" s="15"/>
       <c r="Z580" s="15"/>
     </row>
-    <row r="581" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:26" ht="14.25" customHeight="1">
       <c r="A581" s="23"/>
       <c r="B581" s="15"/>
       <c r="C581" s="15"/>
@@ -25419,7 +25469,7 @@
       <c r="Y581" s="15"/>
       <c r="Z581" s="15"/>
     </row>
-    <row r="582" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:26" ht="14.25" customHeight="1">
       <c r="A582" s="23"/>
       <c r="B582" s="15"/>
       <c r="C582" s="15"/>
@@ -25447,7 +25497,7 @@
       <c r="Y582" s="15"/>
       <c r="Z582" s="15"/>
     </row>
-    <row r="583" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:26" ht="14.25" customHeight="1">
       <c r="A583" s="23"/>
       <c r="B583" s="15"/>
       <c r="C583" s="15"/>
@@ -25475,7 +25525,7 @@
       <c r="Y583" s="15"/>
       <c r="Z583" s="15"/>
     </row>
-    <row r="584" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:26" ht="14.25" customHeight="1">
       <c r="A584" s="23"/>
       <c r="B584" s="15"/>
       <c r="C584" s="15"/>
@@ -25503,7 +25553,7 @@
       <c r="Y584" s="15"/>
       <c r="Z584" s="15"/>
     </row>
-    <row r="585" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:26" ht="14.25" customHeight="1">
       <c r="A585" s="23"/>
       <c r="B585" s="15"/>
       <c r="C585" s="15"/>
@@ -25531,7 +25581,7 @@
       <c r="Y585" s="15"/>
       <c r="Z585" s="15"/>
     </row>
-    <row r="586" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:26" ht="14.25" customHeight="1">
       <c r="A586" s="23"/>
       <c r="B586" s="15"/>
       <c r="C586" s="15"/>
@@ -25559,7 +25609,7 @@
       <c r="Y586" s="15"/>
       <c r="Z586" s="15"/>
     </row>
-    <row r="587" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:26" ht="14.25" customHeight="1">
       <c r="A587" s="23"/>
       <c r="B587" s="15"/>
       <c r="C587" s="15"/>
@@ -25587,7 +25637,7 @@
       <c r="Y587" s="15"/>
       <c r="Z587" s="15"/>
     </row>
-    <row r="588" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:26" ht="14.25" customHeight="1">
       <c r="A588" s="23"/>
       <c r="B588" s="15"/>
       <c r="C588" s="15"/>
@@ -25615,7 +25665,7 @@
       <c r="Y588" s="15"/>
       <c r="Z588" s="15"/>
     </row>
-    <row r="589" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:26" ht="14.25" customHeight="1">
       <c r="A589" s="23"/>
       <c r="B589" s="15"/>
       <c r="C589" s="15"/>
@@ -25643,7 +25693,7 @@
       <c r="Y589" s="15"/>
       <c r="Z589" s="15"/>
     </row>
-    <row r="590" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:26" ht="14.25" customHeight="1">
       <c r="A590" s="23"/>
       <c r="B590" s="15"/>
       <c r="C590" s="15"/>
@@ -25671,7 +25721,7 @@
       <c r="Y590" s="15"/>
       <c r="Z590" s="15"/>
     </row>
-    <row r="591" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:26" ht="14.25" customHeight="1">
       <c r="A591" s="23"/>
       <c r="B591" s="15"/>
       <c r="C591" s="15"/>
@@ -25699,7 +25749,7 @@
       <c r="Y591" s="15"/>
       <c r="Z591" s="15"/>
     </row>
-    <row r="592" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:26" ht="14.25" customHeight="1">
       <c r="A592" s="23"/>
       <c r="B592" s="15"/>
       <c r="C592" s="15"/>
@@ -25727,7 +25777,7 @@
       <c r="Y592" s="15"/>
       <c r="Z592" s="15"/>
     </row>
-    <row r="593" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:26" ht="14.25" customHeight="1">
       <c r="A593" s="23"/>
       <c r="B593" s="15"/>
       <c r="C593" s="15"/>
@@ -25755,7 +25805,7 @@
       <c r="Y593" s="15"/>
       <c r="Z593" s="15"/>
     </row>
-    <row r="594" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:26" ht="14.25" customHeight="1">
       <c r="A594" s="23"/>
       <c r="B594" s="15"/>
       <c r="C594" s="15"/>
@@ -25783,7 +25833,7 @@
       <c r="Y594" s="15"/>
       <c r="Z594" s="15"/>
     </row>
-    <row r="595" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:26" ht="14.25" customHeight="1">
       <c r="A595" s="23"/>
       <c r="B595" s="15"/>
       <c r="C595" s="15"/>
@@ -25811,7 +25861,7 @@
       <c r="Y595" s="15"/>
       <c r="Z595" s="15"/>
     </row>
-    <row r="596" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:26" ht="14.25" customHeight="1">
       <c r="A596" s="23"/>
       <c r="B596" s="15"/>
       <c r="C596" s="15"/>
@@ -25839,7 +25889,7 @@
       <c r="Y596" s="15"/>
       <c r="Z596" s="15"/>
     </row>
-    <row r="597" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:26" ht="14.25" customHeight="1">
       <c r="A597" s="23"/>
       <c r="B597" s="15"/>
       <c r="C597" s="15"/>
@@ -25867,7 +25917,7 @@
       <c r="Y597" s="15"/>
       <c r="Z597" s="15"/>
     </row>
-    <row r="598" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:26" ht="14.25" customHeight="1">
       <c r="A598" s="23"/>
       <c r="B598" s="15"/>
       <c r="C598" s="15"/>
@@ -25895,7 +25945,7 @@
       <c r="Y598" s="15"/>
       <c r="Z598" s="15"/>
     </row>
-    <row r="599" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:26" ht="14.25" customHeight="1">
       <c r="A599" s="23"/>
       <c r="B599" s="15"/>
       <c r="C599" s="15"/>
@@ -25923,7 +25973,7 @@
       <c r="Y599" s="15"/>
       <c r="Z599" s="15"/>
     </row>
-    <row r="600" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:26" ht="14.25" customHeight="1">
       <c r="A600" s="23"/>
       <c r="B600" s="15"/>
       <c r="C600" s="15"/>
@@ -25951,7 +26001,7 @@
       <c r="Y600" s="15"/>
       <c r="Z600" s="15"/>
     </row>
-    <row r="601" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:26" ht="14.25" customHeight="1">
       <c r="A601" s="23"/>
       <c r="B601" s="15"/>
       <c r="C601" s="15"/>
@@ -25979,7 +26029,7 @@
       <c r="Y601" s="15"/>
       <c r="Z601" s="15"/>
     </row>
-    <row r="602" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:26" ht="14.25" customHeight="1">
       <c r="A602" s="23"/>
       <c r="B602" s="15"/>
       <c r="C602" s="15"/>
@@ -26007,7 +26057,7 @@
       <c r="Y602" s="15"/>
       <c r="Z602" s="15"/>
     </row>
-    <row r="603" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:26" ht="14.25" customHeight="1">
       <c r="A603" s="23"/>
       <c r="B603" s="15"/>
       <c r="C603" s="15"/>
@@ -26035,7 +26085,7 @@
       <c r="Y603" s="15"/>
       <c r="Z603" s="15"/>
     </row>
-    <row r="604" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:26" ht="14.25" customHeight="1">
       <c r="A604" s="23"/>
       <c r="B604" s="15"/>
       <c r="C604" s="15"/>
@@ -26063,7 +26113,7 @@
       <c r="Y604" s="15"/>
       <c r="Z604" s="15"/>
     </row>
-    <row r="605" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:26" ht="14.25" customHeight="1">
       <c r="A605" s="23"/>
       <c r="B605" s="15"/>
       <c r="C605" s="15"/>
@@ -26091,7 +26141,7 @@
       <c r="Y605" s="15"/>
       <c r="Z605" s="15"/>
     </row>
-    <row r="606" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:26" ht="14.25" customHeight="1">
       <c r="A606" s="23"/>
       <c r="B606" s="15"/>
       <c r="C606" s="15"/>
@@ -26119,7 +26169,7 @@
       <c r="Y606" s="15"/>
       <c r="Z606" s="15"/>
     </row>
-    <row r="607" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:26" ht="14.25" customHeight="1">
       <c r="A607" s="23"/>
       <c r="B607" s="15"/>
       <c r="C607" s="15"/>
@@ -26147,7 +26197,7 @@
       <c r="Y607" s="15"/>
       <c r="Z607" s="15"/>
     </row>
-    <row r="608" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:26" ht="14.25" customHeight="1">
       <c r="A608" s="23"/>
       <c r="B608" s="15"/>
       <c r="C608" s="15"/>
@@ -26175,7 +26225,7 @@
       <c r="Y608" s="15"/>
       <c r="Z608" s="15"/>
     </row>
-    <row r="609" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:26" ht="14.25" customHeight="1">
       <c r="A609" s="23"/>
       <c r="B609" s="15"/>
       <c r="C609" s="15"/>
@@ -26203,7 +26253,7 @@
       <c r="Y609" s="15"/>
       <c r="Z609" s="15"/>
     </row>
-    <row r="610" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:26" ht="14.25" customHeight="1">
       <c r="A610" s="23"/>
       <c r="B610" s="15"/>
       <c r="C610" s="15"/>
@@ -26231,7 +26281,7 @@
       <c r="Y610" s="15"/>
       <c r="Z610" s="15"/>
     </row>
-    <row r="611" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:26" ht="14.25" customHeight="1">
       <c r="A611" s="23"/>
       <c r="B611" s="15"/>
       <c r="C611" s="15"/>
@@ -26259,7 +26309,7 @@
       <c r="Y611" s="15"/>
       <c r="Z611" s="15"/>
     </row>
-    <row r="612" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:26" ht="14.25" customHeight="1">
       <c r="A612" s="23"/>
       <c r="B612" s="15"/>
       <c r="C612" s="15"/>
@@ -26287,7 +26337,7 @@
       <c r="Y612" s="15"/>
       <c r="Z612" s="15"/>
     </row>
-    <row r="613" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:26" ht="14.25" customHeight="1">
       <c r="A613" s="23"/>
       <c r="B613" s="15"/>
       <c r="C613" s="15"/>
@@ -26315,7 +26365,7 @@
       <c r="Y613" s="15"/>
       <c r="Z613" s="15"/>
     </row>
-    <row r="614" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:26" ht="14.25" customHeight="1">
       <c r="A614" s="23"/>
       <c r="B614" s="15"/>
       <c r="C614" s="15"/>
@@ -26343,7 +26393,7 @@
       <c r="Y614" s="15"/>
       <c r="Z614" s="15"/>
     </row>
-    <row r="615" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:26" ht="14.25" customHeight="1">
       <c r="A615" s="23"/>
       <c r="B615" s="15"/>
       <c r="C615" s="15"/>
@@ -26371,7 +26421,7 @@
       <c r="Y615" s="15"/>
       <c r="Z615" s="15"/>
     </row>
-    <row r="616" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:26" ht="14.25" customHeight="1">
       <c r="A616" s="23"/>
       <c r="B616" s="15"/>
       <c r="C616" s="15"/>
@@ -26399,7 +26449,7 @@
       <c r="Y616" s="15"/>
       <c r="Z616" s="15"/>
     </row>
-    <row r="617" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:26" ht="14.25" customHeight="1">
       <c r="A617" s="23"/>
       <c r="B617" s="15"/>
       <c r="C617" s="15"/>
@@ -26427,7 +26477,7 @@
       <c r="Y617" s="15"/>
       <c r="Z617" s="15"/>
     </row>
-    <row r="618" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:26" ht="14.25" customHeight="1">
       <c r="A618" s="23"/>
       <c r="B618" s="15"/>
       <c r="C618" s="15"/>
@@ -26455,7 +26505,7 @@
       <c r="Y618" s="15"/>
       <c r="Z618" s="15"/>
     </row>
-    <row r="619" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:26" ht="14.25" customHeight="1">
       <c r="A619" s="23"/>
       <c r="B619" s="15"/>
       <c r="C619" s="15"/>
@@ -26483,7 +26533,7 @@
       <c r="Y619" s="15"/>
       <c r="Z619" s="15"/>
     </row>
-    <row r="620" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:26" ht="14.25" customHeight="1">
       <c r="A620" s="23"/>
       <c r="B620" s="15"/>
       <c r="C620" s="15"/>
@@ -26511,7 +26561,7 @@
       <c r="Y620" s="15"/>
       <c r="Z620" s="15"/>
     </row>
-    <row r="621" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:26" ht="14.25" customHeight="1">
       <c r="A621" s="23"/>
       <c r="B621" s="15"/>
       <c r="C621" s="15"/>
@@ -26539,7 +26589,7 @@
       <c r="Y621" s="15"/>
       <c r="Z621" s="15"/>
     </row>
-    <row r="622" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:26" ht="14.25" customHeight="1">
       <c r="A622" s="23"/>
       <c r="B622" s="15"/>
       <c r="C622" s="15"/>
@@ -26567,7 +26617,7 @@
       <c r="Y622" s="15"/>
       <c r="Z622" s="15"/>
     </row>
-    <row r="623" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:26" ht="14.25" customHeight="1">
       <c r="A623" s="23"/>
       <c r="B623" s="15"/>
       <c r="C623" s="15"/>
@@ -26595,7 +26645,7 @@
       <c r="Y623" s="15"/>
       <c r="Z623" s="15"/>
     </row>
-    <row r="624" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:26" ht="14.25" customHeight="1">
       <c r="A624" s="23"/>
       <c r="B624" s="15"/>
       <c r="C624" s="15"/>
@@ -26623,7 +26673,7 @@
       <c r="Y624" s="15"/>
       <c r="Z624" s="15"/>
     </row>
-    <row r="625" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:26" ht="14.25" customHeight="1">
       <c r="A625" s="23"/>
       <c r="B625" s="15"/>
       <c r="C625" s="15"/>
@@ -26651,7 +26701,7 @@
       <c r="Y625" s="15"/>
       <c r="Z625" s="15"/>
     </row>
-    <row r="626" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:26" ht="14.25" customHeight="1">
       <c r="A626" s="23"/>
       <c r="B626" s="15"/>
       <c r="C626" s="15"/>
@@ -26679,7 +26729,7 @@
       <c r="Y626" s="15"/>
       <c r="Z626" s="15"/>
     </row>
-    <row r="627" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:26" ht="14.25" customHeight="1">
       <c r="A627" s="23"/>
       <c r="B627" s="15"/>
       <c r="C627" s="15"/>
@@ -26707,7 +26757,7 @@
       <c r="Y627" s="15"/>
       <c r="Z627" s="15"/>
     </row>
-    <row r="628" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:26" ht="14.25" customHeight="1">
       <c r="A628" s="23"/>
       <c r="B628" s="15"/>
       <c r="C628" s="15"/>
@@ -26735,7 +26785,7 @@
       <c r="Y628" s="15"/>
       <c r="Z628" s="15"/>
     </row>
-    <row r="629" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:26" ht="14.25" customHeight="1">
       <c r="A629" s="23"/>
       <c r="B629" s="15"/>
       <c r="C629" s="15"/>
@@ -26763,7 +26813,7 @@
       <c r="Y629" s="15"/>
       <c r="Z629" s="15"/>
     </row>
-    <row r="630" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:26" ht="14.25" customHeight="1">
       <c r="A630" s="23"/>
       <c r="B630" s="15"/>
       <c r="C630" s="15"/>
@@ -26791,7 +26841,7 @@
       <c r="Y630" s="15"/>
       <c r="Z630" s="15"/>
     </row>
-    <row r="631" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:26" ht="14.25" customHeight="1">
       <c r="A631" s="23"/>
       <c r="B631" s="15"/>
       <c r="C631" s="15"/>
@@ -26819,7 +26869,7 @@
       <c r="Y631" s="15"/>
       <c r="Z631" s="15"/>
     </row>
-    <row r="632" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:26" ht="14.25" customHeight="1">
       <c r="A632" s="23"/>
       <c r="B632" s="15"/>
       <c r="C632" s="15"/>
@@ -26847,7 +26897,7 @@
       <c r="Y632" s="15"/>
       <c r="Z632" s="15"/>
     </row>
-    <row r="633" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:26" ht="14.25" customHeight="1">
       <c r="A633" s="23"/>
       <c r="B633" s="15"/>
       <c r="C633" s="15"/>
@@ -26875,7 +26925,7 @@
       <c r="Y633" s="15"/>
       <c r="Z633" s="15"/>
     </row>
-    <row r="634" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:26" ht="14.25" customHeight="1">
       <c r="A634" s="23"/>
       <c r="B634" s="15"/>
       <c r="C634" s="15"/>
@@ -26903,7 +26953,7 @@
       <c r="Y634" s="15"/>
       <c r="Z634" s="15"/>
     </row>
-    <row r="635" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:26" ht="14.25" customHeight="1">
       <c r="A635" s="23"/>
       <c r="B635" s="15"/>
       <c r="C635" s="15"/>
@@ -26931,7 +26981,7 @@
       <c r="Y635" s="15"/>
       <c r="Z635" s="15"/>
     </row>
-    <row r="636" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:26" ht="14.25" customHeight="1">
       <c r="A636" s="23"/>
       <c r="B636" s="15"/>
       <c r="C636" s="15"/>
@@ -26959,7 +27009,7 @@
       <c r="Y636" s="15"/>
       <c r="Z636" s="15"/>
     </row>
-    <row r="637" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:26" ht="14.25" customHeight="1">
       <c r="A637" s="23"/>
       <c r="B637" s="15"/>
       <c r="C637" s="15"/>
@@ -26987,7 +27037,7 @@
       <c r="Y637" s="15"/>
       <c r="Z637" s="15"/>
     </row>
-    <row r="638" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:26" ht="14.25" customHeight="1">
       <c r="A638" s="23"/>
       <c r="B638" s="15"/>
       <c r="C638" s="15"/>
@@ -27015,7 +27065,7 @@
       <c r="Y638" s="15"/>
       <c r="Z638" s="15"/>
     </row>
-    <row r="639" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:26" ht="14.25" customHeight="1">
       <c r="A639" s="23"/>
       <c r="B639" s="15"/>
       <c r="C639" s="15"/>
@@ -27043,7 +27093,7 @@
       <c r="Y639" s="15"/>
       <c r="Z639" s="15"/>
     </row>
-    <row r="640" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:26" ht="14.25" customHeight="1">
       <c r="A640" s="23"/>
       <c r="B640" s="15"/>
       <c r="C640" s="15"/>
@@ -27071,7 +27121,7 @@
       <c r="Y640" s="15"/>
       <c r="Z640" s="15"/>
     </row>
-    <row r="641" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:26" ht="14.25" customHeight="1">
       <c r="A641" s="23"/>
       <c r="B641" s="15"/>
       <c r="C641" s="15"/>
@@ -27099,7 +27149,7 @@
       <c r="Y641" s="15"/>
       <c r="Z641" s="15"/>
     </row>
-    <row r="642" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:26" ht="14.25" customHeight="1">
       <c r="A642" s="23"/>
       <c r="B642" s="15"/>
       <c r="C642" s="15"/>
@@ -27127,7 +27177,7 @@
       <c r="Y642" s="15"/>
       <c r="Z642" s="15"/>
     </row>
-    <row r="643" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:26" ht="14.25" customHeight="1">
       <c r="A643" s="23"/>
       <c r="B643" s="15"/>
       <c r="C643" s="15"/>
@@ -27155,7 +27205,7 @@
       <c r="Y643" s="15"/>
       <c r="Z643" s="15"/>
     </row>
-    <row r="644" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:26" ht="14.25" customHeight="1">
       <c r="A644" s="23"/>
       <c r="B644" s="15"/>
       <c r="C644" s="15"/>
@@ -27183,7 +27233,7 @@
       <c r="Y644" s="15"/>
       <c r="Z644" s="15"/>
     </row>
-    <row r="645" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:26" ht="14.25" customHeight="1">
       <c r="A645" s="23"/>
       <c r="B645" s="15"/>
       <c r="C645" s="15"/>
@@ -27211,7 +27261,7 @@
       <c r="Y645" s="15"/>
       <c r="Z645" s="15"/>
     </row>
-    <row r="646" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:26" ht="14.25" customHeight="1">
       <c r="A646" s="23"/>
       <c r="B646" s="15"/>
       <c r="C646" s="15"/>
@@ -27239,7 +27289,7 @@
       <c r="Y646" s="15"/>
       <c r="Z646" s="15"/>
     </row>
-    <row r="647" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:26" ht="14.25" customHeight="1">
       <c r="A647" s="23"/>
       <c r="B647" s="15"/>
       <c r="C647" s="15"/>
@@ -27267,7 +27317,7 @@
       <c r="Y647" s="15"/>
       <c r="Z647" s="15"/>
     </row>
-    <row r="648" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:26" ht="14.25" customHeight="1">
       <c r="A648" s="23"/>
       <c r="B648" s="15"/>
       <c r="C648" s="15"/>
@@ -27295,7 +27345,7 @@
       <c r="Y648" s="15"/>
       <c r="Z648" s="15"/>
     </row>
-    <row r="649" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:26" ht="14.25" customHeight="1">
       <c r="A649" s="23"/>
       <c r="B649" s="15"/>
       <c r="C649" s="15"/>
@@ -27323,7 +27373,7 @@
       <c r="Y649" s="15"/>
       <c r="Z649" s="15"/>
     </row>
-    <row r="650" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:26" ht="14.25" customHeight="1">
       <c r="A650" s="23"/>
       <c r="B650" s="15"/>
       <c r="C650" s="15"/>
@@ -27351,7 +27401,7 @@
       <c r="Y650" s="15"/>
       <c r="Z650" s="15"/>
     </row>
-    <row r="651" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:26" ht="14.25" customHeight="1">
       <c r="A651" s="23"/>
       <c r="B651" s="15"/>
       <c r="C651" s="15"/>
@@ -27379,7 +27429,7 @@
       <c r="Y651" s="15"/>
       <c r="Z651" s="15"/>
     </row>
-    <row r="652" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:26" ht="14.25" customHeight="1">
       <c r="A652" s="23"/>
       <c r="B652" s="15"/>
       <c r="C652" s="15"/>
@@ -27407,7 +27457,7 @@
       <c r="Y652" s="15"/>
       <c r="Z652" s="15"/>
     </row>
-    <row r="653" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:26" ht="14.25" customHeight="1">
       <c r="A653" s="23"/>
       <c r="B653" s="15"/>
       <c r="C653" s="15"/>
@@ -27435,7 +27485,7 @@
       <c r="Y653" s="15"/>
       <c r="Z653" s="15"/>
     </row>
-    <row r="654" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:26" ht="14.25" customHeight="1">
       <c r="A654" s="23"/>
       <c r="B654" s="15"/>
       <c r="C654" s="15"/>
@@ -27463,7 +27513,7 @@
       <c r="Y654" s="15"/>
       <c r="Z654" s="15"/>
     </row>
-    <row r="655" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:26" ht="14.25" customHeight="1">
       <c r="A655" s="23"/>
       <c r="B655" s="15"/>
       <c r="C655" s="15"/>
@@ -27491,7 +27541,7 @@
       <c r="Y655" s="15"/>
       <c r="Z655" s="15"/>
     </row>
-    <row r="656" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:26" ht="14.25" customHeight="1">
       <c r="A656" s="23"/>
       <c r="B656" s="15"/>
       <c r="C656" s="15"/>
@@ -27519,7 +27569,7 @@
       <c r="Y656" s="15"/>
       <c r="Z656" s="15"/>
     </row>
-    <row r="657" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:26" ht="14.25" customHeight="1">
       <c r="A657" s="23"/>
       <c r="B657" s="15"/>
       <c r="C657" s="15"/>
@@ -27547,7 +27597,7 @@
       <c r="Y657" s="15"/>
       <c r="Z657" s="15"/>
     </row>
-    <row r="658" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:26" ht="14.25" customHeight="1">
       <c r="A658" s="23"/>
       <c r="B658" s="15"/>
       <c r="C658" s="15"/>
@@ -27575,7 +27625,7 @@
       <c r="Y658" s="15"/>
       <c r="Z658" s="15"/>
     </row>
-    <row r="659" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:26" ht="14.25" customHeight="1">
       <c r="A659" s="23"/>
       <c r="B659" s="15"/>
       <c r="C659" s="15"/>
@@ -27603,7 +27653,7 @@
       <c r="Y659" s="15"/>
       <c r="Z659" s="15"/>
     </row>
-    <row r="660" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:26" ht="14.25" customHeight="1">
       <c r="A660" s="23"/>
       <c r="B660" s="15"/>
       <c r="C660" s="15"/>
@@ -27631,7 +27681,7 @@
       <c r="Y660" s="15"/>
       <c r="Z660" s="15"/>
     </row>
-    <row r="661" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:26" ht="14.25" customHeight="1">
       <c r="A661" s="23"/>
       <c r="B661" s="15"/>
       <c r="C661" s="15"/>
@@ -27659,7 +27709,7 @@
       <c r="Y661" s="15"/>
       <c r="Z661" s="15"/>
     </row>
-    <row r="662" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:26" ht="14.25" customHeight="1">
       <c r="A662" s="23"/>
       <c r="B662" s="15"/>
       <c r="C662" s="15"/>
@@ -27687,7 +27737,7 @@
       <c r="Y662" s="15"/>
       <c r="Z662" s="15"/>
     </row>
-    <row r="663" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:26" ht="14.25" customHeight="1">
       <c r="A663" s="23"/>
       <c r="B663" s="15"/>
       <c r="C663" s="15"/>
@@ -27715,7 +27765,7 @@
       <c r="Y663" s="15"/>
       <c r="Z663" s="15"/>
     </row>
-    <row r="664" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:26" ht="14.25" customHeight="1">
       <c r="A664" s="23"/>
       <c r="B664" s="15"/>
       <c r="C664" s="15"/>
@@ -27743,7 +27793,7 @@
       <c r="Y664" s="15"/>
       <c r="Z664" s="15"/>
     </row>
-    <row r="665" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:26" ht="14.25" customHeight="1">
       <c r="A665" s="23"/>
       <c r="B665" s="15"/>
       <c r="C665" s="15"/>
@@ -27771,7 +27821,7 @@
       <c r="Y665" s="15"/>
       <c r="Z665" s="15"/>
     </row>
-    <row r="666" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:26" ht="14.25" customHeight="1">
       <c r="A666" s="23"/>
       <c r="B666" s="15"/>
       <c r="C666" s="15"/>
@@ -27799,7 +27849,7 @@
       <c r="Y666" s="15"/>
       <c r="Z666" s="15"/>
     </row>
-    <row r="667" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:26" ht="14.25" customHeight="1">
       <c r="A667" s="23"/>
       <c r="B667" s="15"/>
       <c r="C667" s="15"/>
@@ -27827,7 +27877,7 @@
       <c r="Y667" s="15"/>
       <c r="Z667" s="15"/>
     </row>
-    <row r="668" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:26" ht="14.25" customHeight="1">
       <c r="A668" s="23"/>
       <c r="B668" s="15"/>
       <c r="C668" s="15"/>
@@ -27855,7 +27905,7 @@
       <c r="Y668" s="15"/>
       <c r="Z668" s="15"/>
     </row>
-    <row r="669" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:26" ht="14.25" customHeight="1">
       <c r="A669" s="23"/>
       <c r="B669" s="15"/>
       <c r="C669" s="15"/>
@@ -27883,7 +27933,7 @@
       <c r="Y669" s="15"/>
       <c r="Z669" s="15"/>
     </row>
-    <row r="670" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:26" ht="14.25" customHeight="1">
       <c r="A670" s="23"/>
       <c r="B670" s="15"/>
       <c r="C670" s="15"/>
@@ -27911,7 +27961,7 @@
       <c r="Y670" s="15"/>
       <c r="Z670" s="15"/>
     </row>
-    <row r="671" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:26" ht="14.25" customHeight="1">
       <c r="A671" s="23"/>
       <c r="B671" s="15"/>
       <c r="C671" s="15"/>
@@ -27939,7 +27989,7 @@
       <c r="Y671" s="15"/>
       <c r="Z671" s="15"/>
     </row>
-    <row r="672" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:26" ht="14.25" customHeight="1">
       <c r="A672" s="23"/>
       <c r="B672" s="15"/>
       <c r="C672" s="15"/>
@@ -27967,7 +28017,7 @@
       <c r="Y672" s="15"/>
       <c r="Z672" s="15"/>
     </row>
-    <row r="673" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:26" ht="14.25" customHeight="1">
       <c r="A673" s="23"/>
       <c r="B673" s="15"/>
       <c r="C673" s="15"/>
@@ -27995,7 +28045,7 @@
       <c r="Y673" s="15"/>
       <c r="Z673" s="15"/>
     </row>
-    <row r="674" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:26" ht="14.25" customHeight="1">
       <c r="A674" s="23"/>
       <c r="B674" s="15"/>
       <c r="C674" s="15"/>
@@ -28023,7 +28073,7 @@
       <c r="Y674" s="15"/>
       <c r="Z674" s="15"/>
     </row>
-    <row r="675" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:26" ht="14.25" customHeight="1">
       <c r="A675" s="23"/>
       <c r="B675" s="15"/>
       <c r="C675" s="15"/>
@@ -28051,7 +28101,7 @@
       <c r="Y675" s="15"/>
       <c r="Z675" s="15"/>
     </row>
-    <row r="676" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:26" ht="14.25" customHeight="1">
       <c r="A676" s="23"/>
       <c r="B676" s="15"/>
       <c r="C676" s="15"/>
@@ -28079,7 +28129,7 @@
       <c r="Y676" s="15"/>
       <c r="Z676" s="15"/>
     </row>
-    <row r="677" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:26" ht="14.25" customHeight="1">
       <c r="A677" s="23"/>
       <c r="B677" s="15"/>
       <c r="C677" s="15"/>
@@ -28107,7 +28157,7 @@
       <c r="Y677" s="15"/>
       <c r="Z677" s="15"/>
     </row>
-    <row r="678" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:26" ht="14.25" customHeight="1">
       <c r="A678" s="23"/>
       <c r="B678" s="15"/>
       <c r="C678" s="15"/>
@@ -28135,7 +28185,7 @@
       <c r="Y678" s="15"/>
       <c r="Z678" s="15"/>
     </row>
-    <row r="679" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:26" ht="14.25" customHeight="1">
       <c r="A679" s="23"/>
       <c r="B679" s="15"/>
       <c r="C679" s="15"/>
@@ -28163,7 +28213,7 @@
       <c r="Y679" s="15"/>
       <c r="Z679" s="15"/>
     </row>
-    <row r="680" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:26" ht="14.25" customHeight="1">
       <c r="A680" s="23"/>
       <c r="B680" s="15"/>
       <c r="C680" s="15"/>
@@ -28191,7 +28241,7 @@
       <c r="Y680" s="15"/>
       <c r="Z680" s="15"/>
     </row>
-    <row r="681" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:26" ht="14.25" customHeight="1">
       <c r="A681" s="23"/>
       <c r="B681" s="15"/>
       <c r="C681" s="15"/>
@@ -28219,7 +28269,7 @@
       <c r="Y681" s="15"/>
       <c r="Z681" s="15"/>
     </row>
-    <row r="682" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:26" ht="14.25" customHeight="1">
       <c r="A682" s="23"/>
       <c r="B682" s="15"/>
       <c r="C682" s="15"/>
@@ -28247,7 +28297,7 @@
       <c r="Y682" s="15"/>
       <c r="Z682" s="15"/>
     </row>
-    <row r="683" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:26" ht="14.25" customHeight="1">
       <c r="A683" s="23"/>
       <c r="B683" s="15"/>
       <c r="C683" s="15"/>
@@ -28275,7 +28325,7 @@
       <c r="Y683" s="15"/>
       <c r="Z683" s="15"/>
     </row>
-    <row r="684" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:26" ht="14.25" customHeight="1">
       <c r="A684" s="23"/>
       <c r="B684" s="15"/>
       <c r="C684" s="15"/>
@@ -28303,7 +28353,7 @@
       <c r="Y684" s="15"/>
       <c r="Z684" s="15"/>
     </row>
-    <row r="685" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:26" ht="14.25" customHeight="1">
       <c r="A685" s="23"/>
       <c r="B685" s="15"/>
       <c r="C685" s="15"/>
@@ -28331,7 +28381,7 @@
       <c r="Y685" s="15"/>
       <c r="Z685" s="15"/>
     </row>
-    <row r="686" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:26" ht="14.25" customHeight="1">
       <c r="A686" s="23"/>
       <c r="B686" s="15"/>
       <c r="C686" s="15"/>
@@ -28359,7 +28409,7 @@
       <c r="Y686" s="15"/>
       <c r="Z686" s="15"/>
     </row>
-    <row r="687" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:26" ht="14.25" customHeight="1">
       <c r="A687" s="23"/>
       <c r="B687" s="15"/>
       <c r="C687" s="15"/>
@@ -28387,7 +28437,7 @@
       <c r="Y687" s="15"/>
       <c r="Z687" s="15"/>
     </row>
-    <row r="688" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:26" ht="14.25" customHeight="1">
       <c r="A688" s="23"/>
       <c r="B688" s="15"/>
       <c r="C688" s="15"/>
@@ -28415,7 +28465,7 @@
       <c r="Y688" s="15"/>
       <c r="Z688" s="15"/>
     </row>
-    <row r="689" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:26" ht="14.25" customHeight="1">
       <c r="A689" s="23"/>
       <c r="B689" s="15"/>
       <c r="C689" s="15"/>
@@ -28443,7 +28493,7 @@
       <c r="Y689" s="15"/>
       <c r="Z689" s="15"/>
     </row>
-    <row r="690" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:26" ht="14.25" customHeight="1">
       <c r="A690" s="23"/>
       <c r="B690" s="15"/>
       <c r="C690" s="15"/>
@@ -28471,7 +28521,7 @@
       <c r="Y690" s="15"/>
       <c r="Z690" s="15"/>
     </row>
-    <row r="691" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:26" ht="14.25" customHeight="1">
       <c r="A691" s="23"/>
       <c r="B691" s="15"/>
       <c r="C691" s="15"/>
@@ -28499,7 +28549,7 @@
       <c r="Y691" s="15"/>
       <c r="Z691" s="15"/>
     </row>
-    <row r="692" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:26" ht="14.25" customHeight="1">
       <c r="A692" s="23"/>
       <c r="B692" s="15"/>
       <c r="C692" s="15"/>
@@ -28527,7 +28577,7 @@
       <c r="Y692" s="15"/>
       <c r="Z692" s="15"/>
     </row>
-    <row r="693" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:26" ht="14.25" customHeight="1">
       <c r="A693" s="23"/>
       <c r="B693" s="15"/>
       <c r="C693" s="15"/>
@@ -28555,7 +28605,7 @@
       <c r="Y693" s="15"/>
       <c r="Z693" s="15"/>
     </row>
-    <row r="694" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:26" ht="14.25" customHeight="1">
       <c r="A694" s="23"/>
       <c r="B694" s="15"/>
       <c r="C694" s="15"/>
@@ -28583,7 +28633,7 @@
       <c r="Y694" s="15"/>
       <c r="Z694" s="15"/>
     </row>
-    <row r="695" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:26" ht="14.25" customHeight="1">
       <c r="A695" s="23"/>
       <c r="B695" s="15"/>
       <c r="C695" s="15"/>
@@ -28611,7 +28661,7 @@
       <c r="Y695" s="15"/>
       <c r="Z695" s="15"/>
     </row>
-    <row r="696" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:26" ht="14.25" customHeight="1">
       <c r="A696" s="23"/>
       <c r="B696" s="15"/>
       <c r="C696" s="15"/>
@@ -28639,7 +28689,7 @@
       <c r="Y696" s="15"/>
       <c r="Z696" s="15"/>
     </row>
-    <row r="697" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:26" ht="14.25" customHeight="1">
       <c r="A697" s="23"/>
       <c r="B697" s="15"/>
       <c r="C697" s="15"/>
@@ -28667,7 +28717,7 @@
       <c r="Y697" s="15"/>
       <c r="Z697" s="15"/>
     </row>
-    <row r="698" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:26" ht="14.25" customHeight="1">
       <c r="A698" s="23"/>
       <c r="B698" s="15"/>
       <c r="C698" s="15"/>
@@ -28695,7 +28745,7 @@
       <c r="Y698" s="15"/>
       <c r="Z698" s="15"/>
     </row>
-    <row r="699" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:26" ht="14.25" customHeight="1">
       <c r="A699" s="23"/>
       <c r="B699" s="15"/>
       <c r="C699" s="15"/>
@@ -28723,7 +28773,7 @@
       <c r="Y699" s="15"/>
       <c r="Z699" s="15"/>
     </row>
-    <row r="700" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:26" ht="14.25" customHeight="1">
       <c r="A700" s="23"/>
       <c r="B700" s="15"/>
       <c r="C700" s="15"/>
@@ -28751,7 +28801,7 @@
       <c r="Y700" s="15"/>
       <c r="Z700" s="15"/>
     </row>
-    <row r="701" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:26" ht="14.25" customHeight="1">
       <c r="A701" s="23"/>
       <c r="B701" s="15"/>
       <c r="C701" s="15"/>
@@ -28779,7 +28829,7 @@
       <c r="Y701" s="15"/>
       <c r="Z701" s="15"/>
     </row>
-    <row r="702" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:26" ht="14.25" customHeight="1">
       <c r="A702" s="23"/>
       <c r="B702" s="15"/>
       <c r="C702" s="15"/>
@@ -28807,7 +28857,7 @@
       <c r="Y702" s="15"/>
       <c r="Z702" s="15"/>
     </row>
-    <row r="703" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:26" ht="14.25" customHeight="1">
       <c r="A703" s="23"/>
       <c r="B703" s="15"/>
       <c r="C703" s="15"/>
@@ -28835,7 +28885,7 @@
       <c r="Y703" s="15"/>
       <c r="Z703" s="15"/>
     </row>
-    <row r="704" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:26" ht="14.25" customHeight="1">
       <c r="A704" s="23"/>
       <c r="B704" s="15"/>
       <c r="C704" s="15"/>
@@ -28863,7 +28913,7 @@
       <c r="Y704" s="15"/>
       <c r="Z704" s="15"/>
     </row>
-    <row r="705" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:26" ht="14.25" customHeight="1">
       <c r="A705" s="23"/>
       <c r="B705" s="15"/>
       <c r="C705" s="15"/>
@@ -28891,7 +28941,7 @@
       <c r="Y705" s="15"/>
       <c r="Z705" s="15"/>
     </row>
-    <row r="706" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:26" ht="14.25" customHeight="1">
       <c r="A706" s="23"/>
       <c r="B706" s="15"/>
       <c r="C706" s="15"/>
@@ -28919,7 +28969,7 @@
       <c r="Y706" s="15"/>
       <c r="Z706" s="15"/>
     </row>
-    <row r="707" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:26" ht="14.25" customHeight="1">
       <c r="A707" s="23"/>
       <c r="B707" s="15"/>
       <c r="C707" s="15"/>
@@ -28947,7 +28997,7 @@
       <c r="Y707" s="15"/>
       <c r="Z707" s="15"/>
     </row>
-    <row r="708" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:26" ht="14.25" customHeight="1">
       <c r="A708" s="23"/>
       <c r="B708" s="15"/>
       <c r="C708" s="15"/>
@@ -28975,7 +29025,7 @@
       <c r="Y708" s="15"/>
       <c r="Z708" s="15"/>
     </row>
-    <row r="709" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:26" ht="14.25" customHeight="1">
       <c r="A709" s="23"/>
       <c r="B709" s="15"/>
       <c r="C709" s="15"/>
@@ -29003,7 +29053,7 @@
       <c r="Y709" s="15"/>
       <c r="Z709" s="15"/>
     </row>
-    <row r="710" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:26" ht="14.25" customHeight="1">
       <c r="A710" s="23"/>
       <c r="B710" s="15"/>
       <c r="C710" s="15"/>
@@ -29031,7 +29081,7 @@
       <c r="Y710" s="15"/>
       <c r="Z710" s="15"/>
     </row>
-    <row r="711" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:26" ht="14.25" customHeight="1">
       <c r="A711" s="23"/>
       <c r="B711" s="15"/>
       <c r="C711" s="15"/>
@@ -29059,7 +29109,7 @@
       <c r="Y711" s="15"/>
       <c r="Z711" s="15"/>
     </row>
-    <row r="712" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:26" ht="14.25" customHeight="1">
       <c r="A712" s="23"/>
       <c r="B712" s="15"/>
       <c r="C712" s="15"/>
@@ -29087,7 +29137,7 @@
       <c r="Y712" s="15"/>
       <c r="Z712" s="15"/>
     </row>
-    <row r="713" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:26" ht="14.25" customHeight="1">
       <c r="A713" s="23"/>
       <c r="B713" s="15"/>
       <c r="C713" s="15"/>
@@ -29115,7 +29165,7 @@
       <c r="Y713" s="15"/>
       <c r="Z713" s="15"/>
     </row>
-    <row r="714" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:26" ht="14.25" customHeight="1">
       <c r="A714" s="23"/>
       <c r="B714" s="15"/>
       <c r="C714" s="15"/>
@@ -29143,7 +29193,7 @@
       <c r="Y714" s="15"/>
       <c r="Z714" s="15"/>
     </row>
-    <row r="715" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:26" ht="14.25" customHeight="1">
       <c r="A715" s="23"/>
       <c r="B715" s="15"/>
       <c r="C715" s="15"/>
@@ -29171,7 +29221,7 @@
       <c r="Y715" s="15"/>
       <c r="Z715" s="15"/>
     </row>
-    <row r="716" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:26" ht="14.25" customHeight="1">
       <c r="A716" s="23"/>
       <c r="B716" s="15"/>
       <c r="C716" s="15"/>
@@ -29199,7 +29249,7 @@
       <c r="Y716" s="15"/>
       <c r="Z716" s="15"/>
     </row>
-    <row r="717" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:26" ht="14.25" customHeight="1">
       <c r="A717" s="23"/>
       <c r="B717" s="15"/>
       <c r="C717" s="15"/>
@@ -29227,7 +29277,7 @@
       <c r="Y717" s="15"/>
       <c r="Z717" s="15"/>
     </row>
-    <row r="718" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:26" ht="14.25" customHeight="1">
       <c r="A718" s="23"/>
       <c r="B718" s="15"/>
       <c r="C718" s="15"/>
@@ -29255,7 +29305,7 @@
       <c r="Y718" s="15"/>
       <c r="Z718" s="15"/>
     </row>
-    <row r="719" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:26" ht="14.25" customHeight="1">
       <c r="A719" s="23"/>
       <c r="B719" s="15"/>
       <c r="C719" s="15"/>
@@ -29283,7 +29333,7 @@
       <c r="Y719" s="15"/>
       <c r="Z719" s="15"/>
     </row>
-    <row r="720" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:26" ht="14.25" customHeight="1">
       <c r="A720" s="23"/>
       <c r="B720" s="15"/>
       <c r="C720" s="15"/>
@@ -29311,7 +29361,7 @@
       <c r="Y720" s="15"/>
       <c r="Z720" s="15"/>
     </row>
-    <row r="721" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:26" ht="14.25" customHeight="1">
       <c r="A721" s="23"/>
       <c r="B721" s="15"/>
       <c r="C721" s="15"/>
@@ -29339,7 +29389,7 @@
       <c r="Y721" s="15"/>
       <c r="Z721" s="15"/>
     </row>
-    <row r="722" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:26" ht="14.25" customHeight="1">
       <c r="A722" s="23"/>
       <c r="B722" s="15"/>
       <c r="C722" s="15"/>
@@ -29367,7 +29417,7 @@
       <c r="Y722" s="15"/>
       <c r="Z722" s="15"/>
     </row>
-    <row r="723" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:26" ht="14.25" customHeight="1">
       <c r="A723" s="23"/>
       <c r="B723" s="15"/>
       <c r="C723" s="15"/>
@@ -29395,7 +29445,7 @@
       <c r="Y723" s="15"/>
       <c r="Z723" s="15"/>
     </row>
-    <row r="724" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:26" ht="14.25" customHeight="1">
       <c r="A724" s="23"/>
       <c r="B724" s="15"/>
       <c r="C724" s="15"/>
@@ -29423,7 +29473,7 @@
       <c r="Y724" s="15"/>
       <c r="Z724" s="15"/>
     </row>
-    <row r="725" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:26" ht="14.25" customHeight="1">
       <c r="A725" s="23"/>
       <c r="B725" s="15"/>
       <c r="C725" s="15"/>
@@ -29451,7 +29501,7 @@
       <c r="Y725" s="15"/>
       <c r="Z725" s="15"/>
     </row>
-    <row r="726" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:26" ht="14.25" customHeight="1">
       <c r="A726" s="23"/>
       <c r="B726" s="15"/>
       <c r="C726" s="15"/>
@@ -29479,7 +29529,7 @@
       <c r="Y726" s="15"/>
       <c r="Z726" s="15"/>
     </row>
-    <row r="727" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:26" ht="14.25" customHeight="1">
       <c r="A727" s="23"/>
       <c r="B727" s="15"/>
       <c r="C727" s="15"/>
@@ -29507,7 +29557,7 @@
       <c r="Y727" s="15"/>
       <c r="Z727" s="15"/>
     </row>
-    <row r="728" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:26" ht="14.25" customHeight="1">
       <c r="A728" s="23"/>
       <c r="B728" s="15"/>
       <c r="C728" s="15"/>
@@ -29535,7 +29585,7 @@
       <c r="Y728" s="15"/>
       <c r="Z728" s="15"/>
     </row>
-    <row r="729" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:26" ht="14.25" customHeight="1">
       <c r="A729" s="23"/>
       <c r="B729" s="15"/>
       <c r="C729" s="15"/>
@@ -29563,7 +29613,7 @@
       <c r="Y729" s="15"/>
       <c r="Z729" s="15"/>
     </row>
-    <row r="730" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:26" ht="14.25" customHeight="1">
       <c r="A730" s="23"/>
       <c r="B730" s="15"/>
       <c r="C730" s="15"/>
@@ -29591,7 +29641,7 @@
       <c r="Y730" s="15"/>
       <c r="Z730" s="15"/>
     </row>
-    <row r="731" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:26" ht="14.25" customHeight="1">
       <c r="A731" s="23"/>
       <c r="B731" s="15"/>
       <c r="C731" s="15"/>
@@ -29619,7 +29669,7 @@
       <c r="Y731" s="15"/>
       <c r="Z731" s="15"/>
     </row>
-    <row r="732" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:26" ht="14.25" customHeight="1">
       <c r="A732" s="23"/>
       <c r="B732" s="15"/>
       <c r="C732" s="15"/>
@@ -29647,7 +29697,7 @@
       <c r="Y732" s="15"/>
       <c r="Z732" s="15"/>
     </row>
-    <row r="733" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:26" ht="14.25" customHeight="1">
       <c r="A733" s="23"/>
       <c r="B733" s="15"/>
       <c r="C733" s="15"/>
@@ -29675,7 +29725,7 @@
       <c r="Y733" s="15"/>
       <c r="Z733" s="15"/>
     </row>
-    <row r="734" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:26" ht="14.25" customHeight="1">
       <c r="A734" s="23"/>
       <c r="B734" s="15"/>
       <c r="C734" s="15"/>
@@ -29703,7 +29753,7 @@
       <c r="Y734" s="15"/>
       <c r="Z734" s="15"/>
     </row>
-    <row r="735" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:26" ht="14.25" customHeight="1">
       <c r="A735" s="23"/>
       <c r="B735" s="15"/>
       <c r="C735" s="15"/>
@@ -29731,7 +29781,7 @@
       <c r="Y735" s="15"/>
       <c r="Z735" s="15"/>
     </row>
-    <row r="736" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:26" ht="14.25" customHeight="1">
       <c r="A736" s="23"/>
       <c r="B736" s="15"/>
       <c r="C736" s="15"/>
@@ -29759,7 +29809,7 @@
       <c r="Y736" s="15"/>
       <c r="Z736" s="15"/>
     </row>
-    <row r="737" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:26" ht="14.25" customHeight="1">
       <c r="A737" s="23"/>
       <c r="B737" s="15"/>
       <c r="C737" s="15"/>
@@ -29787,7 +29837,7 @@
       <c r="Y737" s="15"/>
       <c r="Z737" s="15"/>
     </row>
-    <row r="738" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:26" ht="14.25" customHeight="1">
       <c r="A738" s="23"/>
       <c r="B738" s="15"/>
       <c r="C738" s="15"/>
@@ -29815,7 +29865,7 @@
       <c r="Y738" s="15"/>
       <c r="Z738" s="15"/>
     </row>
-    <row r="739" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:26" ht="14.25" customHeight="1">
       <c r="A739" s="23"/>
       <c r="B739" s="15"/>
       <c r="C739" s="15"/>
@@ -29843,7 +29893,7 @@
       <c r="Y739" s="15"/>
       <c r="Z739" s="15"/>
     </row>
-    <row r="740" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:26" ht="14.25" customHeight="1">
       <c r="A740" s="23"/>
       <c r="B740" s="15"/>
       <c r="C740" s="15"/>
@@ -29871,7 +29921,7 @@
       <c r="Y740" s="15"/>
       <c r="Z740" s="15"/>
     </row>
-    <row r="741" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:26" ht="14.25" customHeight="1">
       <c r="A741" s="23"/>
       <c r="B741" s="15"/>
       <c r="C741" s="15"/>
@@ -29899,7 +29949,7 @@
       <c r="Y741" s="15"/>
       <c r="Z741" s="15"/>
     </row>
-    <row r="742" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:26" ht="14.25" customHeight="1">
       <c r="A742" s="23"/>
       <c r="B742" s="15"/>
       <c r="C742" s="15"/>
@@ -29927,7 +29977,7 @@
       <c r="Y742" s="15"/>
       <c r="Z742" s="15"/>
     </row>
-    <row r="743" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:26" ht="14.25" customHeight="1">
       <c r="A743" s="23"/>
       <c r="B743" s="15"/>
       <c r="C743" s="15"/>
@@ -29955,7 +30005,7 @@
       <c r="Y743" s="15"/>
       <c r="Z743" s="15"/>
     </row>
-    <row r="744" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:26" ht="14.25" customHeight="1">
       <c r="A744" s="23"/>
       <c r="B744" s="15"/>
       <c r="C744" s="15"/>
@@ -29983,7 +30033,7 @@
       <c r="Y744" s="15"/>
       <c r="Z744" s="15"/>
     </row>
-    <row r="745" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:26" ht="14.25" customHeight="1">
       <c r="A745" s="23"/>
       <c r="B745" s="15"/>
       <c r="C745" s="15"/>
@@ -30011,7 +30061,7 @@
       <c r="Y745" s="15"/>
       <c r="Z745" s="15"/>
     </row>
-    <row r="746" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:26" ht="14.25" customHeight="1">
       <c r="A746" s="23"/>
       <c r="B746" s="15"/>
       <c r="C746" s="15"/>
@@ -30039,7 +30089,7 @@
       <c r="Y746" s="15"/>
       <c r="Z746" s="15"/>
     </row>
-    <row r="747" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:26" ht="14.25" customHeight="1">
       <c r="A747" s="23"/>
       <c r="B747" s="15"/>
       <c r="C747" s="15"/>
@@ -30067,7 +30117,7 @@
       <c r="Y747" s="15"/>
       <c r="Z747" s="15"/>
     </row>
-    <row r="748" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:26" ht="14.25" customHeight="1">
       <c r="A748" s="23"/>
       <c r="B748" s="15"/>
       <c r="C748" s="15"/>
@@ -30095,7 +30145,7 @@
       <c r="Y748" s="15"/>
       <c r="Z748" s="15"/>
     </row>
-    <row r="749" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:26" ht="14.25" customHeight="1">
       <c r="A749" s="23"/>
       <c r="B749" s="15"/>
       <c r="C749" s="15"/>
@@ -30123,7 +30173,7 @@
       <c r="Y749" s="15"/>
       <c r="Z749" s="15"/>
     </row>
-    <row r="750" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:26" ht="14.25" customHeight="1">
       <c r="A750" s="23"/>
       <c r="B750" s="15"/>
       <c r="C750" s="15"/>
@@ -30151,7 +30201,7 @@
       <c r="Y750" s="15"/>
       <c r="Z750" s="15"/>
     </row>
-    <row r="751" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:26" ht="14.25" customHeight="1">
       <c r="A751" s="23"/>
       <c r="B751" s="15"/>
       <c r="C751" s="15"/>
@@ -30179,7 +30229,7 @@
       <c r="Y751" s="15"/>
       <c r="Z751" s="15"/>
     </row>
-    <row r="752" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:26" ht="14.25" customHeight="1">
       <c r="A752" s="23"/>
       <c r="B752" s="15"/>
       <c r="C752" s="15"/>
@@ -30207,7 +30257,7 @@
       <c r="Y752" s="15"/>
       <c r="Z752" s="15"/>
     </row>
-    <row r="753" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:26" ht="14.25" customHeight="1">
       <c r="A753" s="23"/>
       <c r="B753" s="15"/>
       <c r="C753" s="15"/>
@@ -30235,7 +30285,7 @@
       <c r="Y753" s="15"/>
       <c r="Z753" s="15"/>
     </row>
-    <row r="754" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:26" ht="14.25" customHeight="1">
       <c r="A754" s="23"/>
       <c r="B754" s="15"/>
       <c r="C754" s="15"/>
@@ -30263,7 +30313,7 @@
       <c r="Y754" s="15"/>
       <c r="Z754" s="15"/>
     </row>
-    <row r="755" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:26" ht="14.25" customHeight="1">
       <c r="A755" s="23"/>
       <c r="B755" s="15"/>
       <c r="C755" s="15"/>
@@ -30291,7 +30341,7 @@
       <c r="Y755" s="15"/>
       <c r="Z755" s="15"/>
     </row>
-    <row r="756" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:26" ht="14.25" customHeight="1">
       <c r="A756" s="23"/>
       <c r="B756" s="15"/>
       <c r="C756" s="15"/>
@@ -30319,7 +30369,7 @@
       <c r="Y756" s="15"/>
       <c r="Z756" s="15"/>
     </row>
-    <row r="757" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:26" ht="14.25" customHeight="1">
       <c r="A757" s="23"/>
       <c r="B757" s="15"/>
       <c r="C757" s="15"/>
@@ -30347,7 +30397,7 @@
       <c r="Y757" s="15"/>
       <c r="Z757" s="15"/>
     </row>
-    <row r="758" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:26" ht="14.25" customHeight="1">
       <c r="A758" s="23"/>
       <c r="B758" s="15"/>
       <c r="C758" s="15"/>
@@ -30375,7 +30425,7 @@
       <c r="Y758" s="15"/>
       <c r="Z758" s="15"/>
     </row>
-    <row r="759" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:26" ht="14.25" customHeight="1">
       <c r="A759" s="23"/>
       <c r="B759" s="15"/>
       <c r="C759" s="15"/>
@@ -30403,7 +30453,7 @@
       <c r="Y759" s="15"/>
       <c r="Z759" s="15"/>
     </row>
-    <row r="760" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:26" ht="14.25" customHeight="1">
       <c r="A760" s="23"/>
       <c r="B760" s="15"/>
       <c r="C760" s="15"/>
@@ -30431,7 +30481,7 @@
       <c r="Y760" s="15"/>
       <c r="Z760" s="15"/>
     </row>
-    <row r="761" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:26" ht="14.25" customHeight="1">
       <c r="A761" s="23"/>
       <c r="B761" s="15"/>
       <c r="C761" s="15"/>
@@ -30459,7 +30509,7 @@
       <c r="Y761" s="15"/>
       <c r="Z761" s="15"/>
     </row>
-    <row r="762" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:26" ht="14.25" customHeight="1">
       <c r="A762" s="23"/>
       <c r="B762" s="15"/>
       <c r="C762" s="15"/>
@@ -30487,7 +30537,7 @@
       <c r="Y762" s="15"/>
       <c r="Z762" s="15"/>
     </row>
-    <row r="763" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:26" ht="14.25" customHeight="1">
       <c r="A763" s="23"/>
       <c r="B763" s="15"/>
       <c r="C763" s="15"/>
@@ -30515,7 +30565,7 @@
       <c r="Y763" s="15"/>
       <c r="Z763" s="15"/>
     </row>
-    <row r="764" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:26" ht="14.25" customHeight="1">
       <c r="A764" s="23"/>
       <c r="B764" s="15"/>
       <c r="C764" s="15"/>
@@ -30543,7 +30593,7 @@
       <c r="Y764" s="15"/>
       <c r="Z764" s="15"/>
     </row>
-    <row r="765" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:26" ht="14.25" customHeight="1">
       <c r="A765" s="23"/>
       <c r="B765" s="15"/>
       <c r="C765" s="15"/>
@@ -30571,7 +30621,7 @@
       <c r="Y765" s="15"/>
       <c r="Z765" s="15"/>
     </row>
-    <row r="766" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:26" ht="14.25" customHeight="1">
       <c r="A766" s="23"/>
       <c r="B766" s="15"/>
       <c r="C766" s="15"/>
@@ -30599,7 +30649,7 @@
       <c r="Y766" s="15"/>
       <c r="Z766" s="15"/>
     </row>
-    <row r="767" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:26" ht="14.25" customHeight="1">
       <c r="A767" s="23"/>
       <c r="B767" s="15"/>
       <c r="C767" s="15"/>
@@ -30627,7 +30677,7 @@
       <c r="Y767" s="15"/>
       <c r="Z767" s="15"/>
     </row>
-    <row r="768" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:26" ht="14.25" customHeight="1">
       <c r="A768" s="23"/>
       <c r="B768" s="15"/>
       <c r="C768" s="15"/>
@@ -30655,7 +30705,7 @@
       <c r="Y768" s="15"/>
       <c r="Z768" s="15"/>
     </row>
-    <row r="769" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:26" ht="14.25" customHeight="1">
       <c r="A769" s="23"/>
       <c r="B769" s="15"/>
       <c r="C769" s="15"/>
@@ -30683,7 +30733,7 @@
       <c r="Y769" s="15"/>
       <c r="Z769" s="15"/>
     </row>
-    <row r="770" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:26" ht="14.25" customHeight="1">
       <c r="A770" s="23"/>
       <c r="B770" s="15"/>
       <c r="C770" s="15"/>
@@ -30711,7 +30761,7 @@
       <c r="Y770" s="15"/>
       <c r="Z770" s="15"/>
     </row>
-    <row r="771" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:26" ht="14.25" customHeight="1">
       <c r="A771" s="23"/>
       <c r="B771" s="15"/>
       <c r="C771" s="15"/>
@@ -30739,7 +30789,7 @@
       <c r="Y771" s="15"/>
       <c r="Z771" s="15"/>
     </row>
-    <row r="772" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:26" ht="14.25" customHeight="1">
       <c r="A772" s="23"/>
       <c r="B772" s="15"/>
       <c r="C772" s="15"/>
@@ -30767,7 +30817,7 @@
       <c r="Y772" s="15"/>
       <c r="Z772" s="15"/>
     </row>
-    <row r="773" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:26" ht="14.25" customHeight="1">
       <c r="A773" s="23"/>
       <c r="B773" s="15"/>
       <c r="C773" s="15"/>
@@ -30795,7 +30845,7 @@
       <c r="Y773" s="15"/>
       <c r="Z773" s="15"/>
     </row>
-    <row r="774" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:26" ht="14.25" customHeight="1">
       <c r="A774" s="23"/>
       <c r="B774" s="15"/>
       <c r="C774" s="15"/>
@@ -30823,7 +30873,7 @@
       <c r="Y774" s="15"/>
       <c r="Z774" s="15"/>
     </row>
-    <row r="775" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:26" ht="14.25" customHeight="1">
       <c r="A775" s="23"/>
       <c r="B775" s="15"/>
       <c r="C775" s="15"/>
@@ -30851,7 +30901,7 @@
       <c r="Y775" s="15"/>
       <c r="Z775" s="15"/>
     </row>
-    <row r="776" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:26" ht="14.25" customHeight="1">
       <c r="A776" s="23"/>
       <c r="B776" s="15"/>
       <c r="C776" s="15"/>
@@ -30879,7 +30929,7 @@
       <c r="Y776" s="15"/>
       <c r="Z776" s="15"/>
     </row>
-    <row r="777" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:26" ht="14.25" customHeight="1">
       <c r="A777" s="23"/>
       <c r="B777" s="15"/>
       <c r="C777" s="15"/>
@@ -30907,7 +30957,7 @@
       <c r="Y777" s="15"/>
       <c r="Z777" s="15"/>
     </row>
-    <row r="778" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:26" ht="14.25" customHeight="1">
       <c r="A778" s="23"/>
       <c r="B778" s="15"/>
       <c r="C778" s="15"/>
@@ -30935,7 +30985,7 @@
       <c r="Y778" s="15"/>
       <c r="Z778" s="15"/>
     </row>
-    <row r="779" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:26" ht="14.25" customHeight="1">
       <c r="A779" s="23"/>
       <c r="B779" s="15"/>
       <c r="C779" s="15"/>
@@ -30963,7 +31013,7 @@
       <c r="Y779" s="15"/>
       <c r="Z779" s="15"/>
     </row>
-    <row r="780" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:26" ht="14.25" customHeight="1">
       <c r="A780" s="23"/>
       <c r="B780" s="15"/>
       <c r="C780" s="15"/>
@@ -30991,7 +31041,7 @@
       <c r="Y780" s="15"/>
       <c r="Z780" s="15"/>
     </row>
-    <row r="781" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:26" ht="14.25" customHeight="1">
       <c r="A781" s="23"/>
       <c r="B781" s="15"/>
       <c r="C781" s="15"/>
@@ -31019,7 +31069,7 @@
       <c r="Y781" s="15"/>
       <c r="Z781" s="15"/>
     </row>
-    <row r="782" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:26" ht="14.25" customHeight="1">
       <c r="A782" s="23"/>
       <c r="B782" s="15"/>
       <c r="C782" s="15"/>
@@ -31047,7 +31097,7 @@
       <c r="Y782" s="15"/>
       <c r="Z782" s="15"/>
     </row>
-    <row r="783" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:26" ht="14.25" customHeight="1">
       <c r="A783" s="23"/>
       <c r="B783" s="15"/>
       <c r="C783" s="15"/>
@@ -31075,7 +31125,7 @@
       <c r="Y783" s="15"/>
       <c r="Z783" s="15"/>
     </row>
-    <row r="784" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:26" ht="14.25" customHeight="1">
       <c r="A784" s="23"/>
       <c r="B784" s="15"/>
       <c r="C784" s="15"/>
@@ -31103,7 +31153,7 @@
       <c r="Y784" s="15"/>
       <c r="Z784" s="15"/>
     </row>
-    <row r="785" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:26" ht="14.25" customHeight="1">
       <c r="A785" s="23"/>
       <c r="B785" s="15"/>
       <c r="C785" s="15"/>
@@ -31131,7 +31181,7 @@
       <c r="Y785" s="15"/>
       <c r="Z785" s="15"/>
     </row>
-    <row r="786" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:26" ht="14.25" customHeight="1">
       <c r="A786" s="23"/>
       <c r="B786" s="15"/>
       <c r="C786" s="15"/>
@@ -31159,7 +31209,7 @@
       <c r="Y786" s="15"/>
       <c r="Z786" s="15"/>
     </row>
-    <row r="787" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:26" ht="14.25" customHeight="1">
       <c r="A787" s="23"/>
       <c r="B787" s="15"/>
       <c r="C787" s="15"/>
@@ -31187,7 +31237,7 @@
       <c r="Y787" s="15"/>
       <c r="Z787" s="15"/>
     </row>
-    <row r="788" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:26" ht="14.25" customHeight="1">
       <c r="A788" s="23"/>
       <c r="B788" s="15"/>
       <c r="C788" s="15"/>
@@ -31215,7 +31265,7 @@
       <c r="Y788" s="15"/>
       <c r="Z788" s="15"/>
     </row>
-    <row r="789" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:26" ht="14.25" customHeight="1">
       <c r="A789" s="23"/>
       <c r="B789" s="15"/>
       <c r="C789" s="15"/>
@@ -31243,7 +31293,7 @@
       <c r="Y789" s="15"/>
       <c r="Z789" s="15"/>
     </row>
-    <row r="790" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:26" ht="14.25" customHeight="1">
       <c r="A790" s="23"/>
       <c r="B790" s="15"/>
       <c r="C790" s="15"/>
@@ -31271,7 +31321,7 @@
       <c r="Y790" s="15"/>
       <c r="Z790" s="15"/>
     </row>
-    <row r="791" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:26" ht="14.25" customHeight="1">
       <c r="A791" s="23"/>
       <c r="B791" s="15"/>
       <c r="C791" s="15"/>
@@ -31299,7 +31349,7 @@
       <c r="Y791" s="15"/>
       <c r="Z791" s="15"/>
     </row>
-    <row r="792" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:26" ht="14.25" customHeight="1">
       <c r="A792" s="23"/>
       <c r="B792" s="15"/>
       <c r="C792" s="15"/>
@@ -31327,7 +31377,7 @@
       <c r="Y792" s="15"/>
       <c r="Z792" s="15"/>
     </row>
-    <row r="793" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:26" ht="14.25" customHeight="1">
       <c r="A793" s="23"/>
       <c r="B793" s="15"/>
       <c r="C793" s="15"/>
@@ -31355,7 +31405,7 @@
       <c r="Y793" s="15"/>
       <c r="Z793" s="15"/>
     </row>
-    <row r="794" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:26" ht="14.25" customHeight="1">
       <c r="A794" s="23"/>
       <c r="B794" s="15"/>
       <c r="C794" s="15"/>
@@ -31383,7 +31433,7 @@
       <c r="Y794" s="15"/>
       <c r="Z794" s="15"/>
     </row>
-    <row r="795" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:26" ht="14.25" customHeight="1">
       <c r="A795" s="23"/>
       <c r="B795" s="15"/>
       <c r="C795" s="15"/>
@@ -31411,7 +31461,7 @@
       <c r="Y795" s="15"/>
       <c r="Z795" s="15"/>
     </row>
-    <row r="796" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:26" ht="14.25" customHeight="1">
       <c r="A796" s="23"/>
       <c r="B796" s="15"/>
       <c r="C796" s="15"/>
@@ -31439,7 +31489,7 @@
       <c r="Y796" s="15"/>
       <c r="Z796" s="15"/>
     </row>
-    <row r="797" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:26" ht="14.25" customHeight="1">
       <c r="A797" s="23"/>
       <c r="B797" s="15"/>
       <c r="C797" s="15"/>
@@ -31467,7 +31517,7 @@
       <c r="Y797" s="15"/>
       <c r="Z797" s="15"/>
     </row>
-    <row r="798" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:26" ht="14.25" customHeight="1">
       <c r="A798" s="23"/>
       <c r="B798" s="15"/>
       <c r="C798" s="15"/>
@@ -31495,7 +31545,7 @@
       <c r="Y798" s="15"/>
       <c r="Z798" s="15"/>
     </row>
-    <row r="799" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:26" ht="14.25" customHeight="1">
       <c r="A799" s="23"/>
       <c r="B799" s="15"/>
       <c r="C799" s="15"/>
@@ -31523,7 +31573,7 @@
       <c r="Y799" s="15"/>
       <c r="Z799" s="15"/>
     </row>
-    <row r="800" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:26" ht="14.25" customHeight="1">
       <c r="A800" s="23"/>
       <c r="B800" s="15"/>
       <c r="C800" s="15"/>
@@ -31551,7 +31601,7 @@
       <c r="Y800" s="15"/>
       <c r="Z800" s="15"/>
     </row>
-    <row r="801" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:26" ht="14.25" customHeight="1">
       <c r="A801" s="23"/>
       <c r="B801" s="15"/>
       <c r="C801" s="15"/>
@@ -31579,7 +31629,7 @@
       <c r="Y801" s="15"/>
       <c r="Z801" s="15"/>
     </row>
-    <row r="802" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:26" ht="14.25" customHeight="1">
       <c r="A802" s="23"/>
       <c r="B802" s="15"/>
       <c r="C802" s="15"/>
@@ -31607,7 +31657,7 @@
       <c r="Y802" s="15"/>
       <c r="Z802" s="15"/>
     </row>
-    <row r="803" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:26" ht="14.25" customHeight="1">
       <c r="A803" s="23"/>
       <c r="B803" s="15"/>
       <c r="C803" s="15"/>
@@ -31635,7 +31685,7 @@
       <c r="Y803" s="15"/>
       <c r="Z803" s="15"/>
     </row>
-    <row r="804" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:26" ht="14.25" customHeight="1">
       <c r="A804" s="23"/>
       <c r="B804" s="15"/>
       <c r="C804" s="15"/>
@@ -31663,7 +31713,7 @@
       <c r="Y804" s="15"/>
       <c r="Z804" s="15"/>
     </row>
-    <row r="805" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:26" ht="14.25" customHeight="1">
       <c r="A805" s="23"/>
       <c r="B805" s="15"/>
       <c r="C805" s="15"/>
@@ -31691,7 +31741,7 @@
       <c r="Y805" s="15"/>
       <c r="Z805" s="15"/>
     </row>
-    <row r="806" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:26" ht="14.25" customHeight="1">
       <c r="A806" s="23"/>
       <c r="B806" s="15"/>
       <c r="C806" s="15"/>
@@ -31719,7 +31769,7 @@
       <c r="Y806" s="15"/>
       <c r="Z806" s="15"/>
     </row>
-    <row r="807" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:26" ht="14.25" customHeight="1">
       <c r="A807" s="23"/>
       <c r="B807" s="15"/>
       <c r="C807" s="15"/>
@@ -31747,7 +31797,7 @@
       <c r="Y807" s="15"/>
       <c r="Z807" s="15"/>
     </row>
-    <row r="808" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:26" ht="14.25" customHeight="1">
       <c r="A808" s="23"/>
       <c r="B808" s="15"/>
       <c r="C808" s="15"/>
@@ -31775,7 +31825,7 @@
       <c r="Y808" s="15"/>
       <c r="Z808" s="15"/>
     </row>
-    <row r="809" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:26" ht="14.25" customHeight="1">
       <c r="A809" s="23"/>
       <c r="B809" s="15"/>
       <c r="C809" s="15"/>
@@ -31803,7 +31853,7 @@
       <c r="Y809" s="15"/>
       <c r="Z809" s="15"/>
     </row>
-    <row r="810" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:26" ht="14.25" customHeight="1">
       <c r="A810" s="23"/>
       <c r="B810" s="15"/>
       <c r="C810" s="15"/>
@@ -31831,7 +31881,7 @@
       <c r="Y810" s="15"/>
       <c r="Z810" s="15"/>
     </row>
-    <row r="811" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:26" ht="14.25" customHeight="1">
       <c r="A811" s="23"/>
       <c r="B811" s="15"/>
       <c r="C811" s="15"/>
@@ -31859,7 +31909,7 @@
       <c r="Y811" s="15"/>
       <c r="Z811" s="15"/>
     </row>
-    <row r="812" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:26" ht="14.25" customHeight="1">
       <c r="A812" s="23"/>
       <c r="B812" s="15"/>
       <c r="C812" s="15"/>
@@ -31887,7 +31937,7 @@
       <c r="Y812" s="15"/>
       <c r="Z812" s="15"/>
     </row>
-    <row r="813" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:26" ht="14.25" customHeight="1">
       <c r="A813" s="23"/>
       <c r="B813" s="15"/>
       <c r="C813" s="15"/>
@@ -31915,7 +31965,7 @@
       <c r="Y813" s="15"/>
       <c r="Z813" s="15"/>
     </row>
-    <row r="814" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:26" ht="14.25" customHeight="1">
       <c r="A814" s="23"/>
       <c r="B814" s="15"/>
       <c r="C814" s="15"/>
@@ -31943,7 +31993,7 @@
       <c r="Y814" s="15"/>
       <c r="Z814" s="15"/>
     </row>
-    <row r="815" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:26" ht="14.25" customHeight="1">
       <c r="A815" s="23"/>
       <c r="B815" s="15"/>
       <c r="C815" s="15"/>
@@ -31971,7 +32021,7 @@
       <c r="Y815" s="15"/>
       <c r="Z815" s="15"/>
     </row>
-    <row r="816" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:26" ht="14.25" customHeight="1">
       <c r="A816" s="23"/>
       <c r="B816" s="15"/>
       <c r="C816" s="15"/>
@@ -31999,7 +32049,7 @@
       <c r="Y816" s="15"/>
       <c r="Z816" s="15"/>
     </row>
-    <row r="817" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:26" ht="14.25" customHeight="1">
       <c r="A817" s="23"/>
       <c r="B817" s="15"/>
       <c r="C817" s="15"/>
@@ -32027,7 +32077,7 @@
       <c r="Y817" s="15"/>
       <c r="Z817" s="15"/>
     </row>
-    <row r="818" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:26" ht="14.25" customHeight="1">
       <c r="A818" s="23"/>
       <c r="B818" s="15"/>
       <c r="C818" s="15"/>
@@ -32055,7 +32105,7 @@
       <c r="Y818" s="15"/>
       <c r="Z818" s="15"/>
     </row>
-    <row r="819" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:26" ht="14.25" customHeight="1">
       <c r="A819" s="23"/>
       <c r="B819" s="15"/>
       <c r="C819" s="15"/>
@@ -32083,7 +32133,7 @@
       <c r="Y819" s="15"/>
       <c r="Z819" s="15"/>
     </row>
-    <row r="820" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:26" ht="14.25" customHeight="1">
       <c r="A820" s="23"/>
       <c r="B820" s="15"/>
       <c r="C820" s="15"/>
@@ -32111,7 +32161,7 @@
       <c r="Y820" s="15"/>
       <c r="Z820" s="15"/>
     </row>
-    <row r="821" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:26" ht="14.25" customHeight="1">
       <c r="A821" s="23"/>
       <c r="B821" s="15"/>
       <c r="C821" s="15"/>
@@ -32139,7 +32189,7 @@
       <c r="Y821" s="15"/>
       <c r="Z821" s="15"/>
     </row>
-    <row r="822" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:26" ht="14.25" customHeight="1">
       <c r="A822" s="23"/>
       <c r="B822" s="15"/>
       <c r="C822" s="15"/>
@@ -32167,7 +32217,7 @@
       <c r="Y822" s="15"/>
       <c r="Z822" s="15"/>
     </row>
-    <row r="823" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:26" ht="14.25" customHeight="1">
       <c r="A823" s="23"/>
       <c r="B823" s="15"/>
       <c r="C823" s="15"/>
@@ -32195,7 +32245,7 @@
       <c r="Y823" s="15"/>
       <c r="Z823" s="15"/>
     </row>
-    <row r="824" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:26" ht="14.25" customHeight="1">
       <c r="A824" s="23"/>
       <c r="B824" s="15"/>
       <c r="C824" s="15"/>
@@ -32223,7 +32273,7 @@
       <c r="Y824" s="15"/>
       <c r="Z824" s="15"/>
     </row>
-    <row r="825" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:26" ht="14.25" customHeight="1">
       <c r="A825" s="23"/>
       <c r="B825" s="15"/>
       <c r="C825" s="15"/>
@@ -32251,7 +32301,7 @@
       <c r="Y825" s="15"/>
       <c r="Z825" s="15"/>
     </row>
-    <row r="826" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:26" ht="14.25" customHeight="1">
       <c r="A826" s="23"/>
       <c r="B826" s="15"/>
       <c r="C826" s="15"/>
@@ -32279,7 +32329,7 @@
       <c r="Y826" s="15"/>
       <c r="Z826" s="15"/>
     </row>
-    <row r="827" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:26" ht="14.25" customHeight="1">
       <c r="A827" s="23"/>
       <c r="B827" s="15"/>
       <c r="C827" s="15"/>
@@ -32307,7 +32357,7 @@
       <c r="Y827" s="15"/>
       <c r="Z827" s="15"/>
     </row>
-    <row r="828" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:26" ht="14.25" customHeight="1">
       <c r="A828" s="23"/>
       <c r="B828" s="15"/>
       <c r="C828" s="15"/>
@@ -32335,7 +32385,7 @@
       <c r="Y828" s="15"/>
       <c r="Z828" s="15"/>
     </row>
-    <row r="829" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:26" ht="14.25" customHeight="1">
       <c r="A829" s="23"/>
       <c r="B829" s="15"/>
       <c r="C829" s="15"/>
@@ -32363,7 +32413,7 @@
       <c r="Y829" s="15"/>
       <c r="Z829" s="15"/>
     </row>
-    <row r="830" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:26" ht="14.25" customHeight="1">
       <c r="A830" s="23"/>
       <c r="B830" s="15"/>
       <c r="C830" s="15"/>
@@ -32391,7 +32441,7 @@
       <c r="Y830" s="15"/>
       <c r="Z830" s="15"/>
     </row>
-    <row r="831" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:26" ht="14.25" customHeight="1">
       <c r="A831" s="23"/>
       <c r="B831" s="15"/>
       <c r="C831" s="15"/>
@@ -32419,7 +32469,7 @@
       <c r="Y831" s="15"/>
       <c r="Z831" s="15"/>
     </row>
-    <row r="832" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:26" ht="14.25" customHeight="1">
       <c r="A832" s="23"/>
       <c r="B832" s="15"/>
       <c r="C832" s="15"/>
@@ -32447,7 +32497,7 @@
       <c r="Y832" s="15"/>
       <c r="Z832" s="15"/>
     </row>
-    <row r="833" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:26" ht="14.25" customHeight="1">
       <c r="A833" s="23"/>
       <c r="B833" s="15"/>
       <c r="C833" s="15"/>
@@ -32475,7 +32525,7 @@
       <c r="Y833" s="15"/>
       <c r="Z833" s="15"/>
     </row>
-    <row r="834" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:26" ht="14.25" customHeight="1">
       <c r="A834" s="23"/>
       <c r="B834" s="15"/>
       <c r="C834" s="15"/>
@@ -32503,7 +32553,7 @@
       <c r="Y834" s="15"/>
       <c r="Z834" s="15"/>
     </row>
-    <row r="835" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:26" ht="14.25" customHeight="1">
       <c r="A835" s="23"/>
       <c r="B835" s="15"/>
       <c r="C835" s="15"/>
@@ -32531,7 +32581,7 @@
       <c r="Y835" s="15"/>
       <c r="Z835" s="15"/>
     </row>
-    <row r="836" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:26" ht="14.25" customHeight="1">
       <c r="A836" s="23"/>
       <c r="B836" s="15"/>
       <c r="C836" s="15"/>
@@ -32559,7 +32609,7 @@
       <c r="Y836" s="15"/>
       <c r="Z836" s="15"/>
     </row>
-    <row r="837" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:26" ht="14.25" customHeight="1">
       <c r="A837" s="23"/>
       <c r="B837" s="15"/>
       <c r="C837" s="15"/>
@@ -32587,7 +32637,7 @@
       <c r="Y837" s="15"/>
       <c r="Z837" s="15"/>
     </row>
-    <row r="838" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:26" ht="14.25" customHeight="1">
       <c r="A838" s="23"/>
       <c r="B838" s="15"/>
       <c r="C838" s="15"/>
@@ -32615,7 +32665,7 @@
       <c r="Y838" s="15"/>
       <c r="Z838" s="15"/>
     </row>
-    <row r="839" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:26" ht="14.25" customHeight="1">
       <c r="A839" s="23"/>
       <c r="B839" s="15"/>
       <c r="C839" s="15"/>
@@ -32643,7 +32693,7 @@
       <c r="Y839" s="15"/>
       <c r="Z839" s="15"/>
     </row>
-    <row r="840" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:26" ht="14.25" customHeight="1">
       <c r="A840" s="23"/>
       <c r="B840" s="15"/>
       <c r="C840" s="15"/>
@@ -32671,7 +32721,7 @@
       <c r="Y840" s="15"/>
       <c r="Z840" s="15"/>
     </row>
-    <row r="841" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:26" ht="14.25" customHeight="1">
       <c r="A841" s="23"/>
       <c r="B841" s="15"/>
       <c r="C841" s="15"/>
@@ -32699,7 +32749,7 @@
       <c r="Y841" s="15"/>
       <c r="Z841" s="15"/>
     </row>
-    <row r="842" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:26" ht="14.25" customHeight="1">
       <c r="A842" s="23"/>
       <c r="B842" s="15"/>
       <c r="C842" s="15"/>
@@ -32727,7 +32777,7 @@
       <c r="Y842" s="15"/>
       <c r="Z842" s="15"/>
     </row>
-    <row r="843" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:26" ht="14.25" customHeight="1">
       <c r="A843" s="23"/>
       <c r="B843" s="15"/>
       <c r="C843" s="15"/>
@@ -32755,7 +32805,7 @@
       <c r="Y843" s="15"/>
       <c r="Z843" s="15"/>
     </row>
-    <row r="844" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:26" ht="14.25" customHeight="1">
       <c r="A844" s="23"/>
       <c r="B844" s="15"/>
       <c r="C844" s="15"/>
@@ -32783,7 +32833,7 @@
       <c r="Y844" s="15"/>
       <c r="Z844" s="15"/>
     </row>
-    <row r="845" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:26" ht="14.25" customHeight="1">
       <c r="A845" s="23"/>
       <c r="B845" s="15"/>
       <c r="C845" s="15"/>
@@ -32811,7 +32861,7 @@
       <c r="Y845" s="15"/>
       <c r="Z845" s="15"/>
     </row>
-    <row r="846" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:26" ht="14.25" customHeight="1">
       <c r="A846" s="23"/>
       <c r="B846" s="15"/>
       <c r="C846" s="15"/>
@@ -32839,7 +32889,7 @@
       <c r="Y846" s="15"/>
       <c r="Z846" s="15"/>
     </row>
-    <row r="847" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:26" ht="14.25" customHeight="1">
       <c r="A847" s="23"/>
       <c r="B847" s="15"/>
       <c r="C847" s="15"/>
@@ -32867,7 +32917,7 @@
       <c r="Y847" s="15"/>
       <c r="Z847" s="15"/>
     </row>
-    <row r="848" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:26" ht="14.25" customHeight="1">
       <c r="A848" s="23"/>
       <c r="B848" s="15"/>
       <c r="C848" s="15"/>
@@ -32895,7 +32945,7 @@
       <c r="Y848" s="15"/>
       <c r="Z848" s="15"/>
     </row>
-    <row r="849" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:26" ht="14.25" customHeight="1">
       <c r="A849" s="23"/>
       <c r="B849" s="15"/>
       <c r="C849" s="15"/>
@@ -32923,7 +32973,7 @@
       <c r="Y849" s="15"/>
       <c r="Z849" s="15"/>
     </row>
-    <row r="850" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:26" ht="14.25" customHeight="1">
       <c r="A850" s="23"/>
       <c r="B850" s="15"/>
       <c r="C850" s="15"/>
@@ -32951,7 +33001,7 @@
       <c r="Y850" s="15"/>
       <c r="Z850" s="15"/>
     </row>
-    <row r="851" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:26" ht="14.25" customHeight="1">
       <c r="A851" s="23"/>
       <c r="B851" s="15"/>
       <c r="C851" s="15"/>
@@ -32979,7 +33029,7 @@
       <c r="Y851" s="15"/>
       <c r="Z851" s="15"/>
     </row>
-    <row r="852" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:26" ht="14.25" customHeight="1">
       <c r="A852" s="23"/>
       <c r="B852" s="15"/>
       <c r="C852" s="15"/>
@@ -33007,7 +33057,7 @@
       <c r="Y852" s="15"/>
       <c r="Z852" s="15"/>
     </row>
-    <row r="853" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:26" ht="14.25" customHeight="1">
       <c r="A853" s="23"/>
       <c r="B853" s="15"/>
       <c r="C853" s="15"/>
@@ -33035,7 +33085,7 @@
       <c r="Y853" s="15"/>
       <c r="Z853" s="15"/>
     </row>
-    <row r="854" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:26" ht="14.25" customHeight="1">
       <c r="A854" s="23"/>
       <c r="B854" s="15"/>
       <c r="C854" s="15"/>
@@ -33063,7 +33113,7 @@
       <c r="Y854" s="15"/>
       <c r="Z854" s="15"/>
     </row>
-    <row r="855" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:26" ht="14.25" customHeight="1">
       <c r="A855" s="23"/>
       <c r="B855" s="15"/>
       <c r="C855" s="15"/>
@@ -33091,7 +33141,7 @@
       <c r="Y855" s="15"/>
       <c r="Z855" s="15"/>
     </row>
-    <row r="856" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:26" ht="14.25" customHeight="1">
       <c r="A856" s="23"/>
       <c r="B856" s="15"/>
       <c r="C856" s="15"/>
@@ -33119,7 +33169,7 @@
       <c r="Y856" s="15"/>
       <c r="Z856" s="15"/>
     </row>
-    <row r="857" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:26" ht="14.25" customHeight="1">
       <c r="A857" s="23"/>
       <c r="B857" s="15"/>
       <c r="C857" s="15"/>
@@ -33147,7 +33197,7 @@
       <c r="Y857" s="15"/>
       <c r="Z857" s="15"/>
     </row>
-    <row r="858" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:26" ht="14.25" customHeight="1">
       <c r="A858" s="23"/>
       <c r="B858" s="15"/>
       <c r="C858" s="15"/>
@@ -33175,7 +33225,7 @@
       <c r="Y858" s="15"/>
       <c r="Z858" s="15"/>
     </row>
-    <row r="859" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:26" ht="14.25" customHeight="1">
       <c r="A859" s="23"/>
       <c r="B859" s="15"/>
       <c r="C859" s="15"/>
@@ -33203,7 +33253,7 @@
       <c r="Y859" s="15"/>
       <c r="Z859" s="15"/>
     </row>
-    <row r="860" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:26" ht="14.25" customHeight="1">
       <c r="A860" s="23"/>
       <c r="B860" s="15"/>
       <c r="C860" s="15"/>
@@ -33231,7 +33281,7 @@
       <c r="Y860" s="15"/>
       <c r="Z860" s="15"/>
     </row>
-    <row r="861" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:26" ht="14.25" customHeight="1">
       <c r="A861" s="23"/>
       <c r="B861" s="15"/>
       <c r="C861" s="15"/>
@@ -33259,7 +33309,7 @@
       <c r="Y861" s="15"/>
       <c r="Z861" s="15"/>
     </row>
-    <row r="862" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:26" ht="14.25" customHeight="1">
       <c r="A862" s="23"/>
       <c r="B862" s="15"/>
       <c r="C862" s="15"/>
@@ -33287,7 +33337,7 @@
       <c r="Y862" s="15"/>
       <c r="Z862" s="15"/>
     </row>
-    <row r="863" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:26" ht="14.25" customHeight="1">
       <c r="A863" s="23"/>
       <c r="B863" s="15"/>
       <c r="C863" s="15"/>
@@ -33315,7 +33365,7 @@
       <c r="Y863" s="15"/>
       <c r="Z863" s="15"/>
     </row>
-    <row r="864" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:26" ht="14.25" customHeight="1">
       <c r="A864" s="23"/>
       <c r="B864" s="15"/>
       <c r="C864" s="15"/>
@@ -33343,7 +33393,7 @@
       <c r="Y864" s="15"/>
       <c r="Z864" s="15"/>
     </row>
-    <row r="865" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:26" ht="14.25" customHeight="1">
       <c r="A865" s="23"/>
       <c r="B865" s="15"/>
       <c r="C865" s="15"/>
@@ -33371,7 +33421,7 @@
       <c r="Y865" s="15"/>
       <c r="Z865" s="15"/>
     </row>
-    <row r="866" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:26" ht="14.25" customHeight="1">
       <c r="A866" s="23"/>
       <c r="B866" s="15"/>
       <c r="C866" s="15"/>
@@ -33399,7 +33449,7 @@
       <c r="Y866" s="15"/>
       <c r="Z866" s="15"/>
     </row>
-    <row r="867" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:26" ht="14.25" customHeight="1">
       <c r="A867" s="23"/>
       <c r="B867" s="15"/>
       <c r="C867" s="15"/>
@@ -33427,7 +33477,7 @@
       <c r="Y867" s="15"/>
       <c r="Z867" s="15"/>
     </row>
-    <row r="868" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:26" ht="14.25" customHeight="1">
       <c r="A868" s="23"/>
       <c r="B868" s="15"/>
       <c r="C868" s="15"/>
@@ -33455,7 +33505,7 @@
       <c r="Y868" s="15"/>
       <c r="Z868" s="15"/>
     </row>
-    <row r="869" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:26" ht="14.25" customHeight="1">
       <c r="A869" s="23"/>
       <c r="B869" s="15"/>
       <c r="C869" s="15"/>
@@ -33483,7 +33533,7 @@
       <c r="Y869" s="15"/>
       <c r="Z869" s="15"/>
     </row>
-    <row r="870" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:26" ht="14.25" customHeight="1">
       <c r="A870" s="23"/>
       <c r="B870" s="15"/>
       <c r="C870" s="15"/>
@@ -33511,7 +33561,7 @@
       <c r="Y870" s="15"/>
       <c r="Z870" s="15"/>
     </row>
-    <row r="871" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:26" ht="14.25" customHeight="1">
       <c r="A871" s="23"/>
       <c r="B871" s="15"/>
       <c r="C871" s="15"/>
@@ -33539,7 +33589,7 @@
       <c r="Y871" s="15"/>
       <c r="Z871" s="15"/>
     </row>
-    <row r="872" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:26" ht="14.25" customHeight="1">
       <c r="A872" s="23"/>
       <c r="B872" s="15"/>
       <c r="C872" s="15"/>
@@ -33567,7 +33617,7 @@
       <c r="Y872" s="15"/>
       <c r="Z872" s="15"/>
     </row>
-    <row r="873" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:26" ht="14.25" customHeight="1">
       <c r="A873" s="23"/>
       <c r="B873" s="15"/>
       <c r="C873" s="15"/>
@@ -33595,7 +33645,7 @@
       <c r="Y873" s="15"/>
       <c r="Z873" s="15"/>
     </row>
-    <row r="874" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:26" ht="14.25" customHeight="1">
       <c r="A874" s="23"/>
       <c r="B874" s="15"/>
       <c r="C874" s="15"/>
@@ -33623,7 +33673,7 @@
       <c r="Y874" s="15"/>
       <c r="Z874" s="15"/>
     </row>
-    <row r="875" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:26" ht="14.25" customHeight="1">
       <c r="A875" s="23"/>
       <c r="B875" s="15"/>
       <c r="C875" s="15"/>
@@ -33651,7 +33701,7 @@
       <c r="Y875" s="15"/>
       <c r="Z875" s="15"/>
     </row>
-    <row r="876" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:26" ht="14.25" customHeight="1">
       <c r="A876" s="23"/>
       <c r="B876" s="15"/>
       <c r="C876" s="15"/>
@@ -33679,7 +33729,7 @@
       <c r="Y876" s="15"/>
       <c r="Z876" s="15"/>
     </row>
-    <row r="877" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:26" ht="14.25" customHeight="1">
       <c r="A877" s="23"/>
       <c r="B877" s="15"/>
       <c r="C877" s="15"/>
@@ -33707,7 +33757,7 @@
       <c r="Y877" s="15"/>
       <c r="Z877" s="15"/>
     </row>
-    <row r="878" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:26" ht="14.25" customHeight="1">
       <c r="A878" s="23"/>
       <c r="B878" s="15"/>
       <c r="C878" s="15"/>
@@ -33735,7 +33785,7 @@
       <c r="Y878" s="15"/>
       <c r="Z878" s="15"/>
     </row>
-    <row r="879" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:26" ht="14.25" customHeight="1">
       <c r="A879" s="23"/>
       <c r="B879" s="15"/>
       <c r="C879" s="15"/>
@@ -33763,7 +33813,7 @@
       <c r="Y879" s="15"/>
       <c r="Z879" s="15"/>
     </row>
-    <row r="880" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:26" ht="14.25" customHeight="1">
       <c r="A880" s="23"/>
       <c r="B880" s="15"/>
       <c r="C880" s="15"/>
@@ -33791,7 +33841,7 @@
       <c r="Y880" s="15"/>
       <c r="Z880" s="15"/>
     </row>
-    <row r="881" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:26" ht="14.25" customHeight="1">
       <c r="A881" s="23"/>
       <c r="B881" s="15"/>
       <c r="C881" s="15"/>
@@ -33819,7 +33869,7 @@
       <c r="Y881" s="15"/>
       <c r="Z881" s="15"/>
     </row>
-    <row r="882" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:26" ht="14.25" customHeight="1">
       <c r="A882" s="23"/>
       <c r="B882" s="15"/>
       <c r="C882" s="15"/>
@@ -33847,7 +33897,7 @@
       <c r="Y882" s="15"/>
       <c r="Z882" s="15"/>
     </row>
-    <row r="883" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:26" ht="14.25" customHeight="1">
       <c r="A883" s="23"/>
       <c r="B883" s="15"/>
       <c r="C883" s="15"/>
@@ -33875,7 +33925,7 @@
       <c r="Y883" s="15"/>
       <c r="Z883" s="15"/>
     </row>
-    <row r="884" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:26" ht="14.25" customHeight="1">
       <c r="A884" s="23"/>
       <c r="B884" s="15"/>
       <c r="C884" s="15"/>
@@ -33903,7 +33953,7 @@
       <c r="Y884" s="15"/>
       <c r="Z884" s="15"/>
     </row>
-    <row r="885" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:26" ht="14.25" customHeight="1">
       <c r="A885" s="23"/>
       <c r="B885" s="15"/>
       <c r="C885" s="15"/>
@@ -33931,7 +33981,7 @@
       <c r="Y885" s="15"/>
       <c r="Z885" s="15"/>
     </row>
-    <row r="886" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:26" ht="14.25" customHeight="1">
       <c r="A886" s="23"/>
       <c r="B886" s="15"/>
       <c r="C886" s="15"/>
@@ -33959,7 +34009,7 @@
       <c r="Y886" s="15"/>
       <c r="Z886" s="15"/>
     </row>
-    <row r="887" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:26" ht="14.25" customHeight="1">
       <c r="A887" s="23"/>
       <c r="B887" s="15"/>
       <c r="C887" s="15"/>
@@ -33987,7 +34037,7 @@
       <c r="Y887" s="15"/>
       <c r="Z887" s="15"/>
     </row>
-    <row r="888" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:26" ht="14.25" customHeight="1">
       <c r="A888" s="23"/>
       <c r="B888" s="15"/>
       <c r="C888" s="15"/>
@@ -34015,7 +34065,7 @@
       <c r="Y888" s="15"/>
       <c r="Z888" s="15"/>
     </row>
-    <row r="889" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:26" ht="14.25" customHeight="1">
       <c r="A889" s="23"/>
       <c r="B889" s="15"/>
       <c r="C889" s="15"/>
@@ -34043,7 +34093,7 @@
       <c r="Y889" s="15"/>
       <c r="Z889" s="15"/>
     </row>
-    <row r="890" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:26" ht="14.25" customHeight="1">
       <c r="A890" s="23"/>
       <c r="B890" s="15"/>
       <c r="C890" s="15"/>
@@ -34071,7 +34121,7 @@
       <c r="Y890" s="15"/>
       <c r="Z890" s="15"/>
     </row>
-    <row r="891" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:26" ht="14.25" customHeight="1">
       <c r="A891" s="23"/>
       <c r="B891" s="15"/>
       <c r="C891" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70735114-9677-4C32-883E-35EA8C36C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E60143-EEEA-40EE-880D-817012B8E632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="924">
   <si>
     <t>Company</t>
   </si>
@@ -2798,6 +2798,12 @@
   </si>
   <si>
     <t xml:space="preserve">800 Walnut St. 801 Walnut St. 206 8th St </t>
+  </si>
+  <si>
+    <t>801 Walnut St</t>
+  </si>
+  <si>
+    <t>05/19/2022</t>
   </si>
 </sst>
 </file>
@@ -3163,7 +3169,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
+      <selection pane="bottomLeft" activeCell="K303" sqref="K303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -17630,16 +17636,36 @@
       <c r="Z301" s="15"/>
     </row>
     <row r="302" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A302" s="23"/>
-      <c r="B302" s="15"/>
-      <c r="C302" s="15"/>
-      <c r="D302" s="15"/>
-      <c r="E302" s="15"/>
-      <c r="F302" s="15"/>
-      <c r="G302" s="15"/>
-      <c r="H302" s="15"/>
-      <c r="I302" s="16"/>
-      <c r="J302" s="15"/>
+      <c r="A302" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="C302" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D302" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E302" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="F302" s="15">
+        <v>52309</v>
+      </c>
+      <c r="G302" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="H302" s="15">
+        <v>5</v>
+      </c>
+      <c r="I302" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="J302" s="10">
+        <v>44761</v>
+      </c>
       <c r="K302" s="15"/>
       <c r="L302" s="15"/>
       <c r="M302" s="15"/>
@@ -17658,16 +17684,36 @@
       <c r="Z302" s="15"/>
     </row>
     <row r="303" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A303" s="23"/>
-      <c r="B303" s="15"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="15"/>
-      <c r="E303" s="15"/>
-      <c r="F303" s="15"/>
-      <c r="G303" s="15"/>
-      <c r="H303" s="15"/>
-      <c r="I303" s="16"/>
-      <c r="J303" s="15"/>
+      <c r="A303" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B303" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="C303" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D303" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E303" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="F303" s="15">
+        <v>52309</v>
+      </c>
+      <c r="G303" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="H303" s="15">
+        <v>6</v>
+      </c>
+      <c r="I303" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="J303" s="10">
+        <v>44761</v>
+      </c>
       <c r="K303" s="15"/>
       <c r="L303" s="15"/>
       <c r="M303" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\iwdna1a\users\TWageman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\IWDNA1A\Users\cdeit\Desktop\Rob\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="934">
   <si>
     <t>Company</t>
   </si>
@@ -2782,6 +2782,57 @@
   </si>
   <si>
     <t>05/20/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAAZ, LLC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 11th St SW Plz </t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>05/26/2022</t>
+  </si>
+  <si>
+    <t>2209 Circle Dr W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit Lake </t>
+  </si>
+  <si>
+    <t>Dickenson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300 Lake Ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storm Lake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ace International, LLC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">209 Lincoln Way </t>
+  </si>
+  <si>
+    <t>05/27/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2801 E 13th St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1720 S Story St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boone </t>
+  </si>
+  <si>
+    <t>Boone</t>
   </si>
 </sst>
 </file>
@@ -3146,23 +3197,23 @@
   <dimension ref="A1:Z889"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L285" sqref="L285"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.59765625" customWidth="1"/>
+    <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -17662,16 +17713,36 @@
       <c r="Z302" s="15"/>
     </row>
     <row r="303" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A303" s="23"/>
-      <c r="B303" s="15"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="15"/>
-      <c r="E303" s="15"/>
-      <c r="F303" s="15"/>
-      <c r="G303" s="15"/>
-      <c r="H303" s="15"/>
-      <c r="I303" s="16"/>
-      <c r="J303" s="15"/>
+      <c r="A303" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="B303" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="C303" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="D303" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="E303" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F303" s="15">
+        <v>51301</v>
+      </c>
+      <c r="G303" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="H303" s="15">
+        <v>15</v>
+      </c>
+      <c r="I303" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="J303" s="10">
+        <v>44681</v>
+      </c>
       <c r="K303" s="15"/>
       <c r="L303" s="15"/>
       <c r="M303" s="15"/>
@@ -17690,16 +17761,36 @@
       <c r="Z303" s="15"/>
     </row>
     <row r="304" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A304" s="23"/>
-      <c r="B304" s="15"/>
-      <c r="C304" s="15"/>
-      <c r="D304" s="15"/>
-      <c r="E304" s="15"/>
-      <c r="F304" s="15"/>
-      <c r="G304" s="15"/>
-      <c r="H304" s="15"/>
-      <c r="I304" s="16"/>
-      <c r="J304" s="15"/>
+      <c r="A304" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="B304" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="C304" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="D304" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="E304" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F304" s="15">
+        <v>51360</v>
+      </c>
+      <c r="G304" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="H304" s="15">
+        <v>6</v>
+      </c>
+      <c r="I304" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="J304" s="10">
+        <v>44681</v>
+      </c>
       <c r="K304" s="15"/>
       <c r="L304" s="15"/>
       <c r="M304" s="15"/>
@@ -17718,16 +17809,36 @@
       <c r="Z304" s="15"/>
     </row>
     <row r="305" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A305" s="23"/>
-      <c r="B305" s="15"/>
-      <c r="C305" s="15"/>
-      <c r="D305" s="15"/>
-      <c r="E305" s="15"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="15"/>
-      <c r="H305" s="15"/>
-      <c r="I305" s="16"/>
-      <c r="J305" s="15"/>
+      <c r="A305" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="B305" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="C305" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="D305" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="E305" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F305" s="15">
+        <v>50588</v>
+      </c>
+      <c r="G305" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H305" s="15">
+        <v>13</v>
+      </c>
+      <c r="I305" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="J305" s="10">
+        <v>44681</v>
+      </c>
       <c r="K305" s="15"/>
       <c r="L305" s="15"/>
       <c r="M305" s="15"/>
@@ -17746,16 +17857,36 @@
       <c r="Z305" s="15"/>
     </row>
     <row r="306" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A306" s="23"/>
-      <c r="B306" s="15"/>
-      <c r="C306" s="15"/>
-      <c r="D306" s="15"/>
-      <c r="E306" s="15"/>
-      <c r="F306" s="15"/>
-      <c r="G306" s="15"/>
-      <c r="H306" s="15"/>
-      <c r="I306" s="16"/>
-      <c r="J306" s="15"/>
+      <c r="A306" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="B306" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D306" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E306" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="F306" s="15">
+        <v>50010</v>
+      </c>
+      <c r="G306" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="H306" s="15">
+        <v>9</v>
+      </c>
+      <c r="I306" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="J306" s="10">
+        <v>44681</v>
+      </c>
       <c r="K306" s="15"/>
       <c r="L306" s="15"/>
       <c r="M306" s="15"/>
@@ -17774,16 +17905,36 @@
       <c r="Z306" s="15"/>
     </row>
     <row r="307" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A307" s="23"/>
-      <c r="B307" s="15"/>
-      <c r="C307" s="15"/>
-      <c r="D307" s="15"/>
-      <c r="E307" s="15"/>
-      <c r="F307" s="15"/>
-      <c r="G307" s="15"/>
-      <c r="H307" s="15"/>
-      <c r="I307" s="16"/>
-      <c r="J307" s="15"/>
+      <c r="A307" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="C307" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D307" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E307" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="F307" s="15">
+        <v>50010</v>
+      </c>
+      <c r="G307" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H307" s="15">
+        <v>6</v>
+      </c>
+      <c r="I307" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="J307" s="10">
+        <v>44681</v>
+      </c>
       <c r="K307" s="15"/>
       <c r="L307" s="15"/>
       <c r="M307" s="15"/>
@@ -17802,16 +17953,36 @@
       <c r="Z307" s="15"/>
     </row>
     <row r="308" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A308" s="23"/>
-      <c r="B308" s="15"/>
-      <c r="C308" s="15"/>
-      <c r="D308" s="15"/>
-      <c r="E308" s="15"/>
-      <c r="F308" s="15"/>
-      <c r="G308" s="15"/>
-      <c r="H308" s="15"/>
-      <c r="I308" s="16"/>
-      <c r="J308" s="15"/>
+      <c r="A308" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="D308" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="E308" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="F308" s="15">
+        <v>50036</v>
+      </c>
+      <c r="G308" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="H308" s="15">
+        <v>16</v>
+      </c>
+      <c r="I308" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="J308" s="10">
+        <v>44694</v>
+      </c>
       <c r="K308" s="15"/>
       <c r="L308" s="15"/>
       <c r="M308" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F36C5F-A985-447E-8B5E-291393FF36FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A4B5CAC-E4CB-4A39-B410-FE72009C5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="934">
   <si>
     <t>Company</t>
   </si>
@@ -2828,6 +2828,12 @@
   </si>
   <si>
     <t>06/02/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Layff </t>
+  </si>
+  <si>
+    <t>06/14/2022</t>
   </si>
 </sst>
 </file>
@@ -3192,8 +3198,8 @@
   <dimension ref="A1:Z887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K308" sqref="K308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -17948,16 +17954,36 @@
       <c r="Z307" s="15"/>
     </row>
     <row r="308" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A308" s="23"/>
-      <c r="B308" s="15"/>
-      <c r="C308" s="15"/>
-      <c r="D308" s="15"/>
-      <c r="E308" s="15"/>
-      <c r="F308" s="15"/>
-      <c r="G308" s="15"/>
-      <c r="H308" s="15"/>
-      <c r="I308" s="16"/>
-      <c r="J308" s="15"/>
+      <c r="A308" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="D308" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E308" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F308" s="15">
+        <v>52324</v>
+      </c>
+      <c r="G308" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="H308" s="15">
+        <v>25</v>
+      </c>
+      <c r="I308" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="J308" s="10">
+        <v>44820</v>
+      </c>
       <c r="K308" s="15"/>
       <c r="L308" s="15"/>
       <c r="M308" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B888BE-0DCF-4046-BF70-1BA47D68AD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3557A3B4-6BC4-40B7-80A9-D04F26A81CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="930">
   <si>
     <t>Company</t>
   </si>
@@ -2813,6 +2813,15 @@
   </si>
   <si>
     <t>06/16/2022</t>
+  </si>
+  <si>
+    <t>Transamerica Life Insurance Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6400 C St SW </t>
+  </si>
+  <si>
+    <t>06/17/2022</t>
   </si>
 </sst>
 </file>
@@ -3195,7 +3204,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A287" sqref="A287:XFD287"/>
+      <selection pane="bottomLeft" activeCell="K307" sqref="K307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -17902,16 +17911,36 @@
       <c r="Z306" s="27"/>
     </row>
     <row r="307" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A307" s="23"/>
-      <c r="B307" s="15"/>
-      <c r="C307" s="15"/>
-      <c r="D307" s="15"/>
-      <c r="E307" s="15"/>
-      <c r="F307" s="15"/>
-      <c r="G307" s="15"/>
-      <c r="H307" s="15"/>
-      <c r="I307" s="16"/>
-      <c r="J307" s="15"/>
+      <c r="A307" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="C307" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F307" s="15">
+        <v>52499</v>
+      </c>
+      <c r="G307" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="H307" s="15">
+        <v>40</v>
+      </c>
+      <c r="I307" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="J307" s="10">
+        <v>44788</v>
+      </c>
       <c r="K307" s="15"/>
       <c r="L307" s="15"/>
       <c r="M307" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FDBA6D-658D-4B48-A0A9-AFB947AB79E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1D9BCB8-7E1C-48C6-A496-A858AD14256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="945">
   <si>
     <t>Company</t>
   </si>
@@ -2840,6 +2840,33 @@
   </si>
   <si>
     <t>06/22/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampcus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5005 N River Blvd NE </t>
+  </si>
+  <si>
+    <t>06/30/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Human Capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Walnut St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 Army Post Rd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">901 E 1st St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaygen, Inc </t>
+  </si>
+  <si>
+    <t>Conde Group, Inc</t>
   </si>
 </sst>
 </file>
@@ -3221,8 +3248,8 @@
   <dimension ref="A1:Z882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K308" sqref="K308"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K316" sqref="K316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -18025,16 +18052,36 @@
       <c r="Z308" s="15"/>
     </row>
     <row r="309" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A309" s="23"/>
-      <c r="B309" s="15"/>
-      <c r="C309" s="15"/>
-      <c r="D309" s="15"/>
-      <c r="E309" s="15"/>
-      <c r="F309" s="15"/>
-      <c r="G309" s="15"/>
-      <c r="H309" s="15"/>
-      <c r="I309" s="16"/>
-      <c r="J309" s="15"/>
+      <c r="A309" s="23" t="s">
+        <v>936</v>
+      </c>
+      <c r="B309" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D309" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E309" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F309" s="15">
+        <v>52411</v>
+      </c>
+      <c r="G309" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="H309" s="15">
+        <v>3</v>
+      </c>
+      <c r="I309" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="J309" s="10">
+        <v>44865</v>
+      </c>
       <c r="K309" s="15"/>
       <c r="L309" s="15"/>
       <c r="M309" s="15"/>
@@ -18053,16 +18100,36 @@
       <c r="Z309" s="15"/>
     </row>
     <row r="310" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A310" s="23"/>
-      <c r="B310" s="15"/>
-      <c r="C310" s="15"/>
-      <c r="D310" s="15"/>
-      <c r="E310" s="15"/>
-      <c r="F310" s="15"/>
-      <c r="G310" s="15"/>
-      <c r="H310" s="15"/>
-      <c r="I310" s="16"/>
-      <c r="J310" s="15"/>
+      <c r="A310" s="23" t="s">
+        <v>939</v>
+      </c>
+      <c r="B310" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D310" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F310" s="15">
+        <v>52411</v>
+      </c>
+      <c r="G310" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="H310" s="15">
+        <v>1</v>
+      </c>
+      <c r="I310" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="J310" s="10">
+        <v>44865</v>
+      </c>
       <c r="K310" s="15"/>
       <c r="L310" s="15"/>
       <c r="M310" s="15"/>
@@ -18081,16 +18148,36 @@
       <c r="Z310" s="15"/>
     </row>
     <row r="311" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A311" s="23"/>
-      <c r="B311" s="15"/>
-      <c r="C311" s="15"/>
-      <c r="D311" s="15"/>
-      <c r="E311" s="15"/>
-      <c r="F311" s="15"/>
-      <c r="G311" s="15"/>
-      <c r="H311" s="15"/>
-      <c r="I311" s="16"/>
-      <c r="J311" s="15"/>
+      <c r="A311" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="B311" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="E311" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F311" s="15">
+        <v>52066</v>
+      </c>
+      <c r="G311" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H311" s="15">
+        <v>29</v>
+      </c>
+      <c r="I311" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="J311" s="10">
+        <v>44803</v>
+      </c>
       <c r="K311" s="15"/>
       <c r="L311" s="15"/>
       <c r="M311" s="15"/>
@@ -18109,16 +18196,36 @@
       <c r="Z311" s="15"/>
     </row>
     <row r="312" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A312" s="23"/>
-      <c r="B312" s="15"/>
-      <c r="C312" s="15"/>
-      <c r="D312" s="15"/>
-      <c r="E312" s="15"/>
-      <c r="F312" s="15"/>
-      <c r="G312" s="15"/>
-      <c r="H312" s="15"/>
-      <c r="I312" s="16"/>
-      <c r="J312" s="15"/>
+      <c r="A312" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="B312" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D312" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E312" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F312" s="15">
+        <v>50315</v>
+      </c>
+      <c r="G312" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="H312" s="15">
+        <v>6</v>
+      </c>
+      <c r="I312" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="J312" s="10">
+        <v>44803</v>
+      </c>
       <c r="K312" s="15"/>
       <c r="L312" s="15"/>
       <c r="M312" s="15"/>
@@ -18137,16 +18244,36 @@
       <c r="Z312" s="15"/>
     </row>
     <row r="313" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A313" s="23"/>
-      <c r="B313" s="15"/>
-      <c r="C313" s="15"/>
-      <c r="D313" s="15"/>
-      <c r="E313" s="15"/>
-      <c r="F313" s="15"/>
-      <c r="G313" s="15"/>
-      <c r="H313" s="15"/>
-      <c r="I313" s="16"/>
-      <c r="J313" s="15"/>
+      <c r="A313" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="B313" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="D313" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="E313" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F313" s="15">
+        <v>50315</v>
+      </c>
+      <c r="G313" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="H313" s="15">
+        <v>37</v>
+      </c>
+      <c r="I313" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="J313" s="10">
+        <v>44803</v>
+      </c>
       <c r="K313" s="15"/>
       <c r="L313" s="15"/>
       <c r="M313" s="15"/>
@@ -18165,16 +18292,36 @@
       <c r="Z313" s="15"/>
     </row>
     <row r="314" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A314" s="23"/>
-      <c r="B314" s="15"/>
-      <c r="C314" s="15"/>
-      <c r="D314" s="15"/>
-      <c r="E314" s="15"/>
-      <c r="F314" s="15"/>
-      <c r="G314" s="15"/>
-      <c r="H314" s="15"/>
-      <c r="I314" s="16"/>
-      <c r="J314" s="15"/>
+      <c r="A314" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="C314" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D314" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E314" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F314" s="15">
+        <v>50315</v>
+      </c>
+      <c r="G314" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H314" s="15">
+        <v>35</v>
+      </c>
+      <c r="I314" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="J314" s="10">
+        <v>44803</v>
+      </c>
       <c r="K314" s="15"/>
       <c r="L314" s="15"/>
       <c r="M314" s="15"/>
@@ -18193,16 +18340,36 @@
       <c r="Z314" s="15"/>
     </row>
     <row r="315" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A315" s="23"/>
-      <c r="B315" s="15"/>
-      <c r="C315" s="15"/>
-      <c r="D315" s="15"/>
-      <c r="E315" s="15"/>
-      <c r="F315" s="15"/>
-      <c r="G315" s="15"/>
-      <c r="H315" s="15"/>
-      <c r="I315" s="16"/>
-      <c r="J315" s="15"/>
+      <c r="A315" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="B315" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C315" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="D315" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F315" s="15">
+        <v>52411</v>
+      </c>
+      <c r="G315" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="H315" s="15">
+        <v>7</v>
+      </c>
+      <c r="I315" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="J315" s="10">
+        <v>44865</v>
+      </c>
       <c r="K315" s="15"/>
       <c r="L315" s="15"/>
       <c r="M315" s="15"/>
@@ -18221,16 +18388,36 @@
       <c r="Z315" s="15"/>
     </row>
     <row r="316" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A316" s="23"/>
-      <c r="B316" s="15"/>
-      <c r="C316" s="15"/>
-      <c r="D316" s="15"/>
-      <c r="E316" s="15"/>
-      <c r="F316" s="15"/>
-      <c r="G316" s="15"/>
-      <c r="H316" s="15"/>
-      <c r="I316" s="16"/>
-      <c r="J316" s="15"/>
+      <c r="A316" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="B316" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C316" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D316" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F316" s="15">
+        <v>52411</v>
+      </c>
+      <c r="G316" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="H316" s="15">
+        <v>1</v>
+      </c>
+      <c r="I316" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="J316" s="10">
+        <v>44865</v>
+      </c>
       <c r="K316" s="15"/>
       <c r="L316" s="15"/>
       <c r="M316" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25616"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\IWDNA1A\Users\cdeit\Desktop\WID Data\2022\August\Warns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F86EB3BA-6937-4D8E-BAC1-7C7FDF050819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="954">
   <si>
     <t>Company</t>
   </si>
@@ -2882,12 +2881,24 @@
   </si>
   <si>
     <t xml:space="preserve">Keokuk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessing Health Keokuk </t>
+  </si>
+  <si>
+    <t>1600 Morgan St</t>
+  </si>
+  <si>
+    <t>Keokuk</t>
+  </si>
+  <si>
+    <t>09/02/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3256,15 +3267,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K326" sqref="K326"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K327" sqref="K327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -18931,16 +18942,36 @@
       <c r="Z326" s="15"/>
     </row>
     <row r="327" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A327" s="23"/>
-      <c r="B327" s="15"/>
-      <c r="C327" s="15"/>
-      <c r="D327" s="15"/>
-      <c r="E327" s="15"/>
-      <c r="F327" s="15"/>
-      <c r="G327" s="15"/>
-      <c r="H327" s="15"/>
-      <c r="I327" s="16"/>
-      <c r="J327" s="15"/>
+      <c r="A327" s="23" t="s">
+        <v>950</v>
+      </c>
+      <c r="B327" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="C327" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="D327" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="E327" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="F327" s="15">
+        <v>52632</v>
+      </c>
+      <c r="G327" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="H327" s="15">
+        <v>151</v>
+      </c>
+      <c r="I327" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="J327" s="10">
+        <v>44869</v>
+      </c>
       <c r="K327" s="15"/>
       <c r="L327" s="15"/>
       <c r="M327" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25630"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twageman.IWDNTDOM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2FED328-9EF4-44A9-874B-7386843B600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14141AA7-BA39-4731-97CF-B81010AB113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16910" yWindow="160" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="964">
   <si>
     <t>Company</t>
   </si>
@@ -2894,6 +2894,36 @@
   </si>
   <si>
     <t>09/03/2022</t>
+  </si>
+  <si>
+    <t>Collabera Inc</t>
+  </si>
+  <si>
+    <t>5005 N River Blvd</t>
+  </si>
+  <si>
+    <t>09/12/2022</t>
+  </si>
+  <si>
+    <t>Sunnycrest Nursing Center</t>
+  </si>
+  <si>
+    <t>401 Crisman St</t>
+  </si>
+  <si>
+    <t>Dysart</t>
+  </si>
+  <si>
+    <t>Tama</t>
+  </si>
+  <si>
+    <t>QHC Mitchellville</t>
+  </si>
+  <si>
+    <t>114 Carter St SW</t>
+  </si>
+  <si>
+    <t>Mitchellville</t>
   </si>
 </sst>
 </file>
@@ -3275,23 +3305,23 @@
   <dimension ref="A1:Z874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K330" sqref="K330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.59765625" customWidth="1"/>
+    <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -18991,16 +19021,36 @@
       <c r="Z327" s="15"/>
     </row>
     <row r="328" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A328" s="23"/>
-      <c r="B328" s="15"/>
-      <c r="C328" s="15"/>
-      <c r="D328" s="15"/>
-      <c r="E328" s="15"/>
-      <c r="F328" s="15"/>
-      <c r="G328" s="15"/>
-      <c r="H328" s="15"/>
-      <c r="I328" s="16"/>
-      <c r="J328" s="15"/>
+      <c r="A328" s="23" t="s">
+        <v>954</v>
+      </c>
+      <c r="B328" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="C328" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D328" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E328" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F328" s="15">
+        <v>52411</v>
+      </c>
+      <c r="G328" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H328" s="15">
+        <v>3</v>
+      </c>
+      <c r="I328" s="16" t="s">
+        <v>956</v>
+      </c>
+      <c r="J328" s="10">
+        <v>44865</v>
+      </c>
       <c r="K328" s="15"/>
       <c r="L328" s="15"/>
       <c r="M328" s="15"/>
@@ -19019,16 +19069,36 @@
       <c r="Z328" s="15"/>
     </row>
     <row r="329" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A329" s="23"/>
-      <c r="B329" s="15"/>
-      <c r="C329" s="15"/>
-      <c r="D329" s="15"/>
-      <c r="E329" s="15"/>
-      <c r="F329" s="15"/>
-      <c r="G329" s="15"/>
-      <c r="H329" s="15"/>
-      <c r="I329" s="16"/>
-      <c r="J329" s="15"/>
+      <c r="A329" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="B329" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="C329" s="15" t="s">
+        <v>959</v>
+      </c>
+      <c r="D329" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="E329" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F329" s="15">
+        <v>52224</v>
+      </c>
+      <c r="G329" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="H329" s="15">
+        <v>33</v>
+      </c>
+      <c r="I329" s="16" t="s">
+        <v>956</v>
+      </c>
+      <c r="J329" s="10">
+        <v>44823</v>
+      </c>
       <c r="K329" s="15"/>
       <c r="L329" s="15"/>
       <c r="M329" s="15"/>
@@ -19047,16 +19117,36 @@
       <c r="Z329" s="15"/>
     </row>
     <row r="330" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A330" s="23"/>
-      <c r="B330" s="15"/>
-      <c r="C330" s="15"/>
-      <c r="D330" s="15"/>
-      <c r="E330" s="15"/>
-      <c r="F330" s="15"/>
-      <c r="G330" s="15"/>
-      <c r="H330" s="15"/>
-      <c r="I330" s="16"/>
-      <c r="J330" s="15"/>
+      <c r="A330" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="B330" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="C330" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="D330" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E330" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F330" s="15">
+        <v>50169</v>
+      </c>
+      <c r="G330" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H330" s="15">
+        <v>8</v>
+      </c>
+      <c r="I330" s="16" t="s">
+        <v>956</v>
+      </c>
+      <c r="J330" s="10">
+        <v>44835</v>
+      </c>
       <c r="K330" s="15"/>
       <c r="L330" s="15"/>
       <c r="M330" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25704"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14141AA7-BA39-4731-97CF-B81010AB113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{629812B8-265A-4873-A14E-8F0367F860D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="967">
   <si>
     <t>Company</t>
   </si>
@@ -2924,6 +2925,15 @@
   </si>
   <si>
     <t>Mitchellville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GXO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4141 Dixon St </t>
+  </si>
+  <si>
+    <t>09/15/2022</t>
   </si>
 </sst>
 </file>
@@ -3305,8 +3315,8 @@
   <dimension ref="A1:Z874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K330" sqref="K330"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K331" sqref="K331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -19165,16 +19175,36 @@
       <c r="Z330" s="15"/>
     </row>
     <row r="331" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A331" s="23"/>
-      <c r="B331" s="15"/>
-      <c r="C331" s="15"/>
-      <c r="D331" s="15"/>
-      <c r="E331" s="15"/>
-      <c r="F331" s="15"/>
-      <c r="G331" s="15"/>
-      <c r="H331" s="15"/>
-      <c r="I331" s="16"/>
-      <c r="J331" s="15"/>
+      <c r="A331" s="23" t="s">
+        <v>964</v>
+      </c>
+      <c r="B331" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="C331" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="D331" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E331" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F331" s="15">
+        <v>50313</v>
+      </c>
+      <c r="G331" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H331" s="15">
+        <v>34</v>
+      </c>
+      <c r="I331" s="16" t="s">
+        <v>966</v>
+      </c>
+      <c r="J331" s="10">
+        <v>44851</v>
+      </c>
       <c r="K331" s="15"/>
       <c r="L331" s="15"/>
       <c r="M331" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{629812B8-265A-4873-A14E-8F0367F860D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEDAAF39-6D7C-4ED1-B8D8-C92508EC4E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="970">
   <si>
     <t>Company</t>
   </si>
@@ -2934,6 +2934,15 @@
   </si>
   <si>
     <t>09/15/2022</t>
+  </si>
+  <si>
+    <t>Nordstrom, Inc</t>
+  </si>
+  <si>
+    <t>7700 18th St SW</t>
+  </si>
+  <si>
+    <t>09/20/2022</t>
   </si>
 </sst>
 </file>
@@ -3315,8 +3324,8 @@
   <dimension ref="A1:Z874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K331" sqref="K331"/>
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K332" sqref="K332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -19223,16 +19232,36 @@
       <c r="Z331" s="15"/>
     </row>
     <row r="332" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A332" s="23"/>
-      <c r="B332" s="15"/>
-      <c r="C332" s="15"/>
-      <c r="D332" s="15"/>
-      <c r="E332" s="15"/>
-      <c r="F332" s="15"/>
-      <c r="G332" s="15"/>
-      <c r="H332" s="15"/>
-      <c r="I332" s="16"/>
-      <c r="J332" s="15"/>
+      <c r="A332" s="23" t="s">
+        <v>967</v>
+      </c>
+      <c r="B332" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="C332" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="D332" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E332" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F332" s="15">
+        <v>52404</v>
+      </c>
+      <c r="G332" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="H332" s="15">
+        <v>231</v>
+      </c>
+      <c r="I332" s="16" t="s">
+        <v>969</v>
+      </c>
+      <c r="J332" s="10">
+        <v>44852</v>
+      </c>
       <c r="K332" s="15"/>
       <c r="L332" s="15"/>
       <c r="M332" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEDAAF39-6D7C-4ED1-B8D8-C92508EC4E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CAD5AAE-4B77-4FD7-8619-9597FC8FDF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20268" yWindow="324" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="972">
   <si>
     <t>Company</t>
   </si>
@@ -2943,6 +2943,12 @@
   </si>
   <si>
     <t>09/20/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larson Manufacturing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 Larson Ave </t>
   </si>
 </sst>
 </file>
@@ -3325,22 +3331,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K332" sqref="K332"/>
+      <selection pane="bottomLeft" activeCell="K333" sqref="K333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="4.09765625" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.625" customWidth="1"/>
+    <col min="11" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -19254,7 +19260,7 @@
         <v>674</v>
       </c>
       <c r="H332" s="15">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I332" s="16" t="s">
         <v>969</v>
@@ -19280,16 +19286,36 @@
       <c r="Z332" s="15"/>
     </row>
     <row r="333" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A333" s="23"/>
-      <c r="B333" s="15"/>
-      <c r="C333" s="15"/>
-      <c r="D333" s="15"/>
-      <c r="E333" s="15"/>
-      <c r="F333" s="15"/>
-      <c r="G333" s="15"/>
-      <c r="H333" s="15"/>
-      <c r="I333" s="16"/>
-      <c r="J333" s="15"/>
+      <c r="A333" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="B333" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="C333" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D333" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E333" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F333" s="15">
+        <v>50450</v>
+      </c>
+      <c r="G333" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="H333" s="15">
+        <v>197</v>
+      </c>
+      <c r="I333" s="16" t="s">
+        <v>969</v>
+      </c>
+      <c r="J333" s="10">
+        <v>44824</v>
+      </c>
       <c r="K333" s="15"/>
       <c r="L333" s="15"/>
       <c r="M333" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CAD5AAE-4B77-4FD7-8619-9597FC8FDF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20268" yWindow="324" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="976">
   <si>
     <t>Company</t>
   </si>
@@ -2949,12 +2948,24 @@
   </si>
   <si>
     <t xml:space="preserve">500 Larson Ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Des Moines </t>
+  </si>
+  <si>
+    <t>09/22/2022</t>
+  </si>
+  <si>
+    <t>600 Army Post Rd SW</t>
+  </si>
+  <si>
+    <t>910 E 1st St</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3323,7 +3334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3331,7 +3342,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K333" sqref="K333"/>
+      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -19334,16 +19345,36 @@
       <c r="Z333" s="15"/>
     </row>
     <row r="334" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A334" s="23"/>
-      <c r="B334" s="15"/>
-      <c r="C334" s="15"/>
-      <c r="D334" s="15"/>
-      <c r="E334" s="15"/>
-      <c r="F334" s="15"/>
-      <c r="G334" s="15"/>
-      <c r="H334" s="15"/>
-      <c r="I334" s="16"/>
-      <c r="J334" s="15"/>
+      <c r="A334" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B334" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="C334" s="15" t="s">
+        <v>972</v>
+      </c>
+      <c r="D334" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E334" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F334" s="15">
+        <v>50266</v>
+      </c>
+      <c r="G334" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H334" s="15">
+        <v>17</v>
+      </c>
+      <c r="I334" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J334" s="10">
+        <v>44887</v>
+      </c>
       <c r="K334" s="15"/>
       <c r="L334" s="15"/>
       <c r="M334" s="15"/>
@@ -19362,16 +19393,36 @@
       <c r="Z334" s="15"/>
     </row>
     <row r="335" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A335" s="23"/>
-      <c r="B335" s="15"/>
-      <c r="C335" s="15"/>
-      <c r="D335" s="15"/>
-      <c r="E335" s="15"/>
-      <c r="F335" s="15"/>
-      <c r="G335" s="15"/>
-      <c r="H335" s="15"/>
-      <c r="I335" s="16"/>
-      <c r="J335" s="15"/>
+      <c r="A335" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="C335" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D335" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E335" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F335" s="15">
+        <v>50309</v>
+      </c>
+      <c r="G335" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="H335" s="15">
+        <v>13</v>
+      </c>
+      <c r="I335" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J335" s="10">
+        <v>44887</v>
+      </c>
       <c r="K335" s="15"/>
       <c r="L335" s="15"/>
       <c r="M335" s="15"/>
@@ -19390,16 +19441,36 @@
       <c r="Z335" s="15"/>
     </row>
     <row r="336" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A336" s="23"/>
-      <c r="B336" s="15"/>
-      <c r="C336" s="15"/>
-      <c r="D336" s="15"/>
-      <c r="E336" s="15"/>
-      <c r="F336" s="15"/>
-      <c r="G336" s="15"/>
-      <c r="H336" s="15"/>
-      <c r="I336" s="16"/>
-      <c r="J336" s="15"/>
+      <c r="A336" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="B336" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="C336" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="D336" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E336" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F336" s="15">
+        <v>50309</v>
+      </c>
+      <c r="G336" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="H336" s="15">
+        <v>2</v>
+      </c>
+      <c r="I336" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J336" s="10">
+        <v>44887</v>
+      </c>
       <c r="K336" s="15"/>
       <c r="L336" s="15"/>
       <c r="M336" s="15"/>
@@ -19418,16 +19489,36 @@
       <c r="Z336" s="15"/>
     </row>
     <row r="337" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A337" s="23"/>
-      <c r="B337" s="15"/>
-      <c r="C337" s="15"/>
-      <c r="D337" s="15"/>
-      <c r="E337" s="15"/>
-      <c r="F337" s="15"/>
-      <c r="G337" s="15"/>
-      <c r="H337" s="15"/>
-      <c r="I337" s="16"/>
-      <c r="J337" s="15"/>
+      <c r="A337" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B337" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="C337" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="D337" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E337" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F337" s="15">
+        <v>50309</v>
+      </c>
+      <c r="G337" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H337" s="15">
+        <v>1</v>
+      </c>
+      <c r="I337" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J337" s="10">
+        <v>44887</v>
+      </c>
       <c r="K337" s="15"/>
       <c r="L337" s="15"/>
       <c r="M337" s="15"/>
@@ -19446,16 +19537,36 @@
       <c r="Z337" s="15"/>
     </row>
     <row r="338" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A338" s="23"/>
-      <c r="B338" s="15"/>
-      <c r="C338" s="15"/>
-      <c r="D338" s="15"/>
-      <c r="E338" s="15"/>
-      <c r="F338" s="15"/>
-      <c r="G338" s="15"/>
-      <c r="H338" s="15"/>
-      <c r="I338" s="16"/>
-      <c r="J338" s="15"/>
+      <c r="A338" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="B338" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="C338" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="D338" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E338" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F338" s="15">
+        <v>50309</v>
+      </c>
+      <c r="G338" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H338" s="15">
+        <v>1</v>
+      </c>
+      <c r="I338" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J338" s="10">
+        <v>44887</v>
+      </c>
       <c r="K338" s="15"/>
       <c r="L338" s="15"/>
       <c r="M338" s="15"/>
@@ -19474,16 +19585,36 @@
       <c r="Z338" s="15"/>
     </row>
     <row r="339" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A339" s="23"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="15"/>
-      <c r="E339" s="15"/>
-      <c r="F339" s="15"/>
-      <c r="G339" s="15"/>
-      <c r="H339" s="15"/>
-      <c r="I339" s="16"/>
-      <c r="J339" s="15"/>
+      <c r="A339" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B339" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="C339" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="D339" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E339" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F339" s="15">
+        <v>50325</v>
+      </c>
+      <c r="G339" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H339" s="15">
+        <v>1</v>
+      </c>
+      <c r="I339" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J339" s="10">
+        <v>44887</v>
+      </c>
       <c r="K339" s="15"/>
       <c r="L339" s="15"/>
       <c r="M339" s="15"/>
@@ -19502,16 +19633,36 @@
       <c r="Z339" s="15"/>
     </row>
     <row r="340" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A340" s="23"/>
-      <c r="B340" s="15"/>
-      <c r="C340" s="15"/>
-      <c r="D340" s="15"/>
-      <c r="E340" s="15"/>
-      <c r="F340" s="15"/>
-      <c r="G340" s="15"/>
-      <c r="H340" s="15"/>
-      <c r="I340" s="16"/>
-      <c r="J340" s="15"/>
+      <c r="A340" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="B340" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="C340" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D340" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E340" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F340" s="15">
+        <v>50021</v>
+      </c>
+      <c r="G340" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="H340" s="15">
+        <v>1</v>
+      </c>
+      <c r="I340" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J340" s="10">
+        <v>44887</v>
+      </c>
       <c r="K340" s="15"/>
       <c r="L340" s="15"/>
       <c r="M340" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="981">
   <si>
     <t>Company</t>
   </si>
@@ -2960,6 +2960,21 @@
   </si>
   <si>
     <t>910 E 1st St</t>
+  </si>
+  <si>
+    <t>H.D. Hudson Manufactuing Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1901 21st St </t>
+  </si>
+  <si>
+    <t>Eldora</t>
+  </si>
+  <si>
+    <t>Hardin</t>
+  </si>
+  <si>
+    <t>09/28/2022</t>
   </si>
 </sst>
 </file>
@@ -3342,7 +3357,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
+      <selection pane="bottomLeft" activeCell="K341" sqref="K341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -19681,16 +19696,36 @@
       <c r="Z340" s="15"/>
     </row>
     <row r="341" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A341" s="23"/>
-      <c r="B341" s="15"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="15"/>
-      <c r="E341" s="15"/>
-      <c r="F341" s="15"/>
-      <c r="G341" s="15"/>
-      <c r="H341" s="15"/>
-      <c r="I341" s="16"/>
-      <c r="J341" s="15"/>
+      <c r="A341" s="23" t="s">
+        <v>976</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="C341" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="D341" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="E341" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" s="15">
+        <v>50627</v>
+      </c>
+      <c r="G341" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H341" s="15">
+        <v>44</v>
+      </c>
+      <c r="I341" s="16" t="s">
+        <v>980</v>
+      </c>
+      <c r="J341" s="10">
+        <v>44865</v>
+      </c>
       <c r="K341" s="15"/>
       <c r="L341" s="15"/>
       <c r="M341" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="987">
   <si>
     <t>Company</t>
   </si>
@@ -2975,6 +2975,24 @@
   </si>
   <si>
     <t>09/28/2022</t>
+  </si>
+  <si>
+    <t>Commercial Vehicle Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301 W Spruce St </t>
+  </si>
+  <si>
+    <t>Monona</t>
+  </si>
+  <si>
+    <t>Claytong</t>
+  </si>
+  <si>
+    <t>09/29/2022</t>
+  </si>
+  <si>
+    <t>3400 Mount Pleasant St</t>
   </si>
 </sst>
 </file>
@@ -3356,8 +3374,8 @@
   <dimension ref="A1:Z874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K341" sqref="K341"/>
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K343" sqref="K343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -19744,16 +19762,36 @@
       <c r="Z341" s="15"/>
     </row>
     <row r="342" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A342" s="23"/>
-      <c r="B342" s="15"/>
-      <c r="C342" s="15"/>
-      <c r="D342" s="15"/>
-      <c r="E342" s="15"/>
-      <c r="F342" s="15"/>
-      <c r="G342" s="15"/>
-      <c r="H342" s="15"/>
-      <c r="I342" s="16"/>
-      <c r="J342" s="15"/>
+      <c r="A342" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="C342" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="D342" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="E342" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F342" s="15">
+        <v>52159</v>
+      </c>
+      <c r="G342" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="H342" s="15">
+        <v>45</v>
+      </c>
+      <c r="I342" s="16" t="s">
+        <v>985</v>
+      </c>
+      <c r="J342" s="10">
+        <v>44960</v>
+      </c>
       <c r="K342" s="15"/>
       <c r="L342" s="15"/>
       <c r="M342" s="15"/>
@@ -19772,16 +19810,36 @@
       <c r="Z342" s="15"/>
     </row>
     <row r="343" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A343" s="23"/>
-      <c r="B343" s="15"/>
-      <c r="C343" s="15"/>
-      <c r="D343" s="15"/>
-      <c r="E343" s="15"/>
-      <c r="F343" s="15"/>
-      <c r="G343" s="15"/>
-      <c r="H343" s="15"/>
-      <c r="I343" s="16"/>
-      <c r="J343" s="15"/>
+      <c r="A343" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="B343" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="C343" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="D343" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E343" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F343" s="15">
+        <v>52601</v>
+      </c>
+      <c r="G343" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="H343" s="15">
+        <v>74</v>
+      </c>
+      <c r="I343" s="16" t="s">
+        <v>985</v>
+      </c>
+      <c r="J343" s="10">
+        <v>44862</v>
+      </c>
       <c r="K343" s="15"/>
       <c r="L343" s="15"/>
       <c r="M343" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{248910D2-86C0-457B-A5AF-1749CD77D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="990">
   <si>
     <t>Company</t>
   </si>
@@ -2993,12 +2994,21 @@
   </si>
   <si>
     <t>3400 Mount Pleasant St</t>
+  </si>
+  <si>
+    <t>Great River Health Systems, Inc</t>
+  </si>
+  <si>
+    <t>1221 S Gear Ave</t>
+  </si>
+  <si>
+    <t>Dese Moines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3367,7 +3377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3375,22 +3385,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K343" sqref="K343"/>
+      <selection pane="bottomLeft" activeCell="K344" sqref="K344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.59765625" customWidth="1"/>
+    <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -19858,16 +19868,36 @@
       <c r="Z343" s="15"/>
     </row>
     <row r="344" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A344" s="23"/>
-      <c r="B344" s="15"/>
-      <c r="C344" s="15"/>
-      <c r="D344" s="15"/>
-      <c r="E344" s="15"/>
-      <c r="F344" s="15"/>
-      <c r="G344" s="15"/>
-      <c r="H344" s="15"/>
-      <c r="I344" s="16"/>
-      <c r="J344" s="15"/>
+      <c r="A344" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="B344" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="C344" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="D344" s="15" t="s">
+        <v>989</v>
+      </c>
+      <c r="E344" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F344" s="15">
+        <v>52655</v>
+      </c>
+      <c r="G344" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H344" s="15">
+        <v>35</v>
+      </c>
+      <c r="I344" s="16" t="s">
+        <v>985</v>
+      </c>
+      <c r="J344" s="10">
+        <v>44866</v>
+      </c>
       <c r="K344" s="15"/>
       <c r="L344" s="15"/>
       <c r="M344" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{248910D2-86C0-457B-A5AF-1749CD77D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="993">
   <si>
     <t>Company</t>
   </si>
@@ -3003,12 +3002,21 @@
   </si>
   <si>
     <t>Dese Moines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collins Community Credit Union </t>
+  </si>
+  <si>
+    <t>1005 Blairs Ferry Rd NE</t>
+  </si>
+  <si>
+    <t>10/06/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3377,30 +3385,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K344" sqref="K344"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K345" sqref="K345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="4.09765625" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.625" customWidth="1"/>
+    <col min="11" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -19916,16 +19924,36 @@
       <c r="Z344" s="15"/>
     </row>
     <row r="345" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A345" s="23"/>
-      <c r="B345" s="15"/>
-      <c r="C345" s="15"/>
-      <c r="D345" s="15"/>
-      <c r="E345" s="15"/>
-      <c r="F345" s="15"/>
-      <c r="G345" s="15"/>
-      <c r="H345" s="15"/>
-      <c r="I345" s="16"/>
-      <c r="J345" s="15"/>
+      <c r="A345" s="23" t="s">
+        <v>990</v>
+      </c>
+      <c r="B345" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="C345" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D345" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E345" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F345" s="15">
+        <v>52402</v>
+      </c>
+      <c r="G345" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H345" s="15">
+        <v>38</v>
+      </c>
+      <c r="I345" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="J345" s="10">
+        <v>44840</v>
+      </c>
       <c r="K345" s="15"/>
       <c r="L345" s="15"/>
       <c r="M345" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D43C02C-06BA-4A76-AFDD-44B77F09295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
+    <workbookView xWindow="-20268" yWindow="324" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="999">
   <si>
     <t>Company</t>
   </si>
@@ -2986,9 +2987,6 @@
     <t>Monona</t>
   </si>
   <si>
-    <t>Claytong</t>
-  </si>
-  <si>
     <t>09/29/2022</t>
   </si>
   <si>
@@ -3004,6 +3002,15 @@
     <t>Dese Moines</t>
   </si>
   <si>
+    <t>The Evangelical Lutheran Good Samaritan Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Hardin Dr </t>
+  </si>
+  <si>
+    <t>Postville</t>
+  </si>
+  <si>
     <t xml:space="preserve">Collins Community Credit Union </t>
   </si>
   <si>
@@ -3011,12 +3018,24 @@
   </si>
   <si>
     <t>10/06/2022</t>
+  </si>
+  <si>
+    <t>Masterbrand Cabinets LLC</t>
+  </si>
+  <si>
+    <t>1205 Peter Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterloo </t>
+  </si>
+  <si>
+    <t>10/10/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3385,15 +3404,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z874"/>
+  <dimension ref="A1:Z875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K345" sqref="K345"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -19790,7 +19809,7 @@
         <v>983</v>
       </c>
       <c r="D342" s="15" t="s">
-        <v>984</v>
+        <v>453</v>
       </c>
       <c r="E342" s="15" t="s">
         <v>665</v>
@@ -19805,7 +19824,7 @@
         <v>45</v>
       </c>
       <c r="I342" s="16" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J342" s="10">
         <v>44960</v>
@@ -19832,7 +19851,7 @@
         <v>866</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C343" s="15" t="s">
         <v>868</v>
@@ -19853,7 +19872,7 @@
         <v>74</v>
       </c>
       <c r="I343" s="16" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J343" s="10">
         <v>44862</v>
@@ -19877,16 +19896,16 @@
     </row>
     <row r="344" spans="1:26" ht="14.25" customHeight="1">
       <c r="A344" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="B344" s="15" t="s">
         <v>987</v>
-      </c>
-      <c r="B344" s="15" t="s">
-        <v>988</v>
       </c>
       <c r="C344" s="15" t="s">
         <v>756</v>
       </c>
       <c r="D344" s="15" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E344" s="15" t="s">
         <v>14</v>
@@ -19901,7 +19920,7 @@
         <v>35</v>
       </c>
       <c r="I344" s="16" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J344" s="10">
         <v>44866</v>
@@ -19925,34 +19944,34 @@
     </row>
     <row r="345" spans="1:26" ht="14.25" customHeight="1">
       <c r="A345" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="B345" s="15" t="s">
         <v>990</v>
       </c>
-      <c r="B345" s="15" t="s">
+      <c r="C345" s="15" t="s">
         <v>991</v>
       </c>
-      <c r="C345" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="D345" s="15" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="E345" s="15" t="s">
         <v>665</v>
       </c>
       <c r="F345" s="15">
-        <v>52402</v>
+        <v>52126</v>
       </c>
       <c r="G345" s="15" t="s">
-        <v>16</v>
+        <v>690</v>
       </c>
       <c r="H345" s="15">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I345" s="16" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="J345" s="10">
-        <v>44840</v>
+        <v>44884</v>
       </c>
       <c r="K345" s="15"/>
       <c r="L345" s="15"/>
@@ -19972,16 +19991,36 @@
       <c r="Z345" s="15"/>
     </row>
     <row r="346" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A346" s="23"/>
-      <c r="B346" s="15"/>
-      <c r="C346" s="15"/>
-      <c r="D346" s="15"/>
-      <c r="E346" s="15"/>
-      <c r="F346" s="15"/>
-      <c r="G346" s="15"/>
-      <c r="H346" s="15"/>
-      <c r="I346" s="16"/>
-      <c r="J346" s="15"/>
+      <c r="A346" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="B346" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="C346" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D346" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E346" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F346" s="15">
+        <v>52402</v>
+      </c>
+      <c r="G346" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H346" s="15">
+        <v>38</v>
+      </c>
+      <c r="I346" s="16" t="s">
+        <v>994</v>
+      </c>
+      <c r="J346" s="10">
+        <v>44840</v>
+      </c>
       <c r="K346" s="15"/>
       <c r="L346" s="15"/>
       <c r="M346" s="15"/>
@@ -20000,16 +20039,36 @@
       <c r="Z346" s="15"/>
     </row>
     <row r="347" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A347" s="23"/>
-      <c r="B347" s="15"/>
-      <c r="C347" s="15"/>
-      <c r="D347" s="15"/>
-      <c r="E347" s="15"/>
-      <c r="F347" s="15"/>
-      <c r="G347" s="15"/>
-      <c r="H347" s="15"/>
-      <c r="I347" s="16"/>
-      <c r="J347" s="15"/>
+      <c r="A347" s="23" t="s">
+        <v>995</v>
+      </c>
+      <c r="B347" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="C347" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="D347" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E347" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F347" s="15">
+        <v>50703</v>
+      </c>
+      <c r="G347" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H347" s="15">
+        <v>61</v>
+      </c>
+      <c r="I347" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="J347" s="10">
+        <v>44874</v>
+      </c>
       <c r="K347" s="15"/>
       <c r="L347" s="15"/>
       <c r="M347" s="15"/>
@@ -20037,7 +20096,7 @@
       <c r="G348" s="15"/>
       <c r="H348" s="15"/>
       <c r="I348" s="16"/>
-      <c r="J348" s="15"/>
+      <c r="J348" s="10"/>
       <c r="K348" s="15"/>
       <c r="L348" s="15"/>
       <c r="M348" s="15"/>
@@ -34783,6 +34842,34 @@
       <c r="Y874" s="15"/>
       <c r="Z874" s="15"/>
     </row>
+    <row r="875" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A875" s="23"/>
+      <c r="B875" s="15"/>
+      <c r="C875" s="15"/>
+      <c r="D875" s="15"/>
+      <c r="E875" s="15"/>
+      <c r="F875" s="15"/>
+      <c r="G875" s="15"/>
+      <c r="H875" s="15"/>
+      <c r="I875" s="16"/>
+      <c r="J875" s="15"/>
+      <c r="K875" s="15"/>
+      <c r="L875" s="15"/>
+      <c r="M875" s="15"/>
+      <c r="N875" s="15"/>
+      <c r="O875" s="15"/>
+      <c r="P875" s="15"/>
+      <c r="Q875" s="15"/>
+      <c r="R875" s="15"/>
+      <c r="S875" s="15"/>
+      <c r="T875" s="15"/>
+      <c r="U875" s="15"/>
+      <c r="V875" s="15"/>
+      <c r="W875" s="15"/>
+      <c r="X875" s="15"/>
+      <c r="Y875" s="15"/>
+      <c r="Z875" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMIshr\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D43C02C-06BA-4A76-AFDD-44B77F09295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFC0C81-60FC-4A56-9144-71BFAEAB4334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20268" yWindow="324" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14385" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="1000">
   <si>
     <t>Company</t>
   </si>
@@ -3030,6 +3030,9 @@
   </si>
   <si>
     <t>10/10/2022</t>
+  </si>
+  <si>
+    <t>10/20/2022</t>
   </si>
 </sst>
 </file>
@@ -3411,23 +3414,23 @@
   <dimension ref="A1:Z875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D348" sqref="D348"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A363" sqref="A363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.59765625" customWidth="1"/>
+    <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -20087,16 +20090,36 @@
       <c r="Z347" s="15"/>
     </row>
     <row r="348" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A348" s="23"/>
-      <c r="B348" s="15"/>
-      <c r="C348" s="15"/>
-      <c r="D348" s="15"/>
-      <c r="E348" s="15"/>
-      <c r="F348" s="15"/>
-      <c r="G348" s="15"/>
-      <c r="H348" s="15"/>
-      <c r="I348" s="16"/>
-      <c r="J348" s="10"/>
+      <c r="A348" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B348" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="C348" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D348" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E348" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F348" s="15">
+        <v>50309</v>
+      </c>
+      <c r="G348" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H348" s="15">
+        <v>1</v>
+      </c>
+      <c r="I348" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="J348" s="10">
+        <v>44915</v>
+      </c>
       <c r="K348" s="15"/>
       <c r="L348" s="15"/>
       <c r="M348" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F649555-0B01-4E2F-B364-BBA43D30801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65A30123-84AC-4356-9515-FA039077BE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20268" yWindow="324" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="1001">
   <si>
     <t>Company</t>
   </si>
@@ -3021,6 +3021,21 @@
   </si>
   <si>
     <t>11/03/2022</t>
+  </si>
+  <si>
+    <t>Country Winds Manor</t>
+  </si>
+  <si>
+    <t>21668 80th St</t>
+  </si>
+  <si>
+    <t>Cresco</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>11/14/2022</t>
   </si>
 </sst>
 </file>
@@ -3402,23 +3417,23 @@
   <dimension ref="A1:Z871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K348" sqref="K348"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K349" sqref="K349"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="4.09765625" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.625" customWidth="1"/>
+    <col min="11" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -20126,16 +20141,36 @@
       <c r="Z348" s="15"/>
     </row>
     <row r="349" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A349" s="23"/>
-      <c r="B349" s="15"/>
-      <c r="C349" s="15"/>
-      <c r="D349" s="15"/>
-      <c r="E349" s="15"/>
-      <c r="F349" s="15"/>
-      <c r="G349" s="15"/>
-      <c r="H349" s="15"/>
-      <c r="I349" s="16"/>
-      <c r="J349" s="15"/>
+      <c r="A349" s="23" t="s">
+        <v>996</v>
+      </c>
+      <c r="B349" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="C349" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="D349" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="E349" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F349" s="15">
+        <v>52136</v>
+      </c>
+      <c r="G349" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H349" s="15">
+        <v>48</v>
+      </c>
+      <c r="I349" s="16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J349" s="10">
+        <v>44962</v>
+      </c>
       <c r="K349" s="15"/>
       <c r="L349" s="15"/>
       <c r="M349" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EFC5D5-3CD5-4A21-AFA2-043CC15AE513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B3B89B-97A2-4D57-A4FC-C76CC9BBFBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="999">
   <si>
     <t>Company</t>
   </si>
@@ -3024,6 +3024,12 @@
   </si>
   <si>
     <t>11/22/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabre Plumbing </t>
+  </si>
+  <si>
+    <t>808 South SW Cherry St Suite 111</t>
   </si>
 </sst>
 </file>
@@ -3405,8 +3411,8 @@
   <dimension ref="A1:Z868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K347" sqref="K347"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M349" sqref="M349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -20081,16 +20087,36 @@
       <c r="Z347" s="15"/>
     </row>
     <row r="348" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A348" s="23"/>
-      <c r="B348" s="15"/>
-      <c r="C348" s="15"/>
-      <c r="D348" s="15"/>
-      <c r="E348" s="15"/>
-      <c r="F348" s="15"/>
-      <c r="G348" s="15"/>
-      <c r="H348" s="15"/>
-      <c r="I348" s="16"/>
-      <c r="J348" s="15"/>
+      <c r="A348" s="23" t="s">
+        <v>997</v>
+      </c>
+      <c r="B348" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="C348" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D348" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E348" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F348" s="15">
+        <v>50023</v>
+      </c>
+      <c r="G348" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="H348" s="15">
+        <v>17</v>
+      </c>
+      <c r="I348" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="J348" s="10">
+        <v>44914</v>
+      </c>
       <c r="K348" s="15"/>
       <c r="L348" s="15"/>
       <c r="M348" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25930"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwestendorf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A22122-F48C-48C2-BF39-47213AD15184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WARN log for website" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="996">
   <si>
     <t>Company</t>
   </si>
@@ -3005,12 +3006,27 @@
   </si>
   <si>
     <t>12/01/2022</t>
+  </si>
+  <si>
+    <t>Mid Continent Trucking Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701 S 15th St </t>
+  </si>
+  <si>
+    <t>Denison</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>12/02/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3379,7 +3395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3387,22 +3403,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="K350" sqref="K350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="26" width="7.59765625" customWidth="1"/>
+    <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -20158,16 +20174,36 @@
       <c r="Z349" s="15"/>
     </row>
     <row r="350" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A350" s="23"/>
-      <c r="B350" s="15"/>
-      <c r="C350" s="15"/>
-      <c r="D350" s="15"/>
-      <c r="E350" s="15"/>
-      <c r="F350" s="15"/>
-      <c r="G350" s="15"/>
-      <c r="H350" s="15"/>
-      <c r="I350" s="16"/>
-      <c r="J350" s="15"/>
+      <c r="A350" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="B350" s="15" t="s">
+        <v>992</v>
+      </c>
+      <c r="C350" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="D350" s="15" t="s">
+        <v>994</v>
+      </c>
+      <c r="E350" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F350" s="15">
+        <v>51442</v>
+      </c>
+      <c r="G350" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H350" s="15">
+        <v>26</v>
+      </c>
+      <c r="I350" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="J350" s="10">
+        <v>44891</v>
+      </c>
       <c r="K350" s="15"/>
       <c r="L350" s="15"/>
       <c r="M350" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51658DE4-39AC-482C-BE93-2530EE32A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82A8569-F512-432A-BAE4-C9FC6C38D5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="930">
   <si>
     <t>Company</t>
   </si>
@@ -2795,7 +2795,37 @@
     <t>12/16/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">East Central </t>
+    <t xml:space="preserve">New Moxie Solar, LLC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">323 W Cherry St </t>
+  </si>
+  <si>
+    <t>North Liberty</t>
+  </si>
+  <si>
+    <t>12/19/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Central Iowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lennox Industires </t>
+  </si>
+  <si>
+    <t>200 S 12th Ave</t>
+  </si>
+  <si>
+    <t>Marshalltown</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>12/20/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Central Iowa </t>
   </si>
 </sst>
 </file>
@@ -3198,8 +3228,8 @@
   <dimension ref="A1:Z865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M352" sqref="M352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -21399,7 +21429,7 @@
         <v>44911</v>
       </c>
       <c r="K350" s="15" t="s">
-        <v>919</v>
+        <v>63</v>
       </c>
       <c r="L350" s="15" t="s">
         <v>458</v>
@@ -21420,18 +21450,42 @@
       <c r="Z350" s="15"/>
     </row>
     <row r="351" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A351" s="23"/>
-      <c r="B351" s="15"/>
-      <c r="C351" s="15"/>
-      <c r="D351" s="15"/>
-      <c r="E351" s="15"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="15"/>
-      <c r="H351" s="15"/>
-      <c r="I351" s="16"/>
-      <c r="J351" s="15"/>
-      <c r="K351" s="15"/>
-      <c r="L351" s="15"/>
+      <c r="A351" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="B351" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="C351" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="D351" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E351" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F351" s="15">
+        <v>52317</v>
+      </c>
+      <c r="G351" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H351" s="15">
+        <v>73</v>
+      </c>
+      <c r="I351" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="J351" s="10">
+        <v>44897</v>
+      </c>
+      <c r="K351" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="L351" s="15" t="s">
+        <v>667</v>
+      </c>
       <c r="M351" s="15"/>
       <c r="N351" s="15"/>
       <c r="O351" s="15"/>
@@ -21448,18 +21502,42 @@
       <c r="Z351" s="15"/>
     </row>
     <row r="352" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A352" s="23"/>
-      <c r="B352" s="15"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="15"/>
-      <c r="E352" s="15"/>
-      <c r="F352" s="15"/>
-      <c r="G352" s="15"/>
-      <c r="H352" s="15"/>
-      <c r="I352" s="16"/>
-      <c r="J352" s="15"/>
-      <c r="K352" s="15"/>
-      <c r="L352" s="15"/>
+      <c r="A352" s="23" t="s">
+        <v>924</v>
+      </c>
+      <c r="B352" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="C352" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="D352" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="E352" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F352" s="15">
+        <v>50158</v>
+      </c>
+      <c r="G352" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H352" s="15">
+        <v>114</v>
+      </c>
+      <c r="I352" s="16" t="s">
+        <v>928</v>
+      </c>
+      <c r="J352" s="10">
+        <v>44942</v>
+      </c>
+      <c r="K352" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="L352" s="15" t="s">
+        <v>875</v>
+      </c>
       <c r="M352" s="15"/>
       <c r="N352" s="15"/>
       <c r="O352" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D21CDE9D-A441-47C2-A82D-7503E23E1EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="10092"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="919">
   <si>
     <t>Company</t>
   </si>
@@ -2784,12 +2783,21 @@
   </si>
   <si>
     <t>Northeastern Iowa</t>
+  </si>
+  <si>
+    <t>Clow Valve Company</t>
+  </si>
+  <si>
+    <t>902 S 2nd St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahaska </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3179,15 +3187,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L344" sqref="L344"/>
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H352" sqref="H352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -21096,18 +21104,42 @@
       <c r="Z344" s="15"/>
     </row>
     <row r="345" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A345" s="23"/>
-      <c r="B345" s="15"/>
-      <c r="C345" s="15"/>
-      <c r="D345" s="15"/>
-      <c r="E345" s="15"/>
-      <c r="F345" s="15"/>
-      <c r="G345" s="15"/>
-      <c r="H345" s="15"/>
-      <c r="I345" s="16"/>
-      <c r="J345" s="15"/>
-      <c r="K345" s="15"/>
-      <c r="L345" s="15"/>
+      <c r="A345" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="B345" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="C345" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D345" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="E345" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F345" s="15">
+        <v>52577</v>
+      </c>
+      <c r="G345" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H345" s="15">
+        <v>28</v>
+      </c>
+      <c r="I345" s="16" t="s">
+        <v>914</v>
+      </c>
+      <c r="J345" s="10">
+        <v>45018</v>
+      </c>
+      <c r="K345" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L345" s="15" t="s">
+        <v>844</v>
+      </c>
       <c r="M345" s="15"/>
       <c r="N345" s="15"/>
       <c r="O345" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6411D9E4-DD67-4179-85BC-DFB84CD7C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
+    <workbookView xWindow="-18348" yWindow="2244" windowWidth="15120" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="959">
   <si>
     <t>Company</t>
   </si>
@@ -2902,16 +2903,22 @@
     <t xml:space="preserve">Scott </t>
   </si>
   <si>
-    <t xml:space="preserve">Mayss Layoff </t>
-  </si>
-  <si>
     <t xml:space="preserve">Retain Trade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Walnust St </t>
+  </si>
+  <si>
+    <t>04/18/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des Moins </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -2993,7 +3000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3086,12 +3093,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3309,15 +3310,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z844"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E348" sqref="E348"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K350" sqref="K350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -3405,7 +3406,7 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="5">
         <v>50312</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3457,7 +3458,7 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="5">
         <v>50131</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -3509,7 +3510,7 @@
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="28">
         <v>50322</v>
       </c>
       <c r="G4" s="28" t="s">
@@ -3561,7 +3562,7 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="5">
         <v>52241</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -3613,7 +3614,7 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="5">
         <v>52806</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -3665,7 +3666,7 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="5">
         <v>52806</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -3717,7 +3718,7 @@
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="5">
         <v>50317</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -3769,7 +3770,7 @@
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="5">
         <v>52732</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -3821,7 +3822,7 @@
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="5">
         <v>50309</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -3873,7 +3874,7 @@
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="5">
         <v>52040</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -3925,7 +3926,7 @@
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="5">
         <v>52801</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -3977,7 +3978,7 @@
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="5">
         <v>50313</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -4029,7 +4030,7 @@
       <c r="E14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="28">
         <v>52243</v>
       </c>
       <c r="G14" s="28" t="s">
@@ -4081,7 +4082,7 @@
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="5">
         <v>50131</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -4133,7 +4134,7 @@
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="5">
         <v>50323</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -4185,7 +4186,7 @@
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="5">
         <v>52404</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -4237,7 +4238,7 @@
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="5">
         <v>50310</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -4289,7 +4290,7 @@
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="5">
         <v>50310</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -4341,7 +4342,7 @@
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="5">
         <v>52241</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -4393,7 +4394,7 @@
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="5">
         <v>50436</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -4445,7 +4446,7 @@
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="5">
         <v>50662</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -4497,7 +4498,7 @@
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="5">
         <v>52002</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -4549,7 +4550,7 @@
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="5">
         <v>51111</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -4601,7 +4602,7 @@
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="5">
         <v>50266</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -4653,7 +4654,7 @@
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="5">
         <v>50131</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -4705,7 +4706,7 @@
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="5">
         <v>52001</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -4757,7 +4758,7 @@
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="5">
         <v>52807</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -4809,7 +4810,7 @@
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="5">
         <v>52310</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -4861,7 +4862,7 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="5">
         <v>52241</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -4913,7 +4914,7 @@
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="5">
         <v>50266</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -4965,7 +4966,7 @@
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="5">
         <v>50595</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -5017,7 +5018,7 @@
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="5">
         <v>50022</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -5069,7 +5070,7 @@
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="5">
         <v>50002</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -5121,7 +5122,7 @@
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="5">
         <v>51012</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -5173,7 +5174,7 @@
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="5">
         <v>50595</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -5225,7 +5226,7 @@
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="5">
         <v>51503</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -5277,7 +5278,7 @@
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="5">
         <v>50703</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -5329,7 +5330,7 @@
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="5">
         <v>52601</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -5381,7 +5382,7 @@
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="5">
         <v>50131</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -5433,7 +5434,7 @@
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="5">
         <v>50266</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -5485,7 +5486,7 @@
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="5">
         <v>50266</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -5537,7 +5538,7 @@
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="5">
         <v>50266</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -5589,7 +5590,7 @@
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="5">
         <v>50131</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -5641,7 +5642,7 @@
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="5">
         <v>50701</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -5693,7 +5694,7 @@
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="5">
         <v>51106</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -5745,7 +5746,7 @@
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="5">
         <v>51106</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -5797,7 +5798,7 @@
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="5">
         <v>51106</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -5849,7 +5850,7 @@
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="5">
         <v>50131</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -5901,7 +5902,7 @@
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="5">
         <v>50701</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -5953,7 +5954,7 @@
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="5">
         <v>50266</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -6005,7 +6006,7 @@
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="5">
         <v>52806</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -6057,7 +6058,7 @@
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="5">
         <v>52577</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -6109,7 +6110,7 @@
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="5">
         <v>50131</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -6161,7 +6162,7 @@
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="5">
         <v>50391</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -6213,7 +6214,7 @@
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="5">
         <v>50669</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -6265,7 +6266,7 @@
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="5">
         <v>50266</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -6317,7 +6318,7 @@
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="5">
         <v>52240</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -6369,7 +6370,7 @@
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="5">
         <v>50131</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -6421,7 +6422,7 @@
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="5">
         <v>50021</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -6473,7 +6474,7 @@
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="5">
         <v>50322</v>
       </c>
       <c r="G61" s="5" t="s">
@@ -6525,7 +6526,7 @@
       <c r="E62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="5">
         <v>52172</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -6577,7 +6578,7 @@
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="5">
         <v>50220</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -6629,7 +6630,7 @@
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="5">
         <v>52601</v>
       </c>
       <c r="G64" s="5" t="s">
@@ -6681,7 +6682,7 @@
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="5">
         <v>51201</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -6733,7 +6734,7 @@
       <c r="E66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="5">
         <v>50548</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -6785,7 +6786,7 @@
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="5">
         <v>50273</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -6837,7 +6838,7 @@
       <c r="E68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="34">
+      <c r="F68" s="5">
         <v>51537</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -6889,7 +6890,7 @@
       <c r="E69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="5">
         <v>52040</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -6941,7 +6942,7 @@
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="34">
+      <c r="F70" s="5">
         <v>52002</v>
       </c>
       <c r="G70" s="5" t="s">
@@ -6993,7 +6994,7 @@
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="5">
         <v>51566</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -7045,7 +7046,7 @@
       <c r="E72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F72" s="5">
         <v>51104</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -7097,7 +7098,7 @@
       <c r="E73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="5">
         <v>50659</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -7149,7 +7150,7 @@
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="34">
+      <c r="F74" s="5">
         <v>50401</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -7201,7 +7202,7 @@
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="5">
         <v>50131</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -7253,7 +7254,7 @@
       <c r="E76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="5">
         <v>52001</v>
       </c>
       <c r="G76" s="5" t="s">
@@ -7305,7 +7306,7 @@
       <c r="E77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="5">
         <v>51247</v>
       </c>
       <c r="G77" s="5" t="s">
@@ -7357,7 +7358,7 @@
       <c r="E78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="5">
         <v>50322</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -7409,7 +7410,7 @@
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F79" s="5">
         <v>52001</v>
       </c>
       <c r="G79" s="5" t="s">
@@ -7461,7 +7462,7 @@
       <c r="E80" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F80" s="5">
         <v>50322</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -7513,7 +7514,7 @@
       <c r="E81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="34">
+      <c r="F81" s="5">
         <v>50131</v>
       </c>
       <c r="G81" s="5" t="s">
@@ -7565,7 +7566,7 @@
       <c r="E82" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="5">
         <v>51247</v>
       </c>
       <c r="G82" s="5" t="s">
@@ -7617,7 +7618,7 @@
       <c r="E83" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F83" s="5">
         <v>50266</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -7669,7 +7670,7 @@
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F84" s="5">
         <v>52806</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -7721,7 +7722,7 @@
       <c r="E85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F85" s="5">
         <v>50659</v>
       </c>
       <c r="G85" s="5" t="s">
@@ -7773,7 +7774,7 @@
       <c r="E86" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="5">
         <v>50322</v>
       </c>
       <c r="G86" s="5" t="s">
@@ -7825,7 +7826,7 @@
       <c r="E87" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="5">
         <v>50322</v>
       </c>
       <c r="G87" s="5" t="s">
@@ -7877,7 +7878,7 @@
       <c r="E88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F88" s="5">
         <v>50131</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -7929,7 +7930,7 @@
       <c r="E89" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="34">
+      <c r="F89" s="5">
         <v>52641</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -7981,7 +7982,7 @@
       <c r="E90" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="34">
+      <c r="F90" s="5">
         <v>52722</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -8033,7 +8034,7 @@
       <c r="E91" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="34">
+      <c r="F91" s="5">
         <v>50266</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -8085,7 +8086,7 @@
       <c r="E92" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="34">
+      <c r="F92" s="5">
         <v>50616</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -8137,7 +8138,7 @@
       <c r="E93" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="34">
+      <c r="F93" s="5">
         <v>52730</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -8189,7 +8190,7 @@
       <c r="E94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="34">
+      <c r="F94" s="5">
         <v>50702</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -8241,7 +8242,7 @@
       <c r="E95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="34">
+      <c r="F95" s="5">
         <v>50322</v>
       </c>
       <c r="G95" s="5" t="s">
@@ -8293,7 +8294,7 @@
       <c r="E96" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="34">
+      <c r="F96" s="5">
         <v>50265</v>
       </c>
       <c r="G96" s="5" t="s">
@@ -8345,7 +8346,7 @@
       <c r="E97" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="34">
+      <c r="F97" s="5">
         <v>50266</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -8397,7 +8398,7 @@
       <c r="E98" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="34">
+      <c r="F98" s="5">
         <v>52732</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -8449,7 +8450,7 @@
       <c r="E99" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="34">
+      <c r="F99" s="5">
         <v>50266</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -8501,7 +8502,7 @@
       <c r="E100" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="34">
+      <c r="F100" s="5">
         <v>52806</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -8553,7 +8554,7 @@
       <c r="E101" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="34">
+      <c r="F101" s="5">
         <v>50266</v>
       </c>
       <c r="G101" s="5" t="s">
@@ -8605,7 +8606,7 @@
       <c r="E102" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="34">
+      <c r="F102" s="5">
         <v>50309</v>
       </c>
       <c r="G102" s="5" t="s">
@@ -8657,7 +8658,7 @@
       <c r="E103" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="34">
+      <c r="F103" s="5">
         <v>52730</v>
       </c>
       <c r="G103" s="5" t="s">
@@ -8709,7 +8710,7 @@
       <c r="E104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="34">
+      <c r="F104" s="5">
         <v>50266</v>
       </c>
       <c r="G104" s="5" t="s">
@@ -8761,7 +8762,7 @@
       <c r="E105" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="34">
+      <c r="F105" s="5">
         <v>52404</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -8813,7 +8814,7 @@
       <c r="E106" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="34">
+      <c r="F106" s="5">
         <v>50317</v>
       </c>
       <c r="G106" s="5" t="s">
@@ -8865,7 +8866,7 @@
       <c r="E107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="34">
+      <c r="F107" s="5">
         <v>52243</v>
       </c>
       <c r="G107" s="5" t="s">
@@ -8917,7 +8918,7 @@
       <c r="E108" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="34">
+      <c r="F108" s="5">
         <v>50401</v>
       </c>
       <c r="G108" s="5" t="s">
@@ -8969,7 +8970,7 @@
       <c r="E109" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="34">
+      <c r="F109" s="5">
         <v>52049</v>
       </c>
       <c r="G109" s="5" t="s">
@@ -9021,7 +9022,7 @@
       <c r="E110" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="34">
+      <c r="F110" s="5">
         <v>52807</v>
       </c>
       <c r="G110" s="5" t="s">
@@ -9073,7 +9074,7 @@
       <c r="E111" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="34">
+      <c r="F111" s="5">
         <v>52353</v>
       </c>
       <c r="G111" s="5" t="s">
@@ -9125,7 +9126,7 @@
       <c r="E112" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F112" s="34">
+      <c r="F112" s="5">
         <v>52205</v>
       </c>
       <c r="G112" s="5" t="s">
@@ -9177,7 +9178,7 @@
       <c r="E113" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="34">
+      <c r="F113" s="5">
         <v>50010</v>
       </c>
       <c r="G113" s="5" t="s">
@@ -9229,7 +9230,7 @@
       <c r="E114" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F114" s="34">
+      <c r="F114" s="5">
         <v>50266</v>
       </c>
       <c r="G114" s="5" t="s">
@@ -9281,7 +9282,7 @@
       <c r="E115" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="34">
+      <c r="F115" s="5">
         <v>52172</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -9333,7 +9334,7 @@
       <c r="E116" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="34">
+      <c r="F116" s="5">
         <v>50606</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -9385,7 +9386,7 @@
       <c r="E117" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="34">
+      <c r="F117" s="5">
         <v>50421</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -9437,7 +9438,7 @@
       <c r="E118" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="34">
+      <c r="F118" s="5">
         <v>50616</v>
       </c>
       <c r="G118" s="5" t="s">
@@ -9489,7 +9490,7 @@
       <c r="E119" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="34">
+      <c r="F119" s="5">
         <v>50536</v>
       </c>
       <c r="G119" s="5" t="s">
@@ -9541,7 +9542,7 @@
       <c r="E120" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="34">
+      <c r="F120" s="5">
         <v>50588</v>
       </c>
       <c r="G120" s="5" t="s">
@@ -9593,7 +9594,7 @@
       <c r="E121" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="34">
+      <c r="F121" s="5">
         <v>50312</v>
       </c>
       <c r="G121" s="5" t="s">
@@ -9645,7 +9646,7 @@
       <c r="E122" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="34">
+      <c r="F122" s="5">
         <v>50588</v>
       </c>
       <c r="G122" s="5" t="s">
@@ -9697,7 +9698,7 @@
       <c r="E123" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="34">
+      <c r="F123" s="5">
         <v>50313</v>
       </c>
       <c r="G123" s="5" t="s">
@@ -9749,7 +9750,7 @@
       <c r="E124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="34">
+      <c r="F124" s="5">
         <v>50322</v>
       </c>
       <c r="G124" s="5" t="s">
@@ -9801,7 +9802,7 @@
       <c r="E125" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="34">
+      <c r="F125" s="5">
         <v>52807</v>
       </c>
       <c r="G125" s="5" t="s">
@@ -9853,7 +9854,7 @@
       <c r="E126" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F126" s="34">
+      <c r="F126" s="5">
         <v>50536</v>
       </c>
       <c r="G126" s="5" t="s">
@@ -9905,7 +9906,7 @@
       <c r="E127" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="34">
+      <c r="F127" s="5">
         <v>50313</v>
       </c>
       <c r="G127" s="5" t="s">
@@ -9957,7 +9958,7 @@
       <c r="E128" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F128" s="34">
+      <c r="F128" s="5">
         <v>52411</v>
       </c>
       <c r="G128" s="5" t="s">
@@ -10009,7 +10010,7 @@
       <c r="E129" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F129" s="34">
+      <c r="F129" s="5">
         <v>52601</v>
       </c>
       <c r="G129" s="5" t="s">
@@ -10061,7 +10062,7 @@
       <c r="E130" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F130" s="34">
+      <c r="F130" s="5">
         <v>52001</v>
       </c>
       <c r="G130" s="5" t="s">
@@ -10113,7 +10114,7 @@
       <c r="E131" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="34">
+      <c r="F131" s="5">
         <v>50208</v>
       </c>
       <c r="G131" s="5" t="s">
@@ -10165,7 +10166,7 @@
       <c r="E132" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F132" s="34">
+      <c r="F132" s="5">
         <v>50613</v>
       </c>
       <c r="G132" s="5" t="s">
@@ -10217,7 +10218,7 @@
       <c r="E133" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F133" s="34">
+      <c r="F133" s="5">
         <v>50401</v>
       </c>
       <c r="G133" s="5" t="s">
@@ -10269,7 +10270,7 @@
       <c r="E134" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F134" s="34">
+      <c r="F134" s="5">
         <v>52003</v>
       </c>
       <c r="G134" s="5" t="s">
@@ -10321,7 +10322,7 @@
       <c r="E135" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="34">
+      <c r="F135" s="5">
         <v>50501</v>
       </c>
       <c r="G135" s="5" t="s">
@@ -10373,7 +10374,7 @@
       <c r="E136" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F136" s="34">
+      <c r="F136" s="5">
         <v>52411</v>
       </c>
       <c r="G136" s="5" t="s">
@@ -10425,7 +10426,7 @@
       <c r="E137" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F137" s="34">
+      <c r="F137" s="5">
         <v>52001</v>
       </c>
       <c r="G137" s="5" t="s">
@@ -10477,7 +10478,7 @@
       <c r="E138" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F138" s="35">
+      <c r="F138" s="28">
         <v>51566</v>
       </c>
       <c r="G138" s="28" t="s">
@@ -10529,7 +10530,7 @@
       <c r="E139" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="34">
+      <c r="F139" s="5">
         <v>51501</v>
       </c>
       <c r="G139" s="5" t="s">
@@ -10581,7 +10582,7 @@
       <c r="E140" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="34">
+      <c r="F140" s="5">
         <v>50311</v>
       </c>
       <c r="G140" s="5" t="s">
@@ -10633,7 +10634,7 @@
       <c r="E141" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="34">
+      <c r="F141" s="5">
         <v>51601</v>
       </c>
       <c r="G141" s="5" t="s">
@@ -10685,7 +10686,7 @@
       <c r="E142" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F142" s="34">
+      <c r="F142" s="5">
         <v>52060</v>
       </c>
       <c r="G142" s="5" t="s">
@@ -10737,7 +10738,7 @@
       <c r="E143" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="34">
+      <c r="F143" s="5">
         <v>50450</v>
       </c>
       <c r="G143" s="5" t="s">
@@ -10789,7 +10790,7 @@
       <c r="E144" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F144" s="34">
+      <c r="F144" s="5">
         <v>50436</v>
       </c>
       <c r="G144" s="5" t="s">
@@ -10841,7 +10842,7 @@
       <c r="E145" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F145" s="34">
+      <c r="F145" s="5">
         <v>50616</v>
       </c>
       <c r="G145" s="5" t="s">
@@ -10893,7 +10894,7 @@
       <c r="E146" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F146" s="34">
+      <c r="F146" s="5">
         <v>52732</v>
       </c>
       <c r="G146" s="5" t="s">
@@ -10945,7 +10946,7 @@
       <c r="E147" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F147" s="34">
+      <c r="F147" s="5">
         <v>52001</v>
       </c>
       <c r="G147" s="5" t="s">
@@ -10997,7 +10998,7 @@
       <c r="E148" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F148" s="34">
+      <c r="F148" s="5">
         <v>50021</v>
       </c>
       <c r="G148" s="5" t="s">
@@ -11049,7 +11050,7 @@
       <c r="E149" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F149" s="34">
+      <c r="F149" s="5">
         <v>50677</v>
       </c>
       <c r="G149" s="5" t="s">
@@ -11101,7 +11102,7 @@
       <c r="E150" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F150" s="35">
+      <c r="F150" s="28">
         <v>50536</v>
       </c>
       <c r="G150" s="28" t="s">
@@ -11153,7 +11154,7 @@
       <c r="E151" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="35">
+      <c r="F151" s="28">
         <v>52748</v>
       </c>
       <c r="G151" s="28" t="s">
@@ -11205,7 +11206,7 @@
       <c r="E152" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F152" s="34">
+      <c r="F152" s="5">
         <v>52057</v>
       </c>
       <c r="G152" s="5" t="s">
@@ -11257,7 +11258,7 @@
       <c r="E153" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F153" s="34">
+      <c r="F153" s="5">
         <v>52001</v>
       </c>
       <c r="G153" s="5" t="s">
@@ -11309,7 +11310,7 @@
       <c r="E154" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F154" s="34">
+      <c r="F154" s="5">
         <v>50459</v>
       </c>
       <c r="G154" s="5" t="s">
@@ -11361,7 +11362,7 @@
       <c r="E155" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F155" s="34">
+      <c r="F155" s="5">
         <v>52404</v>
       </c>
       <c r="G155" s="5" t="s">
@@ -11413,7 +11414,7 @@
       <c r="E156" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F156" s="34">
+      <c r="F156" s="5">
         <v>51041</v>
       </c>
       <c r="G156" s="5" t="s">
@@ -11465,7 +11466,7 @@
       <c r="E157" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F157" s="34">
+      <c r="F157" s="5">
         <v>52732</v>
       </c>
       <c r="G157" s="5" t="s">
@@ -11517,7 +11518,7 @@
       <c r="E158" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F158" s="34">
+      <c r="F158" s="5">
         <v>50129</v>
       </c>
       <c r="G158" s="5" t="s">
@@ -11569,7 +11570,7 @@
       <c r="E159" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F159" s="34">
+      <c r="F159" s="5">
         <v>50536</v>
       </c>
       <c r="G159" s="5" t="s">
@@ -11621,7 +11622,7 @@
       <c r="E160" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F160" s="34">
+      <c r="F160" s="5">
         <v>52722</v>
       </c>
       <c r="G160" s="5" t="s">
@@ -11673,7 +11674,7 @@
       <c r="E161" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F161" s="34">
+      <c r="F161" s="5">
         <v>51501</v>
       </c>
       <c r="G161" s="5" t="s">
@@ -11725,7 +11726,7 @@
       <c r="E162" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F162" s="34">
+      <c r="F162" s="5">
         <v>50391</v>
       </c>
       <c r="G162" s="5" t="s">
@@ -11777,7 +11778,7 @@
       <c r="E163" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F163" s="34">
+      <c r="F163" s="5">
         <v>50111</v>
       </c>
       <c r="G163" s="5" t="s">
@@ -11829,7 +11830,7 @@
       <c r="E164" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F164" s="34">
+      <c r="F164" s="5">
         <v>52243</v>
       </c>
       <c r="G164" s="5" t="s">
@@ -11881,7 +11882,7 @@
       <c r="E165" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F165" s="34">
+      <c r="F165" s="5">
         <v>50021</v>
       </c>
       <c r="G165" s="5" t="s">
@@ -11933,7 +11934,7 @@
       <c r="E166" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F166" s="34">
+      <c r="F166" s="5">
         <v>52807</v>
       </c>
       <c r="G166" s="5" t="s">
@@ -11985,7 +11986,7 @@
       <c r="E167" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F167" s="34">
+      <c r="F167" s="5">
         <v>50704</v>
       </c>
       <c r="G167" s="5" t="s">
@@ -12037,7 +12038,7 @@
       <c r="E168" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F168" s="34">
+      <c r="F168" s="5">
         <v>52233</v>
       </c>
       <c r="G168" s="5" t="s">
@@ -12089,7 +12090,7 @@
       <c r="E169" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F169" s="34">
+      <c r="F169" s="5">
         <v>52001</v>
       </c>
       <c r="G169" s="5" t="s">
@@ -12141,7 +12142,7 @@
       <c r="E170" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F170" s="34">
+      <c r="F170" s="5">
         <v>50309</v>
       </c>
       <c r="G170" s="5" t="s">
@@ -12193,7 +12194,7 @@
       <c r="E171" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F171" s="34">
+      <c r="F171" s="5">
         <v>50309</v>
       </c>
       <c r="G171" s="5" t="s">
@@ -12245,7 +12246,7 @@
       <c r="E172" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F172" s="34">
+      <c r="F172" s="5">
         <v>52004</v>
       </c>
       <c r="G172" s="5" t="s">
@@ -12297,7 +12298,7 @@
       <c r="E173" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F173" s="34">
+      <c r="F173" s="5">
         <v>52498</v>
       </c>
       <c r="G173" s="5" t="s">
@@ -12349,7 +12350,7 @@
       <c r="E174" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F174" s="34">
+      <c r="F174" s="5">
         <v>50111</v>
       </c>
       <c r="G174" s="5" t="s">
@@ -12401,7 +12402,7 @@
       <c r="E175" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F175" s="34">
+      <c r="F175" s="5">
         <v>52627</v>
       </c>
       <c r="G175" s="5" t="s">
@@ -12921,7 +12922,7 @@
       <c r="E185" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F185" s="34">
+      <c r="F185" s="5">
         <v>50391</v>
       </c>
       <c r="G185" s="5" t="s">
@@ -21103,7 +21104,7 @@
       <c r="K342" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="L342" s="36" t="s">
+      <c r="L342" s="34" t="s">
         <v>932</v>
       </c>
       <c r="M342" s="15"/>
@@ -21401,7 +21402,7 @@
         <v>52807</v>
       </c>
       <c r="G348" s="15" t="s">
-        <v>955</v>
+        <v>519</v>
       </c>
       <c r="H348" s="15">
         <v>22</v>
@@ -21416,7 +21417,7 @@
         <v>915</v>
       </c>
       <c r="L348" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M348" s="15"/>
       <c r="N348" s="15"/>
@@ -21434,18 +21435,42 @@
       <c r="Z348" s="15"/>
     </row>
     <row r="349" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A349" s="23"/>
-      <c r="B349" s="15"/>
-      <c r="C349" s="15"/>
-      <c r="D349" s="15"/>
-      <c r="E349" s="15"/>
-      <c r="F349" s="15"/>
-      <c r="G349" s="15"/>
-      <c r="H349" s="15"/>
-      <c r="I349" s="16"/>
-      <c r="J349" s="15"/>
-      <c r="K349" s="15"/>
-      <c r="L349" s="15"/>
+      <c r="A349" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="B349" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="C349" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D349" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="E349" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F349" s="15">
+        <v>50309</v>
+      </c>
+      <c r="G349" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H349" s="15">
+        <v>69</v>
+      </c>
+      <c r="I349" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="J349" s="10">
+        <v>45034</v>
+      </c>
+      <c r="K349" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="L349" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="M349" s="15"/>
       <c r="N349" s="15"/>
       <c r="O349" s="15"/>
@@ -21462,18 +21487,42 @@
       <c r="Z349" s="15"/>
     </row>
     <row r="350" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A350" s="23"/>
-      <c r="B350" s="15"/>
-      <c r="C350" s="15"/>
-      <c r="D350" s="15"/>
-      <c r="E350" s="15"/>
-      <c r="F350" s="15"/>
-      <c r="G350" s="15"/>
-      <c r="H350" s="15"/>
-      <c r="I350" s="16"/>
-      <c r="J350" s="15"/>
-      <c r="K350" s="15"/>
-      <c r="L350" s="15"/>
+      <c r="A350" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="B350" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="C350" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D350" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="E350" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F350" s="15">
+        <v>50309</v>
+      </c>
+      <c r="G350" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H350" s="15">
+        <v>8</v>
+      </c>
+      <c r="I350" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="J350" s="10">
+        <v>45034</v>
+      </c>
+      <c r="K350" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="L350" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="M350" s="15"/>
       <c r="N350" s="15"/>
       <c r="O350" s="15"/>
@@ -21490,18 +21539,42 @@
       <c r="Z350" s="15"/>
     </row>
     <row r="351" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A351" s="23"/>
-      <c r="B351" s="15"/>
-      <c r="C351" s="15"/>
-      <c r="D351" s="15"/>
-      <c r="E351" s="15"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="15"/>
-      <c r="H351" s="15"/>
-      <c r="I351" s="16"/>
-      <c r="J351" s="15"/>
-      <c r="K351" s="15"/>
-      <c r="L351" s="15"/>
+      <c r="A351" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="B351" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="C351" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="D351" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="E351" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F351" s="15">
+        <v>50309</v>
+      </c>
+      <c r="G351" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H351" s="15">
+        <v>1</v>
+      </c>
+      <c r="I351" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="J351" s="10">
+        <v>45034</v>
+      </c>
+      <c r="K351" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="L351" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="M351" s="15"/>
       <c r="N351" s="15"/>
       <c r="O351" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB521169-F3C4-4D9A-8B83-3FF6696536FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F530E3-6CBC-4238-8477-E1A205AC7DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16910" yWindow="160" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20268" yWindow="324" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="957">
   <si>
     <t>Company</t>
   </si>
@@ -2895,6 +2895,18 @@
   </si>
   <si>
     <t>05/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphic Packaging International, LLC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">117 Siegel St </t>
+  </si>
+  <si>
+    <t>05/02/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Central </t>
   </si>
 </sst>
 </file>
@@ -3300,8 +3312,8 @@
   <dimension ref="A1:Z840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L350" sqref="L350"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L351" sqref="L351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -21522,18 +21534,42 @@
       <c r="Z350" s="15"/>
     </row>
     <row r="351" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A351" s="23"/>
-      <c r="B351" s="15"/>
-      <c r="C351" s="15"/>
-      <c r="D351" s="15"/>
-      <c r="E351" s="15"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="15"/>
-      <c r="H351" s="15"/>
-      <c r="I351" s="16"/>
-      <c r="J351" s="15"/>
-      <c r="K351" s="15"/>
-      <c r="L351" s="15"/>
+      <c r="A351" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="B351" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="C351" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="D351" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="E351" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F351" s="15">
+        <v>52339</v>
+      </c>
+      <c r="G351" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="H351" s="15">
+        <v>85</v>
+      </c>
+      <c r="I351" s="16" t="s">
+        <v>955</v>
+      </c>
+      <c r="J351" s="10">
+        <v>45079</v>
+      </c>
+      <c r="K351" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="L351" s="15" t="s">
+        <v>814</v>
+      </c>
       <c r="M351" s="15"/>
       <c r="N351" s="15"/>
       <c r="O351" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LMI Website\WARN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\IWDNA1A\Users\cdeit\Desktop\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F530E3-6CBC-4238-8477-E1A205AC7DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20268" yWindow="324" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="969">
   <si>
     <t>Company</t>
   </si>
@@ -2907,17 +2906,53 @@
   </si>
   <si>
     <t xml:space="preserve">South Central </t>
+  </si>
+  <si>
+    <t>Lutheran Service in Iowa</t>
+  </si>
+  <si>
+    <t>2255 JFK Rd</t>
+  </si>
+  <si>
+    <t>05/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315 5th Ave S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">111 W 15th St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">514 Cedar St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscatine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2515 Madison Ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 16th St SW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waverly </t>
+  </si>
+  <si>
+    <t>Brember</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2954,6 +2989,12 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2994,7 +3035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3087,10 +3128,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3305,32 +3353,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L351" sqref="L351"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K365" sqref="K365"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.5" customWidth="1"/>
-    <col min="13" max="26" width="7.59765625" customWidth="1"/>
+    <col min="13" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3401,7 +3449,7 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="34">
         <v>52806</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3453,7 +3501,7 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="34">
         <v>52806</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -3505,7 +3553,7 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="34">
         <v>50317</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -3557,7 +3605,7 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="34">
         <v>52732</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -3609,7 +3657,7 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="34">
         <v>50309</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -3661,7 +3709,7 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="34">
         <v>52040</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -3713,7 +3761,7 @@
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="34">
         <v>52801</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -3765,7 +3813,7 @@
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="34">
         <v>50313</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -3817,7 +3865,7 @@
       <c r="E10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="35">
         <v>52243</v>
       </c>
       <c r="G10" s="28" t="s">
@@ -3869,7 +3917,7 @@
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="34">
         <v>50131</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -3921,7 +3969,7 @@
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="34">
         <v>50323</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -3973,7 +4021,7 @@
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="34">
         <v>52404</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -4025,7 +4073,7 @@
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="34">
         <v>50310</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -4077,7 +4125,7 @@
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="34">
         <v>50310</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -4129,7 +4177,7 @@
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="34">
         <v>52241</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -4181,7 +4229,7 @@
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="34">
         <v>50436</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -4233,7 +4281,7 @@
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="34">
         <v>50662</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -4285,7 +4333,7 @@
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="34">
         <v>52002</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -4337,7 +4385,7 @@
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="34">
         <v>51111</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -4389,7 +4437,7 @@
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="34">
         <v>50266</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -4441,7 +4489,7 @@
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="34">
         <v>50131</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -4493,7 +4541,7 @@
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="34">
         <v>52001</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -4545,7 +4593,7 @@
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="34">
         <v>52807</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -4597,7 +4645,7 @@
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="34">
         <v>52310</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -4649,7 +4697,7 @@
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="34">
         <v>52241</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -4701,7 +4749,7 @@
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="34">
         <v>50266</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -4753,7 +4801,7 @@
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="34">
         <v>50595</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -4805,7 +4853,7 @@
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="34">
         <v>50022</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -4857,7 +4905,7 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="34">
         <v>50002</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -4909,7 +4957,7 @@
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="34">
         <v>51012</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -4961,7 +5009,7 @@
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="34">
         <v>50595</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -5013,7 +5061,7 @@
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="34">
         <v>51503</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -5065,7 +5113,7 @@
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="34">
         <v>50703</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -5117,7 +5165,7 @@
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="34">
         <v>52601</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -5169,7 +5217,7 @@
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="34">
         <v>50131</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -5221,7 +5269,7 @@
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="34">
         <v>50266</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -5273,7 +5321,7 @@
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="34">
         <v>50266</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -5325,7 +5373,7 @@
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="34">
         <v>50266</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -5377,7 +5425,7 @@
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="34">
         <v>50131</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -5429,7 +5477,7 @@
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="34">
         <v>50701</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -5481,7 +5529,7 @@
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="34">
         <v>51106</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -5533,7 +5581,7 @@
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="34">
         <v>51106</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -5585,7 +5633,7 @@
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="34">
         <v>51106</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -5637,7 +5685,7 @@
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="34">
         <v>50131</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -5689,7 +5737,7 @@
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="34">
         <v>50701</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -5741,7 +5789,7 @@
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="34">
         <v>50266</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -5793,7 +5841,7 @@
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="34">
         <v>52806</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -5845,7 +5893,7 @@
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="34">
         <v>52577</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -5897,7 +5945,7 @@
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="34">
         <v>50131</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -5949,7 +5997,7 @@
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="34">
         <v>50391</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -6001,7 +6049,7 @@
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="34">
         <v>50669</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -6053,7 +6101,7 @@
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="34">
         <v>50266</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -6105,7 +6153,7 @@
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="34">
         <v>52240</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -6157,7 +6205,7 @@
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="34">
         <v>50131</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -6209,7 +6257,7 @@
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="34">
         <v>50021</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -6261,7 +6309,7 @@
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="34">
         <v>50322</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -6313,7 +6361,7 @@
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="34">
         <v>52172</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -6365,7 +6413,7 @@
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="34">
         <v>50220</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -6417,7 +6465,7 @@
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="34">
         <v>52601</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -6469,7 +6517,7 @@
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="34">
         <v>51201</v>
       </c>
       <c r="G61" s="5" t="s">
@@ -6521,7 +6569,7 @@
       <c r="E62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="34">
         <v>50548</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -6573,7 +6621,7 @@
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="34">
         <v>50273</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -6625,7 +6673,7 @@
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="34">
         <v>51537</v>
       </c>
       <c r="G64" s="5" t="s">
@@ -6677,7 +6725,7 @@
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="34">
         <v>52040</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -6729,7 +6777,7 @@
       <c r="E66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="34">
         <v>52002</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -6781,7 +6829,7 @@
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="34">
         <v>51566</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -6833,7 +6881,7 @@
       <c r="E68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="34">
         <v>51104</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -6885,7 +6933,7 @@
       <c r="E69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="34">
         <v>50659</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -6937,7 +6985,7 @@
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="34">
         <v>50401</v>
       </c>
       <c r="G70" s="5" t="s">
@@ -6989,7 +7037,7 @@
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="34">
         <v>50131</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -7041,7 +7089,7 @@
       <c r="E72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="34">
         <v>52001</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -7093,7 +7141,7 @@
       <c r="E73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="34">
         <v>51247</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -7145,7 +7193,7 @@
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="34">
         <v>50322</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -7197,7 +7245,7 @@
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="34">
         <v>52001</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -7249,7 +7297,7 @@
       <c r="E76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="34">
         <v>50322</v>
       </c>
       <c r="G76" s="5" t="s">
@@ -7301,7 +7349,7 @@
       <c r="E77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="34">
         <v>50131</v>
       </c>
       <c r="G77" s="5" t="s">
@@ -7353,7 +7401,7 @@
       <c r="E78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="34">
         <v>51247</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -7405,7 +7453,7 @@
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="34">
         <v>50266</v>
       </c>
       <c r="G79" s="5" t="s">
@@ -7457,7 +7505,7 @@
       <c r="E80" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="34">
         <v>52806</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -7509,7 +7557,7 @@
       <c r="E81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="34">
         <v>50659</v>
       </c>
       <c r="G81" s="5" t="s">
@@ -7561,7 +7609,7 @@
       <c r="E82" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="34">
         <v>50322</v>
       </c>
       <c r="G82" s="5" t="s">
@@ -7613,7 +7661,7 @@
       <c r="E83" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="34">
         <v>50322</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -7665,7 +7713,7 @@
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="34">
         <v>50131</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -7717,7 +7765,7 @@
       <c r="E85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="34">
         <v>52641</v>
       </c>
       <c r="G85" s="5" t="s">
@@ -7769,7 +7817,7 @@
       <c r="E86" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="34">
         <v>52722</v>
       </c>
       <c r="G86" s="5" t="s">
@@ -7821,7 +7869,7 @@
       <c r="E87" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="34">
         <v>50266</v>
       </c>
       <c r="G87" s="5" t="s">
@@ -7873,7 +7921,7 @@
       <c r="E88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="34">
         <v>50616</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -7925,7 +7973,7 @@
       <c r="E89" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="34">
         <v>52730</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -7977,7 +8025,7 @@
       <c r="E90" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="34">
         <v>50702</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -8029,7 +8077,7 @@
       <c r="E91" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="34">
         <v>50322</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -8081,7 +8129,7 @@
       <c r="E92" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="34">
         <v>50265</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -8133,7 +8181,7 @@
       <c r="E93" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="34">
         <v>50266</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -8185,7 +8233,7 @@
       <c r="E94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="34">
         <v>52732</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -8237,7 +8285,7 @@
       <c r="E95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="34">
         <v>50266</v>
       </c>
       <c r="G95" s="5" t="s">
@@ -8289,7 +8337,7 @@
       <c r="E96" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="34">
         <v>52806</v>
       </c>
       <c r="G96" s="5" t="s">
@@ -8341,7 +8389,7 @@
       <c r="E97" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="34">
         <v>50266</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -8393,7 +8441,7 @@
       <c r="E98" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="34">
         <v>50309</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -8445,7 +8493,7 @@
       <c r="E99" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="34">
         <v>52730</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -8497,7 +8545,7 @@
       <c r="E100" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="34">
         <v>50266</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -8549,7 +8597,7 @@
       <c r="E101" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="34">
         <v>52404</v>
       </c>
       <c r="G101" s="5" t="s">
@@ -8601,7 +8649,7 @@
       <c r="E102" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="34">
         <v>50317</v>
       </c>
       <c r="G102" s="5" t="s">
@@ -8653,7 +8701,7 @@
       <c r="E103" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="34">
         <v>52243</v>
       </c>
       <c r="G103" s="5" t="s">
@@ -8705,7 +8753,7 @@
       <c r="E104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="34">
         <v>50401</v>
       </c>
       <c r="G104" s="5" t="s">
@@ -8757,7 +8805,7 @@
       <c r="E105" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="34">
         <v>52049</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -8809,7 +8857,7 @@
       <c r="E106" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="34">
         <v>52807</v>
       </c>
       <c r="G106" s="5" t="s">
@@ -8861,7 +8909,7 @@
       <c r="E107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="34">
         <v>52353</v>
       </c>
       <c r="G107" s="5" t="s">
@@ -8913,7 +8961,7 @@
       <c r="E108" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="34">
         <v>52205</v>
       </c>
       <c r="G108" s="5" t="s">
@@ -8965,7 +9013,7 @@
       <c r="E109" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="34">
         <v>50010</v>
       </c>
       <c r="G109" s="5" t="s">
@@ -9017,7 +9065,7 @@
       <c r="E110" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="34">
         <v>50266</v>
       </c>
       <c r="G110" s="5" t="s">
@@ -9069,7 +9117,7 @@
       <c r="E111" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="34">
         <v>52172</v>
       </c>
       <c r="G111" s="5" t="s">
@@ -9121,7 +9169,7 @@
       <c r="E112" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="34">
         <v>50606</v>
       </c>
       <c r="G112" s="5" t="s">
@@ -9173,7 +9221,7 @@
       <c r="E113" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="34">
         <v>50421</v>
       </c>
       <c r="G113" s="5" t="s">
@@ -9225,7 +9273,7 @@
       <c r="E114" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="34">
         <v>50616</v>
       </c>
       <c r="G114" s="5" t="s">
@@ -9277,7 +9325,7 @@
       <c r="E115" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="34">
         <v>50536</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -9329,7 +9377,7 @@
       <c r="E116" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="34">
         <v>50588</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -9381,7 +9429,7 @@
       <c r="E117" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="34">
         <v>50312</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -9433,7 +9481,7 @@
       <c r="E118" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="34">
         <v>50588</v>
       </c>
       <c r="G118" s="5" t="s">
@@ -9485,7 +9533,7 @@
       <c r="E119" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="34">
         <v>50313</v>
       </c>
       <c r="G119" s="5" t="s">
@@ -9537,7 +9585,7 @@
       <c r="E120" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="34">
         <v>50322</v>
       </c>
       <c r="G120" s="5" t="s">
@@ -9589,7 +9637,7 @@
       <c r="E121" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="34">
         <v>52807</v>
       </c>
       <c r="G121" s="5" t="s">
@@ -9641,7 +9689,7 @@
       <c r="E122" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="34">
         <v>50536</v>
       </c>
       <c r="G122" s="5" t="s">
@@ -9693,7 +9741,7 @@
       <c r="E123" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="34">
         <v>50313</v>
       </c>
       <c r="G123" s="5" t="s">
@@ -9745,7 +9793,7 @@
       <c r="E124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="34">
         <v>52411</v>
       </c>
       <c r="G124" s="5" t="s">
@@ -9797,7 +9845,7 @@
       <c r="E125" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="34">
         <v>52601</v>
       </c>
       <c r="G125" s="5" t="s">
@@ -9849,7 +9897,7 @@
       <c r="E126" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="34">
         <v>52001</v>
       </c>
       <c r="G126" s="5" t="s">
@@ -9901,7 +9949,7 @@
       <c r="E127" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="34">
         <v>50208</v>
       </c>
       <c r="G127" s="5" t="s">
@@ -9953,7 +10001,7 @@
       <c r="E128" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="34">
         <v>50613</v>
       </c>
       <c r="G128" s="5" t="s">
@@ -10005,7 +10053,7 @@
       <c r="E129" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="34">
         <v>50401</v>
       </c>
       <c r="G129" s="5" t="s">
@@ -10057,7 +10105,7 @@
       <c r="E130" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="34">
         <v>52003</v>
       </c>
       <c r="G130" s="5" t="s">
@@ -10109,7 +10157,7 @@
       <c r="E131" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="34">
         <v>50501</v>
       </c>
       <c r="G131" s="5" t="s">
@@ -10161,7 +10209,7 @@
       <c r="E132" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="34">
         <v>52411</v>
       </c>
       <c r="G132" s="5" t="s">
@@ -10213,7 +10261,7 @@
       <c r="E133" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="34">
         <v>52001</v>
       </c>
       <c r="G133" s="5" t="s">
@@ -10265,7 +10313,7 @@
       <c r="E134" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F134" s="28">
+      <c r="F134" s="35">
         <v>51566</v>
       </c>
       <c r="G134" s="28" t="s">
@@ -10317,7 +10365,7 @@
       <c r="E135" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135" s="34">
         <v>51501</v>
       </c>
       <c r="G135" s="5" t="s">
@@ -10369,7 +10417,7 @@
       <c r="E136" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136" s="34">
         <v>50311</v>
       </c>
       <c r="G136" s="5" t="s">
@@ -10421,7 +10469,7 @@
       <c r="E137" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137" s="34">
         <v>51601</v>
       </c>
       <c r="G137" s="5" t="s">
@@ -10473,7 +10521,7 @@
       <c r="E138" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="34">
         <v>52060</v>
       </c>
       <c r="G138" s="5" t="s">
@@ -10525,7 +10573,7 @@
       <c r="E139" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139" s="34">
         <v>50450</v>
       </c>
       <c r="G139" s="5" t="s">
@@ -10577,7 +10625,7 @@
       <c r="E140" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140" s="34">
         <v>50436</v>
       </c>
       <c r="G140" s="5" t="s">
@@ -10629,7 +10677,7 @@
       <c r="E141" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F141" s="34">
         <v>50616</v>
       </c>
       <c r="G141" s="5" t="s">
@@ -10681,7 +10729,7 @@
       <c r="E142" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142" s="34">
         <v>52732</v>
       </c>
       <c r="G142" s="5" t="s">
@@ -10733,7 +10781,7 @@
       <c r="E143" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="34">
         <v>52001</v>
       </c>
       <c r="G143" s="5" t="s">
@@ -10785,7 +10833,7 @@
       <c r="E144" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="34">
         <v>50021</v>
       </c>
       <c r="G144" s="5" t="s">
@@ -10837,7 +10885,7 @@
       <c r="E145" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F145" s="34">
         <v>50677</v>
       </c>
       <c r="G145" s="5" t="s">
@@ -10889,7 +10937,7 @@
       <c r="E146" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F146" s="28">
+      <c r="F146" s="35">
         <v>50536</v>
       </c>
       <c r="G146" s="28" t="s">
@@ -10941,7 +10989,7 @@
       <c r="E147" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F147" s="28">
+      <c r="F147" s="35">
         <v>52748</v>
       </c>
       <c r="G147" s="28" t="s">
@@ -10993,7 +11041,7 @@
       <c r="E148" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="34">
         <v>52057</v>
       </c>
       <c r="G148" s="5" t="s">
@@ -11045,7 +11093,7 @@
       <c r="E149" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F149" s="34">
         <v>52001</v>
       </c>
       <c r="G149" s="5" t="s">
@@ -11097,7 +11145,7 @@
       <c r="E150" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F150" s="34">
         <v>50459</v>
       </c>
       <c r="G150" s="5" t="s">
@@ -11149,7 +11197,7 @@
       <c r="E151" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151" s="34">
         <v>52404</v>
       </c>
       <c r="G151" s="5" t="s">
@@ -11201,7 +11249,7 @@
       <c r="E152" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152" s="34">
         <v>51041</v>
       </c>
       <c r="G152" s="5" t="s">
@@ -11253,7 +11301,7 @@
       <c r="E153" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F153" s="34">
         <v>52732</v>
       </c>
       <c r="G153" s="5" t="s">
@@ -11305,7 +11353,7 @@
       <c r="E154" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154" s="34">
         <v>50129</v>
       </c>
       <c r="G154" s="5" t="s">
@@ -11357,7 +11405,7 @@
       <c r="E155" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F155" s="34">
         <v>50536</v>
       </c>
       <c r="G155" s="5" t="s">
@@ -11409,7 +11457,7 @@
       <c r="E156" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F156" s="34">
         <v>52722</v>
       </c>
       <c r="G156" s="5" t="s">
@@ -11461,7 +11509,7 @@
       <c r="E157" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F157" s="5">
+      <c r="F157" s="34">
         <v>51501</v>
       </c>
       <c r="G157" s="5" t="s">
@@ -11513,7 +11561,7 @@
       <c r="E158" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F158" s="34">
         <v>50391</v>
       </c>
       <c r="G158" s="5" t="s">
@@ -11565,7 +11613,7 @@
       <c r="E159" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F159" s="34">
         <v>50111</v>
       </c>
       <c r="G159" s="5" t="s">
@@ -11617,7 +11665,7 @@
       <c r="E160" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F160" s="34">
         <v>52243</v>
       </c>
       <c r="G160" s="5" t="s">
@@ -11669,7 +11717,7 @@
       <c r="E161" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F161" s="34">
         <v>50021</v>
       </c>
       <c r="G161" s="5" t="s">
@@ -11721,7 +11769,7 @@
       <c r="E162" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F162" s="34">
         <v>52807</v>
       </c>
       <c r="G162" s="5" t="s">
@@ -11773,7 +11821,7 @@
       <c r="E163" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F163" s="34">
         <v>50704</v>
       </c>
       <c r="G163" s="5" t="s">
@@ -11825,7 +11873,7 @@
       <c r="E164" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F164" s="34">
         <v>52233</v>
       </c>
       <c r="G164" s="5" t="s">
@@ -11877,7 +11925,7 @@
       <c r="E165" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F165" s="34">
         <v>52001</v>
       </c>
       <c r="G165" s="5" t="s">
@@ -11929,7 +11977,7 @@
       <c r="E166" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F166" s="34">
         <v>50309</v>
       </c>
       <c r="G166" s="5" t="s">
@@ -11981,7 +12029,7 @@
       <c r="E167" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F167" s="34">
         <v>50309</v>
       </c>
       <c r="G167" s="5" t="s">
@@ -12033,7 +12081,7 @@
       <c r="E168" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F168" s="34">
         <v>52004</v>
       </c>
       <c r="G168" s="5" t="s">
@@ -12085,7 +12133,7 @@
       <c r="E169" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F169" s="34">
         <v>52498</v>
       </c>
       <c r="G169" s="5" t="s">
@@ -12137,7 +12185,7 @@
       <c r="E170" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F170" s="34">
         <v>50111</v>
       </c>
       <c r="G170" s="5" t="s">
@@ -12189,7 +12237,7 @@
       <c r="E171" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F171" s="34">
         <v>52627</v>
       </c>
       <c r="G171" s="5" t="s">
@@ -12709,7 +12757,7 @@
       <c r="E181" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F181" s="5">
+      <c r="F181" s="34">
         <v>50391</v>
       </c>
       <c r="G181" s="5" t="s">
@@ -20891,7 +20939,7 @@
       <c r="K338" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="L338" s="34" t="s">
+      <c r="L338" s="36" t="s">
         <v>924</v>
       </c>
       <c r="M338" s="15"/>
@@ -21411,7 +21459,7 @@
       <c r="K348" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="L348" s="34" t="s">
+      <c r="L348" s="36" t="s">
         <v>924</v>
       </c>
       <c r="M348" s="15"/>
@@ -21463,7 +21511,7 @@
       <c r="K349" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="L349" s="35" t="s">
+      <c r="L349" s="37" t="s">
         <v>395</v>
       </c>
       <c r="M349" s="15"/>
@@ -21586,18 +21634,42 @@
       <c r="Z351" s="15"/>
     </row>
     <row r="352" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A352" s="23"/>
-      <c r="B352" s="15"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="15"/>
-      <c r="E352" s="15"/>
-      <c r="F352" s="15"/>
-      <c r="G352" s="15"/>
-      <c r="H352" s="15"/>
-      <c r="I352" s="16"/>
-      <c r="J352" s="15"/>
-      <c r="K352" s="15"/>
-      <c r="L352" s="15"/>
+      <c r="A352" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="B352" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="C352" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D352" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E352" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F352" s="15">
+        <v>52002</v>
+      </c>
+      <c r="G352" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H352" s="15">
+        <v>10</v>
+      </c>
+      <c r="I352" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="J352" s="10">
+        <v>45108</v>
+      </c>
+      <c r="K352" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="L352" s="15" t="s">
+        <v>731</v>
+      </c>
       <c r="M352" s="15"/>
       <c r="N352" s="15"/>
       <c r="O352" s="15"/>
@@ -21614,18 +21686,42 @@
       <c r="Z352" s="15"/>
     </row>
     <row r="353" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A353" s="23"/>
-      <c r="B353" s="15"/>
-      <c r="C353" s="15"/>
-      <c r="D353" s="15"/>
-      <c r="E353" s="15"/>
-      <c r="F353" s="15"/>
-      <c r="G353" s="15"/>
-      <c r="H353" s="15"/>
-      <c r="I353" s="16"/>
-      <c r="J353" s="15"/>
-      <c r="K353" s="15"/>
-      <c r="L353" s="15"/>
+      <c r="A353" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="B353" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="C353" s="15" t="s">
+        <v>961</v>
+      </c>
+      <c r="D353" s="15" t="s">
+        <v>961</v>
+      </c>
+      <c r="E353" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F353" s="15">
+        <v>53732</v>
+      </c>
+      <c r="G353" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H353" s="15">
+        <v>5</v>
+      </c>
+      <c r="I353" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="J353" s="10">
+        <v>45108</v>
+      </c>
+      <c r="K353" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="L353" s="15" t="s">
+        <v>731</v>
+      </c>
       <c r="M353" s="15"/>
       <c r="N353" s="15"/>
       <c r="O353" s="15"/>
@@ -21642,18 +21738,42 @@
       <c r="Z353" s="15"/>
     </row>
     <row r="354" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A354" s="23"/>
-      <c r="B354" s="15"/>
-      <c r="C354" s="15"/>
-      <c r="D354" s="15"/>
-      <c r="E354" s="15"/>
-      <c r="F354" s="15"/>
-      <c r="G354" s="15"/>
-      <c r="H354" s="15"/>
-      <c r="I354" s="16"/>
-      <c r="J354" s="15"/>
-      <c r="K354" s="15"/>
-      <c r="L354" s="15"/>
+      <c r="A354" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="B354" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="C354" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D354" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F354" s="15">
+        <v>52803</v>
+      </c>
+      <c r="G354" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H354" s="15">
+        <v>20</v>
+      </c>
+      <c r="I354" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="J354" s="10">
+        <v>45108</v>
+      </c>
+      <c r="K354" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L354" s="15" t="s">
+        <v>731</v>
+      </c>
       <c r="M354" s="15"/>
       <c r="N354" s="15"/>
       <c r="O354" s="15"/>
@@ -21670,18 +21790,42 @@
       <c r="Z354" s="15"/>
     </row>
     <row r="355" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A355" s="23"/>
-      <c r="B355" s="15"/>
-      <c r="C355" s="15"/>
-      <c r="D355" s="15"/>
-      <c r="E355" s="15"/>
-      <c r="F355" s="15"/>
-      <c r="G355" s="15"/>
-      <c r="H355" s="15"/>
-      <c r="I355" s="16"/>
-      <c r="J355" s="15"/>
-      <c r="K355" s="15"/>
-      <c r="L355" s="15"/>
+      <c r="A355" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="B355" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="C355" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="D355" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="E355" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F355" s="15">
+        <v>52761</v>
+      </c>
+      <c r="G355" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H355" s="15">
+        <v>7</v>
+      </c>
+      <c r="I355" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="J355" s="10">
+        <v>45108</v>
+      </c>
+      <c r="K355" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L355" s="15" t="s">
+        <v>731</v>
+      </c>
       <c r="M355" s="15"/>
       <c r="N355" s="15"/>
       <c r="O355" s="15"/>
@@ -21698,18 +21842,42 @@
       <c r="Z355" s="15"/>
     </row>
     <row r="356" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A356" s="23"/>
-      <c r="B356" s="15"/>
-      <c r="C356" s="15"/>
-      <c r="D356" s="15"/>
-      <c r="E356" s="15"/>
-      <c r="F356" s="15"/>
-      <c r="G356" s="15"/>
-      <c r="H356" s="15"/>
-      <c r="I356" s="16"/>
-      <c r="J356" s="15"/>
-      <c r="K356" s="15"/>
-      <c r="L356" s="15"/>
+      <c r="A356" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="B356" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="C356" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="D356" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="E356" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F356" s="15">
+        <v>52601</v>
+      </c>
+      <c r="G356" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H356" s="15">
+        <v>19</v>
+      </c>
+      <c r="I356" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="J356" s="10">
+        <v>45108</v>
+      </c>
+      <c r="K356" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L356" s="15" t="s">
+        <v>731</v>
+      </c>
       <c r="M356" s="15"/>
       <c r="N356" s="15"/>
       <c r="O356" s="15"/>
@@ -21726,18 +21894,42 @@
       <c r="Z356" s="15"/>
     </row>
     <row r="357" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A357" s="23"/>
-      <c r="B357" s="15"/>
-      <c r="C357" s="15"/>
-      <c r="D357" s="15"/>
-      <c r="E357" s="15"/>
-      <c r="F357" s="15"/>
-      <c r="G357" s="15"/>
-      <c r="H357" s="15"/>
-      <c r="I357" s="16"/>
-      <c r="J357" s="15"/>
-      <c r="K357" s="15"/>
-      <c r="L357" s="15"/>
+      <c r="A357" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="B357" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="C357" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="D357" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="E357" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F357" s="15">
+        <v>50677</v>
+      </c>
+      <c r="G357" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H357" s="15">
+        <v>3</v>
+      </c>
+      <c r="I357" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="J357" s="10">
+        <v>45108</v>
+      </c>
+      <c r="K357" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="L357" s="15" t="s">
+        <v>731</v>
+      </c>
       <c r="M357" s="15"/>
       <c r="N357" s="15"/>
       <c r="O357" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\IWDNA1A\Users\cdeit\Desktop\WARN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{250476AB-D24F-45A5-B1CA-47D4BB3EA3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="974">
   <si>
     <t>Company</t>
   </si>
@@ -2941,13 +2942,28 @@
     <t xml:space="preserve">Waverly </t>
   </si>
   <si>
-    <t>Brember</t>
+    <t xml:space="preserve">Bremer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Iowa University </t>
+  </si>
+  <si>
+    <t>605 Washington St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fayette </t>
+  </si>
+  <si>
+    <t>05/10/2023</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3353,15 +3369,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K365" sqref="K365"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L359" sqref="L359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -21946,18 +21962,42 @@
       <c r="Z357" s="15"/>
     </row>
     <row r="358" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A358" s="23"/>
-      <c r="B358" s="15"/>
-      <c r="C358" s="15"/>
-      <c r="D358" s="15"/>
-      <c r="E358" s="15"/>
-      <c r="F358" s="15"/>
-      <c r="G358" s="15"/>
-      <c r="H358" s="15"/>
-      <c r="I358" s="16"/>
-      <c r="J358" s="15"/>
-      <c r="K358" s="15"/>
-      <c r="L358" s="15"/>
+      <c r="A358" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="B358" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="C358" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="D358" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E358" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F358" s="15">
+        <v>52142</v>
+      </c>
+      <c r="G358" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H358" s="15">
+        <v>21</v>
+      </c>
+      <c r="I358" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="J358" s="10">
+        <v>45056</v>
+      </c>
+      <c r="K358" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="L358" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="M358" s="15"/>
       <c r="N358" s="15"/>
       <c r="O358" s="15"/>
@@ -21974,18 +22014,42 @@
       <c r="Z358" s="15"/>
     </row>
     <row r="359" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A359" s="23"/>
-      <c r="B359" s="15"/>
-      <c r="C359" s="15"/>
-      <c r="D359" s="15"/>
-      <c r="E359" s="15"/>
-      <c r="F359" s="15"/>
-      <c r="G359" s="15"/>
-      <c r="H359" s="15"/>
-      <c r="I359" s="16"/>
-      <c r="J359" s="15"/>
-      <c r="K359" s="15"/>
-      <c r="L359" s="15"/>
+      <c r="A359" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="B359" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="C359" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="D359" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E359" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F359" s="15">
+        <v>52142</v>
+      </c>
+      <c r="G359" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="H359" s="15">
+        <v>1</v>
+      </c>
+      <c r="I359" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J359" s="10">
+        <v>45057</v>
+      </c>
+      <c r="K359" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="L359" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="M359" s="15"/>
       <c r="N359" s="15"/>
       <c r="O359" s="15"/>
@@ -35470,6 +35534,7 @@
       <c r="Z840" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z357" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twageman.IWDNTDOM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{250476AB-D24F-45A5-B1CA-47D4BB3EA3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E6638B-81E0-418E-95DD-7B8D1B29C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20268" yWindow="324" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="980">
   <si>
     <t>Company</t>
   </si>
@@ -2958,6 +2958,24 @@
   </si>
   <si>
     <t>05/11/2023</t>
+  </si>
+  <si>
+    <t>800 S Jordan Creek Parkway</t>
+  </si>
+  <si>
+    <t>05/16/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetnral Iowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACT, Inc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayss Layoff </t>
+  </si>
+  <si>
+    <t>05/17/2023</t>
   </si>
 </sst>
 </file>
@@ -3051,7 +3069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3144,12 +3162,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3376,25 +3388,25 @@
   <dimension ref="A1:Z840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L359" sqref="L359"/>
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L361" sqref="L361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="4.09765625" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.5" customWidth="1"/>
-    <col min="13" max="26" width="7.625" customWidth="1"/>
+    <col min="13" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3465,7 +3477,7 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="5">
         <v>52806</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3517,7 +3529,7 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="5">
         <v>52806</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -3569,7 +3581,7 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="5">
         <v>50317</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -3621,7 +3633,7 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="5">
         <v>52732</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -3673,7 +3685,7 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="5">
         <v>50309</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -3725,7 +3737,7 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="5">
         <v>52040</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -3777,7 +3789,7 @@
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="5">
         <v>52801</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -3829,7 +3841,7 @@
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="5">
         <v>50313</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -3881,7 +3893,7 @@
       <c r="E10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="28">
         <v>52243</v>
       </c>
       <c r="G10" s="28" t="s">
@@ -3933,7 +3945,7 @@
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="5">
         <v>50131</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -3985,7 +3997,7 @@
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="5">
         <v>50323</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -4037,7 +4049,7 @@
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="5">
         <v>52404</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -4089,7 +4101,7 @@
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="5">
         <v>50310</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -4141,7 +4153,7 @@
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="5">
         <v>50310</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -4193,7 +4205,7 @@
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="5">
         <v>52241</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -4245,7 +4257,7 @@
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="5">
         <v>50436</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -4297,7 +4309,7 @@
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="5">
         <v>50662</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -4349,7 +4361,7 @@
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="5">
         <v>52002</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -4401,7 +4413,7 @@
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="5">
         <v>51111</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -4453,7 +4465,7 @@
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="5">
         <v>50266</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -4505,7 +4517,7 @@
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="5">
         <v>50131</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -4557,7 +4569,7 @@
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="5">
         <v>52001</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -4609,7 +4621,7 @@
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="5">
         <v>52807</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -4661,7 +4673,7 @@
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="5">
         <v>52310</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -4713,7 +4725,7 @@
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="5">
         <v>52241</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -4765,7 +4777,7 @@
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="5">
         <v>50266</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -4817,7 +4829,7 @@
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="5">
         <v>50595</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -4869,7 +4881,7 @@
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="5">
         <v>50022</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -4921,7 +4933,7 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="5">
         <v>50002</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -4973,7 +4985,7 @@
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="5">
         <v>51012</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -5025,7 +5037,7 @@
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="5">
         <v>50595</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -5077,7 +5089,7 @@
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="5">
         <v>51503</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -5129,7 +5141,7 @@
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="5">
         <v>50703</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -5181,7 +5193,7 @@
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="5">
         <v>52601</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -5233,7 +5245,7 @@
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="5">
         <v>50131</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -5285,7 +5297,7 @@
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="5">
         <v>50266</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -5337,7 +5349,7 @@
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="5">
         <v>50266</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -5389,7 +5401,7 @@
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="5">
         <v>50266</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -5441,7 +5453,7 @@
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="5">
         <v>50131</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -5493,7 +5505,7 @@
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="5">
         <v>50701</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -5545,7 +5557,7 @@
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="5">
         <v>51106</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -5597,7 +5609,7 @@
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="5">
         <v>51106</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -5649,7 +5661,7 @@
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="5">
         <v>51106</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -5701,7 +5713,7 @@
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="5">
         <v>50131</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -5753,7 +5765,7 @@
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="5">
         <v>50701</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -5805,7 +5817,7 @@
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="5">
         <v>50266</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -5857,7 +5869,7 @@
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="5">
         <v>52806</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -5909,7 +5921,7 @@
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="5">
         <v>52577</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -5961,7 +5973,7 @@
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="5">
         <v>50131</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -6013,7 +6025,7 @@
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="5">
         <v>50391</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -6065,7 +6077,7 @@
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="5">
         <v>50669</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -6117,7 +6129,7 @@
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="5">
         <v>50266</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -6169,7 +6181,7 @@
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="5">
         <v>52240</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -6221,7 +6233,7 @@
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="5">
         <v>50131</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -6273,7 +6285,7 @@
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="5">
         <v>50021</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -6325,7 +6337,7 @@
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="5">
         <v>50322</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -6377,7 +6389,7 @@
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="5">
         <v>52172</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -6429,7 +6441,7 @@
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="5">
         <v>50220</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -6481,7 +6493,7 @@
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="5">
         <v>52601</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -6533,7 +6545,7 @@
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="5">
         <v>51201</v>
       </c>
       <c r="G61" s="5" t="s">
@@ -6585,7 +6597,7 @@
       <c r="E62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="5">
         <v>50548</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -6637,7 +6649,7 @@
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="5">
         <v>50273</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -6689,7 +6701,7 @@
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="5">
         <v>51537</v>
       </c>
       <c r="G64" s="5" t="s">
@@ -6741,7 +6753,7 @@
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="5">
         <v>52040</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -6793,7 +6805,7 @@
       <c r="E66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="5">
         <v>52002</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -6845,7 +6857,7 @@
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="5">
         <v>51566</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -6897,7 +6909,7 @@
       <c r="E68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="34">
+      <c r="F68" s="5">
         <v>51104</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -6949,7 +6961,7 @@
       <c r="E69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="5">
         <v>50659</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -7001,7 +7013,7 @@
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="34">
+      <c r="F70" s="5">
         <v>50401</v>
       </c>
       <c r="G70" s="5" t="s">
@@ -7053,7 +7065,7 @@
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="5">
         <v>50131</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -7105,7 +7117,7 @@
       <c r="E72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F72" s="5">
         <v>52001</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -7157,7 +7169,7 @@
       <c r="E73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="5">
         <v>51247</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -7209,7 +7221,7 @@
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="34">
+      <c r="F74" s="5">
         <v>50322</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -7261,7 +7273,7 @@
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="5">
         <v>52001</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -7313,7 +7325,7 @@
       <c r="E76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="5">
         <v>50322</v>
       </c>
       <c r="G76" s="5" t="s">
@@ -7365,7 +7377,7 @@
       <c r="E77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="5">
         <v>50131</v>
       </c>
       <c r="G77" s="5" t="s">
@@ -7417,7 +7429,7 @@
       <c r="E78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="5">
         <v>51247</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -7469,7 +7481,7 @@
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F79" s="5">
         <v>50266</v>
       </c>
       <c r="G79" s="5" t="s">
@@ -7521,7 +7533,7 @@
       <c r="E80" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F80" s="5">
         <v>52806</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -7573,7 +7585,7 @@
       <c r="E81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="34">
+      <c r="F81" s="5">
         <v>50659</v>
       </c>
       <c r="G81" s="5" t="s">
@@ -7625,7 +7637,7 @@
       <c r="E82" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="5">
         <v>50322</v>
       </c>
       <c r="G82" s="5" t="s">
@@ -7677,7 +7689,7 @@
       <c r="E83" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F83" s="5">
         <v>50322</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -7729,7 +7741,7 @@
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F84" s="5">
         <v>50131</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -7781,7 +7793,7 @@
       <c r="E85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F85" s="5">
         <v>52641</v>
       </c>
       <c r="G85" s="5" t="s">
@@ -7833,7 +7845,7 @@
       <c r="E86" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="5">
         <v>52722</v>
       </c>
       <c r="G86" s="5" t="s">
@@ -7885,7 +7897,7 @@
       <c r="E87" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="5">
         <v>50266</v>
       </c>
       <c r="G87" s="5" t="s">
@@ -7937,7 +7949,7 @@
       <c r="E88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F88" s="5">
         <v>50616</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -7989,7 +8001,7 @@
       <c r="E89" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="34">
+      <c r="F89" s="5">
         <v>52730</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -8041,7 +8053,7 @@
       <c r="E90" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="34">
+      <c r="F90" s="5">
         <v>50702</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -8093,7 +8105,7 @@
       <c r="E91" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="34">
+      <c r="F91" s="5">
         <v>50322</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -8145,7 +8157,7 @@
       <c r="E92" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="34">
+      <c r="F92" s="5">
         <v>50265</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -8197,7 +8209,7 @@
       <c r="E93" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="34">
+      <c r="F93" s="5">
         <v>50266</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -8249,7 +8261,7 @@
       <c r="E94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="34">
+      <c r="F94" s="5">
         <v>52732</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -8301,7 +8313,7 @@
       <c r="E95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="34">
+      <c r="F95" s="5">
         <v>50266</v>
       </c>
       <c r="G95" s="5" t="s">
@@ -8353,7 +8365,7 @@
       <c r="E96" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="34">
+      <c r="F96" s="5">
         <v>52806</v>
       </c>
       <c r="G96" s="5" t="s">
@@ -8405,7 +8417,7 @@
       <c r="E97" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="34">
+      <c r="F97" s="5">
         <v>50266</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -8457,7 +8469,7 @@
       <c r="E98" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="34">
+      <c r="F98" s="5">
         <v>50309</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -8509,7 +8521,7 @@
       <c r="E99" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="34">
+      <c r="F99" s="5">
         <v>52730</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -8561,7 +8573,7 @@
       <c r="E100" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="34">
+      <c r="F100" s="5">
         <v>50266</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -8613,7 +8625,7 @@
       <c r="E101" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="34">
+      <c r="F101" s="5">
         <v>52404</v>
       </c>
       <c r="G101" s="5" t="s">
@@ -8665,7 +8677,7 @@
       <c r="E102" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="34">
+      <c r="F102" s="5">
         <v>50317</v>
       </c>
       <c r="G102" s="5" t="s">
@@ -8717,7 +8729,7 @@
       <c r="E103" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="34">
+      <c r="F103" s="5">
         <v>52243</v>
       </c>
       <c r="G103" s="5" t="s">
@@ -8769,7 +8781,7 @@
       <c r="E104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="34">
+      <c r="F104" s="5">
         <v>50401</v>
       </c>
       <c r="G104" s="5" t="s">
@@ -8821,7 +8833,7 @@
       <c r="E105" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="34">
+      <c r="F105" s="5">
         <v>52049</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -8873,7 +8885,7 @@
       <c r="E106" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="34">
+      <c r="F106" s="5">
         <v>52807</v>
       </c>
       <c r="G106" s="5" t="s">
@@ -8925,7 +8937,7 @@
       <c r="E107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="34">
+      <c r="F107" s="5">
         <v>52353</v>
       </c>
       <c r="G107" s="5" t="s">
@@ -8977,7 +8989,7 @@
       <c r="E108" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="34">
+      <c r="F108" s="5">
         <v>52205</v>
       </c>
       <c r="G108" s="5" t="s">
@@ -9029,7 +9041,7 @@
       <c r="E109" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="34">
+      <c r="F109" s="5">
         <v>50010</v>
       </c>
       <c r="G109" s="5" t="s">
@@ -9081,7 +9093,7 @@
       <c r="E110" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="34">
+      <c r="F110" s="5">
         <v>50266</v>
       </c>
       <c r="G110" s="5" t="s">
@@ -9133,7 +9145,7 @@
       <c r="E111" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="34">
+      <c r="F111" s="5">
         <v>52172</v>
       </c>
       <c r="G111" s="5" t="s">
@@ -9185,7 +9197,7 @@
       <c r="E112" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F112" s="34">
+      <c r="F112" s="5">
         <v>50606</v>
       </c>
       <c r="G112" s="5" t="s">
@@ -9237,7 +9249,7 @@
       <c r="E113" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="34">
+      <c r="F113" s="5">
         <v>50421</v>
       </c>
       <c r="G113" s="5" t="s">
@@ -9289,7 +9301,7 @@
       <c r="E114" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F114" s="34">
+      <c r="F114" s="5">
         <v>50616</v>
       </c>
       <c r="G114" s="5" t="s">
@@ -9341,7 +9353,7 @@
       <c r="E115" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="34">
+      <c r="F115" s="5">
         <v>50536</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -9393,7 +9405,7 @@
       <c r="E116" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="34">
+      <c r="F116" s="5">
         <v>50588</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -9445,7 +9457,7 @@
       <c r="E117" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="34">
+      <c r="F117" s="5">
         <v>50312</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -9497,7 +9509,7 @@
       <c r="E118" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="34">
+      <c r="F118" s="5">
         <v>50588</v>
       </c>
       <c r="G118" s="5" t="s">
@@ -9549,7 +9561,7 @@
       <c r="E119" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="34">
+      <c r="F119" s="5">
         <v>50313</v>
       </c>
       <c r="G119" s="5" t="s">
@@ -9601,7 +9613,7 @@
       <c r="E120" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="34">
+      <c r="F120" s="5">
         <v>50322</v>
       </c>
       <c r="G120" s="5" t="s">
@@ -9653,7 +9665,7 @@
       <c r="E121" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="34">
+      <c r="F121" s="5">
         <v>52807</v>
       </c>
       <c r="G121" s="5" t="s">
@@ -9705,7 +9717,7 @@
       <c r="E122" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="34">
+      <c r="F122" s="5">
         <v>50536</v>
       </c>
       <c r="G122" s="5" t="s">
@@ -9757,7 +9769,7 @@
       <c r="E123" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="34">
+      <c r="F123" s="5">
         <v>50313</v>
       </c>
       <c r="G123" s="5" t="s">
@@ -9809,7 +9821,7 @@
       <c r="E124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="34">
+      <c r="F124" s="5">
         <v>52411</v>
       </c>
       <c r="G124" s="5" t="s">
@@ -9861,7 +9873,7 @@
       <c r="E125" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="34">
+      <c r="F125" s="5">
         <v>52601</v>
       </c>
       <c r="G125" s="5" t="s">
@@ -9913,7 +9925,7 @@
       <c r="E126" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F126" s="34">
+      <c r="F126" s="5">
         <v>52001</v>
       </c>
       <c r="G126" s="5" t="s">
@@ -9965,7 +9977,7 @@
       <c r="E127" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="34">
+      <c r="F127" s="5">
         <v>50208</v>
       </c>
       <c r="G127" s="5" t="s">
@@ -10017,7 +10029,7 @@
       <c r="E128" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F128" s="34">
+      <c r="F128" s="5">
         <v>50613</v>
       </c>
       <c r="G128" s="5" t="s">
@@ -10069,7 +10081,7 @@
       <c r="E129" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F129" s="34">
+      <c r="F129" s="5">
         <v>50401</v>
       </c>
       <c r="G129" s="5" t="s">
@@ -10121,7 +10133,7 @@
       <c r="E130" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F130" s="34">
+      <c r="F130" s="5">
         <v>52003</v>
       </c>
       <c r="G130" s="5" t="s">
@@ -10173,7 +10185,7 @@
       <c r="E131" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="34">
+      <c r="F131" s="5">
         <v>50501</v>
       </c>
       <c r="G131" s="5" t="s">
@@ -10225,7 +10237,7 @@
       <c r="E132" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F132" s="34">
+      <c r="F132" s="5">
         <v>52411</v>
       </c>
       <c r="G132" s="5" t="s">
@@ -10277,7 +10289,7 @@
       <c r="E133" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F133" s="34">
+      <c r="F133" s="5">
         <v>52001</v>
       </c>
       <c r="G133" s="5" t="s">
@@ -10329,7 +10341,7 @@
       <c r="E134" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F134" s="35">
+      <c r="F134" s="28">
         <v>51566</v>
       </c>
       <c r="G134" s="28" t="s">
@@ -10381,7 +10393,7 @@
       <c r="E135" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="34">
+      <c r="F135" s="5">
         <v>51501</v>
       </c>
       <c r="G135" s="5" t="s">
@@ -10433,7 +10445,7 @@
       <c r="E136" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F136" s="34">
+      <c r="F136" s="5">
         <v>50311</v>
       </c>
       <c r="G136" s="5" t="s">
@@ -10485,7 +10497,7 @@
       <c r="E137" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F137" s="34">
+      <c r="F137" s="5">
         <v>51601</v>
       </c>
       <c r="G137" s="5" t="s">
@@ -10537,7 +10549,7 @@
       <c r="E138" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F138" s="34">
+      <c r="F138" s="5">
         <v>52060</v>
       </c>
       <c r="G138" s="5" t="s">
@@ -10589,7 +10601,7 @@
       <c r="E139" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="34">
+      <c r="F139" s="5">
         <v>50450</v>
       </c>
       <c r="G139" s="5" t="s">
@@ -10641,7 +10653,7 @@
       <c r="E140" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="34">
+      <c r="F140" s="5">
         <v>50436</v>
       </c>
       <c r="G140" s="5" t="s">
@@ -10693,7 +10705,7 @@
       <c r="E141" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="34">
+      <c r="F141" s="5">
         <v>50616</v>
       </c>
       <c r="G141" s="5" t="s">
@@ -10745,7 +10757,7 @@
       <c r="E142" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F142" s="34">
+      <c r="F142" s="5">
         <v>52732</v>
       </c>
       <c r="G142" s="5" t="s">
@@ -10797,7 +10809,7 @@
       <c r="E143" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="34">
+      <c r="F143" s="5">
         <v>52001</v>
       </c>
       <c r="G143" s="5" t="s">
@@ -10849,7 +10861,7 @@
       <c r="E144" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F144" s="34">
+      <c r="F144" s="5">
         <v>50021</v>
       </c>
       <c r="G144" s="5" t="s">
@@ -10901,7 +10913,7 @@
       <c r="E145" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F145" s="34">
+      <c r="F145" s="5">
         <v>50677</v>
       </c>
       <c r="G145" s="5" t="s">
@@ -10953,7 +10965,7 @@
       <c r="E146" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F146" s="35">
+      <c r="F146" s="28">
         <v>50536</v>
       </c>
       <c r="G146" s="28" t="s">
@@ -11005,7 +11017,7 @@
       <c r="E147" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F147" s="35">
+      <c r="F147" s="28">
         <v>52748</v>
       </c>
       <c r="G147" s="28" t="s">
@@ -11057,7 +11069,7 @@
       <c r="E148" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F148" s="34">
+      <c r="F148" s="5">
         <v>52057</v>
       </c>
       <c r="G148" s="5" t="s">
@@ -11109,7 +11121,7 @@
       <c r="E149" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F149" s="34">
+      <c r="F149" s="5">
         <v>52001</v>
       </c>
       <c r="G149" s="5" t="s">
@@ -11161,7 +11173,7 @@
       <c r="E150" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F150" s="34">
+      <c r="F150" s="5">
         <v>50459</v>
       </c>
       <c r="G150" s="5" t="s">
@@ -11213,7 +11225,7 @@
       <c r="E151" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="34">
+      <c r="F151" s="5">
         <v>52404</v>
       </c>
       <c r="G151" s="5" t="s">
@@ -11265,7 +11277,7 @@
       <c r="E152" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F152" s="34">
+      <c r="F152" s="5">
         <v>51041</v>
       </c>
       <c r="G152" s="5" t="s">
@@ -11317,7 +11329,7 @@
       <c r="E153" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F153" s="34">
+      <c r="F153" s="5">
         <v>52732</v>
       </c>
       <c r="G153" s="5" t="s">
@@ -11369,7 +11381,7 @@
       <c r="E154" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F154" s="34">
+      <c r="F154" s="5">
         <v>50129</v>
       </c>
       <c r="G154" s="5" t="s">
@@ -11421,7 +11433,7 @@
       <c r="E155" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F155" s="34">
+      <c r="F155" s="5">
         <v>50536</v>
       </c>
       <c r="G155" s="5" t="s">
@@ -11473,7 +11485,7 @@
       <c r="E156" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F156" s="34">
+      <c r="F156" s="5">
         <v>52722</v>
       </c>
       <c r="G156" s="5" t="s">
@@ -11525,7 +11537,7 @@
       <c r="E157" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F157" s="34">
+      <c r="F157" s="5">
         <v>51501</v>
       </c>
       <c r="G157" s="5" t="s">
@@ -11577,7 +11589,7 @@
       <c r="E158" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F158" s="34">
+      <c r="F158" s="5">
         <v>50391</v>
       </c>
       <c r="G158" s="5" t="s">
@@ -11629,7 +11641,7 @@
       <c r="E159" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F159" s="34">
+      <c r="F159" s="5">
         <v>50111</v>
       </c>
       <c r="G159" s="5" t="s">
@@ -11681,7 +11693,7 @@
       <c r="E160" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F160" s="34">
+      <c r="F160" s="5">
         <v>52243</v>
       </c>
       <c r="G160" s="5" t="s">
@@ -11733,7 +11745,7 @@
       <c r="E161" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F161" s="34">
+      <c r="F161" s="5">
         <v>50021</v>
       </c>
       <c r="G161" s="5" t="s">
@@ -11785,7 +11797,7 @@
       <c r="E162" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F162" s="34">
+      <c r="F162" s="5">
         <v>52807</v>
       </c>
       <c r="G162" s="5" t="s">
@@ -11837,7 +11849,7 @@
       <c r="E163" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F163" s="34">
+      <c r="F163" s="5">
         <v>50704</v>
       </c>
       <c r="G163" s="5" t="s">
@@ -11889,7 +11901,7 @@
       <c r="E164" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F164" s="34">
+      <c r="F164" s="5">
         <v>52233</v>
       </c>
       <c r="G164" s="5" t="s">
@@ -11941,7 +11953,7 @@
       <c r="E165" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F165" s="34">
+      <c r="F165" s="5">
         <v>52001</v>
       </c>
       <c r="G165" s="5" t="s">
@@ -11993,7 +12005,7 @@
       <c r="E166" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F166" s="34">
+      <c r="F166" s="5">
         <v>50309</v>
       </c>
       <c r="G166" s="5" t="s">
@@ -12045,7 +12057,7 @@
       <c r="E167" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F167" s="34">
+      <c r="F167" s="5">
         <v>50309</v>
       </c>
       <c r="G167" s="5" t="s">
@@ -12097,7 +12109,7 @@
       <c r="E168" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F168" s="34">
+      <c r="F168" s="5">
         <v>52004</v>
       </c>
       <c r="G168" s="5" t="s">
@@ -12149,7 +12161,7 @@
       <c r="E169" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F169" s="34">
+      <c r="F169" s="5">
         <v>52498</v>
       </c>
       <c r="G169" s="5" t="s">
@@ -12201,7 +12213,7 @@
       <c r="E170" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F170" s="34">
+      <c r="F170" s="5">
         <v>50111</v>
       </c>
       <c r="G170" s="5" t="s">
@@ -12253,7 +12265,7 @@
       <c r="E171" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F171" s="34">
+      <c r="F171" s="5">
         <v>52627</v>
       </c>
       <c r="G171" s="5" t="s">
@@ -12773,7 +12785,7 @@
       <c r="E181" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F181" s="34">
+      <c r="F181" s="5">
         <v>50391</v>
       </c>
       <c r="G181" s="5" t="s">
@@ -20955,7 +20967,7 @@
       <c r="K338" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="L338" s="36" t="s">
+      <c r="L338" s="34" t="s">
         <v>924</v>
       </c>
       <c r="M338" s="15"/>
@@ -21475,7 +21487,7 @@
       <c r="K348" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="L348" s="36" t="s">
+      <c r="L348" s="34" t="s">
         <v>924</v>
       </c>
       <c r="M348" s="15"/>
@@ -21527,7 +21539,7 @@
       <c r="K349" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="L349" s="37" t="s">
+      <c r="L349" s="35" t="s">
         <v>395</v>
       </c>
       <c r="M349" s="15"/>
@@ -21784,7 +21796,7 @@
       <c r="J354" s="10">
         <v>45108</v>
       </c>
-      <c r="K354" s="38" t="s">
+      <c r="K354" s="36" t="s">
         <v>19</v>
       </c>
       <c r="L354" s="15" t="s">
@@ -21836,7 +21848,7 @@
       <c r="J355" s="10">
         <v>45108</v>
       </c>
-      <c r="K355" s="38" t="s">
+      <c r="K355" s="36" t="s">
         <v>19</v>
       </c>
       <c r="L355" s="15" t="s">
@@ -21888,7 +21900,7 @@
       <c r="J356" s="10">
         <v>45108</v>
       </c>
-      <c r="K356" s="38" t="s">
+      <c r="K356" s="36" t="s">
         <v>19</v>
       </c>
       <c r="L356" s="15" t="s">
@@ -22066,18 +22078,42 @@
       <c r="Z359" s="15"/>
     </row>
     <row r="360" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A360" s="23"/>
-      <c r="B360" s="15"/>
-      <c r="C360" s="15"/>
-      <c r="D360" s="15"/>
-      <c r="E360" s="15"/>
-      <c r="F360" s="15"/>
-      <c r="G360" s="15"/>
-      <c r="H360" s="15"/>
-      <c r="I360" s="16"/>
-      <c r="J360" s="15"/>
-      <c r="K360" s="15"/>
-      <c r="L360" s="15"/>
+      <c r="A360" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="C360" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="D360" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E360" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F360" s="15">
+        <v>50266</v>
+      </c>
+      <c r="G360" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H360" s="15">
+        <v>25</v>
+      </c>
+      <c r="I360" s="16" t="s">
+        <v>975</v>
+      </c>
+      <c r="J360" s="10">
+        <v>45061</v>
+      </c>
+      <c r="K360" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="L360" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="M360" s="15"/>
       <c r="N360" s="15"/>
       <c r="O360" s="15"/>
@@ -22094,18 +22130,42 @@
       <c r="Z360" s="15"/>
     </row>
     <row r="361" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A361" s="23"/>
-      <c r="B361" s="15"/>
-      <c r="C361" s="15"/>
-      <c r="D361" s="15"/>
-      <c r="E361" s="15"/>
-      <c r="F361" s="15"/>
-      <c r="G361" s="15"/>
-      <c r="H361" s="15"/>
-      <c r="I361" s="16"/>
-      <c r="J361" s="15"/>
-      <c r="K361" s="15"/>
-      <c r="L361" s="15"/>
+      <c r="A361" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="B361" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C361" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D361" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E361" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F361" s="15">
+        <v>52243</v>
+      </c>
+      <c r="G361" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="H361" s="15">
+        <v>106</v>
+      </c>
+      <c r="I361" s="16" t="s">
+        <v>979</v>
+      </c>
+      <c r="J361" s="10">
+        <v>45096</v>
+      </c>
+      <c r="K361" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="L361" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="M361" s="15"/>
       <c r="N361" s="15"/>
       <c r="O361" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twageman.IWDNTDOM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E6638B-81E0-418E-95DD-7B8D1B29C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{317EA3C5-D614-4120-B337-5C582EC9D9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20268" yWindow="324" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="981">
   <si>
     <t>Company</t>
   </si>
@@ -2976,6 +2976,9 @@
   </si>
   <si>
     <t>05/17/2023</t>
+  </si>
+  <si>
+    <t>05/25/2023</t>
   </si>
 </sst>
 </file>
@@ -3069,7 +3072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3162,6 +3165,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3388,25 +3397,25 @@
   <dimension ref="A1:Z840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L361" sqref="L361"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L362" sqref="L362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.5" customWidth="1"/>
-    <col min="13" max="26" width="7.59765625" customWidth="1"/>
+    <col min="13" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3477,7 +3486,7 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="34">
         <v>52806</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3529,7 +3538,7 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="34">
         <v>52806</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -3581,7 +3590,7 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="34">
         <v>50317</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -3633,7 +3642,7 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="34">
         <v>52732</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -3685,7 +3694,7 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="34">
         <v>50309</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -3737,7 +3746,7 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="34">
         <v>52040</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -3789,7 +3798,7 @@
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="34">
         <v>52801</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -3841,7 +3850,7 @@
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="34">
         <v>50313</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -3893,7 +3902,7 @@
       <c r="E10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="35">
         <v>52243</v>
       </c>
       <c r="G10" s="28" t="s">
@@ -3945,7 +3954,7 @@
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="34">
         <v>50131</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -3997,7 +4006,7 @@
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="34">
         <v>50323</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -4049,7 +4058,7 @@
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="34">
         <v>52404</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -4101,7 +4110,7 @@
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="34">
         <v>50310</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -4153,7 +4162,7 @@
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="34">
         <v>50310</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -4205,7 +4214,7 @@
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="34">
         <v>52241</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -4257,7 +4266,7 @@
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="34">
         <v>50436</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -4309,7 +4318,7 @@
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="34">
         <v>50662</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -4361,7 +4370,7 @@
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="34">
         <v>52002</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -4413,7 +4422,7 @@
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="34">
         <v>51111</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -4465,7 +4474,7 @@
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="34">
         <v>50266</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -4517,7 +4526,7 @@
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="34">
         <v>50131</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -4569,7 +4578,7 @@
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="34">
         <v>52001</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -4621,7 +4630,7 @@
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="34">
         <v>52807</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -4673,7 +4682,7 @@
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="34">
         <v>52310</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -4725,7 +4734,7 @@
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="34">
         <v>52241</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -4777,7 +4786,7 @@
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="34">
         <v>50266</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -4829,7 +4838,7 @@
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="34">
         <v>50595</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -4881,7 +4890,7 @@
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="34">
         <v>50022</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -4933,7 +4942,7 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="34">
         <v>50002</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -4985,7 +4994,7 @@
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="34">
         <v>51012</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -5037,7 +5046,7 @@
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="34">
         <v>50595</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -5089,7 +5098,7 @@
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="34">
         <v>51503</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -5141,7 +5150,7 @@
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="34">
         <v>50703</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -5193,7 +5202,7 @@
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="34">
         <v>52601</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -5245,7 +5254,7 @@
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="34">
         <v>50131</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -5297,7 +5306,7 @@
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="34">
         <v>50266</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -5349,7 +5358,7 @@
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="34">
         <v>50266</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -5401,7 +5410,7 @@
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="34">
         <v>50266</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -5453,7 +5462,7 @@
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="34">
         <v>50131</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -5505,7 +5514,7 @@
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="34">
         <v>50701</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -5557,7 +5566,7 @@
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="34">
         <v>51106</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -5609,7 +5618,7 @@
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="34">
         <v>51106</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -5661,7 +5670,7 @@
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="34">
         <v>51106</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -5713,7 +5722,7 @@
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="34">
         <v>50131</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -5765,7 +5774,7 @@
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="34">
         <v>50701</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -5817,7 +5826,7 @@
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="34">
         <v>50266</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -5869,7 +5878,7 @@
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="34">
         <v>52806</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -5921,7 +5930,7 @@
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="34">
         <v>52577</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -5973,7 +5982,7 @@
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="34">
         <v>50131</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -6025,7 +6034,7 @@
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="34">
         <v>50391</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -6077,7 +6086,7 @@
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="34">
         <v>50669</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -6129,7 +6138,7 @@
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="34">
         <v>50266</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -6181,7 +6190,7 @@
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="34">
         <v>52240</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -6233,7 +6242,7 @@
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="34">
         <v>50131</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -6285,7 +6294,7 @@
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="34">
         <v>50021</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -6337,7 +6346,7 @@
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="34">
         <v>50322</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -6389,7 +6398,7 @@
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="34">
         <v>52172</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -6441,7 +6450,7 @@
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="34">
         <v>50220</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -6493,7 +6502,7 @@
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="34">
         <v>52601</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -6545,7 +6554,7 @@
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="34">
         <v>51201</v>
       </c>
       <c r="G61" s="5" t="s">
@@ -6597,7 +6606,7 @@
       <c r="E62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="34">
         <v>50548</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -6649,7 +6658,7 @@
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="34">
         <v>50273</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -6701,7 +6710,7 @@
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="34">
         <v>51537</v>
       </c>
       <c r="G64" s="5" t="s">
@@ -6753,7 +6762,7 @@
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="34">
         <v>52040</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -6805,7 +6814,7 @@
       <c r="E66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="34">
         <v>52002</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -6857,7 +6866,7 @@
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="34">
         <v>51566</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -6909,7 +6918,7 @@
       <c r="E68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="34">
         <v>51104</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -6961,7 +6970,7 @@
       <c r="E69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="34">
         <v>50659</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -7013,7 +7022,7 @@
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="34">
         <v>50401</v>
       </c>
       <c r="G70" s="5" t="s">
@@ -7065,7 +7074,7 @@
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="34">
         <v>50131</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -7117,7 +7126,7 @@
       <c r="E72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="34">
         <v>52001</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -7169,7 +7178,7 @@
       <c r="E73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="34">
         <v>51247</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -7221,7 +7230,7 @@
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="34">
         <v>50322</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -7273,7 +7282,7 @@
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="34">
         <v>52001</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -7325,7 +7334,7 @@
       <c r="E76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="34">
         <v>50322</v>
       </c>
       <c r="G76" s="5" t="s">
@@ -7377,7 +7386,7 @@
       <c r="E77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="34">
         <v>50131</v>
       </c>
       <c r="G77" s="5" t="s">
@@ -7429,7 +7438,7 @@
       <c r="E78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="34">
         <v>51247</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -7481,7 +7490,7 @@
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="34">
         <v>50266</v>
       </c>
       <c r="G79" s="5" t="s">
@@ -7533,7 +7542,7 @@
       <c r="E80" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="34">
         <v>52806</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -7585,7 +7594,7 @@
       <c r="E81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="34">
         <v>50659</v>
       </c>
       <c r="G81" s="5" t="s">
@@ -7637,7 +7646,7 @@
       <c r="E82" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="34">
         <v>50322</v>
       </c>
       <c r="G82" s="5" t="s">
@@ -7689,7 +7698,7 @@
       <c r="E83" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="34">
         <v>50322</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -7741,7 +7750,7 @@
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="34">
         <v>50131</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -7793,7 +7802,7 @@
       <c r="E85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="34">
         <v>52641</v>
       </c>
       <c r="G85" s="5" t="s">
@@ -7845,7 +7854,7 @@
       <c r="E86" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="34">
         <v>52722</v>
       </c>
       <c r="G86" s="5" t="s">
@@ -7897,7 +7906,7 @@
       <c r="E87" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="34">
         <v>50266</v>
       </c>
       <c r="G87" s="5" t="s">
@@ -7949,7 +7958,7 @@
       <c r="E88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="34">
         <v>50616</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -8001,7 +8010,7 @@
       <c r="E89" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="34">
         <v>52730</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -8053,7 +8062,7 @@
       <c r="E90" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="34">
         <v>50702</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -8105,7 +8114,7 @@
       <c r="E91" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="34">
         <v>50322</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -8157,7 +8166,7 @@
       <c r="E92" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="34">
         <v>50265</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -8209,7 +8218,7 @@
       <c r="E93" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="34">
         <v>50266</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -8261,7 +8270,7 @@
       <c r="E94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="34">
         <v>52732</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -8313,7 +8322,7 @@
       <c r="E95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="34">
         <v>50266</v>
       </c>
       <c r="G95" s="5" t="s">
@@ -8365,7 +8374,7 @@
       <c r="E96" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="34">
         <v>52806</v>
       </c>
       <c r="G96" s="5" t="s">
@@ -8417,7 +8426,7 @@
       <c r="E97" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="34">
         <v>50266</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -8469,7 +8478,7 @@
       <c r="E98" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="34">
         <v>50309</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -8521,7 +8530,7 @@
       <c r="E99" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="34">
         <v>52730</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -8573,7 +8582,7 @@
       <c r="E100" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="34">
         <v>50266</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -8625,7 +8634,7 @@
       <c r="E101" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="34">
         <v>52404</v>
       </c>
       <c r="G101" s="5" t="s">
@@ -8677,7 +8686,7 @@
       <c r="E102" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="34">
         <v>50317</v>
       </c>
       <c r="G102" s="5" t="s">
@@ -8729,7 +8738,7 @@
       <c r="E103" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="34">
         <v>52243</v>
       </c>
       <c r="G103" s="5" t="s">
@@ -8781,7 +8790,7 @@
       <c r="E104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="34">
         <v>50401</v>
       </c>
       <c r="G104" s="5" t="s">
@@ -8833,7 +8842,7 @@
       <c r="E105" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="34">
         <v>52049</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -8885,7 +8894,7 @@
       <c r="E106" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="34">
         <v>52807</v>
       </c>
       <c r="G106" s="5" t="s">
@@ -8937,7 +8946,7 @@
       <c r="E107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="34">
         <v>52353</v>
       </c>
       <c r="G107" s="5" t="s">
@@ -8989,7 +8998,7 @@
       <c r="E108" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="34">
         <v>52205</v>
       </c>
       <c r="G108" s="5" t="s">
@@ -9041,7 +9050,7 @@
       <c r="E109" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="34">
         <v>50010</v>
       </c>
       <c r="G109" s="5" t="s">
@@ -9093,7 +9102,7 @@
       <c r="E110" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="34">
         <v>50266</v>
       </c>
       <c r="G110" s="5" t="s">
@@ -9145,7 +9154,7 @@
       <c r="E111" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="34">
         <v>52172</v>
       </c>
       <c r="G111" s="5" t="s">
@@ -9197,7 +9206,7 @@
       <c r="E112" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="34">
         <v>50606</v>
       </c>
       <c r="G112" s="5" t="s">
@@ -9249,7 +9258,7 @@
       <c r="E113" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="34">
         <v>50421</v>
       </c>
       <c r="G113" s="5" t="s">
@@ -9301,7 +9310,7 @@
       <c r="E114" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="34">
         <v>50616</v>
       </c>
       <c r="G114" s="5" t="s">
@@ -9353,7 +9362,7 @@
       <c r="E115" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="34">
         <v>50536</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -9405,7 +9414,7 @@
       <c r="E116" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="34">
         <v>50588</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -9457,7 +9466,7 @@
       <c r="E117" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="34">
         <v>50312</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -9509,7 +9518,7 @@
       <c r="E118" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="34">
         <v>50588</v>
       </c>
       <c r="G118" s="5" t="s">
@@ -9561,7 +9570,7 @@
       <c r="E119" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="34">
         <v>50313</v>
       </c>
       <c r="G119" s="5" t="s">
@@ -9613,7 +9622,7 @@
       <c r="E120" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="34">
         <v>50322</v>
       </c>
       <c r="G120" s="5" t="s">
@@ -9665,7 +9674,7 @@
       <c r="E121" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="34">
         <v>52807</v>
       </c>
       <c r="G121" s="5" t="s">
@@ -9717,7 +9726,7 @@
       <c r="E122" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="34">
         <v>50536</v>
       </c>
       <c r="G122" s="5" t="s">
@@ -9769,7 +9778,7 @@
       <c r="E123" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="34">
         <v>50313</v>
       </c>
       <c r="G123" s="5" t="s">
@@ -9821,7 +9830,7 @@
       <c r="E124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="34">
         <v>52411</v>
       </c>
       <c r="G124" s="5" t="s">
@@ -9873,7 +9882,7 @@
       <c r="E125" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="34">
         <v>52601</v>
       </c>
       <c r="G125" s="5" t="s">
@@ -9925,7 +9934,7 @@
       <c r="E126" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="34">
         <v>52001</v>
       </c>
       <c r="G126" s="5" t="s">
@@ -9977,7 +9986,7 @@
       <c r="E127" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="34">
         <v>50208</v>
       </c>
       <c r="G127" s="5" t="s">
@@ -10029,7 +10038,7 @@
       <c r="E128" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="34">
         <v>50613</v>
       </c>
       <c r="G128" s="5" t="s">
@@ -10081,7 +10090,7 @@
       <c r="E129" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="34">
         <v>50401</v>
       </c>
       <c r="G129" s="5" t="s">
@@ -10133,7 +10142,7 @@
       <c r="E130" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="34">
         <v>52003</v>
       </c>
       <c r="G130" s="5" t="s">
@@ -10185,7 +10194,7 @@
       <c r="E131" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="34">
         <v>50501</v>
       </c>
       <c r="G131" s="5" t="s">
@@ -10237,7 +10246,7 @@
       <c r="E132" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="34">
         <v>52411</v>
       </c>
       <c r="G132" s="5" t="s">
@@ -10289,7 +10298,7 @@
       <c r="E133" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="34">
         <v>52001</v>
       </c>
       <c r="G133" s="5" t="s">
@@ -10341,7 +10350,7 @@
       <c r="E134" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F134" s="28">
+      <c r="F134" s="35">
         <v>51566</v>
       </c>
       <c r="G134" s="28" t="s">
@@ -10393,7 +10402,7 @@
       <c r="E135" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135" s="34">
         <v>51501</v>
       </c>
       <c r="G135" s="5" t="s">
@@ -10445,7 +10454,7 @@
       <c r="E136" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136" s="34">
         <v>50311</v>
       </c>
       <c r="G136" s="5" t="s">
@@ -10497,7 +10506,7 @@
       <c r="E137" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137" s="34">
         <v>51601</v>
       </c>
       <c r="G137" s="5" t="s">
@@ -10549,7 +10558,7 @@
       <c r="E138" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="34">
         <v>52060</v>
       </c>
       <c r="G138" s="5" t="s">
@@ -10601,7 +10610,7 @@
       <c r="E139" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139" s="34">
         <v>50450</v>
       </c>
       <c r="G139" s="5" t="s">
@@ -10653,7 +10662,7 @@
       <c r="E140" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140" s="34">
         <v>50436</v>
       </c>
       <c r="G140" s="5" t="s">
@@ -10705,7 +10714,7 @@
       <c r="E141" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F141" s="34">
         <v>50616</v>
       </c>
       <c r="G141" s="5" t="s">
@@ -10757,7 +10766,7 @@
       <c r="E142" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142" s="34">
         <v>52732</v>
       </c>
       <c r="G142" s="5" t="s">
@@ -10809,7 +10818,7 @@
       <c r="E143" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="34">
         <v>52001</v>
       </c>
       <c r="G143" s="5" t="s">
@@ -10861,7 +10870,7 @@
       <c r="E144" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="34">
         <v>50021</v>
       </c>
       <c r="G144" s="5" t="s">
@@ -10913,7 +10922,7 @@
       <c r="E145" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F145" s="34">
         <v>50677</v>
       </c>
       <c r="G145" s="5" t="s">
@@ -10965,7 +10974,7 @@
       <c r="E146" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F146" s="28">
+      <c r="F146" s="35">
         <v>50536</v>
       </c>
       <c r="G146" s="28" t="s">
@@ -11017,7 +11026,7 @@
       <c r="E147" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F147" s="28">
+      <c r="F147" s="35">
         <v>52748</v>
       </c>
       <c r="G147" s="28" t="s">
@@ -11069,7 +11078,7 @@
       <c r="E148" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="34">
         <v>52057</v>
       </c>
       <c r="G148" s="5" t="s">
@@ -11121,7 +11130,7 @@
       <c r="E149" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F149" s="34">
         <v>52001</v>
       </c>
       <c r="G149" s="5" t="s">
@@ -11173,7 +11182,7 @@
       <c r="E150" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F150" s="34">
         <v>50459</v>
       </c>
       <c r="G150" s="5" t="s">
@@ -11225,7 +11234,7 @@
       <c r="E151" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151" s="34">
         <v>52404</v>
       </c>
       <c r="G151" s="5" t="s">
@@ -11277,7 +11286,7 @@
       <c r="E152" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152" s="34">
         <v>51041</v>
       </c>
       <c r="G152" s="5" t="s">
@@ -11329,7 +11338,7 @@
       <c r="E153" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F153" s="34">
         <v>52732</v>
       </c>
       <c r="G153" s="5" t="s">
@@ -11381,7 +11390,7 @@
       <c r="E154" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154" s="34">
         <v>50129</v>
       </c>
       <c r="G154" s="5" t="s">
@@ -11433,7 +11442,7 @@
       <c r="E155" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F155" s="34">
         <v>50536</v>
       </c>
       <c r="G155" s="5" t="s">
@@ -11485,7 +11494,7 @@
       <c r="E156" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F156" s="34">
         <v>52722</v>
       </c>
       <c r="G156" s="5" t="s">
@@ -11537,7 +11546,7 @@
       <c r="E157" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F157" s="5">
+      <c r="F157" s="34">
         <v>51501</v>
       </c>
       <c r="G157" s="5" t="s">
@@ -11589,7 +11598,7 @@
       <c r="E158" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F158" s="34">
         <v>50391</v>
       </c>
       <c r="G158" s="5" t="s">
@@ -11641,7 +11650,7 @@
       <c r="E159" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F159" s="34">
         <v>50111</v>
       </c>
       <c r="G159" s="5" t="s">
@@ -11693,7 +11702,7 @@
       <c r="E160" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F160" s="34">
         <v>52243</v>
       </c>
       <c r="G160" s="5" t="s">
@@ -11745,7 +11754,7 @@
       <c r="E161" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F161" s="34">
         <v>50021</v>
       </c>
       <c r="G161" s="5" t="s">
@@ -11797,7 +11806,7 @@
       <c r="E162" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F162" s="34">
         <v>52807</v>
       </c>
       <c r="G162" s="5" t="s">
@@ -11849,7 +11858,7 @@
       <c r="E163" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F163" s="34">
         <v>50704</v>
       </c>
       <c r="G163" s="5" t="s">
@@ -11901,7 +11910,7 @@
       <c r="E164" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F164" s="34">
         <v>52233</v>
       </c>
       <c r="G164" s="5" t="s">
@@ -11953,7 +11962,7 @@
       <c r="E165" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F165" s="34">
         <v>52001</v>
       </c>
       <c r="G165" s="5" t="s">
@@ -12005,7 +12014,7 @@
       <c r="E166" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F166" s="34">
         <v>50309</v>
       </c>
       <c r="G166" s="5" t="s">
@@ -12057,7 +12066,7 @@
       <c r="E167" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F167" s="34">
         <v>50309</v>
       </c>
       <c r="G167" s="5" t="s">
@@ -12109,7 +12118,7 @@
       <c r="E168" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F168" s="34">
         <v>52004</v>
       </c>
       <c r="G168" s="5" t="s">
@@ -12161,7 +12170,7 @@
       <c r="E169" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F169" s="34">
         <v>52498</v>
       </c>
       <c r="G169" s="5" t="s">
@@ -12213,7 +12222,7 @@
       <c r="E170" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F170" s="34">
         <v>50111</v>
       </c>
       <c r="G170" s="5" t="s">
@@ -12265,7 +12274,7 @@
       <c r="E171" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F171" s="34">
         <v>52627</v>
       </c>
       <c r="G171" s="5" t="s">
@@ -12785,7 +12794,7 @@
       <c r="E181" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F181" s="5">
+      <c r="F181" s="34">
         <v>50391</v>
       </c>
       <c r="G181" s="5" t="s">
@@ -20967,7 +20976,7 @@
       <c r="K338" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="L338" s="34" t="s">
+      <c r="L338" s="36" t="s">
         <v>924</v>
       </c>
       <c r="M338" s="15"/>
@@ -21487,7 +21496,7 @@
       <c r="K348" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="L348" s="34" t="s">
+      <c r="L348" s="36" t="s">
         <v>924</v>
       </c>
       <c r="M348" s="15"/>
@@ -21539,7 +21548,7 @@
       <c r="K349" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="L349" s="35" t="s">
+      <c r="L349" s="37" t="s">
         <v>395</v>
       </c>
       <c r="M349" s="15"/>
@@ -21796,7 +21805,7 @@
       <c r="J354" s="10">
         <v>45108</v>
       </c>
-      <c r="K354" s="36" t="s">
+      <c r="K354" s="38" t="s">
         <v>19</v>
       </c>
       <c r="L354" s="15" t="s">
@@ -21848,7 +21857,7 @@
       <c r="J355" s="10">
         <v>45108</v>
       </c>
-      <c r="K355" s="36" t="s">
+      <c r="K355" s="38" t="s">
         <v>19</v>
       </c>
       <c r="L355" s="15" t="s">
@@ -21900,7 +21909,7 @@
       <c r="J356" s="10">
         <v>45108</v>
       </c>
-      <c r="K356" s="36" t="s">
+      <c r="K356" s="38" t="s">
         <v>19</v>
       </c>
       <c r="L356" s="15" t="s">
@@ -22182,18 +22191,42 @@
       <c r="Z361" s="15"/>
     </row>
     <row r="362" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A362" s="23"/>
-      <c r="B362" s="15"/>
-      <c r="C362" s="15"/>
-      <c r="D362" s="15"/>
-      <c r="E362" s="15"/>
-      <c r="F362" s="15"/>
-      <c r="G362" s="15"/>
-      <c r="H362" s="15"/>
-      <c r="I362" s="16"/>
-      <c r="J362" s="15"/>
-      <c r="K362" s="15"/>
-      <c r="L362" s="15"/>
+      <c r="A362" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="B362" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="C362" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="D362" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E362" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="F362" s="15">
+        <v>52142</v>
+      </c>
+      <c r="G362" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="H362" s="15">
+        <v>13</v>
+      </c>
+      <c r="I362" s="16" t="s">
+        <v>980</v>
+      </c>
+      <c r="J362" s="10">
+        <v>45070</v>
+      </c>
+      <c r="K362" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="L362" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="M362" s="15"/>
       <c r="N362" s="15"/>
       <c r="O362" s="15"/>
@@ -35594,7 +35627,6 @@
       <c r="Z840" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z357" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B416CD0-D466-4C91-B8F8-6B28D3EC5406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2667178-79F3-465A-AA39-5213A70B4928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="982">
   <si>
     <t>Company</t>
   </si>
@@ -2965,6 +2965,24 @@
   </si>
   <si>
     <t>07/05/2023</t>
+  </si>
+  <si>
+    <t>Fellers, LLC</t>
+  </si>
+  <si>
+    <t>4461 121st St</t>
+  </si>
+  <si>
+    <t>06/28/2023</t>
+  </si>
+  <si>
+    <t>All Trego/Dugan Aviation of Grand Island, Inc</t>
+  </si>
+  <si>
+    <t>5300 Fleur Dr</t>
+  </si>
+  <si>
+    <t>07/06/2023</t>
   </si>
 </sst>
 </file>
@@ -3058,7 +3076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3163,6 +3181,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3387,7 +3417,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L359" sqref="L359"/>
+      <selection pane="bottomLeft" activeCell="L361" sqref="L361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -20308,34 +20338,34 @@
       <c r="Z325" s="15"/>
     </row>
     <row r="326" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A326" s="23" t="s">
+      <c r="A326" s="40" t="s">
         <v>893</v>
       </c>
-      <c r="B326" s="15" t="s">
+      <c r="B326" s="41" t="s">
         <v>894</v>
       </c>
-      <c r="C326" s="15" t="s">
+      <c r="C326" s="41" t="s">
         <v>895</v>
       </c>
-      <c r="D326" s="15" t="s">
+      <c r="D326" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="E326" s="15" t="s">
+      <c r="E326" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F326" s="15">
+      <c r="F326" s="41">
         <v>50322</v>
       </c>
-      <c r="G326" s="15" t="s">
+      <c r="G326" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H326" s="15">
+      <c r="H326" s="41">
         <v>46</v>
       </c>
-      <c r="I326" s="16" t="s">
+      <c r="I326" s="42" t="s">
         <v>897</v>
       </c>
-      <c r="J326" s="10">
+      <c r="J326" s="43">
         <v>45058</v>
       </c>
       <c r="K326" s="15" t="s">
@@ -20360,34 +20390,34 @@
       <c r="Z326" s="15"/>
     </row>
     <row r="327" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A327" s="23" t="s">
+      <c r="A327" s="40" t="s">
         <v>899</v>
       </c>
-      <c r="B327" s="15" t="s">
+      <c r="B327" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="C327" s="15" t="s">
+      <c r="C327" s="41" t="s">
         <v>901</v>
       </c>
-      <c r="D327" s="15" t="s">
+      <c r="D327" s="41" t="s">
         <v>902</v>
       </c>
-      <c r="E327" s="15" t="s">
+      <c r="E327" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F327" s="15">
+      <c r="F327" s="41">
         <v>50112</v>
       </c>
-      <c r="G327" s="15" t="s">
+      <c r="G327" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H327" s="15">
+      <c r="H327" s="41">
         <v>54</v>
       </c>
-      <c r="I327" s="16" t="s">
+      <c r="I327" s="42" t="s">
         <v>903</v>
       </c>
-      <c r="J327" s="10">
+      <c r="J327" s="43">
         <v>45052</v>
       </c>
       <c r="K327" s="15" t="s">
@@ -20412,34 +20442,34 @@
       <c r="Z327" s="15"/>
     </row>
     <row r="328" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A328" s="23" t="s">
+      <c r="A328" s="40" t="s">
         <v>904</v>
       </c>
-      <c r="B328" s="15" t="s">
+      <c r="B328" s="41" t="s">
         <v>830</v>
       </c>
-      <c r="C328" s="15" t="s">
+      <c r="C328" s="41" t="s">
         <v>905</v>
       </c>
-      <c r="D328" s="15" t="s">
+      <c r="D328" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="E328" s="15" t="s">
+      <c r="E328" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F328" s="15">
+      <c r="F328" s="41">
         <v>52245</v>
       </c>
-      <c r="G328" s="15" t="s">
+      <c r="G328" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H328" s="15">
+      <c r="H328" s="41">
         <v>17</v>
       </c>
-      <c r="I328" s="16" t="s">
+      <c r="I328" s="42" t="s">
         <v>907</v>
       </c>
-      <c r="J328" s="10">
+      <c r="J328" s="43">
         <v>45016</v>
       </c>
       <c r="K328" s="15" t="s">
@@ -20464,34 +20494,34 @@
       <c r="Z328" s="15"/>
     </row>
     <row r="329" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A329" s="23" t="s">
+      <c r="A329" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="B329" s="15" t="s">
+      <c r="B329" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="C329" s="15" t="s">
+      <c r="C329" s="41" t="s">
         <v>735</v>
       </c>
-      <c r="D329" s="15" t="s">
+      <c r="D329" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E329" s="15" t="s">
+      <c r="E329" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F329" s="15">
+      <c r="F329" s="41">
         <v>50325</v>
       </c>
-      <c r="G329" s="15" t="s">
+      <c r="G329" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H329" s="15">
+      <c r="H329" s="41">
         <v>29</v>
       </c>
-      <c r="I329" s="16" t="s">
+      <c r="I329" s="42" t="s">
         <v>911</v>
       </c>
-      <c r="J329" s="10">
+      <c r="J329" s="43">
         <v>45089</v>
       </c>
       <c r="K329" s="15" t="s">
@@ -20516,34 +20546,34 @@
       <c r="Z329" s="15"/>
     </row>
     <row r="330" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A330" s="23" t="s">
+      <c r="A330" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="B330" s="15" t="s">
+      <c r="B330" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="C330" s="15" t="s">
+      <c r="C330" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="D330" s="15" t="s">
+      <c r="D330" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="E330" s="15" t="s">
+      <c r="E330" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F330" s="15">
+      <c r="F330" s="41">
         <v>52302</v>
       </c>
-      <c r="G330" s="15" t="s">
+      <c r="G330" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H330" s="15">
+      <c r="H330" s="41">
         <v>26</v>
       </c>
-      <c r="I330" s="16" t="s">
+      <c r="I330" s="42" t="s">
         <v>911</v>
       </c>
-      <c r="J330" s="10">
+      <c r="J330" s="43">
         <v>45089</v>
       </c>
       <c r="K330" s="15" t="s">
@@ -20568,34 +20598,34 @@
       <c r="Z330" s="15"/>
     </row>
     <row r="331" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="B331" s="15" t="s">
+      <c r="B331" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="C331" s="15" t="s">
+      <c r="C331" s="41" t="s">
         <v>916</v>
       </c>
-      <c r="D331" s="15" t="s">
+      <c r="D331" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="E331" s="15" t="s">
+      <c r="E331" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F331" s="15">
+      <c r="F331" s="41">
         <v>51106</v>
       </c>
-      <c r="G331" s="15" t="s">
+      <c r="G331" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H331" s="15">
+      <c r="H331" s="41">
         <v>17</v>
       </c>
-      <c r="I331" s="16" t="s">
+      <c r="I331" s="42" t="s">
         <v>911</v>
       </c>
-      <c r="J331" s="10">
+      <c r="J331" s="43">
         <v>45089</v>
       </c>
       <c r="K331" s="15" t="s">
@@ -20620,34 +20650,34 @@
       <c r="Z331" s="15"/>
     </row>
     <row r="332" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A332" s="23" t="s">
+      <c r="A332" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="B332" s="15" t="s">
+      <c r="B332" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="C332" s="15" t="s">
+      <c r="C332" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="D332" s="15" t="s">
+      <c r="D332" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="E332" s="15" t="s">
+      <c r="E332" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F332" s="15">
+      <c r="F332" s="41">
         <v>52807</v>
       </c>
-      <c r="G332" s="15" t="s">
+      <c r="G332" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H332" s="15">
+      <c r="H332" s="41">
         <v>22</v>
       </c>
-      <c r="I332" s="16" t="s">
+      <c r="I332" s="42" t="s">
         <v>911</v>
       </c>
-      <c r="J332" s="10">
+      <c r="J332" s="43">
         <v>45089</v>
       </c>
       <c r="K332" s="15" t="s">
@@ -20672,34 +20702,34 @@
       <c r="Z332" s="15"/>
     </row>
     <row r="333" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A333" s="23" t="s">
+      <c r="A333" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="B333" s="15" t="s">
+      <c r="B333" s="41" t="s">
         <v>922</v>
       </c>
-      <c r="C333" s="15" t="s">
+      <c r="C333" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D333" s="15" t="s">
+      <c r="D333" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="E333" s="15" t="s">
+      <c r="E333" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F333" s="15">
+      <c r="F333" s="41">
         <v>50309</v>
       </c>
-      <c r="G333" s="15" t="s">
+      <c r="G333" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H333" s="15">
+      <c r="H333" s="41">
         <v>69</v>
       </c>
-      <c r="I333" s="16" t="s">
+      <c r="I333" s="42" t="s">
         <v>923</v>
       </c>
-      <c r="J333" s="10">
+      <c r="J333" s="43">
         <v>45034</v>
       </c>
       <c r="K333" s="15" t="s">
@@ -20724,34 +20754,34 @@
       <c r="Z333" s="15"/>
     </row>
     <row r="334" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A334" s="23" t="s">
+      <c r="A334" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="B334" s="15" t="s">
+      <c r="B334" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="C334" s="15" t="s">
+      <c r="C334" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D334" s="15" t="s">
+      <c r="D334" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="E334" s="15" t="s">
+      <c r="E334" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F334" s="15">
+      <c r="F334" s="41">
         <v>50309</v>
       </c>
-      <c r="G334" s="15" t="s">
+      <c r="G334" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H334" s="15">
+      <c r="H334" s="41">
         <v>8</v>
       </c>
-      <c r="I334" s="16" t="s">
+      <c r="I334" s="42" t="s">
         <v>923</v>
       </c>
-      <c r="J334" s="10">
+      <c r="J334" s="43">
         <v>45034</v>
       </c>
       <c r="K334" s="15" t="s">
@@ -20776,34 +20806,34 @@
       <c r="Z334" s="15"/>
     </row>
     <row r="335" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A335" s="23" t="s">
+      <c r="A335" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="B335" s="15" t="s">
+      <c r="B335" s="41" t="s">
         <v>676</v>
       </c>
-      <c r="C335" s="15" t="s">
+      <c r="C335" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D335" s="15" t="s">
+      <c r="D335" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="E335" s="15" t="s">
+      <c r="E335" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F335" s="15">
+      <c r="F335" s="41">
         <v>50309</v>
       </c>
-      <c r="G335" s="15" t="s">
+      <c r="G335" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H335" s="15">
+      <c r="H335" s="41">
         <v>1</v>
       </c>
-      <c r="I335" s="16" t="s">
+      <c r="I335" s="42" t="s">
         <v>923</v>
       </c>
-      <c r="J335" s="10">
+      <c r="J335" s="43">
         <v>45034</v>
       </c>
       <c r="K335" s="15" t="s">
@@ -20828,34 +20858,34 @@
       <c r="Z335" s="15"/>
     </row>
     <row r="336" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="40" t="s">
         <v>893</v>
       </c>
-      <c r="B336" s="15" t="s">
+      <c r="B336" s="41" t="s">
         <v>894</v>
       </c>
-      <c r="C336" s="15" t="s">
+      <c r="C336" s="41" t="s">
         <v>895</v>
       </c>
-      <c r="D336" s="15" t="s">
+      <c r="D336" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="E336" s="15" t="s">
+      <c r="E336" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F336" s="15">
+      <c r="F336" s="41">
         <v>50322</v>
       </c>
-      <c r="G336" s="15" t="s">
+      <c r="G336" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H336" s="15">
+      <c r="H336" s="41">
         <v>1</v>
       </c>
-      <c r="I336" s="16" t="s">
+      <c r="I336" s="42" t="s">
         <v>924</v>
       </c>
-      <c r="J336" s="10">
+      <c r="J336" s="43">
         <v>45079</v>
       </c>
       <c r="K336" s="15" t="s">
@@ -20880,34 +20910,34 @@
       <c r="Z336" s="15"/>
     </row>
     <row r="337" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A337" s="23" t="s">
+      <c r="A337" s="40" t="s">
         <v>829</v>
       </c>
-      <c r="B337" s="15" t="s">
+      <c r="B337" s="41" t="s">
         <v>925</v>
       </c>
-      <c r="C337" s="15" t="s">
+      <c r="C337" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="D337" s="15" t="s">
+      <c r="D337" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="E337" s="15" t="s">
+      <c r="E337" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F337" s="15">
+      <c r="F337" s="41">
         <v>52404</v>
       </c>
-      <c r="G337" s="15" t="s">
+      <c r="G337" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H337" s="15">
+      <c r="H337" s="41">
         <v>37</v>
       </c>
-      <c r="I337" s="16" t="s">
+      <c r="I337" s="42" t="s">
         <v>926</v>
       </c>
-      <c r="J337" s="10">
+      <c r="J337" s="43">
         <v>45078</v>
       </c>
       <c r="K337" s="15" t="s">
@@ -20932,34 +20962,34 @@
       <c r="Z337" s="15"/>
     </row>
     <row r="338" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A338" s="23" t="s">
+      <c r="A338" s="40" t="s">
         <v>850</v>
       </c>
-      <c r="B338" s="15" t="s">
+      <c r="B338" s="41" t="s">
         <v>851</v>
       </c>
-      <c r="C338" s="15" t="s">
+      <c r="C338" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="D338" s="15" t="s">
+      <c r="D338" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="E338" s="15" t="s">
+      <c r="E338" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F338" s="15">
+      <c r="F338" s="41">
         <v>52233</v>
       </c>
-      <c r="G338" s="15" t="s">
+      <c r="G338" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H338" s="15">
+      <c r="H338" s="41">
         <v>1</v>
       </c>
-      <c r="I338" s="16" t="s">
+      <c r="I338" s="42" t="s">
         <v>926</v>
       </c>
-      <c r="J338" s="10">
+      <c r="J338" s="43">
         <v>45047</v>
       </c>
       <c r="K338" s="15" t="s">
@@ -20984,34 +21014,34 @@
       <c r="Z338" s="15"/>
     </row>
     <row r="339" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A339" s="23" t="s">
+      <c r="A339" s="40" t="s">
         <v>927</v>
       </c>
-      <c r="B339" s="15" t="s">
+      <c r="B339" s="41" t="s">
         <v>928</v>
       </c>
-      <c r="C339" s="15" t="s">
+      <c r="C339" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="D339" s="15" t="s">
+      <c r="D339" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="E339" s="15" t="s">
+      <c r="E339" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F339" s="15">
+      <c r="F339" s="41">
         <v>52339</v>
       </c>
-      <c r="G339" s="15" t="s">
+      <c r="G339" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="H339" s="15">
+      <c r="H339" s="41">
         <v>85</v>
       </c>
-      <c r="I339" s="16" t="s">
+      <c r="I339" s="42" t="s">
         <v>929</v>
       </c>
-      <c r="J339" s="10">
+      <c r="J339" s="43">
         <v>45079</v>
       </c>
       <c r="K339" s="15" t="s">
@@ -21036,34 +21066,34 @@
       <c r="Z339" s="15"/>
     </row>
     <row r="340" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A340" s="23" t="s">
+      <c r="A340" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="B340" s="15" t="s">
+      <c r="B340" s="41" t="s">
         <v>932</v>
       </c>
-      <c r="C340" s="15" t="s">
+      <c r="C340" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D340" s="15" t="s">
+      <c r="D340" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E340" s="15" t="s">
+      <c r="E340" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F340" s="15">
+      <c r="F340" s="41">
         <v>52002</v>
       </c>
-      <c r="G340" s="15" t="s">
+      <c r="G340" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H340" s="15">
+      <c r="H340" s="41">
         <v>10</v>
       </c>
-      <c r="I340" s="16" t="s">
+      <c r="I340" s="42" t="s">
         <v>933</v>
       </c>
-      <c r="J340" s="10">
+      <c r="J340" s="43">
         <v>45108</v>
       </c>
       <c r="K340" s="15" t="s">
@@ -21088,34 +21118,34 @@
       <c r="Z340" s="15"/>
     </row>
     <row r="341" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A341" s="23" t="s">
+      <c r="A341" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="B341" s="15" t="s">
+      <c r="B341" s="41" t="s">
         <v>934</v>
       </c>
-      <c r="C341" s="15" t="s">
+      <c r="C341" s="41" t="s">
         <v>935</v>
       </c>
-      <c r="D341" s="15" t="s">
+      <c r="D341" s="41" t="s">
         <v>935</v>
       </c>
-      <c r="E341" s="15" t="s">
+      <c r="E341" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F341" s="15">
+      <c r="F341" s="41">
         <v>53732</v>
       </c>
-      <c r="G341" s="15" t="s">
+      <c r="G341" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H341" s="15">
+      <c r="H341" s="41">
         <v>5</v>
       </c>
-      <c r="I341" s="16" t="s">
+      <c r="I341" s="42" t="s">
         <v>933</v>
       </c>
-      <c r="J341" s="10">
+      <c r="J341" s="43">
         <v>45108</v>
       </c>
       <c r="K341" s="15" t="s">
@@ -21140,34 +21170,34 @@
       <c r="Z341" s="15"/>
     </row>
     <row r="342" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A342" s="23" t="s">
+      <c r="A342" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="B342" s="15" t="s">
+      <c r="B342" s="41" t="s">
         <v>936</v>
       </c>
-      <c r="C342" s="15" t="s">
+      <c r="C342" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D342" s="15" t="s">
+      <c r="D342" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E342" s="15" t="s">
+      <c r="E342" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F342" s="15">
+      <c r="F342" s="41">
         <v>52803</v>
       </c>
-      <c r="G342" s="15" t="s">
+      <c r="G342" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H342" s="15">
+      <c r="H342" s="41">
         <v>20</v>
       </c>
-      <c r="I342" s="16" t="s">
+      <c r="I342" s="42" t="s">
         <v>933</v>
       </c>
-      <c r="J342" s="10">
+      <c r="J342" s="43">
         <v>45108</v>
       </c>
       <c r="K342" s="38" t="s">
@@ -21192,34 +21222,34 @@
       <c r="Z342" s="15"/>
     </row>
     <row r="343" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A343" s="23" t="s">
+      <c r="A343" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="B343" s="15" t="s">
+      <c r="B343" s="41" t="s">
         <v>937</v>
       </c>
-      <c r="C343" s="15" t="s">
+      <c r="C343" s="41" t="s">
         <v>938</v>
       </c>
-      <c r="D343" s="15" t="s">
+      <c r="D343" s="41" t="s">
         <v>938</v>
       </c>
-      <c r="E343" s="15" t="s">
+      <c r="E343" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F343" s="15">
+      <c r="F343" s="41">
         <v>52761</v>
       </c>
-      <c r="G343" s="15" t="s">
+      <c r="G343" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H343" s="15">
+      <c r="H343" s="41">
         <v>7</v>
       </c>
-      <c r="I343" s="16" t="s">
+      <c r="I343" s="42" t="s">
         <v>933</v>
       </c>
-      <c r="J343" s="10">
+      <c r="J343" s="43">
         <v>45108</v>
       </c>
       <c r="K343" s="38" t="s">
@@ -21244,34 +21274,34 @@
       <c r="Z343" s="15"/>
     </row>
     <row r="344" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A344" s="23" t="s">
+      <c r="A344" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="B344" s="15" t="s">
+      <c r="B344" s="41" t="s">
         <v>939</v>
       </c>
-      <c r="C344" s="15" t="s">
+      <c r="C344" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="D344" s="15" t="s">
+      <c r="D344" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="E344" s="15" t="s">
+      <c r="E344" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F344" s="15">
+      <c r="F344" s="41">
         <v>52601</v>
       </c>
-      <c r="G344" s="15" t="s">
+      <c r="G344" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H344" s="15">
+      <c r="H344" s="41">
         <v>19</v>
       </c>
-      <c r="I344" s="16" t="s">
+      <c r="I344" s="42" t="s">
         <v>933</v>
       </c>
-      <c r="J344" s="10">
+      <c r="J344" s="43">
         <v>45108</v>
       </c>
       <c r="K344" s="38" t="s">
@@ -21296,34 +21326,34 @@
       <c r="Z344" s="15"/>
     </row>
     <row r="345" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A345" s="23" t="s">
+      <c r="A345" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="B345" s="15" t="s">
+      <c r="B345" s="41" t="s">
         <v>940</v>
       </c>
-      <c r="C345" s="15" t="s">
+      <c r="C345" s="41" t="s">
         <v>941</v>
       </c>
-      <c r="D345" s="15" t="s">
+      <c r="D345" s="41" t="s">
         <v>942</v>
       </c>
-      <c r="E345" s="15" t="s">
+      <c r="E345" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F345" s="15">
+      <c r="F345" s="41">
         <v>50677</v>
       </c>
-      <c r="G345" s="15" t="s">
+      <c r="G345" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H345" s="15">
+      <c r="H345" s="41">
         <v>3</v>
       </c>
-      <c r="I345" s="16" t="s">
+      <c r="I345" s="42" t="s">
         <v>933</v>
       </c>
-      <c r="J345" s="10">
+      <c r="J345" s="43">
         <v>45108</v>
       </c>
       <c r="K345" s="15" t="s">
@@ -21348,34 +21378,34 @@
       <c r="Z345" s="15"/>
     </row>
     <row r="346" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A346" s="23" t="s">
+      <c r="A346" s="40" t="s">
         <v>943</v>
       </c>
-      <c r="B346" s="15" t="s">
+      <c r="B346" s="41" t="s">
         <v>944</v>
       </c>
-      <c r="C346" s="15" t="s">
+      <c r="C346" s="41" t="s">
         <v>945</v>
       </c>
-      <c r="D346" s="15" t="s">
+      <c r="D346" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E346" s="15" t="s">
+      <c r="E346" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F346" s="15">
+      <c r="F346" s="41">
         <v>52142</v>
       </c>
-      <c r="G346" s="15" t="s">
+      <c r="G346" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H346" s="15">
+      <c r="H346" s="41">
         <v>21</v>
       </c>
-      <c r="I346" s="16" t="s">
+      <c r="I346" s="42" t="s">
         <v>946</v>
       </c>
-      <c r="J346" s="10">
+      <c r="J346" s="43">
         <v>45056</v>
       </c>
       <c r="K346" s="15" t="s">
@@ -21400,34 +21430,34 @@
       <c r="Z346" s="15"/>
     </row>
     <row r="347" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A347" s="23" t="s">
+      <c r="A347" s="40" t="s">
         <v>943</v>
       </c>
-      <c r="B347" s="15" t="s">
+      <c r="B347" s="41" t="s">
         <v>944</v>
       </c>
-      <c r="C347" s="15" t="s">
+      <c r="C347" s="41" t="s">
         <v>945</v>
       </c>
-      <c r="D347" s="15" t="s">
+      <c r="D347" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E347" s="15" t="s">
+      <c r="E347" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F347" s="15">
+      <c r="F347" s="41">
         <v>52142</v>
       </c>
-      <c r="G347" s="15" t="s">
+      <c r="G347" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H347" s="15">
+      <c r="H347" s="41">
         <v>1</v>
       </c>
-      <c r="I347" s="16" t="s">
+      <c r="I347" s="42" t="s">
         <v>947</v>
       </c>
-      <c r="J347" s="10">
+      <c r="J347" s="43">
         <v>45057</v>
       </c>
       <c r="K347" s="15" t="s">
@@ -21452,34 +21482,34 @@
       <c r="Z347" s="15"/>
     </row>
     <row r="348" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A348" s="23" t="s">
+      <c r="A348" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="B348" s="15" t="s">
+      <c r="B348" s="41" t="s">
         <v>948</v>
       </c>
-      <c r="C348" s="15" t="s">
+      <c r="C348" s="41" t="s">
         <v>779</v>
       </c>
-      <c r="D348" s="15" t="s">
+      <c r="D348" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E348" s="15" t="s">
+      <c r="E348" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F348" s="15">
+      <c r="F348" s="41">
         <v>50266</v>
       </c>
-      <c r="G348" s="15" t="s">
+      <c r="G348" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H348" s="15">
+      <c r="H348" s="41">
         <v>25</v>
       </c>
-      <c r="I348" s="16" t="s">
+      <c r="I348" s="42" t="s">
         <v>949</v>
       </c>
-      <c r="J348" s="10">
+      <c r="J348" s="43">
         <v>45061</v>
       </c>
       <c r="K348" s="15" t="s">
@@ -21504,34 +21534,34 @@
       <c r="Z348" s="15"/>
     </row>
     <row r="349" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A349" s="23" t="s">
+      <c r="A349" s="40" t="s">
         <v>951</v>
       </c>
-      <c r="B349" s="15" t="s">
+      <c r="B349" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="C349" s="15" t="s">
+      <c r="C349" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D349" s="15" t="s">
+      <c r="D349" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E349" s="15" t="s">
+      <c r="E349" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F349" s="15">
+      <c r="F349" s="41">
         <v>52243</v>
       </c>
-      <c r="G349" s="15" t="s">
+      <c r="G349" s="41" t="s">
         <v>952</v>
       </c>
-      <c r="H349" s="15">
+      <c r="H349" s="41">
         <v>106</v>
       </c>
-      <c r="I349" s="16" t="s">
+      <c r="I349" s="42" t="s">
         <v>953</v>
       </c>
-      <c r="J349" s="10">
+      <c r="J349" s="43">
         <v>45096</v>
       </c>
       <c r="K349" s="15" t="s">
@@ -21556,34 +21586,34 @@
       <c r="Z349" s="15"/>
     </row>
     <row r="350" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A350" s="23" t="s">
+      <c r="A350" s="40" t="s">
         <v>943</v>
       </c>
-      <c r="B350" s="15" t="s">
+      <c r="B350" s="41" t="s">
         <v>944</v>
       </c>
-      <c r="C350" s="15" t="s">
+      <c r="C350" s="41" t="s">
         <v>945</v>
       </c>
-      <c r="D350" s="15" t="s">
+      <c r="D350" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E350" s="15" t="s">
+      <c r="E350" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F350" s="15">
+      <c r="F350" s="41">
         <v>52142</v>
       </c>
-      <c r="G350" s="15" t="s">
+      <c r="G350" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H350" s="15">
+      <c r="H350" s="41">
         <v>13</v>
       </c>
-      <c r="I350" s="16" t="s">
+      <c r="I350" s="42" t="s">
         <v>954</v>
       </c>
-      <c r="J350" s="10">
+      <c r="J350" s="43">
         <v>45070</v>
       </c>
       <c r="K350" s="15" t="s">
@@ -21608,34 +21638,34 @@
       <c r="Z350" s="15"/>
     </row>
     <row r="351" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A351" s="23" t="s">
+      <c r="A351" s="40" t="s">
         <v>955</v>
       </c>
-      <c r="B351" s="15" t="s">
+      <c r="B351" s="41" t="s">
         <v>956</v>
       </c>
-      <c r="C351" s="15" t="s">
+      <c r="C351" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="D351" s="15" t="s">
+      <c r="D351" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E351" s="15" t="s">
+      <c r="E351" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F351" s="15">
+      <c r="F351" s="41">
         <v>51106</v>
       </c>
-      <c r="G351" s="15" t="s">
+      <c r="G351" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="H351" s="15">
+      <c r="H351" s="41">
         <v>92</v>
       </c>
-      <c r="I351" s="16" t="s">
+      <c r="I351" s="42" t="s">
         <v>958</v>
       </c>
-      <c r="J351" s="10">
+      <c r="J351" s="43">
         <v>45107</v>
       </c>
       <c r="K351" s="15" t="s">
@@ -21660,34 +21690,34 @@
       <c r="Z351" s="15"/>
     </row>
     <row r="352" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A352" s="23" t="s">
+      <c r="A352" s="40" t="s">
         <v>959</v>
       </c>
-      <c r="B352" s="15" t="s">
+      <c r="B352" s="41" t="s">
         <v>960</v>
       </c>
-      <c r="C352" s="15" t="s">
+      <c r="C352" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="D352" s="15" t="s">
+      <c r="D352" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E352" s="15" t="s">
+      <c r="E352" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F352" s="15">
+      <c r="F352" s="41">
         <v>50309</v>
       </c>
-      <c r="G352" s="15" t="s">
+      <c r="G352" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H352" s="15">
+      <c r="H352" s="41">
         <v>38</v>
       </c>
-      <c r="I352" s="16" t="s">
+      <c r="I352" s="42" t="s">
         <v>958</v>
       </c>
-      <c r="J352" s="10">
+      <c r="J352" s="43">
         <v>45138</v>
       </c>
       <c r="K352" s="15" t="s">
@@ -21712,34 +21742,34 @@
       <c r="Z352" s="15"/>
     </row>
     <row r="353" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A353" s="23" t="s">
+      <c r="A353" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="B353" s="15" t="s">
+      <c r="B353" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="C353" s="15" t="s">
+      <c r="C353" s="41" t="s">
         <v>735</v>
       </c>
-      <c r="D353" s="15" t="s">
+      <c r="D353" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E353" s="15" t="s">
+      <c r="E353" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F353" s="15">
+      <c r="F353" s="41">
         <v>50325</v>
       </c>
-      <c r="G353" s="15" t="s">
+      <c r="G353" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H353" s="15">
+      <c r="H353" s="41">
         <v>22</v>
       </c>
-      <c r="I353" s="16" t="s">
+      <c r="I353" s="42" t="s">
         <v>961</v>
       </c>
-      <c r="J353" s="10">
+      <c r="J353" s="43">
         <v>45158</v>
       </c>
       <c r="K353" s="15" t="s">
@@ -21764,34 +21794,34 @@
       <c r="Z353" s="15"/>
     </row>
     <row r="354" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A354" s="23" t="s">
+      <c r="A354" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="B354" s="15" t="s">
+      <c r="B354" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="C354" s="15" t="s">
+      <c r="C354" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="D354" s="15" t="s">
+      <c r="D354" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="E354" s="15" t="s">
+      <c r="E354" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F354" s="15">
+      <c r="F354" s="41">
         <v>52302</v>
       </c>
-      <c r="G354" s="15" t="s">
+      <c r="G354" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H354" s="15">
+      <c r="H354" s="41">
         <v>25</v>
       </c>
-      <c r="I354" s="16" t="s">
+      <c r="I354" s="42" t="s">
         <v>961</v>
       </c>
-      <c r="J354" s="10">
+      <c r="J354" s="43">
         <v>45158</v>
       </c>
       <c r="K354" s="15" t="s">
@@ -21816,34 +21846,34 @@
       <c r="Z354" s="15"/>
     </row>
     <row r="355" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A355" s="23" t="s">
+      <c r="A355" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="B355" s="15" t="s">
+      <c r="B355" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="C355" s="15" t="s">
+      <c r="C355" s="41" t="s">
         <v>916</v>
       </c>
-      <c r="D355" s="15" t="s">
+      <c r="D355" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="E355" s="15" t="s">
+      <c r="E355" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F355" s="15">
+      <c r="F355" s="41">
         <v>51106</v>
       </c>
-      <c r="G355" s="15" t="s">
+      <c r="G355" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H355" s="15">
+      <c r="H355" s="41">
         <v>20</v>
       </c>
-      <c r="I355" s="16" t="s">
+      <c r="I355" s="42" t="s">
         <v>961</v>
       </c>
-      <c r="J355" s="10">
+      <c r="J355" s="43">
         <v>45158</v>
       </c>
       <c r="K355" s="15" t="s">
@@ -21868,34 +21898,34 @@
       <c r="Z355" s="15"/>
     </row>
     <row r="356" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A356" s="23" t="s">
+      <c r="A356" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="B356" s="15" t="s">
+      <c r="B356" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="C356" s="15" t="s">
+      <c r="C356" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="D356" s="15" t="s">
+      <c r="D356" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="E356" s="15" t="s">
+      <c r="E356" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F356" s="15">
+      <c r="F356" s="41">
         <v>52807</v>
       </c>
-      <c r="G356" s="15" t="s">
+      <c r="G356" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H356" s="15">
+      <c r="H356" s="41">
         <v>26</v>
       </c>
-      <c r="I356" s="16" t="s">
+      <c r="I356" s="42" t="s">
         <v>961</v>
       </c>
-      <c r="J356" s="10">
+      <c r="J356" s="43">
         <v>45158</v>
       </c>
       <c r="K356" s="15" t="s">
@@ -21920,34 +21950,34 @@
       <c r="Z356" s="15"/>
     </row>
     <row r="357" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A357" s="23" t="s">
+      <c r="A357" s="40" t="s">
         <v>962</v>
       </c>
-      <c r="B357" s="15" t="s">
+      <c r="B357" s="41" t="s">
         <v>963</v>
       </c>
-      <c r="C357" s="15" t="s">
+      <c r="C357" s="41" t="s">
         <v>964</v>
       </c>
-      <c r="D357" s="15" t="s">
+      <c r="D357" s="41" t="s">
         <v>964</v>
       </c>
-      <c r="E357" s="15" t="s">
+      <c r="E357" s="41" t="s">
         <v>965</v>
       </c>
-      <c r="F357" s="15">
+      <c r="F357" s="41">
         <v>93721</v>
       </c>
-      <c r="G357" s="15" t="s">
+      <c r="G357" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H357" s="15">
+      <c r="H357" s="41">
         <v>4</v>
       </c>
-      <c r="I357" s="16" t="s">
+      <c r="I357" s="42" t="s">
         <v>966</v>
       </c>
-      <c r="J357" s="10">
+      <c r="J357" s="43">
         <v>45091</v>
       </c>
       <c r="K357" s="15" t="s">
@@ -21972,34 +22002,34 @@
       <c r="Z357" s="15"/>
     </row>
     <row r="358" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A358" s="23" t="s">
+      <c r="A358" s="40" t="s">
         <v>968</v>
       </c>
-      <c r="B358" s="15" t="s">
+      <c r="B358" s="41" t="s">
         <v>969</v>
       </c>
-      <c r="C358" s="15" t="s">
+      <c r="C358" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="D358" s="15" t="s">
+      <c r="D358" s="41" t="s">
         <v>840</v>
       </c>
-      <c r="E358" s="15" t="s">
+      <c r="E358" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F358" s="15">
+      <c r="F358" s="41">
         <v>50158</v>
       </c>
-      <c r="G358" s="15" t="s">
+      <c r="G358" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H358" s="15">
+      <c r="H358" s="41">
         <v>125</v>
       </c>
-      <c r="I358" s="16" t="s">
+      <c r="I358" s="42" t="s">
         <v>971</v>
       </c>
-      <c r="J358" s="10">
+      <c r="J358" s="43">
         <v>45153</v>
       </c>
       <c r="K358" s="15" t="s">
@@ -22076,18 +22106,42 @@
       <c r="Z359" s="15"/>
     </row>
     <row r="360" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A360" s="23"/>
-      <c r="B360" s="15"/>
-      <c r="C360" s="15"/>
-      <c r="D360" s="15"/>
-      <c r="E360" s="15"/>
-      <c r="F360" s="15"/>
-      <c r="G360" s="15"/>
-      <c r="H360" s="15"/>
-      <c r="I360" s="16"/>
-      <c r="J360" s="15"/>
-      <c r="K360" s="15"/>
-      <c r="L360" s="15"/>
+      <c r="A360" s="23" t="s">
+        <v>976</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="C360" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D360" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="E360" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F360" s="15">
+        <v>50323</v>
+      </c>
+      <c r="G360" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H360" s="15">
+        <v>1</v>
+      </c>
+      <c r="I360" s="16" t="s">
+        <v>978</v>
+      </c>
+      <c r="J360" s="10">
+        <v>45169</v>
+      </c>
+      <c r="K360" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="L360" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="M360" s="15"/>
       <c r="N360" s="15"/>
       <c r="O360" s="15"/>
@@ -22104,18 +22158,42 @@
       <c r="Z360" s="15"/>
     </row>
     <row r="361" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A361" s="23"/>
-      <c r="B361" s="15"/>
-      <c r="C361" s="15"/>
-      <c r="D361" s="15"/>
-      <c r="E361" s="15"/>
-      <c r="F361" s="15"/>
-      <c r="G361" s="15"/>
-      <c r="H361" s="15"/>
-      <c r="I361" s="16"/>
-      <c r="J361" s="15"/>
-      <c r="K361" s="15"/>
-      <c r="L361" s="15"/>
+      <c r="A361" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B361" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="C361" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D361" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="E361" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F361" s="15">
+        <v>50321</v>
+      </c>
+      <c r="G361" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="H361" s="15">
+        <v>36</v>
+      </c>
+      <c r="I361" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="J361" s="10">
+        <v>45143</v>
+      </c>
+      <c r="K361" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="L361" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="M361" s="15"/>
       <c r="N361" s="15"/>
       <c r="O361" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CCCA1B-E249-43B7-AFD8-F3E8AA57917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="994">
   <si>
     <t>Company</t>
   </si>
@@ -2973,12 +2974,57 @@
   </si>
   <si>
     <t xml:space="preserve">Masss Layoff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow Corporation </t>
+  </si>
+  <si>
+    <t>4800 Westown Pkwy Suite 120</t>
+  </si>
+  <si>
+    <t>08/01/2023</t>
+  </si>
+  <si>
+    <t>6144 NE 22nd St</t>
+  </si>
+  <si>
+    <t>2425 Bridgeport Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa Plains </t>
+  </si>
+  <si>
+    <t>1514 S Pierce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mason City </t>
+  </si>
+  <si>
+    <t>18806 Kapp Dr</t>
+  </si>
+  <si>
+    <t>Peosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubuque </t>
+  </si>
+  <si>
+    <t>3219 Nebraska Ave</t>
+  </si>
+  <si>
+    <t>Pottawatame</t>
+  </si>
+  <si>
+    <t>4601 J Street Sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Central </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3406,32 +3452,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L361" sqref="L361"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L368" sqref="L368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60" customWidth="1"/>
-    <col min="13" max="26" width="7.59765625" customWidth="1"/>
+    <col min="13" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -22207,18 +22253,42 @@
       <c r="Z361" s="15"/>
     </row>
     <row r="362" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A362" s="23"/>
-      <c r="B362" s="15"/>
-      <c r="C362" s="15"/>
-      <c r="D362" s="15"/>
-      <c r="E362" s="15"/>
-      <c r="F362" s="15"/>
-      <c r="G362" s="15"/>
-      <c r="H362" s="15"/>
-      <c r="I362" s="16"/>
-      <c r="J362" s="15"/>
-      <c r="K362" s="15"/>
-      <c r="L362" s="15"/>
+      <c r="A362" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B362" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="C362" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="D362" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="E362" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F362" s="15">
+        <v>50266</v>
+      </c>
+      <c r="G362" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H362" s="15">
+        <v>92</v>
+      </c>
+      <c r="I362" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="J362" s="10">
+        <v>45137</v>
+      </c>
+      <c r="K362" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="L362" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="M362" s="15"/>
       <c r="N362" s="15"/>
       <c r="O362" s="15"/>
@@ -22235,18 +22305,42 @@
       <c r="Z362" s="15"/>
     </row>
     <row r="363" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A363" s="23"/>
-      <c r="B363" s="15"/>
-      <c r="C363" s="15"/>
-      <c r="D363" s="15"/>
-      <c r="E363" s="15"/>
-      <c r="F363" s="15"/>
-      <c r="G363" s="15"/>
-      <c r="H363" s="15"/>
-      <c r="I363" s="16"/>
-      <c r="J363" s="15"/>
-      <c r="K363" s="15"/>
-      <c r="L363" s="15"/>
+      <c r="A363" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B363" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="C363" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D363" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E363" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F363" s="15">
+        <v>50313</v>
+      </c>
+      <c r="G363" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H363" s="15">
+        <v>49</v>
+      </c>
+      <c r="I363" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="J363" s="10">
+        <v>45137</v>
+      </c>
+      <c r="K363" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="L363" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="M363" s="15"/>
       <c r="N363" s="15"/>
       <c r="O363" s="15"/>
@@ -22263,18 +22357,42 @@
       <c r="Z363" s="15"/>
     </row>
     <row r="364" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A364" s="23"/>
-      <c r="B364" s="15"/>
-      <c r="C364" s="15"/>
-      <c r="D364" s="15"/>
-      <c r="E364" s="15"/>
-      <c r="F364" s="15"/>
-      <c r="G364" s="15"/>
-      <c r="H364" s="15"/>
-      <c r="I364" s="16"/>
-      <c r="J364" s="15"/>
-      <c r="K364" s="15"/>
-      <c r="L364" s="15"/>
+      <c r="A364" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B364" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="C364" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="D364" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E364" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F364" s="15">
+        <v>51111</v>
+      </c>
+      <c r="G364" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H364" s="15">
+        <v>7</v>
+      </c>
+      <c r="I364" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="J364" s="10">
+        <v>45137</v>
+      </c>
+      <c r="K364" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="L364" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="M364" s="15"/>
       <c r="N364" s="15"/>
       <c r="O364" s="15"/>
@@ -22291,18 +22409,42 @@
       <c r="Z364" s="15"/>
     </row>
     <row r="365" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A365" s="23"/>
-      <c r="B365" s="15"/>
-      <c r="C365" s="15"/>
-      <c r="D365" s="15"/>
-      <c r="E365" s="15"/>
-      <c r="F365" s="15"/>
-      <c r="G365" s="15"/>
-      <c r="H365" s="15"/>
-      <c r="I365" s="16"/>
-      <c r="J365" s="15"/>
-      <c r="K365" s="15"/>
-      <c r="L365" s="15"/>
+      <c r="A365" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B365" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="C365" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="D365" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E365" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F365" s="15">
+        <v>50401</v>
+      </c>
+      <c r="G365" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="H365" s="15">
+        <v>4</v>
+      </c>
+      <c r="I365" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="J365" s="10">
+        <v>45137</v>
+      </c>
+      <c r="K365" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="L365" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="M365" s="15"/>
       <c r="N365" s="15"/>
       <c r="O365" s="15"/>
@@ -22319,18 +22461,42 @@
       <c r="Z365" s="15"/>
     </row>
     <row r="366" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A366" s="23"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="15"/>
-      <c r="D366" s="15"/>
-      <c r="E366" s="15"/>
-      <c r="F366" s="15"/>
-      <c r="G366" s="15"/>
-      <c r="H366" s="15"/>
-      <c r="I366" s="16"/>
-      <c r="J366" s="15"/>
-      <c r="K366" s="15"/>
-      <c r="L366" s="15"/>
+      <c r="A366" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B366" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="C366" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="D366" s="15" t="s">
+        <v>989</v>
+      </c>
+      <c r="E366" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F366" s="15">
+        <v>52068</v>
+      </c>
+      <c r="G366" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="H366" s="15">
+        <v>1</v>
+      </c>
+      <c r="I366" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="J366" s="10">
+        <v>45137</v>
+      </c>
+      <c r="K366" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="L366" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="M366" s="15"/>
       <c r="N366" s="15"/>
       <c r="O366" s="15"/>
@@ -22347,18 +22513,42 @@
       <c r="Z366" s="15"/>
     </row>
     <row r="367" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A367" s="23"/>
-      <c r="B367" s="15"/>
-      <c r="C367" s="15"/>
-      <c r="D367" s="15"/>
-      <c r="E367" s="15"/>
-      <c r="F367" s="15"/>
-      <c r="G367" s="15"/>
-      <c r="H367" s="15"/>
-      <c r="I367" s="16"/>
-      <c r="J367" s="15"/>
-      <c r="K367" s="15"/>
-      <c r="L367" s="15"/>
+      <c r="A367" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B367" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="C367" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D367" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="E367" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F367" s="15">
+        <v>51501</v>
+      </c>
+      <c r="G367" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="H367" s="15">
+        <v>30</v>
+      </c>
+      <c r="I367" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="J367" s="10">
+        <v>45137</v>
+      </c>
+      <c r="K367" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="L367" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="M367" s="15"/>
       <c r="N367" s="15"/>
       <c r="O367" s="15"/>
@@ -22375,18 +22565,42 @@
       <c r="Z367" s="15"/>
     </row>
     <row r="368" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A368" s="23"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="15"/>
-      <c r="E368" s="15"/>
-      <c r="F368" s="15"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="15"/>
-      <c r="I368" s="16"/>
-      <c r="J368" s="15"/>
-      <c r="K368" s="15"/>
-      <c r="L368" s="15"/>
+      <c r="A368" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="B368" s="15" t="s">
+        <v>992</v>
+      </c>
+      <c r="C368" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D368" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E368" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F368" s="15">
+        <v>52404</v>
+      </c>
+      <c r="G368" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="H368" s="15">
+        <v>1</v>
+      </c>
+      <c r="I368" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="J368" s="10">
+        <v>45137</v>
+      </c>
+      <c r="K368" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="L368" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="M368" s="15"/>
       <c r="N368" s="15"/>
       <c r="O368" s="15"/>
@@ -35087,7 +35301,7 @@
       <c r="Z821" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="A1:XFD1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -35100,12 +35314,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FAEC67-9920-4343-925C-9924BD83D6BC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CCCA1B-E249-43B7-AFD8-F3E8AA57917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="998">
   <si>
     <t>Company</t>
   </si>
@@ -3019,12 +3018,24 @@
   </si>
   <si>
     <t xml:space="preserve">East Central </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naeve Family Beef Inc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1902 7th Ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camanche </t>
+  </si>
+  <si>
+    <t>08/16/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3452,32 +3463,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L368" sqref="L368"/>
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="4.125" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="4.09765625" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60" customWidth="1"/>
-    <col min="13" max="26" width="7.625" customWidth="1"/>
+    <col min="13" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -22617,18 +22628,42 @@
       <c r="Z368" s="15"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="23"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
+      <c r="A369" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="B369" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="C369" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F369" s="15">
+        <v>52730</v>
+      </c>
+      <c r="G369" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="H369" s="15">
+        <v>46</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="J369" s="10">
+        <v>45154</v>
+      </c>
+      <c r="K369" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="L369" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="M369" s="15"/>
       <c r="N369" s="15"/>
       <c r="O369" s="15"/>
@@ -35301,7 +35336,7 @@
       <c r="Z821" s="15"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
+  <sortState ref="A1:XFD1">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -35314,12 +35349,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FAEC67-9920-4343-925C-9924BD83D6BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="10176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="984">
   <si>
     <t>Company</t>
   </si>
@@ -2973,6 +2973,21 @@
   </si>
   <si>
     <t>09/22/2023</t>
+  </si>
+  <si>
+    <t>400 Collins Rd NE</t>
+  </si>
+  <si>
+    <t>09/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sivyer Steel Castings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">225 33rd St </t>
+  </si>
+  <si>
+    <t>09/28/2023</t>
   </si>
 </sst>
 </file>
@@ -3413,8 +3428,8 @@
   <dimension ref="A1:Z811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B308" sqref="B308"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L366" sqref="L366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -22363,18 +22378,42 @@
       <c r="Z364" s="15"/>
     </row>
     <row r="365" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A365" s="23"/>
-      <c r="B365" s="15"/>
-      <c r="C365" s="15"/>
-      <c r="D365" s="15"/>
-      <c r="E365" s="15"/>
-      <c r="F365" s="15"/>
-      <c r="G365" s="15"/>
-      <c r="H365" s="15"/>
-      <c r="I365" s="16"/>
-      <c r="J365" s="15"/>
-      <c r="K365" s="15"/>
-      <c r="L365" s="15"/>
+      <c r="A365" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B365" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="C365" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D365" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E365" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="F365" s="15">
+        <v>52498</v>
+      </c>
+      <c r="G365" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H365" s="15">
+        <v>68</v>
+      </c>
+      <c r="I365" s="16" t="s">
+        <v>980</v>
+      </c>
+      <c r="J365" s="10">
+        <v>45212</v>
+      </c>
+      <c r="K365" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="L365" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="M365" s="15"/>
       <c r="N365" s="15"/>
       <c r="O365" s="15"/>
@@ -22391,18 +22430,42 @@
       <c r="Z365" s="15"/>
     </row>
     <row r="366" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A366" s="23"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="15"/>
-      <c r="D366" s="15"/>
-      <c r="E366" s="15"/>
-      <c r="F366" s="15"/>
-      <c r="G366" s="15"/>
-      <c r="H366" s="15"/>
-      <c r="I366" s="16"/>
-      <c r="J366" s="15"/>
-      <c r="K366" s="15"/>
-      <c r="L366" s="15"/>
+      <c r="A366" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="B366" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="C366" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D366" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E366" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="F366" s="15">
+        <v>52722</v>
+      </c>
+      <c r="G366" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H366" s="15">
+        <v>140</v>
+      </c>
+      <c r="I366" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="J366" s="10">
+        <v>45197</v>
+      </c>
+      <c r="K366" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="L366" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="M366" s="15"/>
       <c r="N366" s="15"/>
       <c r="O366" s="15"/>
@@ -34904,6 +34967,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47021069e1ff67c49ce9516379674144">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11c62d5c186c19f8cf2928fbf155f37c" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -35132,15 +35204,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -35161,6 +35224,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35179,25 +35250,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="bb079858-90af-4c1d-b6f1-55332f11d181"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="465031c5-3d91-457d-a71b-eb9b5941244d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bb079858-90af-4c1d-b6f1-55332f11d181"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24D7E40-A089-49CA-8A49-815B23464826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="10176"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="987">
   <si>
     <t>Company</t>
   </si>
@@ -2988,12 +2989,21 @@
   </si>
   <si>
     <t>09/28/2023</t>
+  </si>
+  <si>
+    <t>Masonite</t>
+  </si>
+  <si>
+    <t>2510 19th St Southwest</t>
+  </si>
+  <si>
+    <t>10/02/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
@@ -3421,7 +3431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3429,24 +3439,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L366" sqref="L366"/>
+      <selection pane="bottomLeft" activeCell="L367" sqref="L367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="60" customWidth="1"/>
-    <col min="13" max="26" width="7.59765625" customWidth="1"/>
+    <col min="13" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -22452,7 +22462,7 @@
         <v>439</v>
       </c>
       <c r="H366" s="15">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="I366" s="16" t="s">
         <v>983</v>
@@ -22482,18 +22492,42 @@
       <c r="Z366" s="15"/>
     </row>
     <row r="367" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A367" s="23"/>
-      <c r="B367" s="15"/>
-      <c r="C367" s="15"/>
-      <c r="D367" s="15"/>
-      <c r="E367" s="15"/>
-      <c r="F367" s="15"/>
-      <c r="G367" s="15"/>
-      <c r="H367" s="15"/>
-      <c r="I367" s="16"/>
-      <c r="J367" s="15"/>
-      <c r="K367" s="15"/>
-      <c r="L367" s="15"/>
+      <c r="A367" s="23" t="s">
+        <v>984</v>
+      </c>
+      <c r="B367" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="C367" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D367" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E367" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F367" s="15">
+        <v>50401</v>
+      </c>
+      <c r="G367" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H367" s="15">
+        <v>43</v>
+      </c>
+      <c r="I367" s="16" t="s">
+        <v>986</v>
+      </c>
+      <c r="J367" s="10">
+        <v>45191</v>
+      </c>
+      <c r="K367" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L367" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="M367" s="15"/>
       <c r="N367" s="15"/>
       <c r="O367" s="15"/>
@@ -34942,7 +34976,7 @@
       <c r="Z811" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="A1:XFD1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -34955,12 +34989,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FAEC67-9920-4343-925C-9924BD83D6BC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35224,45 +35258,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bb079858-90af-4c1d-b6f1-55332f11d181"/>
-    <ds:schemaRef ds:uri="465031c5-3d91-457d-a71b-eb9b5941244d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="bb079858-90af-4c1d-b6f1-55332f11d181"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="465031c5-3d91-457d-a71b-eb9b5941244d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24D7E40-A089-49CA-8A49-815B23464826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C421C9-AC34-480C-B9A8-7C9083BDC781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="988">
   <si>
     <t>Company</t>
   </si>
@@ -2998,6 +2998,9 @@
   </si>
   <si>
     <t>10/02/2023</t>
+  </si>
+  <si>
+    <t>10/3/2023</t>
   </si>
 </sst>
 </file>
@@ -3438,8 +3441,8 @@
   <dimension ref="A1:Z811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L367" sqref="L367"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K369" sqref="K369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22544,18 +22547,42 @@
       <c r="Z367" s="15"/>
     </row>
     <row r="368" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A368" s="23"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="15"/>
-      <c r="E368" s="15"/>
-      <c r="F368" s="15"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="15"/>
-      <c r="I368" s="16"/>
-      <c r="J368" s="15"/>
-      <c r="K368" s="15"/>
-      <c r="L368" s="15"/>
+      <c r="A368" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B368" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="C368" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D368" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E368" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F368" s="15">
+        <v>50309</v>
+      </c>
+      <c r="G368" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H368" s="15">
+        <v>1</v>
+      </c>
+      <c r="I368" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="J368" s="10">
+        <v>45263</v>
+      </c>
+      <c r="K368" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L368" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="M368" s="15"/>
       <c r="N368" s="15"/>
       <c r="O368" s="15"/>
@@ -22572,18 +22599,42 @@
       <c r="Z368" s="15"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="23"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
+      <c r="A369" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="B369" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="C369" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="F369" s="15">
+        <v>50265</v>
+      </c>
+      <c r="G369" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H369" s="15">
+        <v>34</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="J369" s="10">
+        <v>45263</v>
+      </c>
+      <c r="K369" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L369" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="M369" s="15"/>
       <c r="N369" s="15"/>
       <c r="O369" s="15"/>
@@ -35001,15 +35052,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47021069e1ff67c49ce9516379674144">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11c62d5c186c19f8cf2928fbf155f37c" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -35238,6 +35280,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -35258,11 +35309,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC396BAD-A7D5-4EBE-AC3F-A3DEF7A448E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59DA2273-7D5B-45AA-A472-ADA45C067364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="981">
   <si>
     <t>Company</t>
   </si>
@@ -2971,6 +2971,15 @@
   </si>
   <si>
     <t>10/17/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFG Insurance </t>
+  </si>
+  <si>
+    <t>118 Second AVE SE</t>
+  </si>
+  <si>
+    <t>10/24/2023</t>
   </si>
 </sst>
 </file>
@@ -3411,8 +3420,8 @@
   <dimension ref="A1:Z807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K368" sqref="K368"/>
+      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22569,18 +22578,42 @@
       <c r="Z368" s="15"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="23"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
+      <c r="A369" s="23" t="s">
+        <v>978</v>
+      </c>
+      <c r="B369" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="C369" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="F369" s="15">
+        <v>52407</v>
+      </c>
+      <c r="G369" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H369" s="15">
+        <v>40</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>980</v>
+      </c>
+      <c r="J369" s="10">
+        <v>45223</v>
+      </c>
+      <c r="K369" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="L369" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M369" s="15"/>
       <c r="N369" s="15"/>
       <c r="O369" s="15"/>
@@ -22625,7 +22658,7 @@
       <c r="Z370" s="15"/>
     </row>
     <row r="371" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A371" s="23"/>
+      <c r="A371" s="15"/>
       <c r="B371" s="15"/>
       <c r="C371" s="15"/>
       <c r="D371" s="15"/>
@@ -34886,34 +34919,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47021069e1ff67c49ce9516379674144">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11c62d5c186c19f8cf2928fbf155f37c" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -35142,8 +35147,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35151,5 +35184,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27021"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A298DE57-E04A-42C2-BCCC-1F1B07A44DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D558A9CA-B9C5-4FE4-8C00-BB996F139FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="984">
   <si>
     <t>Company</t>
   </si>
@@ -2980,6 +2980,15 @@
   </si>
   <si>
     <t>10/26/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2320 Landon Rd </t>
+  </si>
+  <si>
+    <t>10/23/2023</t>
   </si>
 </sst>
 </file>
@@ -3420,8 +3429,8 @@
   <dimension ref="A1:Z805"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L368" sqref="L368"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22578,18 +22587,42 @@
       <c r="Z368" s="15"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="15"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
+      <c r="A369" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="B369" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="C369" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="F369" s="15">
+        <v>524126</v>
+      </c>
+      <c r="G369" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H369" s="15">
+        <v>25</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="J369" s="10">
+        <v>45278</v>
+      </c>
+      <c r="K369" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="L369" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="M369" s="15"/>
       <c r="N369" s="15"/>
       <c r="O369" s="15"/>
@@ -34839,15 +34872,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47021069e1ff67c49ce9516379674144">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11c62d5c186c19f8cf2928fbf155f37c" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -35076,7 +35100,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -35095,14 +35119,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27030"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D558A9CA-B9C5-4FE4-8C00-BB996F139FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD22E42-6FF8-4EEA-8763-2A71008460C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="987">
   <si>
     <t>Company</t>
   </si>
@@ -2989,6 +2989,15 @@
   </si>
   <si>
     <t>10/23/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Ventures INC, dba ServiceMaster </t>
+  </si>
+  <si>
+    <t>5511 6th St SW Suite A</t>
+  </si>
+  <si>
+    <t>11/7/2023</t>
   </si>
 </sst>
 </file>
@@ -2999,7 +3008,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3050,6 +3059,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3089,7 +3104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3208,6 +3223,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3429,8 +3445,8 @@
   <dimension ref="A1:Z805"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L370" sqref="A328:L370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22639,18 +22655,42 @@
       <c r="Z369" s="15"/>
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A370" s="23"/>
-      <c r="B370" s="15"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="15"/>
-      <c r="E370" s="15"/>
-      <c r="F370" s="15"/>
-      <c r="G370" s="15"/>
-      <c r="H370" s="15"/>
-      <c r="I370" s="16"/>
-      <c r="J370" s="15"/>
-      <c r="K370" s="15"/>
-      <c r="L370" s="15"/>
+      <c r="A370" s="23" t="s">
+        <v>984</v>
+      </c>
+      <c r="B370" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="C370" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D370" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E370" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F370" s="15">
+        <v>52404</v>
+      </c>
+      <c r="G370" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="H370" s="15">
+        <v>21</v>
+      </c>
+      <c r="I370" s="16" t="s">
+        <v>986</v>
+      </c>
+      <c r="J370" s="10">
+        <v>45260</v>
+      </c>
+      <c r="K370" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="L370" s="44" t="s">
+        <v>909</v>
+      </c>
       <c r="M370" s="15"/>
       <c r="N370" s="15"/>
       <c r="O370" s="15"/>
@@ -34872,6 +34912,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47021069e1ff67c49ce9516379674144">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11c62d5c186c19f8cf2928fbf155f37c" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -35100,7 +35149,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -35119,23 +35168,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD22E42-6FF8-4EEA-8763-2A71008460C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22916186-C008-4784-A199-E5DCE248EF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="981">
   <si>
     <t>Company</t>
   </si>
@@ -2973,28 +2973,10 @@
     <t>10/24/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Independent Can Company </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3213 Crabtree LN </t>
-  </si>
-  <si>
-    <t>10/26/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEICO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2320 Landon Rd </t>
-  </si>
-  <si>
-    <t>10/23/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Ventures INC, dba ServiceMaster </t>
-  </si>
-  <si>
-    <t>5511 6th St SW Suite A</t>
+    <t xml:space="preserve">CDS Global </t>
+  </si>
+  <si>
+    <t>1901 Bell Ave</t>
   </si>
   <si>
     <t>11/7/2023</t>
@@ -3008,7 +2990,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3059,12 +3041,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3104,7 +3080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3223,7 +3199,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3445,8 +3420,8 @@
   <dimension ref="A1:Z805"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L370" sqref="A328:L370"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M368" sqref="M368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22558,34 +22533,34 @@
         <v>979</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>436</v>
+        <v>65</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="E368" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F368" s="15">
-        <v>52627</v>
+        <v>50315</v>
       </c>
       <c r="G368" s="15" t="s">
-        <v>425</v>
+        <v>17</v>
       </c>
       <c r="H368" s="15">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I368" s="16" t="s">
         <v>980</v>
       </c>
       <c r="J368" s="10">
-        <v>45323</v>
+        <v>45237</v>
       </c>
       <c r="K368" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="L368" s="25" t="s">
-        <v>38</v>
+        <v>790</v>
+      </c>
+      <c r="L368" s="15" t="s">
+        <v>847</v>
       </c>
       <c r="M368" s="15"/>
       <c r="N368" s="15"/>
@@ -22603,42 +22578,18 @@
       <c r="Z368" s="15"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="15" t="s">
-        <v>981</v>
-      </c>
-      <c r="B369" s="15" t="s">
-        <v>982</v>
-      </c>
-      <c r="C369" s="15" t="s">
-        <v>775</v>
-      </c>
-      <c r="D369" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E369" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="F369" s="15">
-        <v>524126</v>
-      </c>
-      <c r="G369" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H369" s="15">
-        <v>25</v>
-      </c>
-      <c r="I369" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="J369" s="10">
-        <v>45278</v>
-      </c>
-      <c r="K369" s="15" t="s">
-        <v>777</v>
-      </c>
-      <c r="L369" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="A369" s="15"/>
+      <c r="B369" s="15"/>
+      <c r="C369" s="15"/>
+      <c r="D369" s="15"/>
+      <c r="E369" s="15"/>
+      <c r="F369" s="15"/>
+      <c r="G369" s="15"/>
+      <c r="H369" s="15"/>
+      <c r="I369" s="16"/>
+      <c r="J369" s="15"/>
+      <c r="K369" s="15"/>
+      <c r="L369" s="15"/>
       <c r="M369" s="15"/>
       <c r="N369" s="15"/>
       <c r="O369" s="15"/>
@@ -22655,42 +22606,18 @@
       <c r="Z369" s="15"/>
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A370" s="23" t="s">
-        <v>984</v>
-      </c>
-      <c r="B370" s="15" t="s">
-        <v>985</v>
-      </c>
-      <c r="C370" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D370" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E370" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F370" s="15">
-        <v>52404</v>
-      </c>
-      <c r="G370" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="H370" s="15">
-        <v>21</v>
-      </c>
-      <c r="I370" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="J370" s="10">
-        <v>45260</v>
-      </c>
-      <c r="K370" s="15" t="s">
-        <v>777</v>
-      </c>
-      <c r="L370" s="44" t="s">
-        <v>909</v>
-      </c>
+      <c r="A370" s="23"/>
+      <c r="B370" s="15"/>
+      <c r="C370" s="15"/>
+      <c r="D370" s="15"/>
+      <c r="E370" s="15"/>
+      <c r="F370" s="15"/>
+      <c r="G370" s="15"/>
+      <c r="H370" s="15"/>
+      <c r="I370" s="16"/>
+      <c r="J370" s="15"/>
+      <c r="K370" s="15"/>
+      <c r="L370" s="15"/>
       <c r="M370" s="15"/>
       <c r="N370" s="15"/>
       <c r="O370" s="15"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9F305AB-9E9D-4460-8E8F-4F99D99070CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE24E38A-51AE-474E-A21D-9ED537F04E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="981">
   <si>
     <t>Company</t>
   </si>
@@ -2971,6 +2971,15 @@
   </si>
   <si>
     <t>11/14/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GuideOne Insurance </t>
+  </si>
+  <si>
+    <t>1111 Ashworth Rd</t>
+  </si>
+  <si>
+    <t>11/15/2023</t>
   </si>
 </sst>
 </file>
@@ -3411,8 +3420,8 @@
   <dimension ref="A1:Z803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L368" sqref="L368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22517,18 +22526,42 @@
       <c r="Z367" s="15"/>
     </row>
     <row r="368" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A368" s="23"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="15"/>
-      <c r="E368" s="15"/>
-      <c r="F368" s="15"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="15"/>
-      <c r="I368" s="16"/>
-      <c r="J368" s="15"/>
-      <c r="K368" s="15"/>
-      <c r="L368" s="15"/>
+      <c r="A368" s="23" t="s">
+        <v>978</v>
+      </c>
+      <c r="B368" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="C368" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D368" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E368" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F368" s="15">
+        <v>50265</v>
+      </c>
+      <c r="G368" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="H368" s="15">
+        <v>43</v>
+      </c>
+      <c r="I368" s="16" t="s">
+        <v>980</v>
+      </c>
+      <c r="J368" s="10">
+        <v>45275</v>
+      </c>
+      <c r="K368" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="L368" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M368" s="15"/>
       <c r="N368" s="15"/>
       <c r="O368" s="15"/>
@@ -34750,22 +34783,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34998,16 +35021,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35015,5 +35048,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE24E38A-51AE-474E-A21D-9ED537F04E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF4DD0D-7848-43EE-A4D2-12B638E91EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="985">
   <si>
     <t>Company</t>
   </si>
@@ -2980,6 +2980,18 @@
   </si>
   <si>
     <t>11/15/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cygnus Home Services, LLC d/b/a Yelloh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3105 West 18th St </t>
+  </si>
+  <si>
+    <t>11/28/2023</t>
+  </si>
+  <si>
+    <t>Iowa Plains</t>
   </si>
 </sst>
 </file>
@@ -3420,8 +3432,8 @@
   <dimension ref="A1:Z803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L368" sqref="L368"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L370" sqref="L370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22578,18 +22590,42 @@
       <c r="Z368" s="15"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="23"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
+      <c r="A369" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="B369" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="C369" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F369" s="15">
+        <v>51301</v>
+      </c>
+      <c r="G369" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="H369" s="15">
+        <v>5</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="J369" s="10">
+        <v>45318</v>
+      </c>
+      <c r="K369" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="L369" s="15" t="s">
+        <v>847</v>
+      </c>
       <c r="M369" s="15"/>
       <c r="N369" s="15"/>
       <c r="O369" s="15"/>
@@ -22606,18 +22642,42 @@
       <c r="Z369" s="15"/>
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A370" s="23"/>
-      <c r="B370" s="15"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="15"/>
-      <c r="E370" s="15"/>
-      <c r="F370" s="15"/>
-      <c r="G370" s="15"/>
-      <c r="H370" s="15"/>
-      <c r="I370" s="16"/>
-      <c r="J370" s="15"/>
-      <c r="K370" s="15"/>
-      <c r="L370" s="15"/>
+      <c r="A370" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="B370" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="C370" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D370" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E370" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F370" s="15">
+        <v>50265</v>
+      </c>
+      <c r="G370" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H370" s="15">
+        <v>8</v>
+      </c>
+      <c r="I370" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="J370" s="10">
+        <v>45319</v>
+      </c>
+      <c r="K370" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="L370" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="M370" s="15"/>
       <c r="N370" s="15"/>
       <c r="O370" s="15"/>
@@ -34783,12 +34843,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35021,26 +35091,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35048,5 +35108,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05552A3B-960D-4926-A18E-D1E3BE2D8FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A31CC69A-F359-4D28-96D7-58FE02414D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="992">
   <si>
     <t>Company</t>
   </si>
@@ -2995,6 +2995,24 @@
   </si>
   <si>
     <t>12/12/2023</t>
+  </si>
+  <si>
+    <t>Southeast Iowa Reginoal Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1221 S Gear Ave </t>
+  </si>
+  <si>
+    <t>12/19/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1307 S Gear Ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5445 Ave O </t>
+  </si>
+  <si>
+    <t>Fort Madision</t>
   </si>
 </sst>
 </file>
@@ -3462,8 +3480,8 @@
   <dimension ref="A1:Z800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G372" sqref="G372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22672,18 +22690,42 @@
       <c r="Z369" s="15"/>
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A370" s="23"/>
-      <c r="B370" s="15"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="15"/>
-      <c r="E370" s="15"/>
-      <c r="F370" s="15"/>
-      <c r="G370" s="15"/>
-      <c r="H370" s="45"/>
-      <c r="I370" s="16"/>
-      <c r="J370" s="15"/>
-      <c r="K370" s="15"/>
-      <c r="L370" s="15"/>
+      <c r="A370" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="B370" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="C370" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D370" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E370" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F370" s="15">
+        <v>52655</v>
+      </c>
+      <c r="G370" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H370" s="45">
+        <v>45</v>
+      </c>
+      <c r="I370" s="16" t="s">
+        <v>988</v>
+      </c>
+      <c r="J370" s="10">
+        <v>45345</v>
+      </c>
+      <c r="K370" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L370" s="15" t="s">
+        <v>640</v>
+      </c>
       <c r="M370" s="15"/>
       <c r="N370" s="15"/>
       <c r="O370" s="15"/>
@@ -22700,18 +22742,42 @@
       <c r="Z370" s="15"/>
     </row>
     <row r="371" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A371" s="23"/>
-      <c r="B371" s="15"/>
-      <c r="C371" s="15"/>
-      <c r="D371" s="15"/>
-      <c r="E371" s="15"/>
-      <c r="F371" s="15"/>
-      <c r="G371" s="15"/>
-      <c r="H371" s="45"/>
-      <c r="I371" s="16"/>
-      <c r="J371" s="15"/>
-      <c r="K371" s="15"/>
-      <c r="L371" s="15"/>
+      <c r="A371" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="B371" s="15" t="s">
+        <v>989</v>
+      </c>
+      <c r="C371" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D371" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E371" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F371" s="15">
+        <v>52655</v>
+      </c>
+      <c r="G371" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H371" s="45">
+        <v>11</v>
+      </c>
+      <c r="I371" s="16" t="s">
+        <v>988</v>
+      </c>
+      <c r="J371" s="10">
+        <v>45345</v>
+      </c>
+      <c r="K371" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L371" s="15" t="s">
+        <v>640</v>
+      </c>
       <c r="M371" s="15"/>
       <c r="N371" s="15"/>
       <c r="O371" s="15"/>
@@ -22728,18 +22794,42 @@
       <c r="Z371" s="15"/>
     </row>
     <row r="372" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A372" s="23"/>
-      <c r="B372" s="15"/>
-      <c r="C372" s="15"/>
-      <c r="D372" s="15"/>
-      <c r="E372" s="15"/>
-      <c r="F372" s="15"/>
-      <c r="G372" s="15"/>
-      <c r="H372" s="45"/>
-      <c r="I372" s="16"/>
-      <c r="J372" s="15"/>
-      <c r="K372" s="15"/>
-      <c r="L372" s="15"/>
+      <c r="A372" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="B372" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="C372" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="D372" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E372" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="F372" s="15">
+        <v>52627</v>
+      </c>
+      <c r="G372" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H372" s="45">
+        <v>11</v>
+      </c>
+      <c r="I372" s="16" t="s">
+        <v>988</v>
+      </c>
+      <c r="J372" s="10">
+        <v>45345</v>
+      </c>
+      <c r="K372" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L372" s="15" t="s">
+        <v>640</v>
+      </c>
       <c r="M372" s="15"/>
       <c r="N372" s="15"/>
       <c r="O372" s="15"/>
@@ -34765,15 +34855,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47021069e1ff67c49ce9516379674144">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11c62d5c186c19f8cf2928fbf155f37c" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -35002,6 +35083,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -35022,11 +35112,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1643FE39-75D8-491B-B5D9-E6EC7EFBEF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A281F1-ACD6-444A-BD89-800B41B7B595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="992">
   <si>
     <t>Company</t>
   </si>
@@ -3001,6 +3001,18 @@
   </si>
   <si>
     <t>12/27/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerome W. Vittetoe Pork, Ltd </t>
+  </si>
+  <si>
+    <t>2504 Quince Ave</t>
+  </si>
+  <si>
+    <t>12/29/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture, Forestry, Fishing and Hunting </t>
   </si>
 </sst>
 </file>
@@ -3468,8 +3480,8 @@
   <dimension ref="A1:Z795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L368" sqref="L368"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L370" sqref="L370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22626,18 +22638,42 @@
       <c r="Z368" s="15"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="23"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="45"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
+      <c r="A369" s="23" t="s">
+        <v>988</v>
+      </c>
+      <c r="B369" s="15" t="s">
+        <v>989</v>
+      </c>
+      <c r="C369" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F369" s="15">
+        <v>52353</v>
+      </c>
+      <c r="G369" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="H369" s="45">
+        <v>65</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>990</v>
+      </c>
+      <c r="J369" s="10">
+        <v>45292</v>
+      </c>
+      <c r="K369" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="L369" s="15" t="s">
+        <v>991</v>
+      </c>
       <c r="M369" s="15"/>
       <c r="N369" s="15"/>
       <c r="O369" s="15"/>
@@ -34607,6 +34643,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47021069e1ff67c49ce9516379674144">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11c62d5c186c19f8cf2928fbf155f37c" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34835,15 +34880,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -34864,11 +34900,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7AEBAA-B960-4B66-80A6-B6022175994E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6EE1A80-1272-469D-8884-4D9A4A6031E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E09C8C-8BAF-4125-9E38-41D523BA66BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="997">
   <si>
     <t>Company</t>
   </si>
@@ -3016,6 +3016,21 @@
   </si>
   <si>
     <t xml:space="preserve">Construction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand River Medical Group, P.C. </t>
+  </si>
+  <si>
+    <t>1515 Delhi St Suite 100</t>
+  </si>
+  <si>
+    <t>02/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR Labs DE, LLC </t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
   </si>
 </sst>
 </file>
@@ -3116,7 +3131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3262,6 +3277,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3483,8 +3499,8 @@
   <dimension ref="A1:Z791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L370" sqref="L370"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22589,18 +22605,42 @@
       <c r="Z367" s="15"/>
     </row>
     <row r="368" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A368" s="23"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="15"/>
-      <c r="E368" s="15"/>
-      <c r="F368" s="15"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="45"/>
-      <c r="I368" s="16"/>
-      <c r="J368" s="15"/>
-      <c r="K368" s="15"/>
-      <c r="L368" s="15"/>
+      <c r="A368" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="B368" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="C368" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D368" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="E368" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F368" s="15">
+        <v>52001</v>
+      </c>
+      <c r="G368" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H368" s="45">
+        <v>52</v>
+      </c>
+      <c r="I368" s="16" t="s">
+        <v>994</v>
+      </c>
+      <c r="J368" s="10">
+        <v>45323</v>
+      </c>
+      <c r="K368" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="L368" s="15" t="s">
+        <v>622</v>
+      </c>
       <c r="M368" s="15"/>
       <c r="N368" s="15"/>
       <c r="O368" s="15"/>
@@ -22617,18 +22657,42 @@
       <c r="Z368" s="15"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="23"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="45"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
+      <c r="A369" s="23" t="s">
+        <v>995</v>
+      </c>
+      <c r="B369" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C369" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F369" s="15">
+        <v>50266</v>
+      </c>
+      <c r="G369" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H369" s="45">
+        <v>66</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="J369" s="10">
+        <v>45324</v>
+      </c>
+      <c r="K369" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="L369" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="M369" s="15"/>
       <c r="N369" s="15"/>
       <c r="O369" s="15"/>
@@ -34486,34 +34550,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34748,14 +34784,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61E9A7B-82F6-4ADD-94C3-645363AC687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFCEA65-B519-4962-B955-7BCE4EF54692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="1004">
   <si>
     <t>Company</t>
   </si>
@@ -3040,6 +3040,18 @@
   </si>
   <si>
     <t>03/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyson Foods </t>
+  </si>
+  <si>
+    <t>13500 I Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perry </t>
+  </si>
+  <si>
+    <t>03/11/2024</t>
   </si>
 </sst>
 </file>
@@ -3508,8 +3520,8 @@
   <dimension ref="A1:Z786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J370" sqref="J370"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L372" sqref="L372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22822,18 +22834,42 @@
       <c r="Z371" s="15"/>
     </row>
     <row r="372" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A372" s="23"/>
-      <c r="B372" s="15"/>
-      <c r="C372" s="15"/>
-      <c r="D372" s="15"/>
-      <c r="E372" s="15"/>
-      <c r="F372" s="15"/>
-      <c r="G372" s="15"/>
-      <c r="H372" s="45"/>
-      <c r="I372" s="16"/>
-      <c r="J372" s="15"/>
-      <c r="K372" s="15"/>
-      <c r="L372" s="15"/>
+      <c r="A372" s="23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B372" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C372" s="15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D372" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E372" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F372" s="15">
+        <v>50220</v>
+      </c>
+      <c r="G372" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H372" s="45">
+        <v>1276</v>
+      </c>
+      <c r="I372" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J372" s="10">
+        <v>45471</v>
+      </c>
+      <c r="K372" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="L372" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="M372" s="15"/>
       <c r="N372" s="15"/>
       <c r="O372" s="15"/>
@@ -34467,6 +34503,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34483,15 +34528,6 @@
     <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34730,11 +34766,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFCEA65-B519-4962-B955-7BCE4EF54692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A38213F-4A6C-42AE-96BD-FEB9004F68FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1007">
   <si>
     <t>Company</t>
   </si>
@@ -3052,6 +3052,15 @@
   </si>
   <si>
     <t>03/11/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Deere Des Moines Works </t>
+  </si>
+  <si>
+    <t>825 SW Irvinedale Drive</t>
+  </si>
+  <si>
+    <t>03/12/2024</t>
   </si>
 </sst>
 </file>
@@ -3520,8 +3529,8 @@
   <dimension ref="A1:Z786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L372" sqref="L372"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A377" sqref="A377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22886,18 +22895,42 @@
       <c r="Z372" s="15"/>
     </row>
     <row r="373" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A373" s="23"/>
-      <c r="B373" s="15"/>
-      <c r="C373" s="15"/>
-      <c r="D373" s="15"/>
-      <c r="E373" s="15"/>
-      <c r="F373" s="15"/>
-      <c r="G373" s="15"/>
-      <c r="H373" s="45"/>
-      <c r="I373" s="16"/>
-      <c r="J373" s="15"/>
-      <c r="K373" s="15"/>
-      <c r="L373" s="15"/>
+      <c r="A373" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B373" s="15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C373" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D373" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E373" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F373" s="15">
+        <v>50023</v>
+      </c>
+      <c r="G373" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="H373" s="45">
+        <v>30</v>
+      </c>
+      <c r="I373" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J373" s="10">
+        <v>45390</v>
+      </c>
+      <c r="K373" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="L373" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="M373" s="15"/>
       <c r="N373" s="15"/>
       <c r="O373" s="15"/>
@@ -22914,18 +22947,42 @@
       <c r="Z373" s="15"/>
     </row>
     <row r="374" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A374" s="23"/>
-      <c r="B374" s="15"/>
-      <c r="C374" s="15"/>
-      <c r="D374" s="15"/>
-      <c r="E374" s="15"/>
-      <c r="F374" s="15"/>
-      <c r="G374" s="15"/>
-      <c r="H374" s="45"/>
-      <c r="I374" s="16"/>
-      <c r="J374" s="15"/>
-      <c r="K374" s="15"/>
-      <c r="L374" s="15"/>
+      <c r="A374" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B374" s="15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C374" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E374" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F374" s="15">
+        <v>50023</v>
+      </c>
+      <c r="G374" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="H374" s="45">
+        <v>30</v>
+      </c>
+      <c r="I374" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J374" s="10">
+        <v>45397</v>
+      </c>
+      <c r="K374" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="L374" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="M374" s="15"/>
       <c r="N374" s="15"/>
       <c r="O374" s="15"/>
@@ -22942,18 +22999,42 @@
       <c r="Z374" s="15"/>
     </row>
     <row r="375" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A375" s="23"/>
-      <c r="B375" s="15"/>
-      <c r="C375" s="15"/>
-      <c r="D375" s="15"/>
-      <c r="E375" s="15"/>
-      <c r="F375" s="15"/>
-      <c r="G375" s="15"/>
-      <c r="H375" s="45"/>
-      <c r="I375" s="16"/>
-      <c r="J375" s="15"/>
-      <c r="K375" s="15"/>
-      <c r="L375" s="15"/>
+      <c r="A375" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B375" s="15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C375" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D375" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E375" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F375" s="15">
+        <v>50023</v>
+      </c>
+      <c r="G375" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="H375" s="45">
+        <v>30</v>
+      </c>
+      <c r="I375" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J375" s="10">
+        <v>45411</v>
+      </c>
+      <c r="K375" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="L375" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="M375" s="15"/>
       <c r="N375" s="15"/>
       <c r="O375" s="15"/>
@@ -22970,18 +23051,42 @@
       <c r="Z375" s="15"/>
     </row>
     <row r="376" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A376" s="23"/>
-      <c r="B376" s="15"/>
-      <c r="C376" s="15"/>
-      <c r="D376" s="15"/>
-      <c r="E376" s="15"/>
-      <c r="F376" s="15"/>
-      <c r="G376" s="15"/>
-      <c r="H376" s="45"/>
-      <c r="I376" s="16"/>
-      <c r="J376" s="15"/>
-      <c r="K376" s="15"/>
-      <c r="L376" s="15"/>
+      <c r="A376" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B376" s="15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C376" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D376" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E376" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F376" s="15">
+        <v>50023</v>
+      </c>
+      <c r="G376" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="H376" s="45">
+        <v>30</v>
+      </c>
+      <c r="I376" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J376" s="10">
+        <v>45418</v>
+      </c>
+      <c r="K376" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="L376" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="M376" s="15"/>
       <c r="N376" s="15"/>
       <c r="O376" s="15"/>
@@ -22998,18 +23103,42 @@
       <c r="Z376" s="15"/>
     </row>
     <row r="377" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A377" s="23"/>
-      <c r="B377" s="15"/>
-      <c r="C377" s="15"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="15"/>
-      <c r="F377" s="15"/>
-      <c r="G377" s="15"/>
-      <c r="H377" s="45"/>
-      <c r="I377" s="16"/>
-      <c r="J377" s="15"/>
-      <c r="K377" s="15"/>
-      <c r="L377" s="15"/>
+      <c r="A377" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B377" s="15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C377" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D377" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E377" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F377" s="15">
+        <v>50023</v>
+      </c>
+      <c r="G377" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="H377" s="45">
+        <v>30</v>
+      </c>
+      <c r="I377" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J377" s="10">
+        <v>45432</v>
+      </c>
+      <c r="K377" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="L377" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="M377" s="15"/>
       <c r="N377" s="15"/>
       <c r="O377" s="15"/>
@@ -34503,34 +34632,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34765,8 +34866,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34774,5 +34903,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E81F3831-77AD-45F3-BD74-125ACAEC46E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC150DE-BC48-40CC-81BD-E50ABBE6AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3529,8 +3529,8 @@
   <dimension ref="A1:Z784"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L376" sqref="L376"/>
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I379" sqref="I379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -23073,7 +23073,7 @@
         <v>402</v>
       </c>
       <c r="H376" s="45">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I376" s="16" t="s">
         <v>1003</v>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC150DE-BC48-40CC-81BD-E50ABBE6AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A41603B-C9BB-4B08-98C5-AC5F9663ACC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1008">
   <si>
     <t>Company</t>
   </si>
@@ -3061,6 +3061,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fairfield </t>
+  </si>
+  <si>
+    <t>03/19/2024</t>
   </si>
 </sst>
 </file>
@@ -3529,8 +3532,8 @@
   <dimension ref="A1:Z784"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I379" sqref="I379"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L377" sqref="L377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -23073,7 +23076,7 @@
         <v>402</v>
       </c>
       <c r="H376" s="45">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I376" s="16" t="s">
         <v>1003</v>
@@ -23103,18 +23106,42 @@
       <c r="Z376" s="15"/>
     </row>
     <row r="377" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A377" s="23"/>
-      <c r="B377" s="15"/>
-      <c r="C377" s="15"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="15"/>
-      <c r="F377" s="15"/>
-      <c r="G377" s="15"/>
-      <c r="H377" s="45"/>
-      <c r="I377" s="16"/>
-      <c r="J377" s="15"/>
-      <c r="K377" s="15"/>
-      <c r="L377" s="15"/>
+      <c r="A377" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="B377" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="C377" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D377" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E377" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F377" s="15">
+        <v>50266</v>
+      </c>
+      <c r="G377" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="H377" s="45">
+        <v>13</v>
+      </c>
+      <c r="I377" s="16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J377" s="10">
+        <v>45370</v>
+      </c>
+      <c r="K377" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="L377" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="M377" s="15"/>
       <c r="N377" s="15"/>
       <c r="O377" s="15"/>
@@ -34552,6 +34579,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34786,42 +34841,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66323C7-0E69-4D4F-98E8-131EB5479C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7087049B-9EC0-41D6-AB03-E0D439DDB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3287" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="992">
   <si>
     <t>Company</t>
   </si>
@@ -3007,6 +3007,15 @@
   </si>
   <si>
     <t>3/26/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSSI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13500 I Court </t>
+  </si>
+  <si>
+    <t>03/27/2024</t>
   </si>
 </sst>
 </file>
@@ -3475,8 +3484,8 @@
   <dimension ref="A1:Z768"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L367" sqref="L367"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L366" sqref="L366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22477,18 +22486,42 @@
       <c r="Z365" s="15"/>
     </row>
     <row r="366" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A366" s="23"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="15"/>
-      <c r="D366" s="15"/>
-      <c r="E366" s="15"/>
-      <c r="F366" s="15"/>
-      <c r="G366" s="15"/>
-      <c r="H366" s="45"/>
-      <c r="I366" s="16"/>
-      <c r="J366" s="15"/>
-      <c r="K366" s="15"/>
-      <c r="L366" s="15"/>
+      <c r="A366" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="B366" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="C366" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="D366" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="E366" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F366" s="15">
+        <v>50220</v>
+      </c>
+      <c r="G366" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H366" s="45">
+        <v>76</v>
+      </c>
+      <c r="I366" s="16" t="s">
+        <v>991</v>
+      </c>
+      <c r="J366" s="10">
+        <v>45471</v>
+      </c>
+      <c r="K366" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="L366" s="43" t="s">
+        <v>851</v>
+      </c>
       <c r="M366" s="15"/>
       <c r="N366" s="15"/>
       <c r="O366" s="15"/>
@@ -33786,34 +33819,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34048,8 +34053,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34057,5 +34090,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{814EDB01-F402-4502-B1D2-4B9B2DB42302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1337DDAE-0161-44A1-BB34-72EF9BE60A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1004">
   <si>
     <t>Company</t>
   </si>
@@ -3040,6 +3040,18 @@
   </si>
   <si>
     <t>Accommodation and Food Services</t>
+  </si>
+  <si>
+    <t>Monroe Care Center</t>
+  </si>
+  <si>
+    <t>120 N 13th St</t>
+  </si>
+  <si>
+    <t>Albia</t>
+  </si>
+  <si>
+    <t>Monroe</t>
   </si>
 </sst>
 </file>
@@ -3499,8 +3511,8 @@
   <dimension ref="A1:Z763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L368" sqref="L368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22605,18 +22617,42 @@
       <c r="Z367" s="11"/>
     </row>
     <row r="368" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A368" s="18"/>
-      <c r="B368" s="11"/>
-      <c r="C368" s="11"/>
-      <c r="D368" s="11"/>
-      <c r="E368" s="11"/>
-      <c r="F368" s="11"/>
-      <c r="G368" s="11"/>
-      <c r="H368" s="40"/>
-      <c r="I368" s="12"/>
-      <c r="J368" s="11"/>
-      <c r="K368" s="11"/>
-      <c r="L368" s="11"/>
+      <c r="A368" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D368" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E368" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F368" s="11">
+        <v>52531</v>
+      </c>
+      <c r="G368" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H368" s="40">
+        <v>35</v>
+      </c>
+      <c r="I368" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="J368" s="6">
+        <v>45444</v>
+      </c>
+      <c r="K368" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="L368" s="11" t="s">
+        <v>576</v>
+      </c>
       <c r="M368" s="11"/>
       <c r="N368" s="11"/>
       <c r="O368" s="11"/>
@@ -33718,6 +33754,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -33952,36 +34016,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33989,5 +34025,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1337DDAE-0161-44A1-BB34-72EF9BE60A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A6A945-2FD4-4B58-A647-FE0BC18A2F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$368</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1007">
   <si>
     <t>Company</t>
   </si>
@@ -3052,6 +3052,15 @@
   </si>
   <si>
     <t>Monroe</t>
+  </si>
+  <si>
+    <t>Blue Monde, LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311 21st St </t>
+  </si>
+  <si>
+    <t>04/15/2024</t>
   </si>
 </sst>
 </file>
@@ -3511,8 +3520,8 @@
   <dimension ref="A1:Z763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L368" sqref="L368"/>
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22669,18 +22678,42 @@
       <c r="Z368" s="11"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="18"/>
-      <c r="B369" s="11"/>
-      <c r="C369" s="11"/>
-      <c r="D369" s="11"/>
-      <c r="E369" s="11"/>
-      <c r="F369" s="11"/>
-      <c r="G369" s="11"/>
-      <c r="H369" s="40"/>
-      <c r="I369" s="12"/>
-      <c r="J369" s="11"/>
-      <c r="K369" s="11"/>
-      <c r="L369" s="11"/>
+      <c r="A369" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D369" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E369" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F369" s="11">
+        <v>52730</v>
+      </c>
+      <c r="G369" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H369" s="40">
+        <v>69</v>
+      </c>
+      <c r="I369" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J369" s="6">
+        <v>45443</v>
+      </c>
+      <c r="K369" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="L369" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M369" s="11"/>
       <c r="N369" s="11"/>
       <c r="O369" s="11"/>
@@ -33754,6 +33787,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -33770,15 +33812,6 @@
     <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34017,11 +34050,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A6A945-2FD4-4B58-A647-FE0BC18A2F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{606B9B8C-7A6D-406A-A7BE-531C93BF7F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="1008">
   <si>
     <t>Company</t>
   </si>
@@ -3061,6 +3061,9 @@
   </si>
   <si>
     <t>04/15/2024</t>
+  </si>
+  <si>
+    <t>04/16/2024</t>
   </si>
 </sst>
 </file>
@@ -3520,8 +3523,8 @@
   <dimension ref="A1:Z763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L370" sqref="L370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22730,18 +22733,42 @@
       <c r="Z369" s="11"/>
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A370" s="18"/>
-      <c r="B370" s="11"/>
-      <c r="C370" s="11"/>
-      <c r="D370" s="11"/>
-      <c r="E370" s="11"/>
-      <c r="F370" s="11"/>
-      <c r="G370" s="11"/>
-      <c r="H370" s="40"/>
-      <c r="I370" s="12"/>
-      <c r="J370" s="11"/>
-      <c r="K370" s="11"/>
-      <c r="L370" s="11"/>
+      <c r="A370" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="B370" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="C370" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D370" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E370" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F370" s="11">
+        <v>50266</v>
+      </c>
+      <c r="G370" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="H370" s="40">
+        <v>7</v>
+      </c>
+      <c r="I370" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J370" s="6">
+        <v>45459</v>
+      </c>
+      <c r="K370" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="L370" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="M370" s="11"/>
       <c r="N370" s="11"/>
       <c r="O370" s="11"/>
@@ -33787,34 +33814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34049,8 +34048,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34058,5 +34085,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{606B9B8C-7A6D-406A-A7BE-531C93BF7F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C29469FA-A1F9-4CBF-8AB8-07B60A792A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="1012">
   <si>
     <t>Company</t>
   </si>
@@ -3064,6 +3064,18 @@
   </si>
   <si>
     <t>04/16/2024</t>
+  </si>
+  <si>
+    <t>Lutheran Services In Iowa</t>
+  </si>
+  <si>
+    <t>106 16th St SW</t>
+  </si>
+  <si>
+    <t>Bremer</t>
+  </si>
+  <si>
+    <t>04/24/2024</t>
   </si>
 </sst>
 </file>
@@ -3523,8 +3535,8 @@
   <dimension ref="A1:Z763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L370" sqref="L370"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L372" sqref="L372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22785,18 +22797,42 @@
       <c r="Z370" s="11"/>
     </row>
     <row r="371" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A371" s="18"/>
-      <c r="B371" s="11"/>
-      <c r="C371" s="11"/>
-      <c r="D371" s="11"/>
-      <c r="E371" s="11"/>
-      <c r="F371" s="11"/>
-      <c r="G371" s="11"/>
-      <c r="H371" s="40"/>
-      <c r="I371" s="12"/>
-      <c r="J371" s="11"/>
-      <c r="K371" s="11"/>
-      <c r="L371" s="11"/>
+      <c r="A371" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D371" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F371" s="11">
+        <v>50677</v>
+      </c>
+      <c r="G371" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="H371" s="40">
+        <v>31</v>
+      </c>
+      <c r="I371" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J371" s="6">
+        <v>45428</v>
+      </c>
+      <c r="K371" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="L371" s="21" t="s">
+        <v>576</v>
+      </c>
       <c r="M371" s="11"/>
       <c r="N371" s="11"/>
       <c r="O371" s="11"/>
@@ -22813,18 +22849,42 @@
       <c r="Z371" s="11"/>
     </row>
     <row r="372" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A372" s="18"/>
-      <c r="B372" s="11"/>
-      <c r="C372" s="11"/>
-      <c r="D372" s="11"/>
-      <c r="E372" s="11"/>
-      <c r="F372" s="11"/>
-      <c r="G372" s="11"/>
-      <c r="H372" s="40"/>
-      <c r="I372" s="12"/>
-      <c r="J372" s="11"/>
-      <c r="K372" s="11"/>
-      <c r="L372" s="11"/>
+      <c r="A372" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D372" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F372" s="11">
+        <v>50677</v>
+      </c>
+      <c r="G372" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="H372" s="40">
+        <v>12</v>
+      </c>
+      <c r="I372" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J372" s="6">
+        <v>45443</v>
+      </c>
+      <c r="K372" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="L372" s="21" t="s">
+        <v>576</v>
+      </c>
       <c r="M372" s="11"/>
       <c r="N372" s="11"/>
       <c r="O372" s="11"/>
@@ -33814,6 +33874,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34048,7 +34117,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34067,23 +34136,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFC7974-E3C6-4CFD-B017-BA4E09E18CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E5BCC2-D2DF-480A-9411-467447249E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1021">
   <si>
     <t>Company</t>
   </si>
@@ -3094,6 +3094,15 @@
   </si>
   <si>
     <t>04/25/2024</t>
+  </si>
+  <si>
+    <t>Dauntless Delivery</t>
+  </si>
+  <si>
+    <t>7200 Chavenelle Rd</t>
+  </si>
+  <si>
+    <t>05/02/2024</t>
   </si>
 </sst>
 </file>
@@ -3553,8 +3562,8 @@
   <dimension ref="A1:Z758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L372" sqref="L372"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L373" sqref="L373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22919,18 +22928,42 @@
       <c r="Z372" s="11"/>
     </row>
     <row r="373" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A373" s="18"/>
-      <c r="B373" s="11"/>
-      <c r="C373" s="11"/>
-      <c r="D373" s="11"/>
-      <c r="E373" s="11"/>
-      <c r="F373" s="11"/>
-      <c r="G373" s="11"/>
-      <c r="H373" s="40"/>
-      <c r="I373" s="12"/>
-      <c r="J373" s="11"/>
-      <c r="K373" s="11"/>
-      <c r="L373" s="11"/>
+      <c r="A373" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D373" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E373" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F373" s="11">
+        <v>52002</v>
+      </c>
+      <c r="G373" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="H373" s="40">
+        <v>45</v>
+      </c>
+      <c r="I373" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J373" s="6">
+        <v>45454</v>
+      </c>
+      <c r="K373" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L373" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="M373" s="11"/>
       <c r="N373" s="11"/>
       <c r="O373" s="11"/>
@@ -33771,15 +33804,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34014,14 +34038,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CD9F31-0980-4716-A4F7-CE20E90029CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF755BD8-8422-4FB1-8E14-5EAF42580E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="1023">
   <si>
     <t>Company</t>
   </si>
@@ -3106,6 +3106,9 @@
   </si>
   <si>
     <t>05/14/2024</t>
+  </si>
+  <si>
+    <t>05/20/2024</t>
   </si>
 </sst>
 </file>
@@ -3565,8 +3568,8 @@
   <dimension ref="A1:Z756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L373" sqref="L373"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L374" sqref="L374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22983,18 +22986,42 @@
       <c r="Z373" s="11"/>
     </row>
     <row r="374" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A374" s="18"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="11"/>
-      <c r="D374" s="11"/>
-      <c r="E374" s="11"/>
-      <c r="F374" s="11"/>
-      <c r="G374" s="11"/>
-      <c r="H374" s="40"/>
-      <c r="I374" s="12"/>
-      <c r="J374" s="11"/>
-      <c r="K374" s="11"/>
-      <c r="L374" s="11"/>
+      <c r="A374" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="D374" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E374" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F374" s="11">
+        <v>50704</v>
+      </c>
+      <c r="G374" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="H374" s="40">
+        <v>192</v>
+      </c>
+      <c r="I374" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J374" s="6">
+        <v>45464</v>
+      </c>
+      <c r="K374" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L374" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="M374" s="11"/>
       <c r="N374" s="11"/>
       <c r="O374" s="11"/>
@@ -33751,15 +33778,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -33994,14 +34012,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF755BD8-8422-4FB1-8E14-5EAF42580E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D9B704-1225-424A-AE62-A4474A8F8FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="1031">
   <si>
     <t>Company</t>
   </si>
@@ -3109,6 +3109,30 @@
   </si>
   <si>
     <t>05/20/2024</t>
+  </si>
+  <si>
+    <t>422 Performance Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedar Falls </t>
+  </si>
+  <si>
+    <t>05/28/2024</t>
+  </si>
+  <si>
+    <t>318 Industrial Dr</t>
+  </si>
+  <si>
+    <t>DeWitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4397 E 50th St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1420 N 11th St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humboldt </t>
   </si>
 </sst>
 </file>
@@ -3565,11 +3589,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z756"/>
+  <dimension ref="A1:Z759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L374" sqref="L374"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L385" sqref="L385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -22748,7 +22772,7 @@
         <v>30</v>
       </c>
       <c r="H369" s="40">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I369" s="12" t="s">
         <v>1009</v>
@@ -22779,40 +22803,40 @@
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
       <c r="A370" s="18" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="F370" s="11">
-        <v>52804</v>
+        <v>50313</v>
       </c>
       <c r="G370" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H370" s="40">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I370" s="12" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="J370" s="6">
-        <v>45473</v>
+        <v>45474</v>
       </c>
       <c r="K370" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L370" s="21" t="s">
-        <v>565</v>
+        <v>710</v>
+      </c>
+      <c r="L370" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M370" s="11"/>
       <c r="N370" s="11"/>
@@ -22831,40 +22855,40 @@
     </row>
     <row r="371" spans="1:26" ht="14.25" customHeight="1">
       <c r="A371" s="18" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="F371" s="11">
-        <v>52002</v>
+        <v>50313</v>
       </c>
       <c r="G371" s="11" t="s">
-        <v>355</v>
+        <v>30</v>
       </c>
       <c r="H371" s="40">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I371" s="12" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="J371" s="6">
-        <v>45454</v>
+        <v>45505</v>
       </c>
       <c r="K371" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L371" s="21" t="s">
-        <v>272</v>
+        <v>710</v>
+      </c>
+      <c r="L371" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M371" s="11"/>
       <c r="N371" s="11"/>
@@ -22883,40 +22907,40 @@
     </row>
     <row r="372" spans="1:26" ht="14.25" customHeight="1">
       <c r="A372" s="18" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>1018</v>
+        <v>81</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>1019</v>
+        <v>15</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="F372" s="11">
-        <v>51534</v>
+        <v>50313</v>
       </c>
       <c r="G372" s="11" t="s">
-        <v>813</v>
+        <v>30</v>
       </c>
       <c r="H372" s="40">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I372" s="12" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="J372" s="6">
-        <v>45460</v>
+        <v>45536</v>
       </c>
       <c r="K372" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="L372" s="21" t="s">
-        <v>565</v>
+        <v>710</v>
+      </c>
+      <c r="L372" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M372" s="11"/>
       <c r="N372" s="11"/>
@@ -22935,40 +22959,40 @@
     </row>
     <row r="373" spans="1:26" ht="14.25" customHeight="1">
       <c r="A373" s="18" t="s">
-        <v>39</v>
+        <v>1010</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>810</v>
+        <v>1011</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E373" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F373" s="11">
-        <v>50266</v>
+        <v>52804</v>
       </c>
       <c r="G373" s="11" t="s">
-        <v>443</v>
+        <v>30</v>
       </c>
       <c r="H373" s="40">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I373" s="12" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="J373" s="6">
-        <v>45487</v>
+        <v>45473</v>
       </c>
       <c r="K373" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="L373" s="11" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="L373" s="21" t="s">
+        <v>565</v>
       </c>
       <c r="M373" s="11"/>
       <c r="N373" s="11"/>
@@ -22987,40 +23011,40 @@
     </row>
     <row r="374" spans="1:26" ht="14.25" customHeight="1">
       <c r="A374" s="18" t="s">
-        <v>968</v>
+        <v>1013</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>969</v>
+        <v>1014</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>665</v>
+        <v>177</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="E374" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F374" s="11">
-        <v>50704</v>
+        <v>52002</v>
       </c>
       <c r="G374" s="11" t="s">
-        <v>813</v>
+        <v>355</v>
       </c>
       <c r="H374" s="40">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="I374" s="12" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="J374" s="6">
-        <v>45464</v>
+        <v>45454</v>
       </c>
       <c r="K374" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L374" s="20" t="s">
-        <v>38</v>
+      <c r="L374" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="M374" s="11"/>
       <c r="N374" s="11"/>
@@ -23038,18 +23062,42 @@
       <c r="Z374" s="11"/>
     </row>
     <row r="375" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A375" s="18"/>
-      <c r="B375" s="11"/>
-      <c r="C375" s="11"/>
-      <c r="D375" s="11"/>
-      <c r="E375" s="11"/>
-      <c r="F375" s="11"/>
-      <c r="G375" s="11"/>
-      <c r="H375" s="40"/>
-      <c r="I375" s="12"/>
-      <c r="J375" s="11"/>
-      <c r="K375" s="11"/>
-      <c r="L375" s="11"/>
+      <c r="A375" s="18" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C375" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D375" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F375" s="11">
+        <v>51534</v>
+      </c>
+      <c r="G375" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H375" s="40">
+        <v>31</v>
+      </c>
+      <c r="I375" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J375" s="6">
+        <v>45460</v>
+      </c>
+      <c r="K375" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="L375" s="21" t="s">
+        <v>565</v>
+      </c>
       <c r="M375" s="11"/>
       <c r="N375" s="11"/>
       <c r="O375" s="11"/>
@@ -23066,18 +23114,42 @@
       <c r="Z375" s="11"/>
     </row>
     <row r="376" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A376" s="18"/>
-      <c r="B376" s="11"/>
-      <c r="C376" s="11"/>
-      <c r="D376" s="11"/>
-      <c r="E376" s="11"/>
-      <c r="F376" s="11"/>
-      <c r="G376" s="11"/>
-      <c r="H376" s="40"/>
-      <c r="I376" s="12"/>
-      <c r="J376" s="11"/>
-      <c r="K376" s="11"/>
-      <c r="L376" s="11"/>
+      <c r="A376" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D376" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E376" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F376" s="11">
+        <v>50266</v>
+      </c>
+      <c r="G376" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="H376" s="40">
+        <v>24</v>
+      </c>
+      <c r="I376" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J376" s="6">
+        <v>45487</v>
+      </c>
+      <c r="K376" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="L376" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="M376" s="11"/>
       <c r="N376" s="11"/>
       <c r="O376" s="11"/>
@@ -23094,18 +23166,42 @@
       <c r="Z376" s="11"/>
     </row>
     <row r="377" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A377" s="18"/>
-      <c r="B377" s="11"/>
-      <c r="C377" s="11"/>
-      <c r="D377" s="11"/>
-      <c r="E377" s="11"/>
-      <c r="F377" s="11"/>
-      <c r="G377" s="11"/>
-      <c r="H377" s="40"/>
-      <c r="I377" s="12"/>
-      <c r="J377" s="11"/>
-      <c r="K377" s="11"/>
-      <c r="L377" s="11"/>
+      <c r="A377" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="D377" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F377" s="11">
+        <v>50704</v>
+      </c>
+      <c r="G377" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H377" s="40">
+        <v>192</v>
+      </c>
+      <c r="I377" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J377" s="6">
+        <v>45464</v>
+      </c>
+      <c r="K377" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L377" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="M377" s="11"/>
       <c r="N377" s="11"/>
       <c r="O377" s="11"/>
@@ -23122,18 +23218,42 @@
       <c r="Z377" s="11"/>
     </row>
     <row r="378" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A378" s="18"/>
-      <c r="B378" s="11"/>
-      <c r="C378" s="11"/>
-      <c r="D378" s="11"/>
-      <c r="E378" s="11"/>
-      <c r="F378" s="11"/>
-      <c r="G378" s="11"/>
-      <c r="H378" s="40"/>
-      <c r="I378" s="12"/>
-      <c r="J378" s="11"/>
-      <c r="K378" s="11"/>
-      <c r="L378" s="11"/>
+      <c r="A378" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D378" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E378" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F378" s="11">
+        <v>50613</v>
+      </c>
+      <c r="G378" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H378" s="40">
+        <v>8</v>
+      </c>
+      <c r="I378" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J378" s="6">
+        <v>45500</v>
+      </c>
+      <c r="K378" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="L378" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="M378" s="11"/>
       <c r="N378" s="11"/>
       <c r="O378" s="11"/>
@@ -23150,18 +23270,42 @@
       <c r="Z378" s="11"/>
     </row>
     <row r="379" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A379" s="18"/>
-      <c r="B379" s="11"/>
-      <c r="C379" s="11"/>
-      <c r="D379" s="11"/>
-      <c r="E379" s="11"/>
-      <c r="F379" s="11"/>
-      <c r="G379" s="11"/>
-      <c r="H379" s="40"/>
-      <c r="I379" s="12"/>
-      <c r="J379" s="11"/>
-      <c r="K379" s="11"/>
-      <c r="L379" s="11"/>
+      <c r="A379" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F379" s="11">
+        <v>52742</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H379" s="40">
+        <v>5</v>
+      </c>
+      <c r="I379" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J379" s="6">
+        <v>45500</v>
+      </c>
+      <c r="K379" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L379" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="M379" s="11"/>
       <c r="N379" s="11"/>
       <c r="O379" s="11"/>
@@ -23178,18 +23322,42 @@
       <c r="Z379" s="11"/>
     </row>
     <row r="380" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A380" s="18"/>
-      <c r="B380" s="11"/>
-      <c r="C380" s="11"/>
-      <c r="D380" s="11"/>
-      <c r="E380" s="11"/>
-      <c r="F380" s="11"/>
-      <c r="G380" s="11"/>
-      <c r="H380" s="40"/>
-      <c r="I380" s="12"/>
-      <c r="J380" s="11"/>
-      <c r="K380" s="11"/>
-      <c r="L380" s="11"/>
+      <c r="A380" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D380" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F380" s="11">
+        <v>50317</v>
+      </c>
+      <c r="G380" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H380" s="40">
+        <v>16</v>
+      </c>
+      <c r="I380" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J380" s="6">
+        <v>45500</v>
+      </c>
+      <c r="K380" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="L380" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="M380" s="11"/>
       <c r="N380" s="11"/>
       <c r="O380" s="11"/>
@@ -23206,18 +23374,42 @@
       <c r="Z380" s="11"/>
     </row>
     <row r="381" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A381" s="18"/>
-      <c r="B381" s="11"/>
-      <c r="C381" s="11"/>
-      <c r="D381" s="11"/>
-      <c r="E381" s="11"/>
-      <c r="F381" s="11"/>
-      <c r="G381" s="11"/>
-      <c r="H381" s="40"/>
-      <c r="I381" s="12"/>
-      <c r="J381" s="11"/>
-      <c r="K381" s="11"/>
-      <c r="L381" s="11"/>
+      <c r="A381" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E381" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F381" s="11">
+        <v>50548</v>
+      </c>
+      <c r="G381" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H381" s="40">
+        <v>5</v>
+      </c>
+      <c r="I381" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J381" s="6">
+        <v>45500</v>
+      </c>
+      <c r="K381" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="L381" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="M381" s="11"/>
       <c r="N381" s="11"/>
       <c r="O381" s="11"/>
@@ -33733,6 +33925,90 @@
       <c r="Y756" s="11"/>
       <c r="Z756" s="11"/>
     </row>
+    <row r="757" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A757" s="18"/>
+      <c r="B757" s="11"/>
+      <c r="C757" s="11"/>
+      <c r="D757" s="11"/>
+      <c r="E757" s="11"/>
+      <c r="F757" s="11"/>
+      <c r="G757" s="11"/>
+      <c r="H757" s="40"/>
+      <c r="I757" s="12"/>
+      <c r="J757" s="11"/>
+      <c r="K757" s="11"/>
+      <c r="L757" s="11"/>
+      <c r="M757" s="11"/>
+      <c r="N757" s="11"/>
+      <c r="O757" s="11"/>
+      <c r="P757" s="11"/>
+      <c r="Q757" s="11"/>
+      <c r="R757" s="11"/>
+      <c r="S757" s="11"/>
+      <c r="T757" s="11"/>
+      <c r="U757" s="11"/>
+      <c r="V757" s="11"/>
+      <c r="W757" s="11"/>
+      <c r="X757" s="11"/>
+      <c r="Y757" s="11"/>
+      <c r="Z757" s="11"/>
+    </row>
+    <row r="758" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A758" s="18"/>
+      <c r="B758" s="11"/>
+      <c r="C758" s="11"/>
+      <c r="D758" s="11"/>
+      <c r="E758" s="11"/>
+      <c r="F758" s="11"/>
+      <c r="G758" s="11"/>
+      <c r="H758" s="40"/>
+      <c r="I758" s="12"/>
+      <c r="J758" s="11"/>
+      <c r="K758" s="11"/>
+      <c r="L758" s="11"/>
+      <c r="M758" s="11"/>
+      <c r="N758" s="11"/>
+      <c r="O758" s="11"/>
+      <c r="P758" s="11"/>
+      <c r="Q758" s="11"/>
+      <c r="R758" s="11"/>
+      <c r="S758" s="11"/>
+      <c r="T758" s="11"/>
+      <c r="U758" s="11"/>
+      <c r="V758" s="11"/>
+      <c r="W758" s="11"/>
+      <c r="X758" s="11"/>
+      <c r="Y758" s="11"/>
+      <c r="Z758" s="11"/>
+    </row>
+    <row r="759" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A759" s="18"/>
+      <c r="B759" s="11"/>
+      <c r="C759" s="11"/>
+      <c r="D759" s="11"/>
+      <c r="E759" s="11"/>
+      <c r="F759" s="11"/>
+      <c r="G759" s="11"/>
+      <c r="H759" s="40"/>
+      <c r="I759" s="12"/>
+      <c r="J759" s="11"/>
+      <c r="K759" s="11"/>
+      <c r="L759" s="11"/>
+      <c r="M759" s="11"/>
+      <c r="N759" s="11"/>
+      <c r="O759" s="11"/>
+      <c r="P759" s="11"/>
+      <c r="Q759" s="11"/>
+      <c r="R759" s="11"/>
+      <c r="S759" s="11"/>
+      <c r="T759" s="11"/>
+      <c r="U759" s="11"/>
+      <c r="V759" s="11"/>
+      <c r="W759" s="11"/>
+      <c r="X759" s="11"/>
+      <c r="Y759" s="11"/>
+      <c r="Z759" s="11"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
@@ -33759,22 +34035,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34013,16 +34279,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34030,5 +34306,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A515AB9E-02F6-4BA2-9E5E-8D769C7A2769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A1E3B0-0424-442D-93CC-E9887F2D2124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="1033">
   <si>
     <t>Company</t>
   </si>
@@ -1248,9 +1248,6 @@
     <t>2/16/2021</t>
   </si>
   <si>
-    <t>Hyvee</t>
-  </si>
-  <si>
     <t>3/16/2021</t>
   </si>
   <si>
@@ -1494,9 +1491,6 @@
     <t>Woodbury</t>
   </si>
   <si>
-    <t xml:space="preserve">Closure </t>
-  </si>
-  <si>
     <t>03/11/2022</t>
   </si>
   <si>
@@ -1563,9 +1557,6 @@
     <t>201 N. Harrison St</t>
   </si>
   <si>
-    <t>Mayss Layoff</t>
-  </si>
-  <si>
     <t>04/29/2022</t>
   </si>
   <si>
@@ -1662,9 +1653,6 @@
     <t>06/02/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Mass Layff </t>
-  </si>
-  <si>
     <t>06/14/2022</t>
   </si>
   <si>
@@ -2430,9 +2418,6 @@
     <t xml:space="preserve">ACT, Inc </t>
   </si>
   <si>
-    <t xml:space="preserve">Mayss Layoff </t>
-  </si>
-  <si>
     <t>05/17/2023</t>
   </si>
   <si>
@@ -2556,9 +2541,6 @@
     <t>08/08/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Masss Layoff </t>
-  </si>
-  <si>
     <t xml:space="preserve">Yellow Corporation </t>
   </si>
   <si>
@@ -3129,7 +3111,34 @@
     <t>06/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Central iowa </t>
+    <t xml:space="preserve">Amendmnet - Decrease in number </t>
+  </si>
+  <si>
+    <t>06/12/2024</t>
+  </si>
+  <si>
+    <t>Tyson Foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amendment - Change in Date </t>
+  </si>
+  <si>
+    <t>Amendment - Change in Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD Treats </t>
+  </si>
+  <si>
+    <t>315 10th St</t>
+  </si>
+  <si>
+    <t>Hawarden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sioux </t>
+  </si>
+  <si>
+    <t>06/20/2024</t>
   </si>
 </sst>
 </file>
@@ -3589,8 +3598,8 @@
   <dimension ref="A1:Z752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L381" sqref="L381"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L386" sqref="L386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -9402,13 +9411,13 @@
         <v>50309</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>402</v>
+        <v>32</v>
       </c>
       <c r="H112" s="40">
         <v>58</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J112" s="7">
         <v>44333</v>
@@ -9460,7 +9469,7 @@
         <v>61</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J113" s="7">
         <v>44337</v>
@@ -9488,13 +9497,13 @@
     </row>
     <row r="114" spans="1:26" ht="14.25" customHeight="1">
       <c r="A114" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="C114" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>407</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>161</v>
@@ -9512,7 +9521,7 @@
         <v>20</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J114" s="7">
         <v>44316</v>
@@ -9564,7 +9573,7 @@
         <v>103</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J115" s="6">
         <v>44351</v>
@@ -9595,7 +9604,7 @@
         <v>396</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>398</v>
@@ -9616,7 +9625,7 @@
         <v>188</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J116" s="10">
         <v>44372</v>
@@ -9647,7 +9656,7 @@
         <v>345</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>347</v>
@@ -9696,10 +9705,10 @@
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1">
       <c r="A118" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>266</v>
@@ -9720,7 +9729,7 @@
         <v>30</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J118" s="6">
         <v>44360</v>
@@ -9729,7 +9738,7 @@
         <v>39</v>
       </c>
       <c r="L118" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M118" s="11"/>
       <c r="N118" s="11"/>
@@ -9748,13 +9757,13 @@
     </row>
     <row r="119" spans="1:26" ht="14.25" customHeight="1">
       <c r="A119" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="C119" s="11" t="s">
         <v>418</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>47</v>
@@ -9772,7 +9781,7 @@
         <v>10</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J119" s="6">
         <v>44360</v>
@@ -9781,7 +9790,7 @@
         <v>39</v>
       </c>
       <c r="L119" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M119" s="11"/>
       <c r="N119" s="11"/>
@@ -9800,10 +9809,10 @@
     </row>
     <row r="120" spans="1:26" ht="14.25" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>398</v>
@@ -9824,7 +9833,7 @@
         <v>234</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J120" s="6">
         <v>44407</v>
@@ -9852,10 +9861,10 @@
     </row>
     <row r="121" spans="1:26" ht="14.25" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>398</v>
@@ -9870,13 +9879,13 @@
         <v>52655</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H121" s="40">
         <v>236</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J121" s="6">
         <v>44421</v>
@@ -9904,13 +9913,13 @@
     </row>
     <row r="122" spans="1:26" ht="14.25" customHeight="1">
       <c r="A122" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="C122" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>426</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>72</v>
@@ -9928,7 +9937,7 @@
         <v>96</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J122" s="6">
         <v>44425</v>
@@ -9956,10 +9965,10 @@
     </row>
     <row r="123" spans="1:26" ht="14.25" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>398</v>
@@ -9980,7 +9989,7 @@
         <v>238</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J123" s="6">
         <v>44435</v>
@@ -10008,10 +10017,10 @@
     </row>
     <row r="124" spans="1:26" ht="14.25" customHeight="1">
       <c r="A124" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>429</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>63</v>
@@ -10032,7 +10041,7 @@
         <v>43</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J124" s="6">
         <v>44439</v>
@@ -10060,16 +10069,16 @@
     </row>
     <row r="125" spans="1:26" ht="14.25" customHeight="1">
       <c r="A125" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="C125" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="D125" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>435</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>311</v>
@@ -10084,7 +10093,7 @@
         <v>34</v>
       </c>
       <c r="I125" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J125" s="6">
         <v>44407</v>
@@ -10112,10 +10121,10 @@
     </row>
     <row r="126" spans="1:26" ht="14.25" customHeight="1">
       <c r="A126" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>438</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>46</v>
@@ -10136,7 +10145,7 @@
         <v>49</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J126" s="6">
         <v>44421</v>
@@ -10164,10 +10173,10 @@
     </row>
     <row r="127" spans="1:26" ht="14.25" customHeight="1">
       <c r="A127" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>398</v>
@@ -10188,7 +10197,7 @@
         <v>239</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J127" s="6">
         <v>44449</v>
@@ -10216,10 +10225,10 @@
     </row>
     <row r="128" spans="1:26" ht="14.25" customHeight="1">
       <c r="A128" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>441</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>160</v>
@@ -10240,7 +10249,7 @@
         <v>82</v>
       </c>
       <c r="I128" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J128" s="6">
         <v>44488</v>
@@ -10268,7 +10277,7 @@
     </row>
     <row r="129" spans="1:26" ht="14.25" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>309</v>
@@ -10292,7 +10301,7 @@
         <v>37</v>
       </c>
       <c r="I129" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J129" s="6">
         <v>44470</v>
@@ -10320,10 +10329,10 @@
     </row>
     <row r="130" spans="1:26" ht="14.25" customHeight="1">
       <c r="A130" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>446</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>52</v>
@@ -10344,7 +10353,7 @@
         <v>25</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J130" s="6">
         <v>44480</v>
@@ -10372,10 +10381,10 @@
     </row>
     <row r="131" spans="1:26" ht="14.25" customHeight="1">
       <c r="A131" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>448</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>449</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>99</v>
@@ -10396,7 +10405,7 @@
         <v>26</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J131" s="6">
         <v>44491</v>
@@ -10424,10 +10433,10 @@
     </row>
     <row r="132" spans="1:26" ht="14.25" customHeight="1">
       <c r="A132" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>63</v>
@@ -10448,7 +10457,7 @@
         <v>60</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J132" s="6">
         <v>44535</v>
@@ -10457,7 +10466,7 @@
         <v>65</v>
       </c>
       <c r="L132" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M132" s="11"/>
       <c r="N132" s="11"/>
@@ -10476,16 +10485,16 @@
     </row>
     <row r="133" spans="1:26" ht="14.25" customHeight="1">
       <c r="A133" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="C133" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="D133" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>458</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>16</v>
@@ -10500,7 +10509,7 @@
         <v>59</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J133" s="6">
         <v>44505</v>
@@ -10531,7 +10540,7 @@
         <v>158</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>160</v>
@@ -10552,7 +10561,7 @@
         <v>710</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J134" s="6">
         <v>44561</v>
@@ -10580,10 +10589,10 @@
     </row>
     <row r="135" spans="1:26" ht="14.25" customHeight="1">
       <c r="A135" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>398</v>
@@ -10598,13 +10607,13 @@
         <v>52655</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H135" s="40">
         <v>247</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J135" s="6">
         <v>44547</v>
@@ -10632,10 +10641,10 @@
     </row>
     <row r="136" spans="1:26" ht="14.25" customHeight="1">
       <c r="A136" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="B136" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>318</v>
@@ -10650,13 +10659,13 @@
         <v>50392</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H136" s="40">
         <v>30</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J136" s="6">
         <v>44519</v>
@@ -10684,10 +10693,10 @@
     </row>
     <row r="137" spans="1:26" ht="14.25" customHeight="1">
       <c r="A137" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>71</v>
@@ -10708,7 +10717,7 @@
         <v>53</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J137" s="6">
         <v>44680</v>
@@ -10736,16 +10745,16 @@
     </row>
     <row r="138" spans="1:26" ht="14.25" customHeight="1">
       <c r="A138" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="C138" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="D138" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>16</v>
@@ -10760,7 +10769,7 @@
         <v>30</v>
       </c>
       <c r="I138" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J138" s="6">
         <v>44651</v>
@@ -10788,10 +10797,10 @@
     </row>
     <row r="139" spans="1:26" ht="14.25" customHeight="1">
       <c r="A139" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B139" s="11" t="s">
         <v>473</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>474</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>155</v>
@@ -10812,7 +10821,7 @@
         <v>58</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J139" s="6">
         <v>44696</v>
@@ -10840,7 +10849,7 @@
     </row>
     <row r="140" spans="1:26" ht="14.25" customHeight="1">
       <c r="A140" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>329</v>
@@ -10864,7 +10873,7 @@
         <v>121</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J140" s="6">
         <v>44601</v>
@@ -10895,7 +10904,7 @@
         <v>345</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>347</v>
@@ -10916,7 +10925,7 @@
         <v>61</v>
       </c>
       <c r="I141" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J141" s="6">
         <v>44694</v>
@@ -10944,16 +10953,16 @@
     </row>
     <row r="142" spans="1:26" ht="47.25" customHeight="1">
       <c r="A142" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B142" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="C142" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="D142" s="11" t="s">
         <v>482</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>483</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>311</v>
@@ -10962,13 +10971,13 @@
         <v>51111</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>484</v>
+        <v>334</v>
       </c>
       <c r="H142" s="40">
         <v>121</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J142" s="6">
         <v>44690</v>
@@ -10996,13 +11005,13 @@
     </row>
     <row r="143" spans="1:26" ht="14.25" customHeight="1">
       <c r="A143" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>486</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>132</v>
@@ -11020,7 +11029,7 @@
         <v>135</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J143" s="6">
         <v>44656</v>
@@ -11048,16 +11057,16 @@
     </row>
     <row r="144" spans="1:26" ht="14.25" customHeight="1">
       <c r="A144" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="D144" s="11" t="s">
         <v>491</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>493</v>
       </c>
       <c r="E144" s="11" t="s">
         <v>311</v>
@@ -11072,7 +11081,7 @@
         <v>67</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J144" s="6">
         <v>44742</v>
@@ -11100,13 +11109,13 @@
     </row>
     <row r="145" spans="1:26" ht="14.25" customHeight="1">
       <c r="A145" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>495</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>497</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>77</v>
@@ -11124,7 +11133,7 @@
         <v>86</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J145" s="6">
         <v>44742</v>
@@ -11152,10 +11161,10 @@
     </row>
     <row r="146" spans="1:26" ht="14.25" customHeight="1">
       <c r="A146" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>31</v>
@@ -11176,7 +11185,7 @@
         <v>25</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J146" s="6">
         <v>44705</v>
@@ -11204,10 +11213,10 @@
     </row>
     <row r="147" spans="1:26" ht="14.25" customHeight="1">
       <c r="A147" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>223</v>
@@ -11228,7 +11237,7 @@
         <v>138</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J147" s="6">
         <v>44742</v>
@@ -11256,10 +11265,10 @@
     </row>
     <row r="148" spans="1:26" ht="14.25" customHeight="1">
       <c r="A148" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>46</v>
@@ -11274,13 +11283,13 @@
         <v>52801</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>507</v>
+        <v>32</v>
       </c>
       <c r="H148" s="40">
         <v>62</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J148" s="6">
         <v>44710</v>
@@ -11308,10 +11317,10 @@
     </row>
     <row r="149" spans="1:26" ht="14.25" customHeight="1">
       <c r="A149" s="18" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>324</v>
@@ -11332,7 +11341,7 @@
         <v>322</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J149" s="6">
         <v>44744</v>
@@ -11360,13 +11369,13 @@
     </row>
     <row r="150" spans="1:26" ht="14.25" customHeight="1">
       <c r="A150" s="18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>52</v>
@@ -11384,7 +11393,7 @@
         <v>57</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J150" s="6">
         <v>44695</v>
@@ -11412,10 +11421,10 @@
     </row>
     <row r="151" spans="1:26" ht="14.25" customHeight="1">
       <c r="A151" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>31</v>
@@ -11430,13 +11439,13 @@
         <v>50266</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H151" s="40">
         <v>3</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J151" s="6">
         <v>44747</v>
@@ -11464,10 +11473,10 @@
     </row>
     <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>318</v>
@@ -11488,7 +11497,7 @@
         <v>44</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J152" s="6">
         <v>44733</v>
@@ -11516,10 +11525,10 @@
     </row>
     <row r="153" spans="1:26" ht="14.25" customHeight="1">
       <c r="A153" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="B153" s="11" t="s">
         <v>515</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>518</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>318</v>
@@ -11534,13 +11543,13 @@
         <v>50309</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H153" s="40">
         <v>5</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J153" s="6">
         <v>44761</v>
@@ -11568,10 +11577,10 @@
     </row>
     <row r="154" spans="1:26" ht="14.25" customHeight="1">
       <c r="A154" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>31</v>
@@ -11586,13 +11595,13 @@
         <v>50266</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H154" s="40">
         <v>6</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J154" s="6">
         <v>44761</v>
@@ -11620,7 +11629,7 @@
     </row>
     <row r="155" spans="1:26" ht="14.25" customHeight="1">
       <c r="A155" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>329</v>
@@ -11644,7 +11653,7 @@
         <v>172</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J155" s="6">
         <v>44701</v>
@@ -11672,16 +11681,16 @@
     </row>
     <row r="156" spans="1:26" ht="14.25" customHeight="1">
       <c r="A156" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="D156" s="11" t="s">
         <v>521</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>524</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>16</v>
@@ -11696,7 +11705,7 @@
         <v>15</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J156" s="6">
         <v>44681</v>
@@ -11724,16 +11733,16 @@
     </row>
     <row r="157" spans="1:26" ht="14.25" customHeight="1">
       <c r="A157" s="18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>16</v>
@@ -11748,7 +11757,7 @@
         <v>6</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J157" s="6">
         <v>44681</v>
@@ -11776,13 +11785,13 @@
     </row>
     <row r="158" spans="1:26" ht="14.25" customHeight="1">
       <c r="A158" s="18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>132</v>
@@ -11800,7 +11809,7 @@
         <v>13</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J158" s="6">
         <v>44681</v>
@@ -11828,10 +11837,10 @@
     </row>
     <row r="159" spans="1:26" ht="14.25" customHeight="1">
       <c r="A159" s="18" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>99</v>
@@ -11852,7 +11861,7 @@
         <v>9</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J159" s="6">
         <v>44681</v>
@@ -11880,10 +11889,10 @@
     </row>
     <row r="160" spans="1:26" ht="14.25" customHeight="1">
       <c r="A160" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="B160" s="11" t="s">
         <v>531</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>534</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>99</v>
@@ -11904,7 +11913,7 @@
         <v>6</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J160" s="6">
         <v>44681</v>
@@ -11932,16 +11941,16 @@
     </row>
     <row r="161" spans="1:26" ht="14.25" customHeight="1">
       <c r="A161" s="18" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>311</v>
@@ -11956,7 +11965,7 @@
         <v>16</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J161" s="6">
         <v>44694</v>
@@ -11984,10 +11993,10 @@
     </row>
     <row r="162" spans="1:26" ht="14.25" customHeight="1">
       <c r="A162" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>52</v>
@@ -12008,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J162" s="6">
         <v>44775</v>
@@ -12039,7 +12048,7 @@
         <v>345</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>347</v>
@@ -12054,13 +12063,13 @@
         <v>52324</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>540</v>
+        <v>319</v>
       </c>
       <c r="H163" s="40">
         <v>25</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J163" s="6">
         <v>44820</v>
@@ -12088,10 +12097,10 @@
     </row>
     <row r="164" spans="1:26" ht="14.25" customHeight="1">
       <c r="A164" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C164" s="20" t="s">
         <v>31</v>
@@ -12106,13 +12115,13 @@
         <v>50266</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H164" s="40">
         <v>3</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J164" s="6">
         <v>44789</v>
@@ -12140,10 +12149,10 @@
     </row>
     <row r="165" spans="1:26" ht="14.25" customHeight="1">
       <c r="A165" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>52</v>
@@ -12164,7 +12173,7 @@
         <v>3</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J165" s="6">
         <v>44789</v>
@@ -12192,10 +12201,10 @@
     </row>
     <row r="166" spans="1:26" ht="14.25" customHeight="1">
       <c r="A166" s="18" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>63</v>
@@ -12216,7 +12225,7 @@
         <v>40</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J166" s="6">
         <v>44788</v>
@@ -12225,7 +12234,7 @@
         <v>65</v>
       </c>
       <c r="L166" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M166" s="11"/>
       <c r="N166" s="11"/>
@@ -12244,13 +12253,13 @@
     </row>
     <row r="167" spans="1:26" ht="14.25" customHeight="1">
       <c r="A167" s="18" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>24</v>
@@ -12268,7 +12277,7 @@
         <v>53</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J167" s="6">
         <v>44793</v>
@@ -12296,16 +12305,16 @@
     </row>
     <row r="168" spans="1:26" ht="14.25" customHeight="1">
       <c r="A168" s="18" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>311</v>
@@ -12320,7 +12329,7 @@
         <v>23</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J168" s="6">
         <v>44788</v>
@@ -12329,7 +12338,7 @@
         <v>191</v>
       </c>
       <c r="L168" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M168" s="11"/>
       <c r="N168" s="11"/>
@@ -12348,10 +12357,10 @@
     </row>
     <row r="169" spans="1:26" ht="14.25" customHeight="1">
       <c r="A169" s="18" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>188</v>
@@ -12372,7 +12381,7 @@
         <v>49</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="J169" s="6">
         <v>44804</v>
@@ -12381,7 +12390,7 @@
         <v>191</v>
       </c>
       <c r="L169" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M169" s="11"/>
       <c r="N169" s="11"/>
@@ -12400,10 +12409,10 @@
     </row>
     <row r="170" spans="1:26" ht="14.25" customHeight="1">
       <c r="A170" s="18" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>63</v>
@@ -12424,7 +12433,7 @@
         <v>3</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J170" s="6">
         <v>44865</v>
@@ -12452,10 +12461,10 @@
     </row>
     <row r="171" spans="1:26" ht="14.25" customHeight="1">
       <c r="A171" s="18" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>63</v>
@@ -12476,7 +12485,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J171" s="6">
         <v>44865</v>
@@ -12504,10 +12513,10 @@
     </row>
     <row r="172" spans="1:26" ht="14.25" customHeight="1">
       <c r="A172" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>31</v>
@@ -12528,7 +12537,7 @@
         <v>29</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J172" s="6">
         <v>44803</v>
@@ -12556,10 +12565,10 @@
     </row>
     <row r="173" spans="1:26" ht="14.25" customHeight="1">
       <c r="A173" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>52</v>
@@ -12574,13 +12583,13 @@
         <v>50315</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H173" s="40">
         <v>6</v>
       </c>
       <c r="I173" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J173" s="6">
         <v>44803</v>
@@ -12608,10 +12617,10 @@
     </row>
     <row r="174" spans="1:26" ht="14.25" customHeight="1">
       <c r="A174" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>318</v>
@@ -12626,13 +12635,13 @@
         <v>50315</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H174" s="40">
         <v>37</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J174" s="6">
         <v>44803</v>
@@ -12660,10 +12669,10 @@
     </row>
     <row r="175" spans="1:26" ht="14.25" customHeight="1">
       <c r="A175" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>223</v>
@@ -12684,7 +12693,7 @@
         <v>35</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J175" s="6">
         <v>44803</v>
@@ -12712,10 +12721,10 @@
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1">
       <c r="A176" s="18" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>324</v>
@@ -12736,7 +12745,7 @@
         <v>7</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J176" s="6">
         <v>44865</v>
@@ -12764,10 +12773,10 @@
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1">
       <c r="A177" s="18" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>63</v>
@@ -12782,13 +12791,13 @@
         <v>52411</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>507</v>
+        <v>32</v>
       </c>
       <c r="H177" s="40">
         <v>1</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J177" s="6">
         <v>44865</v>
@@ -12816,10 +12825,10 @@
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1">
       <c r="A178" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>31</v>
@@ -12834,13 +12843,13 @@
         <v>50266</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H178" s="40">
         <v>9</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J178" s="6">
         <v>44818</v>
@@ -12868,10 +12877,10 @@
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1">
       <c r="A179" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="B179" s="11" t="s">
         <v>515</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>518</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>52</v>
@@ -12892,7 +12901,7 @@
         <v>3</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J179" s="6">
         <v>44818</v>
@@ -12920,16 +12929,16 @@
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1">
       <c r="A180" s="18" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C180" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D180" s="11" t="s">
         <v>482</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>483</v>
       </c>
       <c r="E180" s="11" t="s">
         <v>16</v>
@@ -12944,7 +12953,7 @@
         <v>70</v>
       </c>
       <c r="I180" s="12" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="J180" s="6">
         <v>44763</v>
@@ -12953,7 +12962,7 @@
         <v>191</v>
       </c>
       <c r="L180" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M180" s="11"/>
       <c r="N180" s="11"/>
@@ -12972,10 +12981,10 @@
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1">
       <c r="A181" s="18" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>324</v>
@@ -12996,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="J181" s="6">
         <v>44865</v>
@@ -13024,10 +13033,10 @@
     </row>
     <row r="182" spans="1:26" ht="14.25" customHeight="1">
       <c r="A182" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>31</v>
@@ -13048,7 +13057,7 @@
         <v>18</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J182" s="6">
         <v>44832</v>
@@ -13076,10 +13085,10 @@
     </row>
     <row r="183" spans="1:26" ht="14.25" customHeight="1">
       <c r="A183" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>223</v>
@@ -13100,7 +13109,7 @@
         <v>13</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J183" s="6">
         <v>44832</v>
@@ -13128,13 +13137,13 @@
     </row>
     <row r="184" spans="1:26" ht="14.25" customHeight="1">
       <c r="A184" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>24</v>
@@ -13152,7 +13161,7 @@
         <v>29</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J184" s="6">
         <v>44826</v>
@@ -13180,10 +13189,10 @@
     </row>
     <row r="185" spans="1:26" ht="14.25" customHeight="1">
       <c r="A185" s="18" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>261</v>
@@ -13204,7 +13213,7 @@
         <v>58</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J185" s="6">
         <v>44832</v>
@@ -13213,7 +13222,7 @@
         <v>191</v>
       </c>
       <c r="L185" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M185" s="11"/>
       <c r="N185" s="11"/>
@@ -13232,10 +13241,10 @@
     </row>
     <row r="186" spans="1:26" ht="14.25" customHeight="1">
       <c r="A186" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>52</v>
@@ -13256,7 +13265,7 @@
         <v>14</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J186" s="6">
         <v>44832</v>
@@ -13284,10 +13293,10 @@
     </row>
     <row r="187" spans="1:26" ht="14.25" customHeight="1">
       <c r="A187" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>52</v>
@@ -13302,13 +13311,13 @@
         <v>50309</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H187" s="40">
         <v>6</v>
       </c>
       <c r="I187" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J187" s="6">
         <v>44832</v>
@@ -13336,10 +13345,10 @@
     </row>
     <row r="188" spans="1:26" ht="14.25" customHeight="1">
       <c r="A188" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>52</v>
@@ -13354,13 +13363,13 @@
         <v>50309</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H188" s="40">
         <v>1</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J188" s="6">
         <v>44832</v>
@@ -13388,16 +13397,16 @@
     </row>
     <row r="189" spans="1:26" ht="14.25" customHeight="1">
       <c r="A189" s="18" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E189" s="11" t="s">
         <v>16</v>
@@ -13412,7 +13421,7 @@
         <v>57</v>
       </c>
       <c r="I189" s="12" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J189" s="6">
         <v>44822</v>
@@ -13440,10 +13449,10 @@
     </row>
     <row r="190" spans="1:26" ht="14.25" customHeight="1">
       <c r="A190" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>31</v>
@@ -13464,7 +13473,7 @@
         <v>59</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J190" s="6">
         <v>44859</v>
@@ -13492,10 +13501,10 @@
     </row>
     <row r="191" spans="1:26" ht="14.25" customHeight="1">
       <c r="A191" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="B191" s="11" t="s">
         <v>515</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>518</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>318</v>
@@ -13516,7 +13525,7 @@
         <v>13</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J191" s="6">
         <v>44859</v>
@@ -13544,10 +13553,10 @@
     </row>
     <row r="192" spans="1:26" ht="14.25" customHeight="1">
       <c r="A192" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>52</v>
@@ -13568,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="I192" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J192" s="6">
         <v>44832</v>
@@ -13596,10 +13605,10 @@
     </row>
     <row r="193" spans="1:26" ht="14.25" customHeight="1">
       <c r="A193" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>223</v>
@@ -13620,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J193" s="6">
         <v>44859</v>
@@ -13648,13 +13657,13 @@
     </row>
     <row r="194" spans="1:26" ht="14.25" customHeight="1">
       <c r="A194" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D194" s="11" t="s">
         <v>24</v>
@@ -13672,7 +13681,7 @@
         <v>2</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J194" s="6">
         <v>44859</v>
@@ -13703,7 +13712,7 @@
         <v>354</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>63</v>
@@ -13724,7 +13733,7 @@
         <v>15</v>
       </c>
       <c r="I195" s="12" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J195" s="6">
         <v>44830</v>
@@ -13752,10 +13761,10 @@
     </row>
     <row r="196" spans="1:26" ht="14.25" customHeight="1">
       <c r="A196" s="18" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>324</v>
@@ -13776,7 +13785,7 @@
         <v>55</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J196" s="6">
         <v>44926</v>
@@ -13804,13 +13813,13 @@
     </row>
     <row r="197" spans="1:26" ht="14.25" customHeight="1">
       <c r="A197" s="18" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>306</v>
@@ -13828,7 +13837,7 @@
         <v>65</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J197" s="6">
         <v>44799</v>
@@ -13856,13 +13865,13 @@
     </row>
     <row r="198" spans="1:26" ht="14.25" customHeight="1">
       <c r="A198" s="18" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>306</v>
@@ -13880,7 +13889,7 @@
         <v>151</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J198" s="6">
         <v>44869</v>
@@ -13889,7 +13898,7 @@
         <v>39</v>
       </c>
       <c r="L198" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M198" s="11"/>
       <c r="N198" s="11"/>
@@ -13908,13 +13917,13 @@
     </row>
     <row r="199" spans="1:26" ht="14.25" customHeight="1">
       <c r="A199" s="18" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>24</v>
@@ -13932,7 +13941,7 @@
         <v>35</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J199" s="6">
         <v>44839</v>
@@ -13960,10 +13969,10 @@
     </row>
     <row r="200" spans="1:26" ht="14.25" customHeight="1">
       <c r="A200" s="18" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>63</v>
@@ -13984,7 +13993,7 @@
         <v>3</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J200" s="6">
         <v>44865</v>
@@ -14012,16 +14021,16 @@
     </row>
     <row r="201" spans="1:26" ht="14.25" customHeight="1">
       <c r="A201" s="18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E201" s="11" t="s">
         <v>311</v>
@@ -14036,16 +14045,16 @@
         <v>33</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J201" s="6">
         <v>44823</v>
       </c>
       <c r="K201" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L201" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M201" s="11"/>
       <c r="N201" s="11"/>
@@ -14064,13 +14073,13 @@
     </row>
     <row r="202" spans="1:26" ht="14.25" customHeight="1">
       <c r="A202" s="18" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>24</v>
@@ -14088,7 +14097,7 @@
         <v>8</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J202" s="6">
         <v>44835</v>
@@ -14097,7 +14106,7 @@
         <v>27</v>
       </c>
       <c r="L202" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M202" s="11"/>
       <c r="N202" s="11"/>
@@ -14116,10 +14125,10 @@
     </row>
     <row r="203" spans="1:26" ht="14.25" customHeight="1">
       <c r="A203" s="18" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>318</v>
@@ -14140,7 +14149,7 @@
         <v>34</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J203" s="6">
         <v>44851</v>
@@ -14168,10 +14177,10 @@
     </row>
     <row r="204" spans="1:26" ht="14.25" customHeight="1">
       <c r="A204" s="18" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>324</v>
@@ -14192,7 +14201,7 @@
         <v>222</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J204" s="6">
         <v>44852</v>
@@ -14220,10 +14229,10 @@
     </row>
     <row r="205" spans="1:26" ht="14.25" customHeight="1">
       <c r="A205" s="18" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>207</v>
@@ -14244,7 +14253,7 @@
         <v>197</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J205" s="6">
         <v>44824</v>
@@ -14272,13 +14281,13 @@
     </row>
     <row r="206" spans="1:26" ht="14.25" customHeight="1">
       <c r="A206" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>24</v>
@@ -14296,7 +14305,7 @@
         <v>17</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J206" s="6">
         <v>44887</v>
@@ -14324,10 +14333,10 @@
     </row>
     <row r="207" spans="1:26" ht="14.25" customHeight="1">
       <c r="A207" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>52</v>
@@ -14342,13 +14351,13 @@
         <v>50309</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H207" s="40">
         <v>13</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J207" s="6">
         <v>44887</v>
@@ -14376,10 +14385,10 @@
     </row>
     <row r="208" spans="1:26" ht="14.25" customHeight="1">
       <c r="A208" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>318</v>
@@ -14394,13 +14403,13 @@
         <v>50309</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H208" s="40">
         <v>2</v>
       </c>
       <c r="I208" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J208" s="6">
         <v>44887</v>
@@ -14428,10 +14437,10 @@
     </row>
     <row r="209" spans="1:26" ht="14.25" customHeight="1">
       <c r="A209" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>318</v>
@@ -14452,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="I209" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J209" s="6">
         <v>44887</v>
@@ -14480,10 +14489,10 @@
     </row>
     <row r="210" spans="1:26" ht="14.25" customHeight="1">
       <c r="A210" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>318</v>
@@ -14504,7 +14513,7 @@
         <v>1</v>
       </c>
       <c r="I210" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J210" s="6">
         <v>44887</v>
@@ -14532,13 +14541,13 @@
     </row>
     <row r="211" spans="1:26" ht="14.25" customHeight="1">
       <c r="A211" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>24</v>
@@ -14556,7 +14565,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J211" s="6">
         <v>44887</v>
@@ -14584,10 +14593,10 @@
     </row>
     <row r="212" spans="1:26" ht="14.25" customHeight="1">
       <c r="A212" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>223</v>
@@ -14602,13 +14611,13 @@
         <v>50021</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H212" s="40">
         <v>1</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J212" s="6">
         <v>44887</v>
@@ -14636,16 +14645,16 @@
     </row>
     <row r="213" spans="1:26" ht="14.25" customHeight="1">
       <c r="A213" s="18" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E213" s="11" t="s">
         <v>16</v>
@@ -14660,16 +14669,16 @@
         <v>44</v>
       </c>
       <c r="I213" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J213" s="6">
         <v>44865</v>
       </c>
       <c r="K213" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L213" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M213" s="11"/>
       <c r="N213" s="11"/>
@@ -14688,13 +14697,13 @@
     </row>
     <row r="214" spans="1:26" ht="14.25" customHeight="1">
       <c r="A214" s="18" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>83</v>
@@ -14712,7 +14721,7 @@
         <v>45</v>
       </c>
       <c r="I214" s="12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J214" s="6">
         <v>44960</v>
@@ -14721,7 +14730,7 @@
         <v>19</v>
       </c>
       <c r="L214" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M214" s="11"/>
       <c r="N214" s="11"/>
@@ -14740,13 +14749,13 @@
     </row>
     <row r="215" spans="1:26" ht="14.25" customHeight="1">
       <c r="A215" s="18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>52</v>
@@ -14764,7 +14773,7 @@
         <v>74</v>
       </c>
       <c r="I215" s="12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J215" s="6">
         <v>44862</v>
@@ -14773,7 +14782,7 @@
         <v>39</v>
       </c>
       <c r="L215" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M215" s="11"/>
       <c r="N215" s="11"/>
@@ -14792,10 +14801,10 @@
     </row>
     <row r="216" spans="1:26" ht="14.25" customHeight="1">
       <c r="A216" s="18" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>398</v>
@@ -14816,7 +14825,7 @@
         <v>35</v>
       </c>
       <c r="I216" s="12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J216" s="6">
         <v>44866</v>
@@ -14825,7 +14834,7 @@
         <v>39</v>
       </c>
       <c r="L216" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M216" s="11"/>
       <c r="N216" s="11"/>
@@ -14844,13 +14853,13 @@
     </row>
     <row r="217" spans="1:26" ht="14.25" customHeight="1">
       <c r="A217" s="18" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D217" s="11" t="s">
         <v>106</v>
@@ -14868,7 +14877,7 @@
         <v>45</v>
       </c>
       <c r="I217" s="12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J217" s="6">
         <v>44884</v>
@@ -14877,7 +14886,7 @@
         <v>19</v>
       </c>
       <c r="L217" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M217" s="11"/>
       <c r="N217" s="11"/>
@@ -14896,10 +14905,10 @@
     </row>
     <row r="218" spans="1:26" ht="14.25" customHeight="1">
       <c r="A218" s="18" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>63</v>
@@ -14920,7 +14929,7 @@
         <v>38</v>
       </c>
       <c r="I218" s="12" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="J218" s="6">
         <v>44840</v>
@@ -14948,13 +14957,13 @@
     </row>
     <row r="219" spans="1:26" ht="14.25" customHeight="1">
       <c r="A219" s="18" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>15</v>
@@ -14972,7 +14981,7 @@
         <v>61</v>
       </c>
       <c r="I219" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J219" s="6">
         <v>44874</v>
@@ -14981,7 +14990,7 @@
         <v>19</v>
       </c>
       <c r="L219" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M219" s="11"/>
       <c r="N219" s="11"/>
@@ -15000,10 +15009,10 @@
     </row>
     <row r="220" spans="1:26" ht="14.25" customHeight="1">
       <c r="A220" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>52</v>
@@ -15024,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="I220" s="12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J220" s="6">
         <v>44915</v>
@@ -15052,16 +15061,16 @@
     </row>
     <row r="221" spans="1:26" ht="14.25" customHeight="1">
       <c r="A221" s="18" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E221" s="11" t="s">
         <v>16</v>
@@ -15076,7 +15085,7 @@
         <v>350</v>
       </c>
       <c r="I221" s="12" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J221" s="6">
         <v>44926</v>
@@ -15085,7 +15094,7 @@
         <v>39</v>
       </c>
       <c r="L221" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M221" s="11"/>
       <c r="N221" s="11"/>
@@ -15104,10 +15113,10 @@
     </row>
     <row r="222" spans="1:26" ht="14.25" customHeight="1">
       <c r="A222" s="18" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>155</v>
@@ -15128,7 +15137,7 @@
         <v>85</v>
       </c>
       <c r="I222" s="12" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J222" s="6">
         <v>44926</v>
@@ -15137,7 +15146,7 @@
         <v>19</v>
       </c>
       <c r="L222" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M222" s="11"/>
       <c r="N222" s="11"/>
@@ -15156,10 +15165,10 @@
     </row>
     <row r="223" spans="1:26" ht="14.25" customHeight="1">
       <c r="A223" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>31</v>
@@ -15180,7 +15189,7 @@
         <v>10</v>
       </c>
       <c r="I223" s="12" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J223" s="6">
         <v>44929</v>
@@ -15208,10 +15217,10 @@
     </row>
     <row r="224" spans="1:26" ht="14.25" customHeight="1">
       <c r="A224" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>318</v>
@@ -15232,7 +15241,7 @@
         <v>3</v>
       </c>
       <c r="I224" s="12" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J224" s="6">
         <v>44929</v>
@@ -15260,16 +15269,16 @@
     </row>
     <row r="225" spans="1:26" ht="14.25" customHeight="1">
       <c r="A225" s="18" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E225" s="11" t="s">
         <v>16</v>
@@ -15284,7 +15293,7 @@
         <v>48</v>
       </c>
       <c r="I225" s="12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J225" s="6">
         <v>44962</v>
@@ -15293,7 +15302,7 @@
         <v>19</v>
       </c>
       <c r="L225" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M225" s="11"/>
       <c r="N225" s="11"/>
@@ -15312,10 +15321,10 @@
     </row>
     <row r="226" spans="1:26" ht="14.25" customHeight="1">
       <c r="A226" s="18" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>52</v>
@@ -15336,7 +15345,7 @@
         <v>65</v>
       </c>
       <c r="I226" s="12" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="J226" s="6">
         <v>44929</v>
@@ -15364,10 +15373,10 @@
     </row>
     <row r="227" spans="1:26" ht="14.25" customHeight="1">
       <c r="A227" s="18" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>223</v>
@@ -15388,7 +15397,7 @@
         <v>17</v>
       </c>
       <c r="I227" s="12" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="J227" s="6">
         <v>44914</v>
@@ -15397,7 +15406,7 @@
         <v>27</v>
       </c>
       <c r="L227" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M227" s="11"/>
       <c r="N227" s="11"/>
@@ -15416,10 +15425,10 @@
     </row>
     <row r="228" spans="1:26" ht="14.25" customHeight="1">
       <c r="A228" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>31</v>
@@ -15440,7 +15449,7 @@
         <v>5</v>
       </c>
       <c r="I228" s="12" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J228" s="6">
         <v>44958</v>
@@ -15468,10 +15477,10 @@
     </row>
     <row r="229" spans="1:26" ht="14.25" customHeight="1">
       <c r="A229" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>52</v>
@@ -15492,7 +15501,7 @@
         <v>2</v>
       </c>
       <c r="I229" s="12" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J229" s="6">
         <v>44958</v>
@@ -15520,10 +15529,10 @@
     </row>
     <row r="230" spans="1:26" ht="14.25" customHeight="1">
       <c r="A230" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>52</v>
@@ -15544,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="I230" s="12" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J230" s="6">
         <v>44958</v>
@@ -15572,16 +15581,16 @@
     </row>
     <row r="231" spans="1:26" ht="14.25" customHeight="1">
       <c r="A231" s="18" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E231" s="11" t="s">
         <v>16</v>
@@ -15596,7 +15605,7 @@
         <v>26</v>
       </c>
       <c r="I231" s="12" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J231" s="6">
         <v>44891</v>
@@ -15624,10 +15633,10 @@
     </row>
     <row r="232" spans="1:26" ht="14.25" customHeight="1">
       <c r="A232" s="18" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>71</v>
@@ -15648,7 +15657,7 @@
         <v>50</v>
       </c>
       <c r="I232" s="12" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J232" s="6">
         <v>44911</v>
@@ -15676,13 +15685,13 @@
     </row>
     <row r="233" spans="1:26" ht="14.25" customHeight="1">
       <c r="A233" s="18" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>72</v>
@@ -15700,16 +15709,16 @@
         <v>73</v>
       </c>
       <c r="I233" s="12" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J233" s="6">
         <v>44897</v>
       </c>
       <c r="K233" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L233" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M233" s="11"/>
       <c r="N233" s="11"/>
@@ -15728,16 +15737,16 @@
     </row>
     <row r="234" spans="1:26" ht="14.25" customHeight="1">
       <c r="A234" s="18" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E234" s="11" t="s">
         <v>16</v>
@@ -15752,16 +15761,16 @@
         <v>114</v>
       </c>
       <c r="I234" s="12" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="J234" s="6">
         <v>44942</v>
       </c>
       <c r="K234" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L234" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M234" s="11"/>
       <c r="N234" s="11"/>
@@ -15780,10 +15789,10 @@
     </row>
     <row r="235" spans="1:26" ht="14.25" customHeight="1">
       <c r="A235" s="18" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>71</v>
@@ -15804,13 +15813,13 @@
         <v>62</v>
       </c>
       <c r="I235" s="12" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J235" s="6">
         <v>44962</v>
       </c>
       <c r="K235" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L235" s="11" t="s">
         <v>250</v>
@@ -15832,10 +15841,10 @@
     </row>
     <row r="236" spans="1:26" ht="14.25" customHeight="1">
       <c r="A236" s="18" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>52</v>
@@ -15856,13 +15865,13 @@
         <v>45</v>
       </c>
       <c r="I236" s="12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J236" s="6">
         <v>44958</v>
       </c>
       <c r="K236" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L236" s="11" t="s">
         <v>192</v>
@@ -15884,10 +15893,10 @@
     </row>
     <row r="237" spans="1:26" ht="14.25" customHeight="1">
       <c r="A237" s="18" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>287</v>
@@ -15908,7 +15917,7 @@
         <v>35</v>
       </c>
       <c r="I237" s="12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J237" s="6">
         <v>45047</v>
@@ -15936,10 +15945,10 @@
     </row>
     <row r="238" spans="1:26" ht="14.25" customHeight="1">
       <c r="A238" s="18" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>63</v>
@@ -15960,7 +15969,7 @@
         <v>42</v>
       </c>
       <c r="I238" s="12" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="J238" s="6">
         <v>45006</v>
@@ -15988,16 +15997,16 @@
     </row>
     <row r="239" spans="1:26" ht="14.25" customHeight="1">
       <c r="A239" s="18" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E239" s="11" t="s">
         <v>16</v>
@@ -16012,16 +16021,16 @@
         <v>81</v>
       </c>
       <c r="I239" s="12" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J239" s="6">
         <v>45044</v>
       </c>
       <c r="K239" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L239" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M239" s="11"/>
       <c r="N239" s="11"/>
@@ -16040,16 +16049,16 @@
     </row>
     <row r="240" spans="1:26" ht="14.25" customHeight="1">
       <c r="A240" s="18" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E240" s="11" t="s">
         <v>16</v>
@@ -16064,16 +16073,16 @@
         <v>28</v>
       </c>
       <c r="I240" s="12" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J240" s="6">
         <v>45018</v>
       </c>
       <c r="K240" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L240" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M240" s="11"/>
       <c r="N240" s="11"/>
@@ -16092,16 +16101,16 @@
     </row>
     <row r="241" spans="1:26" ht="14.25" customHeight="1">
       <c r="A241" s="18" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E241" s="11" t="s">
         <v>311</v>
@@ -16116,16 +16125,16 @@
         <v>11</v>
       </c>
       <c r="I241" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J241" s="6">
         <v>45000</v>
       </c>
       <c r="K241" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L241" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M241" s="11"/>
       <c r="N241" s="11"/>
@@ -16144,16 +16153,16 @@
     </row>
     <row r="242" spans="1:26" ht="14.25" customHeight="1">
       <c r="A242" s="18" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E242" s="11" t="s">
         <v>311</v>
@@ -16168,16 +16177,16 @@
         <v>26</v>
       </c>
       <c r="I242" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J242" s="6">
         <v>45000</v>
       </c>
       <c r="K242" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L242" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M242" s="11"/>
       <c r="N242" s="11"/>
@@ -16196,16 +16205,16 @@
     </row>
     <row r="243" spans="1:26" ht="14.25" customHeight="1">
       <c r="A243" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="B243" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="B243" s="11" t="s">
-        <v>719</v>
-      </c>
       <c r="C243" s="11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E243" s="11" t="s">
         <v>311</v>
@@ -16220,16 +16229,16 @@
         <v>51</v>
       </c>
       <c r="I243" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J243" s="6">
         <v>45000</v>
       </c>
       <c r="K243" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L243" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M243" s="11"/>
       <c r="N243" s="11"/>
@@ -16248,16 +16257,16 @@
     </row>
     <row r="244" spans="1:26" ht="14.25" customHeight="1">
       <c r="A244" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E244" s="11" t="s">
         <v>311</v>
@@ -16272,16 +16281,16 @@
         <v>30</v>
       </c>
       <c r="I244" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J244" s="6">
         <v>45000</v>
       </c>
       <c r="K244" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L244" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M244" s="11"/>
       <c r="N244" s="11"/>
@@ -16300,16 +16309,16 @@
     </row>
     <row r="245" spans="1:26" ht="14.25" customHeight="1">
       <c r="A245" s="18" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E245" s="11" t="s">
         <v>311</v>
@@ -16324,16 +16333,16 @@
         <v>43</v>
       </c>
       <c r="I245" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J245" s="6">
         <v>45000</v>
       </c>
       <c r="K245" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L245" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M245" s="11"/>
       <c r="N245" s="11"/>
@@ -16352,16 +16361,16 @@
     </row>
     <row r="246" spans="1:26" ht="14.25" customHeight="1">
       <c r="A246" s="18" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>202</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E246" s="11" t="s">
         <v>311</v>
@@ -16376,16 +16385,16 @@
         <v>53</v>
       </c>
       <c r="I246" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J246" s="6">
         <v>45031</v>
       </c>
       <c r="K246" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L246" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M246" s="11"/>
       <c r="N246" s="11"/>
@@ -16404,10 +16413,10 @@
     </row>
     <row r="247" spans="1:26" ht="14.25" customHeight="1">
       <c r="A247" s="18" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>359</v>
@@ -16428,13 +16437,13 @@
         <v>129</v>
       </c>
       <c r="I247" s="12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="J247" s="6">
         <v>45078</v>
       </c>
       <c r="K247" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L247" s="11" t="s">
         <v>250</v>
@@ -16456,16 +16465,16 @@
     </row>
     <row r="248" spans="1:26" ht="14.25" customHeight="1">
       <c r="A248" s="18" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E248" s="11" t="s">
         <v>311</v>
@@ -16480,13 +16489,13 @@
         <v>118</v>
       </c>
       <c r="I248" s="12" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="J248" s="6">
         <v>45077</v>
       </c>
       <c r="K248" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L248" s="11" t="s">
         <v>157</v>
@@ -16508,10 +16517,10 @@
     </row>
     <row r="249" spans="1:26" ht="14.25" customHeight="1">
       <c r="A249" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>14</v>
@@ -16532,13 +16541,13 @@
         <v>97</v>
       </c>
       <c r="I249" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J249" s="6">
         <v>45078</v>
       </c>
       <c r="K249" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L249" s="11" t="s">
         <v>250</v>
@@ -16560,16 +16569,16 @@
     </row>
     <row r="250" spans="1:26" ht="14.25" customHeight="1">
       <c r="A250" s="34" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B250" s="35" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C250" s="35" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D250" s="35" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E250" s="35" t="s">
         <v>311</v>
@@ -16584,16 +16593,16 @@
         <v>46</v>
       </c>
       <c r="I250" s="36" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="J250" s="37">
         <v>45058</v>
       </c>
       <c r="K250" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L250" s="31" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="M250" s="11"/>
       <c r="N250" s="11"/>
@@ -16612,16 +16621,16 @@
     </row>
     <row r="251" spans="1:26" ht="14.25" customHeight="1">
       <c r="A251" s="34" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B251" s="35" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C251" s="35" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D251" s="35" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E251" s="35" t="s">
         <v>16</v>
@@ -16636,16 +16645,16 @@
         <v>54</v>
       </c>
       <c r="I251" s="36" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="J251" s="37">
         <v>45052</v>
       </c>
       <c r="K251" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L251" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M251" s="11"/>
       <c r="N251" s="11"/>
@@ -16664,16 +16673,16 @@
     </row>
     <row r="252" spans="1:26" ht="14.25" customHeight="1">
       <c r="A252" s="34" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B252" s="35" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C252" s="35" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D252" s="35" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E252" s="35" t="s">
         <v>311</v>
@@ -16682,22 +16691,22 @@
         <v>52245</v>
       </c>
       <c r="G252" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H252" s="41">
         <v>17</v>
       </c>
       <c r="I252" s="36" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="J252" s="37">
         <v>45016</v>
       </c>
       <c r="K252" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L252" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="M252" s="11"/>
       <c r="N252" s="11"/>
@@ -16716,13 +16725,13 @@
     </row>
     <row r="253" spans="1:26" ht="14.25" customHeight="1">
       <c r="A253" s="34" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C253" s="35" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D253" s="35" t="s">
         <v>24</v>
@@ -16740,16 +16749,16 @@
         <v>29</v>
       </c>
       <c r="I253" s="36" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="J253" s="37">
         <v>45089</v>
       </c>
       <c r="K253" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L253" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M253" s="11"/>
       <c r="N253" s="11"/>
@@ -16768,13 +16777,13 @@
     </row>
     <row r="254" spans="1:26" ht="14.25" customHeight="1">
       <c r="A254" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B254" s="35" t="s">
         <v>755</v>
       </c>
-      <c r="B254" s="35" t="s">
-        <v>759</v>
-      </c>
       <c r="C254" s="35" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D254" s="35" t="s">
         <v>64</v>
@@ -16792,16 +16801,16 @@
         <v>26</v>
       </c>
       <c r="I254" s="36" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="J254" s="37">
         <v>45089</v>
       </c>
       <c r="K254" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L254" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M254" s="11"/>
       <c r="N254" s="11"/>
@@ -16820,16 +16829,16 @@
     </row>
     <row r="255" spans="1:26" ht="14.25" customHeight="1">
       <c r="A255" s="34" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B255" s="35" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C255" s="35" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D255" s="35" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E255" s="35" t="s">
         <v>16</v>
@@ -16844,16 +16853,16 @@
         <v>17</v>
       </c>
       <c r="I255" s="36" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="J255" s="37">
         <v>45089</v>
       </c>
       <c r="K255" s="11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="L255" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M255" s="11"/>
       <c r="N255" s="11"/>
@@ -16872,16 +16881,16 @@
     </row>
     <row r="256" spans="1:26" ht="14.25" customHeight="1">
       <c r="A256" s="34" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B256" s="35" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C256" s="35" t="s">
         <v>359</v>
       </c>
       <c r="D256" s="35" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E256" s="35" t="s">
         <v>16</v>
@@ -16896,16 +16905,16 @@
         <v>22</v>
       </c>
       <c r="I256" s="36" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="J256" s="37">
         <v>45089</v>
       </c>
       <c r="K256" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L256" s="11" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="M256" s="11"/>
       <c r="N256" s="11"/>
@@ -16924,16 +16933,16 @@
     </row>
     <row r="257" spans="1:26" ht="14.25" customHeight="1">
       <c r="A257" s="34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B257" s="35" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C257" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D257" s="35" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E257" s="35" t="s">
         <v>16</v>
@@ -16948,13 +16957,13 @@
         <v>69</v>
       </c>
       <c r="I257" s="36" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J257" s="37">
         <v>45034</v>
       </c>
       <c r="K257" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L257" s="11" t="s">
         <v>20</v>
@@ -16976,16 +16985,16 @@
     </row>
     <row r="258" spans="1:26" ht="14.25" customHeight="1">
       <c r="A258" s="34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B258" s="35" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C258" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D258" s="35" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E258" s="35" t="s">
         <v>16</v>
@@ -17000,13 +17009,13 @@
         <v>8</v>
       </c>
       <c r="I258" s="36" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J258" s="37">
         <v>45034</v>
       </c>
       <c r="K258" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L258" s="11" t="s">
         <v>20</v>
@@ -17028,16 +17037,16 @@
     </row>
     <row r="259" spans="1:26" ht="14.25" customHeight="1">
       <c r="A259" s="34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B259" s="35" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C259" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D259" s="35" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E259" s="35" t="s">
         <v>16</v>
@@ -17052,13 +17061,13 @@
         <v>1</v>
       </c>
       <c r="I259" s="36" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J259" s="37">
         <v>45034</v>
       </c>
       <c r="K259" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L259" s="11" t="s">
         <v>20</v>
@@ -17080,16 +17089,16 @@
     </row>
     <row r="260" spans="1:26" ht="14.25" customHeight="1">
       <c r="A260" s="34" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B260" s="35" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C260" s="35" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D260" s="35" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E260" s="35" t="s">
         <v>311</v>
@@ -17098,22 +17107,22 @@
         <v>50322</v>
       </c>
       <c r="G260" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H260" s="41">
         <v>1</v>
       </c>
       <c r="I260" s="36" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="J260" s="37">
         <v>45079</v>
       </c>
       <c r="K260" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L260" s="31" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="M260" s="11"/>
       <c r="N260" s="11"/>
@@ -17132,10 +17141,10 @@
     </row>
     <row r="261" spans="1:26" ht="14.25" customHeight="1">
       <c r="A261" s="34" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B261" s="35" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C261" s="35" t="s">
         <v>324</v>
@@ -17156,13 +17165,13 @@
         <v>37</v>
       </c>
       <c r="I261" s="36" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J261" s="37">
         <v>45078</v>
       </c>
       <c r="K261" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L261" s="32" t="s">
         <v>192</v>
@@ -17184,10 +17193,10 @@
     </row>
     <row r="262" spans="1:26" ht="14.25" customHeight="1">
       <c r="A262" s="34" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B262" s="35" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C262" s="35" t="s">
         <v>287</v>
@@ -17208,13 +17217,13 @@
         <v>1</v>
       </c>
       <c r="I262" s="36" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J262" s="37">
         <v>45047</v>
       </c>
       <c r="K262" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L262" s="11" t="s">
         <v>192</v>
@@ -17236,16 +17245,16 @@
     </row>
     <row r="263" spans="1:26" ht="14.25" customHeight="1">
       <c r="A263" s="34" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B263" s="35" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C263" s="35" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D263" s="35" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E263" s="35" t="s">
         <v>16</v>
@@ -17260,16 +17269,16 @@
         <v>85</v>
       </c>
       <c r="I263" s="36" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="J263" s="37">
         <v>45079</v>
       </c>
       <c r="K263" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L263" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M263" s="11"/>
       <c r="N263" s="11"/>
@@ -17288,10 +17297,10 @@
     </row>
     <row r="264" spans="1:26" ht="14.25" customHeight="1">
       <c r="A264" s="34" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B264" s="35" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C264" s="35" t="s">
         <v>155</v>
@@ -17312,16 +17321,16 @@
         <v>10</v>
       </c>
       <c r="I264" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J264" s="37">
         <v>45108</v>
       </c>
       <c r="K264" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L264" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M264" s="11"/>
       <c r="N264" s="11"/>
@@ -17340,16 +17349,16 @@
     </row>
     <row r="265" spans="1:26" ht="14.25" customHeight="1">
       <c r="A265" s="34" t="s">
+        <v>772</v>
+      </c>
+      <c r="B265" s="35" t="s">
+        <v>775</v>
+      </c>
+      <c r="C265" s="35" t="s">
         <v>776</v>
       </c>
-      <c r="B265" s="35" t="s">
-        <v>779</v>
-      </c>
-      <c r="C265" s="35" t="s">
-        <v>780</v>
-      </c>
       <c r="D265" s="35" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E265" s="35" t="s">
         <v>311</v>
@@ -17364,16 +17373,16 @@
         <v>5</v>
       </c>
       <c r="I265" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J265" s="37">
         <v>45108</v>
       </c>
       <c r="K265" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L265" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M265" s="11"/>
       <c r="N265" s="11"/>
@@ -17392,10 +17401,10 @@
     </row>
     <row r="266" spans="1:26" ht="14.25" customHeight="1">
       <c r="A266" s="34" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B266" s="35" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C266" s="35" t="s">
         <v>46</v>
@@ -17416,7 +17425,7 @@
         <v>20</v>
       </c>
       <c r="I266" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J266" s="37">
         <v>45108</v>
@@ -17425,7 +17434,7 @@
         <v>39</v>
       </c>
       <c r="L266" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M266" s="11"/>
       <c r="N266" s="11"/>
@@ -17444,16 +17453,16 @@
     </row>
     <row r="267" spans="1:26" ht="14.25" customHeight="1">
       <c r="A267" s="34" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B267" s="35" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C267" s="35" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D267" s="35" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E267" s="35" t="s">
         <v>311</v>
@@ -17468,7 +17477,7 @@
         <v>7</v>
       </c>
       <c r="I267" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J267" s="37">
         <v>45108</v>
@@ -17477,7 +17486,7 @@
         <v>39</v>
       </c>
       <c r="L267" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M267" s="11"/>
       <c r="N267" s="11"/>
@@ -17496,13 +17505,13 @@
     </row>
     <row r="268" spans="1:26" ht="14.25" customHeight="1">
       <c r="A268" s="34" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B268" s="35" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C268" s="35" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D268" s="35" t="s">
         <v>318</v>
@@ -17520,7 +17529,7 @@
         <v>19</v>
       </c>
       <c r="I268" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J268" s="37">
         <v>45108</v>
@@ -17529,7 +17538,7 @@
         <v>39</v>
       </c>
       <c r="L268" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M268" s="11"/>
       <c r="N268" s="11"/>
@@ -17548,16 +17557,16 @@
     </row>
     <row r="269" spans="1:26" ht="14.25" customHeight="1">
       <c r="A269" s="34" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B269" s="35" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C269" s="35" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D269" s="35" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E269" s="35" t="s">
         <v>311</v>
@@ -17572,16 +17581,16 @@
         <v>3</v>
       </c>
       <c r="I269" s="36" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J269" s="37">
         <v>45108</v>
       </c>
       <c r="K269" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L269" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M269" s="11"/>
       <c r="N269" s="11"/>
@@ -17600,13 +17609,13 @@
     </row>
     <row r="270" spans="1:26" ht="17.25" customHeight="1">
       <c r="A270" s="34" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B270" s="35" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C270" s="35" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D270" s="35" t="s">
         <v>111</v>
@@ -17624,13 +17633,13 @@
         <v>21</v>
       </c>
       <c r="I270" s="36" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="J270" s="37">
         <v>45056</v>
       </c>
       <c r="K270" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L270" s="11" t="s">
         <v>157</v>
@@ -17652,13 +17661,13 @@
     </row>
     <row r="271" spans="1:26" ht="14.25" customHeight="1">
       <c r="A271" s="34" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B271" s="35" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C271" s="35" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D271" s="35" t="s">
         <v>111</v>
@@ -17670,19 +17679,19 @@
         <v>52142</v>
       </c>
       <c r="G271" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H271" s="41">
         <v>1</v>
       </c>
       <c r="I271" s="36" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="J271" s="37">
         <v>45057</v>
       </c>
       <c r="K271" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L271" s="11" t="s">
         <v>157</v>
@@ -17704,13 +17713,13 @@
     </row>
     <row r="272" spans="1:26" ht="14.25" customHeight="1">
       <c r="A272" s="34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B272" s="35" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C272" s="35" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D272" s="35" t="s">
         <v>24</v>
@@ -17728,13 +17737,13 @@
         <v>25</v>
       </c>
       <c r="I272" s="36" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="J272" s="37">
         <v>45061</v>
       </c>
       <c r="K272" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L272" s="11" t="s">
         <v>20</v>
@@ -17756,7 +17765,7 @@
     </row>
     <row r="273" spans="1:26" ht="14.25" customHeight="1">
       <c r="A273" s="34" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B273" s="35" t="s">
         <v>278</v>
@@ -17774,19 +17783,19 @@
         <v>52243</v>
       </c>
       <c r="G273" s="35" t="s">
-        <v>796</v>
+        <v>319</v>
       </c>
       <c r="H273" s="41">
         <v>106</v>
       </c>
       <c r="I273" s="36" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="J273" s="37">
         <v>45096</v>
       </c>
       <c r="K273" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L273" s="26" t="s">
         <v>33</v>
@@ -17808,13 +17817,13 @@
     </row>
     <row r="274" spans="1:26" ht="14.25" customHeight="1">
       <c r="A274" s="34" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B274" s="35" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C274" s="35" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D274" s="35" t="s">
         <v>111</v>
@@ -17826,19 +17835,19 @@
         <v>52142</v>
       </c>
       <c r="G274" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H274" s="41">
         <v>13</v>
       </c>
       <c r="I274" s="36" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="J274" s="37">
         <v>45070</v>
       </c>
       <c r="K274" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L274" s="11" t="s">
         <v>157</v>
@@ -17860,16 +17869,16 @@
     </row>
     <row r="275" spans="1:26" ht="14.25" customHeight="1">
       <c r="A275" s="34" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B275" s="35" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C275" s="35" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D275" s="35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E275" s="35" t="s">
         <v>311</v>
@@ -17884,13 +17893,13 @@
         <v>92</v>
       </c>
       <c r="I275" s="36" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="J275" s="37">
         <v>45107</v>
       </c>
       <c r="K275" s="11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="L275" s="32" t="s">
         <v>58</v>
@@ -17912,10 +17921,10 @@
     </row>
     <row r="276" spans="1:26" ht="14.25" customHeight="1">
       <c r="A276" s="34" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B276" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C276" s="35" t="s">
         <v>318</v>
@@ -17936,13 +17945,13 @@
         <v>38</v>
       </c>
       <c r="I276" s="36" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="J276" s="37">
         <v>45138</v>
       </c>
       <c r="K276" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L276" s="11" t="s">
         <v>20</v>
@@ -17964,13 +17973,13 @@
     </row>
     <row r="277" spans="1:26" ht="14.25" customHeight="1">
       <c r="A277" s="34" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B277" s="35" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C277" s="35" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D277" s="35" t="s">
         <v>24</v>
@@ -17982,22 +17991,22 @@
         <v>50325</v>
       </c>
       <c r="G277" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H277" s="41">
         <v>22</v>
       </c>
       <c r="I277" s="36" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="J277" s="37">
         <v>45158</v>
       </c>
       <c r="K277" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L277" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M277" s="11"/>
       <c r="N277" s="11"/>
@@ -18016,13 +18025,13 @@
     </row>
     <row r="278" spans="1:26" ht="14.25" customHeight="1">
       <c r="A278" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B278" s="35" t="s">
         <v>755</v>
       </c>
-      <c r="B278" s="35" t="s">
-        <v>759</v>
-      </c>
       <c r="C278" s="35" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D278" s="35" t="s">
         <v>64</v>
@@ -18034,22 +18043,22 @@
         <v>52302</v>
       </c>
       <c r="G278" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H278" s="41">
         <v>25</v>
       </c>
       <c r="I278" s="36" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="J278" s="37">
         <v>45158</v>
       </c>
       <c r="K278" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L278" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M278" s="11"/>
       <c r="N278" s="11"/>
@@ -18068,16 +18077,16 @@
     </row>
     <row r="279" spans="1:26" ht="14.25" customHeight="1">
       <c r="A279" s="34" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B279" s="35" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C279" s="35" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D279" s="35" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E279" s="35" t="s">
         <v>16</v>
@@ -18086,22 +18095,22 @@
         <v>51106</v>
       </c>
       <c r="G279" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H279" s="41">
         <v>20</v>
       </c>
       <c r="I279" s="36" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="J279" s="37">
         <v>45158</v>
       </c>
       <c r="K279" s="11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="L279" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M279" s="11"/>
       <c r="N279" s="11"/>
@@ -18120,16 +18129,16 @@
     </row>
     <row r="280" spans="1:26" ht="14.25" customHeight="1">
       <c r="A280" s="34" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B280" s="35" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C280" s="35" t="s">
         <v>359</v>
       </c>
       <c r="D280" s="35" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E280" s="35" t="s">
         <v>16</v>
@@ -18138,22 +18147,22 @@
         <v>52807</v>
       </c>
       <c r="G280" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H280" s="41">
         <v>26</v>
       </c>
       <c r="I280" s="36" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="J280" s="37">
         <v>45158</v>
       </c>
       <c r="K280" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L280" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M280" s="11"/>
       <c r="N280" s="11"/>
@@ -18172,19 +18181,19 @@
     </row>
     <row r="281" spans="1:26" ht="14.25" customHeight="1">
       <c r="A281" s="34" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B281" s="35" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C281" s="35" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D281" s="35" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E281" s="35" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F281" s="35">
         <v>93721</v>
@@ -18196,13 +18205,13 @@
         <v>4</v>
       </c>
       <c r="I281" s="36" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="J281" s="37">
         <v>45091</v>
       </c>
       <c r="K281" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="L281" s="38" t="s">
         <v>33</v>
@@ -18224,16 +18233,16 @@
     </row>
     <row r="282" spans="1:26" ht="14.25" customHeight="1">
       <c r="A282" s="34" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B282" s="35" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C282" s="35" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D282" s="35" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E282" s="35" t="s">
         <v>311</v>
@@ -18248,16 +18257,16 @@
         <v>125</v>
       </c>
       <c r="I282" s="36" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="J282" s="37">
         <v>45153</v>
       </c>
       <c r="K282" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L282" s="38" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="M282" s="11"/>
       <c r="N282" s="11"/>
@@ -18276,16 +18285,16 @@
     </row>
     <row r="283" spans="1:26" ht="14.25" customHeight="1">
       <c r="A283" s="18" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C283" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D283" s="11" t="s">
         <v>482</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>483</v>
       </c>
       <c r="E283" s="11" t="s">
         <v>311</v>
@@ -18300,16 +18309,16 @@
         <v>101</v>
       </c>
       <c r="I283" s="12" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="J283" s="6">
         <v>45174</v>
       </c>
       <c r="K283" s="11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="L283" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M283" s="11"/>
       <c r="N283" s="11"/>
@@ -18328,16 +18337,16 @@
     </row>
     <row r="284" spans="1:26" ht="14.25" customHeight="1">
       <c r="A284" s="18" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E284" s="11" t="s">
         <v>311</v>
@@ -18352,16 +18361,16 @@
         <v>1</v>
       </c>
       <c r="I284" s="12" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="J284" s="6">
         <v>45169</v>
       </c>
       <c r="K284" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L284" s="21" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="M284" s="11"/>
       <c r="N284" s="11"/>
@@ -18380,16 +18389,16 @@
     </row>
     <row r="285" spans="1:26" ht="14.25" customHeight="1">
       <c r="A285" s="18" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E285" s="11" t="s">
         <v>311</v>
@@ -18404,13 +18413,13 @@
         <v>36</v>
       </c>
       <c r="I285" s="12" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="J285" s="6">
         <v>45143</v>
       </c>
       <c r="K285" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L285" s="21" t="s">
         <v>250</v>
@@ -18432,10 +18441,10 @@
     </row>
     <row r="286" spans="1:26" ht="14.25" customHeight="1">
       <c r="A286" s="18" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>318</v>
@@ -18456,13 +18465,13 @@
         <v>29</v>
       </c>
       <c r="I286" s="12" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="J286" s="6">
         <v>45170</v>
       </c>
       <c r="K286" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L286" s="20" t="s">
         <v>58</v>
@@ -18484,13 +18493,13 @@
     </row>
     <row r="287" spans="1:26" ht="14.25" customHeight="1">
       <c r="A287" s="18" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D287" s="11" t="s">
         <v>24</v>
@@ -18508,16 +18517,16 @@
         <v>29</v>
       </c>
       <c r="I287" s="12" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="J287" s="6">
         <v>45158</v>
       </c>
       <c r="K287" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L287" s="21" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M287" s="11"/>
       <c r="N287" s="11"/>
@@ -18536,10 +18545,10 @@
     </row>
     <row r="288" spans="1:26" ht="14.25" customHeight="1">
       <c r="A288" s="18" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>315</v>
@@ -18560,13 +18569,13 @@
         <v>211</v>
       </c>
       <c r="I288" s="12" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="J288" s="6">
         <v>45205</v>
       </c>
       <c r="K288" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L288" s="20" t="s">
         <v>58</v>
@@ -18588,10 +18597,10 @@
     </row>
     <row r="289" spans="1:26" ht="14.25" customHeight="1">
       <c r="A289" s="18" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>315</v>
@@ -18612,13 +18621,13 @@
         <v>6</v>
       </c>
       <c r="I289" s="12" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="J289" s="6">
         <v>45261</v>
       </c>
       <c r="K289" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L289" s="20" t="s">
         <v>58</v>
@@ -18640,10 +18649,10 @@
     </row>
     <row r="290" spans="1:26" ht="14.25" customHeight="1">
       <c r="A290" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>52</v>
@@ -18664,13 +18673,13 @@
         <v>65</v>
       </c>
       <c r="I290" s="12" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="J290" s="6">
         <v>45118</v>
       </c>
       <c r="K290" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L290" s="11" t="s">
         <v>20</v>
@@ -18692,10 +18701,10 @@
     </row>
     <row r="291" spans="1:26" ht="14.25" customHeight="1">
       <c r="A291" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>318</v>
@@ -18716,7 +18725,7 @@
         <v>7</v>
       </c>
       <c r="I291" s="12" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="J291" s="6">
         <v>45118</v>
@@ -18744,10 +18753,10 @@
     </row>
     <row r="292" spans="1:26" ht="14.25" customHeight="1">
       <c r="A292" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>318</v>
@@ -18762,19 +18771,19 @@
         <v>50309</v>
       </c>
       <c r="G292" s="11" t="s">
-        <v>838</v>
+        <v>319</v>
       </c>
       <c r="H292" s="40">
         <v>8</v>
       </c>
       <c r="I292" s="12" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="J292" s="6">
         <v>45146</v>
       </c>
       <c r="K292" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L292" s="11" t="s">
         <v>20</v>
@@ -18796,16 +18805,16 @@
     </row>
     <row r="293" spans="1:26" ht="14.25" customHeight="1">
       <c r="A293" s="18" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E293" s="11" t="s">
         <v>16</v>
@@ -18820,13 +18829,13 @@
         <v>92</v>
       </c>
       <c r="I293" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="J293" s="6">
         <v>45137</v>
       </c>
       <c r="K293" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L293" s="21" t="s">
         <v>250</v>
@@ -18848,10 +18857,10 @@
     </row>
     <row r="294" spans="1:26" ht="14.25" customHeight="1">
       <c r="A294" s="18" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>52</v>
@@ -18872,13 +18881,13 @@
         <v>49</v>
       </c>
       <c r="I294" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="J294" s="6">
         <v>45137</v>
       </c>
       <c r="K294" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L294" s="21" t="s">
         <v>250</v>
@@ -18900,16 +18909,16 @@
     </row>
     <row r="295" spans="1:26" ht="14.25" customHeight="1">
       <c r="A295" s="18" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E295" s="11" t="s">
         <v>311</v>
@@ -18924,13 +18933,13 @@
         <v>7</v>
       </c>
       <c r="I295" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="J295" s="6">
         <v>45137</v>
       </c>
       <c r="K295" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L295" s="21" t="s">
         <v>250</v>
@@ -18952,13 +18961,13 @@
     </row>
     <row r="296" spans="1:26" ht="14.25" customHeight="1">
       <c r="A296" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="B296" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="B296" s="11" t="s">
-        <v>845</v>
-      </c>
       <c r="C296" s="11" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="D296" s="11" t="s">
         <v>77</v>
@@ -18976,13 +18985,13 @@
         <v>4</v>
       </c>
       <c r="I296" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="J296" s="6">
         <v>45137</v>
       </c>
       <c r="K296" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L296" s="21" t="s">
         <v>250</v>
@@ -19004,16 +19013,16 @@
     </row>
     <row r="297" spans="1:26" ht="14.25" customHeight="1">
       <c r="A297" s="18" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E297" s="11" t="s">
         <v>311</v>
@@ -19028,13 +19037,13 @@
         <v>1</v>
       </c>
       <c r="I297" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="J297" s="6">
         <v>45137</v>
       </c>
       <c r="K297" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L297" s="21" t="s">
         <v>250</v>
@@ -19056,16 +19065,16 @@
     </row>
     <row r="298" spans="1:26" ht="14.25" customHeight="1">
       <c r="A298" s="18" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>188</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E298" s="11" t="s">
         <v>311</v>
@@ -19080,13 +19089,13 @@
         <v>30</v>
       </c>
       <c r="I298" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="J298" s="6">
         <v>45137</v>
       </c>
       <c r="K298" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L298" s="21" t="s">
         <v>250</v>
@@ -19108,10 +19117,10 @@
     </row>
     <row r="299" spans="1:26" ht="14.25" customHeight="1">
       <c r="A299" s="18" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C299" s="11" t="s">
         <v>63</v>
@@ -19132,13 +19141,13 @@
         <v>1</v>
       </c>
       <c r="I299" s="12" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="J299" s="6">
         <v>45137</v>
       </c>
       <c r="K299" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L299" s="21" t="s">
         <v>250</v>
@@ -19160,13 +19169,13 @@
     </row>
     <row r="300" spans="1:26" ht="14.25" customHeight="1">
       <c r="A300" s="18" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D300" s="11" t="s">
         <v>37</v>
@@ -19184,13 +19193,13 @@
         <v>46</v>
       </c>
       <c r="I300" s="12" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="J300" s="6">
         <v>45154</v>
       </c>
       <c r="K300" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L300" s="20" t="s">
         <v>58</v>
@@ -19212,10 +19221,10 @@
     </row>
     <row r="301" spans="1:26" ht="14.25" customHeight="1">
       <c r="A301" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>52</v>
@@ -19230,19 +19239,19 @@
         <v>50309</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H301" s="40">
         <v>1</v>
       </c>
       <c r="I301" s="12" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="J301" s="6">
         <v>45160</v>
       </c>
       <c r="K301" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L301" s="11" t="s">
         <v>20</v>
@@ -19264,16 +19273,16 @@
     </row>
     <row r="302" spans="1:26" ht="14.25" customHeight="1">
       <c r="A302" s="18" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E302" s="11" t="s">
         <v>311</v>
@@ -19288,13 +19297,13 @@
         <v>46</v>
       </c>
       <c r="I302" s="12" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="J302" s="6">
         <v>45176</v>
       </c>
       <c r="K302" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L302" s="11" t="s">
         <v>277</v>
@@ -19316,16 +19325,16 @@
     </row>
     <row r="303" spans="1:26" ht="14.25" customHeight="1">
       <c r="A303" s="18" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E303" s="11" t="s">
         <v>311</v>
@@ -19340,16 +19349,16 @@
         <v>38</v>
       </c>
       <c r="I303" s="12" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="J303" s="6">
         <v>45217</v>
       </c>
       <c r="K303" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L303" s="11" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="M303" s="11"/>
       <c r="N303" s="11"/>
@@ -19368,13 +19377,13 @@
     </row>
     <row r="304" spans="1:26" ht="14.25" customHeight="1">
       <c r="A304" s="18" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D304" s="11" t="s">
         <v>24</v>
@@ -19392,13 +19401,13 @@
         <v>155</v>
       </c>
       <c r="I304" s="12" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="J304" s="6">
         <v>45218</v>
       </c>
       <c r="K304" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L304" s="11" t="s">
         <v>33</v>
@@ -19420,13 +19429,13 @@
     </row>
     <row r="305" spans="1:26" ht="14.25" customHeight="1">
       <c r="A305" s="18" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>72</v>
@@ -19444,16 +19453,16 @@
         <v>100</v>
       </c>
       <c r="I305" s="12" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="J305" s="6">
         <v>45198</v>
       </c>
       <c r="K305" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L305" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M305" s="11"/>
       <c r="N305" s="11"/>
@@ -19475,7 +19484,7 @@
         <v>308</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>324</v>
@@ -19496,13 +19505,13 @@
         <v>68</v>
       </c>
       <c r="I306" s="12" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="J306" s="6">
         <v>45212</v>
       </c>
       <c r="K306" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L306" s="20" t="s">
         <v>58</v>
@@ -19524,10 +19533,10 @@
     </row>
     <row r="307" spans="1:26" ht="14.25" customHeight="1">
       <c r="A307" s="18" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>266</v>
@@ -19548,13 +19557,13 @@
         <v>123</v>
       </c>
       <c r="I307" s="12" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="J307" s="6">
         <v>45197</v>
       </c>
       <c r="K307" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L307" s="20" t="s">
         <v>58</v>
@@ -19576,10 +19585,10 @@
     </row>
     <row r="308" spans="1:26" ht="14.25" customHeight="1">
       <c r="A308" s="18" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>76</v>
@@ -19600,7 +19609,7 @@
         <v>43</v>
       </c>
       <c r="I308" s="12" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="J308" s="6">
         <v>45191</v>
@@ -19628,10 +19637,10 @@
     </row>
     <row r="309" spans="1:26" ht="14.25" customHeight="1">
       <c r="A309" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>52</v>
@@ -19652,7 +19661,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="12" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J309" s="6">
         <v>45263</v>
@@ -19680,13 +19689,13 @@
     </row>
     <row r="310" spans="1:26" ht="14.25" customHeight="1">
       <c r="A310" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>24</v>
@@ -19704,7 +19713,7 @@
         <v>34</v>
       </c>
       <c r="I310" s="12" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J310" s="6">
         <v>45263</v>
@@ -19732,10 +19741,10 @@
     </row>
     <row r="311" spans="1:26" ht="14.25" customHeight="1">
       <c r="A311" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>318</v>
@@ -19756,13 +19765,13 @@
         <v>4</v>
       </c>
       <c r="I311" s="12" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="J311" s="6">
         <v>45277</v>
       </c>
       <c r="K311" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L311" s="11" t="s">
         <v>20</v>
@@ -19784,10 +19793,10 @@
     </row>
     <row r="312" spans="1:26" ht="14.25" customHeight="1">
       <c r="A312" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>52</v>
@@ -19808,13 +19817,13 @@
         <v>1</v>
       </c>
       <c r="I312" s="12" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="J312" s="6">
         <v>45277</v>
       </c>
       <c r="K312" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L312" s="11" t="s">
         <v>20</v>
@@ -19836,10 +19845,10 @@
     </row>
     <row r="313" spans="1:26" ht="14.25" customHeight="1">
       <c r="A313" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>52</v>
@@ -19860,13 +19869,13 @@
         <v>6</v>
       </c>
       <c r="I313" s="12" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="J313" s="6">
         <v>45277</v>
       </c>
       <c r="K313" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L313" s="11" t="s">
         <v>20</v>
@@ -19888,10 +19897,10 @@
     </row>
     <row r="314" spans="1:26" ht="14.25" customHeight="1">
       <c r="A314" s="18" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>324</v>
@@ -19912,13 +19921,13 @@
         <v>40</v>
       </c>
       <c r="I314" s="12" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="J314" s="6">
         <v>45223</v>
       </c>
       <c r="K314" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L314" s="11" t="s">
         <v>20</v>
@@ -19940,10 +19949,10 @@
     </row>
     <row r="315" spans="1:26" ht="14.25" customHeight="1">
       <c r="A315" s="18" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>52</v>
@@ -19964,16 +19973,16 @@
         <v>27</v>
       </c>
       <c r="I315" s="12" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="J315" s="6">
         <v>45237</v>
       </c>
       <c r="K315" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L315" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="M315" s="11"/>
       <c r="N315" s="11"/>
@@ -19992,10 +20001,10 @@
     </row>
     <row r="316" spans="1:26" ht="14.25" customHeight="1">
       <c r="A316" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>31</v>
@@ -20016,13 +20025,13 @@
         <v>1</v>
       </c>
       <c r="I316" s="12" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="J316" s="6">
         <v>45305</v>
       </c>
       <c r="K316" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L316" s="11" t="s">
         <v>20</v>
@@ -20044,10 +20053,10 @@
     </row>
     <row r="317" spans="1:26" ht="14.25" customHeight="1">
       <c r="A317" s="18" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>31</v>
@@ -20068,13 +20077,13 @@
         <v>43</v>
       </c>
       <c r="I317" s="12" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="J317" s="6">
         <v>45275</v>
       </c>
       <c r="K317" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L317" s="11" t="s">
         <v>20</v>
@@ -20096,16 +20105,16 @@
     </row>
     <row r="318" spans="1:26" ht="14.25" customHeight="1">
       <c r="A318" s="18" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E318" s="11" t="s">
         <v>311</v>
@@ -20120,16 +20129,16 @@
         <v>5</v>
       </c>
       <c r="I318" s="12" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J318" s="6">
         <v>45318</v>
       </c>
       <c r="K318" s="11" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="L318" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M318" s="11"/>
       <c r="N318" s="11"/>
@@ -20148,10 +20157,10 @@
     </row>
     <row r="319" spans="1:26" ht="14.25" customHeight="1">
       <c r="A319" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>31</v>
@@ -20172,13 +20181,13 @@
         <v>8</v>
       </c>
       <c r="I319" s="12" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J319" s="6">
         <v>45319</v>
       </c>
       <c r="K319" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L319" s="11" t="s">
         <v>20</v>
@@ -20200,16 +20209,16 @@
     </row>
     <row r="320" spans="1:26" ht="14.25" customHeight="1">
       <c r="A320" s="18" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E320" s="11" t="s">
         <v>311</v>
@@ -20224,16 +20233,16 @@
         <v>1</v>
       </c>
       <c r="I320" s="12" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="J320" s="6">
         <v>45331</v>
       </c>
       <c r="K320" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L320" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M320" s="11"/>
       <c r="N320" s="11"/>
@@ -20252,10 +20261,10 @@
     </row>
     <row r="321" spans="1:26" ht="14.25" customHeight="1">
       <c r="A321" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>31</v>
@@ -20276,13 +20285,13 @@
         <v>1</v>
       </c>
       <c r="I321" s="12" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="J321" s="6">
         <v>44969</v>
       </c>
       <c r="K321" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L321" s="11" t="s">
         <v>20</v>
@@ -20304,10 +20313,10 @@
     </row>
     <row r="322" spans="1:26" ht="14.25" customHeight="1">
       <c r="A322" s="18" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>398</v>
@@ -20328,7 +20337,7 @@
         <v>45</v>
       </c>
       <c r="I322" s="12" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J322" s="6">
         <v>45345</v>
@@ -20337,7 +20346,7 @@
         <v>39</v>
       </c>
       <c r="L322" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M322" s="11"/>
       <c r="N322" s="11"/>
@@ -20356,10 +20365,10 @@
     </row>
     <row r="323" spans="1:26" ht="14.25" customHeight="1">
       <c r="A323" s="18" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>398</v>
@@ -20380,7 +20389,7 @@
         <v>11</v>
       </c>
       <c r="I323" s="12" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J323" s="6">
         <v>45345</v>
@@ -20389,7 +20398,7 @@
         <v>39</v>
       </c>
       <c r="L323" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M323" s="11"/>
       <c r="N323" s="11"/>
@@ -20408,13 +20417,13 @@
     </row>
     <row r="324" spans="1:26" ht="14.25" customHeight="1">
       <c r="A324" s="18" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D324" s="11" t="s">
         <v>306</v>
@@ -20432,7 +20441,7 @@
         <v>11</v>
       </c>
       <c r="I324" s="12" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J324" s="6">
         <v>45345</v>
@@ -20441,7 +20450,7 @@
         <v>39</v>
       </c>
       <c r="L324" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M324" s="11"/>
       <c r="N324" s="11"/>
@@ -20460,10 +20469,10 @@
     </row>
     <row r="325" spans="1:26" ht="14.25" customHeight="1">
       <c r="A325" s="18" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>175</v>
@@ -20484,13 +20493,13 @@
         <v>85</v>
       </c>
       <c r="I325" s="12" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="J325" s="6">
         <v>45322</v>
       </c>
       <c r="K325" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L325" s="21" t="s">
         <v>250</v>
@@ -20512,10 +20521,10 @@
     </row>
     <row r="326" spans="1:26" ht="14.25" customHeight="1">
       <c r="A326" s="18" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>90</v>
@@ -20536,16 +20545,16 @@
         <v>65</v>
       </c>
       <c r="I326" s="12" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="J326" s="6">
         <v>45292</v>
       </c>
       <c r="K326" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L326" s="11" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="M326" s="11"/>
       <c r="N326" s="11"/>
@@ -20564,10 +20573,10 @@
     </row>
     <row r="327" spans="1:26" ht="14.25" customHeight="1">
       <c r="A327" s="18" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>99</v>
@@ -20588,13 +20597,13 @@
         <v>46</v>
       </c>
       <c r="I327" s="12" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="J327" s="6">
         <v>45343</v>
       </c>
       <c r="K327" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L327" s="21" t="s">
         <v>250</v>
@@ -20616,16 +20625,16 @@
     </row>
     <row r="328" spans="1:26" ht="14.25" customHeight="1">
       <c r="A328" s="18" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E328" s="11" t="s">
         <v>311</v>
@@ -20640,16 +20649,16 @@
         <v>35</v>
       </c>
       <c r="I328" s="12" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="J328" s="6">
         <v>45316</v>
       </c>
       <c r="K328" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L328" s="11" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="M328" s="11"/>
       <c r="N328" s="11"/>
@@ -20668,16 +20677,16 @@
     </row>
     <row r="329" spans="1:26" ht="14.25" customHeight="1">
       <c r="A329" s="18" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>155</v>
       </c>
       <c r="D329" s="11" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E329" s="11" t="s">
         <v>311</v>
@@ -20692,16 +20701,16 @@
         <v>52</v>
       </c>
       <c r="I329" s="12" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="J329" s="6">
         <v>45323</v>
       </c>
       <c r="K329" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L329" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M329" s="11"/>
       <c r="N329" s="11"/>
@@ -20720,16 +20729,16 @@
     </row>
     <row r="330" spans="1:26" ht="14.25" customHeight="1">
       <c r="A330" s="18" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D330" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E330" s="11" t="s">
         <v>311</v>
@@ -20744,13 +20753,13 @@
         <v>66</v>
       </c>
       <c r="I330" s="12" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="J330" s="6">
         <v>45324</v>
       </c>
       <c r="K330" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L330" s="47" t="s">
         <v>33</v>
@@ -20772,16 +20781,16 @@
     </row>
     <row r="331" spans="1:26" ht="14.25" customHeight="1">
       <c r="A331" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E331" s="11" t="s">
         <v>16</v>
@@ -20796,16 +20805,16 @@
         <v>46</v>
       </c>
       <c r="I331" s="12" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="J331" s="6">
         <v>45364</v>
       </c>
       <c r="K331" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L331" s="11" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="M331" s="11"/>
       <c r="N331" s="11"/>
@@ -20824,10 +20833,10 @@
     </row>
     <row r="332" spans="1:26" ht="14.25" customHeight="1">
       <c r="A332" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>31</v>
@@ -20848,13 +20857,13 @@
         <v>6</v>
       </c>
       <c r="I332" s="12" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="J332" s="6">
         <v>45314</v>
       </c>
       <c r="K332" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L332" s="11" t="s">
         <v>20</v>
@@ -20876,10 +20885,10 @@
     </row>
     <row r="333" spans="1:26" ht="14.25" customHeight="1">
       <c r="A333" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>31</v>
@@ -20900,13 +20909,13 @@
         <v>5</v>
       </c>
       <c r="I333" s="12" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="J333" s="6">
         <v>45328</v>
       </c>
       <c r="K333" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L333" s="11" t="s">
         <v>20</v>
@@ -20928,10 +20937,10 @@
     </row>
     <row r="334" spans="1:26" ht="14.25" customHeight="1">
       <c r="A334" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>31</v>
@@ -20952,13 +20961,13 @@
         <v>25</v>
       </c>
       <c r="I334" s="12" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="J334" s="6">
         <v>45342</v>
       </c>
       <c r="K334" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L334" s="11" t="s">
         <v>20</v>
@@ -20980,10 +20989,10 @@
     </row>
     <row r="335" spans="1:26" ht="14.25" customHeight="1">
       <c r="A335" s="18" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>31</v>
@@ -21004,7 +21013,7 @@
         <v>44</v>
       </c>
       <c r="I335" s="12" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="J335" s="6">
         <v>45344</v>
@@ -21032,16 +21041,16 @@
     </row>
     <row r="336" spans="1:26" ht="14.25" customHeight="1">
       <c r="A336" s="18" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E336" s="11" t="s">
         <v>311</v>
@@ -21056,16 +21065,16 @@
         <v>5</v>
       </c>
       <c r="I336" s="12" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="J336" s="6">
         <v>45415</v>
       </c>
       <c r="K336" s="11" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="L336" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M336" s="11"/>
       <c r="N336" s="11"/>
@@ -21084,10 +21093,10 @@
     </row>
     <row r="337" spans="1:26" ht="14.25" customHeight="1">
       <c r="A337" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>31</v>
@@ -21108,13 +21117,13 @@
         <v>22</v>
       </c>
       <c r="I337" s="12" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="J337" s="6">
         <v>45356</v>
       </c>
       <c r="K337" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L337" s="11" t="s">
         <v>20</v>
@@ -21136,16 +21145,16 @@
     </row>
     <row r="338" spans="1:26" ht="14.25" customHeight="1">
       <c r="A338" s="18" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E338" s="11" t="s">
         <v>311</v>
@@ -21160,13 +21169,13 @@
         <v>1276</v>
       </c>
       <c r="I338" s="12" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="J338" s="6">
         <v>45471</v>
       </c>
       <c r="K338" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L338" s="20" t="s">
         <v>58</v>
@@ -21188,10 +21197,10 @@
     </row>
     <row r="339" spans="1:26" ht="14.25" customHeight="1">
       <c r="A339" s="18" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>223</v>
@@ -21212,13 +21221,13 @@
         <v>30</v>
       </c>
       <c r="I339" s="12" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J339" s="6">
         <v>45390</v>
       </c>
       <c r="K339" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L339" s="20" t="s">
         <v>58</v>
@@ -21240,10 +21249,10 @@
     </row>
     <row r="340" spans="1:26" ht="14.25" customHeight="1">
       <c r="A340" s="18" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>223</v>
@@ -21264,13 +21273,13 @@
         <v>30</v>
       </c>
       <c r="I340" s="12" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J340" s="6">
         <v>45397</v>
       </c>
       <c r="K340" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L340" s="20" t="s">
         <v>58</v>
@@ -21292,10 +21301,10 @@
     </row>
     <row r="341" spans="1:26" ht="14.25" customHeight="1">
       <c r="A341" s="18" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>223</v>
@@ -21316,13 +21325,13 @@
         <v>30</v>
       </c>
       <c r="I341" s="12" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J341" s="6">
         <v>45411</v>
       </c>
       <c r="K341" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L341" s="20" t="s">
         <v>58</v>
@@ -21344,10 +21353,10 @@
     </row>
     <row r="342" spans="1:26" ht="14.25" customHeight="1">
       <c r="A342" s="18" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>223</v>
@@ -21368,13 +21377,13 @@
         <v>30</v>
       </c>
       <c r="I342" s="12" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J342" s="6">
         <v>45418</v>
       </c>
       <c r="K342" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L342" s="20" t="s">
         <v>58</v>
@@ -21396,10 +21405,10 @@
     </row>
     <row r="343" spans="1:26" ht="14.25" customHeight="1">
       <c r="A343" s="18" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>223</v>
@@ -21420,13 +21429,13 @@
         <v>30</v>
       </c>
       <c r="I343" s="12" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J343" s="6">
         <v>45432</v>
       </c>
       <c r="K343" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L343" s="20" t="s">
         <v>58</v>
@@ -21448,13 +21457,13 @@
     </row>
     <row r="344" spans="1:26" ht="14.25" customHeight="1">
       <c r="A344" s="18" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D344" s="11" t="s">
         <v>261</v>
@@ -21472,13 +21481,13 @@
         <v>46</v>
       </c>
       <c r="I344" s="12" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J344" s="6">
         <v>45395</v>
       </c>
       <c r="K344" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L344" s="20" t="s">
         <v>58</v>
@@ -21500,10 +21509,10 @@
     </row>
     <row r="345" spans="1:26" ht="14.25" customHeight="1">
       <c r="A345" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>31</v>
@@ -21518,19 +21527,19 @@
         <v>50266</v>
       </c>
       <c r="G345" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H345" s="40">
         <v>13</v>
       </c>
       <c r="I345" s="12" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="J345" s="6">
         <v>45370</v>
       </c>
       <c r="K345" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L345" s="11" t="s">
         <v>20</v>
@@ -21552,13 +21561,13 @@
     </row>
     <row r="346" spans="1:26" ht="14.25" customHeight="1">
       <c r="A346" s="18" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D346" s="11" t="s">
         <v>15</v>
@@ -21576,13 +21585,13 @@
         <v>308</v>
       </c>
       <c r="I346" s="12" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="J346" s="6">
         <v>45408</v>
       </c>
       <c r="K346" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L346" s="20" t="s">
         <v>58</v>
@@ -21604,16 +21613,16 @@
     </row>
     <row r="347" spans="1:26" ht="14.25" customHeight="1">
       <c r="A347" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E347" s="11" t="s">
         <v>311</v>
@@ -21628,16 +21637,16 @@
         <v>76</v>
       </c>
       <c r="I347" s="12" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="J347" s="6">
         <v>45471</v>
       </c>
       <c r="K347" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L347" s="38" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="M347" s="11"/>
       <c r="N347" s="11"/>
@@ -21656,16 +21665,16 @@
     </row>
     <row r="348" spans="1:26" ht="14.25" customHeight="1">
       <c r="A348" s="18" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E348" s="11" t="s">
         <v>16</v>
@@ -21680,13 +21689,13 @@
         <v>24</v>
       </c>
       <c r="I348" s="12" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="J348" s="6">
         <v>45418</v>
       </c>
       <c r="K348" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L348" s="20" t="s">
         <v>58</v>
@@ -21708,16 +21717,16 @@
     </row>
     <row r="349" spans="1:26" ht="14.25" customHeight="1">
       <c r="A349" s="18" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E349" s="11" t="s">
         <v>311</v>
@@ -21732,13 +21741,13 @@
         <v>28</v>
       </c>
       <c r="I349" s="12" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="J349" s="6">
         <v>45434</v>
       </c>
       <c r="K349" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L349" s="11" t="s">
         <v>277</v>
@@ -21760,16 +21769,16 @@
     </row>
     <row r="350" spans="1:26" ht="14.25" customHeight="1">
       <c r="A350" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E350" s="11" t="s">
         <v>311</v>
@@ -21778,19 +21787,19 @@
         <v>50266</v>
       </c>
       <c r="G350" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H350" s="40">
         <v>5</v>
       </c>
       <c r="I350" s="12" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="J350" s="6">
         <v>45384</v>
       </c>
       <c r="K350" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L350" s="11" t="s">
         <v>20</v>
@@ -21812,16 +21821,16 @@
     </row>
     <row r="351" spans="1:26" ht="14.25" customHeight="1">
       <c r="A351" s="18" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="E351" s="11" t="s">
         <v>311</v>
@@ -21836,13 +21845,13 @@
         <v>14</v>
       </c>
       <c r="I351" s="12" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="J351" s="6">
         <v>45415</v>
       </c>
       <c r="K351" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L351" s="20" t="s">
         <v>58</v>
@@ -21864,16 +21873,16 @@
     </row>
     <row r="352" spans="1:26" ht="14.25" customHeight="1">
       <c r="A352" s="18" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="E352" s="11" t="s">
         <v>311</v>
@@ -21888,13 +21897,13 @@
         <v>5</v>
       </c>
       <c r="I352" s="12" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="J352" s="6">
         <v>45473</v>
       </c>
       <c r="K352" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L352" s="20" t="s">
         <v>58</v>
@@ -21916,13 +21925,13 @@
     </row>
     <row r="353" spans="1:26" ht="14.25" customHeight="1">
       <c r="A353" s="18" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>261</v>
@@ -21940,16 +21949,16 @@
         <v>30</v>
       </c>
       <c r="I353" s="12" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="J353" s="6">
         <v>45387</v>
       </c>
       <c r="K353" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L353" s="11" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="M353" s="11"/>
       <c r="N353" s="11"/>
@@ -21968,16 +21977,16 @@
     </row>
     <row r="354" spans="1:26" ht="14.25" customHeight="1">
       <c r="A354" s="18" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="E354" s="11" t="s">
         <v>16</v>
@@ -21992,16 +22001,16 @@
         <v>35</v>
       </c>
       <c r="I354" s="12" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="J354" s="6">
         <v>45444</v>
       </c>
       <c r="K354" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L354" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M354" s="11"/>
       <c r="N354" s="11"/>
@@ -22020,10 +22029,10 @@
     </row>
     <row r="355" spans="1:26" ht="14.25" customHeight="1">
       <c r="A355" s="18" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>56</v>
@@ -22044,13 +22053,13 @@
         <v>69</v>
       </c>
       <c r="I355" s="12" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="J355" s="6">
         <v>45443</v>
       </c>
       <c r="K355" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L355" s="11" t="s">
         <v>33</v>
@@ -22072,10 +22081,10 @@
     </row>
     <row r="356" spans="1:26" ht="14.25" customHeight="1">
       <c r="A356" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>31</v>
@@ -22090,19 +22099,19 @@
         <v>50266</v>
       </c>
       <c r="G356" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H356" s="40">
         <v>7</v>
       </c>
       <c r="I356" s="12" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="J356" s="6">
         <v>45459</v>
       </c>
       <c r="K356" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L356" s="11" t="s">
         <v>20</v>
@@ -22124,16 +22133,16 @@
     </row>
     <row r="357" spans="1:26" ht="14.25" customHeight="1">
       <c r="A357" s="18" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>227</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="E357" s="11" t="s">
         <v>311</v>
@@ -22148,16 +22157,16 @@
         <v>31</v>
       </c>
       <c r="I357" s="12" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="J357" s="6">
         <v>45428</v>
       </c>
       <c r="K357" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L357" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M357" s="11"/>
       <c r="N357" s="11"/>
@@ -22176,16 +22185,16 @@
     </row>
     <row r="358" spans="1:26" ht="14.25" customHeight="1">
       <c r="A358" s="18" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>227</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="E358" s="11" t="s">
         <v>311</v>
@@ -22200,16 +22209,16 @@
         <v>12</v>
       </c>
       <c r="I358" s="12" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="J358" s="6">
         <v>45443</v>
       </c>
       <c r="K358" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L358" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M358" s="11"/>
       <c r="N358" s="11"/>
@@ -22228,16 +22237,16 @@
     </row>
     <row r="359" spans="1:26" ht="14.25" customHeight="1">
       <c r="A359" s="18" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E359" s="11" t="s">
         <v>16</v>
@@ -22252,16 +22261,16 @@
         <v>235</v>
       </c>
       <c r="I359" s="12" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="J359" s="6">
         <v>45473</v>
       </c>
       <c r="K359" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L359" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M359" s="11"/>
       <c r="N359" s="11"/>
@@ -22280,16 +22289,16 @@
     </row>
     <row r="360" spans="1:26" ht="14.25" customHeight="1">
       <c r="A360" s="18" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E360" s="11" t="s">
         <v>16</v>
@@ -22304,13 +22313,13 @@
         <v>39</v>
       </c>
       <c r="I360" s="12" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="J360" s="6">
         <v>45446</v>
       </c>
       <c r="K360" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L360" s="20" t="s">
         <v>58</v>
@@ -22332,16 +22341,16 @@
     </row>
     <row r="361" spans="1:26" ht="14.25" customHeight="1">
       <c r="A361" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E361" s="11" t="s">
         <v>16</v>
@@ -22356,13 +22365,13 @@
         <v>40</v>
       </c>
       <c r="I361" s="12" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="J361" s="6">
         <v>45473</v>
       </c>
       <c r="K361" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L361" s="11" t="s">
         <v>20</v>
@@ -22384,10 +22393,10 @@
     </row>
     <row r="362" spans="1:26" ht="14.25" customHeight="1">
       <c r="A362" s="18" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>52</v>
@@ -22408,16 +22417,16 @@
         <v>9</v>
       </c>
       <c r="I362" s="12" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J362" s="6">
         <v>45444</v>
       </c>
       <c r="K362" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L362" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="M362" s="11"/>
       <c r="N362" s="11"/>
@@ -22436,10 +22445,10 @@
     </row>
     <row r="363" spans="1:26" ht="14.25" customHeight="1">
       <c r="A363" s="18" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>52</v>
@@ -22460,16 +22469,16 @@
         <v>10</v>
       </c>
       <c r="I363" s="12" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J363" s="6">
         <v>45474</v>
       </c>
       <c r="K363" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L363" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="M363" s="11"/>
       <c r="N363" s="11"/>
@@ -22488,10 +22497,10 @@
     </row>
     <row r="364" spans="1:26" ht="14.25" customHeight="1">
       <c r="A364" s="18" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>52</v>
@@ -22512,16 +22521,16 @@
         <v>1</v>
       </c>
       <c r="I364" s="12" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J364" s="6">
         <v>45505</v>
       </c>
       <c r="K364" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L364" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="M364" s="11"/>
       <c r="N364" s="11"/>
@@ -22540,10 +22549,10 @@
     </row>
     <row r="365" spans="1:26" ht="14.25" customHeight="1">
       <c r="A365" s="18" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>52</v>
@@ -22564,16 +22573,16 @@
         <v>9</v>
       </c>
       <c r="I365" s="12" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J365" s="6">
         <v>45536</v>
       </c>
       <c r="K365" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L365" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="M365" s="11"/>
       <c r="N365" s="11"/>
@@ -22592,10 +22601,10 @@
     </row>
     <row r="366" spans="1:26" ht="14.25" customHeight="1">
       <c r="A366" s="18" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>46</v>
@@ -22616,7 +22625,7 @@
         <v>26</v>
       </c>
       <c r="I366" s="12" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="J366" s="6">
         <v>45473</v>
@@ -22625,7 +22634,7 @@
         <v>39</v>
       </c>
       <c r="L366" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M366" s="11"/>
       <c r="N366" s="11"/>
@@ -22644,10 +22653,10 @@
     </row>
     <row r="367" spans="1:26" ht="14.25" customHeight="1">
       <c r="A367" s="18" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>155</v>
@@ -22668,7 +22677,7 @@
         <v>45</v>
       </c>
       <c r="I367" s="12" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="J367" s="6">
         <v>45454</v>
@@ -22696,16 +22705,16 @@
     </row>
     <row r="368" spans="1:26" ht="14.25" customHeight="1">
       <c r="A368" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="E368" s="11" t="s">
         <v>16</v>
@@ -22720,16 +22729,16 @@
         <v>31</v>
       </c>
       <c r="I368" s="12" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="J368" s="6">
         <v>45460</v>
       </c>
       <c r="K368" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L368" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M368" s="11"/>
       <c r="N368" s="11"/>
@@ -22748,10 +22757,10 @@
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
       <c r="A369" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>31</v>
@@ -22766,19 +22775,19 @@
         <v>50266</v>
       </c>
       <c r="G369" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H369" s="40">
         <v>24</v>
       </c>
       <c r="I369" s="12" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="J369" s="6">
         <v>45487</v>
       </c>
       <c r="K369" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L369" s="11" t="s">
         <v>20</v>
@@ -22800,13 +22809,13 @@
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
       <c r="A370" s="18" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D370" s="11" t="s">
         <v>15</v>
@@ -22824,7 +22833,7 @@
         <v>192</v>
       </c>
       <c r="I370" s="12" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="J370" s="6">
         <v>45464</v>
@@ -22852,13 +22861,13 @@
     </row>
     <row r="371" spans="1:26" ht="14.25" customHeight="1">
       <c r="A371" s="18" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D371" s="11" t="s">
         <v>15</v>
@@ -22876,16 +22885,16 @@
         <v>8</v>
       </c>
       <c r="I371" s="12" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="J371" s="6">
         <v>45500</v>
       </c>
       <c r="K371" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L371" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M371" s="11"/>
       <c r="N371" s="11"/>
@@ -22904,13 +22913,13 @@
     </row>
     <row r="372" spans="1:26" ht="14.25" customHeight="1">
       <c r="A372" s="18" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D372" s="11" t="s">
         <v>37</v>
@@ -22928,7 +22937,7 @@
         <v>5</v>
       </c>
       <c r="I372" s="12" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="J372" s="6">
         <v>45500</v>
@@ -22937,7 +22946,7 @@
         <v>39</v>
       </c>
       <c r="L372" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M372" s="11"/>
       <c r="N372" s="11"/>
@@ -22956,10 +22965,10 @@
     </row>
     <row r="373" spans="1:26" ht="14.25" customHeight="1">
       <c r="A373" s="18" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>318</v>
@@ -22980,16 +22989,16 @@
         <v>16</v>
       </c>
       <c r="I373" s="12" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="J373" s="6">
         <v>45500</v>
       </c>
       <c r="K373" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L373" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M373" s="11"/>
       <c r="N373" s="11"/>
@@ -23008,16 +23017,16 @@
     </row>
     <row r="374" spans="1:26" ht="14.25" customHeight="1">
       <c r="A374" s="18" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E374" s="11" t="s">
         <v>16</v>
@@ -23032,16 +23041,16 @@
         <v>5</v>
       </c>
       <c r="I374" s="12" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="J374" s="6">
         <v>45500</v>
       </c>
       <c r="K374" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L374" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M374" s="11"/>
       <c r="N374" s="11"/>
@@ -23060,16 +23069,16 @@
     </row>
     <row r="375" spans="1:26" ht="14.25" customHeight="1">
       <c r="A375" s="18" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E375" s="11" t="s">
         <v>16</v>
@@ -23084,13 +23093,13 @@
         <v>58</v>
       </c>
       <c r="I375" s="12" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="J375" s="6">
         <v>45449</v>
       </c>
       <c r="K375" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L375" s="20" t="s">
         <v>58</v>
@@ -23112,13 +23121,13 @@
     </row>
     <row r="376" spans="1:26" ht="14.25" customHeight="1">
       <c r="A376" s="18" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D376" s="11" t="s">
         <v>15</v>
@@ -23136,7 +23145,7 @@
         <v>49</v>
       </c>
       <c r="I376" s="12" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="J376" s="6">
         <v>45449</v>
@@ -23164,16 +23173,16 @@
     </row>
     <row r="377" spans="1:26" ht="14.25" customHeight="1">
       <c r="A377" s="18" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>223</v>
       </c>
       <c r="D377" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E377" s="11" t="s">
         <v>311</v>
@@ -23188,13 +23197,13 @@
         <v>16</v>
       </c>
       <c r="I377" s="12" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="J377" s="6">
         <v>45449</v>
       </c>
       <c r="K377" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L377" s="20" t="s">
         <v>58</v>
@@ -23216,10 +23225,10 @@
     </row>
     <row r="378" spans="1:26" ht="14.25" customHeight="1">
       <c r="A378" s="18" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>52</v>
@@ -23240,13 +23249,13 @@
         <v>118</v>
       </c>
       <c r="I378" s="12" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="J378" s="6">
         <v>45478</v>
       </c>
       <c r="K378" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L378" s="20" t="s">
         <v>58</v>
@@ -23268,16 +23277,16 @@
     </row>
     <row r="379" spans="1:26" ht="14.25" customHeight="1">
       <c r="A379" s="18" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E379" s="11" t="s">
         <v>16</v>
@@ -23292,13 +23301,13 @@
         <v>1</v>
       </c>
       <c r="I379" s="12" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="J379" s="6">
         <v>45450</v>
       </c>
       <c r="K379" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L379" s="20" t="s">
         <v>58</v>
@@ -23320,16 +23329,16 @@
     </row>
     <row r="380" spans="1:26" ht="14.25" customHeight="1">
       <c r="A380" s="18" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="E380" s="11" t="s">
         <v>311</v>
@@ -23344,13 +23353,13 @@
         <v>48</v>
       </c>
       <c r="I380" s="12" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="J380" s="6">
         <v>45470</v>
       </c>
       <c r="K380" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L380" s="20" t="s">
         <v>58</v>
@@ -23372,10 +23381,10 @@
     </row>
     <row r="381" spans="1:26" ht="14.25" customHeight="1">
       <c r="A381" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C381" s="11" t="s">
         <v>31</v>
@@ -23390,19 +23399,19 @@
         <v>50266</v>
       </c>
       <c r="G381" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H381" s="40">
         <v>26</v>
       </c>
       <c r="I381" s="12" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="J381" s="6">
         <v>45515</v>
       </c>
       <c r="K381" s="11" t="s">
-        <v>1029</v>
+        <v>689</v>
       </c>
       <c r="L381" s="11" t="s">
         <v>20</v>
@@ -23423,18 +23432,42 @@
       <c r="Z381" s="11"/>
     </row>
     <row r="382" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A382" s="18"/>
-      <c r="B382" s="11"/>
-      <c r="C382" s="11"/>
-      <c r="D382" s="11"/>
-      <c r="E382" s="11"/>
-      <c r="F382" s="11"/>
-      <c r="G382" s="11"/>
-      <c r="H382" s="40"/>
-      <c r="I382" s="12"/>
-      <c r="J382" s="11"/>
-      <c r="K382" s="11"/>
-      <c r="L382" s="11"/>
+      <c r="A382" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D382" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E382" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F382" s="11">
+        <v>50313</v>
+      </c>
+      <c r="G382" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H382" s="40">
+        <v>98</v>
+      </c>
+      <c r="I382" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J382" s="6">
+        <v>45478</v>
+      </c>
+      <c r="K382" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L382" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="M382" s="11"/>
       <c r="N382" s="11"/>
       <c r="O382" s="11"/>
@@ -23451,18 +23484,42 @@
       <c r="Z382" s="11"/>
     </row>
     <row r="383" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A383" s="18"/>
-      <c r="B383" s="11"/>
-      <c r="C383" s="11"/>
-      <c r="D383" s="11"/>
-      <c r="E383" s="11"/>
-      <c r="F383" s="11"/>
-      <c r="G383" s="11"/>
-      <c r="H383" s="40"/>
-      <c r="I383" s="12"/>
-      <c r="J383" s="11"/>
-      <c r="K383" s="11"/>
-      <c r="L383" s="11"/>
+      <c r="A383" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C383" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="D383" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="E383" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F383" s="11">
+        <v>50220</v>
+      </c>
+      <c r="G383" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H383" s="40">
+        <v>32</v>
+      </c>
+      <c r="I383" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J383" s="6">
+        <v>46595</v>
+      </c>
+      <c r="K383" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="L383" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="M383" s="11"/>
       <c r="N383" s="11"/>
       <c r="O383" s="11"/>
@@ -23479,18 +23536,42 @@
       <c r="Z383" s="11"/>
     </row>
     <row r="384" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A384" s="18"/>
-      <c r="B384" s="11"/>
-      <c r="C384" s="11"/>
-      <c r="D384" s="11"/>
-      <c r="E384" s="11"/>
-      <c r="F384" s="11"/>
-      <c r="G384" s="11"/>
-      <c r="H384" s="40"/>
-      <c r="I384" s="12"/>
-      <c r="J384" s="11"/>
-      <c r="K384" s="11"/>
-      <c r="L384" s="11"/>
+      <c r="A384" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="E384" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F384" s="11">
+        <v>50220</v>
+      </c>
+      <c r="G384" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H384" s="40">
+        <v>32</v>
+      </c>
+      <c r="I384" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J384" s="6">
+        <v>45528</v>
+      </c>
+      <c r="K384" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="L384" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="M384" s="11"/>
       <c r="N384" s="11"/>
       <c r="O384" s="11"/>
@@ -23507,18 +23588,42 @@
       <c r="Z384" s="11"/>
     </row>
     <row r="385" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A385" s="18"/>
-      <c r="B385" s="11"/>
-      <c r="C385" s="11"/>
-      <c r="D385" s="11"/>
-      <c r="E385" s="11"/>
-      <c r="F385" s="11"/>
-      <c r="G385" s="11"/>
-      <c r="H385" s="40"/>
-      <c r="I385" s="12"/>
-      <c r="J385" s="11"/>
-      <c r="K385" s="11"/>
-      <c r="L385" s="11"/>
+      <c r="A385" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="D385" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="E385" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F385" s="11">
+        <v>50220</v>
+      </c>
+      <c r="G385" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H385" s="40">
+        <v>5</v>
+      </c>
+      <c r="I385" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J385" s="6">
+        <v>45563</v>
+      </c>
+      <c r="K385" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="L385" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="M385" s="11"/>
       <c r="N385" s="11"/>
       <c r="O385" s="11"/>
@@ -23535,18 +23640,42 @@
       <c r="Z385" s="11"/>
     </row>
     <row r="386" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A386" s="18"/>
-      <c r="B386" s="11"/>
-      <c r="C386" s="11"/>
-      <c r="D386" s="11"/>
-      <c r="E386" s="11"/>
-      <c r="F386" s="11"/>
-      <c r="G386" s="11"/>
-      <c r="H386" s="40"/>
-      <c r="I386" s="12"/>
-      <c r="J386" s="11"/>
-      <c r="K386" s="11"/>
-      <c r="L386" s="11"/>
+      <c r="A386" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D386" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E386" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F386" s="11">
+        <v>51023</v>
+      </c>
+      <c r="G386" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H386" s="40">
+        <v>36</v>
+      </c>
+      <c r="I386" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J386" s="6">
+        <v>45492</v>
+      </c>
+      <c r="K386" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="L386" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="M386" s="11"/>
       <c r="N386" s="11"/>
       <c r="O386" s="11"/>
@@ -33836,6 +33965,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -33844,7 +33992,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34079,33 +34227,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20408A75-3C5D-4402-850E-001D8082481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B1D377-4015-41DF-9077-60C56672AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3616,7 +3616,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L387" sqref="L387"/>
+      <selection pane="bottomLeft" activeCell="L379" sqref="L379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -23263,7 +23263,7 @@
         <v>1014</v>
       </c>
       <c r="H378" s="41">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I378" s="36" t="s">
         <v>1015</v>
@@ -23321,7 +23321,7 @@
         <v>1013</v>
       </c>
       <c r="J379" s="37">
-        <v>46595</v>
+        <v>45500</v>
       </c>
       <c r="K379" s="35" t="s">
         <v>680</v>
@@ -33894,15 +33894,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -33921,7 +33912,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34156,14 +34147,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27904"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B1D377-4015-41DF-9077-60C56672AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A4CA7A-C290-4465-A370-46B310F05E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="1039">
   <si>
     <t>Company</t>
   </si>
@@ -3148,6 +3148,15 @@
   </si>
   <si>
     <t>07/02/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200 11th St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floyd </t>
+  </si>
+  <si>
+    <t>07/09/2024</t>
   </si>
 </sst>
 </file>
@@ -3615,8 +3624,8 @@
   <dimension ref="A1:Z748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L379" sqref="L379"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L388" sqref="L388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -23761,18 +23770,42 @@
       <c r="Z387" s="11"/>
     </row>
     <row r="388" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A388" s="18"/>
-      <c r="B388" s="11"/>
-      <c r="C388" s="11"/>
-      <c r="D388" s="11"/>
-      <c r="E388" s="11"/>
-      <c r="F388" s="11"/>
-      <c r="G388" s="11"/>
-      <c r="H388" s="40"/>
-      <c r="I388" s="12"/>
-      <c r="J388" s="11"/>
-      <c r="K388" s="11"/>
-      <c r="L388" s="11"/>
+      <c r="A388" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D388" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E388" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F388" s="11">
+        <v>50616</v>
+      </c>
+      <c r="G388" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H388" s="40">
+        <v>36</v>
+      </c>
+      <c r="I388" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J388" s="6">
+        <v>45536</v>
+      </c>
+      <c r="K388" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="L388" s="54" t="s">
+        <v>43</v>
+      </c>
       <c r="M388" s="11"/>
       <c r="N388" s="11"/>
       <c r="O388" s="11"/>
@@ -33894,22 +33927,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34148,16 +34171,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34165,5 +34198,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A4CA7A-C290-4465-A370-46B310F05E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39FDFE77-ABA0-425D-BFDA-46A79718C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="1045">
   <si>
     <t>Company</t>
   </si>
@@ -3157,6 +3157,24 @@
   </si>
   <si>
     <t>07/09/2024</t>
+  </si>
+  <si>
+    <t>1414 W Lombard St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amendment- Change in Date </t>
+  </si>
+  <si>
+    <t>06/17/2024</t>
+  </si>
+  <si>
+    <t>07/11/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 Commerical St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3801 W Ridgeway Ave </t>
   </si>
 </sst>
 </file>
@@ -3621,11 +3639,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z748"/>
+  <dimension ref="A1:Z749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L388" sqref="L388"/>
+      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -23822,18 +23840,42 @@
       <c r="Z388" s="11"/>
     </row>
     <row r="389" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A389" s="18"/>
-      <c r="B389" s="11"/>
-      <c r="C389" s="11"/>
-      <c r="D389" s="11"/>
-      <c r="E389" s="11"/>
-      <c r="F389" s="11"/>
-      <c r="G389" s="11"/>
-      <c r="H389" s="40"/>
-      <c r="I389" s="12"/>
-      <c r="J389" s="11"/>
-      <c r="K389" s="11"/>
-      <c r="L389" s="11"/>
+      <c r="A389" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D389" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E389" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F389" s="11">
+        <v>50266</v>
+      </c>
+      <c r="G389" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H389" s="40">
+        <v>24</v>
+      </c>
+      <c r="I389" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J389" s="6">
+        <v>45546</v>
+      </c>
+      <c r="K389" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L389" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="M389" s="11"/>
       <c r="N389" s="11"/>
       <c r="O389" s="11"/>
@@ -23850,18 +23892,42 @@
       <c r="Z389" s="11"/>
     </row>
     <row r="390" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A390" s="18"/>
-      <c r="B390" s="11"/>
-      <c r="C390" s="11"/>
-      <c r="D390" s="11"/>
-      <c r="E390" s="11"/>
-      <c r="F390" s="11"/>
-      <c r="G390" s="11"/>
-      <c r="H390" s="40"/>
-      <c r="I390" s="12"/>
-      <c r="J390" s="11"/>
-      <c r="K390" s="11"/>
-      <c r="L390" s="11"/>
+      <c r="A390" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D390" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F390" s="11">
+        <v>52002</v>
+      </c>
+      <c r="G390" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H390" s="40">
+        <v>0</v>
+      </c>
+      <c r="I390" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J390" s="6">
+        <v>45457</v>
+      </c>
+      <c r="K390" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L390" s="56" t="s">
+        <v>533</v>
+      </c>
       <c r="M390" s="11"/>
       <c r="N390" s="11"/>
       <c r="O390" s="11"/>
@@ -23878,18 +23944,42 @@
       <c r="Z390" s="11"/>
     </row>
     <row r="391" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A391" s="18"/>
-      <c r="B391" s="11"/>
-      <c r="C391" s="11"/>
-      <c r="D391" s="11"/>
-      <c r="E391" s="11"/>
-      <c r="F391" s="11"/>
-      <c r="G391" s="11"/>
-      <c r="H391" s="40"/>
-      <c r="I391" s="12"/>
-      <c r="J391" s="11"/>
-      <c r="K391" s="11"/>
-      <c r="L391" s="11"/>
+      <c r="A391" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D391" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E391" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F391" s="11">
+        <v>50704</v>
+      </c>
+      <c r="G391" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H391" s="40">
+        <v>191</v>
+      </c>
+      <c r="I391" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J391" s="6">
+        <v>45555</v>
+      </c>
+      <c r="K391" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L391" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="M391" s="11"/>
       <c r="N391" s="11"/>
       <c r="O391" s="11"/>
@@ -23906,18 +23996,42 @@
       <c r="Z391" s="11"/>
     </row>
     <row r="392" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A392" s="18"/>
-      <c r="B392" s="11"/>
-      <c r="C392" s="11"/>
-      <c r="D392" s="11"/>
-      <c r="E392" s="11"/>
-      <c r="F392" s="11"/>
-      <c r="G392" s="11"/>
-      <c r="H392" s="40"/>
-      <c r="I392" s="12"/>
-      <c r="J392" s="11"/>
-      <c r="K392" s="11"/>
-      <c r="L392" s="11"/>
+      <c r="A392" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D392" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E392" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F392" s="11">
+        <v>50701</v>
+      </c>
+      <c r="G392" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H392" s="40">
+        <v>89</v>
+      </c>
+      <c r="I392" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J392" s="6">
+        <v>45555</v>
+      </c>
+      <c r="K392" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L392" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="M392" s="11"/>
       <c r="N392" s="11"/>
       <c r="O392" s="11"/>
@@ -23934,18 +24048,42 @@
       <c r="Z392" s="11"/>
     </row>
     <row r="393" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A393" s="18"/>
-      <c r="B393" s="11"/>
-      <c r="C393" s="11"/>
-      <c r="D393" s="11"/>
-      <c r="E393" s="11"/>
-      <c r="F393" s="11"/>
-      <c r="G393" s="11"/>
-      <c r="H393" s="40"/>
-      <c r="I393" s="12"/>
-      <c r="J393" s="11"/>
-      <c r="K393" s="11"/>
-      <c r="L393" s="11"/>
+      <c r="A393" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="B393" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D393" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E393" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F393" s="11">
+        <v>50701</v>
+      </c>
+      <c r="G393" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H393" s="40">
+        <v>65</v>
+      </c>
+      <c r="I393" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J393" s="6">
+        <v>45555</v>
+      </c>
+      <c r="K393" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L393" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="M393" s="11"/>
       <c r="N393" s="11"/>
       <c r="O393" s="11"/>
@@ -33901,6 +34039,34 @@
       <c r="Y748" s="11"/>
       <c r="Z748" s="11"/>
     </row>
+    <row r="749" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A749" s="18"/>
+      <c r="B749" s="11"/>
+      <c r="C749" s="11"/>
+      <c r="D749" s="11"/>
+      <c r="E749" s="11"/>
+      <c r="F749" s="11"/>
+      <c r="G749" s="11"/>
+      <c r="H749" s="40"/>
+      <c r="I749" s="12"/>
+      <c r="J749" s="11"/>
+      <c r="K749" s="11"/>
+      <c r="L749" s="11"/>
+      <c r="M749" s="11"/>
+      <c r="N749" s="11"/>
+      <c r="O749" s="11"/>
+      <c r="P749" s="11"/>
+      <c r="Q749" s="11"/>
+      <c r="R749" s="11"/>
+      <c r="S749" s="11"/>
+      <c r="T749" s="11"/>
+      <c r="U749" s="11"/>
+      <c r="V749" s="11"/>
+      <c r="W749" s="11"/>
+      <c r="X749" s="11"/>
+      <c r="Y749" s="11"/>
+      <c r="Z749" s="11"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
@@ -33927,15 +34093,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34170,7 +34327,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34189,14 +34346,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39FDFE77-ABA0-425D-BFDA-46A79718C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA41495C-DE54-43F5-8060-17CE66BC626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$749</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="1048">
   <si>
     <t>Company</t>
   </si>
@@ -3175,6 +3175,15 @@
   </si>
   <si>
     <t xml:space="preserve">3801 W Ridgeway Ave </t>
+  </si>
+  <si>
+    <t>Salford, Inc</t>
+  </si>
+  <si>
+    <t>928 Furnas Dr</t>
+  </si>
+  <si>
+    <t>07/16/2024</t>
   </si>
 </sst>
 </file>
@@ -3642,7 +3651,7 @@
   <dimension ref="A1:Z749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -24100,18 +24109,42 @@
       <c r="Z393" s="11"/>
     </row>
     <row r="394" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A394" s="18"/>
-      <c r="B394" s="11"/>
-      <c r="C394" s="11"/>
-      <c r="D394" s="11"/>
-      <c r="E394" s="11"/>
-      <c r="F394" s="11"/>
-      <c r="G394" s="11"/>
-      <c r="H394" s="40"/>
-      <c r="I394" s="12"/>
-      <c r="J394" s="11"/>
-      <c r="K394" s="11"/>
-      <c r="L394" s="11"/>
+      <c r="A394" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B394" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="D394" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="E394" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F394" s="11">
+        <v>50213</v>
+      </c>
+      <c r="G394" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H394" s="40">
+        <v>51</v>
+      </c>
+      <c r="I394" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J394" s="6">
+        <v>45489</v>
+      </c>
+      <c r="K394" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="L394" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="M394" s="11"/>
       <c r="N394" s="11"/>
       <c r="O394" s="11"/>
@@ -34093,6 +34126,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34327,36 +34388,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34364,5 +34397,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA41495C-DE54-43F5-8060-17CE66BC626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A3FC1B-52C4-4B09-BED5-828C70006154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="1051">
   <si>
     <t>Company</t>
   </si>
@@ -3184,6 +3184,15 @@
   </si>
   <si>
     <t>07/16/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207 W 2nd St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Liberty </t>
+  </si>
+  <si>
+    <t>07/17/2024</t>
   </si>
 </sst>
 </file>
@@ -3652,7 +3661,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="L395" sqref="L395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24161,18 +24170,42 @@
       <c r="Z394" s="11"/>
     </row>
     <row r="395" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A395" s="18"/>
-      <c r="B395" s="11"/>
-      <c r="C395" s="11"/>
-      <c r="D395" s="11"/>
-      <c r="E395" s="11"/>
-      <c r="F395" s="11"/>
-      <c r="G395" s="11"/>
-      <c r="H395" s="40"/>
-      <c r="I395" s="12"/>
-      <c r="J395" s="11"/>
-      <c r="K395" s="11"/>
-      <c r="L395" s="11"/>
+      <c r="A395" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="B395" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C395" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D395" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E395" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F395" s="11">
+        <v>52776</v>
+      </c>
+      <c r="G395" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H395" s="40">
+        <v>1</v>
+      </c>
+      <c r="I395" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J395" s="6">
+        <v>45522</v>
+      </c>
+      <c r="K395" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="L395" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="M395" s="11"/>
       <c r="N395" s="11"/>
       <c r="O395" s="11"/>
@@ -34135,25 +34168,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34388,14 +34402,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF61D1A-6597-4690-AADB-C4A571B89BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D54068F-4B06-4280-B7DB-BFDAC2B67F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1051">
   <si>
     <t>Company</t>
   </si>
@@ -3187,6 +3187,12 @@
   </si>
   <si>
     <t>07/23/2024</t>
+  </si>
+  <si>
+    <t>18600 S John Deere Rd</t>
+  </si>
+  <si>
+    <t>07/24/2024</t>
   </si>
 </sst>
 </file>
@@ -3685,7 +3691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K395" sqref="K395"/>
+      <selection pane="bottomLeft" activeCell="G397" sqref="G397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24246,18 +24252,42 @@
       <c r="Z395" s="11"/>
     </row>
     <row r="396" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A396" s="18"/>
-      <c r="B396" s="11"/>
-      <c r="C396" s="11"/>
-      <c r="D396" s="11"/>
-      <c r="E396" s="11"/>
-      <c r="F396" s="11"/>
-      <c r="G396" s="11"/>
-      <c r="H396" s="40"/>
-      <c r="I396" s="12"/>
-      <c r="J396" s="11"/>
-      <c r="K396" s="11"/>
-      <c r="L396" s="11"/>
+      <c r="A396" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B396" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D396" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E396" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F396" s="11">
+        <v>52001</v>
+      </c>
+      <c r="G396" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H396" s="40">
+        <v>34</v>
+      </c>
+      <c r="I396" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J396" s="6">
+        <v>45497</v>
+      </c>
+      <c r="K396" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="L396" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="M396" s="11"/>
       <c r="N396" s="11"/>
       <c r="O396" s="11"/>
@@ -24274,18 +24304,42 @@
       <c r="Z396" s="11"/>
     </row>
     <row r="397" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A397" s="18"/>
-      <c r="B397" s="11"/>
-      <c r="C397" s="11"/>
-      <c r="D397" s="11"/>
-      <c r="E397" s="11"/>
-      <c r="F397" s="11"/>
-      <c r="G397" s="11"/>
-      <c r="H397" s="40"/>
-      <c r="I397" s="12"/>
-      <c r="J397" s="11"/>
-      <c r="K397" s="11"/>
-      <c r="L397" s="11"/>
+      <c r="A397" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="B397" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D397" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E397" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F397" s="11">
+        <v>50704</v>
+      </c>
+      <c r="G397" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H397" s="40">
+        <v>69</v>
+      </c>
+      <c r="I397" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J397" s="6">
+        <v>45497</v>
+      </c>
+      <c r="K397" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="L397" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="M397" s="11"/>
       <c r="N397" s="11"/>
       <c r="O397" s="11"/>
@@ -34155,6 +34209,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34389,7 +34462,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -34398,33 +34471,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LMI Website\WARN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D54068F-4B06-4280-B7DB-BFDAC2B67F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78192BCE-9784-4924-8495-1FBD70830AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="1053">
   <si>
     <t>Company</t>
   </si>
@@ -3193,6 +3193,12 @@
   </si>
   <si>
     <t>07/24/2024</t>
+  </si>
+  <si>
+    <t>John Deere Financial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6400 NW 86th St </t>
   </si>
 </sst>
 </file>
@@ -3690,8 +3696,8 @@
   <dimension ref="A1:Z748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G397" sqref="G397"/>
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L398" sqref="L398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24356,18 +24362,42 @@
       <c r="Z397" s="11"/>
     </row>
     <row r="398" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A398" s="18"/>
-      <c r="B398" s="11"/>
-      <c r="C398" s="11"/>
-      <c r="D398" s="11"/>
-      <c r="E398" s="11"/>
-      <c r="F398" s="11"/>
-      <c r="G398" s="11"/>
-      <c r="H398" s="40"/>
-      <c r="I398" s="12"/>
-      <c r="J398" s="11"/>
-      <c r="K398" s="11"/>
-      <c r="L398" s="11"/>
+      <c r="A398" s="18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B398" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="D398" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F398" s="11">
+        <v>50131</v>
+      </c>
+      <c r="G398" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H398" s="40">
+        <v>67</v>
+      </c>
+      <c r="I398" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J398" s="6">
+        <v>45497</v>
+      </c>
+      <c r="K398" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="L398" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="M398" s="11"/>
       <c r="N398" s="11"/>
       <c r="O398" s="11"/>
@@ -34209,22 +34239,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34463,16 +34483,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34480,5 +34510,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A210848A-7CEB-409E-B666-BE5012E3628A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC7DB0-089F-4E83-9E27-CC603B09F308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="1605" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3676,9 +3676,9 @@
   </sheetPr>
   <dimension ref="A1:Z747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L394" sqref="L394"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H401" sqref="H401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24365,7 +24365,7 @@
         <v>17</v>
       </c>
       <c r="H398" s="34">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I398" s="12" t="s">
         <v>1056</v>
@@ -34171,7 +34171,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CIowa WARN Log</oddHeader>
     <oddFooter>&amp;L&amp;RWARN_20200807</oddFooter>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A487BF41-F0F3-4C7D-A9CF-CF47CA4E8023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA25D1F7-D257-4ECF-A55E-57D8BEF30C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="1064">
   <si>
     <t>Company</t>
   </si>
@@ -3220,6 +3220,18 @@
   </si>
   <si>
     <t>8/1/2024</t>
+  </si>
+  <si>
+    <t>Morning Sun Care Center</t>
+  </si>
+  <si>
+    <t>200 S. Washington St</t>
+  </si>
+  <si>
+    <t>Morning Sun</t>
+  </si>
+  <si>
+    <t>Louisa</t>
   </si>
 </sst>
 </file>
@@ -3230,7 +3242,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3279,6 +3291,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3338,7 +3357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3458,6 +3477,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3679,8 +3699,8 @@
   <dimension ref="A1:Z747"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K406" sqref="K406"/>
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L402" sqref="L402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24553,18 +24573,42 @@
       <c r="Z401" s="11"/>
     </row>
     <row r="402" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="18"/>
-      <c r="B402" s="11"/>
-      <c r="C402" s="11"/>
-      <c r="D402" s="11"/>
-      <c r="E402" s="11"/>
-      <c r="F402" s="11"/>
-      <c r="G402" s="11"/>
-      <c r="H402" s="33"/>
-      <c r="I402" s="12"/>
-      <c r="J402" s="11"/>
-      <c r="K402" s="11"/>
-      <c r="L402" s="11"/>
+      <c r="A402" s="18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B402" s="47" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D402" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E402" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F402" s="11">
+        <v>52640</v>
+      </c>
+      <c r="G402" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H402" s="33">
+        <v>68</v>
+      </c>
+      <c r="I402" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J402" s="6">
+        <v>45567</v>
+      </c>
+      <c r="K402" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L402" s="21" t="s">
+        <v>529</v>
+      </c>
       <c r="M402" s="11"/>
       <c r="N402" s="11"/>
       <c r="O402" s="11"/>
@@ -34266,6 +34310,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34500,7 +34553,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34519,16 +34572,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34547,7 +34599,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -34556,12 +34608,4 @@
     <ds:schemaRef ds:uri="bb079858-90af-4c1d-b6f1-55332f11d181"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B70C9A-082C-4016-BAE0-7ABF23A32B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCFC37BB-0B56-4C09-AA84-D721891B3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="1066">
   <si>
     <t>Company</t>
   </si>
@@ -3235,6 +3235,9 @@
   </si>
   <si>
     <t>Cass</t>
+  </si>
+  <si>
+    <t>08/06/2024</t>
   </si>
 </sst>
 </file>
@@ -3701,8 +3704,8 @@
   <dimension ref="A1:Z746"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L402" sqref="L402"/>
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L403" sqref="L403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24627,18 +24630,42 @@
       <c r="Z402" s="11"/>
     </row>
     <row r="403" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A403" s="18"/>
-      <c r="B403" s="11"/>
-      <c r="C403" s="11"/>
-      <c r="D403" s="11"/>
-      <c r="E403" s="11"/>
-      <c r="F403" s="11"/>
-      <c r="G403" s="11"/>
-      <c r="H403" s="33"/>
-      <c r="I403" s="12"/>
-      <c r="J403" s="11"/>
-      <c r="K403" s="11"/>
-      <c r="L403" s="11"/>
+      <c r="A403" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="B403" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D403" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E403" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F403" s="11">
+        <v>50266</v>
+      </c>
+      <c r="G403" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H403" s="33">
+        <v>3</v>
+      </c>
+      <c r="I403" s="12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J403" s="6">
+        <v>45571</v>
+      </c>
+      <c r="K403" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L403" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M403" s="11"/>
       <c r="N403" s="11"/>
       <c r="O403" s="11"/>
@@ -34284,34 +34311,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34546,8 +34545,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34555,5 +34582,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5132DE-71AA-4039-A8A2-9AB003CC5553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3080CCAE-3CBC-4807-83D0-45EB2DD973B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="1065">
   <si>
     <t>Company</t>
   </si>
@@ -3223,6 +3223,18 @@
   </si>
   <si>
     <t>08/20/2024</t>
+  </si>
+  <si>
+    <t>Duluth Trading Company</t>
+  </si>
+  <si>
+    <t>7456 Chavanelle Rd</t>
+  </si>
+  <si>
+    <t>08/22/2024</t>
+  </si>
+  <si>
+    <t>Transportation and Warehousing</t>
   </si>
 </sst>
 </file>
@@ -3233,7 +3245,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3296,6 +3308,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3341,7 +3358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3476,6 +3493,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3700,7 +3732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A401" sqref="A401:XFD401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24573,32 +24605,56 @@
       <c r="Z401" s="11"/>
     </row>
     <row r="402" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A402" s="18"/>
-      <c r="B402" s="11"/>
-      <c r="C402" s="11"/>
-      <c r="D402" s="11"/>
-      <c r="E402" s="11"/>
-      <c r="F402" s="11"/>
-      <c r="G402" s="11"/>
-      <c r="H402" s="33"/>
-      <c r="I402" s="12"/>
-      <c r="J402" s="11"/>
-      <c r="K402" s="11"/>
-      <c r="L402" s="11"/>
-      <c r="M402" s="11"/>
-      <c r="N402" s="11"/>
-      <c r="O402" s="11"/>
-      <c r="P402" s="11"/>
-      <c r="Q402" s="11"/>
-      <c r="R402" s="11"/>
-      <c r="S402" s="11"/>
-      <c r="T402" s="11"/>
-      <c r="U402" s="11"/>
-      <c r="V402" s="11"/>
-      <c r="W402" s="11"/>
-      <c r="X402" s="11"/>
-      <c r="Y402" s="11"/>
-      <c r="Z402" s="11"/>
+      <c r="A402" s="54" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B402" s="55" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C402" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D402" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E402" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F402" s="55">
+        <v>52002</v>
+      </c>
+      <c r="G402" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H402" s="56">
+        <v>74</v>
+      </c>
+      <c r="I402" s="57" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J402" s="58">
+        <v>45592</v>
+      </c>
+      <c r="K402" s="55" t="s">
+        <v>672</v>
+      </c>
+      <c r="L402" s="55" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M402" s="55"/>
+      <c r="N402" s="55"/>
+      <c r="O402" s="55"/>
+      <c r="P402" s="55"/>
+      <c r="Q402" s="55"/>
+      <c r="R402" s="55"/>
+      <c r="S402" s="55"/>
+      <c r="T402" s="55"/>
+      <c r="U402" s="55"/>
+      <c r="V402" s="55"/>
+      <c r="W402" s="55"/>
+      <c r="X402" s="55"/>
+      <c r="Y402" s="55"/>
+      <c r="Z402" s="55"/>
     </row>
     <row r="403" spans="1:26" ht="14.25" customHeight="1">
       <c r="A403" s="18"/>
@@ -34118,15 +34174,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34143,6 +34190,15 @@
     <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34381,11 +34437,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28020"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3080CCAE-3CBC-4807-83D0-45EB2DD973B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5CFEC00-F1BA-4E3A-9738-671CB8AB7C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$1</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="1068">
   <si>
     <t>Company</t>
   </si>
@@ -3235,6 +3234,15 @@
   </si>
   <si>
     <t>Transportation and Warehousing</t>
+  </si>
+  <si>
+    <t>Wilson Trailer Company</t>
+  </si>
+  <si>
+    <t>4400 S Lewis Blvd</t>
+  </si>
+  <si>
+    <t>08/29/2024</t>
   </si>
 </sst>
 </file>
@@ -3358,7 +3366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3464,7 +3472,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3508,6 +3515,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3731,8 +3742,8 @@
   <dimension ref="A1:Z741"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A401" sqref="A401:XFD401"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L403" sqref="L403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -17793,40 +17804,40 @@
       <c r="Z270" s="11"/>
     </row>
     <row r="271" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A271" s="18" t="s">
+      <c r="A271" s="45" t="s">
         <v>784</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B271" s="46" t="s">
         <v>785</v>
       </c>
-      <c r="C271" s="11" t="s">
+      <c r="C271" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="D271" s="11" t="s">
+      <c r="D271" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="E271" s="11" t="s">
+      <c r="E271" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F271" s="11">
+      <c r="F271" s="46">
         <v>51106</v>
       </c>
-      <c r="G271" s="11" t="s">
+      <c r="G271" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H271" s="33">
+      <c r="H271" s="47">
         <v>101</v>
       </c>
-      <c r="I271" s="12" t="s">
+      <c r="I271" s="48" t="s">
         <v>786</v>
       </c>
-      <c r="J271" s="6">
+      <c r="J271" s="49">
         <v>45174</v>
       </c>
-      <c r="K271" s="11" t="s">
+      <c r="K271" s="46" t="s">
         <v>732</v>
       </c>
-      <c r="L271" s="21" t="s">
+      <c r="L271" s="52" t="s">
         <v>514</v>
       </c>
       <c r="M271" s="11"/>
@@ -17845,40 +17856,40 @@
       <c r="Z271" s="11"/>
     </row>
     <row r="272" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A272" s="18" t="s">
+      <c r="A272" s="45" t="s">
         <v>787</v>
       </c>
-      <c r="B272" s="11" t="s">
+      <c r="B272" s="46" t="s">
         <v>788</v>
       </c>
-      <c r="C272" s="11" t="s">
+      <c r="C272" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D272" s="11" t="s">
+      <c r="D272" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="E272" s="11" t="s">
+      <c r="E272" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F272" s="11">
+      <c r="F272" s="46">
         <v>50323</v>
       </c>
-      <c r="G272" s="11" t="s">
+      <c r="G272" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H272" s="33">
+      <c r="H272" s="47">
         <v>1</v>
       </c>
-      <c r="I272" s="12" t="s">
+      <c r="I272" s="48" t="s">
         <v>789</v>
       </c>
-      <c r="J272" s="6">
+      <c r="J272" s="49">
         <v>45169</v>
       </c>
-      <c r="K272" s="11" t="s">
+      <c r="K272" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L272" s="21" t="s">
+      <c r="L272" s="52" t="s">
         <v>790</v>
       </c>
       <c r="M272" s="11"/>
@@ -17897,40 +17908,40 @@
       <c r="Z272" s="11"/>
     </row>
     <row r="273" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A273" s="18" t="s">
+      <c r="A273" s="45" t="s">
         <v>791</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B273" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C273" s="11" t="s">
+      <c r="C273" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D273" s="11" t="s">
+      <c r="D273" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="E273" s="11" t="s">
+      <c r="E273" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F273" s="11">
+      <c r="F273" s="46">
         <v>50321</v>
       </c>
-      <c r="G273" s="11" t="s">
+      <c r="G273" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H273" s="33">
+      <c r="H273" s="47">
         <v>36</v>
       </c>
-      <c r="I273" s="12" t="s">
+      <c r="I273" s="48" t="s">
         <v>793</v>
       </c>
-      <c r="J273" s="6">
+      <c r="J273" s="49">
         <v>45143</v>
       </c>
-      <c r="K273" s="11" t="s">
+      <c r="K273" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L273" s="21" t="s">
+      <c r="L273" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M273" s="11"/>
@@ -17949,40 +17960,40 @@
       <c r="Z273" s="11"/>
     </row>
     <row r="274" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A274" s="18" t="s">
+      <c r="A274" s="45" t="s">
         <v>794</v>
       </c>
-      <c r="B274" s="11" t="s">
+      <c r="B274" s="46" t="s">
         <v>795</v>
       </c>
-      <c r="C274" s="11" t="s">
+      <c r="C274" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D274" s="11" t="s">
+      <c r="D274" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E274" s="11" t="s">
+      <c r="E274" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F274" s="11">
+      <c r="F274" s="46">
         <v>50313</v>
       </c>
-      <c r="G274" s="11" t="s">
+      <c r="G274" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H274" s="33">
+      <c r="H274" s="47">
         <v>29</v>
       </c>
-      <c r="I274" s="12" t="s">
+      <c r="I274" s="48" t="s">
         <v>796</v>
       </c>
-      <c r="J274" s="6">
+      <c r="J274" s="49">
         <v>45170</v>
       </c>
-      <c r="K274" s="11" t="s">
+      <c r="K274" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L274" s="20" t="s">
+      <c r="L274" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M274" s="11"/>
@@ -18001,40 +18012,40 @@
       <c r="Z274" s="11"/>
     </row>
     <row r="275" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A275" s="18" t="s">
+      <c r="A275" s="45" t="s">
         <v>797</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B275" s="46" t="s">
         <v>798</v>
       </c>
-      <c r="C275" s="11" t="s">
+      <c r="C275" s="46" t="s">
         <v>799</v>
       </c>
-      <c r="D275" s="11" t="s">
+      <c r="D275" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E275" s="11" t="s">
+      <c r="E275" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F275" s="11">
+      <c r="F275" s="46">
         <v>50111</v>
       </c>
-      <c r="G275" s="11" t="s">
+      <c r="G275" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H275" s="33">
+      <c r="H275" s="47">
         <v>29</v>
       </c>
-      <c r="I275" s="12" t="s">
+      <c r="I275" s="48" t="s">
         <v>800</v>
       </c>
-      <c r="J275" s="6">
+      <c r="J275" s="49">
         <v>45158</v>
       </c>
-      <c r="K275" s="11" t="s">
+      <c r="K275" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L275" s="21" t="s">
+      <c r="L275" s="52" t="s">
         <v>726</v>
       </c>
       <c r="M275" s="11"/>
@@ -18053,40 +18064,40 @@
       <c r="Z275" s="11"/>
     </row>
     <row r="276" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A276" s="18" t="s">
+      <c r="A276" s="45" t="s">
         <v>801</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B276" s="46" t="s">
         <v>802</v>
       </c>
-      <c r="C276" s="11" t="s">
+      <c r="C276" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="D276" s="11" t="s">
+      <c r="D276" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="E276" s="11" t="s">
+      <c r="E276" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F276" s="11">
+      <c r="F276" s="46">
         <v>50644</v>
       </c>
-      <c r="G276" s="11" t="s">
+      <c r="G276" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H276" s="33">
+      <c r="H276" s="47">
         <v>211</v>
       </c>
-      <c r="I276" s="12" t="s">
+      <c r="I276" s="48" t="s">
         <v>803</v>
       </c>
-      <c r="J276" s="6">
+      <c r="J276" s="49">
         <v>45205</v>
       </c>
-      <c r="K276" s="11" t="s">
+      <c r="K276" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L276" s="20" t="s">
+      <c r="L276" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M276" s="11"/>
@@ -18105,40 +18116,40 @@
       <c r="Z276" s="11"/>
     </row>
     <row r="277" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A277" s="18" t="s">
+      <c r="A277" s="45" t="s">
         <v>801</v>
       </c>
-      <c r="B277" s="11" t="s">
+      <c r="B277" s="46" t="s">
         <v>802</v>
       </c>
-      <c r="C277" s="11" t="s">
+      <c r="C277" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="D277" s="11" t="s">
+      <c r="D277" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="E277" s="11" t="s">
+      <c r="E277" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F277" s="11">
+      <c r="F277" s="46">
         <v>50644</v>
       </c>
-      <c r="G277" s="11" t="s">
+      <c r="G277" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H277" s="33">
+      <c r="H277" s="47">
         <v>6</v>
       </c>
-      <c r="I277" s="12" t="s">
+      <c r="I277" s="48" t="s">
         <v>803</v>
       </c>
-      <c r="J277" s="6">
+      <c r="J277" s="49">
         <v>45261</v>
       </c>
-      <c r="K277" s="11" t="s">
+      <c r="K277" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L277" s="20" t="s">
+      <c r="L277" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M277" s="11"/>
@@ -18157,40 +18168,40 @@
       <c r="Z277" s="11"/>
     </row>
     <row r="278" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A278" s="18" t="s">
+      <c r="A278" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B278" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C278" s="11" t="s">
+      <c r="C278" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D278" s="11" t="s">
+      <c r="D278" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E278" s="11" t="s">
+      <c r="E278" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F278" s="11">
+      <c r="F278" s="46">
         <v>50309</v>
       </c>
-      <c r="G278" s="11" t="s">
+      <c r="G278" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H278" s="33">
+      <c r="H278" s="47">
         <v>65</v>
       </c>
-      <c r="I278" s="12" t="s">
+      <c r="I278" s="48" t="s">
         <v>804</v>
       </c>
-      <c r="J278" s="6">
+      <c r="J278" s="49">
         <v>45118</v>
       </c>
-      <c r="K278" s="11" t="s">
+      <c r="K278" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L278" s="11" t="s">
+      <c r="L278" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M278" s="11"/>
@@ -18209,40 +18220,40 @@
       <c r="Z278" s="11"/>
     </row>
     <row r="279" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A279" s="18" t="s">
+      <c r="A279" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B279" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="C279" s="11" t="s">
+      <c r="C279" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D279" s="11" t="s">
+      <c r="D279" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E279" s="11" t="s">
+      <c r="E279" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F279" s="11">
+      <c r="F279" s="46">
         <v>50309</v>
       </c>
-      <c r="G279" s="11" t="s">
+      <c r="G279" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H279" s="33">
+      <c r="H279" s="47">
         <v>7</v>
       </c>
-      <c r="I279" s="12" t="s">
+      <c r="I279" s="48" t="s">
         <v>804</v>
       </c>
-      <c r="J279" s="6">
+      <c r="J279" s="49">
         <v>45118</v>
       </c>
-      <c r="K279" s="11" t="s">
+      <c r="K279" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L279" s="11" t="s">
+      <c r="L279" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M279" s="11"/>
@@ -18261,40 +18272,40 @@
       <c r="Z279" s="11"/>
     </row>
     <row r="280" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A280" s="18" t="s">
+      <c r="A280" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B280" s="11" t="s">
+      <c r="B280" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="C280" s="11" t="s">
+      <c r="C280" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D280" s="11" t="s">
+      <c r="D280" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E280" s="11" t="s">
+      <c r="E280" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F280" s="11">
+      <c r="F280" s="46">
         <v>50309</v>
       </c>
-      <c r="G280" s="11" t="s">
+      <c r="G280" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H280" s="33">
+      <c r="H280" s="47">
         <v>8</v>
       </c>
-      <c r="I280" s="12" t="s">
+      <c r="I280" s="48" t="s">
         <v>804</v>
       </c>
-      <c r="J280" s="6">
+      <c r="J280" s="49">
         <v>45146</v>
       </c>
-      <c r="K280" s="11" t="s">
+      <c r="K280" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L280" s="11" t="s">
+      <c r="L280" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M280" s="11"/>
@@ -18313,40 +18324,40 @@
       <c r="Z280" s="11"/>
     </row>
     <row r="281" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A281" s="18" t="s">
+      <c r="A281" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="B281" s="11" t="s">
+      <c r="B281" s="46" t="s">
         <v>806</v>
       </c>
-      <c r="C281" s="11" t="s">
+      <c r="C281" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="D281" s="11" t="s">
+      <c r="D281" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="E281" s="11" t="s">
+      <c r="E281" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F281" s="11">
+      <c r="F281" s="46">
         <v>50266</v>
       </c>
-      <c r="G281" s="11" t="s">
+      <c r="G281" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H281" s="33">
+      <c r="H281" s="47">
         <v>92</v>
       </c>
-      <c r="I281" s="12" t="s">
+      <c r="I281" s="48" t="s">
         <v>807</v>
       </c>
-      <c r="J281" s="6">
+      <c r="J281" s="49">
         <v>45137</v>
       </c>
-      <c r="K281" s="11" t="s">
+      <c r="K281" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L281" s="21" t="s">
+      <c r="L281" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M281" s="11"/>
@@ -18365,40 +18376,40 @@
       <c r="Z281" s="11"/>
     </row>
     <row r="282" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A282" s="18" t="s">
+      <c r="A282" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B282" s="46" t="s">
         <v>808</v>
       </c>
-      <c r="C282" s="11" t="s">
+      <c r="C282" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D282" s="11" t="s">
+      <c r="D282" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E282" s="11" t="s">
+      <c r="E282" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F282" s="11">
+      <c r="F282" s="46">
         <v>50313</v>
       </c>
-      <c r="G282" s="11" t="s">
+      <c r="G282" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H282" s="33">
+      <c r="H282" s="47">
         <v>49</v>
       </c>
-      <c r="I282" s="12" t="s">
+      <c r="I282" s="48" t="s">
         <v>807</v>
       </c>
-      <c r="J282" s="6">
+      <c r="J282" s="49">
         <v>45137</v>
       </c>
-      <c r="K282" s="11" t="s">
+      <c r="K282" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L282" s="21" t="s">
+      <c r="L282" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M282" s="11"/>
@@ -18417,40 +18428,40 @@
       <c r="Z282" s="11"/>
     </row>
     <row r="283" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A283" s="18" t="s">
+      <c r="A283" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="B283" s="11" t="s">
+      <c r="B283" s="46" t="s">
         <v>809</v>
       </c>
-      <c r="C283" s="11" t="s">
+      <c r="C283" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="D283" s="11" t="s">
+      <c r="D283" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="E283" s="11" t="s">
+      <c r="E283" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F283" s="11">
+      <c r="F283" s="46">
         <v>51111</v>
       </c>
-      <c r="G283" s="11" t="s">
+      <c r="G283" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H283" s="33">
+      <c r="H283" s="47">
         <v>7</v>
       </c>
-      <c r="I283" s="12" t="s">
+      <c r="I283" s="48" t="s">
         <v>807</v>
       </c>
-      <c r="J283" s="6">
+      <c r="J283" s="49">
         <v>45137</v>
       </c>
-      <c r="K283" s="11" t="s">
+      <c r="K283" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="L283" s="21" t="s">
+      <c r="L283" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M283" s="11"/>
@@ -18469,40 +18480,40 @@
       <c r="Z283" s="11"/>
     </row>
     <row r="284" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A284" s="18" t="s">
+      <c r="A284" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="B284" s="11" t="s">
+      <c r="B284" s="46" t="s">
         <v>811</v>
       </c>
-      <c r="C284" s="11" t="s">
+      <c r="C284" s="46" t="s">
         <v>812</v>
       </c>
-      <c r="D284" s="11" t="s">
+      <c r="D284" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E284" s="11" t="s">
+      <c r="E284" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F284" s="11">
+      <c r="F284" s="46">
         <v>50401</v>
       </c>
-      <c r="G284" s="11" t="s">
+      <c r="G284" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H284" s="33">
+      <c r="H284" s="47">
         <v>4</v>
       </c>
-      <c r="I284" s="12" t="s">
+      <c r="I284" s="48" t="s">
         <v>807</v>
       </c>
-      <c r="J284" s="6">
+      <c r="J284" s="49">
         <v>45137</v>
       </c>
-      <c r="K284" s="11" t="s">
+      <c r="K284" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L284" s="21" t="s">
+      <c r="L284" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M284" s="11"/>
@@ -18521,40 +18532,40 @@
       <c r="Z284" s="11"/>
     </row>
     <row r="285" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A285" s="18" t="s">
+      <c r="A285" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="B285" s="11" t="s">
+      <c r="B285" s="46" t="s">
         <v>813</v>
       </c>
-      <c r="C285" s="11" t="s">
+      <c r="C285" s="46" t="s">
         <v>814</v>
       </c>
-      <c r="D285" s="11" t="s">
+      <c r="D285" s="46" t="s">
         <v>815</v>
       </c>
-      <c r="E285" s="11" t="s">
+      <c r="E285" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F285" s="11">
+      <c r="F285" s="46">
         <v>52068</v>
       </c>
-      <c r="G285" s="11" t="s">
+      <c r="G285" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H285" s="33">
+      <c r="H285" s="47">
         <v>1</v>
       </c>
-      <c r="I285" s="12" t="s">
+      <c r="I285" s="48" t="s">
         <v>807</v>
       </c>
-      <c r="J285" s="6">
+      <c r="J285" s="49">
         <v>45137</v>
       </c>
-      <c r="K285" s="11" t="s">
+      <c r="K285" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L285" s="21" t="s">
+      <c r="L285" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M285" s="11"/>
@@ -18573,40 +18584,40 @@
       <c r="Z285" s="11"/>
     </row>
     <row r="286" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A286" s="18" t="s">
+      <c r="A286" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="B286" s="46" t="s">
         <v>816</v>
       </c>
-      <c r="C286" s="11" t="s">
+      <c r="C286" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D286" s="11" t="s">
+      <c r="D286" s="46" t="s">
         <v>817</v>
       </c>
-      <c r="E286" s="11" t="s">
+      <c r="E286" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F286" s="11">
+      <c r="F286" s="46">
         <v>51501</v>
       </c>
-      <c r="G286" s="11" t="s">
+      <c r="G286" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H286" s="33">
+      <c r="H286" s="47">
         <v>30</v>
       </c>
-      <c r="I286" s="12" t="s">
+      <c r="I286" s="48" t="s">
         <v>807</v>
       </c>
-      <c r="J286" s="6">
+      <c r="J286" s="49">
         <v>45137</v>
       </c>
-      <c r="K286" s="11" t="s">
+      <c r="K286" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="L286" s="21" t="s">
+      <c r="L286" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M286" s="11"/>
@@ -18625,40 +18636,40 @@
       <c r="Z286" s="11"/>
     </row>
     <row r="287" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A287" s="18" t="s">
+      <c r="A287" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="46" t="s">
         <v>818</v>
       </c>
-      <c r="C287" s="11" t="s">
+      <c r="C287" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D287" s="11" t="s">
+      <c r="D287" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E287" s="11" t="s">
+      <c r="E287" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F287" s="11">
+      <c r="F287" s="46">
         <v>52404</v>
       </c>
-      <c r="G287" s="11" t="s">
+      <c r="G287" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H287" s="33">
+      <c r="H287" s="47">
         <v>1</v>
       </c>
-      <c r="I287" s="12" t="s">
+      <c r="I287" s="48" t="s">
         <v>807</v>
       </c>
-      <c r="J287" s="6">
+      <c r="J287" s="49">
         <v>45137</v>
       </c>
-      <c r="K287" s="11" t="s">
+      <c r="K287" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="L287" s="21" t="s">
+      <c r="L287" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M287" s="11"/>
@@ -18677,40 +18688,40 @@
       <c r="Z287" s="11"/>
     </row>
     <row r="288" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A288" s="18" t="s">
+      <c r="A288" s="45" t="s">
         <v>819</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B288" s="46" t="s">
         <v>820</v>
       </c>
-      <c r="C288" s="11" t="s">
+      <c r="C288" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="D288" s="11" t="s">
+      <c r="D288" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="E288" s="11" t="s">
+      <c r="E288" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F288" s="11">
+      <c r="F288" s="46">
         <v>52730</v>
       </c>
-      <c r="G288" s="11" t="s">
+      <c r="G288" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H288" s="33">
+      <c r="H288" s="47">
         <v>46</v>
       </c>
-      <c r="I288" s="12" t="s">
+      <c r="I288" s="48" t="s">
         <v>822</v>
       </c>
-      <c r="J288" s="6">
+      <c r="J288" s="49">
         <v>45154</v>
       </c>
-      <c r="K288" s="11" t="s">
+      <c r="K288" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="L288" s="20" t="s">
+      <c r="L288" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M288" s="11"/>
@@ -18729,40 +18740,40 @@
       <c r="Z288" s="11"/>
     </row>
     <row r="289" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A289" s="18" t="s">
+      <c r="A289" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="B289" s="46" t="s">
         <v>823</v>
       </c>
-      <c r="C289" s="11" t="s">
+      <c r="C289" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D289" s="11" t="s">
+      <c r="D289" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E289" s="11" t="s">
+      <c r="E289" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F289" s="11">
+      <c r="F289" s="46">
         <v>50309</v>
       </c>
-      <c r="G289" s="11" t="s">
+      <c r="G289" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="H289" s="33">
+      <c r="H289" s="47">
         <v>1</v>
       </c>
-      <c r="I289" s="12" t="s">
+      <c r="I289" s="48" t="s">
         <v>824</v>
       </c>
-      <c r="J289" s="6">
+      <c r="J289" s="49">
         <v>45160</v>
       </c>
-      <c r="K289" s="11" t="s">
+      <c r="K289" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L289" s="11" t="s">
+      <c r="L289" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M289" s="11"/>
@@ -18781,40 +18792,40 @@
       <c r="Z289" s="11"/>
     </row>
     <row r="290" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A290" s="18" t="s">
+      <c r="A290" s="45" t="s">
         <v>549</v>
       </c>
-      <c r="B290" s="11" t="s">
+      <c r="B290" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="C290" s="11" t="s">
+      <c r="C290" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="D290" s="11" t="s">
+      <c r="D290" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="E290" s="11" t="s">
+      <c r="E290" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F290" s="11">
+      <c r="F290" s="46">
         <v>50554</v>
       </c>
-      <c r="G290" s="11" t="s">
+      <c r="G290" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H290" s="33">
+      <c r="H290" s="47">
         <v>46</v>
       </c>
-      <c r="I290" s="12" t="s">
+      <c r="I290" s="48" t="s">
         <v>826</v>
       </c>
-      <c r="J290" s="6">
+      <c r="J290" s="49">
         <v>45176</v>
       </c>
-      <c r="K290" s="11" t="s">
+      <c r="K290" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="L290" s="11" t="s">
+      <c r="L290" s="46" t="s">
         <v>247</v>
       </c>
       <c r="M290" s="11"/>
@@ -18833,40 +18844,40 @@
       <c r="Z290" s="11"/>
     </row>
     <row r="291" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A291" s="18" t="s">
+      <c r="A291" s="45" t="s">
         <v>827</v>
       </c>
-      <c r="B291" s="11" t="s">
+      <c r="B291" s="46" t="s">
         <v>828</v>
       </c>
-      <c r="C291" s="11" t="s">
+      <c r="C291" s="46" t="s">
         <v>812</v>
       </c>
-      <c r="D291" s="11" t="s">
+      <c r="D291" s="46" t="s">
         <v>829</v>
       </c>
-      <c r="E291" s="11" t="s">
+      <c r="E291" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F291" s="11">
+      <c r="F291" s="46">
         <v>50401</v>
       </c>
-      <c r="G291" s="11" t="s">
+      <c r="G291" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H291" s="33">
+      <c r="H291" s="47">
         <v>38</v>
       </c>
-      <c r="I291" s="12" t="s">
+      <c r="I291" s="48" t="s">
         <v>830</v>
       </c>
-      <c r="J291" s="6">
+      <c r="J291" s="49">
         <v>45217</v>
       </c>
-      <c r="K291" s="11" t="s">
+      <c r="K291" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L291" s="11" t="s">
+      <c r="L291" s="46" t="s">
         <v>831</v>
       </c>
       <c r="M291" s="11"/>
@@ -18885,40 +18896,40 @@
       <c r="Z291" s="11"/>
     </row>
     <row r="292" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A292" s="18" t="s">
+      <c r="A292" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="B292" s="11" t="s">
+      <c r="B292" s="46" t="s">
         <v>833</v>
       </c>
-      <c r="C292" s="11" t="s">
+      <c r="C292" s="46" t="s">
         <v>834</v>
       </c>
-      <c r="D292" s="11" t="s">
+      <c r="D292" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E292" s="11" t="s">
+      <c r="E292" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F292" s="11">
+      <c r="F292" s="46">
         <v>52066</v>
       </c>
-      <c r="G292" s="11" t="s">
+      <c r="G292" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H292" s="33">
+      <c r="H292" s="47">
         <v>155</v>
       </c>
-      <c r="I292" s="12" t="s">
+      <c r="I292" s="48" t="s">
         <v>835</v>
       </c>
-      <c r="J292" s="6">
+      <c r="J292" s="49">
         <v>45218</v>
       </c>
-      <c r="K292" s="11" t="s">
+      <c r="K292" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L292" s="11" t="s">
+      <c r="L292" s="46" t="s">
         <v>28</v>
       </c>
       <c r="M292" s="11"/>
@@ -18937,40 +18948,40 @@
       <c r="Z292" s="11"/>
     </row>
     <row r="293" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A293" s="18" t="s">
+      <c r="A293" s="45" t="s">
         <v>836</v>
       </c>
-      <c r="B293" s="11" t="s">
+      <c r="B293" s="46" t="s">
         <v>837</v>
       </c>
-      <c r="C293" s="11" t="s">
+      <c r="C293" s="46" t="s">
         <v>719</v>
       </c>
-      <c r="D293" s="11" t="s">
+      <c r="D293" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E293" s="11" t="s">
+      <c r="E293" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F293" s="11">
+      <c r="F293" s="46">
         <v>52240</v>
       </c>
-      <c r="G293" s="11" t="s">
+      <c r="G293" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H293" s="33">
+      <c r="H293" s="47">
         <v>100</v>
       </c>
-      <c r="I293" s="12" t="s">
+      <c r="I293" s="48" t="s">
         <v>838</v>
       </c>
-      <c r="J293" s="6">
+      <c r="J293" s="49">
         <v>45198</v>
       </c>
-      <c r="K293" s="11" t="s">
+      <c r="K293" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="L293" s="21" t="s">
+      <c r="L293" s="52" t="s">
         <v>514</v>
       </c>
       <c r="M293" s="11"/>
@@ -18989,40 +19000,40 @@
       <c r="Z293" s="11"/>
     </row>
     <row r="294" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A294" s="18" t="s">
+      <c r="A294" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="B294" s="11" t="s">
+      <c r="B294" s="46" t="s">
         <v>839</v>
       </c>
-      <c r="C294" s="11" t="s">
+      <c r="C294" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="D294" s="11" t="s">
+      <c r="D294" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E294" s="11" t="s">
+      <c r="E294" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F294" s="11">
+      <c r="F294" s="46">
         <v>52498</v>
       </c>
-      <c r="G294" s="11" t="s">
+      <c r="G294" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H294" s="33">
+      <c r="H294" s="47">
         <v>68</v>
       </c>
-      <c r="I294" s="12" t="s">
+      <c r="I294" s="48" t="s">
         <v>840</v>
       </c>
-      <c r="J294" s="6">
+      <c r="J294" s="49">
         <v>45212</v>
       </c>
-      <c r="K294" s="11" t="s">
+      <c r="K294" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="L294" s="20" t="s">
+      <c r="L294" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M294" s="11"/>
@@ -19041,40 +19052,40 @@
       <c r="Z294" s="11"/>
     </row>
     <row r="295" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A295" s="18" t="s">
+      <c r="A295" s="45" t="s">
         <v>841</v>
       </c>
-      <c r="B295" s="11" t="s">
+      <c r="B295" s="46" t="s">
         <v>842</v>
       </c>
-      <c r="C295" s="11" t="s">
+      <c r="C295" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="D295" s="11" t="s">
+      <c r="D295" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E295" s="11" t="s">
+      <c r="E295" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F295" s="11">
+      <c r="F295" s="46">
         <v>52722</v>
       </c>
-      <c r="G295" s="11" t="s">
+      <c r="G295" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H295" s="33">
+      <c r="H295" s="47">
         <v>123</v>
       </c>
-      <c r="I295" s="12" t="s">
+      <c r="I295" s="48" t="s">
         <v>843</v>
       </c>
-      <c r="J295" s="6">
+      <c r="J295" s="49">
         <v>45197</v>
       </c>
-      <c r="K295" s="11" t="s">
+      <c r="K295" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="L295" s="20" t="s">
+      <c r="L295" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M295" s="11"/>
@@ -19093,40 +19104,40 @@
       <c r="Z295" s="11"/>
     </row>
     <row r="296" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A296" s="18" t="s">
+      <c r="A296" s="45" t="s">
         <v>844</v>
       </c>
-      <c r="B296" s="11" t="s">
+      <c r="B296" s="46" t="s">
         <v>845</v>
       </c>
-      <c r="C296" s="11" t="s">
+      <c r="C296" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D296" s="11" t="s">
+      <c r="D296" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E296" s="11" t="s">
+      <c r="E296" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F296" s="11">
+      <c r="F296" s="46">
         <v>50401</v>
       </c>
-      <c r="G296" s="11" t="s">
+      <c r="G296" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H296" s="33">
+      <c r="H296" s="47">
         <v>43</v>
       </c>
-      <c r="I296" s="12" t="s">
+      <c r="I296" s="48" t="s">
         <v>846</v>
       </c>
-      <c r="J296" s="6">
+      <c r="J296" s="49">
         <v>45191</v>
       </c>
-      <c r="K296" s="11" t="s">
+      <c r="K296" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L296" s="20" t="s">
+      <c r="L296" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M296" s="11"/>
@@ -19145,40 +19156,40 @@
       <c r="Z296" s="11"/>
     </row>
     <row r="297" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A297" s="18" t="s">
+      <c r="A297" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B297" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="C297" s="11" t="s">
+      <c r="C297" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D297" s="11" t="s">
+      <c r="D297" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E297" s="11" t="s">
+      <c r="E297" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F297" s="11">
+      <c r="F297" s="46">
         <v>50309</v>
       </c>
-      <c r="G297" s="11" t="s">
+      <c r="G297" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H297" s="33">
+      <c r="H297" s="47">
         <v>1</v>
       </c>
-      <c r="I297" s="12" t="s">
+      <c r="I297" s="48" t="s">
         <v>847</v>
       </c>
-      <c r="J297" s="6">
+      <c r="J297" s="49">
         <v>45263</v>
       </c>
-      <c r="K297" s="11" t="s">
+      <c r="K297" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L297" s="11" t="s">
+      <c r="L297" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M297" s="11"/>
@@ -19197,40 +19208,40 @@
       <c r="Z297" s="11"/>
     </row>
     <row r="298" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A298" s="18" t="s">
+      <c r="A298" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B298" s="11" t="s">
+      <c r="B298" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C298" s="11" t="s">
+      <c r="C298" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="D298" s="11" t="s">
+      <c r="D298" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E298" s="11" t="s">
+      <c r="E298" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F298" s="11">
+      <c r="F298" s="46">
         <v>50265</v>
       </c>
-      <c r="G298" s="11" t="s">
+      <c r="G298" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H298" s="33">
+      <c r="H298" s="47">
         <v>34</v>
       </c>
-      <c r="I298" s="12" t="s">
+      <c r="I298" s="48" t="s">
         <v>847</v>
       </c>
-      <c r="J298" s="6">
+      <c r="J298" s="49">
         <v>45263</v>
       </c>
-      <c r="K298" s="11" t="s">
+      <c r="K298" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L298" s="11" t="s">
+      <c r="L298" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M298" s="11"/>
@@ -19249,40 +19260,40 @@
       <c r="Z298" s="11"/>
     </row>
     <row r="299" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A299" s="18" t="s">
+      <c r="A299" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B299" s="11" t="s">
+      <c r="B299" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C299" s="11" t="s">
+      <c r="C299" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D299" s="11" t="s">
+      <c r="D299" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E299" s="11" t="s">
+      <c r="E299" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F299" s="11">
+      <c r="F299" s="46">
         <v>50309</v>
       </c>
-      <c r="G299" s="11" t="s">
+      <c r="G299" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H299" s="33">
+      <c r="H299" s="47">
         <v>4</v>
       </c>
-      <c r="I299" s="12" t="s">
+      <c r="I299" s="48" t="s">
         <v>848</v>
       </c>
-      <c r="J299" s="6">
+      <c r="J299" s="49">
         <v>45277</v>
       </c>
-      <c r="K299" s="11" t="s">
+      <c r="K299" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L299" s="11" t="s">
+      <c r="L299" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M299" s="11"/>
@@ -19301,40 +19312,40 @@
       <c r="Z299" s="11"/>
     </row>
     <row r="300" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A300" s="18" t="s">
+      <c r="A300" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B300" s="11" t="s">
+      <c r="B300" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="C300" s="11" t="s">
+      <c r="C300" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D300" s="11" t="s">
+      <c r="D300" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E300" s="11" t="s">
+      <c r="E300" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F300" s="11">
+      <c r="F300" s="46">
         <v>50309</v>
       </c>
-      <c r="G300" s="11" t="s">
+      <c r="G300" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H300" s="33">
+      <c r="H300" s="47">
         <v>1</v>
       </c>
-      <c r="I300" s="12" t="s">
+      <c r="I300" s="48" t="s">
         <v>848</v>
       </c>
-      <c r="J300" s="6">
+      <c r="J300" s="49">
         <v>45277</v>
       </c>
-      <c r="K300" s="11" t="s">
+      <c r="K300" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L300" s="11" t="s">
+      <c r="L300" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M300" s="11"/>
@@ -19353,40 +19364,40 @@
       <c r="Z300" s="11"/>
     </row>
     <row r="301" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A301" s="18" t="s">
+      <c r="A301" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B301" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C301" s="11" t="s">
+      <c r="C301" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D301" s="11" t="s">
+      <c r="D301" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E301" s="11" t="s">
+      <c r="E301" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F301" s="11">
+      <c r="F301" s="46">
         <v>50265</v>
       </c>
-      <c r="G301" s="11" t="s">
+      <c r="G301" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H301" s="33">
+      <c r="H301" s="47">
         <v>6</v>
       </c>
-      <c r="I301" s="12" t="s">
+      <c r="I301" s="48" t="s">
         <v>848</v>
       </c>
-      <c r="J301" s="6">
+      <c r="J301" s="49">
         <v>45277</v>
       </c>
-      <c r="K301" s="11" t="s">
+      <c r="K301" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L301" s="11" t="s">
+      <c r="L301" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M301" s="11"/>
@@ -19405,40 +19416,40 @@
       <c r="Z301" s="11"/>
     </row>
     <row r="302" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A302" s="18" t="s">
+      <c r="A302" s="45" t="s">
         <v>849</v>
       </c>
-      <c r="B302" s="11" t="s">
+      <c r="B302" s="46" t="s">
         <v>850</v>
       </c>
-      <c r="C302" s="11" t="s">
+      <c r="C302" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="D302" s="11" t="s">
+      <c r="D302" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E302" s="11" t="s">
+      <c r="E302" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F302" s="11">
+      <c r="F302" s="46">
         <v>52407</v>
       </c>
-      <c r="G302" s="11" t="s">
+      <c r="G302" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H302" s="33">
+      <c r="H302" s="47">
         <v>40</v>
       </c>
-      <c r="I302" s="12" t="s">
+      <c r="I302" s="48" t="s">
         <v>851</v>
       </c>
-      <c r="J302" s="6">
+      <c r="J302" s="49">
         <v>45223</v>
       </c>
-      <c r="K302" s="11" t="s">
+      <c r="K302" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="L302" s="11" t="s">
+      <c r="L302" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M302" s="11"/>
@@ -19457,40 +19468,40 @@
       <c r="Z302" s="11"/>
     </row>
     <row r="303" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A303" s="18" t="s">
+      <c r="A303" s="45" t="s">
         <v>852</v>
       </c>
-      <c r="B303" s="11" t="s">
+      <c r="B303" s="46" t="s">
         <v>853</v>
       </c>
-      <c r="C303" s="11" t="s">
+      <c r="C303" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D303" s="11" t="s">
+      <c r="D303" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E303" s="11" t="s">
+      <c r="E303" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F303" s="11">
+      <c r="F303" s="46">
         <v>50315</v>
       </c>
-      <c r="G303" s="11" t="s">
+      <c r="G303" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H303" s="33">
+      <c r="H303" s="47">
         <v>27</v>
       </c>
-      <c r="I303" s="12" t="s">
+      <c r="I303" s="48" t="s">
         <v>854</v>
       </c>
-      <c r="J303" s="6">
+      <c r="J303" s="49">
         <v>45237</v>
       </c>
-      <c r="K303" s="11" t="s">
+      <c r="K303" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L303" s="11" t="s">
+      <c r="L303" s="46" t="s">
         <v>722</v>
       </c>
       <c r="M303" s="11"/>
@@ -19509,40 +19520,40 @@
       <c r="Z303" s="11"/>
     </row>
     <row r="304" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A304" s="11" t="s">
+      <c r="A304" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="B304" s="11" t="s">
+      <c r="B304" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C304" s="11" t="s">
+      <c r="C304" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D304" s="11" t="s">
+      <c r="D304" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E304" s="11" t="s">
+      <c r="E304" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F304" s="11">
+      <c r="F304" s="46">
         <v>50265</v>
       </c>
-      <c r="G304" s="11" t="s">
+      <c r="G304" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H304" s="33">
+      <c r="H304" s="47">
         <v>1</v>
       </c>
-      <c r="I304" s="12" t="s">
+      <c r="I304" s="48" t="s">
         <v>855</v>
       </c>
-      <c r="J304" s="6">
+      <c r="J304" s="49">
         <v>45305</v>
       </c>
-      <c r="K304" s="11" t="s">
+      <c r="K304" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L304" s="11" t="s">
+      <c r="L304" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M304" s="11"/>
@@ -19561,40 +19572,40 @@
       <c r="Z304" s="11"/>
     </row>
     <row r="305" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A305" s="18" t="s">
+      <c r="A305" s="45" t="s">
         <v>856</v>
       </c>
-      <c r="B305" s="11" t="s">
+      <c r="B305" s="46" t="s">
         <v>857</v>
       </c>
-      <c r="C305" s="11" t="s">
+      <c r="C305" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D305" s="11" t="s">
+      <c r="D305" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E305" s="11" t="s">
+      <c r="E305" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F305" s="11">
+      <c r="F305" s="46">
         <v>50265</v>
       </c>
-      <c r="G305" s="11" t="s">
+      <c r="G305" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H305" s="33">
+      <c r="H305" s="47">
         <v>43</v>
       </c>
-      <c r="I305" s="12" t="s">
+      <c r="I305" s="48" t="s">
         <v>858</v>
       </c>
-      <c r="J305" s="6">
+      <c r="J305" s="49">
         <v>45275</v>
       </c>
-      <c r="K305" s="11" t="s">
+      <c r="K305" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L305" s="11" t="s">
+      <c r="L305" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M305" s="11"/>
@@ -19613,40 +19624,40 @@
       <c r="Z305" s="11"/>
     </row>
     <row r="306" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A306" s="18" t="s">
+      <c r="A306" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="B306" s="46" t="s">
         <v>860</v>
       </c>
-      <c r="C306" s="11" t="s">
+      <c r="C306" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="D306" s="11" t="s">
+      <c r="D306" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="E306" s="11" t="s">
+      <c r="E306" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F306" s="11">
+      <c r="F306" s="46">
         <v>51301</v>
       </c>
-      <c r="G306" s="11" t="s">
+      <c r="G306" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H306" s="33">
+      <c r="H306" s="47">
         <v>5</v>
       </c>
-      <c r="I306" s="12" t="s">
+      <c r="I306" s="48" t="s">
         <v>861</v>
       </c>
-      <c r="J306" s="6">
+      <c r="J306" s="49">
         <v>45318</v>
       </c>
-      <c r="K306" s="11" t="s">
+      <c r="K306" s="46" t="s">
         <v>862</v>
       </c>
-      <c r="L306" s="11" t="s">
+      <c r="L306" s="46" t="s">
         <v>726</v>
       </c>
       <c r="M306" s="11"/>
@@ -19665,40 +19676,40 @@
       <c r="Z306" s="11"/>
     </row>
     <row r="307" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A307" s="18" t="s">
+      <c r="A307" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="B307" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C307" s="11" t="s">
+      <c r="C307" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D307" s="11" t="s">
+      <c r="D307" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E307" s="11" t="s">
+      <c r="E307" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F307" s="11">
+      <c r="F307" s="46">
         <v>50265</v>
       </c>
-      <c r="G307" s="11" t="s">
+      <c r="G307" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H307" s="33">
+      <c r="H307" s="47">
         <v>8</v>
       </c>
-      <c r="I307" s="12" t="s">
+      <c r="I307" s="48" t="s">
         <v>861</v>
       </c>
-      <c r="J307" s="6">
+      <c r="J307" s="49">
         <v>45319</v>
       </c>
-      <c r="K307" s="11" t="s">
+      <c r="K307" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L307" s="11" t="s">
+      <c r="L307" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M307" s="11"/>
@@ -19717,40 +19728,40 @@
       <c r="Z307" s="11"/>
     </row>
     <row r="308" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A308" s="18" t="s">
+      <c r="A308" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="B308" s="11" t="s">
+      <c r="B308" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="C308" s="11" t="s">
+      <c r="C308" s="46" t="s">
         <v>781</v>
       </c>
-      <c r="D308" s="11" t="s">
+      <c r="D308" s="46" t="s">
         <v>652</v>
       </c>
-      <c r="E308" s="11" t="s">
+      <c r="E308" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F308" s="11">
+      <c r="F308" s="46">
         <v>50158</v>
       </c>
-      <c r="G308" s="11" t="s">
+      <c r="G308" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H308" s="33">
+      <c r="H308" s="47">
         <v>1</v>
       </c>
-      <c r="I308" s="12" t="s">
+      <c r="I308" s="48" t="s">
         <v>864</v>
       </c>
-      <c r="J308" s="6">
+      <c r="J308" s="49">
         <v>45331</v>
       </c>
-      <c r="K308" s="11" t="s">
+      <c r="K308" s="46" t="s">
         <v>654</v>
       </c>
-      <c r="L308" s="11" t="s">
+      <c r="L308" s="46" t="s">
         <v>726</v>
       </c>
       <c r="M308" s="11"/>
@@ -19769,40 +19780,40 @@
       <c r="Z308" s="11"/>
     </row>
     <row r="309" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A309" s="18" t="s">
+      <c r="A309" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B309" s="11" t="s">
+      <c r="B309" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C309" s="11" t="s">
+      <c r="C309" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D309" s="11" t="s">
+      <c r="D309" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E309" s="11" t="s">
+      <c r="E309" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F309" s="11">
+      <c r="F309" s="46">
         <v>50266</v>
       </c>
-      <c r="G309" s="11" t="s">
+      <c r="G309" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H309" s="33">
+      <c r="H309" s="47">
         <v>1</v>
       </c>
-      <c r="I309" s="12" t="s">
+      <c r="I309" s="48" t="s">
         <v>865</v>
       </c>
-      <c r="J309" s="6">
+      <c r="J309" s="49">
         <v>44969</v>
       </c>
-      <c r="K309" s="11" t="s">
+      <c r="K309" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L309" s="11" t="s">
+      <c r="L309" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M309" s="11"/>
@@ -19821,40 +19832,40 @@
       <c r="Z309" s="11"/>
     </row>
     <row r="310" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A310" s="18" t="s">
+      <c r="A310" s="45" t="s">
         <v>866</v>
       </c>
-      <c r="B310" s="11" t="s">
+      <c r="B310" s="46" t="s">
         <v>867</v>
       </c>
-      <c r="C310" s="11" t="s">
+      <c r="C310" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="D310" s="11" t="s">
+      <c r="D310" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E310" s="11" t="s">
+      <c r="E310" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F310" s="11">
+      <c r="F310" s="46">
         <v>52655</v>
       </c>
-      <c r="G310" s="11" t="s">
+      <c r="G310" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H310" s="33">
+      <c r="H310" s="47">
         <v>45</v>
       </c>
-      <c r="I310" s="12" t="s">
+      <c r="I310" s="48" t="s">
         <v>868</v>
       </c>
-      <c r="J310" s="6">
+      <c r="J310" s="49">
         <v>45345</v>
       </c>
-      <c r="K310" s="11" t="s">
+      <c r="K310" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L310" s="11" t="s">
+      <c r="L310" s="46" t="s">
         <v>514</v>
       </c>
       <c r="M310" s="11"/>
@@ -19873,40 +19884,40 @@
       <c r="Z310" s="11"/>
     </row>
     <row r="311" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A311" s="18" t="s">
+      <c r="A311" s="45" t="s">
         <v>866</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="B311" s="46" t="s">
         <v>869</v>
       </c>
-      <c r="C311" s="11" t="s">
+      <c r="C311" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="D311" s="11" t="s">
+      <c r="D311" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E311" s="11" t="s">
+      <c r="E311" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F311" s="11">
+      <c r="F311" s="46">
         <v>52655</v>
       </c>
-      <c r="G311" s="11" t="s">
+      <c r="G311" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H311" s="33">
+      <c r="H311" s="47">
         <v>11</v>
       </c>
-      <c r="I311" s="12" t="s">
+      <c r="I311" s="48" t="s">
         <v>868</v>
       </c>
-      <c r="J311" s="6">
+      <c r="J311" s="49">
         <v>45345</v>
       </c>
-      <c r="K311" s="11" t="s">
+      <c r="K311" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L311" s="11" t="s">
+      <c r="L311" s="46" t="s">
         <v>514</v>
       </c>
       <c r="M311" s="11"/>
@@ -19925,40 +19936,40 @@
       <c r="Z311" s="11"/>
     </row>
     <row r="312" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A312" s="18" t="s">
+      <c r="A312" s="45" t="s">
         <v>866</v>
       </c>
-      <c r="B312" s="11" t="s">
+      <c r="B312" s="46" t="s">
         <v>870</v>
       </c>
-      <c r="C312" s="11" t="s">
+      <c r="C312" s="46" t="s">
         <v>871</v>
       </c>
-      <c r="D312" s="11" t="s">
+      <c r="D312" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="E312" s="11" t="s">
+      <c r="E312" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F312" s="11">
+      <c r="F312" s="46">
         <v>52627</v>
       </c>
-      <c r="G312" s="11" t="s">
+      <c r="G312" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H312" s="33">
+      <c r="H312" s="47">
         <v>11</v>
       </c>
-      <c r="I312" s="12" t="s">
+      <c r="I312" s="48" t="s">
         <v>868</v>
       </c>
-      <c r="J312" s="6">
+      <c r="J312" s="49">
         <v>45345</v>
       </c>
-      <c r="K312" s="11" t="s">
+      <c r="K312" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L312" s="11" t="s">
+      <c r="L312" s="46" t="s">
         <v>514</v>
       </c>
       <c r="M312" s="11"/>
@@ -19977,40 +19988,40 @@
       <c r="Z312" s="11"/>
     </row>
     <row r="313" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A313" s="18" t="s">
+      <c r="A313" s="45" t="s">
         <v>872</v>
       </c>
-      <c r="B313" s="11" t="s">
+      <c r="B313" s="46" t="s">
         <v>873</v>
       </c>
-      <c r="C313" s="11" t="s">
+      <c r="C313" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D313" s="11" t="s">
+      <c r="D313" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="E313" s="11" t="s">
+      <c r="E313" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F313" s="11">
+      <c r="F313" s="46">
         <v>50501</v>
       </c>
-      <c r="G313" s="11" t="s">
+      <c r="G313" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H313" s="33">
+      <c r="H313" s="47">
         <v>85</v>
       </c>
-      <c r="I313" s="12" t="s">
+      <c r="I313" s="48" t="s">
         <v>874</v>
       </c>
-      <c r="J313" s="6">
+      <c r="J313" s="49">
         <v>45322</v>
       </c>
-      <c r="K313" s="11" t="s">
+      <c r="K313" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="L313" s="21" t="s">
+      <c r="L313" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M313" s="11"/>
@@ -20029,40 +20040,40 @@
       <c r="Z313" s="11"/>
     </row>
     <row r="314" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A314" s="18" t="s">
+      <c r="A314" s="45" t="s">
         <v>875</v>
       </c>
-      <c r="B314" s="11" t="s">
+      <c r="B314" s="46" t="s">
         <v>876</v>
       </c>
-      <c r="C314" s="11" t="s">
+      <c r="C314" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D314" s="11" t="s">
+      <c r="D314" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E314" s="11" t="s">
+      <c r="E314" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F314" s="11">
+      <c r="F314" s="46">
         <v>52353</v>
       </c>
-      <c r="G314" s="11" t="s">
+      <c r="G314" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H314" s="33">
+      <c r="H314" s="47">
         <v>65</v>
       </c>
-      <c r="I314" s="12" t="s">
+      <c r="I314" s="48" t="s">
         <v>877</v>
       </c>
-      <c r="J314" s="6">
+      <c r="J314" s="49">
         <v>45292</v>
       </c>
-      <c r="K314" s="11" t="s">
+      <c r="K314" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="L314" s="11" t="s">
+      <c r="L314" s="46" t="s">
         <v>878</v>
       </c>
       <c r="M314" s="11"/>
@@ -20081,40 +20092,40 @@
       <c r="Z314" s="11"/>
     </row>
     <row r="315" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A315" s="18" t="s">
+      <c r="A315" s="45" t="s">
         <v>879</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B315" s="46" t="s">
         <v>880</v>
       </c>
-      <c r="C315" s="11" t="s">
+      <c r="C315" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D315" s="11" t="s">
+      <c r="D315" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E315" s="11" t="s">
+      <c r="E315" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F315" s="11">
+      <c r="F315" s="46">
         <v>50010</v>
       </c>
-      <c r="G315" s="11" t="s">
+      <c r="G315" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H315" s="33">
+      <c r="H315" s="47">
         <v>46</v>
       </c>
-      <c r="I315" s="12" t="s">
+      <c r="I315" s="48" t="s">
         <v>881</v>
       </c>
-      <c r="J315" s="6">
+      <c r="J315" s="49">
         <v>45343</v>
       </c>
-      <c r="K315" s="11" t="s">
+      <c r="K315" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L315" s="21" t="s">
+      <c r="L315" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M315" s="11"/>
@@ -20133,40 +20144,40 @@
       <c r="Z315" s="11"/>
     </row>
     <row r="316" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A316" s="18" t="s">
+      <c r="A316" s="45" t="s">
         <v>882</v>
       </c>
-      <c r="B316" s="11" t="s">
+      <c r="B316" s="46" t="s">
         <v>883</v>
       </c>
-      <c r="C316" s="11" t="s">
+      <c r="C316" s="46" t="s">
         <v>884</v>
       </c>
-      <c r="D316" s="11" t="s">
+      <c r="D316" s="46" t="s">
         <v>885</v>
       </c>
-      <c r="E316" s="11" t="s">
+      <c r="E316" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F316" s="11">
+      <c r="F316" s="46">
         <v>52233</v>
       </c>
-      <c r="G316" s="11" t="s">
+      <c r="G316" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H316" s="33">
+      <c r="H316" s="47">
         <v>35</v>
       </c>
-      <c r="I316" s="12" t="s">
+      <c r="I316" s="48" t="s">
         <v>886</v>
       </c>
-      <c r="J316" s="6">
+      <c r="J316" s="49">
         <v>45316</v>
       </c>
-      <c r="K316" s="11" t="s">
+      <c r="K316" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="L316" s="11" t="s">
+      <c r="L316" s="46" t="s">
         <v>887</v>
       </c>
       <c r="M316" s="11"/>
@@ -20185,40 +20196,40 @@
       <c r="Z316" s="11"/>
     </row>
     <row r="317" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A317" s="18" t="s">
+      <c r="A317" s="45" t="s">
         <v>888</v>
       </c>
-      <c r="B317" s="11" t="s">
+      <c r="B317" s="46" t="s">
         <v>889</v>
       </c>
-      <c r="C317" s="11" t="s">
+      <c r="C317" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D317" s="11" t="s">
+      <c r="D317" s="46" t="s">
         <v>815</v>
       </c>
-      <c r="E317" s="11" t="s">
+      <c r="E317" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F317" s="11">
+      <c r="F317" s="46">
         <v>52001</v>
       </c>
-      <c r="G317" s="11" t="s">
+      <c r="G317" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H317" s="33">
+      <c r="H317" s="47">
         <v>52</v>
       </c>
-      <c r="I317" s="12" t="s">
+      <c r="I317" s="48" t="s">
         <v>890</v>
       </c>
-      <c r="J317" s="6">
+      <c r="J317" s="49">
         <v>45323</v>
       </c>
-      <c r="K317" s="11" t="s">
+      <c r="K317" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L317" s="11" t="s">
+      <c r="L317" s="46" t="s">
         <v>514</v>
       </c>
       <c r="M317" s="11"/>
@@ -20237,40 +20248,40 @@
       <c r="Z317" s="11"/>
     </row>
     <row r="318" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A318" s="18" t="s">
+      <c r="A318" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="B318" s="11" t="s">
+      <c r="B318" s="46" t="s">
         <v>833</v>
       </c>
-      <c r="C318" s="11" t="s">
+      <c r="C318" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="D318" s="11" t="s">
+      <c r="D318" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="E318" s="11" t="s">
+      <c r="E318" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F318" s="11">
+      <c r="F318" s="46">
         <v>50266</v>
       </c>
-      <c r="G318" s="11" t="s">
+      <c r="G318" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H318" s="33">
+      <c r="H318" s="47">
         <v>66</v>
       </c>
-      <c r="I318" s="12" t="s">
+      <c r="I318" s="48" t="s">
         <v>892</v>
       </c>
-      <c r="J318" s="6">
+      <c r="J318" s="49">
         <v>45324</v>
       </c>
-      <c r="K318" s="11" t="s">
+      <c r="K318" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L318" s="39" t="s">
+      <c r="L318" s="58" t="s">
         <v>28</v>
       </c>
       <c r="M318" s="11"/>
@@ -20289,40 +20300,40 @@
       <c r="Z318" s="11"/>
     </row>
     <row r="319" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A319" s="18" t="s">
+      <c r="A319" s="45" t="s">
         <v>893</v>
       </c>
-      <c r="B319" s="11" t="s">
+      <c r="B319" s="46" t="s">
         <v>894</v>
       </c>
-      <c r="C319" s="11" t="s">
+      <c r="C319" s="46" t="s">
         <v>895</v>
       </c>
-      <c r="D319" s="11" t="s">
+      <c r="D319" s="46" t="s">
         <v>895</v>
       </c>
-      <c r="E319" s="11" t="s">
+      <c r="E319" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F319" s="11">
+      <c r="F319" s="46">
         <v>52761</v>
       </c>
-      <c r="G319" s="11" t="s">
+      <c r="G319" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H319" s="33">
+      <c r="H319" s="47">
         <v>46</v>
       </c>
-      <c r="I319" s="12" t="s">
+      <c r="I319" s="48" t="s">
         <v>896</v>
       </c>
-      <c r="J319" s="6">
+      <c r="J319" s="49">
         <v>45364</v>
       </c>
-      <c r="K319" s="11" t="s">
+      <c r="K319" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="L319" s="11" t="s">
+      <c r="L319" s="46" t="s">
         <v>887</v>
       </c>
       <c r="M319" s="11"/>
@@ -20341,40 +20352,40 @@
       <c r="Z319" s="11"/>
     </row>
     <row r="320" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A320" s="18" t="s">
+      <c r="A320" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B320" s="11" t="s">
+      <c r="B320" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C320" s="11" t="s">
+      <c r="C320" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D320" s="11" t="s">
+      <c r="D320" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E320" s="11" t="s">
+      <c r="E320" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F320" s="11">
+      <c r="F320" s="46">
         <v>50266</v>
       </c>
-      <c r="G320" s="11" t="s">
+      <c r="G320" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H320" s="33">
+      <c r="H320" s="47">
         <v>6</v>
       </c>
-      <c r="I320" s="12" t="s">
+      <c r="I320" s="48" t="s">
         <v>897</v>
       </c>
-      <c r="J320" s="6">
+      <c r="J320" s="49">
         <v>45314</v>
       </c>
-      <c r="K320" s="11" t="s">
+      <c r="K320" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L320" s="11" t="s">
+      <c r="L320" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M320" s="11"/>
@@ -20393,40 +20404,40 @@
       <c r="Z320" s="11"/>
     </row>
     <row r="321" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A321" s="18" t="s">
+      <c r="A321" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B321" s="11" t="s">
+      <c r="B321" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C321" s="11" t="s">
+      <c r="C321" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D321" s="11" t="s">
+      <c r="D321" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E321" s="11" t="s">
+      <c r="E321" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F321" s="11">
+      <c r="F321" s="46">
         <v>50266</v>
       </c>
-      <c r="G321" s="11" t="s">
+      <c r="G321" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H321" s="33">
+      <c r="H321" s="47">
         <v>5</v>
       </c>
-      <c r="I321" s="12" t="s">
+      <c r="I321" s="48" t="s">
         <v>897</v>
       </c>
-      <c r="J321" s="6">
+      <c r="J321" s="49">
         <v>45328</v>
       </c>
-      <c r="K321" s="11" t="s">
+      <c r="K321" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L321" s="11" t="s">
+      <c r="L321" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M321" s="11"/>
@@ -20445,40 +20456,40 @@
       <c r="Z321" s="11"/>
     </row>
     <row r="322" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A322" s="18" t="s">
+      <c r="A322" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B322" s="11" t="s">
+      <c r="B322" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C322" s="11" t="s">
+      <c r="C322" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D322" s="11" t="s">
+      <c r="D322" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E322" s="11" t="s">
+      <c r="E322" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F322" s="11">
+      <c r="F322" s="46">
         <v>50266</v>
       </c>
-      <c r="G322" s="11" t="s">
+      <c r="G322" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H322" s="33">
+      <c r="H322" s="47">
         <v>25</v>
       </c>
-      <c r="I322" s="12" t="s">
+      <c r="I322" s="48" t="s">
         <v>897</v>
       </c>
-      <c r="J322" s="6">
+      <c r="J322" s="49">
         <v>45342</v>
       </c>
-      <c r="K322" s="11" t="s">
+      <c r="K322" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L322" s="11" t="s">
+      <c r="L322" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M322" s="11"/>
@@ -20497,40 +20508,40 @@
       <c r="Z322" s="11"/>
     </row>
     <row r="323" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A323" s="18" t="s">
+      <c r="A323" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="B323" s="11" t="s">
+      <c r="B323" s="46" t="s">
         <v>898</v>
       </c>
-      <c r="C323" s="11" t="s">
+      <c r="C323" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D323" s="11" t="s">
+      <c r="D323" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E323" s="11" t="s">
+      <c r="E323" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F323" s="11">
+      <c r="F323" s="46">
         <v>50266</v>
       </c>
-      <c r="G323" s="11" t="s">
+      <c r="G323" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H323" s="33">
+      <c r="H323" s="47">
         <v>44</v>
       </c>
-      <c r="I323" s="12" t="s">
+      <c r="I323" s="48" t="s">
         <v>899</v>
       </c>
-      <c r="J323" s="6">
+      <c r="J323" s="49">
         <v>45344</v>
       </c>
-      <c r="K323" s="11" t="s">
+      <c r="K323" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L323" s="11" t="s">
+      <c r="L323" s="46" t="s">
         <v>28</v>
       </c>
       <c r="M323" s="11"/>
@@ -20549,40 +20560,40 @@
       <c r="Z323" s="11"/>
     </row>
     <row r="324" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A324" s="18" t="s">
+      <c r="A324" s="45" t="s">
         <v>900</v>
       </c>
-      <c r="B324" s="11" t="s">
+      <c r="B324" s="46" t="s">
         <v>901</v>
       </c>
-      <c r="C324" s="11" t="s">
+      <c r="C324" s="46" t="s">
         <v>902</v>
       </c>
-      <c r="D324" s="11" t="s">
+      <c r="D324" s="46" t="s">
         <v>903</v>
       </c>
-      <c r="E324" s="11" t="s">
+      <c r="E324" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F324" s="11">
+      <c r="F324" s="46">
         <v>50213</v>
       </c>
-      <c r="G324" s="11" t="s">
+      <c r="G324" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H324" s="33">
+      <c r="H324" s="47">
         <v>5</v>
       </c>
-      <c r="I324" s="12" t="s">
+      <c r="I324" s="48" t="s">
         <v>904</v>
       </c>
-      <c r="J324" s="6">
+      <c r="J324" s="49">
         <v>45415</v>
       </c>
-      <c r="K324" s="11" t="s">
+      <c r="K324" s="46" t="s">
         <v>862</v>
       </c>
-      <c r="L324" s="11" t="s">
+      <c r="L324" s="46" t="s">
         <v>726</v>
       </c>
       <c r="M324" s="11"/>
@@ -20601,40 +20612,40 @@
       <c r="Z324" s="11"/>
     </row>
     <row r="325" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A325" s="18" t="s">
+      <c r="A325" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B325" s="11" t="s">
+      <c r="B325" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C325" s="11" t="s">
+      <c r="C325" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D325" s="11" t="s">
+      <c r="D325" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E325" s="11" t="s">
+      <c r="E325" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F325" s="11">
+      <c r="F325" s="46">
         <v>50266</v>
       </c>
-      <c r="G325" s="11" t="s">
+      <c r="G325" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H325" s="33">
+      <c r="H325" s="47">
         <v>22</v>
       </c>
-      <c r="I325" s="12" t="s">
+      <c r="I325" s="48" t="s">
         <v>905</v>
       </c>
-      <c r="J325" s="6">
+      <c r="J325" s="49">
         <v>45356</v>
       </c>
-      <c r="K325" s="11" t="s">
+      <c r="K325" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L325" s="11" t="s">
+      <c r="L325" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M325" s="11"/>
@@ -20653,40 +20664,40 @@
       <c r="Z325" s="11"/>
     </row>
     <row r="326" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A326" s="18" t="s">
+      <c r="A326" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="B326" s="11" t="s">
+      <c r="B326" s="46" t="s">
         <v>907</v>
       </c>
-      <c r="C326" s="11" t="s">
+      <c r="C326" s="46" t="s">
         <v>908</v>
       </c>
-      <c r="D326" s="11" t="s">
+      <c r="D326" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="E326" s="11" t="s">
+      <c r="E326" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F326" s="11">
+      <c r="F326" s="46">
         <v>50220</v>
       </c>
-      <c r="G326" s="11" t="s">
+      <c r="G326" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H326" s="33">
+      <c r="H326" s="47">
         <v>1276</v>
       </c>
-      <c r="I326" s="12" t="s">
+      <c r="I326" s="48" t="s">
         <v>910</v>
       </c>
-      <c r="J326" s="6">
+      <c r="J326" s="49">
         <v>45471</v>
       </c>
-      <c r="K326" s="11" t="s">
+      <c r="K326" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L326" s="20" t="s">
+      <c r="L326" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M326" s="11"/>
@@ -20704,301 +20715,301 @@
       <c r="Y326" s="11"/>
       <c r="Z326" s="11"/>
     </row>
-    <row r="327" spans="1:26" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A327" s="18" t="s">
+    <row r="327" spans="1:26" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="A327" s="45" t="s">
         <v>911</v>
       </c>
-      <c r="B327" s="11" t="s">
+      <c r="B327" s="46" t="s">
         <v>912</v>
       </c>
-      <c r="C327" s="11" t="s">
+      <c r="C327" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D327" s="11" t="s">
+      <c r="D327" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E327" s="11" t="s">
+      <c r="E327" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F327" s="11">
+      <c r="F327" s="46">
         <v>50023</v>
       </c>
-      <c r="G327" s="11" t="s">
+      <c r="G327" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H327" s="33">
+      <c r="H327" s="47">
         <v>30</v>
       </c>
-      <c r="I327" s="49" t="s">
+      <c r="I327" s="48" t="s">
         <v>913</v>
       </c>
-      <c r="J327" s="6">
+      <c r="J327" s="49">
         <v>45390</v>
       </c>
-      <c r="K327" s="11" t="s">
+      <c r="K327" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L327" s="20" t="s">
+      <c r="L327" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M327" s="40"/>
-      <c r="N327" s="40"/>
-      <c r="O327" s="40"/>
-      <c r="P327" s="40"/>
-      <c r="Q327" s="40"/>
-      <c r="R327" s="40"/>
-      <c r="S327" s="40"/>
-      <c r="T327" s="40"/>
-      <c r="U327" s="40"/>
-      <c r="V327" s="40"/>
-      <c r="W327" s="40"/>
-      <c r="X327" s="40"/>
-      <c r="Y327" s="40"/>
-      <c r="Z327" s="40"/>
-    </row>
-    <row r="328" spans="1:26" s="41" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A328" s="18" t="s">
+      <c r="M327" s="39"/>
+      <c r="N327" s="39"/>
+      <c r="O327" s="39"/>
+      <c r="P327" s="39"/>
+      <c r="Q327" s="39"/>
+      <c r="R327" s="39"/>
+      <c r="S327" s="39"/>
+      <c r="T327" s="39"/>
+      <c r="U327" s="39"/>
+      <c r="V327" s="39"/>
+      <c r="W327" s="39"/>
+      <c r="X327" s="39"/>
+      <c r="Y327" s="39"/>
+      <c r="Z327" s="39"/>
+    </row>
+    <row r="328" spans="1:26" s="40" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A328" s="45" t="s">
         <v>911</v>
       </c>
-      <c r="B328" s="11" t="s">
+      <c r="B328" s="46" t="s">
         <v>912</v>
       </c>
-      <c r="C328" s="11" t="s">
+      <c r="C328" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D328" s="11" t="s">
+      <c r="D328" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E328" s="11" t="s">
+      <c r="E328" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F328" s="11">
+      <c r="F328" s="46">
         <v>50023</v>
       </c>
-      <c r="G328" s="11" t="s">
+      <c r="G328" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H328" s="33">
+      <c r="H328" s="47">
         <v>30</v>
       </c>
-      <c r="I328" s="49" t="s">
+      <c r="I328" s="48" t="s">
         <v>913</v>
       </c>
-      <c r="J328" s="6">
+      <c r="J328" s="49">
         <v>45397</v>
       </c>
-      <c r="K328" s="11" t="s">
+      <c r="K328" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L328" s="20" t="s">
+      <c r="L328" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M328" s="40"/>
-      <c r="N328" s="40"/>
-      <c r="O328" s="40"/>
-      <c r="P328" s="40"/>
-      <c r="Q328" s="40"/>
-      <c r="R328" s="40"/>
-      <c r="S328" s="40"/>
-      <c r="T328" s="40"/>
-      <c r="U328" s="40"/>
-      <c r="V328" s="40"/>
-      <c r="W328" s="40"/>
-      <c r="X328" s="40"/>
-      <c r="Y328" s="40"/>
-      <c r="Z328" s="40"/>
-    </row>
-    <row r="329" spans="1:26" s="41" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A329" s="18" t="s">
+      <c r="M328" s="39"/>
+      <c r="N328" s="39"/>
+      <c r="O328" s="39"/>
+      <c r="P328" s="39"/>
+      <c r="Q328" s="39"/>
+      <c r="R328" s="39"/>
+      <c r="S328" s="39"/>
+      <c r="T328" s="39"/>
+      <c r="U328" s="39"/>
+      <c r="V328" s="39"/>
+      <c r="W328" s="39"/>
+      <c r="X328" s="39"/>
+      <c r="Y328" s="39"/>
+      <c r="Z328" s="39"/>
+    </row>
+    <row r="329" spans="1:26" s="40" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A329" s="45" t="s">
         <v>911</v>
       </c>
-      <c r="B329" s="11" t="s">
+      <c r="B329" s="46" t="s">
         <v>912</v>
       </c>
-      <c r="C329" s="11" t="s">
+      <c r="C329" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D329" s="11" t="s">
+      <c r="D329" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E329" s="11" t="s">
+      <c r="E329" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F329" s="11">
+      <c r="F329" s="46">
         <v>50023</v>
       </c>
-      <c r="G329" s="11" t="s">
+      <c r="G329" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H329" s="33">
+      <c r="H329" s="47">
         <v>30</v>
       </c>
-      <c r="I329" s="49" t="s">
+      <c r="I329" s="48" t="s">
         <v>913</v>
       </c>
-      <c r="J329" s="6">
+      <c r="J329" s="49">
         <v>45411</v>
       </c>
-      <c r="K329" s="11" t="s">
+      <c r="K329" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L329" s="20" t="s">
+      <c r="L329" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M329" s="40"/>
-      <c r="N329" s="40"/>
-      <c r="O329" s="40"/>
-      <c r="P329" s="40"/>
-      <c r="Q329" s="40"/>
-      <c r="R329" s="40"/>
-      <c r="S329" s="40"/>
-      <c r="T329" s="40"/>
-      <c r="U329" s="40"/>
-      <c r="V329" s="40"/>
-      <c r="W329" s="40"/>
-      <c r="X329" s="40"/>
-      <c r="Y329" s="40"/>
-      <c r="Z329" s="40"/>
-    </row>
-    <row r="330" spans="1:26" s="41" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A330" s="18" t="s">
+      <c r="M329" s="39"/>
+      <c r="N329" s="39"/>
+      <c r="O329" s="39"/>
+      <c r="P329" s="39"/>
+      <c r="Q329" s="39"/>
+      <c r="R329" s="39"/>
+      <c r="S329" s="39"/>
+      <c r="T329" s="39"/>
+      <c r="U329" s="39"/>
+      <c r="V329" s="39"/>
+      <c r="W329" s="39"/>
+      <c r="X329" s="39"/>
+      <c r="Y329" s="39"/>
+      <c r="Z329" s="39"/>
+    </row>
+    <row r="330" spans="1:26" s="40" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A330" s="45" t="s">
         <v>911</v>
       </c>
-      <c r="B330" s="11" t="s">
+      <c r="B330" s="46" t="s">
         <v>912</v>
       </c>
-      <c r="C330" s="11" t="s">
+      <c r="C330" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D330" s="11" t="s">
+      <c r="D330" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E330" s="11" t="s">
+      <c r="E330" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F330" s="11">
+      <c r="F330" s="46">
         <v>50023</v>
       </c>
-      <c r="G330" s="11" t="s">
+      <c r="G330" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H330" s="33">
+      <c r="H330" s="47">
         <v>30</v>
       </c>
-      <c r="I330" s="49" t="s">
+      <c r="I330" s="48" t="s">
         <v>913</v>
       </c>
-      <c r="J330" s="6">
+      <c r="J330" s="49">
         <v>45418</v>
       </c>
-      <c r="K330" s="11" t="s">
+      <c r="K330" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L330" s="20" t="s">
+      <c r="L330" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M330" s="40"/>
-      <c r="N330" s="40"/>
-      <c r="O330" s="40"/>
-      <c r="P330" s="40"/>
-      <c r="Q330" s="40"/>
-      <c r="R330" s="40"/>
-      <c r="S330" s="40"/>
-      <c r="T330" s="40"/>
-      <c r="U330" s="40"/>
-      <c r="V330" s="40"/>
-      <c r="W330" s="40"/>
-      <c r="X330" s="40"/>
-      <c r="Y330" s="40"/>
-      <c r="Z330" s="40"/>
-    </row>
-    <row r="331" spans="1:26" s="41" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A331" s="18" t="s">
+      <c r="M330" s="39"/>
+      <c r="N330" s="39"/>
+      <c r="O330" s="39"/>
+      <c r="P330" s="39"/>
+      <c r="Q330" s="39"/>
+      <c r="R330" s="39"/>
+      <c r="S330" s="39"/>
+      <c r="T330" s="39"/>
+      <c r="U330" s="39"/>
+      <c r="V330" s="39"/>
+      <c r="W330" s="39"/>
+      <c r="X330" s="39"/>
+      <c r="Y330" s="39"/>
+      <c r="Z330" s="39"/>
+    </row>
+    <row r="331" spans="1:26" s="40" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A331" s="45" t="s">
         <v>911</v>
       </c>
-      <c r="B331" s="11" t="s">
+      <c r="B331" s="46" t="s">
         <v>912</v>
       </c>
-      <c r="C331" s="11" t="s">
+      <c r="C331" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D331" s="11" t="s">
+      <c r="D331" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E331" s="11" t="s">
+      <c r="E331" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F331" s="11">
+      <c r="F331" s="46">
         <v>50023</v>
       </c>
-      <c r="G331" s="11" t="s">
+      <c r="G331" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H331" s="33">
+      <c r="H331" s="47">
         <v>30</v>
       </c>
-      <c r="I331" s="49" t="s">
+      <c r="I331" s="48" t="s">
         <v>913</v>
       </c>
-      <c r="J331" s="6">
+      <c r="J331" s="49">
         <v>45432</v>
       </c>
-      <c r="K331" s="11" t="s">
+      <c r="K331" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L331" s="20" t="s">
+      <c r="L331" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M331" s="40"/>
-      <c r="N331" s="40"/>
-      <c r="O331" s="40"/>
-      <c r="P331" s="40"/>
-      <c r="Q331" s="40"/>
-      <c r="R331" s="40"/>
-      <c r="S331" s="40"/>
-      <c r="T331" s="40"/>
-      <c r="U331" s="40"/>
-      <c r="V331" s="40"/>
-      <c r="W331" s="40"/>
-      <c r="X331" s="40"/>
-      <c r="Y331" s="40"/>
-      <c r="Z331" s="40"/>
+      <c r="M331" s="39"/>
+      <c r="N331" s="39"/>
+      <c r="O331" s="39"/>
+      <c r="P331" s="39"/>
+      <c r="Q331" s="39"/>
+      <c r="R331" s="39"/>
+      <c r="S331" s="39"/>
+      <c r="T331" s="39"/>
+      <c r="U331" s="39"/>
+      <c r="V331" s="39"/>
+      <c r="W331" s="39"/>
+      <c r="X331" s="39"/>
+      <c r="Y331" s="39"/>
+      <c r="Z331" s="39"/>
     </row>
     <row r="332" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A332" s="18" t="s">
+      <c r="A332" s="45" t="s">
         <v>914</v>
       </c>
-      <c r="B332" s="11" t="s">
+      <c r="B332" s="46" t="s">
         <v>915</v>
       </c>
-      <c r="C332" s="11" t="s">
+      <c r="C332" s="46" t="s">
         <v>916</v>
       </c>
-      <c r="D332" s="11" t="s">
+      <c r="D332" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="E332" s="11" t="s">
+      <c r="E332" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F332" s="11">
+      <c r="F332" s="46">
         <v>52556</v>
       </c>
-      <c r="G332" s="11" t="s">
+      <c r="G332" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H332" s="33">
+      <c r="H332" s="47">
         <v>46</v>
       </c>
-      <c r="I332" s="12" t="s">
+      <c r="I332" s="48" t="s">
         <v>913</v>
       </c>
-      <c r="J332" s="6">
+      <c r="J332" s="49">
         <v>45395</v>
       </c>
-      <c r="K332" s="11" t="s">
+      <c r="K332" s="46" t="s">
         <v>578</v>
       </c>
-      <c r="L332" s="20" t="s">
+      <c r="L332" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M332" s="11"/>
@@ -21017,40 +21028,40 @@
       <c r="Z332" s="11"/>
     </row>
     <row r="333" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A333" s="18" t="s">
+      <c r="A333" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B333" s="11" t="s">
+      <c r="B333" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C333" s="11" t="s">
+      <c r="C333" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D333" s="11" t="s">
+      <c r="D333" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E333" s="11" t="s">
+      <c r="E333" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F333" s="11">
+      <c r="F333" s="46">
         <v>50266</v>
       </c>
-      <c r="G333" s="11" t="s">
+      <c r="G333" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="H333" s="33">
+      <c r="H333" s="47">
         <v>13</v>
       </c>
-      <c r="I333" s="12" t="s">
+      <c r="I333" s="48" t="s">
         <v>917</v>
       </c>
-      <c r="J333" s="6">
+      <c r="J333" s="49">
         <v>45370</v>
       </c>
-      <c r="K333" s="11" t="s">
+      <c r="K333" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L333" s="11" t="s">
+      <c r="L333" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M333" s="11"/>
@@ -21068,93 +21079,93 @@
       <c r="Y333" s="11"/>
       <c r="Z333" s="11"/>
     </row>
-    <row r="334" spans="1:26" s="43" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A334" s="18" t="s">
+    <row r="334" spans="1:26" s="42" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A334" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="B334" s="11" t="s">
+      <c r="B334" s="46" t="s">
         <v>919</v>
       </c>
-      <c r="C334" s="11" t="s">
+      <c r="C334" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="D334" s="11" t="s">
+      <c r="D334" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E334" s="11" t="s">
+      <c r="E334" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F334" s="11">
+      <c r="F334" s="46">
         <v>50704</v>
       </c>
-      <c r="G334" s="11" t="s">
+      <c r="G334" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H334" s="33">
+      <c r="H334" s="47">
         <v>308</v>
       </c>
-      <c r="I334" s="12" t="s">
+      <c r="I334" s="48" t="s">
         <v>920</v>
       </c>
-      <c r="J334" s="50">
+      <c r="J334" s="49">
         <v>45408</v>
       </c>
-      <c r="K334" s="11" t="s">
+      <c r="K334" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L334" s="20" t="s">
+      <c r="L334" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M334" s="42"/>
-      <c r="N334" s="42"/>
-      <c r="O334" s="42"/>
-      <c r="P334" s="42"/>
-      <c r="Q334" s="42"/>
-      <c r="R334" s="42"/>
-      <c r="S334" s="42"/>
-      <c r="T334" s="42"/>
-      <c r="U334" s="42"/>
-      <c r="V334" s="42"/>
-      <c r="W334" s="42"/>
-      <c r="X334" s="42"/>
-      <c r="Y334" s="42"/>
-      <c r="Z334" s="42"/>
+      <c r="M334" s="41"/>
+      <c r="N334" s="41"/>
+      <c r="O334" s="41"/>
+      <c r="P334" s="41"/>
+      <c r="Q334" s="41"/>
+      <c r="R334" s="41"/>
+      <c r="S334" s="41"/>
+      <c r="T334" s="41"/>
+      <c r="U334" s="41"/>
+      <c r="V334" s="41"/>
+      <c r="W334" s="41"/>
+      <c r="X334" s="41"/>
+      <c r="Y334" s="41"/>
+      <c r="Z334" s="41"/>
     </row>
     <row r="335" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A335" s="18" t="s">
+      <c r="A335" s="45" t="s">
         <v>921</v>
       </c>
-      <c r="B335" s="11" t="s">
+      <c r="B335" s="46" t="s">
         <v>922</v>
       </c>
-      <c r="C335" s="11" t="s">
+      <c r="C335" s="46" t="s">
         <v>908</v>
       </c>
-      <c r="D335" s="11" t="s">
+      <c r="D335" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="E335" s="11" t="s">
+      <c r="E335" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F335" s="11">
+      <c r="F335" s="46">
         <v>50220</v>
       </c>
-      <c r="G335" s="11" t="s">
+      <c r="G335" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H335" s="33">
+      <c r="H335" s="47">
         <v>76</v>
       </c>
-      <c r="I335" s="12" t="s">
+      <c r="I335" s="48" t="s">
         <v>923</v>
       </c>
-      <c r="J335" s="6">
+      <c r="J335" s="49">
         <v>45471</v>
       </c>
-      <c r="K335" s="11" t="s">
+      <c r="K335" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L335" s="31" t="s">
+      <c r="L335" s="59" t="s">
         <v>783</v>
       </c>
       <c r="M335" s="11"/>
@@ -21173,40 +21184,40 @@
       <c r="Z335" s="11"/>
     </row>
     <row r="336" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A336" s="18" t="s">
+      <c r="A336" s="45" t="s">
         <v>924</v>
       </c>
-      <c r="B336" s="11" t="s">
+      <c r="B336" s="46" t="s">
         <v>925</v>
       </c>
-      <c r="C336" s="11" t="s">
+      <c r="C336" s="46" t="s">
         <v>926</v>
       </c>
-      <c r="D336" s="11" t="s">
+      <c r="D336" s="46" t="s">
         <v>751</v>
       </c>
-      <c r="E336" s="11" t="s">
+      <c r="E336" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F336" s="11">
+      <c r="F336" s="46">
         <v>52776</v>
       </c>
-      <c r="G336" s="11" t="s">
+      <c r="G336" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H336" s="33">
+      <c r="H336" s="47">
         <v>24</v>
       </c>
-      <c r="I336" s="12" t="s">
+      <c r="I336" s="48" t="s">
         <v>927</v>
       </c>
-      <c r="J336" s="6">
+      <c r="J336" s="49">
         <v>45418</v>
       </c>
-      <c r="K336" s="11" t="s">
+      <c r="K336" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="L336" s="20" t="s">
+      <c r="L336" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M336" s="11"/>
@@ -21225,40 +21236,40 @@
       <c r="Z336" s="11"/>
     </row>
     <row r="337" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A337" s="18" t="s">
+      <c r="A337" s="45" t="s">
         <v>928</v>
       </c>
-      <c r="B337" s="11" t="s">
+      <c r="B337" s="46" t="s">
         <v>929</v>
       </c>
-      <c r="C337" s="11" t="s">
+      <c r="C337" s="46" t="s">
         <v>895</v>
       </c>
-      <c r="D337" s="11" t="s">
+      <c r="D337" s="46" t="s">
         <v>895</v>
       </c>
-      <c r="E337" s="11" t="s">
+      <c r="E337" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F337" s="11">
+      <c r="F337" s="46">
         <v>52761</v>
       </c>
-      <c r="G337" s="11" t="s">
+      <c r="G337" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H337" s="33">
+      <c r="H337" s="47">
         <v>28</v>
       </c>
-      <c r="I337" s="12" t="s">
+      <c r="I337" s="48" t="s">
         <v>927</v>
       </c>
-      <c r="J337" s="6">
+      <c r="J337" s="49">
         <v>45434</v>
       </c>
-      <c r="K337" s="11" t="s">
+      <c r="K337" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="L337" s="11" t="s">
+      <c r="L337" s="46" t="s">
         <v>247</v>
       </c>
       <c r="M337" s="11"/>
@@ -21277,40 +21288,40 @@
       <c r="Z337" s="11"/>
     </row>
     <row r="338" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A338" s="18" t="s">
+      <c r="A338" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B338" s="11" t="s">
+      <c r="B338" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C338" s="11" t="s">
+      <c r="C338" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D338" s="11" t="s">
+      <c r="D338" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="E338" s="11" t="s">
+      <c r="E338" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F338" s="11">
+      <c r="F338" s="46">
         <v>50266</v>
       </c>
-      <c r="G338" s="11" t="s">
+      <c r="G338" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="H338" s="33">
+      <c r="H338" s="47">
         <v>5</v>
       </c>
-      <c r="I338" s="12" t="s">
+      <c r="I338" s="48" t="s">
         <v>930</v>
       </c>
-      <c r="J338" s="6">
+      <c r="J338" s="49">
         <v>45384</v>
       </c>
-      <c r="K338" s="11" t="s">
+      <c r="K338" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L338" s="11" t="s">
+      <c r="L338" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M338" s="11"/>
@@ -21329,40 +21340,40 @@
       <c r="Z338" s="11"/>
     </row>
     <row r="339" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A339" s="18" t="s">
+      <c r="A339" s="45" t="s">
         <v>931</v>
       </c>
-      <c r="B339" s="11" t="s">
+      <c r="B339" s="46" t="s">
         <v>932</v>
       </c>
-      <c r="C339" s="11" t="s">
+      <c r="C339" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="D339" s="11" t="s">
+      <c r="D339" s="46" t="s">
         <v>933</v>
       </c>
-      <c r="E339" s="11" t="s">
+      <c r="E339" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F339" s="11">
+      <c r="F339" s="46">
         <v>50588</v>
       </c>
-      <c r="G339" s="11" t="s">
+      <c r="G339" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H339" s="33">
+      <c r="H339" s="47">
         <v>14</v>
       </c>
-      <c r="I339" s="12" t="s">
+      <c r="I339" s="48" t="s">
         <v>934</v>
       </c>
-      <c r="J339" s="6">
+      <c r="J339" s="49">
         <v>45415</v>
       </c>
-      <c r="K339" s="11" t="s">
+      <c r="K339" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="L339" s="20" t="s">
+      <c r="L339" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M339" s="11"/>
@@ -21381,40 +21392,40 @@
       <c r="Z339" s="11"/>
     </row>
     <row r="340" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A340" s="18" t="s">
+      <c r="A340" s="45" t="s">
         <v>931</v>
       </c>
-      <c r="B340" s="11" t="s">
+      <c r="B340" s="46" t="s">
         <v>932</v>
       </c>
-      <c r="C340" s="11" t="s">
+      <c r="C340" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="D340" s="11" t="s">
+      <c r="D340" s="46" t="s">
         <v>933</v>
       </c>
-      <c r="E340" s="11" t="s">
+      <c r="E340" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F340" s="11">
+      <c r="F340" s="46">
         <v>50588</v>
       </c>
-      <c r="G340" s="11" t="s">
+      <c r="G340" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H340" s="33">
+      <c r="H340" s="47">
         <v>5</v>
       </c>
-      <c r="I340" s="12" t="s">
+      <c r="I340" s="48" t="s">
         <v>934</v>
       </c>
-      <c r="J340" s="6">
+      <c r="J340" s="49">
         <v>45473</v>
       </c>
-      <c r="K340" s="11" t="s">
+      <c r="K340" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="L340" s="20" t="s">
+      <c r="L340" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M340" s="11"/>
@@ -21433,40 +21444,40 @@
       <c r="Z340" s="11"/>
     </row>
     <row r="341" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A341" s="18" t="s">
+      <c r="A341" s="45" t="s">
         <v>935</v>
       </c>
-      <c r="B341" s="11" t="s">
+      <c r="B341" s="46" t="s">
         <v>936</v>
       </c>
-      <c r="C341" s="11" t="s">
+      <c r="C341" s="46" t="s">
         <v>916</v>
       </c>
-      <c r="D341" s="11" t="s">
+      <c r="D341" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="E341" s="11" t="s">
+      <c r="E341" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F341" s="11">
+      <c r="F341" s="46">
         <v>52557</v>
       </c>
-      <c r="G341" s="11" t="s">
+      <c r="G341" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H341" s="33">
+      <c r="H341" s="47">
         <v>30</v>
       </c>
-      <c r="I341" s="12" t="s">
+      <c r="I341" s="48" t="s">
         <v>937</v>
       </c>
-      <c r="J341" s="6">
+      <c r="J341" s="49">
         <v>45387</v>
       </c>
-      <c r="K341" s="11" t="s">
+      <c r="K341" s="46" t="s">
         <v>654</v>
       </c>
-      <c r="L341" s="11" t="s">
+      <c r="L341" s="46" t="s">
         <v>938</v>
       </c>
       <c r="M341" s="11"/>
@@ -21485,40 +21496,40 @@
       <c r="Z341" s="11"/>
     </row>
     <row r="342" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A342" s="18" t="s">
+      <c r="A342" s="45" t="s">
         <v>939</v>
       </c>
-      <c r="B342" s="11" t="s">
+      <c r="B342" s="46" t="s">
         <v>940</v>
       </c>
-      <c r="C342" s="11" t="s">
+      <c r="C342" s="46" t="s">
         <v>941</v>
       </c>
-      <c r="D342" s="11" t="s">
+      <c r="D342" s="46" t="s">
         <v>942</v>
       </c>
-      <c r="E342" s="11" t="s">
+      <c r="E342" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F342" s="11">
+      <c r="F342" s="46">
         <v>52531</v>
       </c>
-      <c r="G342" s="11" t="s">
+      <c r="G342" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H342" s="33">
+      <c r="H342" s="47">
         <v>35</v>
       </c>
-      <c r="I342" s="12" t="s">
+      <c r="I342" s="48" t="s">
         <v>937</v>
       </c>
-      <c r="J342" s="6">
+      <c r="J342" s="49">
         <v>45444</v>
       </c>
-      <c r="K342" s="11" t="s">
+      <c r="K342" s="46" t="s">
         <v>654</v>
       </c>
-      <c r="L342" s="11" t="s">
+      <c r="L342" s="46" t="s">
         <v>514</v>
       </c>
       <c r="M342" s="11"/>
@@ -21537,40 +21548,40 @@
       <c r="Z342" s="11"/>
     </row>
     <row r="343" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A343" s="18" t="s">
+      <c r="A343" s="45" t="s">
         <v>943</v>
       </c>
-      <c r="B343" s="11" t="s">
+      <c r="B343" s="46" t="s">
         <v>944</v>
       </c>
-      <c r="C343" s="11" t="s">
+      <c r="C343" s="46" t="s">
         <v>945</v>
       </c>
-      <c r="D343" s="11" t="s">
+      <c r="D343" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="E343" s="11" t="s">
+      <c r="E343" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F343" s="11">
+      <c r="F343" s="46">
         <v>52730</v>
       </c>
-      <c r="G343" s="11" t="s">
+      <c r="G343" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H343" s="33">
+      <c r="H343" s="47">
         <v>69</v>
       </c>
-      <c r="I343" s="12" t="s">
+      <c r="I343" s="48" t="s">
         <v>946</v>
       </c>
-      <c r="J343" s="6">
+      <c r="J343" s="49">
         <v>45443</v>
       </c>
-      <c r="K343" s="11" t="s">
+      <c r="K343" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="L343" s="11" t="s">
+      <c r="L343" s="46" t="s">
         <v>28</v>
       </c>
       <c r="M343" s="11"/>
@@ -21589,40 +21600,40 @@
       <c r="Z343" s="11"/>
     </row>
     <row r="344" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A344" s="18" t="s">
+      <c r="A344" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B344" s="11" t="s">
+      <c r="B344" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C344" s="11" t="s">
+      <c r="C344" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D344" s="11" t="s">
+      <c r="D344" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E344" s="11" t="s">
+      <c r="E344" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F344" s="11">
+      <c r="F344" s="46">
         <v>50266</v>
       </c>
-      <c r="G344" s="11" t="s">
+      <c r="G344" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="H344" s="33">
+      <c r="H344" s="47">
         <v>7</v>
       </c>
-      <c r="I344" s="12" t="s">
+      <c r="I344" s="48" t="s">
         <v>947</v>
       </c>
-      <c r="J344" s="6">
+      <c r="J344" s="49">
         <v>45459</v>
       </c>
-      <c r="K344" s="11" t="s">
+      <c r="K344" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L344" s="11" t="s">
+      <c r="L344" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M344" s="11"/>
@@ -21641,40 +21652,40 @@
       <c r="Z344" s="11"/>
     </row>
     <row r="345" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A345" s="18" t="s">
+      <c r="A345" s="45" t="s">
         <v>948</v>
       </c>
-      <c r="B345" s="11" t="s">
+      <c r="B345" s="46" t="s">
         <v>949</v>
       </c>
-      <c r="C345" s="11" t="s">
+      <c r="C345" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D345" s="11" t="s">
+      <c r="D345" s="46" t="s">
         <v>950</v>
       </c>
-      <c r="E345" s="11" t="s">
+      <c r="E345" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F345" s="11">
+      <c r="F345" s="46">
         <v>50677</v>
       </c>
-      <c r="G345" s="11" t="s">
+      <c r="G345" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H345" s="33">
+      <c r="H345" s="47">
         <v>31</v>
       </c>
-      <c r="I345" s="12" t="s">
+      <c r="I345" s="48" t="s">
         <v>951</v>
       </c>
-      <c r="J345" s="6">
+      <c r="J345" s="49">
         <v>45428</v>
       </c>
-      <c r="K345" s="11" t="s">
+      <c r="K345" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L345" s="21" t="s">
+      <c r="L345" s="52" t="s">
         <v>514</v>
       </c>
       <c r="M345" s="11"/>
@@ -21693,40 +21704,40 @@
       <c r="Z345" s="11"/>
     </row>
     <row r="346" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A346" s="18" t="s">
+      <c r="A346" s="45" t="s">
         <v>948</v>
       </c>
-      <c r="B346" s="11" t="s">
+      <c r="B346" s="46" t="s">
         <v>949</v>
       </c>
-      <c r="C346" s="11" t="s">
+      <c r="C346" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D346" s="11" t="s">
+      <c r="D346" s="46" t="s">
         <v>950</v>
       </c>
-      <c r="E346" s="11" t="s">
+      <c r="E346" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F346" s="11">
+      <c r="F346" s="46">
         <v>50677</v>
       </c>
-      <c r="G346" s="11" t="s">
+      <c r="G346" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H346" s="33">
+      <c r="H346" s="47">
         <v>12</v>
       </c>
-      <c r="I346" s="12" t="s">
+      <c r="I346" s="48" t="s">
         <v>951</v>
       </c>
-      <c r="J346" s="6">
+      <c r="J346" s="49">
         <v>45443</v>
       </c>
-      <c r="K346" s="11" t="s">
+      <c r="K346" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L346" s="21" t="s">
+      <c r="L346" s="52" t="s">
         <v>514</v>
       </c>
       <c r="M346" s="11"/>
@@ -21745,40 +21756,40 @@
       <c r="Z346" s="11"/>
     </row>
     <row r="347" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A347" s="18" t="s">
+      <c r="A347" s="45" t="s">
         <v>952</v>
       </c>
-      <c r="B347" s="11" t="s">
+      <c r="B347" s="46" t="s">
         <v>953</v>
       </c>
-      <c r="C347" s="11" t="s">
+      <c r="C347" s="46" t="s">
         <v>954</v>
       </c>
-      <c r="D347" s="11" t="s">
+      <c r="D347" s="46" t="s">
         <v>955</v>
       </c>
-      <c r="E347" s="11" t="s">
+      <c r="E347" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F347" s="11">
+      <c r="F347" s="46">
         <v>51534</v>
       </c>
-      <c r="G347" s="11" t="s">
+      <c r="G347" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H347" s="33">
+      <c r="H347" s="47">
         <v>235</v>
       </c>
-      <c r="I347" s="12" t="s">
+      <c r="I347" s="48" t="s">
         <v>956</v>
       </c>
-      <c r="J347" s="6">
+      <c r="J347" s="49">
         <v>45473</v>
       </c>
-      <c r="K347" s="11" t="s">
+      <c r="K347" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="L347" s="21" t="s">
+      <c r="L347" s="52" t="s">
         <v>514</v>
       </c>
       <c r="M347" s="11"/>
@@ -21797,40 +21808,40 @@
       <c r="Z347" s="11"/>
     </row>
     <row r="348" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A348" s="18" t="s">
+      <c r="A348" s="45" t="s">
         <v>924</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B348" s="46" t="s">
         <v>925</v>
       </c>
-      <c r="C348" s="11" t="s">
+      <c r="C348" s="46" t="s">
         <v>926</v>
       </c>
-      <c r="D348" s="11" t="s">
+      <c r="D348" s="46" t="s">
         <v>751</v>
       </c>
-      <c r="E348" s="11" t="s">
+      <c r="E348" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F348" s="11">
+      <c r="F348" s="46">
         <v>52776</v>
       </c>
-      <c r="G348" s="11" t="s">
+      <c r="G348" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H348" s="33">
+      <c r="H348" s="47">
         <v>39</v>
       </c>
-      <c r="I348" s="12" t="s">
+      <c r="I348" s="48" t="s">
         <v>957</v>
       </c>
-      <c r="J348" s="6">
+      <c r="J348" s="49">
         <v>45446</v>
       </c>
-      <c r="K348" s="11" t="s">
+      <c r="K348" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="L348" s="20" t="s">
+      <c r="L348" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M348" s="11"/>
@@ -21849,40 +21860,40 @@
       <c r="Z348" s="11"/>
     </row>
     <row r="349" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A349" s="18" t="s">
+      <c r="A349" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B349" s="11" t="s">
+      <c r="B349" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C349" s="11" t="s">
+      <c r="C349" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D349" s="11" t="s">
+      <c r="D349" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="E349" s="11" t="s">
+      <c r="E349" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F349" s="11">
+      <c r="F349" s="46">
         <v>50266</v>
       </c>
-      <c r="G349" s="11" t="s">
+      <c r="G349" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H349" s="33">
+      <c r="H349" s="47">
         <v>40</v>
       </c>
-      <c r="I349" s="12" t="s">
+      <c r="I349" s="48" t="s">
         <v>957</v>
       </c>
-      <c r="J349" s="6">
+      <c r="J349" s="49">
         <v>45473</v>
       </c>
-      <c r="K349" s="11" t="s">
+      <c r="K349" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L349" s="11" t="s">
+      <c r="L349" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M349" s="11"/>
@@ -21901,40 +21912,40 @@
       <c r="Z349" s="11"/>
     </row>
     <row r="350" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A350" s="18" t="s">
+      <c r="A350" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="B350" s="11" t="s">
+      <c r="B350" s="46" t="s">
         <v>959</v>
       </c>
-      <c r="C350" s="11" t="s">
+      <c r="C350" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D350" s="11" t="s">
+      <c r="D350" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E350" s="11" t="s">
+      <c r="E350" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F350" s="11">
+      <c r="F350" s="46">
         <v>50313</v>
       </c>
-      <c r="G350" s="11" t="s">
+      <c r="G350" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H350" s="33">
+      <c r="H350" s="47">
         <v>9</v>
       </c>
-      <c r="I350" s="12" t="s">
+      <c r="I350" s="48" t="s">
         <v>960</v>
       </c>
-      <c r="J350" s="6">
+      <c r="J350" s="49">
         <v>45444</v>
       </c>
-      <c r="K350" s="11" t="s">
+      <c r="K350" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L350" s="11" t="s">
+      <c r="L350" s="46" t="s">
         <v>790</v>
       </c>
       <c r="M350" s="11"/>
@@ -21953,40 +21964,40 @@
       <c r="Z350" s="11"/>
     </row>
     <row r="351" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A351" s="18" t="s">
+      <c r="A351" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="B351" s="11" t="s">
+      <c r="B351" s="46" t="s">
         <v>959</v>
       </c>
-      <c r="C351" s="11" t="s">
+      <c r="C351" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D351" s="11" t="s">
+      <c r="D351" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E351" s="11" t="s">
+      <c r="E351" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F351" s="11">
+      <c r="F351" s="46">
         <v>50313</v>
       </c>
-      <c r="G351" s="11" t="s">
+      <c r="G351" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H351" s="33">
+      <c r="H351" s="47">
         <v>10</v>
       </c>
-      <c r="I351" s="12" t="s">
+      <c r="I351" s="48" t="s">
         <v>960</v>
       </c>
-      <c r="J351" s="6">
+      <c r="J351" s="49">
         <v>45474</v>
       </c>
-      <c r="K351" s="11" t="s">
+      <c r="K351" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L351" s="11" t="s">
+      <c r="L351" s="46" t="s">
         <v>790</v>
       </c>
       <c r="M351" s="11"/>
@@ -22005,40 +22016,40 @@
       <c r="Z351" s="11"/>
     </row>
     <row r="352" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A352" s="18" t="s">
+      <c r="A352" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="B352" s="11" t="s">
+      <c r="B352" s="46" t="s">
         <v>959</v>
       </c>
-      <c r="C352" s="11" t="s">
+      <c r="C352" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D352" s="11" t="s">
+      <c r="D352" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E352" s="11" t="s">
+      <c r="E352" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F352" s="11">
+      <c r="F352" s="46">
         <v>50313</v>
       </c>
-      <c r="G352" s="11" t="s">
+      <c r="G352" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H352" s="33">
+      <c r="H352" s="47">
         <v>1</v>
       </c>
-      <c r="I352" s="12" t="s">
+      <c r="I352" s="48" t="s">
         <v>960</v>
       </c>
-      <c r="J352" s="6">
+      <c r="J352" s="49">
         <v>45505</v>
       </c>
-      <c r="K352" s="11" t="s">
+      <c r="K352" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L352" s="11" t="s">
+      <c r="L352" s="46" t="s">
         <v>790</v>
       </c>
       <c r="M352" s="11"/>
@@ -22057,40 +22068,40 @@
       <c r="Z352" s="11"/>
     </row>
     <row r="353" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A353" s="18" t="s">
+      <c r="A353" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="B353" s="11" t="s">
+      <c r="B353" s="46" t="s">
         <v>959</v>
       </c>
-      <c r="C353" s="11" t="s">
+      <c r="C353" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D353" s="11" t="s">
+      <c r="D353" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E353" s="11" t="s">
+      <c r="E353" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F353" s="11">
+      <c r="F353" s="46">
         <v>50313</v>
       </c>
-      <c r="G353" s="11" t="s">
+      <c r="G353" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H353" s="33">
+      <c r="H353" s="47">
         <v>9</v>
       </c>
-      <c r="I353" s="12" t="s">
+      <c r="I353" s="48" t="s">
         <v>960</v>
       </c>
-      <c r="J353" s="6">
+      <c r="J353" s="49">
         <v>45536</v>
       </c>
-      <c r="K353" s="11" t="s">
+      <c r="K353" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L353" s="11" t="s">
+      <c r="L353" s="46" t="s">
         <v>790</v>
       </c>
       <c r="M353" s="11"/>
@@ -22109,40 +22120,40 @@
       <c r="Z353" s="11"/>
     </row>
     <row r="354" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A354" s="18" t="s">
+      <c r="A354" s="45" t="s">
         <v>961</v>
       </c>
-      <c r="B354" s="11" t="s">
+      <c r="B354" s="46" t="s">
         <v>962</v>
       </c>
-      <c r="C354" s="11" t="s">
+      <c r="C354" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D354" s="11" t="s">
+      <c r="D354" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E354" s="11" t="s">
+      <c r="E354" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F354" s="11">
+      <c r="F354" s="46">
         <v>52804</v>
       </c>
-      <c r="G354" s="11" t="s">
+      <c r="G354" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H354" s="33">
+      <c r="H354" s="47">
         <v>26</v>
       </c>
-      <c r="I354" s="12" t="s">
+      <c r="I354" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J354" s="6">
+      <c r="J354" s="49">
         <v>45473</v>
       </c>
-      <c r="K354" s="11" t="s">
+      <c r="K354" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L354" s="21" t="s">
+      <c r="L354" s="52" t="s">
         <v>514</v>
       </c>
       <c r="M354" s="11"/>
@@ -22161,40 +22172,40 @@
       <c r="Z354" s="11"/>
     </row>
     <row r="355" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A355" s="18" t="s">
+      <c r="A355" s="45" t="s">
         <v>964</v>
       </c>
-      <c r="B355" s="11" t="s">
+      <c r="B355" s="46" t="s">
         <v>965</v>
       </c>
-      <c r="C355" s="11" t="s">
+      <c r="C355" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D355" s="11" t="s">
+      <c r="D355" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E355" s="11" t="s">
+      <c r="E355" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F355" s="11">
+      <c r="F355" s="46">
         <v>52002</v>
       </c>
-      <c r="G355" s="11" t="s">
+      <c r="G355" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H355" s="33">
+      <c r="H355" s="47">
         <v>45</v>
       </c>
-      <c r="I355" s="12" t="s">
+      <c r="I355" s="48" t="s">
         <v>966</v>
       </c>
-      <c r="J355" s="6">
+      <c r="J355" s="49">
         <v>45454</v>
       </c>
-      <c r="K355" s="11" t="s">
+      <c r="K355" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L355" s="21" t="s">
+      <c r="L355" s="52" t="s">
         <v>220</v>
       </c>
       <c r="M355" s="11"/>
@@ -22213,40 +22224,40 @@
       <c r="Z355" s="11"/>
     </row>
     <row r="356" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A356" s="18" t="s">
+      <c r="A356" s="45" t="s">
         <v>967</v>
       </c>
-      <c r="B356" s="11" t="s">
+      <c r="B356" s="46" t="s">
         <v>968</v>
       </c>
-      <c r="C356" s="11" t="s">
+      <c r="C356" s="46" t="s">
         <v>969</v>
       </c>
-      <c r="D356" s="11" t="s">
+      <c r="D356" s="46" t="s">
         <v>970</v>
       </c>
-      <c r="E356" s="11" t="s">
+      <c r="E356" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F356" s="11">
+      <c r="F356" s="46">
         <v>51534</v>
       </c>
-      <c r="G356" s="11" t="s">
+      <c r="G356" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H356" s="33">
+      <c r="H356" s="47">
         <v>31</v>
       </c>
-      <c r="I356" s="12" t="s">
+      <c r="I356" s="48" t="s">
         <v>971</v>
       </c>
-      <c r="J356" s="6">
+      <c r="J356" s="49">
         <v>45460</v>
       </c>
-      <c r="K356" s="11" t="s">
+      <c r="K356" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="L356" s="21" t="s">
+      <c r="L356" s="52" t="s">
         <v>514</v>
       </c>
       <c r="M356" s="11"/>
@@ -22265,40 +22276,40 @@
       <c r="Z356" s="11"/>
     </row>
     <row r="357" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A357" s="18" t="s">
+      <c r="A357" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B357" s="11" t="s">
+      <c r="B357" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C357" s="11" t="s">
+      <c r="C357" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D357" s="11" t="s">
+      <c r="D357" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E357" s="11" t="s">
+      <c r="E357" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F357" s="11">
+      <c r="F357" s="46">
         <v>50266</v>
       </c>
-      <c r="G357" s="11" t="s">
+      <c r="G357" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="H357" s="33">
+      <c r="H357" s="47">
         <v>24</v>
       </c>
-      <c r="I357" s="12" t="s">
+      <c r="I357" s="48" t="s">
         <v>972</v>
       </c>
-      <c r="J357" s="6">
+      <c r="J357" s="49">
         <v>45487</v>
       </c>
-      <c r="K357" s="11" t="s">
+      <c r="K357" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L357" s="11" t="s">
+      <c r="L357" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M357" s="11"/>
@@ -22316,561 +22327,561 @@
       <c r="Y357" s="11"/>
       <c r="Z357" s="11"/>
     </row>
-    <row r="358" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A358" s="46" t="s">
+    <row r="358" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A358" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="B358" s="47" t="s">
+      <c r="B358" s="46" t="s">
         <v>919</v>
       </c>
-      <c r="C358" s="47" t="s">
+      <c r="C358" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="D358" s="47" t="s">
+      <c r="D358" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E358" s="47" t="s">
+      <c r="E358" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F358" s="47">
+      <c r="F358" s="46">
         <v>50704</v>
       </c>
-      <c r="G358" s="47" t="s">
+      <c r="G358" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H358" s="48">
+      <c r="H358" s="47">
         <v>192</v>
       </c>
-      <c r="I358" s="49" t="s">
+      <c r="I358" s="48" t="s">
         <v>973</v>
       </c>
-      <c r="J358" s="50">
+      <c r="J358" s="49">
         <v>45464</v>
       </c>
-      <c r="K358" s="47" t="s">
+      <c r="K358" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L358" s="51" t="s">
+      <c r="L358" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M358" s="47"/>
-      <c r="N358" s="47"/>
-      <c r="O358" s="47"/>
-      <c r="P358" s="47"/>
-      <c r="Q358" s="47"/>
-      <c r="R358" s="47"/>
-      <c r="S358" s="47"/>
-      <c r="T358" s="47"/>
-      <c r="U358" s="47"/>
-      <c r="V358" s="47"/>
-      <c r="W358" s="47"/>
-      <c r="X358" s="47"/>
-      <c r="Y358" s="47"/>
-      <c r="Z358" s="47"/>
-    </row>
-    <row r="359" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A359" s="46" t="s">
+      <c r="M358" s="46"/>
+      <c r="N358" s="46"/>
+      <c r="O358" s="46"/>
+      <c r="P358" s="46"/>
+      <c r="Q358" s="46"/>
+      <c r="R358" s="46"/>
+      <c r="S358" s="46"/>
+      <c r="T358" s="46"/>
+      <c r="U358" s="46"/>
+      <c r="V358" s="46"/>
+      <c r="W358" s="46"/>
+      <c r="X358" s="46"/>
+      <c r="Y358" s="46"/>
+      <c r="Z358" s="46"/>
+    </row>
+    <row r="359" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A359" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="B359" s="47" t="s">
+      <c r="B359" s="46" t="s">
         <v>974</v>
       </c>
-      <c r="C359" s="47" t="s">
+      <c r="C359" s="46" t="s">
         <v>975</v>
       </c>
-      <c r="D359" s="47" t="s">
+      <c r="D359" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E359" s="47" t="s">
+      <c r="E359" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F359" s="47">
+      <c r="F359" s="46">
         <v>50613</v>
       </c>
-      <c r="G359" s="47" t="s">
+      <c r="G359" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H359" s="48">
+      <c r="H359" s="47">
         <v>8</v>
       </c>
-      <c r="I359" s="49" t="s">
+      <c r="I359" s="48" t="s">
         <v>976</v>
       </c>
-      <c r="J359" s="50">
+      <c r="J359" s="49">
         <v>45500</v>
       </c>
-      <c r="K359" s="47" t="s">
+      <c r="K359" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L359" s="47" t="s">
+      <c r="L359" s="46" t="s">
         <v>726</v>
       </c>
-      <c r="M359" s="47"/>
-      <c r="N359" s="47"/>
-      <c r="O359" s="47"/>
-      <c r="P359" s="47"/>
-      <c r="Q359" s="47"/>
-      <c r="R359" s="47"/>
-      <c r="S359" s="47"/>
-      <c r="T359" s="47"/>
-      <c r="U359" s="47"/>
-      <c r="V359" s="47"/>
-      <c r="W359" s="47"/>
-      <c r="X359" s="47"/>
-      <c r="Y359" s="47"/>
-      <c r="Z359" s="47"/>
-    </row>
-    <row r="360" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A360" s="46" t="s">
+      <c r="M359" s="46"/>
+      <c r="N359" s="46"/>
+      <c r="O359" s="46"/>
+      <c r="P359" s="46"/>
+      <c r="Q359" s="46"/>
+      <c r="R359" s="46"/>
+      <c r="S359" s="46"/>
+      <c r="T359" s="46"/>
+      <c r="U359" s="46"/>
+      <c r="V359" s="46"/>
+      <c r="W359" s="46"/>
+      <c r="X359" s="46"/>
+      <c r="Y359" s="46"/>
+      <c r="Z359" s="46"/>
+    </row>
+    <row r="360" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A360" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="B360" s="47" t="s">
+      <c r="B360" s="46" t="s">
         <v>977</v>
       </c>
-      <c r="C360" s="47" t="s">
+      <c r="C360" s="46" t="s">
         <v>978</v>
       </c>
-      <c r="D360" s="47" t="s">
+      <c r="D360" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="E360" s="47" t="s">
+      <c r="E360" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F360" s="47">
+      <c r="F360" s="46">
         <v>52742</v>
       </c>
-      <c r="G360" s="47" t="s">
+      <c r="G360" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H360" s="48">
+      <c r="H360" s="47">
         <v>5</v>
       </c>
-      <c r="I360" s="49" t="s">
+      <c r="I360" s="48" t="s">
         <v>976</v>
       </c>
-      <c r="J360" s="50">
+      <c r="J360" s="49">
         <v>45500</v>
       </c>
-      <c r="K360" s="47" t="s">
+      <c r="K360" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L360" s="47" t="s">
+      <c r="L360" s="46" t="s">
         <v>726</v>
       </c>
-      <c r="M360" s="47"/>
-      <c r="N360" s="47"/>
-      <c r="O360" s="47"/>
-      <c r="P360" s="47"/>
-      <c r="Q360" s="47"/>
-      <c r="R360" s="47"/>
-      <c r="S360" s="47"/>
-      <c r="T360" s="47"/>
-      <c r="U360" s="47"/>
-      <c r="V360" s="47"/>
-      <c r="W360" s="47"/>
-      <c r="X360" s="47"/>
-      <c r="Y360" s="47"/>
-      <c r="Z360" s="47"/>
-    </row>
-    <row r="361" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A361" s="46" t="s">
+      <c r="M360" s="46"/>
+      <c r="N360" s="46"/>
+      <c r="O360" s="46"/>
+      <c r="P360" s="46"/>
+      <c r="Q360" s="46"/>
+      <c r="R360" s="46"/>
+      <c r="S360" s="46"/>
+      <c r="T360" s="46"/>
+      <c r="U360" s="46"/>
+      <c r="V360" s="46"/>
+      <c r="W360" s="46"/>
+      <c r="X360" s="46"/>
+      <c r="Y360" s="46"/>
+      <c r="Z360" s="46"/>
+    </row>
+    <row r="361" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A361" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="B361" s="47" t="s">
+      <c r="B361" s="46" t="s">
         <v>979</v>
       </c>
-      <c r="C361" s="47" t="s">
+      <c r="C361" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D361" s="47" t="s">
+      <c r="D361" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E361" s="47" t="s">
+      <c r="E361" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F361" s="47">
+      <c r="F361" s="46">
         <v>50317</v>
       </c>
-      <c r="G361" s="47" t="s">
+      <c r="G361" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H361" s="48">
+      <c r="H361" s="47">
         <v>16</v>
       </c>
-      <c r="I361" s="49" t="s">
+      <c r="I361" s="48" t="s">
         <v>976</v>
       </c>
-      <c r="J361" s="50">
+      <c r="J361" s="49">
         <v>45500</v>
       </c>
-      <c r="K361" s="47" t="s">
+      <c r="K361" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L361" s="47" t="s">
+      <c r="L361" s="46" t="s">
         <v>726</v>
       </c>
-      <c r="M361" s="47"/>
-      <c r="N361" s="47"/>
-      <c r="O361" s="47"/>
-      <c r="P361" s="47"/>
-      <c r="Q361" s="47"/>
-      <c r="R361" s="47"/>
-      <c r="S361" s="47"/>
-      <c r="T361" s="47"/>
-      <c r="U361" s="47"/>
-      <c r="V361" s="47"/>
-      <c r="W361" s="47"/>
-      <c r="X361" s="47"/>
-      <c r="Y361" s="47"/>
-      <c r="Z361" s="47"/>
-    </row>
-    <row r="362" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A362" s="46" t="s">
+      <c r="M361" s="46"/>
+      <c r="N361" s="46"/>
+      <c r="O361" s="46"/>
+      <c r="P361" s="46"/>
+      <c r="Q361" s="46"/>
+      <c r="R361" s="46"/>
+      <c r="S361" s="46"/>
+      <c r="T361" s="46"/>
+      <c r="U361" s="46"/>
+      <c r="V361" s="46"/>
+      <c r="W361" s="46"/>
+      <c r="X361" s="46"/>
+      <c r="Y361" s="46"/>
+      <c r="Z361" s="46"/>
+    </row>
+    <row r="362" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A362" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="B362" s="47" t="s">
+      <c r="B362" s="46" t="s">
         <v>980</v>
       </c>
-      <c r="C362" s="47" t="s">
+      <c r="C362" s="46" t="s">
         <v>981</v>
       </c>
-      <c r="D362" s="47" t="s">
+      <c r="D362" s="46" t="s">
         <v>981</v>
       </c>
-      <c r="E362" s="47" t="s">
+      <c r="E362" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F362" s="47">
+      <c r="F362" s="46">
         <v>50548</v>
       </c>
-      <c r="G362" s="47" t="s">
+      <c r="G362" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H362" s="48">
+      <c r="H362" s="47">
         <v>5</v>
       </c>
-      <c r="I362" s="49" t="s">
+      <c r="I362" s="48" t="s">
         <v>976</v>
       </c>
-      <c r="J362" s="50">
+      <c r="J362" s="49">
         <v>45500</v>
       </c>
-      <c r="K362" s="47" t="s">
+      <c r="K362" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="L362" s="47" t="s">
+      <c r="L362" s="46" t="s">
         <v>726</v>
       </c>
-      <c r="M362" s="47"/>
-      <c r="N362" s="47"/>
-      <c r="O362" s="47"/>
-      <c r="P362" s="47"/>
-      <c r="Q362" s="47"/>
-      <c r="R362" s="47"/>
-      <c r="S362" s="47"/>
-      <c r="T362" s="47"/>
-      <c r="U362" s="47"/>
-      <c r="V362" s="47"/>
-      <c r="W362" s="47"/>
-      <c r="X362" s="47"/>
-      <c r="Y362" s="47"/>
-      <c r="Z362" s="47"/>
-    </row>
-    <row r="363" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A363" s="46" t="s">
+      <c r="M362" s="46"/>
+      <c r="N362" s="46"/>
+      <c r="O362" s="46"/>
+      <c r="P362" s="46"/>
+      <c r="Q362" s="46"/>
+      <c r="R362" s="46"/>
+      <c r="S362" s="46"/>
+      <c r="T362" s="46"/>
+      <c r="U362" s="46"/>
+      <c r="V362" s="46"/>
+      <c r="W362" s="46"/>
+      <c r="X362" s="46"/>
+      <c r="Y362" s="46"/>
+      <c r="Z362" s="46"/>
+    </row>
+    <row r="363" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A363" s="45" t="s">
         <v>982</v>
       </c>
-      <c r="B363" s="47" t="s">
+      <c r="B363" s="46" t="s">
         <v>983</v>
       </c>
-      <c r="C363" s="47" t="s">
+      <c r="C363" s="46" t="s">
         <v>709</v>
       </c>
-      <c r="D363" s="47" t="s">
+      <c r="D363" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="E363" s="47" t="s">
+      <c r="E363" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F363" s="47">
+      <c r="F363" s="46">
         <v>50322</v>
       </c>
-      <c r="G363" s="47" t="s">
+      <c r="G363" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H363" s="48">
+      <c r="H363" s="47">
         <v>58</v>
       </c>
-      <c r="I363" s="49" t="s">
+      <c r="I363" s="48" t="s">
         <v>984</v>
       </c>
-      <c r="J363" s="50">
+      <c r="J363" s="49">
         <v>45449</v>
       </c>
-      <c r="K363" s="47" t="s">
+      <c r="K363" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L363" s="51" t="s">
+      <c r="L363" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M363" s="47"/>
-      <c r="N363" s="47"/>
-      <c r="O363" s="47"/>
-      <c r="P363" s="47"/>
-      <c r="Q363" s="47"/>
-      <c r="R363" s="47"/>
-      <c r="S363" s="47"/>
-      <c r="T363" s="47"/>
-      <c r="U363" s="47"/>
-      <c r="V363" s="47"/>
-      <c r="W363" s="47"/>
-      <c r="X363" s="47"/>
-      <c r="Y363" s="47"/>
-      <c r="Z363" s="47"/>
-    </row>
-    <row r="364" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A364" s="46" t="s">
+      <c r="M363" s="46"/>
+      <c r="N363" s="46"/>
+      <c r="O363" s="46"/>
+      <c r="P363" s="46"/>
+      <c r="Q363" s="46"/>
+      <c r="R363" s="46"/>
+      <c r="S363" s="46"/>
+      <c r="T363" s="46"/>
+      <c r="U363" s="46"/>
+      <c r="V363" s="46"/>
+      <c r="W363" s="46"/>
+      <c r="X363" s="46"/>
+      <c r="Y363" s="46"/>
+      <c r="Z363" s="46"/>
+    </row>
+    <row r="364" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A364" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="B364" s="47" t="s">
+      <c r="B364" s="46" t="s">
         <v>919</v>
       </c>
-      <c r="C364" s="47" t="s">
+      <c r="C364" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="D364" s="47" t="s">
+      <c r="D364" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E364" s="47" t="s">
+      <c r="E364" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F364" s="47">
+      <c r="F364" s="46">
         <v>50704</v>
       </c>
-      <c r="G364" s="47" t="s">
+      <c r="G364" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H364" s="48">
+      <c r="H364" s="47">
         <v>49</v>
       </c>
-      <c r="I364" s="49" t="s">
+      <c r="I364" s="48" t="s">
         <v>984</v>
       </c>
-      <c r="J364" s="50">
+      <c r="J364" s="49">
         <v>45449</v>
       </c>
-      <c r="K364" s="47" t="s">
+      <c r="K364" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L364" s="51" t="s">
+      <c r="L364" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M364" s="47"/>
-      <c r="N364" s="47"/>
-      <c r="O364" s="47"/>
-      <c r="P364" s="47"/>
-      <c r="Q364" s="47"/>
-      <c r="R364" s="47"/>
-      <c r="S364" s="47"/>
-      <c r="T364" s="47"/>
-      <c r="U364" s="47"/>
-      <c r="V364" s="47"/>
-      <c r="W364" s="47"/>
-      <c r="X364" s="47"/>
-      <c r="Y364" s="47"/>
-      <c r="Z364" s="47"/>
-    </row>
-    <row r="365" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A365" s="46" t="s">
+      <c r="M364" s="46"/>
+      <c r="N364" s="46"/>
+      <c r="O364" s="46"/>
+      <c r="P364" s="46"/>
+      <c r="Q364" s="46"/>
+      <c r="R364" s="46"/>
+      <c r="S364" s="46"/>
+      <c r="T364" s="46"/>
+      <c r="U364" s="46"/>
+      <c r="V364" s="46"/>
+      <c r="W364" s="46"/>
+      <c r="X364" s="46"/>
+      <c r="Y364" s="46"/>
+      <c r="Z364" s="46"/>
+    </row>
+    <row r="365" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A365" s="45" t="s">
         <v>985</v>
       </c>
-      <c r="B365" s="47" t="s">
+      <c r="B365" s="46" t="s">
         <v>986</v>
       </c>
-      <c r="C365" s="47" t="s">
+      <c r="C365" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D365" s="47" t="s">
+      <c r="D365" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="E365" s="47" t="s">
+      <c r="E365" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F365" s="47">
+      <c r="F365" s="46">
         <v>50023</v>
       </c>
-      <c r="G365" s="47" t="s">
+      <c r="G365" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H365" s="48">
+      <c r="H365" s="47">
         <v>16</v>
       </c>
-      <c r="I365" s="49" t="s">
+      <c r="I365" s="48" t="s">
         <v>984</v>
       </c>
-      <c r="J365" s="50">
+      <c r="J365" s="49">
         <v>45449</v>
       </c>
-      <c r="K365" s="47" t="s">
+      <c r="K365" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L365" s="51" t="s">
+      <c r="L365" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M365" s="47"/>
-      <c r="N365" s="47"/>
-      <c r="O365" s="47"/>
-      <c r="P365" s="47"/>
-      <c r="Q365" s="47"/>
-      <c r="R365" s="47"/>
-      <c r="S365" s="47"/>
-      <c r="T365" s="47"/>
-      <c r="U365" s="47"/>
-      <c r="V365" s="47"/>
-      <c r="W365" s="47"/>
-      <c r="X365" s="47"/>
-      <c r="Y365" s="47"/>
-      <c r="Z365" s="47"/>
-    </row>
-    <row r="366" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A366" s="46" t="s">
+      <c r="M365" s="46"/>
+      <c r="N365" s="46"/>
+      <c r="O365" s="46"/>
+      <c r="P365" s="46"/>
+      <c r="Q365" s="46"/>
+      <c r="R365" s="46"/>
+      <c r="S365" s="46"/>
+      <c r="T365" s="46"/>
+      <c r="U365" s="46"/>
+      <c r="V365" s="46"/>
+      <c r="W365" s="46"/>
+      <c r="X365" s="46"/>
+      <c r="Y365" s="46"/>
+      <c r="Z365" s="46"/>
+    </row>
+    <row r="366" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A366" s="45" t="s">
         <v>987</v>
       </c>
-      <c r="B366" s="47" t="s">
+      <c r="B366" s="46" t="s">
         <v>988</v>
       </c>
-      <c r="C366" s="47" t="s">
+      <c r="C366" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D366" s="47" t="s">
+      <c r="D366" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E366" s="47" t="s">
+      <c r="E366" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F366" s="47">
+      <c r="F366" s="46">
         <v>50313</v>
       </c>
-      <c r="G366" s="47" t="s">
+      <c r="G366" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H366" s="48">
+      <c r="H366" s="47">
         <v>118</v>
       </c>
-      <c r="I366" s="49" t="s">
+      <c r="I366" s="48" t="s">
         <v>989</v>
       </c>
-      <c r="J366" s="50">
+      <c r="J366" s="49">
         <v>45478</v>
       </c>
-      <c r="K366" s="47" t="s">
+      <c r="K366" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L366" s="51" t="s">
+      <c r="L366" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M366" s="47"/>
-      <c r="N366" s="47"/>
-      <c r="O366" s="47"/>
-      <c r="P366" s="47"/>
-      <c r="Q366" s="47"/>
-      <c r="R366" s="47"/>
-      <c r="S366" s="47"/>
-      <c r="T366" s="47"/>
-      <c r="U366" s="47"/>
-      <c r="V366" s="47"/>
-      <c r="W366" s="47"/>
-      <c r="X366" s="47"/>
-      <c r="Y366" s="47"/>
-      <c r="Z366" s="47"/>
-    </row>
-    <row r="367" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A367" s="46" t="s">
+      <c r="M366" s="46"/>
+      <c r="N366" s="46"/>
+      <c r="O366" s="46"/>
+      <c r="P366" s="46"/>
+      <c r="Q366" s="46"/>
+      <c r="R366" s="46"/>
+      <c r="S366" s="46"/>
+      <c r="T366" s="46"/>
+      <c r="U366" s="46"/>
+      <c r="V366" s="46"/>
+      <c r="W366" s="46"/>
+      <c r="X366" s="46"/>
+      <c r="Y366" s="46"/>
+      <c r="Z366" s="46"/>
+    </row>
+    <row r="367" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A367" s="45" t="s">
         <v>982</v>
       </c>
-      <c r="B367" s="47" t="s">
+      <c r="B367" s="46" t="s">
         <v>983</v>
       </c>
-      <c r="C367" s="47" t="s">
+      <c r="C367" s="46" t="s">
         <v>709</v>
       </c>
-      <c r="D367" s="47" t="s">
+      <c r="D367" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="E367" s="47" t="s">
+      <c r="E367" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F367" s="47">
+      <c r="F367" s="46">
         <v>50322</v>
       </c>
-      <c r="G367" s="47" t="s">
+      <c r="G367" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H367" s="48">
+      <c r="H367" s="47">
         <v>1</v>
       </c>
-      <c r="I367" s="49" t="s">
+      <c r="I367" s="48" t="s">
         <v>990</v>
       </c>
-      <c r="J367" s="50">
+      <c r="J367" s="49">
         <v>45450</v>
       </c>
-      <c r="K367" s="47" t="s">
+      <c r="K367" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L367" s="51" t="s">
+      <c r="L367" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M367" s="47"/>
-      <c r="N367" s="47"/>
-      <c r="O367" s="47"/>
-      <c r="P367" s="47"/>
-      <c r="Q367" s="47"/>
-      <c r="R367" s="47"/>
-      <c r="S367" s="47"/>
-      <c r="T367" s="47"/>
-      <c r="U367" s="47"/>
-      <c r="V367" s="47"/>
-      <c r="W367" s="47"/>
-      <c r="X367" s="47"/>
-      <c r="Y367" s="47"/>
-      <c r="Z367" s="47"/>
+      <c r="M367" s="46"/>
+      <c r="N367" s="46"/>
+      <c r="O367" s="46"/>
+      <c r="P367" s="46"/>
+      <c r="Q367" s="46"/>
+      <c r="R367" s="46"/>
+      <c r="S367" s="46"/>
+      <c r="T367" s="46"/>
+      <c r="U367" s="46"/>
+      <c r="V367" s="46"/>
+      <c r="W367" s="46"/>
+      <c r="X367" s="46"/>
+      <c r="Y367" s="46"/>
+      <c r="Z367" s="46"/>
     </row>
     <row r="368" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A368" s="18" t="s">
+      <c r="A368" s="45" t="s">
         <v>991</v>
       </c>
-      <c r="B368" s="11" t="s">
+      <c r="B368" s="46" t="s">
         <v>992</v>
       </c>
-      <c r="C368" s="11" t="s">
+      <c r="C368" s="46" t="s">
         <v>993</v>
       </c>
-      <c r="D368" s="11" t="s">
+      <c r="D368" s="46" t="s">
         <v>994</v>
       </c>
-      <c r="E368" s="11" t="s">
+      <c r="E368" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F368" s="11">
+      <c r="F368" s="46">
         <v>50659</v>
       </c>
-      <c r="G368" s="11" t="s">
+      <c r="G368" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H368" s="33">
+      <c r="H368" s="47">
         <v>48</v>
       </c>
-      <c r="I368" s="12" t="s">
+      <c r="I368" s="48" t="s">
         <v>989</v>
       </c>
-      <c r="J368" s="6">
+      <c r="J368" s="49">
         <v>45470</v>
       </c>
-      <c r="K368" s="11" t="s">
+      <c r="K368" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L368" s="20" t="s">
+      <c r="L368" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M368" s="11"/>
@@ -22889,40 +22900,40 @@
       <c r="Z368" s="11"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="18" t="s">
+      <c r="A369" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B369" s="11" t="s">
+      <c r="B369" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C369" s="11" t="s">
+      <c r="C369" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D369" s="11" t="s">
+      <c r="D369" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E369" s="11" t="s">
+      <c r="E369" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F369" s="11">
+      <c r="F369" s="46">
         <v>50266</v>
       </c>
-      <c r="G369" s="11" t="s">
+      <c r="G369" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="H369" s="33">
+      <c r="H369" s="47">
         <v>26</v>
       </c>
-      <c r="I369" s="12" t="s">
+      <c r="I369" s="48" t="s">
         <v>995</v>
       </c>
-      <c r="J369" s="6">
+      <c r="J369" s="49">
         <v>45515</v>
       </c>
-      <c r="K369" s="11" t="s">
+      <c r="K369" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L369" s="11" t="s">
+      <c r="L369" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M369" s="11"/>
@@ -22941,40 +22952,40 @@
       <c r="Z369" s="11"/>
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A370" s="18" t="s">
+      <c r="A370" s="45" t="s">
         <v>987</v>
       </c>
-      <c r="B370" s="11" t="s">
+      <c r="B370" s="46" t="s">
         <v>988</v>
       </c>
-      <c r="C370" s="11" t="s">
+      <c r="C370" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D370" s="11" t="s">
+      <c r="D370" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E370" s="11" t="s">
+      <c r="E370" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F370" s="11">
+      <c r="F370" s="46">
         <v>50313</v>
       </c>
-      <c r="G370" s="11" t="s">
+      <c r="G370" s="46" t="s">
         <v>996</v>
       </c>
-      <c r="H370" s="33">
+      <c r="H370" s="47">
         <v>89</v>
       </c>
-      <c r="I370" s="12" t="s">
+      <c r="I370" s="48" t="s">
         <v>997</v>
       </c>
-      <c r="J370" s="6">
+      <c r="J370" s="49">
         <v>45478</v>
       </c>
-      <c r="K370" s="11" t="s">
+      <c r="K370" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L370" s="20" t="s">
+      <c r="L370" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M370" s="11"/>
@@ -22993,40 +23004,40 @@
       <c r="Z370" s="11"/>
     </row>
     <row r="371" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A371" s="18" t="s">
+      <c r="A371" s="45" t="s">
         <v>998</v>
       </c>
-      <c r="B371" s="11" t="s">
+      <c r="B371" s="46" t="s">
         <v>907</v>
       </c>
-      <c r="C371" s="11" t="s">
+      <c r="C371" s="46" t="s">
         <v>908</v>
       </c>
-      <c r="D371" s="11" t="s">
+      <c r="D371" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="E371" s="11" t="s">
+      <c r="E371" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F371" s="11">
+      <c r="F371" s="46">
         <v>50220</v>
       </c>
-      <c r="G371" s="11" t="s">
+      <c r="G371" s="46" t="s">
         <v>999</v>
       </c>
-      <c r="H371" s="33">
+      <c r="H371" s="47">
         <v>32</v>
       </c>
-      <c r="I371" s="12" t="s">
+      <c r="I371" s="48" t="s">
         <v>995</v>
       </c>
-      <c r="J371" s="6">
+      <c r="J371" s="49">
         <v>45500</v>
       </c>
-      <c r="K371" s="11" t="s">
+      <c r="K371" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L371" s="20" t="s">
+      <c r="L371" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M371" s="11"/>
@@ -23045,40 +23056,40 @@
       <c r="Z371" s="11"/>
     </row>
     <row r="372" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A372" s="18" t="s">
+      <c r="A372" s="45" t="s">
         <v>998</v>
       </c>
-      <c r="B372" s="11" t="s">
+      <c r="B372" s="46" t="s">
         <v>907</v>
       </c>
-      <c r="C372" s="11" t="s">
+      <c r="C372" s="46" t="s">
         <v>908</v>
       </c>
-      <c r="D372" s="11" t="s">
+      <c r="D372" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="E372" s="11" t="s">
+      <c r="E372" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F372" s="11">
+      <c r="F372" s="46">
         <v>50220</v>
       </c>
-      <c r="G372" s="11" t="s">
+      <c r="G372" s="46" t="s">
         <v>1000</v>
       </c>
-      <c r="H372" s="33">
+      <c r="H372" s="47">
         <v>32</v>
       </c>
-      <c r="I372" s="12" t="s">
+      <c r="I372" s="48" t="s">
         <v>995</v>
       </c>
-      <c r="J372" s="6">
+      <c r="J372" s="49">
         <v>45528</v>
       </c>
-      <c r="K372" s="11" t="s">
+      <c r="K372" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L372" s="20" t="s">
+      <c r="L372" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M372" s="11"/>
@@ -23097,40 +23108,40 @@
       <c r="Z372" s="11"/>
     </row>
     <row r="373" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A373" s="18" t="s">
+      <c r="A373" s="45" t="s">
         <v>998</v>
       </c>
-      <c r="B373" s="11" t="s">
+      <c r="B373" s="46" t="s">
         <v>907</v>
       </c>
-      <c r="C373" s="11" t="s">
+      <c r="C373" s="46" t="s">
         <v>908</v>
       </c>
-      <c r="D373" s="11" t="s">
+      <c r="D373" s="46" t="s">
         <v>909</v>
       </c>
-      <c r="E373" s="11" t="s">
+      <c r="E373" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F373" s="11">
+      <c r="F373" s="46">
         <v>50220</v>
       </c>
-      <c r="G373" s="11" t="s">
+      <c r="G373" s="46" t="s">
         <v>999</v>
       </c>
-      <c r="H373" s="33">
+      <c r="H373" s="47">
         <v>5</v>
       </c>
-      <c r="I373" s="12" t="s">
+      <c r="I373" s="48" t="s">
         <v>995</v>
       </c>
-      <c r="J373" s="6">
+      <c r="J373" s="49">
         <v>45563</v>
       </c>
-      <c r="K373" s="11" t="s">
+      <c r="K373" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L373" s="20" t="s">
+      <c r="L373" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M373" s="11"/>
@@ -23149,40 +23160,40 @@
       <c r="Z373" s="11"/>
     </row>
     <row r="374" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A374" s="18" t="s">
+      <c r="A374" s="45" t="s">
         <v>1001</v>
       </c>
-      <c r="B374" s="11" t="s">
+      <c r="B374" s="46" t="s">
         <v>1002</v>
       </c>
-      <c r="C374" s="11" t="s">
+      <c r="C374" s="46" t="s">
         <v>1003</v>
       </c>
-      <c r="D374" s="11" t="s">
+      <c r="D374" s="46" t="s">
         <v>1004</v>
       </c>
-      <c r="E374" s="11" t="s">
+      <c r="E374" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F374" s="11">
+      <c r="F374" s="46">
         <v>51023</v>
       </c>
-      <c r="G374" s="11" t="s">
+      <c r="G374" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H374" s="33">
+      <c r="H374" s="47">
         <v>36</v>
       </c>
-      <c r="I374" s="12" t="s">
+      <c r="I374" s="48" t="s">
         <v>1005</v>
       </c>
-      <c r="J374" s="6">
+      <c r="J374" s="49">
         <v>45492</v>
       </c>
-      <c r="K374" s="11" t="s">
+      <c r="K374" s="46" t="s">
         <v>862</v>
       </c>
-      <c r="L374" s="20" t="s">
+      <c r="L374" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M374" s="11"/>
@@ -23201,40 +23212,40 @@
       <c r="Z374" s="11"/>
     </row>
     <row r="375" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A375" s="18" t="s">
+      <c r="A375" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="B375" s="11" t="s">
+      <c r="B375" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C375" s="11" t="s">
+      <c r="C375" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D375" s="11" t="s">
+      <c r="D375" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E375" s="11" t="s">
+      <c r="E375" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F375" s="11">
+      <c r="F375" s="46">
         <v>50266</v>
       </c>
-      <c r="G375" s="11" t="s">
+      <c r="G375" s="46" t="s">
         <v>1006</v>
       </c>
-      <c r="H375" s="33">
+      <c r="H375" s="47">
         <v>10</v>
       </c>
-      <c r="I375" s="12" t="s">
+      <c r="I375" s="48" t="s">
         <v>1007</v>
       </c>
-      <c r="J375" s="6">
+      <c r="J375" s="49">
         <v>45529</v>
       </c>
-      <c r="K375" s="11" t="s">
+      <c r="K375" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L375" s="11" t="s">
+      <c r="L375" s="46" t="s">
         <v>65</v>
       </c>
       <c r="M375" s="11"/>
@@ -23253,40 +23264,40 @@
       <c r="Z375" s="11"/>
     </row>
     <row r="376" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A376" s="18" t="s">
+      <c r="A376" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B376" s="11" t="s">
+      <c r="B376" s="46" t="s">
         <v>1008</v>
       </c>
-      <c r="C376" s="11" t="s">
+      <c r="C376" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D376" s="11" t="s">
+      <c r="D376" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E376" s="11" t="s">
+      <c r="E376" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F376" s="11">
+      <c r="F376" s="46">
         <v>52807</v>
       </c>
-      <c r="G376" s="11" t="s">
+      <c r="G376" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H376" s="33">
+      <c r="H376" s="47">
         <v>211</v>
       </c>
-      <c r="I376" s="12" t="s">
+      <c r="I376" s="48" t="s">
         <v>1009</v>
       </c>
-      <c r="J376" s="6">
+      <c r="J376" s="49">
         <v>45534</v>
       </c>
-      <c r="K376" s="11" t="s">
+      <c r="K376" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="L376" s="20" t="s">
+      <c r="L376" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M376" s="11"/>
@@ -23305,40 +23316,40 @@
       <c r="Z376" s="11"/>
     </row>
     <row r="377" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A377" s="18" t="s">
+      <c r="A377" s="45" t="s">
         <v>1010</v>
       </c>
-      <c r="B377" s="11" t="s">
+      <c r="B377" s="46" t="s">
         <v>1011</v>
       </c>
-      <c r="C377" s="11" t="s">
+      <c r="C377" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D377" s="11" t="s">
+      <c r="D377" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E377" s="11" t="s">
+      <c r="E377" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F377" s="11">
+      <c r="F377" s="46">
         <v>52001</v>
       </c>
-      <c r="G377" s="11" t="s">
+      <c r="G377" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H377" s="33">
+      <c r="H377" s="47">
         <v>99</v>
       </c>
-      <c r="I377" s="12" t="s">
+      <c r="I377" s="48" t="s">
         <v>1009</v>
       </c>
-      <c r="J377" s="50">
+      <c r="J377" s="49">
         <v>45534</v>
       </c>
-      <c r="K377" s="11" t="s">
+      <c r="K377" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L377" s="20" t="s">
+      <c r="L377" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M377" s="11"/>
@@ -23357,40 +23368,40 @@
       <c r="Z377" s="11"/>
     </row>
     <row r="378" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A378" s="18" t="s">
+      <c r="A378" s="45" t="s">
         <v>1012</v>
       </c>
-      <c r="B378" s="11" t="s">
+      <c r="B378" s="46" t="s">
         <v>1013</v>
       </c>
-      <c r="C378" s="11" t="s">
+      <c r="C378" s="46" t="s">
         <v>941</v>
       </c>
-      <c r="D378" s="11" t="s">
+      <c r="D378" s="46" t="s">
         <v>942</v>
       </c>
-      <c r="E378" s="11" t="s">
+      <c r="E378" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F378" s="11">
+      <c r="F378" s="46">
         <v>52531</v>
       </c>
-      <c r="G378" s="11" t="s">
+      <c r="G378" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H378" s="33">
+      <c r="H378" s="47">
         <v>19</v>
       </c>
-      <c r="I378" s="12" t="s">
+      <c r="I378" s="48" t="s">
         <v>1009</v>
       </c>
-      <c r="J378" s="6">
+      <c r="J378" s="49">
         <v>45596</v>
       </c>
-      <c r="K378" s="11" t="s">
+      <c r="K378" s="46" t="s">
         <v>1014</v>
       </c>
-      <c r="L378" s="20" t="s">
+      <c r="L378" s="50" t="s">
         <v>20</v>
       </c>
       <c r="M378" s="11"/>
@@ -23408,369 +23419,369 @@
       <c r="Y378" s="11"/>
       <c r="Z378" s="11"/>
     </row>
-    <row r="379" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A379" s="46" t="s">
+    <row r="379" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A379" s="45" t="s">
         <v>1015</v>
       </c>
-      <c r="B379" s="47" t="s">
+      <c r="B379" s="46" t="s">
         <v>1016</v>
       </c>
-      <c r="C379" s="47" t="s">
+      <c r="C379" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="D379" s="47" t="s">
+      <c r="D379" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E379" s="47" t="s">
+      <c r="E379" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F379" s="47">
+      <c r="F379" s="46">
         <v>50009</v>
       </c>
-      <c r="G379" s="47" t="s">
+      <c r="G379" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H379" s="48">
+      <c r="H379" s="47">
         <v>319</v>
       </c>
-      <c r="I379" s="49" t="s">
+      <c r="I379" s="48" t="s">
         <v>1017</v>
       </c>
-      <c r="J379" s="50">
+      <c r="J379" s="49">
         <v>45534</v>
       </c>
-      <c r="K379" s="47" t="s">
+      <c r="K379" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="L379" s="51" t="s">
+      <c r="L379" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M379" s="47"/>
-      <c r="N379" s="47"/>
-      <c r="O379" s="47"/>
-      <c r="P379" s="47"/>
-      <c r="Q379" s="47"/>
-      <c r="R379" s="47"/>
-      <c r="S379" s="47"/>
-      <c r="T379" s="47"/>
-      <c r="U379" s="47"/>
-      <c r="V379" s="47"/>
-      <c r="W379" s="47"/>
-      <c r="X379" s="47"/>
-      <c r="Y379" s="47"/>
-      <c r="Z379" s="47"/>
-    </row>
-    <row r="380" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A380" s="46" t="s">
+      <c r="M379" s="46"/>
+      <c r="N379" s="46"/>
+      <c r="O379" s="46"/>
+      <c r="P379" s="46"/>
+      <c r="Q379" s="46"/>
+      <c r="R379" s="46"/>
+      <c r="S379" s="46"/>
+      <c r="T379" s="46"/>
+      <c r="U379" s="46"/>
+      <c r="V379" s="46"/>
+      <c r="W379" s="46"/>
+      <c r="X379" s="46"/>
+      <c r="Y379" s="46"/>
+      <c r="Z379" s="46"/>
+    </row>
+    <row r="380" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A380" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B380" s="47" t="s">
+      <c r="B380" s="46" t="s">
         <v>1018</v>
       </c>
-      <c r="C380" s="47" t="s">
+      <c r="C380" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="D380" s="47" t="s">
+      <c r="D380" s="46" t="s">
         <v>1019</v>
       </c>
-      <c r="E380" s="47" t="s">
+      <c r="E380" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F380" s="47">
+      <c r="F380" s="46">
         <v>50616</v>
       </c>
-      <c r="G380" s="47" t="s">
+      <c r="G380" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="H380" s="48">
+      <c r="H380" s="47">
         <v>36</v>
       </c>
-      <c r="I380" s="49" t="s">
+      <c r="I380" s="48" t="s">
         <v>1020</v>
       </c>
-      <c r="J380" s="50">
+      <c r="J380" s="49">
         <v>45536</v>
       </c>
-      <c r="K380" s="47" t="s">
+      <c r="K380" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="L380" s="51" t="s">
+      <c r="L380" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M380" s="47"/>
-      <c r="N380" s="47"/>
-      <c r="O380" s="47"/>
-      <c r="P380" s="47"/>
-      <c r="Q380" s="47"/>
-      <c r="R380" s="47"/>
-      <c r="S380" s="47"/>
-      <c r="T380" s="47"/>
-      <c r="U380" s="47"/>
-      <c r="V380" s="47"/>
-      <c r="W380" s="47"/>
-      <c r="X380" s="47"/>
-      <c r="Y380" s="47"/>
-      <c r="Z380" s="47"/>
-    </row>
-    <row r="381" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A381" s="46" t="s">
+      <c r="M380" s="46"/>
+      <c r="N380" s="46"/>
+      <c r="O380" s="46"/>
+      <c r="P380" s="46"/>
+      <c r="Q380" s="46"/>
+      <c r="R380" s="46"/>
+      <c r="S380" s="46"/>
+      <c r="T380" s="46"/>
+      <c r="U380" s="46"/>
+      <c r="V380" s="46"/>
+      <c r="W380" s="46"/>
+      <c r="X380" s="46"/>
+      <c r="Y380" s="46"/>
+      <c r="Z380" s="46"/>
+    </row>
+    <row r="381" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A381" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="B381" s="47" t="s">
+      <c r="B381" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C381" s="47" t="s">
+      <c r="C381" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D381" s="47" t="s">
+      <c r="D381" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E381" s="47" t="s">
+      <c r="E381" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F381" s="47">
+      <c r="F381" s="46">
         <v>50266</v>
       </c>
-      <c r="G381" s="47" t="s">
+      <c r="G381" s="46" t="s">
         <v>1006</v>
       </c>
-      <c r="H381" s="48">
+      <c r="H381" s="47">
         <v>24</v>
       </c>
-      <c r="I381" s="49" t="s">
+      <c r="I381" s="48" t="s">
         <v>1020</v>
       </c>
-      <c r="J381" s="50">
+      <c r="J381" s="49">
         <v>45546</v>
       </c>
-      <c r="K381" s="47" t="s">
+      <c r="K381" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L381" s="47" t="s">
+      <c r="L381" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="M381" s="47"/>
-      <c r="N381" s="47"/>
-      <c r="O381" s="47"/>
-      <c r="P381" s="47"/>
-      <c r="Q381" s="47"/>
-      <c r="R381" s="47"/>
-      <c r="S381" s="47"/>
-      <c r="T381" s="47"/>
-      <c r="U381" s="47"/>
-      <c r="V381" s="47"/>
-      <c r="W381" s="47"/>
-      <c r="X381" s="47"/>
-      <c r="Y381" s="47"/>
-      <c r="Z381" s="47"/>
-    </row>
-    <row r="382" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A382" s="46" t="s">
+      <c r="M381" s="46"/>
+      <c r="N381" s="46"/>
+      <c r="O381" s="46"/>
+      <c r="P381" s="46"/>
+      <c r="Q381" s="46"/>
+      <c r="R381" s="46"/>
+      <c r="S381" s="46"/>
+      <c r="T381" s="46"/>
+      <c r="U381" s="46"/>
+      <c r="V381" s="46"/>
+      <c r="W381" s="46"/>
+      <c r="X381" s="46"/>
+      <c r="Y381" s="46"/>
+      <c r="Z381" s="46"/>
+    </row>
+    <row r="382" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A382" s="45" t="s">
         <v>961</v>
       </c>
-      <c r="B382" s="47" t="s">
+      <c r="B382" s="46" t="s">
         <v>1021</v>
       </c>
-      <c r="C382" s="47" t="s">
+      <c r="C382" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D382" s="47" t="s">
+      <c r="D382" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E382" s="47" t="s">
+      <c r="E382" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F382" s="47">
+      <c r="F382" s="46">
         <v>52002</v>
       </c>
-      <c r="G382" s="47" t="s">
+      <c r="G382" s="46" t="s">
         <v>1022</v>
       </c>
-      <c r="H382" s="48">
+      <c r="H382" s="47">
         <v>0</v>
       </c>
-      <c r="I382" s="49" t="s">
+      <c r="I382" s="48" t="s">
         <v>1023</v>
       </c>
-      <c r="J382" s="50">
+      <c r="J382" s="49">
         <v>45457</v>
       </c>
-      <c r="K382" s="47" t="s">
+      <c r="K382" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L382" s="53" t="s">
+      <c r="L382" s="52" t="s">
         <v>514</v>
       </c>
-      <c r="M382" s="47"/>
-      <c r="N382" s="47"/>
-      <c r="O382" s="47"/>
-      <c r="P382" s="47"/>
-      <c r="Q382" s="47"/>
-      <c r="R382" s="47"/>
-      <c r="S382" s="47"/>
-      <c r="T382" s="47"/>
-      <c r="U382" s="47"/>
-      <c r="V382" s="47"/>
-      <c r="W382" s="47"/>
-      <c r="X382" s="47"/>
-      <c r="Y382" s="47"/>
-      <c r="Z382" s="47"/>
-    </row>
-    <row r="383" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A383" s="46" t="s">
+      <c r="M382" s="46"/>
+      <c r="N382" s="46"/>
+      <c r="O382" s="46"/>
+      <c r="P382" s="46"/>
+      <c r="Q382" s="46"/>
+      <c r="R382" s="46"/>
+      <c r="S382" s="46"/>
+      <c r="T382" s="46"/>
+      <c r="U382" s="46"/>
+      <c r="V382" s="46"/>
+      <c r="W382" s="46"/>
+      <c r="X382" s="46"/>
+      <c r="Y382" s="46"/>
+      <c r="Z382" s="46"/>
+    </row>
+    <row r="383" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A383" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="B383" s="47" t="s">
+      <c r="B383" s="46" t="s">
         <v>919</v>
       </c>
-      <c r="C383" s="47" t="s">
+      <c r="C383" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="D383" s="47" t="s">
+      <c r="D383" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E383" s="47" t="s">
+      <c r="E383" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F383" s="47">
+      <c r="F383" s="46">
         <v>50704</v>
       </c>
-      <c r="G383" s="47" t="s">
+      <c r="G383" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H383" s="48">
+      <c r="H383" s="47">
         <v>191</v>
       </c>
-      <c r="I383" s="49" t="s">
+      <c r="I383" s="48" t="s">
         <v>1024</v>
       </c>
-      <c r="J383" s="50">
+      <c r="J383" s="49">
         <v>45555</v>
       </c>
-      <c r="K383" s="47" t="s">
+      <c r="K383" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L383" s="51" t="s">
+      <c r="L383" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M383" s="47"/>
-      <c r="N383" s="47"/>
-      <c r="O383" s="47"/>
-      <c r="P383" s="47"/>
-      <c r="Q383" s="47"/>
-      <c r="R383" s="47"/>
-      <c r="S383" s="47"/>
-      <c r="T383" s="47"/>
-      <c r="U383" s="47"/>
-      <c r="V383" s="47"/>
-      <c r="W383" s="47"/>
-      <c r="X383" s="47"/>
-      <c r="Y383" s="47"/>
-      <c r="Z383" s="47"/>
-    </row>
-    <row r="384" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A384" s="46" t="s">
+      <c r="M383" s="46"/>
+      <c r="N383" s="46"/>
+      <c r="O383" s="46"/>
+      <c r="P383" s="46"/>
+      <c r="Q383" s="46"/>
+      <c r="R383" s="46"/>
+      <c r="S383" s="46"/>
+      <c r="T383" s="46"/>
+      <c r="U383" s="46"/>
+      <c r="V383" s="46"/>
+      <c r="W383" s="46"/>
+      <c r="X383" s="46"/>
+      <c r="Y383" s="46"/>
+      <c r="Z383" s="46"/>
+    </row>
+    <row r="384" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A384" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="B384" s="47" t="s">
+      <c r="B384" s="46" t="s">
         <v>1025</v>
       </c>
-      <c r="C384" s="47" t="s">
+      <c r="C384" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="D384" s="47" t="s">
+      <c r="D384" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E384" s="47" t="s">
+      <c r="E384" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F384" s="47">
+      <c r="F384" s="46">
         <v>50701</v>
       </c>
-      <c r="G384" s="47" t="s">
+      <c r="G384" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H384" s="48">
+      <c r="H384" s="47">
         <v>89</v>
       </c>
-      <c r="I384" s="49" t="s">
+      <c r="I384" s="48" t="s">
         <v>1024</v>
       </c>
-      <c r="J384" s="50">
+      <c r="J384" s="49">
         <v>45555</v>
       </c>
-      <c r="K384" s="47" t="s">
+      <c r="K384" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L384" s="51" t="s">
+      <c r="L384" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M384" s="47"/>
-      <c r="N384" s="47"/>
-      <c r="O384" s="47"/>
-      <c r="P384" s="47"/>
-      <c r="Q384" s="47"/>
-      <c r="R384" s="47"/>
-      <c r="S384" s="47"/>
-      <c r="T384" s="47"/>
-      <c r="U384" s="47"/>
-      <c r="V384" s="47"/>
-      <c r="W384" s="47"/>
-      <c r="X384" s="47"/>
-      <c r="Y384" s="47"/>
-      <c r="Z384" s="47"/>
-    </row>
-    <row r="385" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A385" s="46" t="s">
+      <c r="M384" s="46"/>
+      <c r="N384" s="46"/>
+      <c r="O384" s="46"/>
+      <c r="P384" s="46"/>
+      <c r="Q384" s="46"/>
+      <c r="R384" s="46"/>
+      <c r="S384" s="46"/>
+      <c r="T384" s="46"/>
+      <c r="U384" s="46"/>
+      <c r="V384" s="46"/>
+      <c r="W384" s="46"/>
+      <c r="X384" s="46"/>
+      <c r="Y384" s="46"/>
+      <c r="Z384" s="46"/>
+    </row>
+    <row r="385" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A385" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="B385" s="47" t="s">
+      <c r="B385" s="46" t="s">
         <v>1026</v>
       </c>
-      <c r="C385" s="47" t="s">
+      <c r="C385" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="D385" s="47" t="s">
+      <c r="D385" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E385" s="47" t="s">
+      <c r="E385" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F385" s="47">
+      <c r="F385" s="46">
         <v>50701</v>
       </c>
-      <c r="G385" s="47" t="s">
+      <c r="G385" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H385" s="48">
+      <c r="H385" s="47">
         <v>65</v>
       </c>
-      <c r="I385" s="49" t="s">
+      <c r="I385" s="48" t="s">
         <v>1024</v>
       </c>
-      <c r="J385" s="50">
+      <c r="J385" s="49">
         <v>45555</v>
       </c>
-      <c r="K385" s="47" t="s">
+      <c r="K385" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L385" s="51" t="s">
+      <c r="L385" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M385" s="47"/>
-      <c r="N385" s="47"/>
-      <c r="O385" s="47"/>
-      <c r="P385" s="47"/>
-      <c r="Q385" s="47"/>
-      <c r="R385" s="47"/>
-      <c r="S385" s="47"/>
-      <c r="T385" s="47"/>
-      <c r="U385" s="47"/>
-      <c r="V385" s="47"/>
-      <c r="W385" s="47"/>
-      <c r="X385" s="47"/>
-      <c r="Y385" s="47"/>
-      <c r="Z385" s="47"/>
+      <c r="M385" s="46"/>
+      <c r="N385" s="46"/>
+      <c r="O385" s="46"/>
+      <c r="P385" s="46"/>
+      <c r="Q385" s="46"/>
+      <c r="R385" s="46"/>
+      <c r="S385" s="46"/>
+      <c r="T385" s="46"/>
+      <c r="U385" s="46"/>
+      <c r="V385" s="46"/>
+      <c r="W385" s="46"/>
+      <c r="X385" s="46"/>
+      <c r="Y385" s="46"/>
+      <c r="Z385" s="46"/>
     </row>
     <row r="386" spans="1:26" ht="14.25" customHeight="1">
       <c r="A386" s="18" t="s">
@@ -23956,7 +23967,7 @@
       <c r="I389" s="12" t="s">
         <v>1034</v>
       </c>
-      <c r="J389" s="50">
+      <c r="J389" s="49">
         <v>45497</v>
       </c>
       <c r="K389" s="11" t="s">
@@ -24008,7 +24019,7 @@
       <c r="I390" s="12" t="s">
         <v>1034</v>
       </c>
-      <c r="J390" s="50">
+      <c r="J390" s="49">
         <v>45497</v>
       </c>
       <c r="K390" s="11" t="s">
@@ -24088,7 +24099,7 @@
       <c r="A392" s="18" t="s">
         <v>1037</v>
       </c>
-      <c r="B392" s="44" t="s">
+      <c r="B392" s="43" t="s">
         <v>1038</v>
       </c>
       <c r="C392" s="11" t="s">
@@ -24140,7 +24151,7 @@
       <c r="A393" s="18" t="s">
         <v>1042</v>
       </c>
-      <c r="B393" s="44" t="s">
+      <c r="B393" s="43" t="s">
         <v>1043</v>
       </c>
       <c r="C393" s="11" t="s">
@@ -24192,7 +24203,7 @@
       <c r="A394" s="18" t="s">
         <v>1042</v>
       </c>
-      <c r="B394" s="44" t="s">
+      <c r="B394" s="43" t="s">
         <v>1043</v>
       </c>
       <c r="C394" s="11" t="s">
@@ -24244,7 +24255,7 @@
       <c r="A395" s="18" t="s">
         <v>1042</v>
       </c>
-      <c r="B395" s="44" t="s">
+      <c r="B395" s="43" t="s">
         <v>1043</v>
       </c>
       <c r="C395" s="11" t="s">
@@ -24296,7 +24307,7 @@
       <c r="A396" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="B396" s="45" t="s">
+      <c r="B396" s="44" t="s">
         <v>1046</v>
       </c>
       <c r="C396" s="11" t="s">
@@ -24605,70 +24616,94 @@
       <c r="Z401" s="11"/>
     </row>
     <row r="402" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A402" s="54" t="s">
+      <c r="A402" s="53" t="s">
         <v>1061</v>
       </c>
-      <c r="B402" s="55" t="s">
+      <c r="B402" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="C402" s="55" t="s">
+      <c r="C402" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D402" s="55" t="s">
+      <c r="D402" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="E402" s="55" t="s">
+      <c r="E402" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F402" s="55">
+      <c r="F402" s="54">
         <v>52002</v>
       </c>
-      <c r="G402" s="55" t="s">
+      <c r="G402" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H402" s="56">
+      <c r="H402" s="55">
         <v>74</v>
       </c>
-      <c r="I402" s="57" t="s">
+      <c r="I402" s="56" t="s">
         <v>1063</v>
       </c>
-      <c r="J402" s="58">
+      <c r="J402" s="57">
         <v>45592</v>
       </c>
-      <c r="K402" s="55" t="s">
+      <c r="K402" s="54" t="s">
         <v>672</v>
       </c>
-      <c r="L402" s="55" t="s">
+      <c r="L402" s="54" t="s">
         <v>1064</v>
       </c>
-      <c r="M402" s="55"/>
-      <c r="N402" s="55"/>
-      <c r="O402" s="55"/>
-      <c r="P402" s="55"/>
-      <c r="Q402" s="55"/>
-      <c r="R402" s="55"/>
-      <c r="S402" s="55"/>
-      <c r="T402" s="55"/>
-      <c r="U402" s="55"/>
-      <c r="V402" s="55"/>
-      <c r="W402" s="55"/>
-      <c r="X402" s="55"/>
-      <c r="Y402" s="55"/>
-      <c r="Z402" s="55"/>
+      <c r="M402" s="54"/>
+      <c r="N402" s="54"/>
+      <c r="O402" s="54"/>
+      <c r="P402" s="54"/>
+      <c r="Q402" s="54"/>
+      <c r="R402" s="54"/>
+      <c r="S402" s="54"/>
+      <c r="T402" s="54"/>
+      <c r="U402" s="54"/>
+      <c r="V402" s="54"/>
+      <c r="W402" s="54"/>
+      <c r="X402" s="54"/>
+      <c r="Y402" s="54"/>
+      <c r="Z402" s="54"/>
     </row>
     <row r="403" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A403" s="18"/>
-      <c r="B403" s="11"/>
-      <c r="C403" s="11"/>
-      <c r="D403" s="11"/>
-      <c r="E403" s="11"/>
-      <c r="F403" s="11"/>
-      <c r="G403" s="11"/>
-      <c r="H403" s="33"/>
-      <c r="I403" s="12"/>
-      <c r="J403" s="11"/>
-      <c r="K403" s="11"/>
-      <c r="L403" s="11"/>
+      <c r="A403" s="18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B403" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D403" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E403" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F403" s="11">
+        <v>51106</v>
+      </c>
+      <c r="G403" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H403" s="33">
+        <v>58</v>
+      </c>
+      <c r="I403" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J403" s="6">
+        <v>45565</v>
+      </c>
+      <c r="K403" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="L403" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M403" s="11"/>
       <c r="N403" s="11"/>
       <c r="O403" s="11"/>
@@ -34161,47 +34196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FAEC67-9920-4343-925C-9924BD83D6BC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34436,14 +34431,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F004CB8-9555-4225-B630-9A71297C65B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F949A82-24D9-4108-BF02-30B4AF92A42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="1079">
   <si>
     <t>Company</t>
   </si>
@@ -3264,6 +3264,18 @@
   </si>
   <si>
     <t>09/04/2024</t>
+  </si>
+  <si>
+    <t>Tyson Foods, Inc</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Amendment- Change in Date</t>
+  </si>
+  <si>
+    <t>09/09/2024</t>
   </si>
 </sst>
 </file>
@@ -3763,8 +3775,8 @@
   <dimension ref="A1:Z739"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L406" sqref="L406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24793,18 +24805,42 @@
       <c r="Z404" s="54"/>
     </row>
     <row r="405" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A405" s="18"/>
-      <c r="B405" s="11"/>
-      <c r="C405" s="11"/>
-      <c r="D405" s="11"/>
-      <c r="E405" s="11"/>
-      <c r="F405" s="11"/>
-      <c r="G405" s="11"/>
-      <c r="H405" s="33"/>
-      <c r="I405" s="12"/>
-      <c r="J405" s="11"/>
-      <c r="K405" s="11"/>
-      <c r="L405" s="11"/>
+      <c r="A405" s="18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B405" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D405" s="46" t="s">
+        <v>904</v>
+      </c>
+      <c r="E405" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F405" s="11">
+        <v>50220</v>
+      </c>
+      <c r="G405" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H405" s="33">
+        <v>19</v>
+      </c>
+      <c r="I405" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J405" s="6">
+        <v>45597</v>
+      </c>
+      <c r="K405" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="L405" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="M405" s="11"/>
       <c r="N405" s="11"/>
       <c r="O405" s="11"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C329F3AD-FBBA-4940-BEA2-4CDF8F7B5CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5BA1A8-C78B-4A68-93B7-11DBD6FC9596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="1076">
   <si>
     <t>Company</t>
   </si>
@@ -3264,6 +3264,9 @@
   </si>
   <si>
     <t>09/12/2024</t>
+  </si>
+  <si>
+    <t>09/18/2024</t>
   </si>
 </sst>
 </file>
@@ -3763,8 +3766,8 @@
   <dimension ref="A1:Z737"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L404" sqref="L404"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L405" sqref="L405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24793,18 +24796,42 @@
       <c r="Z404" s="11"/>
     </row>
     <row r="405" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A405" s="18"/>
-      <c r="B405" s="11"/>
-      <c r="C405" s="11"/>
-      <c r="D405" s="11"/>
-      <c r="E405" s="11"/>
-      <c r="F405" s="11"/>
-      <c r="G405" s="11"/>
-      <c r="H405" s="33"/>
-      <c r="I405" s="12"/>
-      <c r="J405" s="11"/>
-      <c r="K405" s="11"/>
-      <c r="L405" s="11"/>
+      <c r="A405" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B405" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D405" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E405" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F405" s="11">
+        <v>50266</v>
+      </c>
+      <c r="G405" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="H405" s="33">
+        <v>47</v>
+      </c>
+      <c r="I405" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J405" s="6">
+        <v>45614</v>
+      </c>
+      <c r="K405" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="L405" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="M405" s="11"/>
       <c r="N405" s="11"/>
       <c r="O405" s="11"/>
@@ -34117,7 +34144,6 @@
       <c r="Z737" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z403" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
   </sortState>
@@ -34131,15 +34157,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34374,6 +34391,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -34394,11 +34420,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5BA1A8-C78B-4A68-93B7-11DBD6FC9596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99641108-2AE9-466E-83CF-C8AC957CFF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="1080">
   <si>
     <t>Company</t>
   </si>
@@ -3267,6 +3267,18 @@
   </si>
   <si>
     <t>09/18/2024</t>
+  </si>
+  <si>
+    <t>NSK Americas</t>
+  </si>
+  <si>
+    <t>1100 N 1st St</t>
+  </si>
+  <si>
+    <t>Clarinda</t>
+  </si>
+  <si>
+    <t>09/19/2024</t>
   </si>
 </sst>
 </file>
@@ -3346,7 +3358,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3365,18 +3377,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3390,7 +3390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3496,14 +3496,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3766,8 +3758,8 @@
   <dimension ref="A1:Z737"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L405" sqref="L405"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L406" sqref="L406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -17620,40 +17612,40 @@
       <c r="Z266" s="11"/>
     </row>
     <row r="267" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A267" s="45" t="s">
+      <c r="A267" s="41" t="s">
         <v>772</v>
       </c>
-      <c r="B267" s="46" t="s">
+      <c r="B267" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="C267" s="46" t="s">
+      <c r="C267" s="42" t="s">
         <v>440</v>
       </c>
-      <c r="D267" s="46" t="s">
+      <c r="D267" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="E267" s="46" t="s">
+      <c r="E267" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F267" s="46">
+      <c r="F267" s="42">
         <v>51106</v>
       </c>
-      <c r="G267" s="46" t="s">
+      <c r="G267" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H267" s="47">
+      <c r="H267" s="43">
         <v>101</v>
       </c>
-      <c r="I267" s="48" t="s">
+      <c r="I267" s="44" t="s">
         <v>774</v>
       </c>
-      <c r="J267" s="49">
+      <c r="J267" s="45">
         <v>45174</v>
       </c>
-      <c r="K267" s="46" t="s">
+      <c r="K267" s="42" t="s">
         <v>720</v>
       </c>
-      <c r="L267" s="52" t="s">
+      <c r="L267" s="48" t="s">
         <v>501</v>
       </c>
       <c r="M267" s="11"/>
@@ -17672,40 +17664,40 @@
       <c r="Z267" s="11"/>
     </row>
     <row r="268" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A268" s="45" t="s">
+      <c r="A268" s="41" t="s">
         <v>775</v>
       </c>
-      <c r="B268" s="46" t="s">
+      <c r="B268" s="42" t="s">
         <v>776</v>
       </c>
-      <c r="C268" s="46" t="s">
+      <c r="C268" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D268" s="46" t="s">
+      <c r="D268" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E268" s="46" t="s">
+      <c r="E268" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F268" s="46">
+      <c r="F268" s="42">
         <v>50323</v>
       </c>
-      <c r="G268" s="46" t="s">
+      <c r="G268" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H268" s="47">
+      <c r="H268" s="43">
         <v>1</v>
       </c>
-      <c r="I268" s="48" t="s">
+      <c r="I268" s="44" t="s">
         <v>777</v>
       </c>
-      <c r="J268" s="49">
+      <c r="J268" s="45">
         <v>45169</v>
       </c>
-      <c r="K268" s="46" t="s">
+      <c r="K268" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L268" s="52" t="s">
+      <c r="L268" s="48" t="s">
         <v>778</v>
       </c>
       <c r="M268" s="11"/>
@@ -17724,40 +17716,40 @@
       <c r="Z268" s="11"/>
     </row>
     <row r="269" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A269" s="45" t="s">
+      <c r="A269" s="41" t="s">
         <v>779</v>
       </c>
-      <c r="B269" s="46" t="s">
+      <c r="B269" s="42" t="s">
         <v>780</v>
       </c>
-      <c r="C269" s="46" t="s">
+      <c r="C269" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D269" s="46" t="s">
+      <c r="D269" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E269" s="46" t="s">
+      <c r="E269" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F269" s="46">
+      <c r="F269" s="42">
         <v>50321</v>
       </c>
-      <c r="G269" s="46" t="s">
+      <c r="G269" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H269" s="47">
+      <c r="H269" s="43">
         <v>36</v>
       </c>
-      <c r="I269" s="48" t="s">
+      <c r="I269" s="44" t="s">
         <v>781</v>
       </c>
-      <c r="J269" s="49">
+      <c r="J269" s="45">
         <v>45143</v>
       </c>
-      <c r="K269" s="46" t="s">
+      <c r="K269" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L269" s="52" t="s">
+      <c r="L269" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M269" s="11"/>
@@ -17776,40 +17768,40 @@
       <c r="Z269" s="11"/>
     </row>
     <row r="270" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A270" s="45" t="s">
+      <c r="A270" s="41" t="s">
         <v>782</v>
       </c>
-      <c r="B270" s="46" t="s">
+      <c r="B270" s="42" t="s">
         <v>783</v>
       </c>
-      <c r="C270" s="46" t="s">
+      <c r="C270" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D270" s="46" t="s">
+      <c r="D270" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E270" s="46" t="s">
+      <c r="E270" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F270" s="46">
+      <c r="F270" s="42">
         <v>50313</v>
       </c>
-      <c r="G270" s="46" t="s">
+      <c r="G270" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H270" s="47">
+      <c r="H270" s="43">
         <v>29</v>
       </c>
-      <c r="I270" s="48" t="s">
+      <c r="I270" s="44" t="s">
         <v>784</v>
       </c>
-      <c r="J270" s="49">
+      <c r="J270" s="45">
         <v>45170</v>
       </c>
-      <c r="K270" s="46" t="s">
+      <c r="K270" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L270" s="50" t="s">
+      <c r="L270" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M270" s="11"/>
@@ -17828,40 +17820,40 @@
       <c r="Z270" s="11"/>
     </row>
     <row r="271" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A271" s="45" t="s">
+      <c r="A271" s="41" t="s">
         <v>785</v>
       </c>
-      <c r="B271" s="46" t="s">
+      <c r="B271" s="42" t="s">
         <v>786</v>
       </c>
-      <c r="C271" s="46" t="s">
+      <c r="C271" s="42" t="s">
         <v>787</v>
       </c>
-      <c r="D271" s="46" t="s">
+      <c r="D271" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E271" s="46" t="s">
+      <c r="E271" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F271" s="46">
+      <c r="F271" s="42">
         <v>50111</v>
       </c>
-      <c r="G271" s="46" t="s">
+      <c r="G271" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H271" s="47">
+      <c r="H271" s="43">
         <v>29</v>
       </c>
-      <c r="I271" s="48" t="s">
+      <c r="I271" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="J271" s="49">
+      <c r="J271" s="45">
         <v>45158</v>
       </c>
-      <c r="K271" s="46" t="s">
+      <c r="K271" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L271" s="52" t="s">
+      <c r="L271" s="48" t="s">
         <v>714</v>
       </c>
       <c r="M271" s="11"/>
@@ -17880,40 +17872,40 @@
       <c r="Z271" s="11"/>
     </row>
     <row r="272" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A272" s="45" t="s">
+      <c r="A272" s="41" t="s">
         <v>789</v>
       </c>
-      <c r="B272" s="46" t="s">
+      <c r="B272" s="42" t="s">
         <v>790</v>
       </c>
-      <c r="C272" s="46" t="s">
+      <c r="C272" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="D272" s="46" t="s">
+      <c r="D272" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="E272" s="46" t="s">
+      <c r="E272" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F272" s="46">
+      <c r="F272" s="42">
         <v>50644</v>
       </c>
-      <c r="G272" s="46" t="s">
+      <c r="G272" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H272" s="47">
+      <c r="H272" s="43">
         <v>211</v>
       </c>
-      <c r="I272" s="48" t="s">
+      <c r="I272" s="44" t="s">
         <v>791</v>
       </c>
-      <c r="J272" s="49">
+      <c r="J272" s="45">
         <v>45205</v>
       </c>
-      <c r="K272" s="46" t="s">
+      <c r="K272" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L272" s="50" t="s">
+      <c r="L272" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M272" s="11"/>
@@ -17932,40 +17924,40 @@
       <c r="Z272" s="11"/>
     </row>
     <row r="273" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A273" s="45" t="s">
+      <c r="A273" s="41" t="s">
         <v>789</v>
       </c>
-      <c r="B273" s="46" t="s">
+      <c r="B273" s="42" t="s">
         <v>790</v>
       </c>
-      <c r="C273" s="46" t="s">
+      <c r="C273" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="D273" s="46" t="s">
+      <c r="D273" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="E273" s="46" t="s">
+      <c r="E273" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F273" s="46">
+      <c r="F273" s="42">
         <v>50644</v>
       </c>
-      <c r="G273" s="46" t="s">
+      <c r="G273" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H273" s="47">
+      <c r="H273" s="43">
         <v>6</v>
       </c>
-      <c r="I273" s="48" t="s">
+      <c r="I273" s="44" t="s">
         <v>791</v>
       </c>
-      <c r="J273" s="49">
+      <c r="J273" s="45">
         <v>45261</v>
       </c>
-      <c r="K273" s="46" t="s">
+      <c r="K273" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L273" s="50" t="s">
+      <c r="L273" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M273" s="11"/>
@@ -17984,40 +17976,40 @@
       <c r="Z273" s="11"/>
     </row>
     <row r="274" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A274" s="45" t="s">
+      <c r="A274" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B274" s="46" t="s">
+      <c r="B274" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="C274" s="46" t="s">
+      <c r="C274" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D274" s="46" t="s">
+      <c r="D274" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E274" s="46" t="s">
+      <c r="E274" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F274" s="46">
+      <c r="F274" s="42">
         <v>50309</v>
       </c>
-      <c r="G274" s="46" t="s">
+      <c r="G274" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H274" s="47">
+      <c r="H274" s="43">
         <v>65</v>
       </c>
-      <c r="I274" s="48" t="s">
+      <c r="I274" s="44" t="s">
         <v>792</v>
       </c>
-      <c r="J274" s="49">
+      <c r="J274" s="45">
         <v>45118</v>
       </c>
-      <c r="K274" s="46" t="s">
+      <c r="K274" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L274" s="46" t="s">
+      <c r="L274" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M274" s="11"/>
@@ -18036,40 +18028,40 @@
       <c r="Z274" s="11"/>
     </row>
     <row r="275" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A275" s="45" t="s">
+      <c r="A275" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B275" s="46" t="s">
+      <c r="B275" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="C275" s="46" t="s">
+      <c r="C275" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D275" s="46" t="s">
+      <c r="D275" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E275" s="46" t="s">
+      <c r="E275" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F275" s="46">
+      <c r="F275" s="42">
         <v>50309</v>
       </c>
-      <c r="G275" s="46" t="s">
+      <c r="G275" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H275" s="47">
+      <c r="H275" s="43">
         <v>7</v>
       </c>
-      <c r="I275" s="48" t="s">
+      <c r="I275" s="44" t="s">
         <v>792</v>
       </c>
-      <c r="J275" s="49">
+      <c r="J275" s="45">
         <v>45118</v>
       </c>
-      <c r="K275" s="46" t="s">
+      <c r="K275" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L275" s="46" t="s">
+      <c r="L275" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M275" s="11"/>
@@ -18088,40 +18080,40 @@
       <c r="Z275" s="11"/>
     </row>
     <row r="276" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A276" s="45" t="s">
+      <c r="A276" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B276" s="46" t="s">
+      <c r="B276" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="C276" s="46" t="s">
+      <c r="C276" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D276" s="46" t="s">
+      <c r="D276" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E276" s="46" t="s">
+      <c r="E276" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F276" s="46">
+      <c r="F276" s="42">
         <v>50309</v>
       </c>
-      <c r="G276" s="46" t="s">
+      <c r="G276" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H276" s="47">
+      <c r="H276" s="43">
         <v>8</v>
       </c>
-      <c r="I276" s="48" t="s">
+      <c r="I276" s="44" t="s">
         <v>792</v>
       </c>
-      <c r="J276" s="49">
+      <c r="J276" s="45">
         <v>45146</v>
       </c>
-      <c r="K276" s="46" t="s">
+      <c r="K276" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L276" s="46" t="s">
+      <c r="L276" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M276" s="11"/>
@@ -18140,40 +18132,40 @@
       <c r="Z276" s="11"/>
     </row>
     <row r="277" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A277" s="45" t="s">
+      <c r="A277" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="B277" s="46" t="s">
+      <c r="B277" s="42" t="s">
         <v>794</v>
       </c>
-      <c r="C277" s="46" t="s">
+      <c r="C277" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="D277" s="46" t="s">
+      <c r="D277" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E277" s="46" t="s">
+      <c r="E277" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F277" s="46">
+      <c r="F277" s="42">
         <v>50266</v>
       </c>
-      <c r="G277" s="46" t="s">
+      <c r="G277" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H277" s="47">
+      <c r="H277" s="43">
         <v>92</v>
       </c>
-      <c r="I277" s="48" t="s">
+      <c r="I277" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="J277" s="49">
+      <c r="J277" s="45">
         <v>45137</v>
       </c>
-      <c r="K277" s="46" t="s">
+      <c r="K277" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L277" s="52" t="s">
+      <c r="L277" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M277" s="11"/>
@@ -18192,40 +18184,40 @@
       <c r="Z277" s="11"/>
     </row>
     <row r="278" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A278" s="45" t="s">
+      <c r="A278" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="B278" s="46" t="s">
+      <c r="B278" s="42" t="s">
         <v>796</v>
       </c>
-      <c r="C278" s="46" t="s">
+      <c r="C278" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D278" s="46" t="s">
+      <c r="D278" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E278" s="46" t="s">
+      <c r="E278" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F278" s="46">
+      <c r="F278" s="42">
         <v>50313</v>
       </c>
-      <c r="G278" s="46" t="s">
+      <c r="G278" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H278" s="47">
+      <c r="H278" s="43">
         <v>49</v>
       </c>
-      <c r="I278" s="48" t="s">
+      <c r="I278" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="J278" s="49">
+      <c r="J278" s="45">
         <v>45137</v>
       </c>
-      <c r="K278" s="46" t="s">
+      <c r="K278" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L278" s="52" t="s">
+      <c r="L278" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M278" s="11"/>
@@ -18244,40 +18236,40 @@
       <c r="Z278" s="11"/>
     </row>
     <row r="279" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A279" s="45" t="s">
+      <c r="A279" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="B279" s="46" t="s">
+      <c r="B279" s="42" t="s">
         <v>797</v>
       </c>
-      <c r="C279" s="46" t="s">
+      <c r="C279" s="42" t="s">
         <v>718</v>
       </c>
-      <c r="D279" s="46" t="s">
+      <c r="D279" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="E279" s="46" t="s">
+      <c r="E279" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F279" s="46">
+      <c r="F279" s="42">
         <v>51111</v>
       </c>
-      <c r="G279" s="46" t="s">
+      <c r="G279" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H279" s="47">
+      <c r="H279" s="43">
         <v>7</v>
       </c>
-      <c r="I279" s="48" t="s">
+      <c r="I279" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="J279" s="49">
+      <c r="J279" s="45">
         <v>45137</v>
       </c>
-      <c r="K279" s="46" t="s">
+      <c r="K279" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="L279" s="52" t="s">
+      <c r="L279" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M279" s="11"/>
@@ -18296,40 +18288,40 @@
       <c r="Z279" s="11"/>
     </row>
     <row r="280" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A280" s="45" t="s">
+      <c r="A280" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="B280" s="46" t="s">
+      <c r="B280" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="C280" s="46" t="s">
+      <c r="C280" s="42" t="s">
         <v>800</v>
       </c>
-      <c r="D280" s="46" t="s">
+      <c r="D280" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E280" s="46" t="s">
+      <c r="E280" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F280" s="46">
+      <c r="F280" s="42">
         <v>50401</v>
       </c>
-      <c r="G280" s="46" t="s">
+      <c r="G280" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H280" s="47">
+      <c r="H280" s="43">
         <v>4</v>
       </c>
-      <c r="I280" s="48" t="s">
+      <c r="I280" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="J280" s="49">
+      <c r="J280" s="45">
         <v>45137</v>
       </c>
-      <c r="K280" s="46" t="s">
+      <c r="K280" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L280" s="52" t="s">
+      <c r="L280" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M280" s="11"/>
@@ -18348,40 +18340,40 @@
       <c r="Z280" s="11"/>
     </row>
     <row r="281" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A281" s="45" t="s">
+      <c r="A281" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="B281" s="46" t="s">
+      <c r="B281" s="42" t="s">
         <v>801</v>
       </c>
-      <c r="C281" s="46" t="s">
+      <c r="C281" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="D281" s="46" t="s">
+      <c r="D281" s="42" t="s">
         <v>803</v>
       </c>
-      <c r="E281" s="46" t="s">
+      <c r="E281" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F281" s="46">
+      <c r="F281" s="42">
         <v>52068</v>
       </c>
-      <c r="G281" s="46" t="s">
+      <c r="G281" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H281" s="47">
+      <c r="H281" s="43">
         <v>1</v>
       </c>
-      <c r="I281" s="48" t="s">
+      <c r="I281" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="J281" s="49">
+      <c r="J281" s="45">
         <v>45137</v>
       </c>
-      <c r="K281" s="46" t="s">
+      <c r="K281" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L281" s="52" t="s">
+      <c r="L281" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M281" s="11"/>
@@ -18400,40 +18392,40 @@
       <c r="Z281" s="11"/>
     </row>
     <row r="282" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A282" s="45" t="s">
+      <c r="A282" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="B282" s="46" t="s">
+      <c r="B282" s="42" t="s">
         <v>804</v>
       </c>
-      <c r="C282" s="46" t="s">
+      <c r="C282" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D282" s="46" t="s">
+      <c r="D282" s="42" t="s">
         <v>805</v>
       </c>
-      <c r="E282" s="46" t="s">
+      <c r="E282" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F282" s="46">
+      <c r="F282" s="42">
         <v>51501</v>
       </c>
-      <c r="G282" s="46" t="s">
+      <c r="G282" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H282" s="47">
+      <c r="H282" s="43">
         <v>30</v>
       </c>
-      <c r="I282" s="48" t="s">
+      <c r="I282" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="J282" s="49">
+      <c r="J282" s="45">
         <v>45137</v>
       </c>
-      <c r="K282" s="46" t="s">
+      <c r="K282" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="L282" s="52" t="s">
+      <c r="L282" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M282" s="11"/>
@@ -18452,40 +18444,40 @@
       <c r="Z282" s="11"/>
     </row>
     <row r="283" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A283" s="45" t="s">
+      <c r="A283" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="B283" s="46" t="s">
+      <c r="B283" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="C283" s="46" t="s">
+      <c r="C283" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D283" s="46" t="s">
+      <c r="D283" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E283" s="46" t="s">
+      <c r="E283" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F283" s="46">
+      <c r="F283" s="42">
         <v>52404</v>
       </c>
-      <c r="G283" s="46" t="s">
+      <c r="G283" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H283" s="47">
+      <c r="H283" s="43">
         <v>1</v>
       </c>
-      <c r="I283" s="48" t="s">
+      <c r="I283" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="J283" s="49">
+      <c r="J283" s="45">
         <v>45137</v>
       </c>
-      <c r="K283" s="46" t="s">
+      <c r="K283" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="L283" s="52" t="s">
+      <c r="L283" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M283" s="11"/>
@@ -18504,40 +18496,40 @@
       <c r="Z283" s="11"/>
     </row>
     <row r="284" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A284" s="45" t="s">
+      <c r="A284" s="41" t="s">
         <v>807</v>
       </c>
-      <c r="B284" s="46" t="s">
+      <c r="B284" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="C284" s="46" t="s">
+      <c r="C284" s="42" t="s">
         <v>809</v>
       </c>
-      <c r="D284" s="46" t="s">
+      <c r="D284" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E284" s="46" t="s">
+      <c r="E284" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F284" s="46">
+      <c r="F284" s="42">
         <v>52730</v>
       </c>
-      <c r="G284" s="46" t="s">
+      <c r="G284" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H284" s="47">
+      <c r="H284" s="43">
         <v>46</v>
       </c>
-      <c r="I284" s="48" t="s">
+      <c r="I284" s="44" t="s">
         <v>810</v>
       </c>
-      <c r="J284" s="49">
+      <c r="J284" s="45">
         <v>45154</v>
       </c>
-      <c r="K284" s="46" t="s">
+      <c r="K284" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="L284" s="50" t="s">
+      <c r="L284" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M284" s="11"/>
@@ -18556,40 +18548,40 @@
       <c r="Z284" s="11"/>
     </row>
     <row r="285" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A285" s="45" t="s">
+      <c r="A285" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B285" s="46" t="s">
+      <c r="B285" s="42" t="s">
         <v>811</v>
       </c>
-      <c r="C285" s="46" t="s">
+      <c r="C285" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D285" s="46" t="s">
+      <c r="D285" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E285" s="46" t="s">
+      <c r="E285" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F285" s="46">
+      <c r="F285" s="42">
         <v>50309</v>
       </c>
-      <c r="G285" s="46" t="s">
+      <c r="G285" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="H285" s="47">
+      <c r="H285" s="43">
         <v>1</v>
       </c>
-      <c r="I285" s="48" t="s">
+      <c r="I285" s="44" t="s">
         <v>812</v>
       </c>
-      <c r="J285" s="49">
+      <c r="J285" s="45">
         <v>45160</v>
       </c>
-      <c r="K285" s="46" t="s">
+      <c r="K285" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L285" s="46" t="s">
+      <c r="L285" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M285" s="11"/>
@@ -18608,40 +18600,40 @@
       <c r="Z285" s="11"/>
     </row>
     <row r="286" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A286" s="45" t="s">
+      <c r="A286" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="B286" s="46" t="s">
+      <c r="B286" s="42" t="s">
         <v>813</v>
       </c>
-      <c r="C286" s="46" t="s">
+      <c r="C286" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D286" s="46" t="s">
+      <c r="D286" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="E286" s="46" t="s">
+      <c r="E286" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F286" s="46">
+      <c r="F286" s="42">
         <v>50554</v>
       </c>
-      <c r="G286" s="46" t="s">
+      <c r="G286" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H286" s="47">
+      <c r="H286" s="43">
         <v>46</v>
       </c>
-      <c r="I286" s="48" t="s">
+      <c r="I286" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J286" s="49">
+      <c r="J286" s="45">
         <v>45176</v>
       </c>
-      <c r="K286" s="46" t="s">
+      <c r="K286" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="L286" s="46" t="s">
+      <c r="L286" s="42" t="s">
         <v>231</v>
       </c>
       <c r="M286" s="11"/>
@@ -18660,40 +18652,40 @@
       <c r="Z286" s="11"/>
     </row>
     <row r="287" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A287" s="45" t="s">
+      <c r="A287" s="41" t="s">
         <v>815</v>
       </c>
-      <c r="B287" s="46" t="s">
+      <c r="B287" s="42" t="s">
         <v>816</v>
       </c>
-      <c r="C287" s="46" t="s">
+      <c r="C287" s="42" t="s">
         <v>800</v>
       </c>
-      <c r="D287" s="46" t="s">
+      <c r="D287" s="42" t="s">
         <v>817</v>
       </c>
-      <c r="E287" s="46" t="s">
+      <c r="E287" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F287" s="46">
+      <c r="F287" s="42">
         <v>50401</v>
       </c>
-      <c r="G287" s="46" t="s">
+      <c r="G287" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H287" s="47">
+      <c r="H287" s="43">
         <v>38</v>
       </c>
-      <c r="I287" s="48" t="s">
+      <c r="I287" s="44" t="s">
         <v>818</v>
       </c>
-      <c r="J287" s="49">
+      <c r="J287" s="45">
         <v>45217</v>
       </c>
-      <c r="K287" s="46" t="s">
+      <c r="K287" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L287" s="46" t="s">
+      <c r="L287" s="42" t="s">
         <v>819</v>
       </c>
       <c r="M287" s="11"/>
@@ -18712,40 +18704,40 @@
       <c r="Z287" s="11"/>
     </row>
     <row r="288" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A288" s="45" t="s">
+      <c r="A288" s="41" t="s">
         <v>820</v>
       </c>
-      <c r="B288" s="46" t="s">
+      <c r="B288" s="42" t="s">
         <v>821</v>
       </c>
-      <c r="C288" s="46" t="s">
+      <c r="C288" s="42" t="s">
         <v>822</v>
       </c>
-      <c r="D288" s="46" t="s">
+      <c r="D288" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E288" s="46" t="s">
+      <c r="E288" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F288" s="46">
+      <c r="F288" s="42">
         <v>52066</v>
       </c>
-      <c r="G288" s="46" t="s">
+      <c r="G288" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H288" s="47">
+      <c r="H288" s="43">
         <v>155</v>
       </c>
-      <c r="I288" s="48" t="s">
+      <c r="I288" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="J288" s="49">
+      <c r="J288" s="45">
         <v>45218</v>
       </c>
-      <c r="K288" s="46" t="s">
+      <c r="K288" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L288" s="46" t="s">
+      <c r="L288" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M288" s="11"/>
@@ -18764,40 +18756,40 @@
       <c r="Z288" s="11"/>
     </row>
     <row r="289" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A289" s="45" t="s">
+      <c r="A289" s="41" t="s">
         <v>824</v>
       </c>
-      <c r="B289" s="46" t="s">
+      <c r="B289" s="42" t="s">
         <v>825</v>
       </c>
-      <c r="C289" s="46" t="s">
+      <c r="C289" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D289" s="46" t="s">
+      <c r="D289" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="E289" s="46" t="s">
+      <c r="E289" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F289" s="46">
+      <c r="F289" s="42">
         <v>52240</v>
       </c>
-      <c r="G289" s="46" t="s">
+      <c r="G289" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H289" s="47">
+      <c r="H289" s="43">
         <v>100</v>
       </c>
-      <c r="I289" s="48" t="s">
+      <c r="I289" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="J289" s="49">
+      <c r="J289" s="45">
         <v>45198</v>
       </c>
-      <c r="K289" s="46" t="s">
+      <c r="K289" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="L289" s="52" t="s">
+      <c r="L289" s="48" t="s">
         <v>501</v>
       </c>
       <c r="M289" s="11"/>
@@ -18816,40 +18808,40 @@
       <c r="Z289" s="11"/>
     </row>
     <row r="290" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A290" s="45" t="s">
+      <c r="A290" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="B290" s="46" t="s">
+      <c r="B290" s="42" t="s">
         <v>827</v>
       </c>
-      <c r="C290" s="46" t="s">
+      <c r="C290" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="D290" s="46" t="s">
+      <c r="D290" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E290" s="46" t="s">
+      <c r="E290" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F290" s="46">
+      <c r="F290" s="42">
         <v>52498</v>
       </c>
-      <c r="G290" s="46" t="s">
+      <c r="G290" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H290" s="47">
+      <c r="H290" s="43">
         <v>68</v>
       </c>
-      <c r="I290" s="48" t="s">
+      <c r="I290" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="J290" s="49">
+      <c r="J290" s="45">
         <v>45212</v>
       </c>
-      <c r="K290" s="46" t="s">
+      <c r="K290" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="L290" s="50" t="s">
+      <c r="L290" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M290" s="11"/>
@@ -18868,40 +18860,40 @@
       <c r="Z290" s="11"/>
     </row>
     <row r="291" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A291" s="45" t="s">
+      <c r="A291" s="41" t="s">
         <v>829</v>
       </c>
-      <c r="B291" s="46" t="s">
+      <c r="B291" s="42" t="s">
         <v>830</v>
       </c>
-      <c r="C291" s="46" t="s">
+      <c r="C291" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="D291" s="46" t="s">
+      <c r="D291" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E291" s="46" t="s">
+      <c r="E291" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F291" s="46">
+      <c r="F291" s="42">
         <v>52722</v>
       </c>
-      <c r="G291" s="46" t="s">
+      <c r="G291" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H291" s="47">
+      <c r="H291" s="43">
         <v>123</v>
       </c>
-      <c r="I291" s="48" t="s">
+      <c r="I291" s="44" t="s">
         <v>831</v>
       </c>
-      <c r="J291" s="49">
+      <c r="J291" s="45">
         <v>45197</v>
       </c>
-      <c r="K291" s="46" t="s">
+      <c r="K291" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="L291" s="50" t="s">
+      <c r="L291" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M291" s="11"/>
@@ -18920,40 +18912,40 @@
       <c r="Z291" s="11"/>
     </row>
     <row r="292" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A292" s="45" t="s">
+      <c r="A292" s="41" t="s">
         <v>832</v>
       </c>
-      <c r="B292" s="46" t="s">
+      <c r="B292" s="42" t="s">
         <v>833</v>
       </c>
-      <c r="C292" s="46" t="s">
+      <c r="C292" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D292" s="46" t="s">
+      <c r="D292" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E292" s="46" t="s">
+      <c r="E292" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F292" s="46">
+      <c r="F292" s="42">
         <v>50401</v>
       </c>
-      <c r="G292" s="46" t="s">
+      <c r="G292" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H292" s="47">
+      <c r="H292" s="43">
         <v>43</v>
       </c>
-      <c r="I292" s="48" t="s">
+      <c r="I292" s="44" t="s">
         <v>834</v>
       </c>
-      <c r="J292" s="49">
+      <c r="J292" s="45">
         <v>45191</v>
       </c>
-      <c r="K292" s="46" t="s">
+      <c r="K292" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L292" s="50" t="s">
+      <c r="L292" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M292" s="11"/>
@@ -18972,40 +18964,40 @@
       <c r="Z292" s="11"/>
     </row>
     <row r="293" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A293" s="45" t="s">
+      <c r="A293" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B293" s="46" t="s">
+      <c r="B293" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="C293" s="46" t="s">
+      <c r="C293" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D293" s="46" t="s">
+      <c r="D293" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E293" s="46" t="s">
+      <c r="E293" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F293" s="46">
+      <c r="F293" s="42">
         <v>50309</v>
       </c>
-      <c r="G293" s="46" t="s">
+      <c r="G293" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H293" s="47">
+      <c r="H293" s="43">
         <v>1</v>
       </c>
-      <c r="I293" s="48" t="s">
+      <c r="I293" s="44" t="s">
         <v>835</v>
       </c>
-      <c r="J293" s="49">
+      <c r="J293" s="45">
         <v>45263</v>
       </c>
-      <c r="K293" s="46" t="s">
+      <c r="K293" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L293" s="46" t="s">
+      <c r="L293" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M293" s="11"/>
@@ -19024,40 +19016,40 @@
       <c r="Z293" s="11"/>
     </row>
     <row r="294" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A294" s="45" t="s">
+      <c r="A294" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B294" s="46" t="s">
+      <c r="B294" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C294" s="46" t="s">
+      <c r="C294" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="D294" s="46" t="s">
+      <c r="D294" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="46" t="s">
+      <c r="E294" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F294" s="46">
+      <c r="F294" s="42">
         <v>50265</v>
       </c>
-      <c r="G294" s="46" t="s">
+      <c r="G294" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H294" s="47">
+      <c r="H294" s="43">
         <v>34</v>
       </c>
-      <c r="I294" s="48" t="s">
+      <c r="I294" s="44" t="s">
         <v>835</v>
       </c>
-      <c r="J294" s="49">
+      <c r="J294" s="45">
         <v>45263</v>
       </c>
-      <c r="K294" s="46" t="s">
+      <c r="K294" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L294" s="46" t="s">
+      <c r="L294" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M294" s="11"/>
@@ -19076,40 +19068,40 @@
       <c r="Z294" s="11"/>
     </row>
     <row r="295" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A295" s="45" t="s">
+      <c r="A295" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B295" s="46" t="s">
+      <c r="B295" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="C295" s="46" t="s">
+      <c r="C295" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D295" s="46" t="s">
+      <c r="D295" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E295" s="46" t="s">
+      <c r="E295" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F295" s="46">
+      <c r="F295" s="42">
         <v>50309</v>
       </c>
-      <c r="G295" s="46" t="s">
+      <c r="G295" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H295" s="47">
+      <c r="H295" s="43">
         <v>4</v>
       </c>
-      <c r="I295" s="48" t="s">
+      <c r="I295" s="44" t="s">
         <v>836</v>
       </c>
-      <c r="J295" s="49">
+      <c r="J295" s="45">
         <v>45277</v>
       </c>
-      <c r="K295" s="46" t="s">
+      <c r="K295" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L295" s="46" t="s">
+      <c r="L295" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M295" s="11"/>
@@ -19128,40 +19120,40 @@
       <c r="Z295" s="11"/>
     </row>
     <row r="296" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A296" s="45" t="s">
+      <c r="A296" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B296" s="46" t="s">
+      <c r="B296" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="C296" s="46" t="s">
+      <c r="C296" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D296" s="46" t="s">
+      <c r="D296" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E296" s="46" t="s">
+      <c r="E296" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F296" s="46">
+      <c r="F296" s="42">
         <v>50309</v>
       </c>
-      <c r="G296" s="46" t="s">
+      <c r="G296" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H296" s="47">
+      <c r="H296" s="43">
         <v>1</v>
       </c>
-      <c r="I296" s="48" t="s">
+      <c r="I296" s="44" t="s">
         <v>836</v>
       </c>
-      <c r="J296" s="49">
+      <c r="J296" s="45">
         <v>45277</v>
       </c>
-      <c r="K296" s="46" t="s">
+      <c r="K296" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L296" s="46" t="s">
+      <c r="L296" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M296" s="11"/>
@@ -19180,40 +19172,40 @@
       <c r="Z296" s="11"/>
     </row>
     <row r="297" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A297" s="45" t="s">
+      <c r="A297" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B297" s="46" t="s">
+      <c r="B297" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C297" s="46" t="s">
+      <c r="C297" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D297" s="46" t="s">
+      <c r="D297" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E297" s="46" t="s">
+      <c r="E297" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F297" s="46">
+      <c r="F297" s="42">
         <v>50265</v>
       </c>
-      <c r="G297" s="46" t="s">
+      <c r="G297" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H297" s="47">
+      <c r="H297" s="43">
         <v>6</v>
       </c>
-      <c r="I297" s="48" t="s">
+      <c r="I297" s="44" t="s">
         <v>836</v>
       </c>
-      <c r="J297" s="49">
+      <c r="J297" s="45">
         <v>45277</v>
       </c>
-      <c r="K297" s="46" t="s">
+      <c r="K297" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L297" s="46" t="s">
+      <c r="L297" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M297" s="11"/>
@@ -19232,40 +19224,40 @@
       <c r="Z297" s="11"/>
     </row>
     <row r="298" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A298" s="45" t="s">
+      <c r="A298" s="41" t="s">
         <v>837</v>
       </c>
-      <c r="B298" s="46" t="s">
+      <c r="B298" s="42" t="s">
         <v>838</v>
       </c>
-      <c r="C298" s="46" t="s">
+      <c r="C298" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="D298" s="46" t="s">
+      <c r="D298" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E298" s="46" t="s">
+      <c r="E298" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F298" s="46">
+      <c r="F298" s="42">
         <v>52407</v>
       </c>
-      <c r="G298" s="46" t="s">
+      <c r="G298" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H298" s="47">
+      <c r="H298" s="43">
         <v>40</v>
       </c>
-      <c r="I298" s="48" t="s">
+      <c r="I298" s="44" t="s">
         <v>839</v>
       </c>
-      <c r="J298" s="49">
+      <c r="J298" s="45">
         <v>45223</v>
       </c>
-      <c r="K298" s="46" t="s">
+      <c r="K298" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="L298" s="46" t="s">
+      <c r="L298" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M298" s="11"/>
@@ -19284,40 +19276,40 @@
       <c r="Z298" s="11"/>
     </row>
     <row r="299" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A299" s="45" t="s">
+      <c r="A299" s="41" t="s">
         <v>840</v>
       </c>
-      <c r="B299" s="46" t="s">
+      <c r="B299" s="42" t="s">
         <v>841</v>
       </c>
-      <c r="C299" s="46" t="s">
+      <c r="C299" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D299" s="46" t="s">
+      <c r="D299" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E299" s="46" t="s">
+      <c r="E299" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F299" s="46">
+      <c r="F299" s="42">
         <v>50315</v>
       </c>
-      <c r="G299" s="46" t="s">
+      <c r="G299" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H299" s="47">
+      <c r="H299" s="43">
         <v>27</v>
       </c>
-      <c r="I299" s="48" t="s">
+      <c r="I299" s="44" t="s">
         <v>842</v>
       </c>
-      <c r="J299" s="49">
+      <c r="J299" s="45">
         <v>45237</v>
       </c>
-      <c r="K299" s="46" t="s">
+      <c r="K299" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L299" s="46" t="s">
+      <c r="L299" s="42" t="s">
         <v>710</v>
       </c>
       <c r="M299" s="11"/>
@@ -19336,40 +19328,40 @@
       <c r="Z299" s="11"/>
     </row>
     <row r="300" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A300" s="46" t="s">
+      <c r="A300" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="B300" s="46" t="s">
+      <c r="B300" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C300" s="46" t="s">
+      <c r="C300" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D300" s="46" t="s">
+      <c r="D300" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="46" t="s">
+      <c r="E300" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F300" s="46">
+      <c r="F300" s="42">
         <v>50265</v>
       </c>
-      <c r="G300" s="46" t="s">
+      <c r="G300" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H300" s="47">
+      <c r="H300" s="43">
         <v>1</v>
       </c>
-      <c r="I300" s="48" t="s">
+      <c r="I300" s="44" t="s">
         <v>843</v>
       </c>
-      <c r="J300" s="49">
+      <c r="J300" s="45">
         <v>45305</v>
       </c>
-      <c r="K300" s="46" t="s">
+      <c r="K300" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L300" s="46" t="s">
+      <c r="L300" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M300" s="11"/>
@@ -19388,40 +19380,40 @@
       <c r="Z300" s="11"/>
     </row>
     <row r="301" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A301" s="45" t="s">
+      <c r="A301" s="41" t="s">
         <v>844</v>
       </c>
-      <c r="B301" s="46" t="s">
+      <c r="B301" s="42" t="s">
         <v>845</v>
       </c>
-      <c r="C301" s="46" t="s">
+      <c r="C301" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D301" s="46" t="s">
+      <c r="D301" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E301" s="46" t="s">
+      <c r="E301" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F301" s="46">
+      <c r="F301" s="42">
         <v>50265</v>
       </c>
-      <c r="G301" s="46" t="s">
+      <c r="G301" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H301" s="47">
+      <c r="H301" s="43">
         <v>43</v>
       </c>
-      <c r="I301" s="48" t="s">
+      <c r="I301" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="J301" s="49">
+      <c r="J301" s="45">
         <v>45275</v>
       </c>
-      <c r="K301" s="46" t="s">
+      <c r="K301" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L301" s="46" t="s">
+      <c r="L301" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M301" s="11"/>
@@ -19440,40 +19432,40 @@
       <c r="Z301" s="11"/>
     </row>
     <row r="302" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A302" s="45" t="s">
+      <c r="A302" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="B302" s="46" t="s">
+      <c r="B302" s="42" t="s">
         <v>848</v>
       </c>
-      <c r="C302" s="46" t="s">
+      <c r="C302" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="D302" s="46" t="s">
+      <c r="D302" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="E302" s="46" t="s">
+      <c r="E302" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F302" s="46">
+      <c r="F302" s="42">
         <v>51301</v>
       </c>
-      <c r="G302" s="46" t="s">
+      <c r="G302" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H302" s="47">
+      <c r="H302" s="43">
         <v>5</v>
       </c>
-      <c r="I302" s="48" t="s">
+      <c r="I302" s="44" t="s">
         <v>849</v>
       </c>
-      <c r="J302" s="49">
+      <c r="J302" s="45">
         <v>45318</v>
       </c>
-      <c r="K302" s="46" t="s">
+      <c r="K302" s="42" t="s">
         <v>850</v>
       </c>
-      <c r="L302" s="46" t="s">
+      <c r="L302" s="42" t="s">
         <v>714</v>
       </c>
       <c r="M302" s="11"/>
@@ -19492,40 +19484,40 @@
       <c r="Z302" s="11"/>
     </row>
     <row r="303" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A303" s="45" t="s">
+      <c r="A303" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B303" s="46" t="s">
+      <c r="B303" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C303" s="46" t="s">
+      <c r="C303" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D303" s="46" t="s">
+      <c r="D303" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E303" s="46" t="s">
+      <c r="E303" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F303" s="46">
+      <c r="F303" s="42">
         <v>50265</v>
       </c>
-      <c r="G303" s="46" t="s">
+      <c r="G303" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H303" s="47">
+      <c r="H303" s="43">
         <v>8</v>
       </c>
-      <c r="I303" s="48" t="s">
+      <c r="I303" s="44" t="s">
         <v>849</v>
       </c>
-      <c r="J303" s="49">
+      <c r="J303" s="45">
         <v>45319</v>
       </c>
-      <c r="K303" s="46" t="s">
+      <c r="K303" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L303" s="46" t="s">
+      <c r="L303" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M303" s="11"/>
@@ -19544,40 +19536,40 @@
       <c r="Z303" s="11"/>
     </row>
     <row r="304" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A304" s="45" t="s">
+      <c r="A304" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="B304" s="46" t="s">
+      <c r="B304" s="42" t="s">
         <v>851</v>
       </c>
-      <c r="C304" s="46" t="s">
+      <c r="C304" s="42" t="s">
         <v>769</v>
       </c>
-      <c r="D304" s="46" t="s">
+      <c r="D304" s="42" t="s">
         <v>640</v>
       </c>
-      <c r="E304" s="46" t="s">
+      <c r="E304" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F304" s="46">
+      <c r="F304" s="42">
         <v>50158</v>
       </c>
-      <c r="G304" s="46" t="s">
+      <c r="G304" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H304" s="47">
+      <c r="H304" s="43">
         <v>1</v>
       </c>
-      <c r="I304" s="48" t="s">
+      <c r="I304" s="44" t="s">
         <v>852</v>
       </c>
-      <c r="J304" s="49">
+      <c r="J304" s="45">
         <v>45331</v>
       </c>
-      <c r="K304" s="46" t="s">
+      <c r="K304" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="L304" s="46" t="s">
+      <c r="L304" s="42" t="s">
         <v>714</v>
       </c>
       <c r="M304" s="11"/>
@@ -19596,40 +19588,40 @@
       <c r="Z304" s="11"/>
     </row>
     <row r="305" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A305" s="45" t="s">
+      <c r="A305" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B305" s="46" t="s">
+      <c r="B305" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C305" s="46" t="s">
+      <c r="C305" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D305" s="46" t="s">
+      <c r="D305" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E305" s="46" t="s">
+      <c r="E305" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F305" s="46">
+      <c r="F305" s="42">
         <v>50266</v>
       </c>
-      <c r="G305" s="46" t="s">
+      <c r="G305" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H305" s="47">
+      <c r="H305" s="43">
         <v>1</v>
       </c>
-      <c r="I305" s="48" t="s">
+      <c r="I305" s="44" t="s">
         <v>853</v>
       </c>
-      <c r="J305" s="49">
+      <c r="J305" s="45">
         <v>44969</v>
       </c>
-      <c r="K305" s="46" t="s">
+      <c r="K305" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L305" s="46" t="s">
+      <c r="L305" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M305" s="11"/>
@@ -19648,40 +19640,40 @@
       <c r="Z305" s="11"/>
     </row>
     <row r="306" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A306" s="45" t="s">
+      <c r="A306" s="41" t="s">
         <v>854</v>
       </c>
-      <c r="B306" s="46" t="s">
+      <c r="B306" s="42" t="s">
         <v>855</v>
       </c>
-      <c r="C306" s="46" t="s">
+      <c r="C306" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="D306" s="46" t="s">
+      <c r="D306" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E306" s="46" t="s">
+      <c r="E306" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F306" s="46">
+      <c r="F306" s="42">
         <v>52655</v>
       </c>
-      <c r="G306" s="46" t="s">
+      <c r="G306" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H306" s="47">
+      <c r="H306" s="43">
         <v>45</v>
       </c>
-      <c r="I306" s="48" t="s">
+      <c r="I306" s="44" t="s">
         <v>856</v>
       </c>
-      <c r="J306" s="49">
+      <c r="J306" s="45">
         <v>45345</v>
       </c>
-      <c r="K306" s="46" t="s">
+      <c r="K306" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L306" s="46" t="s">
+      <c r="L306" s="42" t="s">
         <v>501</v>
       </c>
       <c r="M306" s="11"/>
@@ -19700,40 +19692,40 @@
       <c r="Z306" s="11"/>
     </row>
     <row r="307" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A307" s="45" t="s">
+      <c r="A307" s="41" t="s">
         <v>854</v>
       </c>
-      <c r="B307" s="46" t="s">
+      <c r="B307" s="42" t="s">
         <v>857</v>
       </c>
-      <c r="C307" s="46" t="s">
+      <c r="C307" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="D307" s="46" t="s">
+      <c r="D307" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E307" s="46" t="s">
+      <c r="E307" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F307" s="46">
+      <c r="F307" s="42">
         <v>52655</v>
       </c>
-      <c r="G307" s="46" t="s">
+      <c r="G307" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H307" s="47">
+      <c r="H307" s="43">
         <v>11</v>
       </c>
-      <c r="I307" s="48" t="s">
+      <c r="I307" s="44" t="s">
         <v>856</v>
       </c>
-      <c r="J307" s="49">
+      <c r="J307" s="45">
         <v>45345</v>
       </c>
-      <c r="K307" s="46" t="s">
+      <c r="K307" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L307" s="46" t="s">
+      <c r="L307" s="42" t="s">
         <v>501</v>
       </c>
       <c r="M307" s="11"/>
@@ -19752,40 +19744,40 @@
       <c r="Z307" s="11"/>
     </row>
     <row r="308" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A308" s="45" t="s">
+      <c r="A308" s="41" t="s">
         <v>854</v>
       </c>
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="42" t="s">
         <v>858</v>
       </c>
-      <c r="C308" s="46" t="s">
+      <c r="C308" s="42" t="s">
         <v>859</v>
       </c>
-      <c r="D308" s="46" t="s">
+      <c r="D308" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="E308" s="46" t="s">
+      <c r="E308" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F308" s="46">
+      <c r="F308" s="42">
         <v>52627</v>
       </c>
-      <c r="G308" s="46" t="s">
+      <c r="G308" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H308" s="47">
+      <c r="H308" s="43">
         <v>11</v>
       </c>
-      <c r="I308" s="48" t="s">
+      <c r="I308" s="44" t="s">
         <v>856</v>
       </c>
-      <c r="J308" s="49">
+      <c r="J308" s="45">
         <v>45345</v>
       </c>
-      <c r="K308" s="46" t="s">
+      <c r="K308" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L308" s="46" t="s">
+      <c r="L308" s="42" t="s">
         <v>501</v>
       </c>
       <c r="M308" s="11"/>
@@ -19804,40 +19796,40 @@
       <c r="Z308" s="11"/>
     </row>
     <row r="309" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A309" s="45" t="s">
+      <c r="A309" s="41" t="s">
         <v>860</v>
       </c>
-      <c r="B309" s="46" t="s">
+      <c r="B309" s="42" t="s">
         <v>861</v>
       </c>
-      <c r="C309" s="46" t="s">
+      <c r="C309" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D309" s="46" t="s">
+      <c r="D309" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="E309" s="46" t="s">
+      <c r="E309" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F309" s="46">
+      <c r="F309" s="42">
         <v>50501</v>
       </c>
-      <c r="G309" s="46" t="s">
+      <c r="G309" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H309" s="47">
+      <c r="H309" s="43">
         <v>85</v>
       </c>
-      <c r="I309" s="48" t="s">
+      <c r="I309" s="44" t="s">
         <v>862</v>
       </c>
-      <c r="J309" s="49">
+      <c r="J309" s="45">
         <v>45322</v>
       </c>
-      <c r="K309" s="46" t="s">
+      <c r="K309" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="L309" s="52" t="s">
+      <c r="L309" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M309" s="11"/>
@@ -19856,40 +19848,40 @@
       <c r="Z309" s="11"/>
     </row>
     <row r="310" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A310" s="45" t="s">
+      <c r="A310" s="41" t="s">
         <v>863</v>
       </c>
-      <c r="B310" s="46" t="s">
+      <c r="B310" s="42" t="s">
         <v>864</v>
       </c>
-      <c r="C310" s="46" t="s">
+      <c r="C310" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D310" s="46" t="s">
+      <c r="D310" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E310" s="46" t="s">
+      <c r="E310" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F310" s="46">
+      <c r="F310" s="42">
         <v>52353</v>
       </c>
-      <c r="G310" s="46" t="s">
+      <c r="G310" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H310" s="47">
+      <c r="H310" s="43">
         <v>65</v>
       </c>
-      <c r="I310" s="48" t="s">
+      <c r="I310" s="44" t="s">
         <v>865</v>
       </c>
-      <c r="J310" s="49">
+      <c r="J310" s="45">
         <v>45292</v>
       </c>
-      <c r="K310" s="46" t="s">
+      <c r="K310" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="L310" s="46" t="s">
+      <c r="L310" s="42" t="s">
         <v>866</v>
       </c>
       <c r="M310" s="11"/>
@@ -19908,40 +19900,40 @@
       <c r="Z310" s="11"/>
     </row>
     <row r="311" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A311" s="45" t="s">
+      <c r="A311" s="41" t="s">
         <v>867</v>
       </c>
-      <c r="B311" s="46" t="s">
+      <c r="B311" s="42" t="s">
         <v>868</v>
       </c>
-      <c r="C311" s="46" t="s">
+      <c r="C311" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D311" s="46" t="s">
+      <c r="D311" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E311" s="46" t="s">
+      <c r="E311" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F311" s="46">
+      <c r="F311" s="42">
         <v>50010</v>
       </c>
-      <c r="G311" s="46" t="s">
+      <c r="G311" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H311" s="47">
+      <c r="H311" s="43">
         <v>46</v>
       </c>
-      <c r="I311" s="48" t="s">
+      <c r="I311" s="44" t="s">
         <v>869</v>
       </c>
-      <c r="J311" s="49">
+      <c r="J311" s="45">
         <v>45343</v>
       </c>
-      <c r="K311" s="46" t="s">
+      <c r="K311" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L311" s="52" t="s">
+      <c r="L311" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M311" s="11"/>
@@ -19960,40 +19952,40 @@
       <c r="Z311" s="11"/>
     </row>
     <row r="312" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A312" s="45" t="s">
+      <c r="A312" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="B312" s="46" t="s">
+      <c r="B312" s="42" t="s">
         <v>871</v>
       </c>
-      <c r="C312" s="46" t="s">
+      <c r="C312" s="42" t="s">
         <v>872</v>
       </c>
-      <c r="D312" s="46" t="s">
+      <c r="D312" s="42" t="s">
         <v>873</v>
       </c>
-      <c r="E312" s="46" t="s">
+      <c r="E312" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F312" s="46">
+      <c r="F312" s="42">
         <v>52233</v>
       </c>
-      <c r="G312" s="46" t="s">
+      <c r="G312" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H312" s="47">
+      <c r="H312" s="43">
         <v>35</v>
       </c>
-      <c r="I312" s="48" t="s">
+      <c r="I312" s="44" t="s">
         <v>874</v>
       </c>
-      <c r="J312" s="49">
+      <c r="J312" s="45">
         <v>45316</v>
       </c>
-      <c r="K312" s="46" t="s">
+      <c r="K312" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="L312" s="46" t="s">
+      <c r="L312" s="42" t="s">
         <v>875</v>
       </c>
       <c r="M312" s="11"/>
@@ -20012,40 +20004,40 @@
       <c r="Z312" s="11"/>
     </row>
     <row r="313" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A313" s="45" t="s">
+      <c r="A313" s="41" t="s">
         <v>876</v>
       </c>
-      <c r="B313" s="46" t="s">
+      <c r="B313" s="42" t="s">
         <v>877</v>
       </c>
-      <c r="C313" s="46" t="s">
+      <c r="C313" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D313" s="46" t="s">
+      <c r="D313" s="42" t="s">
         <v>803</v>
       </c>
-      <c r="E313" s="46" t="s">
+      <c r="E313" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F313" s="46">
+      <c r="F313" s="42">
         <v>52001</v>
       </c>
-      <c r="G313" s="46" t="s">
+      <c r="G313" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H313" s="47">
+      <c r="H313" s="43">
         <v>52</v>
       </c>
-      <c r="I313" s="48" t="s">
+      <c r="I313" s="44" t="s">
         <v>878</v>
       </c>
-      <c r="J313" s="49">
+      <c r="J313" s="45">
         <v>45323</v>
       </c>
-      <c r="K313" s="46" t="s">
+      <c r="K313" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L313" s="46" t="s">
+      <c r="L313" s="42" t="s">
         <v>501</v>
       </c>
       <c r="M313" s="11"/>
@@ -20064,40 +20056,40 @@
       <c r="Z313" s="11"/>
     </row>
     <row r="314" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A314" s="45" t="s">
+      <c r="A314" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="B314" s="46" t="s">
+      <c r="B314" s="42" t="s">
         <v>821</v>
       </c>
-      <c r="C314" s="46" t="s">
+      <c r="C314" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="D314" s="46" t="s">
+      <c r="D314" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E314" s="46" t="s">
+      <c r="E314" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F314" s="46">
+      <c r="F314" s="42">
         <v>50266</v>
       </c>
-      <c r="G314" s="46" t="s">
+      <c r="G314" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H314" s="47">
+      <c r="H314" s="43">
         <v>66</v>
       </c>
-      <c r="I314" s="48" t="s">
+      <c r="I314" s="44" t="s">
         <v>880</v>
       </c>
-      <c r="J314" s="49">
+      <c r="J314" s="45">
         <v>45324</v>
       </c>
-      <c r="K314" s="46" t="s">
+      <c r="K314" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L314" s="58" t="s">
+      <c r="L314" s="54" t="s">
         <v>91</v>
       </c>
       <c r="M314" s="11"/>
@@ -20116,40 +20108,40 @@
       <c r="Z314" s="11"/>
     </row>
     <row r="315" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A315" s="45" t="s">
+      <c r="A315" s="41" t="s">
         <v>881</v>
       </c>
-      <c r="B315" s="46" t="s">
+      <c r="B315" s="42" t="s">
         <v>882</v>
       </c>
-      <c r="C315" s="46" t="s">
+      <c r="C315" s="42" t="s">
         <v>883</v>
       </c>
-      <c r="D315" s="46" t="s">
+      <c r="D315" s="42" t="s">
         <v>883</v>
       </c>
-      <c r="E315" s="46" t="s">
+      <c r="E315" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F315" s="46">
+      <c r="F315" s="42">
         <v>52761</v>
       </c>
-      <c r="G315" s="46" t="s">
+      <c r="G315" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H315" s="47">
+      <c r="H315" s="43">
         <v>46</v>
       </c>
-      <c r="I315" s="48" t="s">
+      <c r="I315" s="44" t="s">
         <v>884</v>
       </c>
-      <c r="J315" s="49">
+      <c r="J315" s="45">
         <v>45364</v>
       </c>
-      <c r="K315" s="46" t="s">
+      <c r="K315" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="L315" s="46" t="s">
+      <c r="L315" s="42" t="s">
         <v>875</v>
       </c>
       <c r="M315" s="11"/>
@@ -20168,40 +20160,40 @@
       <c r="Z315" s="11"/>
     </row>
     <row r="316" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A316" s="45" t="s">
+      <c r="A316" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B316" s="46" t="s">
+      <c r="B316" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C316" s="46" t="s">
+      <c r="C316" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D316" s="46" t="s">
+      <c r="D316" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="46" t="s">
+      <c r="E316" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F316" s="46">
+      <c r="F316" s="42">
         <v>50266</v>
       </c>
-      <c r="G316" s="46" t="s">
+      <c r="G316" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H316" s="47">
+      <c r="H316" s="43">
         <v>6</v>
       </c>
-      <c r="I316" s="48" t="s">
+      <c r="I316" s="44" t="s">
         <v>885</v>
       </c>
-      <c r="J316" s="49">
+      <c r="J316" s="45">
         <v>45314</v>
       </c>
-      <c r="K316" s="46" t="s">
+      <c r="K316" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L316" s="46" t="s">
+      <c r="L316" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M316" s="11"/>
@@ -20220,40 +20212,40 @@
       <c r="Z316" s="11"/>
     </row>
     <row r="317" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A317" s="45" t="s">
+      <c r="A317" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B317" s="46" t="s">
+      <c r="B317" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C317" s="46" t="s">
+      <c r="C317" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D317" s="46" t="s">
+      <c r="D317" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="46" t="s">
+      <c r="E317" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F317" s="46">
+      <c r="F317" s="42">
         <v>50266</v>
       </c>
-      <c r="G317" s="46" t="s">
+      <c r="G317" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H317" s="47">
+      <c r="H317" s="43">
         <v>5</v>
       </c>
-      <c r="I317" s="48" t="s">
+      <c r="I317" s="44" t="s">
         <v>885</v>
       </c>
-      <c r="J317" s="49">
+      <c r="J317" s="45">
         <v>45328</v>
       </c>
-      <c r="K317" s="46" t="s">
+      <c r="K317" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L317" s="46" t="s">
+      <c r="L317" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M317" s="11"/>
@@ -20272,40 +20264,40 @@
       <c r="Z317" s="11"/>
     </row>
     <row r="318" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A318" s="45" t="s">
+      <c r="A318" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B318" s="46" t="s">
+      <c r="B318" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C318" s="46" t="s">
+      <c r="C318" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D318" s="46" t="s">
+      <c r="D318" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="46" t="s">
+      <c r="E318" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F318" s="46">
+      <c r="F318" s="42">
         <v>50266</v>
       </c>
-      <c r="G318" s="46" t="s">
+      <c r="G318" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H318" s="47">
+      <c r="H318" s="43">
         <v>25</v>
       </c>
-      <c r="I318" s="48" t="s">
+      <c r="I318" s="44" t="s">
         <v>885</v>
       </c>
-      <c r="J318" s="49">
+      <c r="J318" s="45">
         <v>45342</v>
       </c>
-      <c r="K318" s="46" t="s">
+      <c r="K318" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L318" s="46" t="s">
+      <c r="L318" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M318" s="11"/>
@@ -20324,40 +20316,40 @@
       <c r="Z318" s="11"/>
     </row>
     <row r="319" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A319" s="45" t="s">
+      <c r="A319" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="B319" s="46" t="s">
+      <c r="B319" s="42" t="s">
         <v>886</v>
       </c>
-      <c r="C319" s="46" t="s">
+      <c r="C319" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D319" s="46" t="s">
+      <c r="D319" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="46" t="s">
+      <c r="E319" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F319" s="46">
+      <c r="F319" s="42">
         <v>50266</v>
       </c>
-      <c r="G319" s="46" t="s">
+      <c r="G319" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H319" s="47">
+      <c r="H319" s="43">
         <v>44</v>
       </c>
-      <c r="I319" s="48" t="s">
+      <c r="I319" s="44" t="s">
         <v>887</v>
       </c>
-      <c r="J319" s="49">
+      <c r="J319" s="45">
         <v>45344</v>
       </c>
-      <c r="K319" s="46" t="s">
+      <c r="K319" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L319" s="46" t="s">
+      <c r="L319" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M319" s="11"/>
@@ -20376,40 +20368,40 @@
       <c r="Z319" s="11"/>
     </row>
     <row r="320" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A320" s="45" t="s">
+      <c r="A320" s="41" t="s">
         <v>888</v>
       </c>
-      <c r="B320" s="46" t="s">
+      <c r="B320" s="42" t="s">
         <v>889</v>
       </c>
-      <c r="C320" s="46" t="s">
+      <c r="C320" s="42" t="s">
         <v>890</v>
       </c>
-      <c r="D320" s="46" t="s">
+      <c r="D320" s="42" t="s">
         <v>891</v>
       </c>
-      <c r="E320" s="46" t="s">
+      <c r="E320" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F320" s="46">
+      <c r="F320" s="42">
         <v>50213</v>
       </c>
-      <c r="G320" s="46" t="s">
+      <c r="G320" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H320" s="47">
+      <c r="H320" s="43">
         <v>5</v>
       </c>
-      <c r="I320" s="48" t="s">
+      <c r="I320" s="44" t="s">
         <v>892</v>
       </c>
-      <c r="J320" s="49">
+      <c r="J320" s="45">
         <v>45415</v>
       </c>
-      <c r="K320" s="46" t="s">
+      <c r="K320" s="42" t="s">
         <v>850</v>
       </c>
-      <c r="L320" s="46" t="s">
+      <c r="L320" s="42" t="s">
         <v>714</v>
       </c>
       <c r="M320" s="11"/>
@@ -20428,40 +20420,40 @@
       <c r="Z320" s="11"/>
     </row>
     <row r="321" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A321" s="45" t="s">
+      <c r="A321" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B321" s="46" t="s">
+      <c r="B321" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C321" s="46" t="s">
+      <c r="C321" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D321" s="46" t="s">
+      <c r="D321" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="46" t="s">
+      <c r="E321" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F321" s="46">
+      <c r="F321" s="42">
         <v>50266</v>
       </c>
-      <c r="G321" s="46" t="s">
+      <c r="G321" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H321" s="47">
+      <c r="H321" s="43">
         <v>22</v>
       </c>
-      <c r="I321" s="48" t="s">
+      <c r="I321" s="44" t="s">
         <v>893</v>
       </c>
-      <c r="J321" s="49">
+      <c r="J321" s="45">
         <v>45356</v>
       </c>
-      <c r="K321" s="46" t="s">
+      <c r="K321" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L321" s="46" t="s">
+      <c r="L321" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M321" s="11"/>
@@ -20480,40 +20472,40 @@
       <c r="Z321" s="11"/>
     </row>
     <row r="322" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A322" s="45" t="s">
+      <c r="A322" s="41" t="s">
         <v>894</v>
       </c>
-      <c r="B322" s="46" t="s">
+      <c r="B322" s="42" t="s">
         <v>895</v>
       </c>
-      <c r="C322" s="46" t="s">
+      <c r="C322" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="D322" s="46" t="s">
+      <c r="D322" s="42" t="s">
         <v>897</v>
       </c>
-      <c r="E322" s="46" t="s">
+      <c r="E322" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F322" s="46">
+      <c r="F322" s="42">
         <v>50220</v>
       </c>
-      <c r="G322" s="46" t="s">
+      <c r="G322" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H322" s="47">
+      <c r="H322" s="43">
         <v>1276</v>
       </c>
-      <c r="I322" s="48" t="s">
+      <c r="I322" s="44" t="s">
         <v>898</v>
       </c>
-      <c r="J322" s="49">
+      <c r="J322" s="45">
         <v>45471</v>
       </c>
-      <c r="K322" s="46" t="s">
+      <c r="K322" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L322" s="50" t="s">
+      <c r="L322" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M322" s="11"/>
@@ -20531,301 +20523,301 @@
       <c r="Y322" s="11"/>
       <c r="Z322" s="11"/>
     </row>
-    <row r="323" spans="1:26" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A323" s="45" t="s">
+    <row r="323" spans="1:26" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A323" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="B323" s="46" t="s">
+      <c r="B323" s="42" t="s">
         <v>900</v>
       </c>
-      <c r="C323" s="46" t="s">
+      <c r="C323" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D323" s="46" t="s">
+      <c r="D323" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="46" t="s">
+      <c r="E323" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F323" s="46">
+      <c r="F323" s="42">
         <v>50023</v>
       </c>
-      <c r="G323" s="46" t="s">
+      <c r="G323" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H323" s="47">
+      <c r="H323" s="43">
         <v>30</v>
       </c>
-      <c r="I323" s="48" t="s">
+      <c r="I323" s="44" t="s">
         <v>901</v>
       </c>
-      <c r="J323" s="49">
+      <c r="J323" s="45">
         <v>45390</v>
       </c>
-      <c r="K323" s="46" t="s">
+      <c r="K323" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L323" s="50" t="s">
+      <c r="L323" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M323" s="39"/>
-      <c r="N323" s="39"/>
-      <c r="O323" s="39"/>
-      <c r="P323" s="39"/>
-      <c r="Q323" s="39"/>
-      <c r="R323" s="39"/>
-      <c r="S323" s="39"/>
-      <c r="T323" s="39"/>
-      <c r="U323" s="39"/>
-      <c r="V323" s="39"/>
-      <c r="W323" s="39"/>
-      <c r="X323" s="39"/>
-      <c r="Y323" s="39"/>
-      <c r="Z323" s="39"/>
-    </row>
-    <row r="324" spans="1:26" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A324" s="45" t="s">
+      <c r="M323" s="42"/>
+      <c r="N323" s="42"/>
+      <c r="O323" s="42"/>
+      <c r="P323" s="42"/>
+      <c r="Q323" s="42"/>
+      <c r="R323" s="42"/>
+      <c r="S323" s="42"/>
+      <c r="T323" s="42"/>
+      <c r="U323" s="42"/>
+      <c r="V323" s="42"/>
+      <c r="W323" s="42"/>
+      <c r="X323" s="42"/>
+      <c r="Y323" s="42"/>
+      <c r="Z323" s="42"/>
+    </row>
+    <row r="324" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A324" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="B324" s="46" t="s">
+      <c r="B324" s="42" t="s">
         <v>900</v>
       </c>
-      <c r="C324" s="46" t="s">
+      <c r="C324" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D324" s="46" t="s">
+      <c r="D324" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="46" t="s">
+      <c r="E324" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F324" s="46">
+      <c r="F324" s="42">
         <v>50023</v>
       </c>
-      <c r="G324" s="46" t="s">
+      <c r="G324" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H324" s="47">
+      <c r="H324" s="43">
         <v>30</v>
       </c>
-      <c r="I324" s="48" t="s">
+      <c r="I324" s="44" t="s">
         <v>901</v>
       </c>
-      <c r="J324" s="49">
+      <c r="J324" s="45">
         <v>45397</v>
       </c>
-      <c r="K324" s="46" t="s">
+      <c r="K324" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L324" s="50" t="s">
+      <c r="L324" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M324" s="39"/>
-      <c r="N324" s="39"/>
-      <c r="O324" s="39"/>
-      <c r="P324" s="39"/>
-      <c r="Q324" s="39"/>
-      <c r="R324" s="39"/>
-      <c r="S324" s="39"/>
-      <c r="T324" s="39"/>
-      <c r="U324" s="39"/>
-      <c r="V324" s="39"/>
-      <c r="W324" s="39"/>
-      <c r="X324" s="39"/>
-      <c r="Y324" s="39"/>
-      <c r="Z324" s="39"/>
-    </row>
-    <row r="325" spans="1:26" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A325" s="45" t="s">
+      <c r="M324" s="42"/>
+      <c r="N324" s="42"/>
+      <c r="O324" s="42"/>
+      <c r="P324" s="42"/>
+      <c r="Q324" s="42"/>
+      <c r="R324" s="42"/>
+      <c r="S324" s="42"/>
+      <c r="T324" s="42"/>
+      <c r="U324" s="42"/>
+      <c r="V324" s="42"/>
+      <c r="W324" s="42"/>
+      <c r="X324" s="42"/>
+      <c r="Y324" s="42"/>
+      <c r="Z324" s="42"/>
+    </row>
+    <row r="325" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A325" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="B325" s="46" t="s">
+      <c r="B325" s="42" t="s">
         <v>900</v>
       </c>
-      <c r="C325" s="46" t="s">
+      <c r="C325" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D325" s="46" t="s">
+      <c r="D325" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="46" t="s">
+      <c r="E325" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F325" s="46">
+      <c r="F325" s="42">
         <v>50023</v>
       </c>
-      <c r="G325" s="46" t="s">
+      <c r="G325" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H325" s="47">
+      <c r="H325" s="43">
         <v>30</v>
       </c>
-      <c r="I325" s="48" t="s">
+      <c r="I325" s="44" t="s">
         <v>901</v>
       </c>
-      <c r="J325" s="49">
+      <c r="J325" s="45">
         <v>45411</v>
       </c>
-      <c r="K325" s="46" t="s">
+      <c r="K325" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L325" s="50" t="s">
+      <c r="L325" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M325" s="39"/>
-      <c r="N325" s="39"/>
-      <c r="O325" s="39"/>
-      <c r="P325" s="39"/>
-      <c r="Q325" s="39"/>
-      <c r="R325" s="39"/>
-      <c r="S325" s="39"/>
-      <c r="T325" s="39"/>
-      <c r="U325" s="39"/>
-      <c r="V325" s="39"/>
-      <c r="W325" s="39"/>
-      <c r="X325" s="39"/>
-      <c r="Y325" s="39"/>
-      <c r="Z325" s="39"/>
-    </row>
-    <row r="326" spans="1:26" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A326" s="45" t="s">
+      <c r="M325" s="42"/>
+      <c r="N325" s="42"/>
+      <c r="O325" s="42"/>
+      <c r="P325" s="42"/>
+      <c r="Q325" s="42"/>
+      <c r="R325" s="42"/>
+      <c r="S325" s="42"/>
+      <c r="T325" s="42"/>
+      <c r="U325" s="42"/>
+      <c r="V325" s="42"/>
+      <c r="W325" s="42"/>
+      <c r="X325" s="42"/>
+      <c r="Y325" s="42"/>
+      <c r="Z325" s="42"/>
+    </row>
+    <row r="326" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A326" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="B326" s="46" t="s">
+      <c r="B326" s="42" t="s">
         <v>900</v>
       </c>
-      <c r="C326" s="46" t="s">
+      <c r="C326" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D326" s="46" t="s">
+      <c r="D326" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="46" t="s">
+      <c r="E326" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F326" s="46">
+      <c r="F326" s="42">
         <v>50023</v>
       </c>
-      <c r="G326" s="46" t="s">
+      <c r="G326" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H326" s="47">
+      <c r="H326" s="43">
         <v>30</v>
       </c>
-      <c r="I326" s="48" t="s">
+      <c r="I326" s="44" t="s">
         <v>901</v>
       </c>
-      <c r="J326" s="49">
+      <c r="J326" s="45">
         <v>45418</v>
       </c>
-      <c r="K326" s="46" t="s">
+      <c r="K326" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L326" s="50" t="s">
+      <c r="L326" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M326" s="39"/>
-      <c r="N326" s="39"/>
-      <c r="O326" s="39"/>
-      <c r="P326" s="39"/>
-      <c r="Q326" s="39"/>
-      <c r="R326" s="39"/>
-      <c r="S326" s="39"/>
-      <c r="T326" s="39"/>
-      <c r="U326" s="39"/>
-      <c r="V326" s="39"/>
-      <c r="W326" s="39"/>
-      <c r="X326" s="39"/>
-      <c r="Y326" s="39"/>
-      <c r="Z326" s="39"/>
-    </row>
-    <row r="327" spans="1:26" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A327" s="45" t="s">
+      <c r="M326" s="42"/>
+      <c r="N326" s="42"/>
+      <c r="O326" s="42"/>
+      <c r="P326" s="42"/>
+      <c r="Q326" s="42"/>
+      <c r="R326" s="42"/>
+      <c r="S326" s="42"/>
+      <c r="T326" s="42"/>
+      <c r="U326" s="42"/>
+      <c r="V326" s="42"/>
+      <c r="W326" s="42"/>
+      <c r="X326" s="42"/>
+      <c r="Y326" s="42"/>
+      <c r="Z326" s="42"/>
+    </row>
+    <row r="327" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A327" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="B327" s="46" t="s">
+      <c r="B327" s="42" t="s">
         <v>900</v>
       </c>
-      <c r="C327" s="46" t="s">
+      <c r="C327" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D327" s="46" t="s">
+      <c r="D327" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="46" t="s">
+      <c r="E327" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F327" s="46">
+      <c r="F327" s="42">
         <v>50023</v>
       </c>
-      <c r="G327" s="46" t="s">
+      <c r="G327" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H327" s="47">
+      <c r="H327" s="43">
         <v>30</v>
       </c>
-      <c r="I327" s="48" t="s">
+      <c r="I327" s="44" t="s">
         <v>901</v>
       </c>
-      <c r="J327" s="49">
+      <c r="J327" s="45">
         <v>45432</v>
       </c>
-      <c r="K327" s="46" t="s">
+      <c r="K327" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L327" s="50" t="s">
+      <c r="L327" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M327" s="39"/>
-      <c r="N327" s="39"/>
-      <c r="O327" s="39"/>
-      <c r="P327" s="39"/>
-      <c r="Q327" s="39"/>
-      <c r="R327" s="39"/>
-      <c r="S327" s="39"/>
-      <c r="T327" s="39"/>
-      <c r="U327" s="39"/>
-      <c r="V327" s="39"/>
-      <c r="W327" s="39"/>
-      <c r="X327" s="39"/>
-      <c r="Y327" s="39"/>
-      <c r="Z327" s="39"/>
+      <c r="M327" s="42"/>
+      <c r="N327" s="42"/>
+      <c r="O327" s="42"/>
+      <c r="P327" s="42"/>
+      <c r="Q327" s="42"/>
+      <c r="R327" s="42"/>
+      <c r="S327" s="42"/>
+      <c r="T327" s="42"/>
+      <c r="U327" s="42"/>
+      <c r="V327" s="42"/>
+      <c r="W327" s="42"/>
+      <c r="X327" s="42"/>
+      <c r="Y327" s="42"/>
+      <c r="Z327" s="42"/>
     </row>
     <row r="328" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A328" s="45" t="s">
+      <c r="A328" s="41" t="s">
         <v>902</v>
       </c>
-      <c r="B328" s="46" t="s">
+      <c r="B328" s="42" t="s">
         <v>903</v>
       </c>
-      <c r="C328" s="46" t="s">
+      <c r="C328" s="42" t="s">
         <v>904</v>
       </c>
-      <c r="D328" s="46" t="s">
+      <c r="D328" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E328" s="46" t="s">
+      <c r="E328" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F328" s="46">
+      <c r="F328" s="42">
         <v>52556</v>
       </c>
-      <c r="G328" s="46" t="s">
+      <c r="G328" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H328" s="47">
+      <c r="H328" s="43">
         <v>46</v>
       </c>
-      <c r="I328" s="48" t="s">
+      <c r="I328" s="44" t="s">
         <v>901</v>
       </c>
-      <c r="J328" s="49">
+      <c r="J328" s="45">
         <v>45395</v>
       </c>
-      <c r="K328" s="46" t="s">
+      <c r="K328" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="L328" s="50" t="s">
+      <c r="L328" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M328" s="11"/>
@@ -20844,40 +20836,40 @@
       <c r="Z328" s="11"/>
     </row>
     <row r="329" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A329" s="45" t="s">
+      <c r="A329" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B329" s="46" t="s">
+      <c r="B329" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C329" s="46" t="s">
+      <c r="C329" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D329" s="46" t="s">
+      <c r="D329" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="46" t="s">
+      <c r="E329" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F329" s="46">
+      <c r="F329" s="42">
         <v>50266</v>
       </c>
-      <c r="G329" s="46" t="s">
+      <c r="G329" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="H329" s="47">
+      <c r="H329" s="43">
         <v>13</v>
       </c>
-      <c r="I329" s="48" t="s">
+      <c r="I329" s="44" t="s">
         <v>905</v>
       </c>
-      <c r="J329" s="49">
+      <c r="J329" s="45">
         <v>45370</v>
       </c>
-      <c r="K329" s="46" t="s">
+      <c r="K329" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L329" s="46" t="s">
+      <c r="L329" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M329" s="11"/>
@@ -20895,93 +20887,93 @@
       <c r="Y329" s="11"/>
       <c r="Z329" s="11"/>
     </row>
-    <row r="330" spans="1:26" s="42" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A330" s="45" t="s">
+    <row r="330" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A330" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="B330" s="46" t="s">
+      <c r="B330" s="42" t="s">
         <v>907</v>
       </c>
-      <c r="C330" s="46" t="s">
+      <c r="C330" s="42" t="s">
         <v>603</v>
       </c>
-      <c r="D330" s="46" t="s">
+      <c r="D330" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E330" s="46" t="s">
+      <c r="E330" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F330" s="46">
+      <c r="F330" s="42">
         <v>50704</v>
       </c>
-      <c r="G330" s="46" t="s">
+      <c r="G330" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H330" s="47">
+      <c r="H330" s="43">
         <v>308</v>
       </c>
-      <c r="I330" s="48" t="s">
+      <c r="I330" s="44" t="s">
         <v>908</v>
       </c>
-      <c r="J330" s="49">
+      <c r="J330" s="45">
         <v>45408</v>
       </c>
-      <c r="K330" s="46" t="s">
+      <c r="K330" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L330" s="50" t="s">
+      <c r="L330" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M330" s="41"/>
-      <c r="N330" s="41"/>
-      <c r="O330" s="41"/>
-      <c r="P330" s="41"/>
-      <c r="Q330" s="41"/>
-      <c r="R330" s="41"/>
-      <c r="S330" s="41"/>
-      <c r="T330" s="41"/>
-      <c r="U330" s="41"/>
-      <c r="V330" s="41"/>
-      <c r="W330" s="41"/>
-      <c r="X330" s="41"/>
-      <c r="Y330" s="41"/>
-      <c r="Z330" s="41"/>
+      <c r="M330" s="42"/>
+      <c r="N330" s="42"/>
+      <c r="O330" s="42"/>
+      <c r="P330" s="42"/>
+      <c r="Q330" s="42"/>
+      <c r="R330" s="42"/>
+      <c r="S330" s="42"/>
+      <c r="T330" s="42"/>
+      <c r="U330" s="42"/>
+      <c r="V330" s="42"/>
+      <c r="W330" s="42"/>
+      <c r="X330" s="42"/>
+      <c r="Y330" s="42"/>
+      <c r="Z330" s="42"/>
     </row>
     <row r="331" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A331" s="45" t="s">
+      <c r="A331" s="41" t="s">
         <v>909</v>
       </c>
-      <c r="B331" s="46" t="s">
+      <c r="B331" s="42" t="s">
         <v>910</v>
       </c>
-      <c r="C331" s="46" t="s">
+      <c r="C331" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="D331" s="46" t="s">
+      <c r="D331" s="42" t="s">
         <v>897</v>
       </c>
-      <c r="E331" s="46" t="s">
+      <c r="E331" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F331" s="46">
+      <c r="F331" s="42">
         <v>50220</v>
       </c>
-      <c r="G331" s="46" t="s">
+      <c r="G331" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H331" s="47">
+      <c r="H331" s="43">
         <v>76</v>
       </c>
-      <c r="I331" s="48" t="s">
+      <c r="I331" s="44" t="s">
         <v>911</v>
       </c>
-      <c r="J331" s="49">
+      <c r="J331" s="45">
         <v>45471</v>
       </c>
-      <c r="K331" s="46" t="s">
+      <c r="K331" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L331" s="59" t="s">
+      <c r="L331" s="55" t="s">
         <v>771</v>
       </c>
       <c r="M331" s="11"/>
@@ -21000,40 +20992,40 @@
       <c r="Z331" s="11"/>
     </row>
     <row r="332" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A332" s="45" t="s">
+      <c r="A332" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="B332" s="46" t="s">
+      <c r="B332" s="42" t="s">
         <v>913</v>
       </c>
-      <c r="C332" s="46" t="s">
+      <c r="C332" s="42" t="s">
         <v>914</v>
       </c>
-      <c r="D332" s="46" t="s">
+      <c r="D332" s="42" t="s">
         <v>739</v>
       </c>
-      <c r="E332" s="46" t="s">
+      <c r="E332" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F332" s="46">
+      <c r="F332" s="42">
         <v>52776</v>
       </c>
-      <c r="G332" s="46" t="s">
+      <c r="G332" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H332" s="47">
+      <c r="H332" s="43">
         <v>24</v>
       </c>
-      <c r="I332" s="48" t="s">
+      <c r="I332" s="44" t="s">
         <v>915</v>
       </c>
-      <c r="J332" s="49">
+      <c r="J332" s="45">
         <v>45418</v>
       </c>
-      <c r="K332" s="46" t="s">
+      <c r="K332" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="L332" s="50" t="s">
+      <c r="L332" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M332" s="11"/>
@@ -21052,40 +21044,40 @@
       <c r="Z332" s="11"/>
     </row>
     <row r="333" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A333" s="45" t="s">
+      <c r="A333" s="41" t="s">
         <v>916</v>
       </c>
-      <c r="B333" s="46" t="s">
+      <c r="B333" s="42" t="s">
         <v>917</v>
       </c>
-      <c r="C333" s="46" t="s">
+      <c r="C333" s="42" t="s">
         <v>883</v>
       </c>
-      <c r="D333" s="46" t="s">
+      <c r="D333" s="42" t="s">
         <v>883</v>
       </c>
-      <c r="E333" s="46" t="s">
+      <c r="E333" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F333" s="46">
+      <c r="F333" s="42">
         <v>52761</v>
       </c>
-      <c r="G333" s="46" t="s">
+      <c r="G333" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H333" s="47">
+      <c r="H333" s="43">
         <v>28</v>
       </c>
-      <c r="I333" s="48" t="s">
+      <c r="I333" s="44" t="s">
         <v>915</v>
       </c>
-      <c r="J333" s="49">
+      <c r="J333" s="45">
         <v>45434</v>
       </c>
-      <c r="K333" s="46" t="s">
+      <c r="K333" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="L333" s="46" t="s">
+      <c r="L333" s="42" t="s">
         <v>231</v>
       </c>
       <c r="M333" s="11"/>
@@ -21104,40 +21096,40 @@
       <c r="Z333" s="11"/>
     </row>
     <row r="334" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A334" s="45" t="s">
+      <c r="A334" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B334" s="46" t="s">
+      <c r="B334" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C334" s="46" t="s">
+      <c r="C334" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D334" s="46" t="s">
+      <c r="D334" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E334" s="46" t="s">
+      <c r="E334" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F334" s="46">
+      <c r="F334" s="42">
         <v>50266</v>
       </c>
-      <c r="G334" s="46" t="s">
+      <c r="G334" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="H334" s="47">
+      <c r="H334" s="43">
         <v>5</v>
       </c>
-      <c r="I334" s="48" t="s">
+      <c r="I334" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="J334" s="49">
+      <c r="J334" s="45">
         <v>45384</v>
       </c>
-      <c r="K334" s="46" t="s">
+      <c r="K334" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L334" s="46" t="s">
+      <c r="L334" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M334" s="11"/>
@@ -21156,40 +21148,40 @@
       <c r="Z334" s="11"/>
     </row>
     <row r="335" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A335" s="45" t="s">
+      <c r="A335" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="B335" s="46" t="s">
+      <c r="B335" s="42" t="s">
         <v>920</v>
       </c>
-      <c r="C335" s="46" t="s">
+      <c r="C335" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="D335" s="46" t="s">
+      <c r="D335" s="42" t="s">
         <v>921</v>
       </c>
-      <c r="E335" s="46" t="s">
+      <c r="E335" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F335" s="46">
+      <c r="F335" s="42">
         <v>50588</v>
       </c>
-      <c r="G335" s="46" t="s">
+      <c r="G335" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H335" s="47">
+      <c r="H335" s="43">
         <v>14</v>
       </c>
-      <c r="I335" s="48" t="s">
+      <c r="I335" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J335" s="49">
+      <c r="J335" s="45">
         <v>45415</v>
       </c>
-      <c r="K335" s="46" t="s">
+      <c r="K335" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="L335" s="50" t="s">
+      <c r="L335" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M335" s="11"/>
@@ -21208,40 +21200,40 @@
       <c r="Z335" s="11"/>
     </row>
     <row r="336" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A336" s="45" t="s">
+      <c r="A336" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="B336" s="46" t="s">
+      <c r="B336" s="42" t="s">
         <v>920</v>
       </c>
-      <c r="C336" s="46" t="s">
+      <c r="C336" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="D336" s="46" t="s">
+      <c r="D336" s="42" t="s">
         <v>921</v>
       </c>
-      <c r="E336" s="46" t="s">
+      <c r="E336" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F336" s="46">
+      <c r="F336" s="42">
         <v>50588</v>
       </c>
-      <c r="G336" s="46" t="s">
+      <c r="G336" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H336" s="47">
+      <c r="H336" s="43">
         <v>5</v>
       </c>
-      <c r="I336" s="48" t="s">
+      <c r="I336" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="J336" s="49">
+      <c r="J336" s="45">
         <v>45473</v>
       </c>
-      <c r="K336" s="46" t="s">
+      <c r="K336" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="L336" s="50" t="s">
+      <c r="L336" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M336" s="11"/>
@@ -21260,40 +21252,40 @@
       <c r="Z336" s="11"/>
     </row>
     <row r="337" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A337" s="45" t="s">
+      <c r="A337" s="41" t="s">
         <v>923</v>
       </c>
-      <c r="B337" s="46" t="s">
+      <c r="B337" s="42" t="s">
         <v>924</v>
       </c>
-      <c r="C337" s="46" t="s">
+      <c r="C337" s="42" t="s">
         <v>904</v>
       </c>
-      <c r="D337" s="46" t="s">
+      <c r="D337" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E337" s="46" t="s">
+      <c r="E337" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F337" s="46">
+      <c r="F337" s="42">
         <v>52557</v>
       </c>
-      <c r="G337" s="46" t="s">
+      <c r="G337" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H337" s="47">
+      <c r="H337" s="43">
         <v>30</v>
       </c>
-      <c r="I337" s="48" t="s">
+      <c r="I337" s="44" t="s">
         <v>925</v>
       </c>
-      <c r="J337" s="49">
+      <c r="J337" s="45">
         <v>45387</v>
       </c>
-      <c r="K337" s="46" t="s">
+      <c r="K337" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="L337" s="46" t="s">
+      <c r="L337" s="42" t="s">
         <v>926</v>
       </c>
       <c r="M337" s="11"/>
@@ -21312,40 +21304,40 @@
       <c r="Z337" s="11"/>
     </row>
     <row r="338" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A338" s="45" t="s">
+      <c r="A338" s="41" t="s">
         <v>927</v>
       </c>
-      <c r="B338" s="46" t="s">
+      <c r="B338" s="42" t="s">
         <v>928</v>
       </c>
-      <c r="C338" s="46" t="s">
+      <c r="C338" s="42" t="s">
         <v>929</v>
       </c>
-      <c r="D338" s="46" t="s">
+      <c r="D338" s="42" t="s">
         <v>930</v>
       </c>
-      <c r="E338" s="46" t="s">
+      <c r="E338" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F338" s="46">
+      <c r="F338" s="42">
         <v>52531</v>
       </c>
-      <c r="G338" s="46" t="s">
+      <c r="G338" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H338" s="47">
+      <c r="H338" s="43">
         <v>35</v>
       </c>
-      <c r="I338" s="48" t="s">
+      <c r="I338" s="44" t="s">
         <v>925</v>
       </c>
-      <c r="J338" s="49">
+      <c r="J338" s="45">
         <v>45444</v>
       </c>
-      <c r="K338" s="46" t="s">
+      <c r="K338" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="L338" s="46" t="s">
+      <c r="L338" s="42" t="s">
         <v>501</v>
       </c>
       <c r="M338" s="11"/>
@@ -21364,40 +21356,40 @@
       <c r="Z338" s="11"/>
     </row>
     <row r="339" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A339" s="45" t="s">
+      <c r="A339" s="41" t="s">
         <v>931</v>
       </c>
-      <c r="B339" s="46" t="s">
+      <c r="B339" s="42" t="s">
         <v>932</v>
       </c>
-      <c r="C339" s="46" t="s">
+      <c r="C339" s="42" t="s">
         <v>933</v>
       </c>
-      <c r="D339" s="46" t="s">
+      <c r="D339" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E339" s="46" t="s">
+      <c r="E339" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F339" s="46">
+      <c r="F339" s="42">
         <v>52730</v>
       </c>
-      <c r="G339" s="46" t="s">
+      <c r="G339" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H339" s="47">
+      <c r="H339" s="43">
         <v>69</v>
       </c>
-      <c r="I339" s="48" t="s">
+      <c r="I339" s="44" t="s">
         <v>934</v>
       </c>
-      <c r="J339" s="49">
+      <c r="J339" s="45">
         <v>45443</v>
       </c>
-      <c r="K339" s="46" t="s">
+      <c r="K339" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="L339" s="46" t="s">
+      <c r="L339" s="42" t="s">
         <v>91</v>
       </c>
       <c r="M339" s="11"/>
@@ -21416,40 +21408,40 @@
       <c r="Z339" s="11"/>
     </row>
     <row r="340" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A340" s="45" t="s">
+      <c r="A340" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B340" s="46" t="s">
+      <c r="B340" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C340" s="46" t="s">
+      <c r="C340" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D340" s="46" t="s">
+      <c r="D340" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="46" t="s">
+      <c r="E340" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F340" s="46">
+      <c r="F340" s="42">
         <v>50266</v>
       </c>
-      <c r="G340" s="46" t="s">
+      <c r="G340" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="H340" s="47">
+      <c r="H340" s="43">
         <v>7</v>
       </c>
-      <c r="I340" s="48" t="s">
+      <c r="I340" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="J340" s="49">
+      <c r="J340" s="45">
         <v>45459</v>
       </c>
-      <c r="K340" s="46" t="s">
+      <c r="K340" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L340" s="46" t="s">
+      <c r="L340" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M340" s="11"/>
@@ -21468,40 +21460,40 @@
       <c r="Z340" s="11"/>
     </row>
     <row r="341" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A341" s="45" t="s">
+      <c r="A341" s="41" t="s">
         <v>936</v>
       </c>
-      <c r="B341" s="46" t="s">
+      <c r="B341" s="42" t="s">
         <v>937</v>
       </c>
-      <c r="C341" s="46" t="s">
+      <c r="C341" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D341" s="46" t="s">
+      <c r="D341" s="42" t="s">
         <v>938</v>
       </c>
-      <c r="E341" s="46" t="s">
+      <c r="E341" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F341" s="46">
+      <c r="F341" s="42">
         <v>50677</v>
       </c>
-      <c r="G341" s="46" t="s">
+      <c r="G341" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H341" s="47">
+      <c r="H341" s="43">
         <v>31</v>
       </c>
-      <c r="I341" s="48" t="s">
+      <c r="I341" s="44" t="s">
         <v>939</v>
       </c>
-      <c r="J341" s="49">
+      <c r="J341" s="45">
         <v>45428</v>
       </c>
-      <c r="K341" s="46" t="s">
+      <c r="K341" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L341" s="52" t="s">
+      <c r="L341" s="48" t="s">
         <v>501</v>
       </c>
       <c r="M341" s="11"/>
@@ -21520,40 +21512,40 @@
       <c r="Z341" s="11"/>
     </row>
     <row r="342" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A342" s="45" t="s">
+      <c r="A342" s="41" t="s">
         <v>936</v>
       </c>
-      <c r="B342" s="46" t="s">
+      <c r="B342" s="42" t="s">
         <v>937</v>
       </c>
-      <c r="C342" s="46" t="s">
+      <c r="C342" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D342" s="46" t="s">
+      <c r="D342" s="42" t="s">
         <v>938</v>
       </c>
-      <c r="E342" s="46" t="s">
+      <c r="E342" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F342" s="46">
+      <c r="F342" s="42">
         <v>50677</v>
       </c>
-      <c r="G342" s="46" t="s">
+      <c r="G342" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H342" s="47">
+      <c r="H342" s="43">
         <v>12</v>
       </c>
-      <c r="I342" s="48" t="s">
+      <c r="I342" s="44" t="s">
         <v>939</v>
       </c>
-      <c r="J342" s="49">
+      <c r="J342" s="45">
         <v>45443</v>
       </c>
-      <c r="K342" s="46" t="s">
+      <c r="K342" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L342" s="52" t="s">
+      <c r="L342" s="48" t="s">
         <v>501</v>
       </c>
       <c r="M342" s="11"/>
@@ -21572,40 +21564,40 @@
       <c r="Z342" s="11"/>
     </row>
     <row r="343" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A343" s="45" t="s">
+      <c r="A343" s="41" t="s">
         <v>940</v>
       </c>
-      <c r="B343" s="46" t="s">
+      <c r="B343" s="42" t="s">
         <v>941</v>
       </c>
-      <c r="C343" s="46" t="s">
+      <c r="C343" s="42" t="s">
         <v>942</v>
       </c>
-      <c r="D343" s="46" t="s">
+      <c r="D343" s="42" t="s">
         <v>943</v>
       </c>
-      <c r="E343" s="46" t="s">
+      <c r="E343" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F343" s="46">
+      <c r="F343" s="42">
         <v>51534</v>
       </c>
-      <c r="G343" s="46" t="s">
+      <c r="G343" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H343" s="47">
+      <c r="H343" s="43">
         <v>235</v>
       </c>
-      <c r="I343" s="48" t="s">
+      <c r="I343" s="44" t="s">
         <v>944</v>
       </c>
-      <c r="J343" s="49">
+      <c r="J343" s="45">
         <v>45473</v>
       </c>
-      <c r="K343" s="46" t="s">
+      <c r="K343" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="L343" s="52" t="s">
+      <c r="L343" s="48" t="s">
         <v>501</v>
       </c>
       <c r="M343" s="11"/>
@@ -21624,40 +21616,40 @@
       <c r="Z343" s="11"/>
     </row>
     <row r="344" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A344" s="45" t="s">
+      <c r="A344" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="B344" s="46" t="s">
+      <c r="B344" s="42" t="s">
         <v>913</v>
       </c>
-      <c r="C344" s="46" t="s">
+      <c r="C344" s="42" t="s">
         <v>914</v>
       </c>
-      <c r="D344" s="46" t="s">
+      <c r="D344" s="42" t="s">
         <v>739</v>
       </c>
-      <c r="E344" s="46" t="s">
+      <c r="E344" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F344" s="46">
+      <c r="F344" s="42">
         <v>52776</v>
       </c>
-      <c r="G344" s="46" t="s">
+      <c r="G344" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H344" s="47">
+      <c r="H344" s="43">
         <v>39</v>
       </c>
-      <c r="I344" s="48" t="s">
+      <c r="I344" s="44" t="s">
         <v>945</v>
       </c>
-      <c r="J344" s="49">
+      <c r="J344" s="45">
         <v>45446</v>
       </c>
-      <c r="K344" s="46" t="s">
+      <c r="K344" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="L344" s="50" t="s">
+      <c r="L344" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M344" s="11"/>
@@ -21676,40 +21668,40 @@
       <c r="Z344" s="11"/>
     </row>
     <row r="345" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A345" s="45" t="s">
+      <c r="A345" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B345" s="46" t="s">
+      <c r="B345" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C345" s="46" t="s">
+      <c r="C345" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D345" s="46" t="s">
+      <c r="D345" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E345" s="46" t="s">
+      <c r="E345" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F345" s="46">
+      <c r="F345" s="42">
         <v>50266</v>
       </c>
-      <c r="G345" s="46" t="s">
+      <c r="G345" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H345" s="47">
+      <c r="H345" s="43">
         <v>40</v>
       </c>
-      <c r="I345" s="48" t="s">
+      <c r="I345" s="44" t="s">
         <v>945</v>
       </c>
-      <c r="J345" s="49">
+      <c r="J345" s="45">
         <v>45473</v>
       </c>
-      <c r="K345" s="46" t="s">
+      <c r="K345" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L345" s="46" t="s">
+      <c r="L345" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M345" s="11"/>
@@ -21728,40 +21720,40 @@
       <c r="Z345" s="11"/>
     </row>
     <row r="346" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A346" s="45" t="s">
+      <c r="A346" s="41" t="s">
         <v>946</v>
       </c>
-      <c r="B346" s="46" t="s">
+      <c r="B346" s="42" t="s">
         <v>947</v>
       </c>
-      <c r="C346" s="46" t="s">
+      <c r="C346" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D346" s="46" t="s">
+      <c r="D346" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E346" s="46" t="s">
+      <c r="E346" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F346" s="46">
+      <c r="F346" s="42">
         <v>50313</v>
       </c>
-      <c r="G346" s="46" t="s">
+      <c r="G346" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H346" s="47">
+      <c r="H346" s="43">
         <v>9</v>
       </c>
-      <c r="I346" s="48" t="s">
+      <c r="I346" s="44" t="s">
         <v>948</v>
       </c>
-      <c r="J346" s="49">
+      <c r="J346" s="45">
         <v>45444</v>
       </c>
-      <c r="K346" s="46" t="s">
+      <c r="K346" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L346" s="46" t="s">
+      <c r="L346" s="42" t="s">
         <v>778</v>
       </c>
       <c r="M346" s="11"/>
@@ -21780,40 +21772,40 @@
       <c r="Z346" s="11"/>
     </row>
     <row r="347" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A347" s="45" t="s">
+      <c r="A347" s="41" t="s">
         <v>946</v>
       </c>
-      <c r="B347" s="46" t="s">
+      <c r="B347" s="42" t="s">
         <v>947</v>
       </c>
-      <c r="C347" s="46" t="s">
+      <c r="C347" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D347" s="46" t="s">
+      <c r="D347" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E347" s="46" t="s">
+      <c r="E347" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F347" s="46">
+      <c r="F347" s="42">
         <v>50313</v>
       </c>
-      <c r="G347" s="46" t="s">
+      <c r="G347" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H347" s="47">
+      <c r="H347" s="43">
         <v>10</v>
       </c>
-      <c r="I347" s="48" t="s">
+      <c r="I347" s="44" t="s">
         <v>948</v>
       </c>
-      <c r="J347" s="49">
+      <c r="J347" s="45">
         <v>45474</v>
       </c>
-      <c r="K347" s="46" t="s">
+      <c r="K347" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L347" s="46" t="s">
+      <c r="L347" s="42" t="s">
         <v>778</v>
       </c>
       <c r="M347" s="11"/>
@@ -21832,40 +21824,40 @@
       <c r="Z347" s="11"/>
     </row>
     <row r="348" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A348" s="45" t="s">
+      <c r="A348" s="41" t="s">
         <v>946</v>
       </c>
-      <c r="B348" s="46" t="s">
+      <c r="B348" s="42" t="s">
         <v>947</v>
       </c>
-      <c r="C348" s="46" t="s">
+      <c r="C348" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D348" s="46" t="s">
+      <c r="D348" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E348" s="46" t="s">
+      <c r="E348" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F348" s="46">
+      <c r="F348" s="42">
         <v>50313</v>
       </c>
-      <c r="G348" s="46" t="s">
+      <c r="G348" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H348" s="47">
+      <c r="H348" s="43">
         <v>1</v>
       </c>
-      <c r="I348" s="48" t="s">
+      <c r="I348" s="44" t="s">
         <v>948</v>
       </c>
-      <c r="J348" s="49">
+      <c r="J348" s="45">
         <v>45505</v>
       </c>
-      <c r="K348" s="46" t="s">
+      <c r="K348" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L348" s="46" t="s">
+      <c r="L348" s="42" t="s">
         <v>778</v>
       </c>
       <c r="M348" s="11"/>
@@ -21884,40 +21876,40 @@
       <c r="Z348" s="11"/>
     </row>
     <row r="349" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A349" s="45" t="s">
+      <c r="A349" s="41" t="s">
         <v>946</v>
       </c>
-      <c r="B349" s="46" t="s">
+      <c r="B349" s="42" t="s">
         <v>947</v>
       </c>
-      <c r="C349" s="46" t="s">
+      <c r="C349" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D349" s="46" t="s">
+      <c r="D349" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E349" s="46" t="s">
+      <c r="E349" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F349" s="46">
+      <c r="F349" s="42">
         <v>50313</v>
       </c>
-      <c r="G349" s="46" t="s">
+      <c r="G349" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H349" s="47">
+      <c r="H349" s="43">
         <v>9</v>
       </c>
-      <c r="I349" s="48" t="s">
+      <c r="I349" s="44" t="s">
         <v>948</v>
       </c>
-      <c r="J349" s="49">
+      <c r="J349" s="45">
         <v>45536</v>
       </c>
-      <c r="K349" s="46" t="s">
+      <c r="K349" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L349" s="46" t="s">
+      <c r="L349" s="42" t="s">
         <v>778</v>
       </c>
       <c r="M349" s="11"/>
@@ -21936,40 +21928,40 @@
       <c r="Z349" s="11"/>
     </row>
     <row r="350" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A350" s="45" t="s">
+      <c r="A350" s="41" t="s">
         <v>949</v>
       </c>
-      <c r="B350" s="46" t="s">
+      <c r="B350" s="42" t="s">
         <v>950</v>
       </c>
-      <c r="C350" s="46" t="s">
+      <c r="C350" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D350" s="46" t="s">
+      <c r="D350" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E350" s="46" t="s">
+      <c r="E350" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F350" s="46">
+      <c r="F350" s="42">
         <v>52804</v>
       </c>
-      <c r="G350" s="46" t="s">
+      <c r="G350" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H350" s="47">
+      <c r="H350" s="43">
         <v>26</v>
       </c>
-      <c r="I350" s="48" t="s">
+      <c r="I350" s="44" t="s">
         <v>951</v>
       </c>
-      <c r="J350" s="49">
+      <c r="J350" s="45">
         <v>45473</v>
       </c>
-      <c r="K350" s="46" t="s">
+      <c r="K350" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L350" s="52" t="s">
+      <c r="L350" s="48" t="s">
         <v>501</v>
       </c>
       <c r="M350" s="11"/>
@@ -21988,40 +21980,40 @@
       <c r="Z350" s="11"/>
     </row>
     <row r="351" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A351" s="45" t="s">
+      <c r="A351" s="41" t="s">
         <v>952</v>
       </c>
-      <c r="B351" s="46" t="s">
+      <c r="B351" s="42" t="s">
         <v>953</v>
       </c>
-      <c r="C351" s="46" t="s">
+      <c r="C351" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D351" s="46" t="s">
+      <c r="D351" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E351" s="46" t="s">
+      <c r="E351" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F351" s="46">
+      <c r="F351" s="42">
         <v>52002</v>
       </c>
-      <c r="G351" s="46" t="s">
+      <c r="G351" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H351" s="47">
+      <c r="H351" s="43">
         <v>45</v>
       </c>
-      <c r="I351" s="48" t="s">
+      <c r="I351" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="J351" s="49">
+      <c r="J351" s="45">
         <v>45454</v>
       </c>
-      <c r="K351" s="46" t="s">
+      <c r="K351" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L351" s="52" t="s">
+      <c r="L351" s="48" t="s">
         <v>204</v>
       </c>
       <c r="M351" s="11"/>
@@ -22040,40 +22032,40 @@
       <c r="Z351" s="11"/>
     </row>
     <row r="352" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A352" s="45" t="s">
+      <c r="A352" s="41" t="s">
         <v>955</v>
       </c>
-      <c r="B352" s="46" t="s">
+      <c r="B352" s="42" t="s">
         <v>956</v>
       </c>
-      <c r="C352" s="46" t="s">
+      <c r="C352" s="42" t="s">
         <v>957</v>
       </c>
-      <c r="D352" s="46" t="s">
+      <c r="D352" s="42" t="s">
         <v>958</v>
       </c>
-      <c r="E352" s="46" t="s">
+      <c r="E352" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F352" s="46">
+      <c r="F352" s="42">
         <v>51534</v>
       </c>
-      <c r="G352" s="46" t="s">
+      <c r="G352" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H352" s="47">
+      <c r="H352" s="43">
         <v>31</v>
       </c>
-      <c r="I352" s="48" t="s">
+      <c r="I352" s="44" t="s">
         <v>959</v>
       </c>
-      <c r="J352" s="49">
+      <c r="J352" s="45">
         <v>45460</v>
       </c>
-      <c r="K352" s="46" t="s">
+      <c r="K352" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="L352" s="52" t="s">
+      <c r="L352" s="48" t="s">
         <v>501</v>
       </c>
       <c r="M352" s="11"/>
@@ -22092,40 +22084,40 @@
       <c r="Z352" s="11"/>
     </row>
     <row r="353" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A353" s="45" t="s">
+      <c r="A353" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B353" s="46" t="s">
+      <c r="B353" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C353" s="46" t="s">
+      <c r="C353" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D353" s="46" t="s">
+      <c r="D353" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E353" s="46" t="s">
+      <c r="E353" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F353" s="46">
+      <c r="F353" s="42">
         <v>50266</v>
       </c>
-      <c r="G353" s="46" t="s">
+      <c r="G353" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="H353" s="47">
+      <c r="H353" s="43">
         <v>24</v>
       </c>
-      <c r="I353" s="48" t="s">
+      <c r="I353" s="44" t="s">
         <v>960</v>
       </c>
-      <c r="J353" s="49">
+      <c r="J353" s="45">
         <v>45487</v>
       </c>
-      <c r="K353" s="46" t="s">
+      <c r="K353" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L353" s="46" t="s">
+      <c r="L353" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M353" s="11"/>
@@ -22143,561 +22135,561 @@
       <c r="Y353" s="11"/>
       <c r="Z353" s="11"/>
     </row>
-    <row r="354" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A354" s="45" t="s">
+    <row r="354" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A354" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="B354" s="46" t="s">
+      <c r="B354" s="42" t="s">
         <v>907</v>
       </c>
-      <c r="C354" s="46" t="s">
+      <c r="C354" s="42" t="s">
         <v>603</v>
       </c>
-      <c r="D354" s="46" t="s">
+      <c r="D354" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E354" s="46" t="s">
+      <c r="E354" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F354" s="46">
+      <c r="F354" s="42">
         <v>50704</v>
       </c>
-      <c r="G354" s="46" t="s">
+      <c r="G354" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H354" s="47">
+      <c r="H354" s="43">
         <v>192</v>
       </c>
-      <c r="I354" s="48" t="s">
+      <c r="I354" s="44" t="s">
         <v>961</v>
       </c>
-      <c r="J354" s="49">
+      <c r="J354" s="45">
         <v>45464</v>
       </c>
-      <c r="K354" s="46" t="s">
+      <c r="K354" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L354" s="50" t="s">
+      <c r="L354" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M354" s="46"/>
-      <c r="N354" s="46"/>
-      <c r="O354" s="46"/>
-      <c r="P354" s="46"/>
-      <c r="Q354" s="46"/>
-      <c r="R354" s="46"/>
-      <c r="S354" s="46"/>
-      <c r="T354" s="46"/>
-      <c r="U354" s="46"/>
-      <c r="V354" s="46"/>
-      <c r="W354" s="46"/>
-      <c r="X354" s="46"/>
-      <c r="Y354" s="46"/>
-      <c r="Z354" s="46"/>
-    </row>
-    <row r="355" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A355" s="45" t="s">
+      <c r="M354" s="42"/>
+      <c r="N354" s="42"/>
+      <c r="O354" s="42"/>
+      <c r="P354" s="42"/>
+      <c r="Q354" s="42"/>
+      <c r="R354" s="42"/>
+      <c r="S354" s="42"/>
+      <c r="T354" s="42"/>
+      <c r="U354" s="42"/>
+      <c r="V354" s="42"/>
+      <c r="W354" s="42"/>
+      <c r="X354" s="42"/>
+      <c r="Y354" s="42"/>
+      <c r="Z354" s="42"/>
+    </row>
+    <row r="355" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A355" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="B355" s="46" t="s">
+      <c r="B355" s="42" t="s">
         <v>962</v>
       </c>
-      <c r="C355" s="46" t="s">
+      <c r="C355" s="42" t="s">
         <v>963</v>
       </c>
-      <c r="D355" s="46" t="s">
+      <c r="D355" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E355" s="46" t="s">
+      <c r="E355" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F355" s="46">
+      <c r="F355" s="42">
         <v>50613</v>
       </c>
-      <c r="G355" s="46" t="s">
+      <c r="G355" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H355" s="47">
+      <c r="H355" s="43">
         <v>8</v>
       </c>
-      <c r="I355" s="48" t="s">
+      <c r="I355" s="44" t="s">
         <v>964</v>
       </c>
-      <c r="J355" s="49">
+      <c r="J355" s="45">
         <v>45500</v>
       </c>
-      <c r="K355" s="46" t="s">
+      <c r="K355" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L355" s="46" t="s">
+      <c r="L355" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="M355" s="46"/>
-      <c r="N355" s="46"/>
-      <c r="O355" s="46"/>
-      <c r="P355" s="46"/>
-      <c r="Q355" s="46"/>
-      <c r="R355" s="46"/>
-      <c r="S355" s="46"/>
-      <c r="T355" s="46"/>
-      <c r="U355" s="46"/>
-      <c r="V355" s="46"/>
-      <c r="W355" s="46"/>
-      <c r="X355" s="46"/>
-      <c r="Y355" s="46"/>
-      <c r="Z355" s="46"/>
-    </row>
-    <row r="356" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A356" s="45" t="s">
+      <c r="M355" s="42"/>
+      <c r="N355" s="42"/>
+      <c r="O355" s="42"/>
+      <c r="P355" s="42"/>
+      <c r="Q355" s="42"/>
+      <c r="R355" s="42"/>
+      <c r="S355" s="42"/>
+      <c r="T355" s="42"/>
+      <c r="U355" s="42"/>
+      <c r="V355" s="42"/>
+      <c r="W355" s="42"/>
+      <c r="X355" s="42"/>
+      <c r="Y355" s="42"/>
+      <c r="Z355" s="42"/>
+    </row>
+    <row r="356" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A356" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="B356" s="46" t="s">
+      <c r="B356" s="42" t="s">
         <v>965</v>
       </c>
-      <c r="C356" s="46" t="s">
+      <c r="C356" s="42" t="s">
         <v>966</v>
       </c>
-      <c r="D356" s="46" t="s">
+      <c r="D356" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E356" s="46" t="s">
+      <c r="E356" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F356" s="46">
+      <c r="F356" s="42">
         <v>52742</v>
       </c>
-      <c r="G356" s="46" t="s">
+      <c r="G356" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H356" s="47">
+      <c r="H356" s="43">
         <v>5</v>
       </c>
-      <c r="I356" s="48" t="s">
+      <c r="I356" s="44" t="s">
         <v>964</v>
       </c>
-      <c r="J356" s="49">
+      <c r="J356" s="45">
         <v>45500</v>
       </c>
-      <c r="K356" s="46" t="s">
+      <c r="K356" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L356" s="46" t="s">
+      <c r="L356" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="M356" s="46"/>
-      <c r="N356" s="46"/>
-      <c r="O356" s="46"/>
-      <c r="P356" s="46"/>
-      <c r="Q356" s="46"/>
-      <c r="R356" s="46"/>
-      <c r="S356" s="46"/>
-      <c r="T356" s="46"/>
-      <c r="U356" s="46"/>
-      <c r="V356" s="46"/>
-      <c r="W356" s="46"/>
-      <c r="X356" s="46"/>
-      <c r="Y356" s="46"/>
-      <c r="Z356" s="46"/>
-    </row>
-    <row r="357" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A357" s="45" t="s">
+      <c r="M356" s="42"/>
+      <c r="N356" s="42"/>
+      <c r="O356" s="42"/>
+      <c r="P356" s="42"/>
+      <c r="Q356" s="42"/>
+      <c r="R356" s="42"/>
+      <c r="S356" s="42"/>
+      <c r="T356" s="42"/>
+      <c r="U356" s="42"/>
+      <c r="V356" s="42"/>
+      <c r="W356" s="42"/>
+      <c r="X356" s="42"/>
+      <c r="Y356" s="42"/>
+      <c r="Z356" s="42"/>
+    </row>
+    <row r="357" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A357" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="B357" s="46" t="s">
+      <c r="B357" s="42" t="s">
         <v>967</v>
       </c>
-      <c r="C357" s="46" t="s">
+      <c r="C357" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D357" s="46" t="s">
+      <c r="D357" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E357" s="46" t="s">
+      <c r="E357" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F357" s="46">
+      <c r="F357" s="42">
         <v>50317</v>
       </c>
-      <c r="G357" s="46" t="s">
+      <c r="G357" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H357" s="47">
+      <c r="H357" s="43">
         <v>16</v>
       </c>
-      <c r="I357" s="48" t="s">
+      <c r="I357" s="44" t="s">
         <v>964</v>
       </c>
-      <c r="J357" s="49">
+      <c r="J357" s="45">
         <v>45500</v>
       </c>
-      <c r="K357" s="46" t="s">
+      <c r="K357" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L357" s="46" t="s">
+      <c r="L357" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="M357" s="46"/>
-      <c r="N357" s="46"/>
-      <c r="O357" s="46"/>
-      <c r="P357" s="46"/>
-      <c r="Q357" s="46"/>
-      <c r="R357" s="46"/>
-      <c r="S357" s="46"/>
-      <c r="T357" s="46"/>
-      <c r="U357" s="46"/>
-      <c r="V357" s="46"/>
-      <c r="W357" s="46"/>
-      <c r="X357" s="46"/>
-      <c r="Y357" s="46"/>
-      <c r="Z357" s="46"/>
-    </row>
-    <row r="358" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A358" s="45" t="s">
+      <c r="M357" s="42"/>
+      <c r="N357" s="42"/>
+      <c r="O357" s="42"/>
+      <c r="P357" s="42"/>
+      <c r="Q357" s="42"/>
+      <c r="R357" s="42"/>
+      <c r="S357" s="42"/>
+      <c r="T357" s="42"/>
+      <c r="U357" s="42"/>
+      <c r="V357" s="42"/>
+      <c r="W357" s="42"/>
+      <c r="X357" s="42"/>
+      <c r="Y357" s="42"/>
+      <c r="Z357" s="42"/>
+    </row>
+    <row r="358" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A358" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="B358" s="46" t="s">
+      <c r="B358" s="42" t="s">
         <v>968</v>
       </c>
-      <c r="C358" s="46" t="s">
+      <c r="C358" s="42" t="s">
         <v>969</v>
       </c>
-      <c r="D358" s="46" t="s">
+      <c r="D358" s="42" t="s">
         <v>969</v>
       </c>
-      <c r="E358" s="46" t="s">
+      <c r="E358" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F358" s="46">
+      <c r="F358" s="42">
         <v>50548</v>
       </c>
-      <c r="G358" s="46" t="s">
+      <c r="G358" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H358" s="47">
+      <c r="H358" s="43">
         <v>5</v>
       </c>
-      <c r="I358" s="48" t="s">
+      <c r="I358" s="44" t="s">
         <v>964</v>
       </c>
-      <c r="J358" s="49">
+      <c r="J358" s="45">
         <v>45500</v>
       </c>
-      <c r="K358" s="46" t="s">
+      <c r="K358" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="L358" s="46" t="s">
+      <c r="L358" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="M358" s="46"/>
-      <c r="N358" s="46"/>
-      <c r="O358" s="46"/>
-      <c r="P358" s="46"/>
-      <c r="Q358" s="46"/>
-      <c r="R358" s="46"/>
-      <c r="S358" s="46"/>
-      <c r="T358" s="46"/>
-      <c r="U358" s="46"/>
-      <c r="V358" s="46"/>
-      <c r="W358" s="46"/>
-      <c r="X358" s="46"/>
-      <c r="Y358" s="46"/>
-      <c r="Z358" s="46"/>
-    </row>
-    <row r="359" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A359" s="45" t="s">
+      <c r="M358" s="42"/>
+      <c r="N358" s="42"/>
+      <c r="O358" s="42"/>
+      <c r="P358" s="42"/>
+      <c r="Q358" s="42"/>
+      <c r="R358" s="42"/>
+      <c r="S358" s="42"/>
+      <c r="T358" s="42"/>
+      <c r="U358" s="42"/>
+      <c r="V358" s="42"/>
+      <c r="W358" s="42"/>
+      <c r="X358" s="42"/>
+      <c r="Y358" s="42"/>
+      <c r="Z358" s="42"/>
+    </row>
+    <row r="359" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A359" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="B359" s="46" t="s">
+      <c r="B359" s="42" t="s">
         <v>971</v>
       </c>
-      <c r="C359" s="46" t="s">
+      <c r="C359" s="42" t="s">
         <v>697</v>
       </c>
-      <c r="D359" s="46" t="s">
+      <c r="D359" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E359" s="46" t="s">
+      <c r="E359" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F359" s="46">
+      <c r="F359" s="42">
         <v>50322</v>
       </c>
-      <c r="G359" s="46" t="s">
+      <c r="G359" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H359" s="47">
+      <c r="H359" s="43">
         <v>58</v>
       </c>
-      <c r="I359" s="48" t="s">
+      <c r="I359" s="44" t="s">
         <v>972</v>
       </c>
-      <c r="J359" s="49">
+      <c r="J359" s="45">
         <v>45449</v>
       </c>
-      <c r="K359" s="46" t="s">
+      <c r="K359" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L359" s="50" t="s">
+      <c r="L359" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M359" s="46"/>
-      <c r="N359" s="46"/>
-      <c r="O359" s="46"/>
-      <c r="P359" s="46"/>
-      <c r="Q359" s="46"/>
-      <c r="R359" s="46"/>
-      <c r="S359" s="46"/>
-      <c r="T359" s="46"/>
-      <c r="U359" s="46"/>
-      <c r="V359" s="46"/>
-      <c r="W359" s="46"/>
-      <c r="X359" s="46"/>
-      <c r="Y359" s="46"/>
-      <c r="Z359" s="46"/>
-    </row>
-    <row r="360" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A360" s="45" t="s">
+      <c r="M359" s="42"/>
+      <c r="N359" s="42"/>
+      <c r="O359" s="42"/>
+      <c r="P359" s="42"/>
+      <c r="Q359" s="42"/>
+      <c r="R359" s="42"/>
+      <c r="S359" s="42"/>
+      <c r="T359" s="42"/>
+      <c r="U359" s="42"/>
+      <c r="V359" s="42"/>
+      <c r="W359" s="42"/>
+      <c r="X359" s="42"/>
+      <c r="Y359" s="42"/>
+      <c r="Z359" s="42"/>
+    </row>
+    <row r="360" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A360" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="B360" s="46" t="s">
+      <c r="B360" s="42" t="s">
         <v>907</v>
       </c>
-      <c r="C360" s="46" t="s">
+      <c r="C360" s="42" t="s">
         <v>603</v>
       </c>
-      <c r="D360" s="46" t="s">
+      <c r="D360" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E360" s="46" t="s">
+      <c r="E360" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F360" s="46">
+      <c r="F360" s="42">
         <v>50704</v>
       </c>
-      <c r="G360" s="46" t="s">
+      <c r="G360" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H360" s="47">
+      <c r="H360" s="43">
         <v>49</v>
       </c>
-      <c r="I360" s="48" t="s">
+      <c r="I360" s="44" t="s">
         <v>972</v>
       </c>
-      <c r="J360" s="49">
+      <c r="J360" s="45">
         <v>45449</v>
       </c>
-      <c r="K360" s="46" t="s">
+      <c r="K360" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L360" s="50" t="s">
+      <c r="L360" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M360" s="46"/>
-      <c r="N360" s="46"/>
-      <c r="O360" s="46"/>
-      <c r="P360" s="46"/>
-      <c r="Q360" s="46"/>
-      <c r="R360" s="46"/>
-      <c r="S360" s="46"/>
-      <c r="T360" s="46"/>
-      <c r="U360" s="46"/>
-      <c r="V360" s="46"/>
-      <c r="W360" s="46"/>
-      <c r="X360" s="46"/>
-      <c r="Y360" s="46"/>
-      <c r="Z360" s="46"/>
-    </row>
-    <row r="361" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A361" s="45" t="s">
+      <c r="M360" s="42"/>
+      <c r="N360" s="42"/>
+      <c r="O360" s="42"/>
+      <c r="P360" s="42"/>
+      <c r="Q360" s="42"/>
+      <c r="R360" s="42"/>
+      <c r="S360" s="42"/>
+      <c r="T360" s="42"/>
+      <c r="U360" s="42"/>
+      <c r="V360" s="42"/>
+      <c r="W360" s="42"/>
+      <c r="X360" s="42"/>
+      <c r="Y360" s="42"/>
+      <c r="Z360" s="42"/>
+    </row>
+    <row r="361" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A361" s="41" t="s">
         <v>973</v>
       </c>
-      <c r="B361" s="46" t="s">
+      <c r="B361" s="42" t="s">
         <v>974</v>
       </c>
-      <c r="C361" s="46" t="s">
+      <c r="C361" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D361" s="46" t="s">
+      <c r="D361" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E361" s="46" t="s">
+      <c r="E361" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F361" s="46">
+      <c r="F361" s="42">
         <v>50023</v>
       </c>
-      <c r="G361" s="46" t="s">
+      <c r="G361" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H361" s="47">
+      <c r="H361" s="43">
         <v>16</v>
       </c>
-      <c r="I361" s="48" t="s">
+      <c r="I361" s="44" t="s">
         <v>972</v>
       </c>
-      <c r="J361" s="49">
+      <c r="J361" s="45">
         <v>45449</v>
       </c>
-      <c r="K361" s="46" t="s">
+      <c r="K361" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L361" s="50" t="s">
+      <c r="L361" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M361" s="46"/>
-      <c r="N361" s="46"/>
-      <c r="O361" s="46"/>
-      <c r="P361" s="46"/>
-      <c r="Q361" s="46"/>
-      <c r="R361" s="46"/>
-      <c r="S361" s="46"/>
-      <c r="T361" s="46"/>
-      <c r="U361" s="46"/>
-      <c r="V361" s="46"/>
-      <c r="W361" s="46"/>
-      <c r="X361" s="46"/>
-      <c r="Y361" s="46"/>
-      <c r="Z361" s="46"/>
-    </row>
-    <row r="362" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A362" s="45" t="s">
+      <c r="M361" s="42"/>
+      <c r="N361" s="42"/>
+      <c r="O361" s="42"/>
+      <c r="P361" s="42"/>
+      <c r="Q361" s="42"/>
+      <c r="R361" s="42"/>
+      <c r="S361" s="42"/>
+      <c r="T361" s="42"/>
+      <c r="U361" s="42"/>
+      <c r="V361" s="42"/>
+      <c r="W361" s="42"/>
+      <c r="X361" s="42"/>
+      <c r="Y361" s="42"/>
+      <c r="Z361" s="42"/>
+    </row>
+    <row r="362" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A362" s="41" t="s">
         <v>975</v>
       </c>
-      <c r="B362" s="46" t="s">
+      <c r="B362" s="42" t="s">
         <v>976</v>
       </c>
-      <c r="C362" s="46" t="s">
+      <c r="C362" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D362" s="46" t="s">
+      <c r="D362" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E362" s="46" t="s">
+      <c r="E362" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F362" s="46">
+      <c r="F362" s="42">
         <v>50313</v>
       </c>
-      <c r="G362" s="46" t="s">
+      <c r="G362" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H362" s="47">
+      <c r="H362" s="43">
         <v>118</v>
       </c>
-      <c r="I362" s="48" t="s">
+      <c r="I362" s="44" t="s">
         <v>977</v>
       </c>
-      <c r="J362" s="49">
+      <c r="J362" s="45">
         <v>45478</v>
       </c>
-      <c r="K362" s="46" t="s">
+      <c r="K362" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L362" s="50" t="s">
+      <c r="L362" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M362" s="46"/>
-      <c r="N362" s="46"/>
-      <c r="O362" s="46"/>
-      <c r="P362" s="46"/>
-      <c r="Q362" s="46"/>
-      <c r="R362" s="46"/>
-      <c r="S362" s="46"/>
-      <c r="T362" s="46"/>
-      <c r="U362" s="46"/>
-      <c r="V362" s="46"/>
-      <c r="W362" s="46"/>
-      <c r="X362" s="46"/>
-      <c r="Y362" s="46"/>
-      <c r="Z362" s="46"/>
-    </row>
-    <row r="363" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A363" s="45" t="s">
+      <c r="M362" s="42"/>
+      <c r="N362" s="42"/>
+      <c r="O362" s="42"/>
+      <c r="P362" s="42"/>
+      <c r="Q362" s="42"/>
+      <c r="R362" s="42"/>
+      <c r="S362" s="42"/>
+      <c r="T362" s="42"/>
+      <c r="U362" s="42"/>
+      <c r="V362" s="42"/>
+      <c r="W362" s="42"/>
+      <c r="X362" s="42"/>
+      <c r="Y362" s="42"/>
+      <c r="Z362" s="42"/>
+    </row>
+    <row r="363" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A363" s="41" t="s">
         <v>970</v>
       </c>
-      <c r="B363" s="46" t="s">
+      <c r="B363" s="42" t="s">
         <v>971</v>
       </c>
-      <c r="C363" s="46" t="s">
+      <c r="C363" s="42" t="s">
         <v>697</v>
       </c>
-      <c r="D363" s="46" t="s">
+      <c r="D363" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E363" s="46" t="s">
+      <c r="E363" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F363" s="46">
+      <c r="F363" s="42">
         <v>50322</v>
       </c>
-      <c r="G363" s="46" t="s">
+      <c r="G363" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H363" s="47">
+      <c r="H363" s="43">
         <v>1</v>
       </c>
-      <c r="I363" s="48" t="s">
+      <c r="I363" s="44" t="s">
         <v>978</v>
       </c>
-      <c r="J363" s="49">
+      <c r="J363" s="45">
         <v>45450</v>
       </c>
-      <c r="K363" s="46" t="s">
+      <c r="K363" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L363" s="50" t="s">
+      <c r="L363" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M363" s="46"/>
-      <c r="N363" s="46"/>
-      <c r="O363" s="46"/>
-      <c r="P363" s="46"/>
-      <c r="Q363" s="46"/>
-      <c r="R363" s="46"/>
-      <c r="S363" s="46"/>
-      <c r="T363" s="46"/>
-      <c r="U363" s="46"/>
-      <c r="V363" s="46"/>
-      <c r="W363" s="46"/>
-      <c r="X363" s="46"/>
-      <c r="Y363" s="46"/>
-      <c r="Z363" s="46"/>
+      <c r="M363" s="42"/>
+      <c r="N363" s="42"/>
+      <c r="O363" s="42"/>
+      <c r="P363" s="42"/>
+      <c r="Q363" s="42"/>
+      <c r="R363" s="42"/>
+      <c r="S363" s="42"/>
+      <c r="T363" s="42"/>
+      <c r="U363" s="42"/>
+      <c r="V363" s="42"/>
+      <c r="W363" s="42"/>
+      <c r="X363" s="42"/>
+      <c r="Y363" s="42"/>
+      <c r="Z363" s="42"/>
     </row>
     <row r="364" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A364" s="45" t="s">
+      <c r="A364" s="41" t="s">
         <v>979</v>
       </c>
-      <c r="B364" s="46" t="s">
+      <c r="B364" s="42" t="s">
         <v>980</v>
       </c>
-      <c r="C364" s="46" t="s">
+      <c r="C364" s="42" t="s">
         <v>981</v>
       </c>
-      <c r="D364" s="46" t="s">
+      <c r="D364" s="42" t="s">
         <v>982</v>
       </c>
-      <c r="E364" s="46" t="s">
+      <c r="E364" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F364" s="46">
+      <c r="F364" s="42">
         <v>50659</v>
       </c>
-      <c r="G364" s="46" t="s">
+      <c r="G364" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H364" s="47">
+      <c r="H364" s="43">
         <v>48</v>
       </c>
-      <c r="I364" s="48" t="s">
+      <c r="I364" s="44" t="s">
         <v>977</v>
       </c>
-      <c r="J364" s="49">
+      <c r="J364" s="45">
         <v>45470</v>
       </c>
-      <c r="K364" s="46" t="s">
+      <c r="K364" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L364" s="50" t="s">
+      <c r="L364" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M364" s="11"/>
@@ -22716,40 +22708,40 @@
       <c r="Z364" s="11"/>
     </row>
     <row r="365" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A365" s="45" t="s">
+      <c r="A365" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B365" s="46" t="s">
+      <c r="B365" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C365" s="46" t="s">
+      <c r="C365" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D365" s="46" t="s">
+      <c r="D365" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E365" s="46" t="s">
+      <c r="E365" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F365" s="46">
+      <c r="F365" s="42">
         <v>50266</v>
       </c>
-      <c r="G365" s="46" t="s">
+      <c r="G365" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="H365" s="47">
+      <c r="H365" s="43">
         <v>26</v>
       </c>
-      <c r="I365" s="48" t="s">
+      <c r="I365" s="44" t="s">
         <v>983</v>
       </c>
-      <c r="J365" s="49">
+      <c r="J365" s="45">
         <v>45515</v>
       </c>
-      <c r="K365" s="46" t="s">
+      <c r="K365" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L365" s="46" t="s">
+      <c r="L365" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M365" s="11"/>
@@ -22768,40 +22760,40 @@
       <c r="Z365" s="11"/>
     </row>
     <row r="366" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A366" s="45" t="s">
+      <c r="A366" s="41" t="s">
         <v>975</v>
       </c>
-      <c r="B366" s="46" t="s">
+      <c r="B366" s="42" t="s">
         <v>976</v>
       </c>
-      <c r="C366" s="46" t="s">
+      <c r="C366" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D366" s="46" t="s">
+      <c r="D366" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E366" s="46" t="s">
+      <c r="E366" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F366" s="46">
+      <c r="F366" s="42">
         <v>50313</v>
       </c>
-      <c r="G366" s="46" t="s">
+      <c r="G366" s="42" t="s">
         <v>984</v>
       </c>
-      <c r="H366" s="47">
+      <c r="H366" s="43">
         <v>89</v>
       </c>
-      <c r="I366" s="48" t="s">
+      <c r="I366" s="44" t="s">
         <v>985</v>
       </c>
-      <c r="J366" s="49">
+      <c r="J366" s="45">
         <v>45478</v>
       </c>
-      <c r="K366" s="46" t="s">
+      <c r="K366" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L366" s="50" t="s">
+      <c r="L366" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M366" s="11"/>
@@ -22820,40 +22812,40 @@
       <c r="Z366" s="11"/>
     </row>
     <row r="367" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A367" s="45" t="s">
+      <c r="A367" s="41" t="s">
         <v>986</v>
       </c>
-      <c r="B367" s="46" t="s">
+      <c r="B367" s="42" t="s">
         <v>895</v>
       </c>
-      <c r="C367" s="46" t="s">
+      <c r="C367" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="D367" s="46" t="s">
+      <c r="D367" s="42" t="s">
         <v>897</v>
       </c>
-      <c r="E367" s="46" t="s">
+      <c r="E367" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F367" s="46">
+      <c r="F367" s="42">
         <v>50220</v>
       </c>
-      <c r="G367" s="46" t="s">
+      <c r="G367" s="42" t="s">
         <v>987</v>
       </c>
-      <c r="H367" s="47">
+      <c r="H367" s="43">
         <v>32</v>
       </c>
-      <c r="I367" s="48" t="s">
+      <c r="I367" s="44" t="s">
         <v>983</v>
       </c>
-      <c r="J367" s="49">
+      <c r="J367" s="45">
         <v>45500</v>
       </c>
-      <c r="K367" s="46" t="s">
+      <c r="K367" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L367" s="50" t="s">
+      <c r="L367" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M367" s="11"/>
@@ -22872,40 +22864,40 @@
       <c r="Z367" s="11"/>
     </row>
     <row r="368" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A368" s="45" t="s">
+      <c r="A368" s="41" t="s">
         <v>986</v>
       </c>
-      <c r="B368" s="46" t="s">
+      <c r="B368" s="42" t="s">
         <v>895</v>
       </c>
-      <c r="C368" s="46" t="s">
+      <c r="C368" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="D368" s="46" t="s">
+      <c r="D368" s="42" t="s">
         <v>897</v>
       </c>
-      <c r="E368" s="46" t="s">
+      <c r="E368" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F368" s="46">
+      <c r="F368" s="42">
         <v>50220</v>
       </c>
-      <c r="G368" s="46" t="s">
+      <c r="G368" s="42" t="s">
         <v>988</v>
       </c>
-      <c r="H368" s="47">
+      <c r="H368" s="43">
         <v>32</v>
       </c>
-      <c r="I368" s="48" t="s">
+      <c r="I368" s="44" t="s">
         <v>983</v>
       </c>
-      <c r="J368" s="49">
+      <c r="J368" s="45">
         <v>45528</v>
       </c>
-      <c r="K368" s="46" t="s">
+      <c r="K368" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L368" s="50" t="s">
+      <c r="L368" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M368" s="11"/>
@@ -22924,40 +22916,40 @@
       <c r="Z368" s="11"/>
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A369" s="45" t="s">
+      <c r="A369" s="41" t="s">
         <v>986</v>
       </c>
-      <c r="B369" s="46" t="s">
+      <c r="B369" s="42" t="s">
         <v>895</v>
       </c>
-      <c r="C369" s="46" t="s">
+      <c r="C369" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="D369" s="46" t="s">
+      <c r="D369" s="42" t="s">
         <v>897</v>
       </c>
-      <c r="E369" s="46" t="s">
+      <c r="E369" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F369" s="46">
+      <c r="F369" s="42">
         <v>50220</v>
       </c>
-      <c r="G369" s="46" t="s">
+      <c r="G369" s="42" t="s">
         <v>987</v>
       </c>
-      <c r="H369" s="47">
+      <c r="H369" s="43">
         <v>5</v>
       </c>
-      <c r="I369" s="48" t="s">
+      <c r="I369" s="44" t="s">
         <v>983</v>
       </c>
-      <c r="J369" s="49">
+      <c r="J369" s="45">
         <v>45563</v>
       </c>
-      <c r="K369" s="46" t="s">
+      <c r="K369" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L369" s="50" t="s">
+      <c r="L369" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M369" s="11"/>
@@ -22976,40 +22968,40 @@
       <c r="Z369" s="11"/>
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A370" s="45" t="s">
+      <c r="A370" s="41" t="s">
         <v>989</v>
       </c>
-      <c r="B370" s="46" t="s">
+      <c r="B370" s="42" t="s">
         <v>990</v>
       </c>
-      <c r="C370" s="46" t="s">
+      <c r="C370" s="42" t="s">
         <v>991</v>
       </c>
-      <c r="D370" s="46" t="s">
+      <c r="D370" s="42" t="s">
         <v>992</v>
       </c>
-      <c r="E370" s="46" t="s">
+      <c r="E370" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F370" s="46">
+      <c r="F370" s="42">
         <v>51023</v>
       </c>
-      <c r="G370" s="46" t="s">
+      <c r="G370" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H370" s="47">
+      <c r="H370" s="43">
         <v>36</v>
       </c>
-      <c r="I370" s="48" t="s">
+      <c r="I370" s="44" t="s">
         <v>993</v>
       </c>
-      <c r="J370" s="49">
+      <c r="J370" s="45">
         <v>45492</v>
       </c>
-      <c r="K370" s="46" t="s">
+      <c r="K370" s="42" t="s">
         <v>850</v>
       </c>
-      <c r="L370" s="50" t="s">
+      <c r="L370" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M370" s="11"/>
@@ -23028,40 +23020,40 @@
       <c r="Z370" s="11"/>
     </row>
     <row r="371" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A371" s="45" t="s">
+      <c r="A371" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="B371" s="46" t="s">
+      <c r="B371" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C371" s="46" t="s">
+      <c r="C371" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D371" s="46" t="s">
+      <c r="D371" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E371" s="46" t="s">
+      <c r="E371" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F371" s="46">
+      <c r="F371" s="42">
         <v>50266</v>
       </c>
-      <c r="G371" s="46" t="s">
+      <c r="G371" s="42" t="s">
         <v>994</v>
       </c>
-      <c r="H371" s="47">
+      <c r="H371" s="43">
         <v>10</v>
       </c>
-      <c r="I371" s="48" t="s">
+      <c r="I371" s="44" t="s">
         <v>995</v>
       </c>
-      <c r="J371" s="49">
+      <c r="J371" s="45">
         <v>45529</v>
       </c>
-      <c r="K371" s="46" t="s">
+      <c r="K371" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L371" s="46" t="s">
+      <c r="L371" s="42" t="s">
         <v>44</v>
       </c>
       <c r="M371" s="11"/>
@@ -23080,40 +23072,40 @@
       <c r="Z371" s="11"/>
     </row>
     <row r="372" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A372" s="45" t="s">
+      <c r="A372" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B372" s="46" t="s">
+      <c r="B372" s="42" t="s">
         <v>996</v>
       </c>
-      <c r="C372" s="46" t="s">
+      <c r="C372" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D372" s="46" t="s">
+      <c r="D372" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E372" s="46" t="s">
+      <c r="E372" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F372" s="46">
+      <c r="F372" s="42">
         <v>52807</v>
       </c>
-      <c r="G372" s="46" t="s">
+      <c r="G372" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H372" s="47">
+      <c r="H372" s="43">
         <v>211</v>
       </c>
-      <c r="I372" s="48" t="s">
+      <c r="I372" s="44" t="s">
         <v>997</v>
       </c>
-      <c r="J372" s="49">
+      <c r="J372" s="45">
         <v>45534</v>
       </c>
-      <c r="K372" s="46" t="s">
+      <c r="K372" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="L372" s="50" t="s">
+      <c r="L372" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M372" s="11"/>
@@ -23132,40 +23124,40 @@
       <c r="Z372" s="11"/>
     </row>
     <row r="373" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A373" s="45" t="s">
+      <c r="A373" s="41" t="s">
         <v>998</v>
       </c>
-      <c r="B373" s="46" t="s">
+      <c r="B373" s="42" t="s">
         <v>999</v>
       </c>
-      <c r="C373" s="46" t="s">
+      <c r="C373" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D373" s="46" t="s">
+      <c r="D373" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E373" s="46" t="s">
+      <c r="E373" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F373" s="46">
+      <c r="F373" s="42">
         <v>52001</v>
       </c>
-      <c r="G373" s="46" t="s">
+      <c r="G373" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H373" s="47">
+      <c r="H373" s="43">
         <v>99</v>
       </c>
-      <c r="I373" s="48" t="s">
+      <c r="I373" s="44" t="s">
         <v>997</v>
       </c>
-      <c r="J373" s="49">
+      <c r="J373" s="45">
         <v>45534</v>
       </c>
-      <c r="K373" s="46" t="s">
+      <c r="K373" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L373" s="50" t="s">
+      <c r="L373" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M373" s="11"/>
@@ -23184,40 +23176,40 @@
       <c r="Z373" s="11"/>
     </row>
     <row r="374" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A374" s="45" t="s">
+      <c r="A374" s="41" t="s">
         <v>1000</v>
       </c>
-      <c r="B374" s="46" t="s">
+      <c r="B374" s="42" t="s">
         <v>1001</v>
       </c>
-      <c r="C374" s="46" t="s">
+      <c r="C374" s="42" t="s">
         <v>929</v>
       </c>
-      <c r="D374" s="46" t="s">
+      <c r="D374" s="42" t="s">
         <v>930</v>
       </c>
-      <c r="E374" s="46" t="s">
+      <c r="E374" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F374" s="46">
+      <c r="F374" s="42">
         <v>52531</v>
       </c>
-      <c r="G374" s="46" t="s">
+      <c r="G374" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H374" s="47">
+      <c r="H374" s="43">
         <v>19</v>
       </c>
-      <c r="I374" s="48" t="s">
+      <c r="I374" s="44" t="s">
         <v>997</v>
       </c>
-      <c r="J374" s="49">
+      <c r="J374" s="45">
         <v>45596</v>
       </c>
-      <c r="K374" s="46" t="s">
+      <c r="K374" s="42" t="s">
         <v>1002</v>
       </c>
-      <c r="L374" s="50" t="s">
+      <c r="L374" s="46" t="s">
         <v>20</v>
       </c>
       <c r="M374" s="11"/>
@@ -23235,369 +23227,369 @@
       <c r="Y374" s="11"/>
       <c r="Z374" s="11"/>
     </row>
-    <row r="375" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A375" s="45" t="s">
+    <row r="375" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A375" s="41" t="s">
         <v>1003</v>
       </c>
-      <c r="B375" s="46" t="s">
+      <c r="B375" s="42" t="s">
         <v>1004</v>
       </c>
-      <c r="C375" s="46" t="s">
+      <c r="C375" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="D375" s="46" t="s">
+      <c r="D375" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E375" s="46" t="s">
+      <c r="E375" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F375" s="46">
+      <c r="F375" s="42">
         <v>50009</v>
       </c>
-      <c r="G375" s="46" t="s">
+      <c r="G375" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H375" s="47">
+      <c r="H375" s="43">
         <v>319</v>
       </c>
-      <c r="I375" s="48" t="s">
+      <c r="I375" s="44" t="s">
         <v>1005</v>
       </c>
-      <c r="J375" s="49">
+      <c r="J375" s="45">
         <v>45534</v>
       </c>
-      <c r="K375" s="46" t="s">
+      <c r="K375" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="L375" s="50" t="s">
+      <c r="L375" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M375" s="46"/>
-      <c r="N375" s="46"/>
-      <c r="O375" s="46"/>
-      <c r="P375" s="46"/>
-      <c r="Q375" s="46"/>
-      <c r="R375" s="46"/>
-      <c r="S375" s="46"/>
-      <c r="T375" s="46"/>
-      <c r="U375" s="46"/>
-      <c r="V375" s="46"/>
-      <c r="W375" s="46"/>
-      <c r="X375" s="46"/>
-      <c r="Y375" s="46"/>
-      <c r="Z375" s="46"/>
-    </row>
-    <row r="376" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A376" s="45" t="s">
+      <c r="M375" s="42"/>
+      <c r="N375" s="42"/>
+      <c r="O375" s="42"/>
+      <c r="P375" s="42"/>
+      <c r="Q375" s="42"/>
+      <c r="R375" s="42"/>
+      <c r="S375" s="42"/>
+      <c r="T375" s="42"/>
+      <c r="U375" s="42"/>
+      <c r="V375" s="42"/>
+      <c r="W375" s="42"/>
+      <c r="X375" s="42"/>
+      <c r="Y375" s="42"/>
+      <c r="Z375" s="42"/>
+    </row>
+    <row r="376" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A376" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B376" s="46" t="s">
+      <c r="B376" s="42" t="s">
         <v>1006</v>
       </c>
-      <c r="C376" s="46" t="s">
+      <c r="C376" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D376" s="46" t="s">
+      <c r="D376" s="42" t="s">
         <v>1007</v>
       </c>
-      <c r="E376" s="46" t="s">
+      <c r="E376" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F376" s="46">
+      <c r="F376" s="42">
         <v>50616</v>
       </c>
-      <c r="G376" s="46" t="s">
+      <c r="G376" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H376" s="47">
+      <c r="H376" s="43">
         <v>36</v>
       </c>
-      <c r="I376" s="48" t="s">
+      <c r="I376" s="44" t="s">
         <v>1008</v>
       </c>
-      <c r="J376" s="49">
+      <c r="J376" s="45">
         <v>45536</v>
       </c>
-      <c r="K376" s="46" t="s">
+      <c r="K376" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="L376" s="50" t="s">
+      <c r="L376" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M376" s="46"/>
-      <c r="N376" s="46"/>
-      <c r="O376" s="46"/>
-      <c r="P376" s="46"/>
-      <c r="Q376" s="46"/>
-      <c r="R376" s="46"/>
-      <c r="S376" s="46"/>
-      <c r="T376" s="46"/>
-      <c r="U376" s="46"/>
-      <c r="V376" s="46"/>
-      <c r="W376" s="46"/>
-      <c r="X376" s="46"/>
-      <c r="Y376" s="46"/>
-      <c r="Z376" s="46"/>
-    </row>
-    <row r="377" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A377" s="45" t="s">
+      <c r="M376" s="42"/>
+      <c r="N376" s="42"/>
+      <c r="O376" s="42"/>
+      <c r="P376" s="42"/>
+      <c r="Q376" s="42"/>
+      <c r="R376" s="42"/>
+      <c r="S376" s="42"/>
+      <c r="T376" s="42"/>
+      <c r="U376" s="42"/>
+      <c r="V376" s="42"/>
+      <c r="W376" s="42"/>
+      <c r="X376" s="42"/>
+      <c r="Y376" s="42"/>
+      <c r="Z376" s="42"/>
+    </row>
+    <row r="377" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A377" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="B377" s="46" t="s">
+      <c r="B377" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="C377" s="46" t="s">
+      <c r="C377" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D377" s="46" t="s">
+      <c r="D377" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E377" s="46" t="s">
+      <c r="E377" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F377" s="46">
+      <c r="F377" s="42">
         <v>50266</v>
       </c>
-      <c r="G377" s="46" t="s">
+      <c r="G377" s="42" t="s">
         <v>994</v>
       </c>
-      <c r="H377" s="47">
+      <c r="H377" s="43">
         <v>24</v>
       </c>
-      <c r="I377" s="48" t="s">
+      <c r="I377" s="44" t="s">
         <v>1008</v>
       </c>
-      <c r="J377" s="49">
+      <c r="J377" s="45">
         <v>45546</v>
       </c>
-      <c r="K377" s="46" t="s">
+      <c r="K377" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L377" s="46" t="s">
+      <c r="L377" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="M377" s="46"/>
-      <c r="N377" s="46"/>
-      <c r="O377" s="46"/>
-      <c r="P377" s="46"/>
-      <c r="Q377" s="46"/>
-      <c r="R377" s="46"/>
-      <c r="S377" s="46"/>
-      <c r="T377" s="46"/>
-      <c r="U377" s="46"/>
-      <c r="V377" s="46"/>
-      <c r="W377" s="46"/>
-      <c r="X377" s="46"/>
-      <c r="Y377" s="46"/>
-      <c r="Z377" s="46"/>
-    </row>
-    <row r="378" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A378" s="45" t="s">
+      <c r="M377" s="42"/>
+      <c r="N377" s="42"/>
+      <c r="O377" s="42"/>
+      <c r="P377" s="42"/>
+      <c r="Q377" s="42"/>
+      <c r="R377" s="42"/>
+      <c r="S377" s="42"/>
+      <c r="T377" s="42"/>
+      <c r="U377" s="42"/>
+      <c r="V377" s="42"/>
+      <c r="W377" s="42"/>
+      <c r="X377" s="42"/>
+      <c r="Y377" s="42"/>
+      <c r="Z377" s="42"/>
+    </row>
+    <row r="378" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A378" s="41" t="s">
         <v>949</v>
       </c>
-      <c r="B378" s="46" t="s">
+      <c r="B378" s="42" t="s">
         <v>1009</v>
       </c>
-      <c r="C378" s="46" t="s">
+      <c r="C378" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D378" s="46" t="s">
+      <c r="D378" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E378" s="46" t="s">
+      <c r="E378" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F378" s="46">
+      <c r="F378" s="42">
         <v>52002</v>
       </c>
-      <c r="G378" s="46" t="s">
+      <c r="G378" s="42" t="s">
         <v>1010</v>
       </c>
-      <c r="H378" s="47">
+      <c r="H378" s="43">
         <v>0</v>
       </c>
-      <c r="I378" s="48" t="s">
+      <c r="I378" s="44" t="s">
         <v>1011</v>
       </c>
-      <c r="J378" s="49">
+      <c r="J378" s="45">
         <v>45457</v>
       </c>
-      <c r="K378" s="46" t="s">
+      <c r="K378" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L378" s="52" t="s">
+      <c r="L378" s="48" t="s">
         <v>501</v>
       </c>
-      <c r="M378" s="46"/>
-      <c r="N378" s="46"/>
-      <c r="O378" s="46"/>
-      <c r="P378" s="46"/>
-      <c r="Q378" s="46"/>
-      <c r="R378" s="46"/>
-      <c r="S378" s="46"/>
-      <c r="T378" s="46"/>
-      <c r="U378" s="46"/>
-      <c r="V378" s="46"/>
-      <c r="W378" s="46"/>
-      <c r="X378" s="46"/>
-      <c r="Y378" s="46"/>
-      <c r="Z378" s="46"/>
-    </row>
-    <row r="379" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A379" s="45" t="s">
+      <c r="M378" s="42"/>
+      <c r="N378" s="42"/>
+      <c r="O378" s="42"/>
+      <c r="P378" s="42"/>
+      <c r="Q378" s="42"/>
+      <c r="R378" s="42"/>
+      <c r="S378" s="42"/>
+      <c r="T378" s="42"/>
+      <c r="U378" s="42"/>
+      <c r="V378" s="42"/>
+      <c r="W378" s="42"/>
+      <c r="X378" s="42"/>
+      <c r="Y378" s="42"/>
+      <c r="Z378" s="42"/>
+    </row>
+    <row r="379" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A379" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="B379" s="46" t="s">
+      <c r="B379" s="42" t="s">
         <v>907</v>
       </c>
-      <c r="C379" s="46" t="s">
+      <c r="C379" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="D379" s="46" t="s">
+      <c r="D379" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E379" s="46" t="s">
+      <c r="E379" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F379" s="46">
+      <c r="F379" s="42">
         <v>50704</v>
       </c>
-      <c r="G379" s="46" t="s">
+      <c r="G379" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H379" s="47">
+      <c r="H379" s="43">
         <v>191</v>
       </c>
-      <c r="I379" s="48" t="s">
+      <c r="I379" s="44" t="s">
         <v>1012</v>
       </c>
-      <c r="J379" s="49">
+      <c r="J379" s="45">
         <v>45555</v>
       </c>
-      <c r="K379" s="46" t="s">
+      <c r="K379" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L379" s="50" t="s">
+      <c r="L379" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M379" s="46"/>
-      <c r="N379" s="46"/>
-      <c r="O379" s="46"/>
-      <c r="P379" s="46"/>
-      <c r="Q379" s="46"/>
-      <c r="R379" s="46"/>
-      <c r="S379" s="46"/>
-      <c r="T379" s="46"/>
-      <c r="U379" s="46"/>
-      <c r="V379" s="46"/>
-      <c r="W379" s="46"/>
-      <c r="X379" s="46"/>
-      <c r="Y379" s="46"/>
-      <c r="Z379" s="46"/>
-    </row>
-    <row r="380" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A380" s="45" t="s">
+      <c r="M379" s="42"/>
+      <c r="N379" s="42"/>
+      <c r="O379" s="42"/>
+      <c r="P379" s="42"/>
+      <c r="Q379" s="42"/>
+      <c r="R379" s="42"/>
+      <c r="S379" s="42"/>
+      <c r="T379" s="42"/>
+      <c r="U379" s="42"/>
+      <c r="V379" s="42"/>
+      <c r="W379" s="42"/>
+      <c r="X379" s="42"/>
+      <c r="Y379" s="42"/>
+      <c r="Z379" s="42"/>
+    </row>
+    <row r="380" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A380" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="B380" s="46" t="s">
+      <c r="B380" s="42" t="s">
         <v>1013</v>
       </c>
-      <c r="C380" s="46" t="s">
+      <c r="C380" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="D380" s="46" t="s">
+      <c r="D380" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E380" s="46" t="s">
+      <c r="E380" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F380" s="46">
+      <c r="F380" s="42">
         <v>50701</v>
       </c>
-      <c r="G380" s="46" t="s">
+      <c r="G380" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H380" s="47">
+      <c r="H380" s="43">
         <v>89</v>
       </c>
-      <c r="I380" s="48" t="s">
+      <c r="I380" s="44" t="s">
         <v>1012</v>
       </c>
-      <c r="J380" s="49">
+      <c r="J380" s="45">
         <v>45555</v>
       </c>
-      <c r="K380" s="46" t="s">
+      <c r="K380" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L380" s="50" t="s">
+      <c r="L380" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M380" s="46"/>
-      <c r="N380" s="46"/>
-      <c r="O380" s="46"/>
-      <c r="P380" s="46"/>
-      <c r="Q380" s="46"/>
-      <c r="R380" s="46"/>
-      <c r="S380" s="46"/>
-      <c r="T380" s="46"/>
-      <c r="U380" s="46"/>
-      <c r="V380" s="46"/>
-      <c r="W380" s="46"/>
-      <c r="X380" s="46"/>
-      <c r="Y380" s="46"/>
-      <c r="Z380" s="46"/>
-    </row>
-    <row r="381" spans="1:26" s="51" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A381" s="45" t="s">
+      <c r="M380" s="42"/>
+      <c r="N380" s="42"/>
+      <c r="O380" s="42"/>
+      <c r="P380" s="42"/>
+      <c r="Q380" s="42"/>
+      <c r="R380" s="42"/>
+      <c r="S380" s="42"/>
+      <c r="T380" s="42"/>
+      <c r="U380" s="42"/>
+      <c r="V380" s="42"/>
+      <c r="W380" s="42"/>
+      <c r="X380" s="42"/>
+      <c r="Y380" s="42"/>
+      <c r="Z380" s="42"/>
+    </row>
+    <row r="381" spans="1:26" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A381" s="41" t="s">
         <v>906</v>
       </c>
-      <c r="B381" s="46" t="s">
+      <c r="B381" s="42" t="s">
         <v>1014</v>
       </c>
-      <c r="C381" s="46" t="s">
+      <c r="C381" s="42" t="s">
         <v>603</v>
       </c>
-      <c r="D381" s="46" t="s">
+      <c r="D381" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E381" s="46" t="s">
+      <c r="E381" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F381" s="46">
+      <c r="F381" s="42">
         <v>50701</v>
       </c>
-      <c r="G381" s="46" t="s">
+      <c r="G381" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H381" s="47">
+      <c r="H381" s="43">
         <v>65</v>
       </c>
-      <c r="I381" s="48" t="s">
+      <c r="I381" s="44" t="s">
         <v>1012</v>
       </c>
-      <c r="J381" s="49">
+      <c r="J381" s="45">
         <v>45555</v>
       </c>
-      <c r="K381" s="46" t="s">
+      <c r="K381" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L381" s="50" t="s">
+      <c r="L381" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M381" s="46"/>
-      <c r="N381" s="46"/>
-      <c r="O381" s="46"/>
-      <c r="P381" s="46"/>
-      <c r="Q381" s="46"/>
-      <c r="R381" s="46"/>
-      <c r="S381" s="46"/>
-      <c r="T381" s="46"/>
-      <c r="U381" s="46"/>
-      <c r="V381" s="46"/>
-      <c r="W381" s="46"/>
-      <c r="X381" s="46"/>
-      <c r="Y381" s="46"/>
-      <c r="Z381" s="46"/>
+      <c r="M381" s="42"/>
+      <c r="N381" s="42"/>
+      <c r="O381" s="42"/>
+      <c r="P381" s="42"/>
+      <c r="Q381" s="42"/>
+      <c r="R381" s="42"/>
+      <c r="S381" s="42"/>
+      <c r="T381" s="42"/>
+      <c r="U381" s="42"/>
+      <c r="V381" s="42"/>
+      <c r="W381" s="42"/>
+      <c r="X381" s="42"/>
+      <c r="Y381" s="42"/>
+      <c r="Z381" s="42"/>
     </row>
     <row r="382" spans="1:26" ht="14.25" customHeight="1">
       <c r="A382" s="18" t="s">
@@ -23783,7 +23775,7 @@
       <c r="I385" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="J385" s="49">
+      <c r="J385" s="45">
         <v>45497</v>
       </c>
       <c r="K385" s="11" t="s">
@@ -23835,7 +23827,7 @@
       <c r="I386" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="J386" s="49">
+      <c r="J386" s="45">
         <v>45497</v>
       </c>
       <c r="K386" s="11" t="s">
@@ -23915,7 +23907,7 @@
       <c r="A388" s="18" t="s">
         <v>1025</v>
       </c>
-      <c r="B388" s="43" t="s">
+      <c r="B388" s="39" t="s">
         <v>1026</v>
       </c>
       <c r="C388" s="11" t="s">
@@ -23967,7 +23959,7 @@
       <c r="A389" s="18" t="s">
         <v>1030</v>
       </c>
-      <c r="B389" s="43" t="s">
+      <c r="B389" s="39" t="s">
         <v>1031</v>
       </c>
       <c r="C389" s="11" t="s">
@@ -24019,7 +24011,7 @@
       <c r="A390" s="18" t="s">
         <v>1030</v>
       </c>
-      <c r="B390" s="43" t="s">
+      <c r="B390" s="39" t="s">
         <v>1031</v>
       </c>
       <c r="C390" s="11" t="s">
@@ -24071,7 +24063,7 @@
       <c r="A391" s="18" t="s">
         <v>1030</v>
       </c>
-      <c r="B391" s="43" t="s">
+      <c r="B391" s="39" t="s">
         <v>1031</v>
       </c>
       <c r="C391" s="11" t="s">
@@ -24123,7 +24115,7 @@
       <c r="A392" s="18" t="s">
         <v>1033</v>
       </c>
-      <c r="B392" s="44" t="s">
+      <c r="B392" s="40" t="s">
         <v>1034</v>
       </c>
       <c r="C392" s="11" t="s">
@@ -24432,56 +24424,56 @@
       <c r="Z397" s="11"/>
     </row>
     <row r="398" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A398" s="53" t="s">
+      <c r="A398" s="49" t="s">
         <v>1049</v>
       </c>
-      <c r="B398" s="54" t="s">
+      <c r="B398" s="50" t="s">
         <v>1050</v>
       </c>
-      <c r="C398" s="54" t="s">
+      <c r="C398" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="D398" s="54" t="s">
+      <c r="D398" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E398" s="54" t="s">
+      <c r="E398" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F398" s="54">
+      <c r="F398" s="50">
         <v>52002</v>
       </c>
-      <c r="G398" s="54" t="s">
+      <c r="G398" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H398" s="55">
+      <c r="H398" s="51">
         <v>74</v>
       </c>
-      <c r="I398" s="56" t="s">
+      <c r="I398" s="52" t="s">
         <v>1051</v>
       </c>
-      <c r="J398" s="57">
+      <c r="J398" s="53">
         <v>45592</v>
       </c>
-      <c r="K398" s="54" t="s">
+      <c r="K398" s="50" t="s">
         <v>660</v>
       </c>
-      <c r="L398" s="54" t="s">
+      <c r="L398" s="50" t="s">
         <v>1052</v>
       </c>
-      <c r="M398" s="54"/>
-      <c r="N398" s="54"/>
-      <c r="O398" s="54"/>
-      <c r="P398" s="54"/>
-      <c r="Q398" s="54"/>
-      <c r="R398" s="54"/>
-      <c r="S398" s="54"/>
-      <c r="T398" s="54"/>
-      <c r="U398" s="54"/>
-      <c r="V398" s="54"/>
-      <c r="W398" s="54"/>
-      <c r="X398" s="54"/>
-      <c r="Y398" s="54"/>
-      <c r="Z398" s="54"/>
+      <c r="M398" s="50"/>
+      <c r="N398" s="50"/>
+      <c r="O398" s="50"/>
+      <c r="P398" s="50"/>
+      <c r="Q398" s="50"/>
+      <c r="R398" s="50"/>
+      <c r="S398" s="50"/>
+      <c r="T398" s="50"/>
+      <c r="U398" s="50"/>
+      <c r="V398" s="50"/>
+      <c r="W398" s="50"/>
+      <c r="X398" s="50"/>
+      <c r="Y398" s="50"/>
+      <c r="Z398" s="50"/>
     </row>
     <row r="399" spans="1:26" ht="14.25" customHeight="1">
       <c r="A399" s="18" t="s">
@@ -24640,56 +24632,56 @@
       <c r="Z401" s="11"/>
     </row>
     <row r="402" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A402" s="53" t="s">
+      <c r="A402" s="49" t="s">
         <v>1063</v>
       </c>
-      <c r="B402" s="54" t="s">
+      <c r="B402" s="50" t="s">
         <v>1064</v>
       </c>
-      <c r="C402" s="54" t="s">
+      <c r="C402" s="50" t="s">
         <v>1065</v>
       </c>
-      <c r="D402" s="54" t="s">
+      <c r="D402" s="50" t="s">
         <v>1066</v>
       </c>
-      <c r="E402" s="54" t="s">
+      <c r="E402" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="F402" s="54">
+      <c r="F402" s="50">
         <v>50441</v>
       </c>
-      <c r="G402" s="54" t="s">
+      <c r="G402" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="H402" s="55">
+      <c r="H402" s="51">
         <v>17</v>
       </c>
-      <c r="I402" s="56" t="s">
+      <c r="I402" s="52" t="s">
         <v>1067</v>
       </c>
-      <c r="J402" s="57">
+      <c r="J402" s="53">
         <v>45571</v>
       </c>
-      <c r="K402" s="54" t="s">
+      <c r="K402" s="50" t="s">
         <v>660</v>
       </c>
       <c r="L402" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M402" s="54"/>
-      <c r="N402" s="54"/>
-      <c r="O402" s="54"/>
-      <c r="P402" s="54"/>
-      <c r="Q402" s="54"/>
-      <c r="R402" s="54"/>
-      <c r="S402" s="54"/>
-      <c r="T402" s="54"/>
-      <c r="U402" s="54"/>
-      <c r="V402" s="54"/>
-      <c r="W402" s="54"/>
-      <c r="X402" s="54"/>
-      <c r="Y402" s="54"/>
-      <c r="Z402" s="54"/>
+      <c r="M402" s="50"/>
+      <c r="N402" s="50"/>
+      <c r="O402" s="50"/>
+      <c r="P402" s="50"/>
+      <c r="Q402" s="50"/>
+      <c r="R402" s="50"/>
+      <c r="S402" s="50"/>
+      <c r="T402" s="50"/>
+      <c r="U402" s="50"/>
+      <c r="V402" s="50"/>
+      <c r="W402" s="50"/>
+      <c r="X402" s="50"/>
+      <c r="Y402" s="50"/>
+      <c r="Z402" s="50"/>
     </row>
     <row r="403" spans="1:26" ht="14.25" customHeight="1">
       <c r="A403" s="18" t="s">
@@ -24701,7 +24693,7 @@
       <c r="C403" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="D403" s="46" t="s">
+      <c r="D403" s="42" t="s">
         <v>897</v>
       </c>
       <c r="E403" s="11" t="s">
@@ -24848,18 +24840,42 @@
       <c r="Z405" s="11"/>
     </row>
     <row r="406" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A406" s="18"/>
-      <c r="B406" s="11"/>
-      <c r="C406" s="11"/>
-      <c r="D406" s="11"/>
-      <c r="E406" s="11"/>
-      <c r="F406" s="11"/>
-      <c r="G406" s="11"/>
-      <c r="H406" s="33"/>
-      <c r="I406" s="12"/>
-      <c r="J406" s="11"/>
-      <c r="K406" s="11"/>
-      <c r="L406" s="11"/>
+      <c r="A406" s="18" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B406" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D406" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E406" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F406" s="11">
+        <v>51632</v>
+      </c>
+      <c r="G406" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H406" s="33">
+        <v>54</v>
+      </c>
+      <c r="I406" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J406" s="6">
+        <v>45747</v>
+      </c>
+      <c r="K406" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="L406" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M406" s="11"/>
       <c r="N406" s="11"/>
       <c r="O406" s="11"/>
@@ -34392,15 +34408,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34419,14 +34426,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99641108-2AE9-466E-83CF-C8AC957CFF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C56E68-06DC-424A-AFAF-075521B9A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="1088">
   <si>
     <t>Company</t>
   </si>
@@ -3269,7 +3269,7 @@
     <t>09/18/2024</t>
   </si>
   <si>
-    <t>NSK Americas</t>
+    <t>NSK-AKS Precision Ball Company</t>
   </si>
   <si>
     <t>1100 N 1st St</t>
@@ -3279,6 +3279,30 @@
   </si>
   <si>
     <t>09/19/2024</t>
+  </si>
+  <si>
+    <t>510 Ashl St</t>
+  </si>
+  <si>
+    <t>09/23/2024</t>
+  </si>
+  <si>
+    <t>405 6th Ave NW</t>
+  </si>
+  <si>
+    <t>Deleware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3781 4th Ave </t>
+  </si>
+  <si>
+    <t>2801 Boulevard of Champions</t>
+  </si>
+  <si>
+    <t>100 North Industiral Parkway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Union </t>
   </si>
 </sst>
 </file>
@@ -3289,7 +3313,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3357,6 +3381,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3390,7 +3420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3537,6 +3567,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3758,8 +3789,8 @@
   <dimension ref="A1:Z737"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L406" sqref="L406"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C408" sqref="C408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24892,18 +24923,42 @@
       <c r="Z406" s="11"/>
     </row>
     <row r="407" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A407" s="18"/>
-      <c r="B407" s="11"/>
-      <c r="C407" s="11"/>
-      <c r="D407" s="11"/>
-      <c r="E407" s="11"/>
-      <c r="F407" s="11"/>
-      <c r="G407" s="11"/>
-      <c r="H407" s="33"/>
-      <c r="I407" s="12"/>
-      <c r="J407" s="11"/>
-      <c r="K407" s="11"/>
-      <c r="L407" s="11"/>
+      <c r="A407" s="49" t="s">
+        <v>847</v>
+      </c>
+      <c r="B407" s="50" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C407" s="50" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D407" s="50" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E407" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="F407" s="50">
+        <v>50022</v>
+      </c>
+      <c r="G407" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H407" s="51">
+        <v>13</v>
+      </c>
+      <c r="I407" s="52" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J407" s="53">
+        <v>45618</v>
+      </c>
+      <c r="K407" s="50" t="s">
+        <v>798</v>
+      </c>
+      <c r="L407" s="50" t="s">
+        <v>714</v>
+      </c>
       <c r="M407" s="11"/>
       <c r="N407" s="11"/>
       <c r="O407" s="11"/>
@@ -24920,18 +24975,42 @@
       <c r="Z407" s="11"/>
     </row>
     <row r="408" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A408" s="18"/>
-      <c r="B408" s="11"/>
-      <c r="C408" s="11"/>
-      <c r="D408" s="11"/>
-      <c r="E408" s="11"/>
-      <c r="F408" s="11"/>
-      <c r="G408" s="11"/>
-      <c r="H408" s="33"/>
-      <c r="I408" s="12"/>
-      <c r="J408" s="11"/>
-      <c r="K408" s="11"/>
-      <c r="L408" s="11"/>
+      <c r="A408" s="56" t="s">
+        <v>888</v>
+      </c>
+      <c r="B408" s="50" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C408" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="D408" s="50" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E408" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="F408" s="50">
+        <v>52040</v>
+      </c>
+      <c r="G408" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H408" s="51">
+        <v>8</v>
+      </c>
+      <c r="I408" s="52" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J408" s="53">
+        <v>45618</v>
+      </c>
+      <c r="K408" s="50" t="s">
+        <v>660</v>
+      </c>
+      <c r="L408" s="50" t="s">
+        <v>714</v>
+      </c>
       <c r="M408" s="11"/>
       <c r="N408" s="11"/>
       <c r="O408" s="11"/>
@@ -24948,18 +25027,42 @@
       <c r="Z408" s="11"/>
     </row>
     <row r="409" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A409" s="18"/>
-      <c r="B409" s="11"/>
-      <c r="C409" s="11"/>
-      <c r="D409" s="11"/>
-      <c r="E409" s="11"/>
-      <c r="F409" s="11"/>
-      <c r="G409" s="11"/>
-      <c r="H409" s="33"/>
-      <c r="I409" s="12"/>
-      <c r="J409" s="11"/>
-      <c r="K409" s="11"/>
-      <c r="L409" s="11"/>
+      <c r="A409" s="56" t="s">
+        <v>888</v>
+      </c>
+      <c r="B409" s="50" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C409" s="50" t="s">
+        <v>716</v>
+      </c>
+      <c r="D409" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E409" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="F409" s="50">
+        <v>52302</v>
+      </c>
+      <c r="G409" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H409" s="51">
+        <v>10</v>
+      </c>
+      <c r="I409" s="52" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J409" s="53">
+        <v>45618</v>
+      </c>
+      <c r="K409" s="50" t="s">
+        <v>636</v>
+      </c>
+      <c r="L409" s="50" t="s">
+        <v>714</v>
+      </c>
       <c r="M409" s="11"/>
       <c r="N409" s="11"/>
       <c r="O409" s="11"/>
@@ -24976,18 +25079,42 @@
       <c r="Z409" s="11"/>
     </row>
     <row r="410" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A410" s="18"/>
-      <c r="B410" s="11"/>
-      <c r="C410" s="11"/>
-      <c r="D410" s="11"/>
-      <c r="E410" s="11"/>
-      <c r="F410" s="11"/>
-      <c r="G410" s="11"/>
-      <c r="H410" s="33"/>
-      <c r="I410" s="12"/>
-      <c r="J410" s="11"/>
-      <c r="K410" s="11"/>
-      <c r="L410" s="11"/>
+      <c r="A410" s="56" t="s">
+        <v>888</v>
+      </c>
+      <c r="B410" s="50" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C410" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="D410" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="E410" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="F410" s="50">
+        <v>51111</v>
+      </c>
+      <c r="G410" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H410" s="51">
+        <v>10</v>
+      </c>
+      <c r="I410" s="52" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J410" s="53">
+        <v>45618</v>
+      </c>
+      <c r="K410" s="50" t="s">
+        <v>798</v>
+      </c>
+      <c r="L410" s="50" t="s">
+        <v>714</v>
+      </c>
       <c r="M410" s="11"/>
       <c r="N410" s="11"/>
       <c r="O410" s="11"/>
@@ -25004,18 +25131,42 @@
       <c r="Z410" s="11"/>
     </row>
     <row r="411" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A411" s="18"/>
-      <c r="B411" s="11"/>
-      <c r="C411" s="11"/>
-      <c r="D411" s="11"/>
-      <c r="E411" s="11"/>
-      <c r="F411" s="11"/>
-      <c r="G411" s="11"/>
-      <c r="H411" s="33"/>
-      <c r="I411" s="12"/>
-      <c r="J411" s="11"/>
-      <c r="K411" s="11"/>
-      <c r="L411" s="11"/>
+      <c r="A411" s="56" t="s">
+        <v>888</v>
+      </c>
+      <c r="B411" s="50" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C411" s="50" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D411" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E411" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="F411" s="56">
+        <v>52175</v>
+      </c>
+      <c r="G411" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H411" s="51">
+        <v>12</v>
+      </c>
+      <c r="I411" s="52" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J411" s="53">
+        <v>45618</v>
+      </c>
+      <c r="K411" s="50" t="s">
+        <v>660</v>
+      </c>
+      <c r="L411" s="50" t="s">
+        <v>714</v>
+      </c>
       <c r="M411" s="11"/>
       <c r="N411" s="11"/>
       <c r="O411" s="11"/>
@@ -34173,6 +34324,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34407,7 +34567,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34426,23 +34586,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C56E68-06DC-424A-AFAF-075521B9A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9D9658-0B50-44E2-9DE9-85F5E6ED8E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="1090">
   <si>
     <t>Company</t>
   </si>
@@ -3303,6 +3303,12 @@
   </si>
   <si>
     <t xml:space="preserve">West Union </t>
+  </si>
+  <si>
+    <t>Amendment- Additional Employees</t>
+  </si>
+  <si>
+    <t>9/25/2025</t>
   </si>
 </sst>
 </file>
@@ -3789,8 +3795,8 @@
   <dimension ref="A1:Z737"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C408" sqref="C408"/>
+      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L412" sqref="L412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25183,18 +25189,42 @@
       <c r="Z411" s="11"/>
     </row>
     <row r="412" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A412" s="18"/>
-      <c r="B412" s="11"/>
-      <c r="C412" s="11"/>
-      <c r="D412" s="11"/>
-      <c r="E412" s="11"/>
-      <c r="F412" s="11"/>
-      <c r="G412" s="11"/>
-      <c r="H412" s="33"/>
-      <c r="I412" s="12"/>
-      <c r="J412" s="11"/>
-      <c r="K412" s="11"/>
-      <c r="L412" s="11"/>
+      <c r="A412" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D412" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F412" s="11">
+        <v>50010</v>
+      </c>
+      <c r="G412" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H412" s="33">
+        <v>3</v>
+      </c>
+      <c r="I412" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J412" s="6">
+        <v>45560</v>
+      </c>
+      <c r="K412" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="L412" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M412" s="11"/>
       <c r="N412" s="11"/>
       <c r="O412" s="11"/>
@@ -34324,12 +34354,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34568,26 +34608,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34595,5 +34625,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9D9658-0B50-44E2-9DE9-85F5E6ED8E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE13472-1FC5-4A0A-8B50-EF9EDF89C3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="1091">
   <si>
     <t>Company</t>
   </si>
@@ -3308,7 +3308,10 @@
     <t>Amendment- Additional Employees</t>
   </si>
   <si>
-    <t>9/25/2025</t>
+    <t>9/25/2024</t>
+  </si>
+  <si>
+    <t>09/27/2024</t>
   </si>
 </sst>
 </file>
@@ -3795,8 +3798,8 @@
   <dimension ref="A1:Z737"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L412" sqref="L412"/>
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H413" sqref="H413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25241,18 +25244,42 @@
       <c r="Z412" s="11"/>
     </row>
     <row r="413" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A413" s="18"/>
-      <c r="B413" s="11"/>
-      <c r="C413" s="11"/>
-      <c r="D413" s="11"/>
-      <c r="E413" s="11"/>
-      <c r="F413" s="11"/>
-      <c r="G413" s="11"/>
-      <c r="H413" s="33"/>
-      <c r="I413" s="12"/>
-      <c r="J413" s="11"/>
-      <c r="K413" s="11"/>
-      <c r="L413" s="11"/>
+      <c r="A413" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C413" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D413" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E413" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F413" s="11">
+        <v>51106</v>
+      </c>
+      <c r="G413" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H413" s="33">
+        <v>6</v>
+      </c>
+      <c r="I413" s="12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J413" s="6">
+        <v>45562</v>
+      </c>
+      <c r="K413" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="L413" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M413" s="11"/>
       <c r="N413" s="11"/>
       <c r="O413" s="11"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98A0AEC-297A-4F35-B4F3-8BEAC4CE0263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF0E269-56C9-4B82-9E4A-176E444BF48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="1092">
   <si>
     <t>Company</t>
   </si>
@@ -3306,6 +3306,15 @@
   </si>
   <si>
     <t xml:space="preserve">Central iowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JELD-WEN Inc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">911 Industiral Ave </t>
+  </si>
+  <si>
+    <t>10/09/2024</t>
   </si>
 </sst>
 </file>
@@ -3792,8 +3801,8 @@
   <dimension ref="A1:Z735"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L412" sqref="L412"/>
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L413" sqref="L413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25238,18 +25247,42 @@
       <c r="Z412" s="11"/>
     </row>
     <row r="413" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A413" s="18"/>
-      <c r="B413" s="11"/>
-      <c r="C413" s="11"/>
-      <c r="D413" s="11"/>
-      <c r="E413" s="11"/>
-      <c r="F413" s="11"/>
-      <c r="G413" s="11"/>
-      <c r="H413" s="33"/>
-      <c r="I413" s="12"/>
-      <c r="J413" s="11"/>
-      <c r="K413" s="11"/>
-      <c r="L413" s="11"/>
+      <c r="A413" s="18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C413" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="D413" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="E413" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F413" s="11">
+        <v>50112</v>
+      </c>
+      <c r="G413" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H413" s="33">
+        <v>152</v>
+      </c>
+      <c r="I413" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J413" s="6">
+        <v>45603</v>
+      </c>
+      <c r="K413" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="L413" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M413" s="11"/>
       <c r="N413" s="11"/>
       <c r="O413" s="11"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF0E269-56C9-4B82-9E4A-176E444BF48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F05A5D15-5E23-49D3-82D1-40AAD9CCFF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="1096">
   <si>
     <t>Company</t>
   </si>
@@ -3305,16 +3305,28 @@
     <t>10/01/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Central iowa </t>
-  </si>
-  <si>
     <t xml:space="preserve">JELD-WEN Inc. </t>
   </si>
   <si>
     <t xml:space="preserve">911 Industiral Ave </t>
   </si>
   <si>
-    <t>10/09/2024</t>
+    <t>10/08/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omaha Standard, LLC </t>
+  </si>
+  <si>
+    <t>3501 S 11th St</t>
+  </si>
+  <si>
+    <t>Coucil Bluffs</t>
+  </si>
+  <si>
+    <t>10/11/2024</t>
   </si>
 </sst>
 </file>
@@ -3801,8 +3813,8 @@
   <dimension ref="A1:Z735"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L413" sqref="L413"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G415" sqref="G415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25226,7 +25238,7 @@
         <v>45627</v>
       </c>
       <c r="K412" s="11" t="s">
-        <v>1088</v>
+        <v>644</v>
       </c>
       <c r="L412" s="11" t="s">
         <v>34</v>
@@ -25248,10 +25260,10 @@
     </row>
     <row r="413" spans="1:26" ht="14.25" customHeight="1">
       <c r="A413" s="18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B413" s="11" t="s">
         <v>1089</v>
-      </c>
-      <c r="B413" s="11" t="s">
-        <v>1090</v>
       </c>
       <c r="C413" s="11" t="s">
         <v>698</v>
@@ -25272,7 +25284,7 @@
         <v>152</v>
       </c>
       <c r="I413" s="12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="J413" s="6">
         <v>45603</v>
@@ -25299,18 +25311,42 @@
       <c r="Z413" s="11"/>
     </row>
     <row r="414" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A414" s="18"/>
-      <c r="B414" s="11"/>
-      <c r="C414" s="11"/>
-      <c r="D414" s="11"/>
-      <c r="E414" s="11"/>
-      <c r="F414" s="11"/>
-      <c r="G414" s="11"/>
-      <c r="H414" s="33"/>
-      <c r="I414" s="12"/>
-      <c r="J414" s="11"/>
-      <c r="K414" s="11"/>
-      <c r="L414" s="11"/>
+      <c r="A414" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B414" s="39" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C414" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D414" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E414" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F414" s="11">
+        <v>50208</v>
+      </c>
+      <c r="G414" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H414" s="33">
+        <v>2</v>
+      </c>
+      <c r="I414" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J414" s="6">
+        <v>45618</v>
+      </c>
+      <c r="K414" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="L414" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M414" s="11"/>
       <c r="N414" s="11"/>
       <c r="O414" s="11"/>
@@ -25327,18 +25363,42 @@
       <c r="Z414" s="11"/>
     </row>
     <row r="415" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A415" s="18"/>
-      <c r="B415" s="11"/>
-      <c r="C415" s="11"/>
-      <c r="D415" s="11"/>
-      <c r="E415" s="11"/>
-      <c r="F415" s="11"/>
-      <c r="G415" s="11"/>
-      <c r="H415" s="33"/>
-      <c r="I415" s="12"/>
-      <c r="J415" s="11"/>
-      <c r="K415" s="11"/>
-      <c r="L415" s="11"/>
+      <c r="A415" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B415" s="39" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C415" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D415" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E415" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F415" s="11">
+        <v>50208</v>
+      </c>
+      <c r="G415" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H415" s="33">
+        <v>2</v>
+      </c>
+      <c r="I415" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J415" s="6">
+        <v>45688</v>
+      </c>
+      <c r="K415" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="L415" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M415" s="11"/>
       <c r="N415" s="11"/>
       <c r="O415" s="11"/>
@@ -25355,32 +25415,56 @@
       <c r="Z415" s="11"/>
     </row>
     <row r="416" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A416" s="18"/>
-      <c r="B416" s="11"/>
-      <c r="C416" s="11"/>
-      <c r="D416" s="11"/>
-      <c r="E416" s="11"/>
-      <c r="F416" s="11"/>
-      <c r="G416" s="11"/>
-      <c r="H416" s="33"/>
-      <c r="I416" s="12"/>
-      <c r="J416" s="11"/>
-      <c r="K416" s="11"/>
-      <c r="L416" s="11"/>
-      <c r="M416" s="11"/>
-      <c r="N416" s="11"/>
-      <c r="O416" s="11"/>
-      <c r="P416" s="11"/>
-      <c r="Q416" s="11"/>
-      <c r="R416" s="11"/>
-      <c r="S416" s="11"/>
-      <c r="T416" s="11"/>
-      <c r="U416" s="11"/>
-      <c r="V416" s="11"/>
-      <c r="W416" s="11"/>
-      <c r="X416" s="11"/>
-      <c r="Y416" s="11"/>
-      <c r="Z416" s="11"/>
+      <c r="A416" s="49" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B416" s="50" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C416" s="50" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D416" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E416" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F416" s="50">
+        <v>51501</v>
+      </c>
+      <c r="G416" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="H416" s="51">
+        <v>49</v>
+      </c>
+      <c r="I416" s="52" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J416" s="53">
+        <v>45597</v>
+      </c>
+      <c r="K416" s="50" t="s">
+        <v>845</v>
+      </c>
+      <c r="L416" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M416" s="50"/>
+      <c r="N416" s="50"/>
+      <c r="O416" s="50"/>
+      <c r="P416" s="50"/>
+      <c r="Q416" s="50"/>
+      <c r="R416" s="50"/>
+      <c r="S416" s="50"/>
+      <c r="T416" s="50"/>
+      <c r="U416" s="50"/>
+      <c r="V416" s="50"/>
+      <c r="W416" s="50"/>
+      <c r="X416" s="50"/>
+      <c r="Y416" s="50"/>
+      <c r="Z416" s="50"/>
     </row>
     <row r="417" spans="1:26" ht="14.25" customHeight="1">
       <c r="A417" s="18"/>
@@ -34328,12 +34412,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34572,26 +34666,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34599,5 +34683,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F8C342-8E2D-40D9-8DBA-2029452FCAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECAA33E9-E4B7-4DA8-A93C-75F2CEFBE158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1099">
   <si>
     <t>Company</t>
   </si>
@@ -3315,6 +3315,27 @@
   </si>
   <si>
     <t>10/17/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuus Materials </t>
+  </si>
+  <si>
+    <t>2425 Hubbell Ave Ste 107</t>
+  </si>
+  <si>
+    <t>10/22/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winnebago Industires </t>
+  </si>
+  <si>
+    <t>605 W Crystal Lake Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forect City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winnebago </t>
   </si>
 </sst>
 </file>
@@ -3801,8 +3822,8 @@
   <dimension ref="A1:Z733"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L416" sqref="L416"/>
+      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L417" sqref="L417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25455,18 +25476,42 @@
       <c r="Z416" s="11"/>
     </row>
     <row r="417" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A417" s="18"/>
-      <c r="B417" s="11"/>
-      <c r="C417" s="11"/>
-      <c r="D417" s="11"/>
-      <c r="E417" s="11"/>
-      <c r="F417" s="11"/>
-      <c r="G417" s="11"/>
-      <c r="H417" s="33"/>
-      <c r="I417" s="12"/>
-      <c r="J417" s="11"/>
-      <c r="K417" s="11"/>
-      <c r="L417" s="11"/>
+      <c r="A417" s="18" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B417" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C417" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D417" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F417" s="11">
+        <v>50317</v>
+      </c>
+      <c r="G417" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H417" s="33">
+        <v>32</v>
+      </c>
+      <c r="I417" s="12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J417" s="6">
+        <v>45587</v>
+      </c>
+      <c r="K417" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="L417" s="46" t="s">
+        <v>40</v>
+      </c>
       <c r="M417" s="11"/>
       <c r="N417" s="11"/>
       <c r="O417" s="11"/>
@@ -25483,32 +25528,56 @@
       <c r="Z417" s="11"/>
     </row>
     <row r="418" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A418" s="18"/>
-      <c r="B418" s="11"/>
-      <c r="C418" s="11"/>
-      <c r="D418" s="11"/>
-      <c r="E418" s="11"/>
-      <c r="F418" s="11"/>
-      <c r="G418" s="11"/>
-      <c r="H418" s="33"/>
-      <c r="I418" s="12"/>
-      <c r="J418" s="11"/>
-      <c r="K418" s="11"/>
-      <c r="L418" s="11"/>
-      <c r="M418" s="11"/>
-      <c r="N418" s="11"/>
-      <c r="O418" s="11"/>
-      <c r="P418" s="11"/>
-      <c r="Q418" s="11"/>
-      <c r="R418" s="11"/>
-      <c r="S418" s="11"/>
-      <c r="T418" s="11"/>
-      <c r="U418" s="11"/>
-      <c r="V418" s="11"/>
-      <c r="W418" s="11"/>
-      <c r="X418" s="11"/>
-      <c r="Y418" s="11"/>
-      <c r="Z418" s="11"/>
+      <c r="A418" s="49" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B418" s="50" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C418" s="50" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D418" s="50" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E418" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="F418" s="50">
+        <v>50436</v>
+      </c>
+      <c r="G418" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="H418" s="51">
+        <v>33</v>
+      </c>
+      <c r="I418" s="52" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J418" s="53">
+        <v>45618</v>
+      </c>
+      <c r="K418" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="L418" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M418" s="50"/>
+      <c r="N418" s="50"/>
+      <c r="O418" s="50"/>
+      <c r="P418" s="50"/>
+      <c r="Q418" s="50"/>
+      <c r="R418" s="50"/>
+      <c r="S418" s="50"/>
+      <c r="T418" s="50"/>
+      <c r="U418" s="50"/>
+      <c r="V418" s="50"/>
+      <c r="W418" s="50"/>
+      <c r="X418" s="50"/>
+      <c r="Y418" s="50"/>
+      <c r="Z418" s="50"/>
     </row>
     <row r="419" spans="1:26" ht="14.25" customHeight="1">
       <c r="A419" s="18"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECAA33E9-E4B7-4DA8-A93C-75F2CEFBE158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75ED05A7-5EBE-4BD8-B71C-26DB082EA9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1103">
   <si>
     <t>Company</t>
   </si>
@@ -3336,6 +3336,18 @@
   </si>
   <si>
     <t xml:space="preserve">Winnebago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QG Printing II, LLC </t>
+  </si>
+  <si>
+    <t>250 N 10th St</t>
+  </si>
+  <si>
+    <t>Waukee</t>
+  </si>
+  <si>
+    <t>10/24/2024</t>
   </si>
 </sst>
 </file>
@@ -3822,8 +3834,8 @@
   <dimension ref="A1:Z733"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L417" sqref="L417"/>
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L419" sqref="L419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25504,7 +25516,7 @@
         <v>1094</v>
       </c>
       <c r="J417" s="6">
-        <v>45587</v>
+        <v>45597</v>
       </c>
       <c r="K417" s="11" t="s">
         <v>636</v>
@@ -25580,18 +25592,42 @@
       <c r="Z418" s="50"/>
     </row>
     <row r="419" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A419" s="18"/>
-      <c r="B419" s="11"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="11"/>
-      <c r="E419" s="11"/>
-      <c r="F419" s="11"/>
-      <c r="G419" s="11"/>
-      <c r="H419" s="33"/>
-      <c r="I419" s="12"/>
-      <c r="J419" s="11"/>
-      <c r="K419" s="11"/>
-      <c r="L419" s="11"/>
+      <c r="A419" s="18" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B419" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C419" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D419" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="E419" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F419" s="11">
+        <v>50263</v>
+      </c>
+      <c r="G419" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H419" s="33">
+        <v>88</v>
+      </c>
+      <c r="I419" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J419" s="6">
+        <v>45667</v>
+      </c>
+      <c r="K419" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="L419" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="M419" s="11"/>
       <c r="N419" s="11"/>
       <c r="O419" s="11"/>
@@ -34413,6 +34449,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34647,7 +34702,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -34656,33 +34711,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75ED05A7-5EBE-4BD8-B71C-26DB082EA9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85FDB258-A57F-4F00-BACB-4240EB90E030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="1104">
   <si>
     <t>Company</t>
   </si>
@@ -3348,6 +3348,9 @@
   </si>
   <si>
     <t>10/24/2024</t>
+  </si>
+  <si>
+    <t>10/29/2024</t>
   </si>
 </sst>
 </file>
@@ -3834,8 +3837,8 @@
   <dimension ref="A1:Z733"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L419" sqref="L419"/>
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L420" sqref="L420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25644,18 +25647,42 @@
       <c r="Z419" s="11"/>
     </row>
     <row r="420" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A420" s="18"/>
-      <c r="B420" s="11"/>
-      <c r="C420" s="11"/>
-      <c r="D420" s="11"/>
-      <c r="E420" s="11"/>
-      <c r="F420" s="11"/>
-      <c r="G420" s="11"/>
-      <c r="H420" s="33"/>
-      <c r="I420" s="12"/>
-      <c r="J420" s="11"/>
-      <c r="K420" s="11"/>
-      <c r="L420" s="11"/>
+      <c r="A420" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="B420" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C420" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D420" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E420" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F420" s="11">
+        <v>50266</v>
+      </c>
+      <c r="G420" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="H420" s="33">
+        <v>32</v>
+      </c>
+      <c r="I420" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J420" s="6">
+        <v>45655</v>
+      </c>
+      <c r="K420" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="L420" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="M420" s="11"/>
       <c r="N420" s="11"/>
       <c r="O420" s="11"/>
@@ -34449,6 +34476,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34467,7 +34503,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34702,23 +34738,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C571691B-62F6-4558-A370-7004740DF04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D85766E-3D2B-410B-94C8-8C3F301F45DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3438,7 +3438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3586,6 +3586,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3807,8 +3823,8 @@
   <dimension ref="A1:Z729"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L417" sqref="L417"/>
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L416" sqref="L416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24889,40 +24905,40 @@
       <c r="Z405" s="11"/>
     </row>
     <row r="406" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A406" s="18" t="s">
+      <c r="A406" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="B406" s="11" t="s">
+      <c r="B406" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="C406" s="11" t="s">
+      <c r="C406" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="D406" s="11" t="s">
+      <c r="D406" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E406" s="11" t="s">
+      <c r="E406" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F406" s="11">
+      <c r="F406" s="42">
         <v>50266</v>
       </c>
-      <c r="G406" s="11" t="s">
+      <c r="G406" s="42" t="s">
         <v>970</v>
       </c>
-      <c r="H406" s="33">
+      <c r="H406" s="43">
         <v>8</v>
       </c>
-      <c r="I406" s="12" t="s">
+      <c r="I406" s="44" t="s">
         <v>1067</v>
       </c>
-      <c r="J406" s="6">
+      <c r="J406" s="45">
         <v>45627</v>
       </c>
-      <c r="K406" s="11" t="s">
+      <c r="K406" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="L406" s="11" t="s">
+      <c r="L406" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M406" s="11"/>
@@ -24941,40 +24957,40 @@
       <c r="Z406" s="11"/>
     </row>
     <row r="407" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A407" s="18" t="s">
+      <c r="A407" s="41" t="s">
         <v>1068</v>
       </c>
-      <c r="B407" s="11" t="s">
+      <c r="B407" s="42" t="s">
         <v>1069</v>
       </c>
-      <c r="C407" s="11" t="s">
+      <c r="C407" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="D407" s="11" t="s">
+      <c r="D407" s="42" t="s">
         <v>678</v>
       </c>
-      <c r="E407" s="11" t="s">
+      <c r="E407" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F407" s="11">
+      <c r="F407" s="42">
         <v>50112</v>
       </c>
-      <c r="G407" s="11" t="s">
+      <c r="G407" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="H407" s="33">
+      <c r="H407" s="43">
         <v>152</v>
       </c>
-      <c r="I407" s="12" t="s">
+      <c r="I407" s="44" t="s">
         <v>1070</v>
       </c>
-      <c r="J407" s="6">
+      <c r="J407" s="45">
         <v>45603</v>
       </c>
-      <c r="K407" s="11" t="s">
+      <c r="K407" s="42" t="s">
         <v>978</v>
       </c>
-      <c r="L407" s="11" t="s">
+      <c r="L407" s="42" t="s">
         <v>28</v>
       </c>
       <c r="M407" s="11"/>
@@ -24993,40 +25009,40 @@
       <c r="Z407" s="11"/>
     </row>
     <row r="408" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A408" s="18" t="s">
+      <c r="A408" s="41" t="s">
         <v>1006</v>
       </c>
-      <c r="B408" s="39" t="s">
+      <c r="B408" s="57" t="s">
         <v>1007</v>
       </c>
-      <c r="C408" s="11" t="s">
+      <c r="C408" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D408" s="11" t="s">
+      <c r="D408" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E408" s="11" t="s">
+      <c r="E408" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F408" s="11">
+      <c r="F408" s="42">
         <v>50208</v>
       </c>
-      <c r="G408" s="11" t="s">
+      <c r="G408" s="42" t="s">
         <v>1046</v>
       </c>
-      <c r="H408" s="33">
+      <c r="H408" s="43">
         <v>2</v>
       </c>
-      <c r="I408" s="12" t="s">
+      <c r="I408" s="44" t="s">
         <v>1071</v>
       </c>
-      <c r="J408" s="6">
+      <c r="J408" s="45">
         <v>45618</v>
       </c>
-      <c r="K408" s="11" t="s">
+      <c r="K408" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="L408" s="11" t="s">
+      <c r="L408" s="42" t="s">
         <v>28</v>
       </c>
       <c r="M408" s="11"/>
@@ -25045,40 +25061,40 @@
       <c r="Z408" s="11"/>
     </row>
     <row r="409" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A409" s="18" t="s">
+      <c r="A409" s="41" t="s">
         <v>1006</v>
       </c>
-      <c r="B409" s="39" t="s">
+      <c r="B409" s="57" t="s">
         <v>1007</v>
       </c>
-      <c r="C409" s="11" t="s">
+      <c r="C409" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D409" s="11" t="s">
+      <c r="D409" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E409" s="11" t="s">
+      <c r="E409" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F409" s="11">
+      <c r="F409" s="42">
         <v>50208</v>
       </c>
-      <c r="G409" s="11" t="s">
+      <c r="G409" s="42" t="s">
         <v>1046</v>
       </c>
-      <c r="H409" s="33">
+      <c r="H409" s="43">
         <v>2</v>
       </c>
-      <c r="I409" s="12" t="s">
+      <c r="I409" s="44" t="s">
         <v>1071</v>
       </c>
-      <c r="J409" s="6">
+      <c r="J409" s="45">
         <v>45688</v>
       </c>
-      <c r="K409" s="11" t="s">
+      <c r="K409" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="L409" s="11" t="s">
+      <c r="L409" s="42" t="s">
         <v>28</v>
       </c>
       <c r="M409" s="11"/>
@@ -25097,40 +25113,40 @@
       <c r="Z409" s="11"/>
     </row>
     <row r="410" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A410" s="49" t="s">
+      <c r="A410" s="58" t="s">
         <v>1072</v>
       </c>
-      <c r="B410" s="50" t="s">
+      <c r="B410" s="59" t="s">
         <v>1073</v>
       </c>
-      <c r="C410" s="50" t="s">
+      <c r="C410" s="59" t="s">
         <v>1074</v>
       </c>
-      <c r="D410" s="50" t="s">
+      <c r="D410" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E410" s="50" t="s">
+      <c r="E410" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F410" s="50">
+      <c r="F410" s="59">
         <v>51501</v>
       </c>
-      <c r="G410" s="50" t="s">
+      <c r="G410" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="H410" s="51">
+      <c r="H410" s="60">
         <v>49</v>
       </c>
-      <c r="I410" s="52" t="s">
+      <c r="I410" s="61" t="s">
         <v>1075</v>
       </c>
-      <c r="J410" s="53">
+      <c r="J410" s="62">
         <v>45597</v>
       </c>
-      <c r="K410" s="50" t="s">
+      <c r="K410" s="59" t="s">
         <v>825</v>
       </c>
-      <c r="L410" s="11" t="s">
+      <c r="L410" s="42" t="s">
         <v>28</v>
       </c>
       <c r="M410" s="50"/>
@@ -25201,37 +25217,37 @@
       <c r="Z411" s="11"/>
     </row>
     <row r="412" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A412" s="18" t="s">
+      <c r="A412" s="41" t="s">
         <v>1077</v>
       </c>
-      <c r="B412" s="11" t="s">
+      <c r="B412" s="42" t="s">
         <v>1078</v>
       </c>
-      <c r="C412" s="11" t="s">
+      <c r="C412" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D412" s="11" t="s">
+      <c r="D412" s="42" t="s">
         <v>983</v>
       </c>
-      <c r="E412" s="11" t="s">
+      <c r="E412" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="F412" s="11">
+      <c r="F412" s="42">
         <v>50616</v>
       </c>
-      <c r="G412" s="11" t="s">
+      <c r="G412" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="H412" s="33">
+      <c r="H412" s="43">
         <v>132</v>
       </c>
-      <c r="I412" s="12" t="s">
+      <c r="I412" s="44" t="s">
         <v>1079</v>
       </c>
-      <c r="J412" s="6">
+      <c r="J412" s="45">
         <v>45566</v>
       </c>
-      <c r="K412" s="11" t="s">
+      <c r="K412" s="42" t="s">
         <v>634</v>
       </c>
       <c r="L412" s="46" t="s">
@@ -25253,37 +25269,37 @@
       <c r="Z412" s="11"/>
     </row>
     <row r="413" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A413" s="18" t="s">
+      <c r="A413" s="41" t="s">
         <v>1080</v>
       </c>
-      <c r="B413" s="11" t="s">
+      <c r="B413" s="42" t="s">
         <v>1081</v>
       </c>
-      <c r="C413" s="11" t="s">
+      <c r="C413" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="D413" s="11" t="s">
+      <c r="D413" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E413" s="11" t="s">
+      <c r="E413" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F413" s="11">
+      <c r="F413" s="42">
         <v>50317</v>
       </c>
-      <c r="G413" s="11" t="s">
+      <c r="G413" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="H413" s="33">
+      <c r="H413" s="43">
         <v>32</v>
       </c>
-      <c r="I413" s="12" t="s">
+      <c r="I413" s="44" t="s">
         <v>1082</v>
       </c>
-      <c r="J413" s="6">
+      <c r="J413" s="45">
         <v>45597</v>
       </c>
-      <c r="K413" s="11" t="s">
+      <c r="K413" s="42" t="s">
         <v>623</v>
       </c>
       <c r="L413" s="46" t="s">
@@ -25305,40 +25321,40 @@
       <c r="Z413" s="11"/>
     </row>
     <row r="414" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A414" s="49" t="s">
+      <c r="A414" s="58" t="s">
         <v>1083</v>
       </c>
-      <c r="B414" s="50" t="s">
+      <c r="B414" s="59" t="s">
         <v>1084</v>
       </c>
-      <c r="C414" s="50" t="s">
+      <c r="C414" s="59" t="s">
         <v>1085</v>
       </c>
-      <c r="D414" s="50" t="s">
+      <c r="D414" s="59" t="s">
         <v>1086</v>
       </c>
-      <c r="E414" s="50" t="s">
+      <c r="E414" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="F414" s="50">
+      <c r="F414" s="59">
         <v>50436</v>
       </c>
-      <c r="G414" s="50" t="s">
+      <c r="G414" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="H414" s="51">
+      <c r="H414" s="60">
         <v>33</v>
       </c>
-      <c r="I414" s="52" t="s">
+      <c r="I414" s="61" t="s">
         <v>1082</v>
       </c>
-      <c r="J414" s="53">
+      <c r="J414" s="62">
         <v>45618</v>
       </c>
-      <c r="K414" s="50" t="s">
+      <c r="K414" s="59" t="s">
         <v>634</v>
       </c>
-      <c r="L414" s="20" t="s">
+      <c r="L414" s="46" t="s">
         <v>28</v>
       </c>
       <c r="M414" s="50"/>
@@ -25357,40 +25373,40 @@
       <c r="Z414" s="50"/>
     </row>
     <row r="415" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A415" s="18" t="s">
+      <c r="A415" s="41" t="s">
         <v>1087</v>
       </c>
-      <c r="B415" s="11" t="s">
+      <c r="B415" s="42" t="s">
         <v>1088</v>
       </c>
-      <c r="C415" s="11" t="s">
+      <c r="C415" s="42" t="s">
         <v>1089</v>
       </c>
-      <c r="D415" s="11" t="s">
+      <c r="D415" s="42" t="s">
         <v>873</v>
       </c>
-      <c r="E415" s="11" t="s">
+      <c r="E415" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="F415" s="11">
+      <c r="F415" s="42">
         <v>50263</v>
       </c>
-      <c r="G415" s="11" t="s">
+      <c r="G415" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H415" s="33">
+      <c r="H415" s="43">
         <v>88</v>
       </c>
-      <c r="I415" s="12" t="s">
+      <c r="I415" s="44" t="s">
         <v>1090</v>
       </c>
-      <c r="J415" s="6">
+      <c r="J415" s="45">
         <v>45667</v>
       </c>
-      <c r="K415" s="11" t="s">
+      <c r="K415" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="L415" s="20" t="s">
+      <c r="L415" s="46" t="s">
         <v>28</v>
       </c>
       <c r="M415" s="11"/>
@@ -25409,40 +25425,40 @@
       <c r="Z415" s="11"/>
     </row>
     <row r="416" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A416" s="18" t="s">
+      <c r="A416" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="B416" s="11" t="s">
+      <c r="B416" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="C416" s="11" t="s">
+      <c r="C416" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="D416" s="11" t="s">
+      <c r="D416" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E416" s="11" t="s">
+      <c r="E416" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F416" s="11">
+      <c r="F416" s="42">
         <v>50266</v>
       </c>
-      <c r="G416" s="50" t="s">
+      <c r="G416" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="H416" s="33">
+      <c r="H416" s="43">
         <v>32</v>
       </c>
-      <c r="I416" s="12" t="s">
+      <c r="I416" s="44" t="s">
         <v>1091</v>
       </c>
-      <c r="J416" s="6">
+      <c r="J416" s="45">
         <v>45655</v>
       </c>
-      <c r="K416" s="11" t="s">
+      <c r="K416" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="L416" s="11" t="s">
+      <c r="L416" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M416" s="11"/>
@@ -25461,40 +25477,40 @@
       <c r="Z416" s="11"/>
     </row>
     <row r="417" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A417" s="18" t="s">
+      <c r="A417" s="41" t="s">
         <v>1092</v>
       </c>
-      <c r="B417" s="11" t="s">
+      <c r="B417" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="C417" s="11" t="s">
+      <c r="C417" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="D417" s="11" t="s">
+      <c r="D417" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E417" s="11" t="s">
+      <c r="E417" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F417" s="11">
+      <c r="F417" s="42">
         <v>52411</v>
       </c>
-      <c r="G417" s="11" t="s">
+      <c r="G417" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="H417" s="33">
+      <c r="H417" s="43">
         <v>54</v>
       </c>
-      <c r="I417" s="12" t="s">
+      <c r="I417" s="44" t="s">
         <v>1093</v>
       </c>
-      <c r="J417" s="6">
-        <v>45657</v>
-      </c>
-      <c r="K417" s="11" t="s">
+      <c r="J417" s="45">
+        <v>46022</v>
+      </c>
+      <c r="K417" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="L417" s="11" t="s">
+      <c r="L417" s="42" t="s">
         <v>34</v>
       </c>
       <c r="M417" s="11"/>
@@ -34262,34 +34278,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34524,8 +34512,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34533,5 +34549,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C321944-93AD-442B-976F-0B5E185BFE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54FA771F-E0CF-4B2D-946E-7DAC7EAD438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="1093">
   <si>
     <t>Company</t>
   </si>
@@ -3315,9 +3315,6 @@
   </si>
   <si>
     <t xml:space="preserve">210 North 1st St </t>
-  </si>
-  <si>
-    <t>Laurents</t>
   </si>
   <si>
     <t>11/07/2024</t>
@@ -3830,8 +3827,8 @@
   <dimension ref="A1:Z728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L417" sqref="L417"/>
+      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F419" sqref="F419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25491,7 +25488,7 @@
         <v>1091</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>1092</v>
+        <v>507</v>
       </c>
       <c r="D417" s="11" t="s">
         <v>508</v>
@@ -25509,7 +25506,7 @@
         <v>91</v>
       </c>
       <c r="I417" s="12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J417" s="6">
         <v>45681</v>
@@ -34257,15 +34254,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34500,6 +34488,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -34520,11 +34517,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54FA771F-E0CF-4B2D-946E-7DAC7EAD438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98AC6B38-B9DB-423E-8AE3-CE0A1AD56363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1094">
   <si>
     <t>Company</t>
   </si>
@@ -3318,6 +3318,9 @@
   </si>
   <si>
     <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
   </si>
 </sst>
 </file>
@@ -25533,32 +25536,56 @@
       <c r="Z417" s="11"/>
     </row>
     <row r="418" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A418" s="18"/>
-      <c r="B418" s="11"/>
-      <c r="C418" s="11"/>
-      <c r="D418" s="11"/>
-      <c r="E418" s="11"/>
-      <c r="F418" s="11"/>
-      <c r="G418" s="11"/>
-      <c r="H418" s="33"/>
-      <c r="I418" s="12"/>
-      <c r="J418" s="11"/>
-      <c r="K418" s="11"/>
-      <c r="L418" s="11"/>
-      <c r="M418" s="11"/>
-      <c r="N418" s="11"/>
-      <c r="O418" s="11"/>
-      <c r="P418" s="11"/>
-      <c r="Q418" s="11"/>
-      <c r="R418" s="11"/>
-      <c r="S418" s="11"/>
-      <c r="T418" s="11"/>
-      <c r="U418" s="11"/>
-      <c r="V418" s="11"/>
-      <c r="W418" s="11"/>
-      <c r="X418" s="11"/>
-      <c r="Y418" s="11"/>
-      <c r="Z418" s="11"/>
+      <c r="A418" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="B418" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="C418" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D418" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E418" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F418" s="50">
+        <v>50266</v>
+      </c>
+      <c r="G418" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="H418" s="51">
+        <v>2</v>
+      </c>
+      <c r="I418" s="52" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J418" s="53">
+        <v>45669</v>
+      </c>
+      <c r="K418" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="L418" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M418" s="50"/>
+      <c r="N418" s="50"/>
+      <c r="O418" s="50"/>
+      <c r="P418" s="50"/>
+      <c r="Q418" s="50"/>
+      <c r="R418" s="50"/>
+      <c r="S418" s="50"/>
+      <c r="T418" s="50"/>
+      <c r="U418" s="50"/>
+      <c r="V418" s="50"/>
+      <c r="W418" s="50"/>
+      <c r="X418" s="50"/>
+      <c r="Y418" s="50"/>
+      <c r="Z418" s="50"/>
     </row>
     <row r="419" spans="1:26" ht="14.25" customHeight="1">
       <c r="A419" s="18"/>
@@ -34254,6 +34281,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34488,36 +34543,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34525,5 +34552,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98AC6B38-B9DB-423E-8AE3-CE0A1AD56363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F510CE7-96A4-402E-8236-988E07CDF63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1099">
   <si>
     <t>Company</t>
   </si>
@@ -3321,6 +3321,21 @@
   </si>
   <si>
     <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>Perfection Press Inc.</t>
+  </si>
+  <si>
+    <t>1200 Industiral Dr</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>11/15/2024</t>
   </si>
 </sst>
 </file>
@@ -3830,8 +3845,8 @@
   <dimension ref="A1:Z728"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F419" sqref="F419"/>
+      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A418" sqref="A418:XFD418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25588,32 +25603,56 @@
       <c r="Z418" s="50"/>
     </row>
     <row r="419" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A419" s="18"/>
-      <c r="B419" s="11"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="11"/>
-      <c r="E419" s="11"/>
-      <c r="F419" s="11"/>
-      <c r="G419" s="11"/>
-      <c r="H419" s="33"/>
-      <c r="I419" s="12"/>
-      <c r="J419" s="11"/>
-      <c r="K419" s="11"/>
-      <c r="L419" s="11"/>
-      <c r="M419" s="11"/>
-      <c r="N419" s="11"/>
-      <c r="O419" s="11"/>
-      <c r="P419" s="11"/>
-      <c r="Q419" s="11"/>
-      <c r="R419" s="11"/>
-      <c r="S419" s="11"/>
-      <c r="T419" s="11"/>
-      <c r="U419" s="11"/>
-      <c r="V419" s="11"/>
-      <c r="W419" s="11"/>
-      <c r="X419" s="11"/>
-      <c r="Y419" s="11"/>
-      <c r="Z419" s="11"/>
+      <c r="A419" s="49" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B419" s="50" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C419" s="50" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D419" s="50" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E419" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F419" s="50">
+        <v>51546</v>
+      </c>
+      <c r="G419" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H419" s="51">
+        <v>25</v>
+      </c>
+      <c r="I419" s="52" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J419" s="53">
+        <v>45657</v>
+      </c>
+      <c r="K419" s="50" t="s">
+        <v>821</v>
+      </c>
+      <c r="L419" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="M419" s="50"/>
+      <c r="N419" s="50"/>
+      <c r="O419" s="50"/>
+      <c r="P419" s="50"/>
+      <c r="Q419" s="50"/>
+      <c r="R419" s="50"/>
+      <c r="S419" s="50"/>
+      <c r="T419" s="50"/>
+      <c r="U419" s="50"/>
+      <c r="V419" s="50"/>
+      <c r="W419" s="50"/>
+      <c r="X419" s="50"/>
+      <c r="Y419" s="50"/>
+      <c r="Z419" s="50"/>
     </row>
     <row r="420" spans="1:26" ht="14.25" customHeight="1">
       <c r="A420" s="18"/>
@@ -34281,34 +34320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34543,14 +34554,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE14989-16ED-4E40-BED1-B480B487F75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63863426-24FE-4861-A453-99B212192145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3813,7 +3813,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C418" sqref="C418"/>
+      <selection pane="bottomLeft" activeCell="K413" sqref="K413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25286,7 +25286,7 @@
         <v>1090</v>
       </c>
       <c r="J413" s="37">
-        <v>45332</v>
+        <v>45698</v>
       </c>
       <c r="K413" s="34" t="s">
         <v>25</v>
@@ -33835,6 +33835,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34069,42 +34097,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63863426-24FE-4861-A453-99B212192145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CFA483B-8A2C-4A8D-98C2-EF26F0D943F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="1094">
   <si>
     <t>Company</t>
   </si>
@@ -3312,6 +3312,15 @@
   </si>
   <si>
     <t>12/10/2024</t>
+  </si>
+  <si>
+    <t>CVS Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4170 NW 114th St </t>
+  </si>
+  <si>
+    <t>12/16/2024</t>
   </si>
 </sst>
 </file>
@@ -3812,8 +3821,8 @@
   <dimension ref="A1:Z717"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K413" sqref="K413"/>
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25310,18 +25319,42 @@
       <c r="Z413" s="34"/>
     </row>
     <row r="414" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A414" s="17"/>
-      <c r="B414" s="10"/>
-      <c r="C414" s="10"/>
-      <c r="D414" s="10"/>
-      <c r="E414" s="10"/>
-      <c r="F414" s="10"/>
-      <c r="G414" s="10"/>
-      <c r="H414" s="35"/>
-      <c r="I414" s="36"/>
-      <c r="J414" s="10"/>
-      <c r="K414" s="10"/>
-      <c r="L414" s="10"/>
+      <c r="A414" s="17" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="D414" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E414" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F414" s="10">
+        <v>50322</v>
+      </c>
+      <c r="G414" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H414" s="35">
+        <v>48</v>
+      </c>
+      <c r="I414" s="36" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J414" s="5">
+        <v>45703</v>
+      </c>
+      <c r="K414" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="L414" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="M414" s="10"/>
       <c r="N414" s="10"/>
       <c r="O414" s="10"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B943207B-C33C-443F-853B-843377AB3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A9AE3FA-041B-4054-851C-38318474FEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1108">
   <si>
     <t>Company</t>
   </si>
@@ -3348,6 +3348,21 @@
   </si>
   <si>
     <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>SpartanNash</t>
+  </si>
+  <si>
+    <t>423 Sharp St</t>
+  </si>
+  <si>
+    <t>01/15/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinze Manufacturing, Inc </t>
+  </si>
+  <si>
+    <t>2172 M Ave</t>
   </si>
 </sst>
 </file>
@@ -3358,7 +3373,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3419,6 +3434,11 @@
       <name val="Calibri"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3440,7 +3460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3527,6 +3547,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3748,8 +3784,8 @@
   <dimension ref="A1:Z716"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L416" sqref="L416"/>
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L414" sqref="L414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25403,18 +25439,42 @@
       <c r="Z416" s="2"/>
     </row>
     <row r="417" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A417" s="10"/>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-      <c r="H417" s="8"/>
-      <c r="I417" s="11"/>
-      <c r="J417" s="2"/>
-      <c r="K417" s="2"/>
-      <c r="L417" s="2"/>
+      <c r="A417" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F417" s="2">
+        <v>51534</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H417" s="8">
+        <v>23</v>
+      </c>
+      <c r="I417" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J417" s="12">
+        <v>45702</v>
+      </c>
+      <c r="K417" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="L417" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -25430,33 +25490,57 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A418" s="10"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="8"/>
-      <c r="I418" s="11"/>
-      <c r="J418" s="2"/>
-      <c r="K418" s="2"/>
-      <c r="L418" s="2"/>
-      <c r="M418" s="2"/>
-      <c r="N418" s="2"/>
-      <c r="O418" s="2"/>
-      <c r="P418" s="2"/>
-      <c r="Q418" s="2"/>
-      <c r="R418" s="2"/>
-      <c r="S418" s="2"/>
-      <c r="T418" s="2"/>
-      <c r="U418" s="2"/>
-      <c r="V418" s="2"/>
-      <c r="W418" s="2"/>
-      <c r="X418" s="2"/>
-      <c r="Y418" s="2"/>
-      <c r="Z418" s="2"/>
+    <row r="418" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A418" s="34" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B418" s="35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C418" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="D418" s="35" t="s">
+        <v>975</v>
+      </c>
+      <c r="E418" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F418" s="35">
+        <v>52361</v>
+      </c>
+      <c r="G418" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H418" s="36">
+        <v>53</v>
+      </c>
+      <c r="I418" s="37" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J418" s="38">
+        <v>45672</v>
+      </c>
+      <c r="K418" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="L418" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M418" s="35"/>
+      <c r="N418" s="35"/>
+      <c r="O418" s="35"/>
+      <c r="P418" s="35"/>
+      <c r="Q418" s="35"/>
+      <c r="R418" s="35"/>
+      <c r="S418" s="35"/>
+      <c r="T418" s="35"/>
+      <c r="U418" s="35"/>
+      <c r="V418" s="35"/>
+      <c r="W418" s="35"/>
+      <c r="X418" s="35"/>
+      <c r="Y418" s="35"/>
+      <c r="Z418" s="35"/>
     </row>
     <row r="419" spans="1:26" ht="14.25" customHeight="1">
       <c r="A419" s="10"/>
@@ -33816,15 +33900,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -33841,6 +33916,15 @@
     <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34079,11 +34163,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A9AE3FA-041B-4054-851C-38318474FEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{399464D6-38E0-42C1-8844-75F216EBA2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1109">
   <si>
     <t>Company</t>
   </si>
@@ -3363,6 +3363,9 @@
   </si>
   <si>
     <t>2172 M Ave</t>
+  </si>
+  <si>
+    <t>01/16/2025</t>
   </si>
 </sst>
 </file>
@@ -3784,8 +3787,8 @@
   <dimension ref="A1:Z716"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L414" sqref="L414"/>
+      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L419" sqref="L419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25543,18 +25546,42 @@
       <c r="Z418" s="35"/>
     </row>
     <row r="419" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A419" s="10"/>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="8"/>
-      <c r="I419" s="11"/>
-      <c r="J419" s="2"/>
-      <c r="K419" s="2"/>
-      <c r="L419" s="2"/>
+      <c r="A419" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F419" s="2">
+        <v>50309</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H419" s="8">
+        <v>28</v>
+      </c>
+      <c r="I419" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J419" s="12">
+        <v>45689</v>
+      </c>
+      <c r="K419" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L419" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M419" s="2"/>
       <c r="N419" s="2"/>
       <c r="O419" s="2"/>
@@ -33900,6 +33927,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -33916,15 +33952,6 @@
     <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34163,11 +34190,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{399464D6-38E0-42C1-8844-75F216EBA2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34843F3-0B71-48E2-9408-7B9BB8EA5F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="1112">
   <si>
     <t>Company</t>
   </si>
@@ -3366,6 +3366,15 @@
   </si>
   <si>
     <t>01/16/2025</t>
+  </si>
+  <si>
+    <t>JELD-WEN Inc</t>
+  </si>
+  <si>
+    <t>911 Industiral Ave</t>
+  </si>
+  <si>
+    <t>01/20/2025</t>
   </si>
 </sst>
 </file>
@@ -3787,8 +3796,8 @@
   <dimension ref="A1:Z716"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L419" sqref="L419"/>
+      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L420" sqref="L420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25598,18 +25607,42 @@
       <c r="Z419" s="2"/>
     </row>
     <row r="420" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A420" s="10"/>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
-      <c r="H420" s="8"/>
-      <c r="I420" s="11"/>
-      <c r="J420" s="2"/>
-      <c r="K420" s="2"/>
-      <c r="L420" s="2"/>
+      <c r="A420" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F420" s="2">
+        <v>50112</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H420" s="8">
+        <v>298</v>
+      </c>
+      <c r="I420" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J420" s="12">
+        <v>45737</v>
+      </c>
+      <c r="K420" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="L420" s="39" t="s">
+        <v>28</v>
+      </c>
       <c r="M420" s="2"/>
       <c r="N420" s="2"/>
       <c r="O420" s="2"/>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD1764E-F96E-4857-A235-0D3C02783075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07DC4CA9-A9C2-47CE-999E-0957C1EB5E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="1103">
   <si>
     <t>Company</t>
   </si>
@@ -3342,6 +3342,12 @@
   </si>
   <si>
     <t>02/11/2025</t>
+  </si>
+  <si>
+    <t>Fisher Group</t>
+  </si>
+  <si>
+    <t>1250 N Center Point Rd</t>
   </si>
 </sst>
 </file>
@@ -3763,8 +3769,8 @@
   <dimension ref="A1:Z707"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K414" sqref="K414"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L416" sqref="L416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25366,18 +25372,42 @@
       <c r="Z415" s="35"/>
     </row>
     <row r="416" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A416" s="10"/>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-      <c r="H416" s="8"/>
-      <c r="I416" s="11"/>
-      <c r="J416" s="2"/>
-      <c r="K416" s="2"/>
-      <c r="L416" s="2"/>
+      <c r="A416" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F416" s="2">
+        <v>52233</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H416" s="8">
+        <v>32</v>
+      </c>
+      <c r="I416" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J416" s="12">
+        <v>45728</v>
+      </c>
+      <c r="K416" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L416" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
       <c r="O416" s="2"/>
@@ -33555,15 +33585,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -33798,6 +33819,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -33818,11 +33848,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07DC4CA9-A9C2-47CE-999E-0957C1EB5E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{775B6578-2180-4CC9-BAD8-A1F896EB5BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1107">
   <si>
     <t>Company</t>
   </si>
@@ -3348,6 +3348,18 @@
   </si>
   <si>
     <t>1250 N Center Point Rd</t>
+  </si>
+  <si>
+    <t>John Deere Des Moines Work</t>
+  </si>
+  <si>
+    <t>825 SW Irvinedale Dr</t>
+  </si>
+  <si>
+    <t>Mass Layoffs</t>
+  </si>
+  <si>
+    <t>02/21/2025</t>
   </si>
 </sst>
 </file>
@@ -3769,8 +3781,8 @@
   <dimension ref="A1:Z707"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L416" sqref="L416"/>
+      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25424,18 +25436,42 @@
       <c r="Z416" s="2"/>
     </row>
     <row r="417" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A417" s="10"/>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-      <c r="H417" s="8"/>
-      <c r="I417" s="11"/>
-      <c r="J417" s="2"/>
-      <c r="K417" s="2"/>
-      <c r="L417" s="2"/>
+      <c r="A417" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F417" s="2">
+        <v>50023</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H417" s="8">
+        <v>9</v>
+      </c>
+      <c r="I417" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J417" s="12">
+        <v>45747</v>
+      </c>
+      <c r="K417" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="L417" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
@@ -25452,18 +25488,42 @@
       <c r="Z417" s="2"/>
     </row>
     <row r="418" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A418" s="10"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="8"/>
-      <c r="I418" s="11"/>
-      <c r="J418" s="2"/>
-      <c r="K418" s="2"/>
-      <c r="L418" s="2"/>
+      <c r="A418" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F418" s="2">
+        <v>50023</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H418" s="8">
+        <v>38</v>
+      </c>
+      <c r="I418" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J418" s="12">
+        <v>45754</v>
+      </c>
+      <c r="K418" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="L418" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="M418" s="2"/>
       <c r="N418" s="2"/>
       <c r="O418" s="2"/>
@@ -25480,18 +25540,42 @@
       <c r="Z418" s="2"/>
     </row>
     <row r="419" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A419" s="10"/>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="8"/>
-      <c r="I419" s="11"/>
-      <c r="J419" s="2"/>
-      <c r="K419" s="2"/>
-      <c r="L419" s="2"/>
+      <c r="A419" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F419" s="2">
+        <v>50023</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H419" s="8">
+        <v>72</v>
+      </c>
+      <c r="I419" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J419" s="12">
+        <v>45775</v>
+      </c>
+      <c r="K419" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="L419" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="M419" s="2"/>
       <c r="N419" s="2"/>
       <c r="O419" s="2"/>
@@ -33572,6 +33656,7 @@
       <c r="Z707" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z416" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
   </sortState>
@@ -33585,6 +33670,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -33819,7 +33923,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -33828,33 +33932,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{775B6578-2180-4CC9-BAD8-A1F896EB5BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F576129-7A81-44BB-A4A9-B7F76A318703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="1109">
   <si>
     <t>Company</t>
   </si>
@@ -2720,9 +2720,6 @@
     <t>06/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Mass Layoff - Salaired </t>
-  </si>
-  <si>
     <t>John Deere Des Moines Works</t>
   </si>
   <si>
@@ -2762,12 +2759,12 @@
     <t>06/12/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Amendment - Change in Date </t>
+  </si>
+  <si>
     <t>Tyson Foods</t>
   </si>
   <si>
-    <t xml:space="preserve">Amendment - Change in Date </t>
-  </si>
-  <si>
     <t>Amendment - Change in Date</t>
   </si>
   <si>
@@ -3360,6 +3357,15 @@
   </si>
   <si>
     <t>02/21/2025</t>
+  </si>
+  <si>
+    <t>Ascent Professional Staffing</t>
+  </si>
+  <si>
+    <t>119 Sycamore St, Suite 200</t>
+  </si>
+  <si>
+    <t>02/28/2025</t>
   </si>
 </sst>
 </file>
@@ -3781,8 +3787,8 @@
   <dimension ref="A1:Z707"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G419" sqref="G419"/>
+      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L430" sqref="L430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -20931,7 +20937,7 @@
         <v>50704</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>893</v>
+        <v>176</v>
       </c>
       <c r="H330" s="8">
         <v>49</v>
@@ -20965,10 +20971,10 @@
     </row>
     <row r="331" spans="1:26" ht="14.25" customHeight="1">
       <c r="A331" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>895</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>58</v>
@@ -21017,10 +21023,10 @@
     </row>
     <row r="332" spans="1:26" ht="14.25" customHeight="1">
       <c r="A332" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>896</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>897</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>14</v>
@@ -21041,7 +21047,7 @@
         <v>118</v>
       </c>
       <c r="I332" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J332" s="12">
         <v>45478</v>
@@ -21093,7 +21099,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J333" s="12">
         <v>45450</v>
@@ -21121,16 +21127,16 @@
     </row>
     <row r="334" spans="1:26" ht="14.25" customHeight="1">
       <c r="A334" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="C334" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="D334" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>903</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>168</v>
@@ -21145,7 +21151,7 @@
         <v>48</v>
       </c>
       <c r="I334" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J334" s="12">
         <v>45470</v>
@@ -21197,7 +21203,7 @@
         <v>26</v>
       </c>
       <c r="I335" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J335" s="12">
         <v>45515</v>
@@ -21225,10 +21231,10 @@
     </row>
     <row r="336" spans="1:26" ht="14.25" customHeight="1">
       <c r="A336" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>896</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>897</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>14</v>
@@ -21243,13 +21249,13 @@
         <v>50313</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H336" s="8">
         <v>89</v>
       </c>
       <c r="I336" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J336" s="12">
         <v>45478</v>
@@ -21276,8 +21282,8 @@
       <c r="Z336" s="2"/>
     </row>
     <row r="337" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A337" s="10" t="s">
-        <v>907</v>
+      <c r="A337" s="10">
+        <v>-1</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>815</v>
@@ -21295,13 +21301,13 @@
         <v>50220</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H337" s="8">
         <v>32</v>
       </c>
       <c r="I337" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J337" s="12">
         <v>45500</v>
@@ -21347,13 +21353,13 @@
         <v>50220</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H338" s="8">
         <v>32</v>
       </c>
       <c r="I338" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J338" s="12">
         <v>45528</v>
@@ -21399,13 +21405,13 @@
         <v>50220</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H339" s="8">
         <v>5</v>
       </c>
       <c r="I339" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J339" s="12">
         <v>45563</v>
@@ -21433,16 +21439,16 @@
     </row>
     <row r="340" spans="1:26" ht="14.25" customHeight="1">
       <c r="A340" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="C340" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="D340" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>913</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>168</v>
@@ -21457,7 +21463,7 @@
         <v>36</v>
       </c>
       <c r="I340" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J340" s="12">
         <v>45492</v>
@@ -21503,13 +21509,13 @@
         <v>50266</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H341" s="8">
         <v>10</v>
       </c>
       <c r="I341" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J341" s="12">
         <v>45529</v>
@@ -21540,7 +21546,7 @@
         <v>134</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>136</v>
@@ -21561,7 +21567,7 @@
         <v>211</v>
       </c>
       <c r="I342" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J342" s="12">
         <v>45534</v>
@@ -21589,10 +21595,10 @@
     </row>
     <row r="343" spans="1:26" ht="14.25" customHeight="1">
       <c r="A343" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="B343" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>54</v>
@@ -21613,7 +21619,7 @@
         <v>99</v>
       </c>
       <c r="I343" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J343" s="12">
         <v>45534</v>
@@ -21641,10 +21647,10 @@
     </row>
     <row r="344" spans="1:26" ht="14.25" customHeight="1">
       <c r="A344" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="B344" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>849</v>
@@ -21665,7 +21671,7 @@
         <v>19</v>
       </c>
       <c r="I344" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J344" s="12">
         <v>45596</v>
@@ -21693,10 +21699,10 @@
     </row>
     <row r="345" spans="1:26" ht="14.25" customHeight="1">
       <c r="A345" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="B345" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>203</v>
@@ -21717,7 +21723,7 @@
         <v>319</v>
       </c>
       <c r="I345" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J345" s="12">
         <v>45534</v>
@@ -21748,13 +21754,13 @@
         <v>34</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>168</v>
@@ -21769,7 +21775,7 @@
         <v>36</v>
       </c>
       <c r="I346" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J346" s="12">
         <v>45536</v>
@@ -21815,13 +21821,13 @@
         <v>50266</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H347" s="8">
         <v>24</v>
       </c>
       <c r="I347" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J347" s="12">
         <v>45546</v>
@@ -21852,7 +21858,7 @@
         <v>869</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>136</v>
@@ -21867,13 +21873,13 @@
         <v>52002</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H348" s="8">
         <v>0</v>
       </c>
       <c r="I348" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J348" s="12">
         <v>45457</v>
@@ -21925,7 +21931,7 @@
         <v>191</v>
       </c>
       <c r="I349" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J349" s="12">
         <v>45555</v>
@@ -21956,7 +21962,7 @@
         <v>826</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>140</v>
@@ -21977,7 +21983,7 @@
         <v>89</v>
       </c>
       <c r="I350" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J350" s="12">
         <v>45555</v>
@@ -22008,7 +22014,7 @@
         <v>826</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>517</v>
@@ -22029,7 +22035,7 @@
         <v>65</v>
       </c>
       <c r="I351" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J351" s="12">
         <v>45555</v>
@@ -22057,10 +22063,10 @@
     </row>
     <row r="352" spans="1:26" ht="14.25" customHeight="1">
       <c r="A352" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>810</v>
@@ -22081,7 +22087,7 @@
         <v>51</v>
       </c>
       <c r="I352" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J352" s="12">
         <v>45489</v>
@@ -22112,10 +22118,10 @@
         <v>832</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>653</v>
@@ -22133,7 +22139,7 @@
         <v>1</v>
       </c>
       <c r="I353" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J353" s="12">
         <v>45522</v>
@@ -22179,13 +22185,13 @@
         <v>50266</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H354" s="8">
         <v>12</v>
       </c>
       <c r="I354" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J354" s="12">
         <v>45558</v>
@@ -22213,10 +22219,10 @@
     </row>
     <row r="355" spans="1:26" ht="14.25" customHeight="1">
       <c r="A355" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>54</v>
@@ -22237,7 +22243,7 @@
         <v>34</v>
       </c>
       <c r="I355" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J355" s="12">
         <v>45497</v>
@@ -22289,7 +22295,7 @@
         <v>69</v>
       </c>
       <c r="I356" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J356" s="12">
         <v>45497</v>
@@ -22317,10 +22323,10 @@
     </row>
     <row r="357" spans="1:26" ht="14.25" customHeight="1">
       <c r="A357" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="B357" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>946</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>469</v>
@@ -22341,7 +22347,7 @@
         <v>67</v>
       </c>
       <c r="I357" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J357" s="12">
         <v>45497</v>
@@ -22369,16 +22375,16 @@
     </row>
     <row r="358" spans="1:26" ht="14.25" customHeight="1">
       <c r="A358" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="B358" s="25" t="s">
         <v>947</v>
       </c>
-      <c r="B358" s="25" t="s">
+      <c r="C358" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="D358" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>16</v>
@@ -22393,7 +22399,7 @@
         <v>192</v>
       </c>
       <c r="I358" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J358" s="12">
         <v>45505</v>
@@ -22421,10 +22427,10 @@
     </row>
     <row r="359" spans="1:26" ht="14.25" customHeight="1">
       <c r="A359" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="B359" s="25" t="s">
         <v>952</v>
-      </c>
-      <c r="B359" s="25" t="s">
-        <v>953</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>306</v>
@@ -22445,7 +22451,7 @@
         <v>33</v>
       </c>
       <c r="I359" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J359" s="12">
         <v>45597</v>
@@ -22473,10 +22479,10 @@
     </row>
     <row r="360" spans="1:26" ht="14.25" customHeight="1">
       <c r="A360" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="B360" s="25" t="s">
         <v>952</v>
-      </c>
-      <c r="B360" s="25" t="s">
-        <v>953</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>306</v>
@@ -22497,7 +22503,7 @@
         <v>4</v>
       </c>
       <c r="I360" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J360" s="12">
         <v>45611</v>
@@ -22525,10 +22531,10 @@
     </row>
     <row r="361" spans="1:26" ht="14.25" customHeight="1">
       <c r="A361" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="B361" s="25" t="s">
         <v>952</v>
-      </c>
-      <c r="B361" s="25" t="s">
-        <v>953</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>306</v>
@@ -22549,7 +22555,7 @@
         <v>4</v>
       </c>
       <c r="I361" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J361" s="12">
         <v>45618</v>
@@ -22577,16 +22583,16 @@
     </row>
     <row r="362" spans="1:26" ht="14.25" customHeight="1">
       <c r="A362" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="B362" s="26" t="s">
         <v>955</v>
       </c>
-      <c r="B362" s="26" t="s">
+      <c r="C362" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="D362" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>16</v>
@@ -22601,7 +22607,7 @@
         <v>68</v>
       </c>
       <c r="I362" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J362" s="12">
         <v>45567</v>
@@ -22629,16 +22635,16 @@
     </row>
     <row r="363" spans="1:26" ht="14.25" customHeight="1">
       <c r="A363" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="C363" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="D363" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>16</v>
@@ -22653,7 +22659,7 @@
         <v>60</v>
       </c>
       <c r="I363" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J363" s="12">
         <v>45641</v>
@@ -22699,13 +22705,13 @@
         <v>50266</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H364" s="8">
         <v>3</v>
       </c>
       <c r="I364" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J364" s="12">
         <v>45571</v>
@@ -22733,10 +22739,10 @@
     </row>
     <row r="365" spans="1:26" ht="14.25" customHeight="1">
       <c r="A365" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>965</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>143</v>
@@ -22757,7 +22763,7 @@
         <v>23</v>
       </c>
       <c r="I365" s="11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J365" s="12">
         <v>45568</v>
@@ -22785,10 +22791,10 @@
     </row>
     <row r="366" spans="1:26" ht="14.25" customHeight="1">
       <c r="A366" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>315</v>
@@ -22809,7 +22815,7 @@
         <v>40</v>
       </c>
       <c r="I366" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J366" s="12">
         <v>45535</v>
@@ -22855,13 +22861,13 @@
         <v>50266</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H367" s="8">
         <v>16</v>
       </c>
       <c r="I367" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J367" s="12">
         <v>45585</v>
@@ -22889,10 +22895,10 @@
     </row>
     <row r="368" spans="1:26" ht="14.25" customHeight="1">
       <c r="A368" s="27" t="s">
+        <v>970</v>
+      </c>
+      <c r="B368" s="28" t="s">
         <v>971</v>
-      </c>
-      <c r="B368" s="28" t="s">
-        <v>972</v>
       </c>
       <c r="C368" s="28" t="s">
         <v>54</v>
@@ -22913,7 +22919,7 @@
         <v>74</v>
       </c>
       <c r="I368" s="29" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J368" s="30">
         <v>45592</v>
@@ -22922,7 +22928,7 @@
         <v>574</v>
       </c>
       <c r="L368" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M368" s="28"/>
       <c r="N368" s="28"/>
@@ -22941,10 +22947,10 @@
     </row>
     <row r="369" spans="1:26" ht="14.25" customHeight="1">
       <c r="A369" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>351</v>
@@ -22965,7 +22971,7 @@
         <v>58</v>
       </c>
       <c r="I369" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J369" s="12">
         <v>45565</v>
@@ -22993,10 +22999,10 @@
     </row>
     <row r="370" spans="1:26" ht="14.25" customHeight="1">
       <c r="A370" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>979</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>621</v>
@@ -23017,7 +23023,7 @@
         <v>40</v>
       </c>
       <c r="I370" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J370" s="12">
         <v>45568</v>
@@ -23045,16 +23051,16 @@
     </row>
     <row r="371" spans="1:26" ht="14.25" customHeight="1">
       <c r="A371" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="C371" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="C371" s="2" t="s">
+      <c r="D371" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>168</v>
@@ -23069,7 +23075,7 @@
         <v>30</v>
       </c>
       <c r="I371" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J371" s="12">
         <v>45568</v>
@@ -23097,16 +23103,16 @@
     </row>
     <row r="372" spans="1:26" ht="14.25" customHeight="1">
       <c r="A372" s="27" t="s">
+        <v>984</v>
+      </c>
+      <c r="B372" s="28" t="s">
         <v>985</v>
       </c>
-      <c r="B372" s="28" t="s">
+      <c r="C372" s="28" t="s">
         <v>986</v>
       </c>
-      <c r="C372" s="28" t="s">
+      <c r="D372" s="28" t="s">
         <v>987</v>
-      </c>
-      <c r="D372" s="28" t="s">
-        <v>988</v>
       </c>
       <c r="E372" s="28" t="s">
         <v>168</v>
@@ -23121,7 +23127,7 @@
         <v>17</v>
       </c>
       <c r="I372" s="29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J372" s="30">
         <v>45571</v>
@@ -23149,13 +23155,13 @@
     </row>
     <row r="373" spans="1:26" ht="14.25" customHeight="1">
       <c r="A373" s="10" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>815</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>817</v>
@@ -23167,13 +23173,13 @@
         <v>50220</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H373" s="8">
         <v>19</v>
       </c>
       <c r="I373" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J373" s="12">
         <v>45597</v>
@@ -23201,10 +23207,10 @@
     </row>
     <row r="374" spans="1:26" ht="14.25" customHeight="1">
       <c r="A374" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>692</v>
@@ -23225,7 +23231,7 @@
         <v>68</v>
       </c>
       <c r="I374" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J374" s="12">
         <v>45547</v>
@@ -23271,13 +23277,13 @@
         <v>50266</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H375" s="8">
         <v>47</v>
       </c>
       <c r="I375" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J375" s="12">
         <v>45614</v>
@@ -23305,13 +23311,13 @@
     </row>
     <row r="376" spans="1:26" ht="14.25" customHeight="1">
       <c r="A376" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="C376" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>24</v>
@@ -23329,7 +23335,7 @@
         <v>54</v>
       </c>
       <c r="I376" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J376" s="12">
         <v>45747</v>
@@ -23360,13 +23366,13 @@
         <v>764</v>
       </c>
       <c r="B377" s="28" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C377" s="28" t="s">
+        <v>960</v>
+      </c>
+      <c r="D377" s="28" t="s">
         <v>961</v>
-      </c>
-      <c r="D377" s="28" t="s">
-        <v>962</v>
       </c>
       <c r="E377" s="28" t="s">
         <v>168</v>
@@ -23381,7 +23387,7 @@
         <v>13</v>
       </c>
       <c r="I377" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J377" s="30">
         <v>45618</v>
@@ -23412,13 +23418,13 @@
         <v>808</v>
       </c>
       <c r="B378" s="28" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C378" s="28" t="s">
         <v>258</v>
       </c>
       <c r="D378" s="28" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E378" s="28" t="s">
         <v>168</v>
@@ -23433,7 +23439,7 @@
         <v>8</v>
       </c>
       <c r="I378" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J378" s="30">
         <v>45618</v>
@@ -23464,7 +23470,7 @@
         <v>808</v>
       </c>
       <c r="B379" s="28" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C379" s="28" t="s">
         <v>630</v>
@@ -23485,7 +23491,7 @@
         <v>10</v>
       </c>
       <c r="I379" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J379" s="30">
         <v>45618</v>
@@ -23516,7 +23522,7 @@
         <v>808</v>
       </c>
       <c r="B380" s="28" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C380" s="28" t="s">
         <v>632</v>
@@ -23537,7 +23543,7 @@
         <v>10</v>
       </c>
       <c r="I380" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J380" s="30">
         <v>45618</v>
@@ -23568,10 +23574,10 @@
         <v>808</v>
       </c>
       <c r="B381" s="28" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C381" s="28" t="s">
         <v>1008</v>
-      </c>
-      <c r="C381" s="28" t="s">
-        <v>1009</v>
       </c>
       <c r="D381" s="28" t="s">
         <v>661</v>
@@ -23589,7 +23595,7 @@
         <v>12</v>
       </c>
       <c r="I381" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J381" s="30">
         <v>45618</v>
@@ -23617,10 +23623,10 @@
     </row>
     <row r="382" spans="1:26" ht="14.25" customHeight="1">
       <c r="A382" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>315</v>
@@ -23635,13 +23641,13 @@
         <v>50010</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H382" s="8">
         <v>3</v>
       </c>
       <c r="I382" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J382" s="12">
         <v>45560</v>
@@ -23669,10 +23675,10 @@
     </row>
     <row r="383" spans="1:26" ht="14.25" customHeight="1">
       <c r="A383" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>351</v>
@@ -23687,13 +23693,13 @@
         <v>51106</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H383" s="8">
         <v>6</v>
       </c>
       <c r="I383" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J383" s="12">
         <v>45562</v>
@@ -23739,13 +23745,13 @@
         <v>50266</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H384" s="8">
         <v>8</v>
       </c>
       <c r="I384" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J384" s="12">
         <v>45627</v>
@@ -23773,10 +23779,10 @@
     </row>
     <row r="385" spans="1:26" ht="14.25" customHeight="1">
       <c r="A385" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>1014</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>1015</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>617</v>
@@ -23797,7 +23803,7 @@
         <v>152</v>
       </c>
       <c r="I385" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J385" s="12">
         <v>45603</v>
@@ -23825,10 +23831,10 @@
     </row>
     <row r="386" spans="1:26" ht="14.25" customHeight="1">
       <c r="A386" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="B386" s="25" t="s">
         <v>952</v>
-      </c>
-      <c r="B386" s="25" t="s">
-        <v>953</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>306</v>
@@ -23843,13 +23849,13 @@
         <v>50208</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H386" s="8">
         <v>2</v>
       </c>
       <c r="I386" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J386" s="12">
         <v>45618</v>
@@ -23877,10 +23883,10 @@
     </row>
     <row r="387" spans="1:26" ht="14.25" customHeight="1">
       <c r="A387" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="B387" s="25" t="s">
         <v>952</v>
-      </c>
-      <c r="B387" s="25" t="s">
-        <v>953</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>306</v>
@@ -23895,13 +23901,13 @@
         <v>50208</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H387" s="8">
         <v>2</v>
       </c>
       <c r="I387" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J387" s="12">
         <v>45688</v>
@@ -23929,13 +23935,13 @@
     </row>
     <row r="388" spans="1:26" ht="14.25" customHeight="1">
       <c r="A388" s="27" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B388" s="28" t="s">
         <v>1018</v>
       </c>
-      <c r="B388" s="28" t="s">
+      <c r="C388" s="28" t="s">
         <v>1019</v>
-      </c>
-      <c r="C388" s="28" t="s">
-        <v>1020</v>
       </c>
       <c r="D388" s="28" t="s">
         <v>116</v>
@@ -23953,7 +23959,7 @@
         <v>49</v>
       </c>
       <c r="I388" s="29" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J388" s="30">
         <v>45597</v>
@@ -23984,7 +23990,7 @@
         <v>134</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>136</v>
@@ -24005,7 +24011,7 @@
         <v>80</v>
       </c>
       <c r="I389" s="11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J389" s="12">
         <v>45660</v>
@@ -24033,16 +24039,16 @@
     </row>
     <row r="390" spans="1:26" ht="14.25" customHeight="1">
       <c r="A390" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>1023</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>1024</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>168</v>
@@ -24057,7 +24063,7 @@
         <v>132</v>
       </c>
       <c r="I390" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J390" s="12">
         <v>45566</v>
@@ -24085,10 +24091,10 @@
     </row>
     <row r="391" spans="1:26" ht="14.25" customHeight="1">
       <c r="A391" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>175</v>
@@ -24109,7 +24115,7 @@
         <v>32</v>
       </c>
       <c r="I391" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J391" s="12">
         <v>45597</v>
@@ -24137,16 +24143,16 @@
     </row>
     <row r="392" spans="1:26" ht="14.25" customHeight="1">
       <c r="A392" s="27" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B392" s="28" t="s">
         <v>1029</v>
       </c>
-      <c r="B392" s="28" t="s">
+      <c r="C392" s="28" t="s">
         <v>1030</v>
       </c>
-      <c r="C392" s="28" t="s">
+      <c r="D392" s="28" t="s">
         <v>1031</v>
-      </c>
-      <c r="D392" s="28" t="s">
-        <v>1032</v>
       </c>
       <c r="E392" s="28" t="s">
         <v>168</v>
@@ -24161,7 +24167,7 @@
         <v>33</v>
       </c>
       <c r="I392" s="29" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J392" s="30">
         <v>45618</v>
@@ -24189,13 +24195,13 @@
     </row>
     <row r="393" spans="1:26" ht="14.25" customHeight="1">
       <c r="A393" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="C393" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>817</v>
@@ -24213,7 +24219,7 @@
         <v>88</v>
       </c>
       <c r="I393" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J393" s="12">
         <v>45667</v>
@@ -24265,7 +24271,7 @@
         <v>32</v>
       </c>
       <c r="I394" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J394" s="12">
         <v>45655</v>
@@ -24293,7 +24299,7 @@
     </row>
     <row r="395" spans="1:26" ht="14.25" customHeight="1">
       <c r="A395" s="10" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>440</v>
@@ -24317,7 +24323,7 @@
         <v>54</v>
       </c>
       <c r="I395" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J395" s="12">
         <v>46022</v>
@@ -24345,10 +24351,10 @@
     </row>
     <row r="396" spans="1:26" ht="14.25" customHeight="1">
       <c r="A396" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>1041</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>451</v>
@@ -24369,7 +24375,7 @@
         <v>91</v>
       </c>
       <c r="I396" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J396" s="12">
         <v>45681</v>
@@ -24378,7 +24384,7 @@
         <v>767</v>
       </c>
       <c r="L396" s="32" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -24415,13 +24421,13 @@
         <v>50266</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H397" s="14">
         <v>2</v>
       </c>
       <c r="I397" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J397" s="30">
         <v>45669</v>
@@ -24449,16 +24455,16 @@
     </row>
     <row r="398" spans="1:26" ht="14.25" customHeight="1">
       <c r="A398" s="27" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B398" s="28" t="s">
         <v>1044</v>
       </c>
-      <c r="B398" s="28" t="s">
+      <c r="C398" s="28" t="s">
         <v>1045</v>
       </c>
-      <c r="C398" s="28" t="s">
+      <c r="D398" s="28" t="s">
         <v>1046</v>
-      </c>
-      <c r="D398" s="28" t="s">
-        <v>1047</v>
       </c>
       <c r="E398" s="28" t="s">
         <v>16</v>
@@ -24473,7 +24479,7 @@
         <v>25</v>
       </c>
       <c r="I398" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J398" s="30">
         <v>45657</v>
@@ -24501,19 +24507,19 @@
     </row>
     <row r="399" spans="1:26" ht="14.25" customHeight="1">
       <c r="A399" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="C399" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="C399" s="2" t="s">
+      <c r="D399" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="D399" s="2" t="s">
+      <c r="E399" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="E399" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="F399" s="2">
         <v>22102</v>
@@ -24525,7 +24531,7 @@
         <v>34</v>
       </c>
       <c r="I399" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J399" s="12">
         <v>45657</v>
@@ -24571,13 +24577,13 @@
         <v>50266</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H400" s="8">
         <v>2</v>
       </c>
       <c r="I400" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J400" s="12">
         <v>45683</v>
@@ -24605,16 +24611,16 @@
     </row>
     <row r="401" spans="1:26" ht="14.25" customHeight="1">
       <c r="A401" s="27" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B401" s="28" t="s">
         <v>1056</v>
       </c>
-      <c r="B401" s="28" t="s">
+      <c r="C401" s="28" t="s">
         <v>1057</v>
       </c>
-      <c r="C401" s="28" t="s">
+      <c r="D401" s="28" t="s">
         <v>1058</v>
-      </c>
-      <c r="D401" s="28" t="s">
-        <v>1059</v>
       </c>
       <c r="E401" s="28" t="s">
         <v>16</v>
@@ -24629,7 +24635,7 @@
         <v>94</v>
       </c>
       <c r="I401" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J401" s="30">
         <v>45691</v>
@@ -24660,7 +24666,7 @@
         <v>826</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>140</v>
@@ -24681,7 +24687,7 @@
         <v>112</v>
       </c>
       <c r="I402" s="11" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="J402" s="12">
         <v>45663</v>
@@ -24727,13 +24733,13 @@
         <v>50266</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H403" s="8">
         <v>21</v>
       </c>
       <c r="I403" s="11" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J403" s="12">
         <v>45698</v>
@@ -24761,10 +24767,10 @@
     </row>
     <row r="404" spans="1:26" ht="14.25" customHeight="1">
       <c r="A404" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>1064</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>692</v>
@@ -24785,7 +24791,7 @@
         <v>48</v>
       </c>
       <c r="I404" s="11" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J404" s="12">
         <v>45703</v>
@@ -24813,16 +24819,16 @@
     </row>
     <row r="405" spans="1:26" ht="14.25" customHeight="1">
       <c r="A405" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="C405" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="D405" s="2" t="s">
         <v>1068</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>16</v>
@@ -24837,7 +24843,7 @@
         <v>29</v>
       </c>
       <c r="I405" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J405" s="12">
         <v>45693</v>
@@ -24865,16 +24871,16 @@
     </row>
     <row r="406" spans="1:26" ht="14.25" customHeight="1">
       <c r="A406" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="C406" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="C406" s="2" t="s">
-        <v>1073</v>
-      </c>
       <c r="D406" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>168</v>
@@ -24889,7 +24895,7 @@
         <v>75</v>
       </c>
       <c r="I406" s="11" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J406" s="12">
         <v>45695</v>
@@ -24917,10 +24923,10 @@
     </row>
     <row r="407" spans="1:26" ht="14.25" customHeight="1">
       <c r="A407" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>203</v>
@@ -24941,7 +24947,7 @@
         <v>28</v>
       </c>
       <c r="I407" s="11" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J407" s="12">
         <v>45667</v>
@@ -24969,10 +24975,10 @@
     </row>
     <row r="408" spans="1:26" ht="14.25" customHeight="1">
       <c r="A408" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>1078</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>1079</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>877</v>
@@ -24993,7 +24999,7 @@
         <v>23</v>
       </c>
       <c r="I408" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J408" s="12">
         <v>45702</v>
@@ -25021,16 +25027,16 @@
     </row>
     <row r="409" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A409" s="34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B409" s="35" t="s">
         <v>1081</v>
       </c>
-      <c r="B409" s="35" t="s">
-        <v>1082</v>
-      </c>
       <c r="C409" s="35" t="s">
+        <v>948</v>
+      </c>
+      <c r="D409" s="35" t="s">
         <v>949</v>
-      </c>
-      <c r="D409" s="35" t="s">
-        <v>950</v>
       </c>
       <c r="E409" s="35" t="s">
         <v>16</v>
@@ -25045,7 +25051,7 @@
         <v>53</v>
       </c>
       <c r="I409" s="37" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J409" s="38">
         <v>45672</v>
@@ -25097,7 +25103,7 @@
         <v>28</v>
       </c>
       <c r="I410" s="11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="J410" s="12">
         <v>45689</v>
@@ -25125,10 +25131,10 @@
     </row>
     <row r="411" spans="1:26" ht="14.25" customHeight="1">
       <c r="A411" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>1085</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>617</v>
@@ -25149,7 +25155,7 @@
         <v>298</v>
       </c>
       <c r="I411" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J411" s="12">
         <v>45737</v>
@@ -25177,13 +25183,13 @@
     </row>
     <row r="412" spans="1:26" ht="14.25" customHeight="1">
       <c r="A412" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="B412" s="2" t="s">
-        <v>1088</v>
-      </c>
       <c r="C412" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>24</v>
@@ -25201,7 +25207,7 @@
         <v>34</v>
       </c>
       <c r="I412" s="11" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J412" s="12">
         <v>45716</v>
@@ -25229,13 +25235,13 @@
     </row>
     <row r="413" spans="1:26" ht="14.25" customHeight="1">
       <c r="A413" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="C413" s="2" t="s">
         <v>1091</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>1092</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>422</v>
@@ -25253,7 +25259,7 @@
         <v>41</v>
       </c>
       <c r="I413" s="11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J413" s="12">
         <v>45713</v>
@@ -25281,10 +25287,10 @@
     </row>
     <row r="414" spans="1:26" ht="14.25" customHeight="1">
       <c r="A414" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>203</v>
@@ -25299,13 +25305,13 @@
         <v>50009</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H414" s="8">
         <v>1</v>
       </c>
       <c r="I414" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J414" s="12">
         <v>45698</v>
@@ -25333,16 +25339,16 @@
     </row>
     <row r="415" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
       <c r="A415" s="34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B415" s="35" t="s">
         <v>1096</v>
       </c>
-      <c r="B415" s="35" t="s">
+      <c r="C415" s="35" t="s">
         <v>1097</v>
       </c>
-      <c r="C415" s="35" t="s">
+      <c r="D415" s="35" t="s">
         <v>1098</v>
-      </c>
-      <c r="D415" s="35" t="s">
-        <v>1099</v>
       </c>
       <c r="E415" s="35" t="s">
         <v>168</v>
@@ -25357,7 +25363,7 @@
         <v>36</v>
       </c>
       <c r="I415" s="37" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="J415" s="38">
         <v>45839</v>
@@ -25385,10 +25391,10 @@
     </row>
     <row r="416" spans="1:26" ht="14.25" customHeight="1">
       <c r="A416" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>1101</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>1102</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>143</v>
@@ -25409,7 +25415,7 @@
         <v>32</v>
       </c>
       <c r="I416" s="11" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="J416" s="12">
         <v>45728</v>
@@ -25437,10 +25443,10 @@
     </row>
     <row r="417" spans="1:26" ht="14.25" customHeight="1">
       <c r="A417" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>1104</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>58</v>
@@ -25455,13 +25461,13 @@
         <v>50023</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H417" s="8">
         <v>9</v>
       </c>
       <c r="I417" s="11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="J417" s="12">
         <v>45747</v>
@@ -25489,10 +25495,10 @@
     </row>
     <row r="418" spans="1:26" ht="14.25" customHeight="1">
       <c r="A418" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>1104</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>58</v>
@@ -25507,13 +25513,13 @@
         <v>50023</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H418" s="8">
         <v>38</v>
       </c>
       <c r="I418" s="11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="J418" s="12">
         <v>45754</v>
@@ -25541,10 +25547,10 @@
     </row>
     <row r="419" spans="1:26" ht="14.25" customHeight="1">
       <c r="A419" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>1104</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>58</v>
@@ -25559,13 +25565,13 @@
         <v>50023</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H419" s="8">
         <v>72</v>
       </c>
       <c r="I419" s="11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="J419" s="12">
         <v>45775</v>
@@ -25592,18 +25598,42 @@
       <c r="Z419" s="2"/>
     </row>
     <row r="420" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A420" s="10"/>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
-      <c r="H420" s="8"/>
-      <c r="I420" s="11"/>
-      <c r="J420" s="2"/>
-      <c r="K420" s="2"/>
-      <c r="L420" s="2"/>
+      <c r="A420" s="10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F420" s="2">
+        <v>52761</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H420" s="8">
+        <v>32</v>
+      </c>
+      <c r="I420" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J420" s="12">
+        <v>45779</v>
+      </c>
+      <c r="K420" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L420" s="2" t="s">
+        <v>686</v>
+      </c>
       <c r="M420" s="2"/>
       <c r="N420" s="2"/>
       <c r="O420" s="2"/>
@@ -33656,7 +33686,6 @@
       <c r="Z707" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z416" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
   </sortState>
@@ -33670,22 +33699,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33924,16 +33943,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33941,5 +33970,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28710"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD4EBF7A-E260-4F65-AC1D-CDDAC7AC77CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E00079-377B-4C89-AAD1-0C1B9FA502E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3835" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="1112">
   <si>
     <t>Company</t>
   </si>
@@ -3366,6 +3366,15 @@
   </si>
   <si>
     <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>Pitney Bowes</t>
+  </si>
+  <si>
+    <t>4350 121St St</t>
+  </si>
+  <si>
+    <t>03/12/2025</t>
   </si>
 </sst>
 </file>
@@ -3806,8 +3815,8 @@
   <dimension ref="A1:Z709"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I425" sqref="I425"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L437" sqref="L437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -25981,18 +25990,42 @@
       <c r="Z426" s="2"/>
     </row>
     <row r="427" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A427" s="10"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-      <c r="H427" s="8"/>
-      <c r="I427" s="11"/>
-      <c r="J427" s="46"/>
-      <c r="K427" s="2"/>
-      <c r="L427" s="2"/>
+      <c r="A427" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F427" s="2">
+        <v>50323</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H427" s="8">
+        <v>168</v>
+      </c>
+      <c r="I427" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J427" s="12">
+        <v>45796</v>
+      </c>
+      <c r="K427" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L427" s="2" t="s">
+        <v>681</v>
+      </c>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
       <c r="O427" s="2"/>
@@ -33918,22 +33951,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34172,16 +34195,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34189,5 +34222,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1822339-AE9A-450D-BA39-A1FB71640443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0522B7A7-87E4-4387-9FED-9433D4724EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="1108">
   <si>
     <t>Company</t>
   </si>
@@ -3342,6 +3342,27 @@
   </si>
   <si>
     <t>03/18/2025</t>
+  </si>
+  <si>
+    <t>Sodexo, Inc</t>
+  </si>
+  <si>
+    <t>700 College Dr</t>
+  </si>
+  <si>
+    <t>Decorah</t>
+  </si>
+  <si>
+    <t>Whirlpool Corporation</t>
+  </si>
+  <si>
+    <t>2800 220th Trail</t>
+  </si>
+  <si>
+    <t>Amana</t>
+  </si>
+  <si>
+    <t>04/01/2025</t>
   </si>
 </sst>
 </file>
@@ -3439,7 +3460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3526,27 +3547,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3557,7 +3563,6 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3779,8 +3784,8 @@
   <dimension ref="A1:Z708"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L430" sqref="L430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -24601,7 +24606,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="14.25" customHeight="1">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1">
       <c r="A401" s="10" t="s">
         <v>1045</v>
       </c>
@@ -24861,57 +24866,57 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" s="45" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A406" s="40" t="s">
+    <row r="406" spans="1:26" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A406" s="36" t="s">
         <v>1063</v>
       </c>
-      <c r="B406" s="41" t="s">
+      <c r="B406" s="34" t="s">
         <v>1064</v>
       </c>
-      <c r="C406" s="41" t="s">
+      <c r="C406" s="34" t="s">
         <v>934</v>
       </c>
-      <c r="D406" s="41" t="s">
+      <c r="D406" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="E406" s="41" t="s">
+      <c r="E406" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F406" s="41">
+      <c r="F406" s="34">
         <v>52361</v>
       </c>
-      <c r="G406" s="41" t="s">
+      <c r="G406" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H406" s="42">
+      <c r="H406" s="37">
         <v>53</v>
       </c>
-      <c r="I406" s="43" t="s">
+      <c r="I406" s="38" t="s">
         <v>1062</v>
       </c>
-      <c r="J406" s="44">
+      <c r="J406" s="39">
         <v>45672</v>
       </c>
-      <c r="K406" s="41" t="s">
+      <c r="K406" s="34" t="s">
         <v>539</v>
       </c>
       <c r="L406" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M406" s="41"/>
-      <c r="N406" s="41"/>
-      <c r="O406" s="41"/>
-      <c r="P406" s="41"/>
-      <c r="Q406" s="41"/>
-      <c r="R406" s="41"/>
-      <c r="S406" s="41"/>
-      <c r="T406" s="41"/>
-      <c r="U406" s="41"/>
-      <c r="V406" s="41"/>
-      <c r="W406" s="41"/>
-      <c r="X406" s="41"/>
-      <c r="Y406" s="41"/>
-      <c r="Z406" s="41"/>
+      <c r="M406" s="34"/>
+      <c r="N406" s="34"/>
+      <c r="O406" s="34"/>
+      <c r="P406" s="34"/>
+      <c r="Q406" s="34"/>
+      <c r="R406" s="34"/>
+      <c r="S406" s="34"/>
+      <c r="T406" s="34"/>
+      <c r="U406" s="34"/>
+      <c r="V406" s="34"/>
+      <c r="W406" s="34"/>
+      <c r="X406" s="34"/>
+      <c r="Y406" s="34"/>
+      <c r="Z406" s="34"/>
     </row>
     <row r="407" spans="1:26" ht="14.25" customHeight="1">
       <c r="A407" s="10" t="s">
@@ -25173,57 +25178,57 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A412" s="34" t="s">
+    <row r="412" spans="1:26" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A412" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="B412" s="35" t="s">
+      <c r="B412" s="34" t="s">
         <v>1078</v>
       </c>
-      <c r="C412" s="35" t="s">
+      <c r="C412" s="34" t="s">
         <v>1079</v>
       </c>
-      <c r="D412" s="35" t="s">
+      <c r="D412" s="34" t="s">
         <v>1080</v>
       </c>
-      <c r="E412" s="35" t="s">
+      <c r="E412" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="F412" s="35">
+      <c r="F412" s="34">
         <v>50858</v>
       </c>
-      <c r="G412" s="35" t="s">
+      <c r="G412" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="H412" s="36">
+      <c r="H412" s="37">
         <v>36</v>
       </c>
-      <c r="I412" s="37" t="s">
+      <c r="I412" s="38" t="s">
         <v>1081</v>
       </c>
-      <c r="J412" s="38">
+      <c r="J412" s="39">
         <v>45839</v>
       </c>
-      <c r="K412" s="35" t="s">
+      <c r="K412" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="L412" s="35" t="s">
+      <c r="L412" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="M412" s="35"/>
-      <c r="N412" s="35"/>
-      <c r="O412" s="35"/>
-      <c r="P412" s="35"/>
-      <c r="Q412" s="35"/>
-      <c r="R412" s="35"/>
-      <c r="S412" s="35"/>
-      <c r="T412" s="35"/>
-      <c r="U412" s="35"/>
-      <c r="V412" s="35"/>
-      <c r="W412" s="35"/>
-      <c r="X412" s="35"/>
-      <c r="Y412" s="35"/>
-      <c r="Z412" s="35"/>
+      <c r="M412" s="34"/>
+      <c r="N412" s="34"/>
+      <c r="O412" s="34"/>
+      <c r="P412" s="34"/>
+      <c r="Q412" s="34"/>
+      <c r="R412" s="34"/>
+      <c r="S412" s="34"/>
+      <c r="T412" s="34"/>
+      <c r="U412" s="34"/>
+      <c r="V412" s="34"/>
+      <c r="W412" s="34"/>
+      <c r="X412" s="34"/>
+      <c r="Y412" s="34"/>
+      <c r="Z412" s="34"/>
     </row>
     <row r="413" spans="1:26" ht="14.25" customHeight="1">
       <c r="A413" s="10" t="s">
@@ -25259,7 +25264,7 @@
       <c r="K413" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L413" s="39" t="s">
+      <c r="L413" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M413" s="2"/>
@@ -25311,7 +25316,7 @@
       <c r="K414" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="L414" s="39" t="s">
+      <c r="L414" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M414" s="2"/>
@@ -25363,7 +25368,7 @@
       <c r="K415" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="L415" s="39" t="s">
+      <c r="L415" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M415" s="2"/>
@@ -25415,7 +25420,7 @@
       <c r="K416" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="L416" s="39" t="s">
+      <c r="L416" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M416" s="2"/>
@@ -25987,7 +25992,7 @@
       <c r="K427" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="L427" s="39" t="s">
+      <c r="L427" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M427" s="2"/>
@@ -26058,18 +26063,42 @@
       <c r="Z428" s="2"/>
     </row>
     <row r="429" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A429" s="10"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="8"/>
-      <c r="I429" s="11"/>
-      <c r="J429" s="2"/>
-      <c r="K429" s="2"/>
-      <c r="L429" s="2"/>
+      <c r="A429" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F429" s="2">
+        <v>51201</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H429" s="8">
+        <v>130</v>
+      </c>
+      <c r="I429" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J429" s="12">
+        <v>45838</v>
+      </c>
+      <c r="K429" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="L429" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M429" s="2"/>
       <c r="N429" s="2"/>
       <c r="O429" s="2"/>
@@ -26086,18 +26115,42 @@
       <c r="Z429" s="2"/>
     </row>
     <row r="430" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A430" s="10"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
-      <c r="H430" s="8"/>
-      <c r="I430" s="11"/>
-      <c r="J430" s="2"/>
-      <c r="K430" s="2"/>
-      <c r="L430" s="2"/>
+      <c r="A430" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F430" s="2">
+        <v>52203</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H430" s="8">
+        <v>651</v>
+      </c>
+      <c r="I430" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J430" s="12">
+        <v>45809</v>
+      </c>
+      <c r="K430" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="M430" s="2"/>
       <c r="N430" s="2"/>
       <c r="O430" s="2"/>
@@ -33898,6 +33951,7 @@
       <c r="Z708" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z429" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
   </sortState>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0522B7A7-87E4-4387-9FED-9433D4724EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15E24DB-E330-4AE8-B0A4-4E015B1CAEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="1110">
   <si>
     <t>Company</t>
   </si>
@@ -3363,6 +3363,12 @@
   </si>
   <si>
     <t>04/01/2025</t>
+  </si>
+  <si>
+    <t>ASM Global</t>
+  </si>
+  <si>
+    <t>405 Main St</t>
   </si>
 </sst>
 </file>
@@ -3785,7 +3791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L430" sqref="L430"/>
+      <selection pane="bottomLeft" activeCell="K432" sqref="K432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -26167,18 +26173,42 @@
       <c r="Z430" s="2"/>
     </row>
     <row r="431" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A431" s="10"/>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-      <c r="E431" s="2"/>
-      <c r="F431" s="2"/>
-      <c r="G431" s="2"/>
-      <c r="H431" s="8"/>
-      <c r="I431" s="11"/>
-      <c r="J431" s="2"/>
-      <c r="K431" s="2"/>
-      <c r="L431" s="2"/>
+      <c r="A431" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F431" s="2">
+        <v>52001</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H431" s="8">
+        <v>160</v>
+      </c>
+      <c r="I431" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J431" s="12">
+        <v>45838</v>
+      </c>
+      <c r="K431" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="L431" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M431" s="2"/>
       <c r="N431" s="2"/>
       <c r="O431" s="2"/>
@@ -26195,18 +26225,42 @@
       <c r="Z431" s="2"/>
     </row>
     <row r="432" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A432" s="10"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
-      <c r="F432" s="2"/>
-      <c r="G432" s="2"/>
-      <c r="H432" s="8"/>
-      <c r="I432" s="11"/>
-      <c r="J432" s="2"/>
-      <c r="K432" s="2"/>
-      <c r="L432" s="2"/>
+      <c r="A432" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F432" s="2">
+        <v>50266</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="H432" s="8">
+        <v>14</v>
+      </c>
+      <c r="I432" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J432" s="12">
+        <v>45809</v>
+      </c>
+      <c r="K432" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L432" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="M432" s="2"/>
       <c r="N432" s="2"/>
       <c r="O432" s="2"/>
@@ -33951,7 +34005,6 @@
       <c r="Z708" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z429" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
   </sortState>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15E24DB-E330-4AE8-B0A4-4E015B1CAEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40360737-1115-40DE-A9D9-727960AB9007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="1116">
   <si>
     <t>Company</t>
   </si>
@@ -3369,6 +3369,24 @@
   </si>
   <si>
     <t>405 Main St</t>
+  </si>
+  <si>
+    <t>Durham School Servicees</t>
+  </si>
+  <si>
+    <t>1220 S Bell Ave</t>
+  </si>
+  <si>
+    <t>04/02/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corteva Agriscience </t>
+  </si>
+  <si>
+    <t>6900 NA 62nd St</t>
+  </si>
+  <si>
+    <t>59/09/2025</t>
   </si>
 </sst>
 </file>
@@ -3790,8 +3808,8 @@
   <dimension ref="A1:Z708"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K432" sqref="K432"/>
+      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A433" sqref="A433:L434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -26277,18 +26295,42 @@
       <c r="Z432" s="2"/>
     </row>
     <row r="433" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A433" s="10"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
-      <c r="F433" s="2"/>
-      <c r="G433" s="2"/>
-      <c r="H433" s="8"/>
-      <c r="I433" s="11"/>
-      <c r="J433" s="2"/>
-      <c r="K433" s="2"/>
-      <c r="L433" s="2"/>
+      <c r="A433" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F433" s="2">
+        <v>50010</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H433" s="8">
+        <v>62</v>
+      </c>
+      <c r="I433" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J433" s="12">
+        <v>45808</v>
+      </c>
+      <c r="K433" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L433" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="M433" s="2"/>
       <c r="N433" s="2"/>
       <c r="O433" s="2"/>
@@ -26305,18 +26347,42 @@
       <c r="Z433" s="2"/>
     </row>
     <row r="434" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A434" s="10"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
-      <c r="G434" s="2"/>
-      <c r="H434" s="8"/>
-      <c r="I434" s="11"/>
-      <c r="J434" s="2"/>
-      <c r="K434" s="2"/>
-      <c r="L434" s="2"/>
+      <c r="A434" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F434" s="2">
+        <v>50131</v>
+      </c>
+      <c r="G434" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H434" s="8">
+        <v>44</v>
+      </c>
+      <c r="I434" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J434" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K434" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L434" s="2" t="s">
+        <v>683</v>
+      </c>
       <c r="M434" s="2"/>
       <c r="N434" s="2"/>
       <c r="O434" s="2"/>
@@ -34018,6 +34084,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -34026,7 +34111,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -34261,33 +34346,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40360737-1115-40DE-A9D9-727960AB9007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD54CEC-421F-4C50-9D55-7DCD274D70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1158">
   <si>
     <t>Company</t>
   </si>
@@ -3386,7 +3386,133 @@
     <t>6900 NA 62nd St</t>
   </si>
   <si>
-    <t>59/09/2025</t>
+    <t>United States Cellular Corporation</t>
+  </si>
+  <si>
+    <t>515 49th Ave. Dr. SW</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Central </t>
+  </si>
+  <si>
+    <t>5404 NW 96th St</t>
+  </si>
+  <si>
+    <t>3418 8th St SW, Ste 6</t>
+  </si>
+  <si>
+    <t>400 S. Duff Ave. Ste 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story </t>
+  </si>
+  <si>
+    <t>1805 SE Delaware Ave., Ste. 1600</t>
+  </si>
+  <si>
+    <t>3203 Manawa Centre Drive</t>
+  </si>
+  <si>
+    <t>804 Laurel Street</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>3801 Merle Hay Road</t>
+  </si>
+  <si>
+    <t>2925 5th Ave South SteA</t>
+  </si>
+  <si>
+    <t>1011 North Jefferson Ste 600</t>
+  </si>
+  <si>
+    <t>Indianola</t>
+  </si>
+  <si>
+    <t>402 Indianhead Drive, #3</t>
+  </si>
+  <si>
+    <t>5832 Sunnybrook Drive</t>
+  </si>
+  <si>
+    <t>1580 Valley West Dr #200</t>
+  </si>
+  <si>
+    <t>6305 Mills Civic Pkwy., Ste. 3105</t>
+  </si>
+  <si>
+    <t>6205 University Ave</t>
+  </si>
+  <si>
+    <t>Cedar Falls</t>
+  </si>
+  <si>
+    <t>2315 Edgewood Road SW, UNIT 170</t>
+  </si>
+  <si>
+    <t>5300 Edgewood Rd NE Suite 900</t>
+  </si>
+  <si>
+    <t>4444 1st Ave NE, Ste. 600</t>
+  </si>
+  <si>
+    <t>1814 Lincoln Way</t>
+  </si>
+  <si>
+    <t>905 25th Ave</t>
+  </si>
+  <si>
+    <t>351 W Kimberly Road</t>
+  </si>
+  <si>
+    <t>2910 East 53rd St.</t>
+  </si>
+  <si>
+    <t>801 Short St.</t>
+  </si>
+  <si>
+    <t>806 Wacker Dr. Ste 112</t>
+  </si>
+  <si>
+    <t>1705 Boyrum St</t>
+  </si>
+  <si>
+    <t>3360 Main Street</t>
+  </si>
+  <si>
+    <t>1008 W Bell Ave Suite 101</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>1206 West Main St.</t>
+  </si>
+  <si>
+    <t>901 S. Center St., Ste 1</t>
+  </si>
+  <si>
+    <t>3414 North Port Dr., Ste. 3</t>
+  </si>
+  <si>
+    <t>1145 N. Quincy Ave.</t>
+  </si>
+  <si>
+    <t>2775 Crossroads Blvd, Suite D</t>
+  </si>
+  <si>
+    <t>116 W. Agency Rd., Ste. 1</t>
   </si>
 </sst>
 </file>
@@ -3484,7 +3610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3586,6 +3712,31 @@
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3808,8 +3959,8 @@
   <dimension ref="A1:Z708"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A433" sqref="A433:L434"/>
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M435" sqref="A435:XFD435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -19628,7 +19779,7 @@
       <c r="O304" s="2"/>
       <c r="P304" s="2"/>
       <c r="Q304" s="2"/>
-      <c r="R304" s="2"/>
+      <c r="R304" s="8"/>
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
       <c r="U304" s="2"/>
@@ -19680,7 +19831,7 @@
       <c r="O305" s="2"/>
       <c r="P305" s="2"/>
       <c r="Q305" s="2"/>
-      <c r="R305" s="2"/>
+      <c r="R305" s="8"/>
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
       <c r="U305" s="2"/>
@@ -19732,7 +19883,7 @@
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
       <c r="Q306" s="2"/>
-      <c r="R306" s="2"/>
+      <c r="R306" s="8"/>
       <c r="S306" s="2"/>
       <c r="T306" s="2"/>
       <c r="U306" s="2"/>
@@ -19784,7 +19935,7 @@
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
       <c r="Q307" s="2"/>
-      <c r="R307" s="2"/>
+      <c r="R307" s="8"/>
       <c r="S307" s="2"/>
       <c r="T307" s="2"/>
       <c r="U307" s="2"/>
@@ -19836,7 +19987,7 @@
       <c r="O308" s="2"/>
       <c r="P308" s="2"/>
       <c r="Q308" s="2"/>
-      <c r="R308" s="2"/>
+      <c r="R308" s="8"/>
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
       <c r="U308" s="2"/>
@@ -19888,7 +20039,7 @@
       <c r="O309" s="2"/>
       <c r="P309" s="2"/>
       <c r="Q309" s="2"/>
-      <c r="R309" s="2"/>
+      <c r="R309" s="8"/>
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
       <c r="U309" s="2"/>
@@ -19940,7 +20091,7 @@
       <c r="O310" s="2"/>
       <c r="P310" s="2"/>
       <c r="Q310" s="2"/>
-      <c r="R310" s="2"/>
+      <c r="R310" s="8"/>
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
       <c r="U310" s="2"/>
@@ -19992,7 +20143,7 @@
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
       <c r="Q311" s="2"/>
-      <c r="R311" s="2"/>
+      <c r="R311" s="8"/>
       <c r="S311" s="2"/>
       <c r="T311" s="2"/>
       <c r="U311" s="2"/>
@@ -20044,7 +20195,7 @@
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
       <c r="Q312" s="2"/>
-      <c r="R312" s="2"/>
+      <c r="R312" s="8"/>
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
       <c r="U312" s="2"/>
@@ -20096,7 +20247,7 @@
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
       <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
+      <c r="R313" s="8"/>
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
       <c r="U313" s="2"/>
@@ -20148,7 +20299,7 @@
       <c r="O314" s="2"/>
       <c r="P314" s="2"/>
       <c r="Q314" s="2"/>
-      <c r="R314" s="2"/>
+      <c r="R314" s="8"/>
       <c r="S314" s="2"/>
       <c r="T314" s="2"/>
       <c r="U314" s="2"/>
@@ -20200,7 +20351,7 @@
       <c r="O315" s="2"/>
       <c r="P315" s="2"/>
       <c r="Q315" s="2"/>
-      <c r="R315" s="2"/>
+      <c r="R315" s="8"/>
       <c r="S315" s="2"/>
       <c r="T315" s="2"/>
       <c r="U315" s="2"/>
@@ -20252,7 +20403,7 @@
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
       <c r="Q316" s="2"/>
-      <c r="R316" s="2"/>
+      <c r="R316" s="8"/>
       <c r="S316" s="2"/>
       <c r="T316" s="2"/>
       <c r="U316" s="2"/>
@@ -20304,7 +20455,7 @@
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
       <c r="Q317" s="2"/>
-      <c r="R317" s="2"/>
+      <c r="R317" s="8"/>
       <c r="S317" s="2"/>
       <c r="T317" s="2"/>
       <c r="U317" s="2"/>
@@ -20356,7 +20507,7 @@
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
       <c r="Q318" s="2"/>
-      <c r="R318" s="2"/>
+      <c r="R318" s="8"/>
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
       <c r="U318" s="2"/>
@@ -20408,7 +20559,7 @@
       <c r="O319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" s="2"/>
-      <c r="R319" s="2"/>
+      <c r="R319" s="8"/>
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
       <c r="U319" s="2"/>
@@ -20460,7 +20611,7 @@
       <c r="O320" s="2"/>
       <c r="P320" s="2"/>
       <c r="Q320" s="2"/>
-      <c r="R320" s="2"/>
+      <c r="R320" s="8"/>
       <c r="S320" s="2"/>
       <c r="T320" s="2"/>
       <c r="U320" s="2"/>
@@ -20512,7 +20663,7 @@
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
       <c r="Q321" s="2"/>
-      <c r="R321" s="2"/>
+      <c r="R321" s="8"/>
       <c r="S321" s="2"/>
       <c r="T321" s="2"/>
       <c r="U321" s="2"/>
@@ -20564,7 +20715,7 @@
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
       <c r="Q322" s="2"/>
-      <c r="R322" s="2"/>
+      <c r="R322" s="8"/>
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
       <c r="U322" s="2"/>
@@ -20616,7 +20767,7 @@
       <c r="O323" s="2"/>
       <c r="P323" s="2"/>
       <c r="Q323" s="2"/>
-      <c r="R323" s="2"/>
+      <c r="R323" s="8"/>
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
       <c r="U323" s="2"/>
@@ -20668,7 +20819,7 @@
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
       <c r="Q324" s="2"/>
-      <c r="R324" s="2"/>
+      <c r="R324" s="8"/>
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
       <c r="U324" s="2"/>
@@ -20720,7 +20871,7 @@
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
       <c r="Q325" s="2"/>
-      <c r="R325" s="2"/>
+      <c r="R325" s="8"/>
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
       <c r="U325" s="2"/>
@@ -20772,7 +20923,7 @@
       <c r="O326" s="2"/>
       <c r="P326" s="2"/>
       <c r="Q326" s="2"/>
-      <c r="R326" s="2"/>
+      <c r="R326" s="8"/>
       <c r="S326" s="2"/>
       <c r="T326" s="2"/>
       <c r="U326" s="2"/>
@@ -20824,7 +20975,7 @@
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
       <c r="Q327" s="2"/>
-      <c r="R327" s="2"/>
+      <c r="R327" s="8"/>
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
       <c r="U327" s="2"/>
@@ -20876,7 +21027,7 @@
       <c r="O328" s="2"/>
       <c r="P328" s="2"/>
       <c r="Q328" s="2"/>
-      <c r="R328" s="2"/>
+      <c r="R328" s="8"/>
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
       <c r="U328" s="2"/>
@@ -20928,7 +21079,7 @@
       <c r="O329" s="2"/>
       <c r="P329" s="2"/>
       <c r="Q329" s="2"/>
-      <c r="R329" s="2"/>
+      <c r="R329" s="8"/>
       <c r="S329" s="2"/>
       <c r="T329" s="2"/>
       <c r="U329" s="2"/>
@@ -20980,7 +21131,7 @@
       <c r="O330" s="2"/>
       <c r="P330" s="2"/>
       <c r="Q330" s="2"/>
-      <c r="R330" s="2"/>
+      <c r="R330" s="8"/>
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
       <c r="U330" s="2"/>
@@ -21032,7 +21183,7 @@
       <c r="O331" s="2"/>
       <c r="P331" s="2"/>
       <c r="Q331" s="2"/>
-      <c r="R331" s="2"/>
+      <c r="R331" s="8"/>
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
       <c r="U331" s="2"/>
@@ -21084,7 +21235,7 @@
       <c r="O332" s="2"/>
       <c r="P332" s="2"/>
       <c r="Q332" s="2"/>
-      <c r="R332" s="2"/>
+      <c r="R332" s="8"/>
       <c r="S332" s="2"/>
       <c r="T332" s="2"/>
       <c r="U332" s="2"/>
@@ -21136,7 +21287,7 @@
       <c r="O333" s="2"/>
       <c r="P333" s="2"/>
       <c r="Q333" s="2"/>
-      <c r="R333" s="2"/>
+      <c r="R333" s="8"/>
       <c r="S333" s="2"/>
       <c r="T333" s="2"/>
       <c r="U333" s="2"/>
@@ -21188,7 +21339,7 @@
       <c r="O334" s="2"/>
       <c r="P334" s="2"/>
       <c r="Q334" s="2"/>
-      <c r="R334" s="2"/>
+      <c r="R334" s="8"/>
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
       <c r="U334" s="2"/>
@@ -21240,7 +21391,7 @@
       <c r="O335" s="2"/>
       <c r="P335" s="2"/>
       <c r="Q335" s="2"/>
-      <c r="R335" s="2"/>
+      <c r="R335" s="8"/>
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
       <c r="U335" s="2"/>
@@ -21292,7 +21443,7 @@
       <c r="O336" s="2"/>
       <c r="P336" s="2"/>
       <c r="Q336" s="2"/>
-      <c r="R336" s="2"/>
+      <c r="R336" s="8"/>
       <c r="S336" s="2"/>
       <c r="T336" s="2"/>
       <c r="U336" s="2"/>
@@ -21344,7 +21495,7 @@
       <c r="O337" s="2"/>
       <c r="P337" s="2"/>
       <c r="Q337" s="2"/>
-      <c r="R337" s="2"/>
+      <c r="R337" s="8"/>
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
       <c r="U337" s="2"/>
@@ -21396,7 +21547,7 @@
       <c r="O338" s="2"/>
       <c r="P338" s="2"/>
       <c r="Q338" s="2"/>
-      <c r="R338" s="2"/>
+      <c r="R338" s="8"/>
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
       <c r="U338" s="2"/>
@@ -21448,7 +21599,7 @@
       <c r="O339" s="2"/>
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
-      <c r="R339" s="2"/>
+      <c r="R339" s="8"/>
       <c r="S339" s="2"/>
       <c r="T339" s="2"/>
       <c r="U339" s="2"/>
@@ -21500,7 +21651,7 @@
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
       <c r="Q340" s="2"/>
-      <c r="R340" s="2"/>
+      <c r="R340" s="8"/>
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
       <c r="U340" s="2"/>
@@ -21552,7 +21703,7 @@
       <c r="O341" s="2"/>
       <c r="P341" s="2"/>
       <c r="Q341" s="2"/>
-      <c r="R341" s="2"/>
+      <c r="R341" s="8"/>
       <c r="S341" s="2"/>
       <c r="T341" s="2"/>
       <c r="U341" s="2"/>
@@ -21604,7 +21755,7 @@
       <c r="O342" s="2"/>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
-      <c r="R342" s="2"/>
+      <c r="R342" s="8"/>
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
       <c r="U342" s="2"/>
@@ -21656,7 +21807,7 @@
       <c r="O343" s="2"/>
       <c r="P343" s="2"/>
       <c r="Q343" s="2"/>
-      <c r="R343" s="2"/>
+      <c r="R343" s="8"/>
       <c r="S343" s="2"/>
       <c r="T343" s="2"/>
       <c r="U343" s="2"/>
@@ -21708,7 +21859,7 @@
       <c r="O344" s="2"/>
       <c r="P344" s="2"/>
       <c r="Q344" s="2"/>
-      <c r="R344" s="2"/>
+      <c r="R344" s="8"/>
       <c r="S344" s="2"/>
       <c r="T344" s="2"/>
       <c r="U344" s="2"/>
@@ -26374,8 +26525,8 @@
       <c r="I434" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="J434" s="2" t="s">
-        <v>1115</v>
+      <c r="J434" s="12">
+        <v>45786</v>
       </c>
       <c r="K434" s="2" t="s">
         <v>552</v>
@@ -26399,18 +26550,42 @@
       <c r="Z434" s="2"/>
     </row>
     <row r="435" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A435" s="10"/>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-      <c r="H435" s="8"/>
-      <c r="I435" s="11"/>
-      <c r="J435" s="2"/>
-      <c r="K435" s="2"/>
-      <c r="L435" s="2"/>
+      <c r="A435" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B435" s="41" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C435" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D435" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E435" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="F435" s="42">
+        <v>52404</v>
+      </c>
+      <c r="G435" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H435" s="43">
+        <v>183</v>
+      </c>
+      <c r="I435" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J435" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K435" s="42" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L435" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M435" s="2"/>
       <c r="N435" s="2"/>
       <c r="O435" s="2"/>
@@ -26427,18 +26602,42 @@
       <c r="Z435" s="2"/>
     </row>
     <row r="436" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A436" s="10"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="8"/>
-      <c r="I436" s="11"/>
-      <c r="J436" s="2"/>
-      <c r="K436" s="2"/>
-      <c r="L436" s="2"/>
+      <c r="A436" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B436" s="41" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C436" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="D436" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="E436" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F436" s="46">
+        <v>50131</v>
+      </c>
+      <c r="G436" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H436" s="47">
+        <v>39</v>
+      </c>
+      <c r="I436" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J436" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K436" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L436" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M436" s="2"/>
       <c r="N436" s="2"/>
       <c r="O436" s="2"/>
@@ -26455,18 +26654,42 @@
       <c r="Z436" s="2"/>
     </row>
     <row r="437" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A437" s="10"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
-      <c r="E437" s="2"/>
-      <c r="F437" s="2"/>
-      <c r="G437" s="2"/>
-      <c r="H437" s="8"/>
-      <c r="I437" s="11"/>
-      <c r="J437" s="2"/>
-      <c r="K437" s="2"/>
-      <c r="L437" s="2"/>
+      <c r="A437" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B437" s="41" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C437" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D437" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="E437" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F437" s="48">
+        <v>50009</v>
+      </c>
+      <c r="G437" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H437" s="47">
+        <v>8</v>
+      </c>
+      <c r="I437" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J437" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K437" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L437" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M437" s="2"/>
       <c r="N437" s="2"/>
       <c r="O437" s="2"/>
@@ -26483,18 +26706,42 @@
       <c r="Z437" s="2"/>
     </row>
     <row r="438" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A438" s="10"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-      <c r="E438" s="2"/>
-      <c r="F438" s="2"/>
-      <c r="G438" s="2"/>
-      <c r="H438" s="8"/>
-      <c r="I438" s="11"/>
-      <c r="J438" s="2"/>
-      <c r="K438" s="2"/>
-      <c r="L438" s="2"/>
+      <c r="A438" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B438" s="41" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C438" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D438" s="46" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E438" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F438" s="48">
+        <v>50010</v>
+      </c>
+      <c r="G438" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H438" s="47">
+        <v>9</v>
+      </c>
+      <c r="I438" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J438" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K438" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L438" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M438" s="2"/>
       <c r="N438" s="2"/>
       <c r="O438" s="2"/>
@@ -26511,18 +26758,42 @@
       <c r="Z438" s="2"/>
     </row>
     <row r="439" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A439" s="10"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
-      <c r="E439" s="2"/>
-      <c r="F439" s="2"/>
-      <c r="G439" s="2"/>
-      <c r="H439" s="8"/>
-      <c r="I439" s="11"/>
-      <c r="J439" s="2"/>
-      <c r="K439" s="2"/>
-      <c r="L439" s="2"/>
+      <c r="A439" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B439" s="41" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C439" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D439" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="E439" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F439" s="48">
+        <v>50021</v>
+      </c>
+      <c r="G439" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H439" s="47">
+        <v>7</v>
+      </c>
+      <c r="I439" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J439" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K439" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L439" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M439" s="2"/>
       <c r="N439" s="2"/>
       <c r="O439" s="2"/>
@@ -26539,18 +26810,42 @@
       <c r="Z439" s="2"/>
     </row>
     <row r="440" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A440" s="10"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
-      <c r="E440" s="2"/>
-      <c r="F440" s="2"/>
-      <c r="G440" s="2"/>
-      <c r="H440" s="8"/>
-      <c r="I440" s="11"/>
-      <c r="J440" s="2"/>
-      <c r="K440" s="2"/>
-      <c r="L440" s="2"/>
+      <c r="A440" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B440" s="41" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C440" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D440" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E440" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F440" s="48">
+        <v>51501</v>
+      </c>
+      <c r="G440" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H440" s="47">
+        <v>6</v>
+      </c>
+      <c r="I440" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J440" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K440" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="L440" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M440" s="2"/>
       <c r="N440" s="2"/>
       <c r="O440" s="2"/>
@@ -26567,18 +26862,42 @@
       <c r="Z440" s="2"/>
     </row>
     <row r="441" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A441" s="10"/>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
-      <c r="E441" s="2"/>
-      <c r="F441" s="2"/>
-      <c r="G441" s="2"/>
-      <c r="H441" s="8"/>
-      <c r="I441" s="11"/>
-      <c r="J441" s="2"/>
-      <c r="K441" s="2"/>
-      <c r="L441" s="2"/>
+      <c r="A441" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B441" s="41" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C441" s="41" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D441" s="46" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E441" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F441" s="48">
+        <v>50801</v>
+      </c>
+      <c r="G441" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H441" s="47">
+        <v>9</v>
+      </c>
+      <c r="I441" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J441" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K441" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="L441" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M441" s="2"/>
       <c r="N441" s="2"/>
       <c r="O441" s="2"/>
@@ -26595,18 +26914,42 @@
       <c r="Z441" s="2"/>
     </row>
     <row r="442" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A442" s="10"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-      <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
-      <c r="H442" s="8"/>
-      <c r="I442" s="11"/>
-      <c r="J442" s="2"/>
-      <c r="K442" s="2"/>
-      <c r="L442" s="2"/>
+      <c r="A442" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B442" s="41" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C442" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D442" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="E442" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F442" s="48">
+        <v>50310</v>
+      </c>
+      <c r="G442" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H442" s="47">
+        <v>11</v>
+      </c>
+      <c r="I442" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J442" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K442" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L442" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M442" s="2"/>
       <c r="N442" s="2"/>
       <c r="O442" s="2"/>
@@ -26623,18 +26966,42 @@
       <c r="Z442" s="2"/>
     </row>
     <row r="443" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A443" s="10"/>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-      <c r="E443" s="2"/>
-      <c r="F443" s="2"/>
-      <c r="G443" s="2"/>
-      <c r="H443" s="8"/>
-      <c r="I443" s="11"/>
-      <c r="J443" s="2"/>
-      <c r="K443" s="2"/>
-      <c r="L443" s="2"/>
+      <c r="A443" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B443" s="41" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C443" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="D443" s="46" t="s">
+        <v>766</v>
+      </c>
+      <c r="E443" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F443" s="48">
+        <v>50501</v>
+      </c>
+      <c r="G443" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H443" s="47">
+        <v>10</v>
+      </c>
+      <c r="I443" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J443" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K443" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="L443" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M443" s="2"/>
       <c r="N443" s="2"/>
       <c r="O443" s="2"/>
@@ -26651,18 +27018,42 @@
       <c r="Z443" s="2"/>
     </row>
     <row r="444" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A444" s="10"/>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
-      <c r="E444" s="2"/>
-      <c r="F444" s="2"/>
-      <c r="G444" s="2"/>
-      <c r="H444" s="8"/>
-      <c r="I444" s="11"/>
-      <c r="J444" s="2"/>
-      <c r="K444" s="2"/>
-      <c r="L444" s="2"/>
+      <c r="A444" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B444" s="41" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C444" s="41" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D444" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="E444" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F444" s="48">
+        <v>50125</v>
+      </c>
+      <c r="G444" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H444" s="47">
+        <v>6</v>
+      </c>
+      <c r="I444" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J444" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K444" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L444" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M444" s="2"/>
       <c r="N444" s="2"/>
       <c r="O444" s="2"/>
@@ -26679,18 +27070,42 @@
       <c r="Z444" s="2"/>
     </row>
     <row r="445" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A445" s="10"/>
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
-      <c r="E445" s="2"/>
-      <c r="F445" s="2"/>
-      <c r="G445" s="2"/>
-      <c r="H445" s="8"/>
-      <c r="I445" s="11"/>
-      <c r="J445" s="2"/>
-      <c r="K445" s="2"/>
-      <c r="L445" s="2"/>
+      <c r="A445" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B445" s="41" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C445" s="41" t="s">
+        <v>737</v>
+      </c>
+      <c r="D445" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="E445" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F445" s="48">
+        <v>50401</v>
+      </c>
+      <c r="G445" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H445" s="47">
+        <v>9</v>
+      </c>
+      <c r="I445" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J445" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K445" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L445" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M445" s="2"/>
       <c r="N445" s="2"/>
       <c r="O445" s="2"/>
@@ -26707,18 +27122,42 @@
       <c r="Z445" s="2"/>
     </row>
     <row r="446" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A446" s="10"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
-      <c r="E446" s="2"/>
-      <c r="F446" s="2"/>
-      <c r="G446" s="2"/>
-      <c r="H446" s="8"/>
-      <c r="I446" s="11"/>
-      <c r="J446" s="2"/>
-      <c r="K446" s="2"/>
-      <c r="L446" s="2"/>
+      <c r="A446" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B446" s="41" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C446" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D446" s="46" t="s">
+        <v>623</v>
+      </c>
+      <c r="E446" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F446" s="48">
+        <v>51106</v>
+      </c>
+      <c r="G446" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H446" s="47">
+        <v>5</v>
+      </c>
+      <c r="I446" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J446" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K446" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="L446" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M446" s="2"/>
       <c r="N446" s="2"/>
       <c r="O446" s="2"/>
@@ -26735,18 +27174,42 @@
       <c r="Z446" s="2"/>
     </row>
     <row r="447" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A447" s="10"/>
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="2"/>
-      <c r="H447" s="8"/>
-      <c r="I447" s="11"/>
-      <c r="J447" s="2"/>
-      <c r="K447" s="2"/>
-      <c r="L447" s="2"/>
+      <c r="A447" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B447" s="41" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C447" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D447" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E447" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F447" s="48">
+        <v>50266</v>
+      </c>
+      <c r="G447" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H447" s="47">
+        <v>7</v>
+      </c>
+      <c r="I447" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J447" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K447" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L447" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M447" s="2"/>
       <c r="N447" s="2"/>
       <c r="O447" s="2"/>
@@ -26763,18 +27226,42 @@
       <c r="Z447" s="2"/>
     </row>
     <row r="448" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A448" s="10"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
-      <c r="E448" s="2"/>
-      <c r="F448" s="2"/>
-      <c r="G448" s="2"/>
-      <c r="H448" s="8"/>
-      <c r="I448" s="11"/>
-      <c r="J448" s="2"/>
-      <c r="K448" s="2"/>
-      <c r="L448" s="2"/>
+      <c r="A448" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B448" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C448" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D448" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E448" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F448" s="48">
+        <v>50266</v>
+      </c>
+      <c r="G448" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H448" s="47">
+        <v>7</v>
+      </c>
+      <c r="I448" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J448" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K448" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L448" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M448" s="2"/>
       <c r="N448" s="2"/>
       <c r="O448" s="2"/>
@@ -26791,18 +27278,42 @@
       <c r="Z448" s="2"/>
     </row>
     <row r="449" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A449" s="10"/>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="2"/>
-      <c r="F449" s="2"/>
-      <c r="G449" s="2"/>
-      <c r="H449" s="8"/>
-      <c r="I449" s="11"/>
-      <c r="J449" s="2"/>
-      <c r="K449" s="2"/>
-      <c r="L449" s="2"/>
+      <c r="A449" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B449" s="41" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C449" s="41" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D449" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E449" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F449" s="48">
+        <v>50613</v>
+      </c>
+      <c r="G449" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H449" s="47">
+        <v>8</v>
+      </c>
+      <c r="I449" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J449" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K449" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L449" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M449" s="2"/>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
@@ -26819,18 +27330,42 @@
       <c r="Z449" s="2"/>
     </row>
     <row r="450" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A450" s="10"/>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-      <c r="E450" s="2"/>
-      <c r="F450" s="2"/>
-      <c r="G450" s="2"/>
-      <c r="H450" s="8"/>
-      <c r="I450" s="11"/>
-      <c r="J450" s="2"/>
-      <c r="K450" s="2"/>
-      <c r="L450" s="2"/>
+      <c r="A450" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B450" s="41" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C450" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D450" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E450" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F450" s="48">
+        <v>52404</v>
+      </c>
+      <c r="G450" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H450" s="47">
+        <v>10</v>
+      </c>
+      <c r="I450" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J450" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K450" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L450" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M450" s="2"/>
       <c r="N450" s="2"/>
       <c r="O450" s="2"/>
@@ -26847,18 +27382,42 @@
       <c r="Z450" s="2"/>
     </row>
     <row r="451" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A451" s="10"/>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
-      <c r="E451" s="2"/>
-      <c r="F451" s="2"/>
-      <c r="G451" s="2"/>
-      <c r="H451" s="8"/>
-      <c r="I451" s="11"/>
-      <c r="J451" s="2"/>
-      <c r="K451" s="2"/>
-      <c r="L451" s="2"/>
+      <c r="A451" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B451" s="41" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C451" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D451" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E451" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F451" s="48">
+        <v>52411</v>
+      </c>
+      <c r="G451" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H451" s="47">
+        <v>10</v>
+      </c>
+      <c r="I451" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J451" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K451" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L451" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M451" s="2"/>
       <c r="N451" s="2"/>
       <c r="O451" s="2"/>
@@ -26875,18 +27434,42 @@
       <c r="Z451" s="2"/>
     </row>
     <row r="452" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A452" s="10"/>
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
-      <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
-      <c r="H452" s="8"/>
-      <c r="I452" s="11"/>
-      <c r="J452" s="2"/>
-      <c r="K452" s="2"/>
-      <c r="L452" s="2"/>
+      <c r="A452" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B452" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C452" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D452" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E452" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F452" s="48">
+        <v>52402</v>
+      </c>
+      <c r="G452" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H452" s="47">
+        <v>11</v>
+      </c>
+      <c r="I452" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J452" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K452" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L452" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M452" s="2"/>
       <c r="N452" s="2"/>
       <c r="O452" s="2"/>
@@ -26903,18 +27486,42 @@
       <c r="Z452" s="2"/>
     </row>
     <row r="453" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A453" s="10"/>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
-      <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
-      <c r="G453" s="2"/>
-      <c r="H453" s="8"/>
-      <c r="I453" s="11"/>
-      <c r="J453" s="2"/>
-      <c r="K453" s="2"/>
-      <c r="L453" s="2"/>
+      <c r="A453" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B453" s="41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C453" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D453" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E453" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F453" s="48">
+        <v>52732</v>
+      </c>
+      <c r="G453" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H453" s="47">
+        <v>7</v>
+      </c>
+      <c r="I453" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J453" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K453" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L453" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M453" s="2"/>
       <c r="N453" s="2"/>
       <c r="O453" s="2"/>
@@ -26931,18 +27538,42 @@
       <c r="Z453" s="2"/>
     </row>
     <row r="454" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A454" s="10"/>
-      <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
-      <c r="E454" s="2"/>
-      <c r="F454" s="2"/>
-      <c r="G454" s="2"/>
-      <c r="H454" s="8"/>
-      <c r="I454" s="11"/>
-      <c r="J454" s="2"/>
-      <c r="K454" s="2"/>
-      <c r="L454" s="2"/>
+      <c r="A454" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B454" s="41" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C454" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D454" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E454" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F454" s="48">
+        <v>52241</v>
+      </c>
+      <c r="G454" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H454" s="47">
+        <v>10</v>
+      </c>
+      <c r="I454" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J454" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K454" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L454" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M454" s="2"/>
       <c r="N454" s="2"/>
       <c r="O454" s="2"/>
@@ -26959,18 +27590,42 @@
       <c r="Z454" s="2"/>
     </row>
     <row r="455" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A455" s="10"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
-      <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-      <c r="H455" s="8"/>
-      <c r="I455" s="11"/>
-      <c r="J455" s="2"/>
-      <c r="K455" s="2"/>
-      <c r="L455" s="2"/>
+      <c r="A455" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B455" s="41" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C455" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D455" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E455" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F455" s="48">
+        <v>52806</v>
+      </c>
+      <c r="G455" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H455" s="47">
+        <v>8</v>
+      </c>
+      <c r="I455" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J455" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K455" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L455" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M455" s="2"/>
       <c r="N455" s="2"/>
       <c r="O455" s="2"/>
@@ -26987,18 +27642,42 @@
       <c r="Z455" s="2"/>
     </row>
     <row r="456" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A456" s="10"/>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-      <c r="H456" s="8"/>
-      <c r="I456" s="11"/>
-      <c r="J456" s="2"/>
-      <c r="K456" s="2"/>
-      <c r="L456" s="2"/>
+      <c r="A456" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B456" s="41" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C456" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D456" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E456" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F456" s="48">
+        <v>52807</v>
+      </c>
+      <c r="G456" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H456" s="47">
+        <v>9</v>
+      </c>
+      <c r="I456" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J456" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K456" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L456" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M456" s="2"/>
       <c r="N456" s="2"/>
       <c r="O456" s="2"/>
@@ -27015,18 +27694,42 @@
       <c r="Z456" s="2"/>
     </row>
     <row r="457" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A457" s="10"/>
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-      <c r="E457" s="2"/>
-      <c r="F457" s="2"/>
-      <c r="G457" s="2"/>
-      <c r="H457" s="8"/>
-      <c r="I457" s="11"/>
-      <c r="J457" s="2"/>
-      <c r="K457" s="2"/>
-      <c r="L457" s="2"/>
+      <c r="A457" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B457" s="41" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C457" s="41" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D457" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E457" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F457" s="48">
+        <v>52101</v>
+      </c>
+      <c r="G457" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H457" s="47">
+        <v>7</v>
+      </c>
+      <c r="I457" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J457" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K457" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L457" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M457" s="2"/>
       <c r="N457" s="2"/>
       <c r="O457" s="2"/>
@@ -27043,18 +27746,42 @@
       <c r="Z457" s="2"/>
     </row>
     <row r="458" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A458" s="10"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-      <c r="E458" s="2"/>
-      <c r="F458" s="2"/>
-      <c r="G458" s="2"/>
-      <c r="H458" s="8"/>
-      <c r="I458" s="11"/>
-      <c r="J458" s="2"/>
-      <c r="K458" s="2"/>
-      <c r="L458" s="2"/>
+      <c r="A458" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B458" s="41" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C458" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D458" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E458" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F458" s="48">
+        <v>52002</v>
+      </c>
+      <c r="G458" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H458" s="47">
+        <v>18</v>
+      </c>
+      <c r="I458" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J458" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K458" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L458" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M458" s="2"/>
       <c r="N458" s="2"/>
       <c r="O458" s="2"/>
@@ -27071,18 +27798,42 @@
       <c r="Z458" s="2"/>
     </row>
     <row r="459" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A459" s="10"/>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
-      <c r="H459" s="8"/>
-      <c r="I459" s="11"/>
-      <c r="J459" s="2"/>
-      <c r="K459" s="2"/>
-      <c r="L459" s="2"/>
+      <c r="A459" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B459" s="41" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C459" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D459" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E459" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F459" s="48">
+        <v>52246</v>
+      </c>
+      <c r="G459" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H459" s="47">
+        <v>8</v>
+      </c>
+      <c r="I459" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J459" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K459" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L459" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M459" s="2"/>
       <c r="N459" s="2"/>
       <c r="O459" s="2"/>
@@ -27099,18 +27850,42 @@
       <c r="Z459" s="2"/>
     </row>
     <row r="460" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A460" s="10"/>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
-      <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
-      <c r="H460" s="8"/>
-      <c r="I460" s="11"/>
-      <c r="J460" s="2"/>
-      <c r="K460" s="2"/>
-      <c r="L460" s="2"/>
+      <c r="A460" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B460" s="41" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C460" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="D460" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E460" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F460" s="48">
+        <v>52632</v>
+      </c>
+      <c r="G460" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H460" s="47">
+        <v>9</v>
+      </c>
+      <c r="I460" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J460" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K460" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L460" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M460" s="2"/>
       <c r="N460" s="2"/>
       <c r="O460" s="2"/>
@@ -27127,18 +27902,42 @@
       <c r="Z460" s="2"/>
     </row>
     <row r="461" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A461" s="10"/>
-      <c r="B461" s="2"/>
-      <c r="C461" s="2"/>
-      <c r="D461" s="2"/>
-      <c r="E461" s="2"/>
-      <c r="F461" s="2"/>
-      <c r="G461" s="2"/>
-      <c r="H461" s="8"/>
-      <c r="I461" s="11"/>
-      <c r="J461" s="2"/>
-      <c r="K461" s="2"/>
-      <c r="L461" s="2"/>
+      <c r="A461" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B461" s="41" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C461" s="41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D461" s="46" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E461" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F461" s="48">
+        <v>50138</v>
+      </c>
+      <c r="G461" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H461" s="47">
+        <v>6</v>
+      </c>
+      <c r="I461" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J461" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K461" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L461" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M461" s="2"/>
       <c r="N461" s="2"/>
       <c r="O461" s="2"/>
@@ -27155,18 +27954,42 @@
       <c r="Z461" s="2"/>
     </row>
     <row r="462" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A462" s="10"/>
-      <c r="B462" s="2"/>
-      <c r="C462" s="2"/>
-      <c r="D462" s="2"/>
-      <c r="E462" s="2"/>
-      <c r="F462" s="2"/>
-      <c r="G462" s="2"/>
-      <c r="H462" s="8"/>
-      <c r="I462" s="11"/>
-      <c r="J462" s="2"/>
-      <c r="K462" s="2"/>
-      <c r="L462" s="2"/>
+      <c r="A462" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B462" s="41" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C462" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D462" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E462" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F462" s="48">
+        <v>52057</v>
+      </c>
+      <c r="G462" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H462" s="47">
+        <v>6</v>
+      </c>
+      <c r="I462" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J462" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K462" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L462" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M462" s="2"/>
       <c r="N462" s="2"/>
       <c r="O462" s="2"/>
@@ -27183,18 +28006,42 @@
       <c r="Z462" s="2"/>
     </row>
     <row r="463" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A463" s="10"/>
-      <c r="B463" s="2"/>
-      <c r="C463" s="2"/>
-      <c r="D463" s="2"/>
-      <c r="E463" s="2"/>
-      <c r="F463" s="2"/>
-      <c r="G463" s="2"/>
-      <c r="H463" s="8"/>
-      <c r="I463" s="11"/>
-      <c r="J463" s="2"/>
-      <c r="K463" s="2"/>
-      <c r="L463" s="2"/>
+      <c r="A463" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B463" s="41" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C463" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="D463" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="E463" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F463" s="48">
+        <v>50158</v>
+      </c>
+      <c r="G463" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H463" s="47">
+        <v>7</v>
+      </c>
+      <c r="I463" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J463" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K463" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="L463" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M463" s="2"/>
       <c r="N463" s="2"/>
       <c r="O463" s="2"/>
@@ -27211,18 +28058,42 @@
       <c r="Z463" s="2"/>
     </row>
     <row r="464" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A464" s="10"/>
-      <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
-      <c r="E464" s="2"/>
-      <c r="F464" s="2"/>
-      <c r="G464" s="2"/>
-      <c r="H464" s="8"/>
-      <c r="I464" s="11"/>
-      <c r="J464" s="2"/>
-      <c r="K464" s="2"/>
-      <c r="L464" s="2"/>
+      <c r="A464" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B464" s="41" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C464" s="41" t="s">
+        <v>789</v>
+      </c>
+      <c r="D464" s="46" t="s">
+        <v>789</v>
+      </c>
+      <c r="E464" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F464" s="48">
+        <v>52761</v>
+      </c>
+      <c r="G464" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H464" s="47">
+        <v>8</v>
+      </c>
+      <c r="I464" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J464" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K464" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L464" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M464" s="2"/>
       <c r="N464" s="2"/>
       <c r="O464" s="2"/>
@@ -27239,18 +28110,42 @@
       <c r="Z464" s="2"/>
     </row>
     <row r="465" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A465" s="10"/>
-      <c r="B465" s="2"/>
-      <c r="C465" s="2"/>
-      <c r="D465" s="2"/>
-      <c r="E465" s="2"/>
-      <c r="F465" s="2"/>
-      <c r="G465" s="2"/>
-      <c r="H465" s="8"/>
-      <c r="I465" s="11"/>
-      <c r="J465" s="2"/>
-      <c r="K465" s="2"/>
-      <c r="L465" s="2"/>
+      <c r="A465" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B465" s="41" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C465" s="41" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D465" s="46" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E465" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F465" s="48">
+        <v>52501</v>
+      </c>
+      <c r="G465" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H465" s="47">
+        <v>15</v>
+      </c>
+      <c r="I465" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J465" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K465" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="L465" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M465" s="2"/>
       <c r="N465" s="2"/>
       <c r="O465" s="2"/>
@@ -27267,18 +28162,42 @@
       <c r="Z465" s="2"/>
     </row>
     <row r="466" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A466" s="10"/>
-      <c r="B466" s="2"/>
-      <c r="C466" s="2"/>
-      <c r="D466" s="2"/>
-      <c r="E466" s="2"/>
-      <c r="F466" s="2"/>
-      <c r="G466" s="2"/>
-      <c r="H466" s="8"/>
-      <c r="I466" s="11"/>
-      <c r="J466" s="2"/>
-      <c r="K466" s="2"/>
-      <c r="L466" s="2"/>
+      <c r="A466" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B466" s="41" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C466" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D466" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E466" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F466" s="48">
+        <v>50702</v>
+      </c>
+      <c r="G466" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H466" s="47">
+        <v>11</v>
+      </c>
+      <c r="I466" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J466" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K466" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L466" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M466" s="2"/>
       <c r="N466" s="2"/>
       <c r="O466" s="2"/>
@@ -27295,18 +28214,42 @@
       <c r="Z466" s="2"/>
     </row>
     <row r="467" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A467" s="10"/>
-      <c r="B467" s="2"/>
-      <c r="C467" s="2"/>
-      <c r="D467" s="2"/>
-      <c r="E467" s="2"/>
-      <c r="F467" s="2"/>
-      <c r="G467" s="2"/>
-      <c r="H467" s="8"/>
-      <c r="I467" s="11"/>
-      <c r="J467" s="2"/>
-      <c r="K467" s="2"/>
-      <c r="L467" s="2"/>
+      <c r="A467" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B467" s="41" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C467" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D467" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E467" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F467" s="48">
+        <v>52655</v>
+      </c>
+      <c r="G467" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H467" s="47">
+        <v>13</v>
+      </c>
+      <c r="I467" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J467" s="45">
+        <v>45810</v>
+      </c>
+      <c r="K467" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L467" s="42" t="s">
+        <v>614</v>
+      </c>
       <c r="M467" s="2"/>
       <c r="N467" s="2"/>
       <c r="O467" s="2"/>
@@ -34084,6 +35027,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34100,15 +35052,6 @@
     <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34347,11 +35290,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD54CEC-421F-4C50-9D55-7DCD274D70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2F4A6C-02B7-47D8-84D3-4FD07091A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1161">
   <si>
     <t>Company</t>
   </si>
@@ -3513,6 +3513,15 @@
   </si>
   <si>
     <t>116 W. Agency Rd., Ste. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Collins Rd NE </t>
+  </si>
+  <si>
+    <t>04/10/2025</t>
   </si>
 </sst>
 </file>
@@ -3523,7 +3532,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3589,6 +3598,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3610,7 +3625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3738,6 +3753,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3959,8 +3975,8 @@
   <dimension ref="A1:Z708"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M435" sqref="A435:XFD435"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L468" sqref="L468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -28266,18 +28282,42 @@
       <c r="Z467" s="2"/>
     </row>
     <row r="468" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A468" s="10"/>
-      <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
-      <c r="E468" s="2"/>
-      <c r="F468" s="2"/>
-      <c r="G468" s="2"/>
-      <c r="H468" s="8"/>
-      <c r="I468" s="11"/>
-      <c r="J468" s="2"/>
-      <c r="K468" s="2"/>
-      <c r="L468" s="2"/>
+      <c r="A468" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F468" s="2">
+        <v>52498</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H468" s="8">
+        <v>4</v>
+      </c>
+      <c r="I468" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J468" s="12">
+        <v>45792</v>
+      </c>
+      <c r="K468" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="L468" s="49" t="s">
+        <v>117</v>
+      </c>
       <c r="M468" s="2"/>
       <c r="N468" s="2"/>
       <c r="O468" s="2"/>
@@ -35027,15 +35067,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -35052,6 +35083,15 @@
     <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35290,11 +35330,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D647C5-4FFE-402C-8118-6F13049BEE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39190036-03B9-41B9-9582-2F11C73D265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1161">
   <si>
     <t>Company</t>
   </si>
@@ -3510,6 +3510,18 @@
   </si>
   <si>
     <t>4520 20th Ave SW</t>
+  </si>
+  <si>
+    <t>Michael's Cookies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2205 6th Ave S </t>
+  </si>
+  <si>
+    <t>Clear Lake</t>
+  </si>
+  <si>
+    <t>04/22/2025</t>
   </si>
 </sst>
 </file>
@@ -3957,8 +3969,8 @@
   <dimension ref="A1:Z705"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L470" sqref="L470"/>
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L468" sqref="L468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -28240,7 +28252,7 @@
         <v>1154</v>
       </c>
       <c r="J467" s="12">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="K467" s="2" t="s">
         <v>530</v>
@@ -28264,18 +28276,42 @@
       <c r="Z467" s="2"/>
     </row>
     <row r="468" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A468" s="10"/>
-      <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
-      <c r="E468" s="2"/>
-      <c r="F468" s="2"/>
-      <c r="G468" s="2"/>
-      <c r="H468" s="8"/>
-      <c r="I468" s="11"/>
-      <c r="J468" s="2"/>
-      <c r="K468" s="2"/>
-      <c r="L468" s="2"/>
+      <c r="A468" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F468" s="2">
+        <v>50428</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H468" s="8">
+        <v>29</v>
+      </c>
+      <c r="I468" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J468" s="12">
+        <v>45800</v>
+      </c>
+      <c r="K468" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="M468" s="2"/>
       <c r="N468" s="2"/>
       <c r="O468" s="2"/>
@@ -34941,6 +34977,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -35175,42 +35239,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb079858-90af-4c1d-b6f1-55332f11d181" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bb079858-90af-4c1d-b6f1-55332f11d181">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39190036-03B9-41B9-9582-2F11C73D265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55D8E44B-DA63-4C3F-88F3-0FDB754DD915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="1166">
   <si>
     <t>Company</t>
   </si>
@@ -3522,6 +3522,21 @@
   </si>
   <si>
     <t>04/22/2025</t>
+  </si>
+  <si>
+    <t>Main Street Manor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207 3rd St N </t>
+  </si>
+  <si>
+    <t>Swea City</t>
+  </si>
+  <si>
+    <t>Kossuth</t>
+  </si>
+  <si>
+    <t>04/18/2025</t>
   </si>
 </sst>
 </file>
@@ -3969,8 +3984,8 @@
   <dimension ref="A1:Z705"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L468" sqref="L468"/>
+      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L469" sqref="L469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -28328,18 +28343,42 @@
       <c r="Z468" s="2"/>
     </row>
     <row r="469" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A469" s="10"/>
-      <c r="B469" s="2"/>
-      <c r="C469" s="2"/>
-      <c r="D469" s="2"/>
-      <c r="E469" s="2"/>
-      <c r="F469" s="2"/>
-      <c r="G469" s="2"/>
-      <c r="H469" s="8"/>
-      <c r="I469" s="11"/>
-      <c r="J469" s="2"/>
-      <c r="K469" s="2"/>
-      <c r="L469" s="2"/>
+      <c r="A469" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F469" s="2">
+        <v>50590</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H469" s="8">
+        <v>13</v>
+      </c>
+      <c r="I469" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J469" s="12">
+        <v>45861</v>
+      </c>
+      <c r="K469" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="L469" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="M469" s="2"/>
       <c r="N469" s="2"/>
       <c r="O469" s="2"/>
@@ -34977,6 +35016,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -34993,15 +35041,6 @@
     <MediaLengthInSeconds xmlns="465031c5-3d91-457d-a71b-eb9b5941244d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35240,11 +35279,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28813"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55D8E44B-DA63-4C3F-88F3-0FDB754DD915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D0027C-A20A-4BB3-9997-597D046887FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="1172">
   <si>
     <t>Company</t>
   </si>
@@ -3374,9 +3374,6 @@
     <t>04/07/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">East Central </t>
-  </si>
-  <si>
     <t>5404 NW 96th St</t>
   </si>
   <si>
@@ -3537,6 +3534,27 @@
   </si>
   <si>
     <t>04/18/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hy-Vee Fresh Commissary </t>
+  </si>
+  <si>
+    <t>4150 SE Delaware Ave</t>
+  </si>
+  <si>
+    <t>04/24/2025</t>
+  </si>
+  <si>
+    <t>Hy-Vee Charition Short Cuts Facility</t>
+  </si>
+  <si>
+    <t>49290 215th Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chariton </t>
+  </si>
+  <si>
+    <t>Lucas</t>
   </si>
 </sst>
 </file>
@@ -3634,7 +3652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3744,9 +3762,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3762,7 +3777,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3984,8 +4001,8 @@
   <dimension ref="A1:Z705"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L469" sqref="L469"/>
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H484" sqref="H484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -26419,40 +26436,40 @@
       <c r="Z431" s="2"/>
     </row>
     <row r="432" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A432" s="40" t="s">
+      <c r="A432" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="B432" s="41" t="s">
+      <c r="B432" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="C432" s="41" t="s">
+      <c r="C432" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D432" s="42" t="s">
+      <c r="D432" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E432" s="42" t="s">
+      <c r="E432" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F432" s="42">
+      <c r="F432" s="2">
         <v>52404</v>
       </c>
-      <c r="G432" s="42" t="s">
+      <c r="G432" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H432" s="43">
+      <c r="H432" s="8">
         <v>183</v>
       </c>
-      <c r="I432" s="44" t="s">
+      <c r="I432" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="J432" s="45">
+      <c r="J432" s="12">
         <v>45810</v>
       </c>
-      <c r="K432" s="42" t="s">
-        <v>1111</v>
-      </c>
-      <c r="L432" s="42" t="s">
+      <c r="K432" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="L432" s="2" t="s">
         <v>605</v>
       </c>
       <c r="M432" s="2"/>
@@ -26475,33 +26492,33 @@
         <v>1108</v>
       </c>
       <c r="B433" s="41" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C433" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="D433" s="46" t="s">
+      <c r="D433" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="E433" s="46" t="s">
+      <c r="E433" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F433" s="46">
+      <c r="F433" s="45">
         <v>50131</v>
       </c>
       <c r="G433" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H433" s="47">
+      <c r="H433" s="46">
         <v>39</v>
       </c>
-      <c r="I433" s="44" t="s">
+      <c r="I433" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J433" s="45">
+      <c r="J433" s="44">
         <v>45810</v>
       </c>
-      <c r="K433" s="46" t="s">
+      <c r="K433" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L433" s="42" t="s">
@@ -26527,33 +26544,33 @@
         <v>1108</v>
       </c>
       <c r="B434" s="41" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C434" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="D434" s="46" t="s">
+      <c r="D434" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="E434" s="46" t="s">
+      <c r="E434" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F434" s="48">
+      <c r="F434" s="47">
         <v>50009</v>
       </c>
       <c r="G434" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H434" s="47">
+      <c r="H434" s="46">
         <v>8</v>
       </c>
-      <c r="I434" s="44" t="s">
+      <c r="I434" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J434" s="45">
+      <c r="J434" s="44">
         <v>45810</v>
       </c>
-      <c r="K434" s="46" t="s">
+      <c r="K434" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L434" s="42" t="s">
@@ -26579,33 +26596,33 @@
         <v>1108</v>
       </c>
       <c r="B435" s="41" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C435" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="D435" s="46" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E435" s="46" t="s">
+      <c r="D435" s="45" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E435" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F435" s="48">
+      <c r="F435" s="47">
         <v>50010</v>
       </c>
       <c r="G435" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H435" s="47">
+      <c r="H435" s="46">
         <v>9</v>
       </c>
-      <c r="I435" s="44" t="s">
+      <c r="I435" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J435" s="45">
+      <c r="J435" s="44">
         <v>45810</v>
       </c>
-      <c r="K435" s="46" t="s">
+      <c r="K435" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L435" s="42" t="s">
@@ -26631,33 +26648,33 @@
         <v>1108</v>
       </c>
       <c r="B436" s="41" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C436" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D436" s="46" t="s">
+      <c r="D436" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="E436" s="46" t="s">
+      <c r="E436" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F436" s="48">
+      <c r="F436" s="47">
         <v>50021</v>
       </c>
       <c r="G436" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H436" s="47">
+      <c r="H436" s="46">
         <v>7</v>
       </c>
-      <c r="I436" s="44" t="s">
+      <c r="I436" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J436" s="45">
+      <c r="J436" s="44">
         <v>45810</v>
       </c>
-      <c r="K436" s="46" t="s">
+      <c r="K436" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L436" s="42" t="s">
@@ -26683,33 +26700,33 @@
         <v>1108</v>
       </c>
       <c r="B437" s="41" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C437" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D437" s="46" t="s">
+      <c r="D437" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E437" s="46" t="s">
+      <c r="E437" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F437" s="48">
+      <c r="F437" s="47">
         <v>51501</v>
       </c>
       <c r="G437" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H437" s="47">
+      <c r="H437" s="46">
         <v>6</v>
       </c>
-      <c r="I437" s="44" t="s">
+      <c r="I437" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J437" s="45">
+      <c r="J437" s="44">
         <v>45810</v>
       </c>
-      <c r="K437" s="46" t="s">
+      <c r="K437" s="45" t="s">
         <v>745</v>
       </c>
       <c r="L437" s="42" t="s">
@@ -26735,33 +26752,33 @@
         <v>1108</v>
       </c>
       <c r="B438" s="41" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C438" s="41" t="s">
         <v>1118</v>
       </c>
-      <c r="C438" s="41" t="s">
+      <c r="D438" s="45" t="s">
         <v>1119</v>
       </c>
-      <c r="D438" s="46" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E438" s="46" t="s">
+      <c r="E438" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F438" s="48">
+      <c r="F438" s="47">
         <v>50801</v>
       </c>
       <c r="G438" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H438" s="47">
+      <c r="H438" s="46">
         <v>9</v>
       </c>
-      <c r="I438" s="44" t="s">
+      <c r="I438" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J438" s="45">
+      <c r="J438" s="44">
         <v>45810</v>
       </c>
-      <c r="K438" s="46" t="s">
+      <c r="K438" s="45" t="s">
         <v>745</v>
       </c>
       <c r="L438" s="42" t="s">
@@ -26787,33 +26804,33 @@
         <v>1108</v>
       </c>
       <c r="B439" s="41" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C439" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D439" s="46" t="s">
+      <c r="D439" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="E439" s="46" t="s">
+      <c r="E439" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F439" s="48">
+      <c r="F439" s="47">
         <v>50310</v>
       </c>
       <c r="G439" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H439" s="47">
+      <c r="H439" s="46">
         <v>11</v>
       </c>
-      <c r="I439" s="44" t="s">
+      <c r="I439" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J439" s="45">
+      <c r="J439" s="44">
         <v>45810</v>
       </c>
-      <c r="K439" s="46" t="s">
+      <c r="K439" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L439" s="42" t="s">
@@ -26839,33 +26856,33 @@
         <v>1108</v>
       </c>
       <c r="B440" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C440" s="41" t="s">
         <v>756</v>
       </c>
-      <c r="D440" s="46" t="s">
+      <c r="D440" s="45" t="s">
         <v>757</v>
       </c>
-      <c r="E440" s="46" t="s">
+      <c r="E440" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F440" s="48">
+      <c r="F440" s="47">
         <v>50501</v>
       </c>
       <c r="G440" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H440" s="47">
+      <c r="H440" s="46">
         <v>10</v>
       </c>
-      <c r="I440" s="44" t="s">
+      <c r="I440" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J440" s="45">
+      <c r="J440" s="44">
         <v>45810</v>
       </c>
-      <c r="K440" s="46" t="s">
+      <c r="K440" s="45" t="s">
         <v>745</v>
       </c>
       <c r="L440" s="42" t="s">
@@ -26891,33 +26908,33 @@
         <v>1108</v>
       </c>
       <c r="B441" s="41" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C441" s="41" t="s">
         <v>1123</v>
       </c>
-      <c r="C441" s="41" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D441" s="46" t="s">
+      <c r="D441" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="E441" s="46" t="s">
+      <c r="E441" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F441" s="48">
+      <c r="F441" s="47">
         <v>50125</v>
       </c>
       <c r="G441" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H441" s="47">
+      <c r="H441" s="46">
         <v>6</v>
       </c>
-      <c r="I441" s="44" t="s">
+      <c r="I441" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J441" s="45">
+      <c r="J441" s="44">
         <v>45810</v>
       </c>
-      <c r="K441" s="46" t="s">
+      <c r="K441" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L441" s="42" t="s">
@@ -26943,33 +26960,33 @@
         <v>1108</v>
       </c>
       <c r="B442" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C442" s="41" t="s">
         <v>728</v>
       </c>
-      <c r="D442" s="46" t="s">
+      <c r="D442" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="E442" s="46" t="s">
+      <c r="E442" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F442" s="48">
+      <c r="F442" s="47">
         <v>50401</v>
       </c>
       <c r="G442" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H442" s="47">
+      <c r="H442" s="46">
         <v>9</v>
       </c>
-      <c r="I442" s="44" t="s">
+      <c r="I442" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J442" s="45">
+      <c r="J442" s="44">
         <v>45810</v>
       </c>
-      <c r="K442" s="46" t="s">
+      <c r="K442" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L442" s="42" t="s">
@@ -26995,33 +27012,33 @@
         <v>1108</v>
       </c>
       <c r="B443" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C443" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="D443" s="46" t="s">
+      <c r="D443" s="45" t="s">
         <v>614</v>
       </c>
-      <c r="E443" s="46" t="s">
+      <c r="E443" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F443" s="48">
+      <c r="F443" s="47">
         <v>51106</v>
       </c>
       <c r="G443" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H443" s="47">
+      <c r="H443" s="46">
         <v>5</v>
       </c>
-      <c r="I443" s="44" t="s">
+      <c r="I443" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J443" s="45">
+      <c r="J443" s="44">
         <v>45810</v>
       </c>
-      <c r="K443" s="46" t="s">
+      <c r="K443" s="45" t="s">
         <v>745</v>
       </c>
       <c r="L443" s="42" t="s">
@@ -27047,33 +27064,33 @@
         <v>1108</v>
       </c>
       <c r="B444" s="41" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C444" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D444" s="46" t="s">
+      <c r="D444" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E444" s="46" t="s">
+      <c r="E444" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F444" s="48">
+      <c r="F444" s="47">
         <v>50266</v>
       </c>
       <c r="G444" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H444" s="47">
+      <c r="H444" s="46">
         <v>7</v>
       </c>
-      <c r="I444" s="44" t="s">
+      <c r="I444" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J444" s="45">
+      <c r="J444" s="44">
         <v>45810</v>
       </c>
-      <c r="K444" s="46" t="s">
+      <c r="K444" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L444" s="42" t="s">
@@ -27099,33 +27116,33 @@
         <v>1108</v>
       </c>
       <c r="B445" s="41" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C445" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D445" s="46" t="s">
+      <c r="D445" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E445" s="46" t="s">
+      <c r="E445" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F445" s="48">
+      <c r="F445" s="47">
         <v>50266</v>
       </c>
       <c r="G445" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H445" s="47">
+      <c r="H445" s="46">
         <v>7</v>
       </c>
-      <c r="I445" s="44" t="s">
+      <c r="I445" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J445" s="45">
+      <c r="J445" s="44">
         <v>45810</v>
       </c>
-      <c r="K445" s="46" t="s">
+      <c r="K445" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L445" s="42" t="s">
@@ -27151,33 +27168,33 @@
         <v>1108</v>
       </c>
       <c r="B446" s="41" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C446" s="41" t="s">
         <v>1129</v>
       </c>
-      <c r="C446" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D446" s="46" t="s">
+      <c r="D446" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E446" s="46" t="s">
+      <c r="E446" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F446" s="48">
+      <c r="F446" s="47">
         <v>50613</v>
       </c>
       <c r="G446" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H446" s="47">
+      <c r="H446" s="46">
         <v>8</v>
       </c>
-      <c r="I446" s="44" t="s">
+      <c r="I446" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J446" s="45">
+      <c r="J446" s="44">
         <v>45810</v>
       </c>
-      <c r="K446" s="46" t="s">
+      <c r="K446" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L446" s="42" t="s">
@@ -27199,40 +27216,40 @@
       <c r="Z446" s="2"/>
     </row>
     <row r="447" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A447" s="40" t="s">
+      <c r="A447" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="B447" s="41" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C447" s="41" t="s">
+      <c r="B447" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D447" s="46" t="s">
+      <c r="D447" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E447" s="46" t="s">
+      <c r="E447" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F447" s="48">
         <v>52404</v>
       </c>
-      <c r="G447" s="42" t="s">
+      <c r="G447" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H447" s="47">
+      <c r="H447" s="37">
         <v>10</v>
       </c>
-      <c r="I447" s="44" t="s">
+      <c r="I447" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="J447" s="45">
+      <c r="J447" s="12">
         <v>45810</v>
       </c>
-      <c r="K447" s="46" t="s">
+      <c r="K447" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L447" s="42" t="s">
+      <c r="L447" s="2" t="s">
         <v>605</v>
       </c>
       <c r="M447" s="2"/>
@@ -27251,40 +27268,40 @@
       <c r="Z447" s="2"/>
     </row>
     <row r="448" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A448" s="40" t="s">
+      <c r="A448" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="B448" s="41" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C448" s="41" t="s">
+      <c r="B448" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D448" s="46" t="s">
+      <c r="D448" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E448" s="46" t="s">
+      <c r="E448" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F448" s="48">
         <v>52411</v>
       </c>
-      <c r="G448" s="42" t="s">
+      <c r="G448" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H448" s="47">
+      <c r="H448" s="37">
         <v>10</v>
       </c>
-      <c r="I448" s="44" t="s">
+      <c r="I448" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="J448" s="45">
+      <c r="J448" s="12">
         <v>45810</v>
       </c>
-      <c r="K448" s="46" t="s">
+      <c r="K448" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L448" s="42" t="s">
+      <c r="L448" s="2" t="s">
         <v>605</v>
       </c>
       <c r="M448" s="2"/>
@@ -27303,40 +27320,40 @@
       <c r="Z448" s="2"/>
     </row>
     <row r="449" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A449" s="40" t="s">
+      <c r="A449" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="B449" s="41" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C449" s="41" t="s">
+      <c r="B449" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D449" s="46" t="s">
+      <c r="D449" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E449" s="46" t="s">
+      <c r="E449" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F449" s="48">
         <v>52402</v>
       </c>
-      <c r="G449" s="42" t="s">
+      <c r="G449" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H449" s="47">
+      <c r="H449" s="37">
         <v>11</v>
       </c>
-      <c r="I449" s="44" t="s">
+      <c r="I449" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="J449" s="45">
+      <c r="J449" s="12">
         <v>45810</v>
       </c>
-      <c r="K449" s="46" t="s">
+      <c r="K449" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L449" s="42" t="s">
+      <c r="L449" s="2" t="s">
         <v>605</v>
       </c>
       <c r="M449" s="2"/>
@@ -27359,33 +27376,33 @@
         <v>1108</v>
       </c>
       <c r="B450" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C450" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D450" s="46" t="s">
+      <c r="D450" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E450" s="46" t="s">
+      <c r="E450" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F450" s="48">
+      <c r="F450" s="47">
         <v>52732</v>
       </c>
       <c r="G450" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H450" s="47">
+      <c r="H450" s="46">
         <v>7</v>
       </c>
-      <c r="I450" s="44" t="s">
+      <c r="I450" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J450" s="45">
+      <c r="J450" s="44">
         <v>45810</v>
       </c>
-      <c r="K450" s="46" t="s">
+      <c r="K450" s="45" t="s">
         <v>18</v>
       </c>
       <c r="L450" s="42" t="s">
@@ -27407,40 +27424,40 @@
       <c r="Z450" s="2"/>
     </row>
     <row r="451" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A451" s="40" t="s">
+      <c r="A451" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="B451" s="41" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C451" s="41" t="s">
+      <c r="B451" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C451" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D451" s="46" t="s">
+      <c r="D451" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E451" s="46" t="s">
+      <c r="E451" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F451" s="48">
         <v>52241</v>
       </c>
-      <c r="G451" s="42" t="s">
+      <c r="G451" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H451" s="47">
+      <c r="H451" s="37">
         <v>10</v>
       </c>
-      <c r="I451" s="44" t="s">
+      <c r="I451" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="J451" s="45">
+      <c r="J451" s="12">
         <v>45810</v>
       </c>
-      <c r="K451" s="46" t="s">
+      <c r="K451" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L451" s="42" t="s">
+      <c r="L451" s="2" t="s">
         <v>605</v>
       </c>
       <c r="M451" s="2"/>
@@ -27463,33 +27480,33 @@
         <v>1108</v>
       </c>
       <c r="B452" s="41" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C452" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D452" s="46" t="s">
+      <c r="D452" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E452" s="46" t="s">
+      <c r="E452" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F452" s="48">
+      <c r="F452" s="47">
         <v>52806</v>
       </c>
       <c r="G452" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H452" s="47">
+      <c r="H452" s="46">
         <v>8</v>
       </c>
-      <c r="I452" s="44" t="s">
+      <c r="I452" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J452" s="45">
+      <c r="J452" s="44">
         <v>45810</v>
       </c>
-      <c r="K452" s="46" t="s">
+      <c r="K452" s="45" t="s">
         <v>18</v>
       </c>
       <c r="L452" s="42" t="s">
@@ -27515,33 +27532,33 @@
         <v>1108</v>
       </c>
       <c r="B453" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C453" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D453" s="46" t="s">
+      <c r="D453" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E453" s="46" t="s">
+      <c r="E453" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F453" s="48">
+      <c r="F453" s="47">
         <v>52807</v>
       </c>
       <c r="G453" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H453" s="47">
+      <c r="H453" s="46">
         <v>9</v>
       </c>
-      <c r="I453" s="44" t="s">
+      <c r="I453" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J453" s="45">
+      <c r="J453" s="44">
         <v>45810</v>
       </c>
-      <c r="K453" s="46" t="s">
+      <c r="K453" s="45" t="s">
         <v>18</v>
       </c>
       <c r="L453" s="42" t="s">
@@ -27567,33 +27584,33 @@
         <v>1108</v>
       </c>
       <c r="B454" s="41" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C454" s="41" t="s">
         <v>1096</v>
       </c>
-      <c r="D454" s="46" t="s">
+      <c r="D454" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="E454" s="46" t="s">
+      <c r="E454" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F454" s="48">
+      <c r="F454" s="47">
         <v>52101</v>
       </c>
       <c r="G454" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H454" s="47">
+      <c r="H454" s="46">
         <v>7</v>
       </c>
-      <c r="I454" s="44" t="s">
+      <c r="I454" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J454" s="45">
+      <c r="J454" s="44">
         <v>45810</v>
       </c>
-      <c r="K454" s="46" t="s">
+      <c r="K454" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L454" s="42" t="s">
@@ -27619,33 +27636,33 @@
         <v>1108</v>
       </c>
       <c r="B455" s="41" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C455" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D455" s="46" t="s">
+      <c r="D455" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E455" s="46" t="s">
+      <c r="E455" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F455" s="48">
+      <c r="F455" s="47">
         <v>52002</v>
       </c>
       <c r="G455" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H455" s="47">
+      <c r="H455" s="46">
         <v>18</v>
       </c>
-      <c r="I455" s="44" t="s">
+      <c r="I455" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J455" s="45">
+      <c r="J455" s="44">
         <v>45810</v>
       </c>
-      <c r="K455" s="46" t="s">
+      <c r="K455" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L455" s="42" t="s">
@@ -27667,40 +27684,40 @@
       <c r="Z455" s="2"/>
     </row>
     <row r="456" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A456" s="40" t="s">
+      <c r="A456" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="B456" s="41" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C456" s="41" t="s">
+      <c r="B456" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C456" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D456" s="46" t="s">
+      <c r="D456" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E456" s="46" t="s">
+      <c r="E456" s="34" t="s">
         <v>142</v>
       </c>
       <c r="F456" s="48">
         <v>52246</v>
       </c>
-      <c r="G456" s="42" t="s">
+      <c r="G456" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H456" s="47">
+      <c r="H456" s="37">
         <v>8</v>
       </c>
-      <c r="I456" s="44" t="s">
+      <c r="I456" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="J456" s="45">
+      <c r="J456" s="12">
         <v>45810</v>
       </c>
-      <c r="K456" s="46" t="s">
+      <c r="K456" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L456" s="42" t="s">
+      <c r="L456" s="2" t="s">
         <v>605</v>
       </c>
       <c r="M456" s="2"/>
@@ -27723,33 +27740,33 @@
         <v>1108</v>
       </c>
       <c r="B457" s="41" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C457" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="D457" s="46" t="s">
+      <c r="D457" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="E457" s="46" t="s">
+      <c r="E457" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F457" s="48">
+      <c r="F457" s="47">
         <v>52632</v>
       </c>
       <c r="G457" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H457" s="47">
+      <c r="H457" s="46">
         <v>9</v>
       </c>
-      <c r="I457" s="44" t="s">
+      <c r="I457" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J457" s="45">
+      <c r="J457" s="44">
         <v>45810</v>
       </c>
-      <c r="K457" s="46" t="s">
+      <c r="K457" s="45" t="s">
         <v>18</v>
       </c>
       <c r="L457" s="42" t="s">
@@ -27775,33 +27792,33 @@
         <v>1108</v>
       </c>
       <c r="B458" s="41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C458" s="41" t="s">
         <v>1142</v>
       </c>
-      <c r="C458" s="41" t="s">
+      <c r="D458" s="45" t="s">
         <v>1143</v>
       </c>
-      <c r="D458" s="46" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E458" s="46" t="s">
+      <c r="E458" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F458" s="48">
+      <c r="F458" s="47">
         <v>50138</v>
       </c>
       <c r="G458" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H458" s="47">
+      <c r="H458" s="46">
         <v>6</v>
       </c>
-      <c r="I458" s="44" t="s">
+      <c r="I458" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J458" s="45">
+      <c r="J458" s="44">
         <v>45810</v>
       </c>
-      <c r="K458" s="46" t="s">
+      <c r="K458" s="45" t="s">
         <v>32</v>
       </c>
       <c r="L458" s="42" t="s">
@@ -27827,33 +27844,33 @@
         <v>1108</v>
       </c>
       <c r="B459" s="41" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C459" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D459" s="46" t="s">
+      <c r="D459" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E459" s="46" t="s">
+      <c r="E459" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F459" s="48">
+      <c r="F459" s="47">
         <v>52057</v>
       </c>
       <c r="G459" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H459" s="47">
+      <c r="H459" s="46">
         <v>6</v>
       </c>
-      <c r="I459" s="44" t="s">
+      <c r="I459" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J459" s="45">
+      <c r="J459" s="44">
         <v>45810</v>
       </c>
-      <c r="K459" s="46" t="s">
+      <c r="K459" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L459" s="42" t="s">
@@ -27879,33 +27896,33 @@
         <v>1108</v>
       </c>
       <c r="B460" s="41" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C460" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="D460" s="46" t="s">
+      <c r="D460" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="E460" s="46" t="s">
+      <c r="E460" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F460" s="48">
+      <c r="F460" s="47">
         <v>50158</v>
       </c>
       <c r="G460" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H460" s="47">
+      <c r="H460" s="46">
         <v>7</v>
       </c>
-      <c r="I460" s="44" t="s">
+      <c r="I460" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J460" s="45">
+      <c r="J460" s="44">
         <v>45810</v>
       </c>
-      <c r="K460" s="46" t="s">
+      <c r="K460" s="45" t="s">
         <v>456</v>
       </c>
       <c r="L460" s="42" t="s">
@@ -27931,33 +27948,33 @@
         <v>1108</v>
       </c>
       <c r="B461" s="41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C461" s="41" t="s">
         <v>780</v>
       </c>
-      <c r="D461" s="46" t="s">
+      <c r="D461" s="45" t="s">
         <v>780</v>
       </c>
-      <c r="E461" s="46" t="s">
+      <c r="E461" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F461" s="48">
+      <c r="F461" s="47">
         <v>52761</v>
       </c>
       <c r="G461" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H461" s="47">
+      <c r="H461" s="46">
         <v>8</v>
       </c>
-      <c r="I461" s="44" t="s">
+      <c r="I461" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J461" s="45">
+      <c r="J461" s="44">
         <v>45810</v>
       </c>
-      <c r="K461" s="46" t="s">
+      <c r="K461" s="45" t="s">
         <v>18</v>
       </c>
       <c r="L461" s="42" t="s">
@@ -27983,33 +28000,33 @@
         <v>1108</v>
       </c>
       <c r="B462" s="41" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C462" s="41" t="s">
         <v>1048</v>
       </c>
-      <c r="D462" s="46" t="s">
+      <c r="D462" s="45" t="s">
         <v>1044</v>
       </c>
-      <c r="E462" s="46" t="s">
+      <c r="E462" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F462" s="48">
+      <c r="F462" s="47">
         <v>52501</v>
       </c>
       <c r="G462" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H462" s="47">
+      <c r="H462" s="46">
         <v>15</v>
       </c>
-      <c r="I462" s="44" t="s">
+      <c r="I462" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J462" s="45">
+      <c r="J462" s="44">
         <v>45810</v>
       </c>
-      <c r="K462" s="46" t="s">
+      <c r="K462" s="45" t="s">
         <v>456</v>
       </c>
       <c r="L462" s="42" t="s">
@@ -28035,33 +28052,33 @@
         <v>1108</v>
       </c>
       <c r="B463" s="41" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C463" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D463" s="46" t="s">
+      <c r="D463" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E463" s="46" t="s">
+      <c r="E463" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F463" s="48">
+      <c r="F463" s="47">
         <v>50702</v>
       </c>
       <c r="G463" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H463" s="47">
+      <c r="H463" s="46">
         <v>11</v>
       </c>
-      <c r="I463" s="44" t="s">
+      <c r="I463" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J463" s="45">
+      <c r="J463" s="44">
         <v>45810</v>
       </c>
-      <c r="K463" s="46" t="s">
+      <c r="K463" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L463" s="42" t="s">
@@ -28087,33 +28104,33 @@
         <v>1108</v>
       </c>
       <c r="B464" s="41" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C464" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="D464" s="46" t="s">
+      <c r="D464" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E464" s="46" t="s">
+      <c r="E464" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F464" s="48">
+      <c r="F464" s="47">
         <v>52655</v>
       </c>
       <c r="G464" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H464" s="47">
+      <c r="H464" s="46">
         <v>13</v>
       </c>
-      <c r="I464" s="44" t="s">
+      <c r="I464" s="43" t="s">
         <v>1110</v>
       </c>
-      <c r="J464" s="45">
+      <c r="J464" s="44">
         <v>45810</v>
       </c>
-      <c r="K464" s="46" t="s">
+      <c r="K464" s="45" t="s">
         <v>18</v>
       </c>
       <c r="L464" s="42" t="s">
@@ -28136,10 +28153,10 @@
     </row>
     <row r="465" spans="1:26" ht="14.25" customHeight="1">
       <c r="A465" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>1151</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>1152</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>64</v>
@@ -28160,7 +28177,7 @@
         <v>4</v>
       </c>
       <c r="I465" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J465" s="12">
         <v>45792</v>
@@ -28168,7 +28185,7 @@
       <c r="K465" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="L465" s="49" t="s">
+      <c r="L465" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M465" s="2"/>
@@ -28212,7 +28229,7 @@
         <v>46</v>
       </c>
       <c r="I466" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J466" s="12">
         <v>45823</v>
@@ -28240,10 +28257,10 @@
     </row>
     <row r="467" spans="1:26" ht="14.25" customHeight="1">
       <c r="A467" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B467" s="2" t="s">
         <v>1155</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>1156</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>64</v>
@@ -28264,7 +28281,7 @@
         <v>32</v>
       </c>
       <c r="I467" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J467" s="12">
         <v>45793</v>
@@ -28292,13 +28309,13 @@
     </row>
     <row r="468" spans="1:26" ht="14.25" customHeight="1">
       <c r="A468" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="C468" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>713</v>
@@ -28316,7 +28333,7 @@
         <v>29</v>
       </c>
       <c r="I468" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J468" s="12">
         <v>45800</v>
@@ -28344,16 +28361,16 @@
     </row>
     <row r="469" spans="1:26" ht="14.25" customHeight="1">
       <c r="A469" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B469" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="C469" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="C469" s="2" t="s">
+      <c r="D469" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1164</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>15</v>
@@ -28368,7 +28385,7 @@
         <v>13</v>
       </c>
       <c r="I469" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J469" s="12">
         <v>45861</v>
@@ -28395,18 +28412,42 @@
       <c r="Z469" s="2"/>
     </row>
     <row r="470" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A470" s="10"/>
-      <c r="B470" s="2"/>
-      <c r="C470" s="2"/>
-      <c r="D470" s="2"/>
-      <c r="E470" s="2"/>
-      <c r="F470" s="2"/>
-      <c r="G470" s="2"/>
-      <c r="H470" s="8"/>
-      <c r="I470" s="11"/>
-      <c r="J470" s="2"/>
-      <c r="K470" s="2"/>
-      <c r="L470" s="2"/>
+      <c r="A470" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F470" s="2">
+        <v>50021</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H470" s="8">
+        <v>332</v>
+      </c>
+      <c r="I470" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J470" s="12">
+        <v>45832</v>
+      </c>
+      <c r="K470" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="L470" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M470" s="2"/>
       <c r="N470" s="2"/>
       <c r="O470" s="2"/>
@@ -28423,18 +28464,42 @@
       <c r="Z470" s="2"/>
     </row>
     <row r="471" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A471" s="10"/>
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
-      <c r="D471" s="2"/>
-      <c r="E471" s="2"/>
-      <c r="F471" s="2"/>
-      <c r="G471" s="2"/>
-      <c r="H471" s="8"/>
-      <c r="I471" s="11"/>
-      <c r="J471" s="2"/>
-      <c r="K471" s="2"/>
-      <c r="L471" s="2"/>
+      <c r="A471" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F471" s="2">
+        <v>50049</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H471" s="8">
+        <v>129</v>
+      </c>
+      <c r="I471" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J471" s="12">
+        <v>45832</v>
+      </c>
+      <c r="K471" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="L471" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="M471" s="2"/>
       <c r="N471" s="2"/>
       <c r="O471" s="2"/>
@@ -35003,6 +35068,7 @@
       <c r="Z705" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z469" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1">
     <sortCondition ref="A1"/>
   </sortState>

--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16FBA16-1CAE-4925-81F7-F9F5B6450C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C00F7B3-D662-4CE0-9945-BE468183B266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="1180">
   <si>
     <t>Company</t>
   </si>
@@ -3567,6 +3567,18 @@
   </si>
   <si>
     <t>04/29/2025</t>
+  </si>
+  <si>
+    <t>Forte Openings Solutions</t>
+  </si>
+  <si>
+    <t>2510 19th St SW</t>
+  </si>
+  <si>
+    <t>05/01/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600 12th st NE </t>
   </si>
 </sst>
 </file>
@@ -3577,7 +3589,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3643,6 +3655,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3664,7 +3682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3792,6 +3810,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4013,8 +4032,8 @@
   <dimension ref="A1:Z704"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K472" sqref="K472"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -28475,7 +28494,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="30.75" customHeight="1">
+    <row r="471" spans="1:26" ht="27" customHeight="1">
       <c r="A471" s="10" t="s">
         <v>1169</v>
       </c>
@@ -28580,18 +28599,42 @@
       <c r="Z472" s="2"/>
     </row>
     <row r="473" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A473" s="10"/>
-      <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
-      <c r="E473" s="2"/>
-      <c r="F473" s="2"/>
-      <c r="G473" s="2"/>
-      <c r="H473" s="8"/>
-      <c r="I473" s="11"/>
-      <c r="J473" s="2"/>
-      <c r="K473" s="2"/>
-      <c r="L473" s="2"/>
+      <c r="A473" s="49" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F473" s="2">
+        <v>50401</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H473" s="8">
+        <v>47</v>
+      </c>
+      <c r="I473" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J473" s="12">
+        <v>45838</v>
+      </c>
+      <c r="K473" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="M473" s="2"/>
       <c r="N473" s="2"/>
       <c r="O473" s="2"/>
@@ -28608,18 +28651,42 @@
       <c r="Z473" s="2"/>
     </row>
     <row r="474" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A474" s="10"/>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
-      <c r="E474" s="2"/>
-      <c r="F474" s="2"/>
-      <c r="G474" s="2"/>
-      <c r="H474" s="8"/>
-      <c r="I474" s="11"/>
-      <c r="J474" s="2"/>
-      <c r="K474" s="2"/>
-      <c r="L474" s="2"/>
+      <c r="A474" s="49" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F474" s="2">
+        <v>50401</v>
+      </c>
+      <c r="G474" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H474" s="8">
+        <v>46</v>
+      </c>
+      <c r="I474" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J474" s="12">
+        <v>45838</v>
+      </c>
+      <c r="K474" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="M474" s="2"/>
       <c r="N474" s="2"/>
       <c r="O474" s="2"/>
@@ -35324,6 +35391,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="465031c5-3d91-457d-a71b-eb9b5941244d">
@@ -35342,23 +35418,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AFA8BE-F145-4E1E-832B-32737487B2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFAC691-F73F-4D09-9C3F-986C2759204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="1173">
   <si>
     <t>Company</t>
   </si>
@@ -4012,8 +4012,8 @@
   <dimension ref="A1:Z700"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L471" sqref="L471"/>
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K472" sqref="K472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -28527,18 +28527,42 @@
       <c r="Z471" s="2"/>
     </row>
     <row r="472" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A472" s="10"/>
-      <c r="B472" s="2"/>
-      <c r="C472" s="2"/>
-      <c r="D472" s="2"/>
-      <c r="E472" s="2"/>
-      <c r="F472" s="2"/>
-      <c r="G472" s="2"/>
-      <c r="H472" s="8"/>
-      <c r="I472" s="11"/>
-      <c r="J472" s="2"/>
-      <c r="K472" s="2"/>
-      <c r="L472" s="2"/>
+      <c r="A472" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F472" s="2">
+        <v>50266</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="H472" s="8">
+        <v>24</v>
+      </c>
+      <c r="I472" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J472" s="12">
+        <v>45852</v>
+      </c>
+      <c r="K472" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L472" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="M472" s="2"/>
       <c r="N472" s="2"/>
       <c r="O472" s="2"/>
@@ -35536,6 +35560,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FFDA55EC64F6340997887DF003F4858" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c6c1947cc86895288774afbcfb6ac6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb079858-90af-4c1d-b6f1-55332f11d181" xmlns:ns3="465031c5-3d91-457d-a71b-eb9b5941244d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179b05da5102a0c6ba95d7d28b941847" ns2:_="" ns3:_="">
     <xsd:import namespace="bb079858-90af-4c1d-b6f1-55332f11d181"/>
@@ -35770,23 +35803,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D66E9BA-12AB-4417-9A6A-6113397F4F5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40177C-67A3-4DD8-A168-9BC85606FD5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACF8296-C1B4-4B40-9D6C-74912BB77C78}"/>
 </file>
--- a/data/warn-scraper/cache/ia/source.xlsx
+++ b/data/warn-scraper/cache/ia/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgreenman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BFDAEA-3F90-4D34-A720-78DBC0B03C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CDA8E26-D4A8-44DD-B3F4-D9588F358BC0}" xr6:coau